--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28926"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2D6EC1F-5C36-4940-89EA-FF077C2E2D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6601C03D-760C-46B6-B57E-5F7854613AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4269" uniqueCount="1419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4270" uniqueCount="1419">
   <si>
     <t>VJDBv0.3</t>
   </si>
@@ -5318,8 +5318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E033465-2455-477E-A700-6BF7A0771C26}">
   <dimension ref="A1:FY187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY1" sqref="AY1:AY1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
@@ -23907,6 +23907,9 @@
 ) &amp; "]"</f>
         <v>[]</v>
       </c>
+      <c r="W182" s="49" t="s">
+        <v>580</v>
+      </c>
       <c r="AW182" s="49" t="s">
         <v>1201</v>
       </c>
@@ -24056,7 +24059,7 @@
       <c r="D187" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="49" t="s">
         <v>58</v>
       </c>
       <c r="V187" s="44" t="str">

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6601C03D-760C-46B6-B57E-5F7854613AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC02D131-497C-4D23-A40A-CB1EE41C9E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -1215,7 +1215,7 @@
     <t>Assembly Type</t>
   </si>
   <si>
-    <t>‘clone or isolate’</t>
+    <t>clone or isolate</t>
   </si>
   <si>
     <t>for submission this is always "clone or isolate"</t>
@@ -5318,8 +5318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E033465-2455-477E-A700-6BF7A0771C26}">
   <dimension ref="A1:FY187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
@@ -6043,7 +6043,7 @@
       <c r="B5" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="45" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="44" t="s">
@@ -6145,7 +6145,7 @@
       <c r="B6" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="45" t="s">
         <v>73</v>
       </c>
       <c r="D6" s="44" t="s">
@@ -6253,7 +6253,7 @@
       <c r="B7" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="45" t="s">
         <v>84</v>
       </c>
       <c r="D7" s="44" t="s">
@@ -6363,7 +6363,7 @@
       <c r="B8" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="45" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="44" t="s">
@@ -6477,7 +6477,7 @@
       <c r="B9" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="45" t="s">
         <v>108</v>
       </c>
       <c r="D9" s="44" t="s">
@@ -6610,7 +6610,7 @@
       <c r="B10" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="45" t="s">
         <v>126</v>
       </c>
       <c r="D10" s="44" t="s">
@@ -6738,7 +6738,7 @@
       <c r="B11" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="45" t="s">
         <v>142</v>
       </c>
       <c r="D11" s="44" t="s">
@@ -6832,7 +6832,7 @@
       <c r="B12" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="45" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="44" t="s">
@@ -6922,7 +6922,7 @@
       <c r="B13" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="45" t="s">
         <v>158</v>
       </c>
       <c r="D13" s="44" t="s">
@@ -7024,7 +7024,7 @@
       <c r="B14" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="45" t="s">
         <v>167</v>
       </c>
       <c r="D14" s="44" t="s">
@@ -7126,7 +7126,7 @@
       <c r="B15" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="45" t="s">
         <v>176</v>
       </c>
       <c r="D15" s="44" t="s">
@@ -7245,7 +7245,7 @@
       <c r="B16" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="45" t="s">
         <v>184</v>
       </c>
       <c r="D16" s="44" t="s">
@@ -7367,7 +7367,7 @@
       <c r="B17" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="45" t="s">
         <v>195</v>
       </c>
       <c r="D17" s="44" t="s">
@@ -7476,7 +7476,7 @@
       <c r="B18" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="45" t="s">
         <v>207</v>
       </c>
       <c r="D18" s="44" t="s">
@@ -7581,7 +7581,7 @@
       <c r="B19" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="45" t="s">
         <v>217</v>
       </c>
       <c r="D19" s="44" t="s">
@@ -7677,7 +7677,7 @@
       <c r="B20" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="45" t="s">
         <v>224</v>
       </c>
       <c r="D20" s="44" t="s">
@@ -7755,7 +7755,7 @@
       <c r="B21" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="45" t="s">
         <v>229</v>
       </c>
       <c r="D21" s="44" t="s">
@@ -7852,7 +7852,7 @@
       <c r="B22" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="45" t="s">
         <v>235</v>
       </c>
       <c r="D22" s="44" t="s">
@@ -7952,7 +7952,7 @@
       <c r="B23" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="45" t="s">
         <v>245</v>
       </c>
       <c r="D23" s="44" t="s">
@@ -8050,7 +8050,7 @@
       <c r="B24" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="45" t="s">
         <v>253</v>
       </c>
       <c r="D24" s="44" t="s">
@@ -8148,7 +8148,7 @@
       <c r="B25" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="45" t="s">
         <v>260</v>
       </c>
       <c r="D25" s="44" t="s">
@@ -8252,7 +8252,7 @@
       <c r="B26" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="45" t="s">
         <v>267</v>
       </c>
       <c r="D26" s="44" t="s">
@@ -8350,7 +8350,7 @@
       <c r="B27" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="45" t="s">
         <v>273</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -8475,7 +8475,7 @@
       <c r="B28" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="45" t="s">
         <v>288</v>
       </c>
       <c r="D28" s="44" t="s">
@@ -8574,7 +8574,7 @@
       <c r="B29" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="45" t="s">
         <v>297</v>
       </c>
       <c r="D29" s="44" t="s">
@@ -8668,7 +8668,7 @@
       <c r="B30" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="45" t="s">
         <v>303</v>
       </c>
       <c r="D30" s="44" t="s">
@@ -8771,7 +8771,7 @@
       <c r="B31" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="45" t="s">
         <v>311</v>
       </c>
       <c r="D31" s="44" t="s">
@@ -8869,7 +8869,7 @@
       <c r="B32" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="45" t="s">
         <v>316</v>
       </c>
       <c r="D32" s="44" t="s">
@@ -8983,7 +8983,7 @@
       <c r="B33" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="45" t="s">
         <v>328</v>
       </c>
       <c r="D33" s="44" t="s">
@@ -9084,7 +9084,7 @@
       <c r="B34" s="45" t="s">
         <v>332</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="45" t="s">
         <v>333</v>
       </c>
       <c r="D34" s="44" t="s">
@@ -9186,7 +9186,7 @@
       <c r="B35" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="45" t="s">
         <v>342</v>
       </c>
       <c r="D35" s="44" t="s">
@@ -9297,7 +9297,7 @@
       <c r="B36" s="45" t="s">
         <v>349</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="45" t="s">
         <v>350</v>
       </c>
       <c r="D36" s="44" t="s">
@@ -9407,7 +9407,7 @@
       <c r="B37" s="45" t="s">
         <v>355</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="45" t="s">
         <v>356</v>
       </c>
       <c r="D37" s="44" t="s">
@@ -9517,7 +9517,7 @@
       <c r="B38" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="45" t="s">
         <v>365</v>
       </c>
       <c r="D38" s="44" t="s">
@@ -9627,7 +9627,7 @@
       <c r="B39" s="45" t="s">
         <v>370</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="45" t="s">
         <v>371</v>
       </c>
       <c r="D39" s="44" t="s">
@@ -9720,7 +9720,7 @@
       <c r="B40" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="45" t="s">
         <v>378</v>
       </c>
       <c r="D40" s="44" t="s">
@@ -9835,7 +9835,7 @@
       <c r="B41" s="45" t="s">
         <v>385</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="45" t="s">
         <v>386</v>
       </c>
       <c r="D41" s="44" t="s">
@@ -9943,7 +9943,7 @@
       <c r="B42" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="45" t="s">
         <v>392</v>
       </c>
       <c r="D42" s="44" t="s">
@@ -10051,7 +10051,7 @@
       <c r="B43" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="45" t="s">
         <v>399</v>
       </c>
       <c r="D43" s="44" t="s">
@@ -10143,7 +10143,7 @@
       <c r="B44" s="45" t="s">
         <v>403</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="45" t="s">
         <v>404</v>
       </c>
       <c r="D44" s="44" t="s">
@@ -10253,7 +10253,7 @@
       <c r="B45" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="45" t="s">
         <v>410</v>
       </c>
       <c r="D45" s="44" t="s">
@@ -10347,7 +10347,7 @@
       <c r="B46" s="45" t="s">
         <v>414</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="45" t="s">
         <v>415</v>
       </c>
       <c r="D46" s="44" t="s">
@@ -10457,7 +10457,7 @@
       <c r="B47" s="45" t="s">
         <v>420</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="45" t="s">
         <v>421</v>
       </c>
       <c r="D47" s="44" t="s">
@@ -10555,7 +10555,7 @@
       <c r="B48" s="45" t="s">
         <v>425</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="45" t="s">
         <v>426</v>
       </c>
       <c r="D48" s="44" t="s">
@@ -10653,7 +10653,7 @@
       <c r="B49" s="45" t="s">
         <v>429</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="45" t="s">
         <v>430</v>
       </c>
       <c r="D49" s="44" t="s">
@@ -10761,7 +10761,7 @@
       <c r="B50" s="45" t="s">
         <v>435</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="45" t="s">
         <v>436</v>
       </c>
       <c r="D50" s="44" t="s">
@@ -10862,7 +10862,7 @@
       <c r="B51" s="45" t="s">
         <v>444</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="45" t="s">
         <v>445</v>
       </c>
       <c r="D51" s="44" t="s">
@@ -10957,7 +10957,7 @@
       <c r="B52" s="45" t="s">
         <v>451</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="45" t="s">
         <v>452</v>
       </c>
       <c r="D52" s="44" t="s">
@@ -11058,7 +11058,7 @@
       <c r="B53" s="45" t="s">
         <v>455</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="45" t="s">
         <v>456</v>
       </c>
       <c r="D53" s="44" t="s">
@@ -11178,7 +11178,7 @@
       <c r="B54" s="45" t="s">
         <v>465</v>
       </c>
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="45" t="s">
         <v>466</v>
       </c>
       <c r="D54" s="44" t="s">
@@ -11280,7 +11280,7 @@
       <c r="B55" s="45" t="s">
         <v>472</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="45" t="s">
         <v>473</v>
       </c>
       <c r="D55" s="44" t="s">
@@ -11398,7 +11398,7 @@
       <c r="B56" s="45" t="s">
         <v>480</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="45" t="s">
         <v>481</v>
       </c>
       <c r="D56" s="44" t="s">
@@ -11508,7 +11508,7 @@
       <c r="B57" s="45" t="s">
         <v>487</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="45" t="s">
         <v>488</v>
       </c>
       <c r="D57" s="44" t="s">
@@ -11612,7 +11612,7 @@
       <c r="B58" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="45" t="s">
         <v>494</v>
       </c>
       <c r="D58" s="44" t="s">
@@ -11716,7 +11716,7 @@
       <c r="B59" s="45" t="s">
         <v>499</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="45" t="s">
         <v>500</v>
       </c>
       <c r="D59" s="44" t="s">
@@ -11822,7 +11822,7 @@
       <c r="B60" s="45" t="s">
         <v>506</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="45" t="s">
         <v>507</v>
       </c>
       <c r="D60" s="44" t="s">
@@ -11904,7 +11904,7 @@
       <c r="B61" s="45" t="s">
         <v>512</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="45" t="s">
         <v>513</v>
       </c>
       <c r="D61" s="44" t="s">
@@ -12008,7 +12008,7 @@
       <c r="B62" s="45" t="s">
         <v>518</v>
       </c>
-      <c r="C62" s="55" t="s">
+      <c r="C62" s="45" t="s">
         <v>519</v>
       </c>
       <c r="D62" s="44" t="s">
@@ -12112,7 +12112,7 @@
       <c r="B63" s="45" t="s">
         <v>524</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="C63" s="45" t="s">
         <v>525</v>
       </c>
       <c r="D63" s="44" t="s">
@@ -12212,7 +12212,7 @@
       <c r="B64" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="45" t="s">
         <v>532</v>
       </c>
       <c r="D64" s="44" t="s">
@@ -12304,7 +12304,7 @@
       <c r="B65" s="45" t="s">
         <v>536</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="45" t="s">
         <v>537</v>
       </c>
       <c r="D65" s="44" t="s">
@@ -12410,7 +12410,7 @@
       <c r="B66" s="45" t="s">
         <v>542</v>
       </c>
-      <c r="C66" s="55" t="s">
+      <c r="C66" s="45" t="s">
         <v>543</v>
       </c>
       <c r="D66" s="44" t="s">
@@ -12502,7 +12502,7 @@
       <c r="B67" s="45" t="s">
         <v>547</v>
       </c>
-      <c r="C67" s="55" t="s">
+      <c r="C67" s="45" t="s">
         <v>548</v>
       </c>
       <c r="D67" s="44" t="s">
@@ -12598,7 +12598,7 @@
       <c r="B68" s="45" t="s">
         <v>552</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="45" t="s">
         <v>553</v>
       </c>
       <c r="D68" s="44" t="s">
@@ -12723,7 +12723,7 @@
       <c r="B69" s="45" t="s">
         <v>567</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="C69" s="45" t="s">
         <v>568</v>
       </c>
       <c r="D69" s="44" t="s">
@@ -12838,7 +12838,7 @@
       <c r="B70" s="45" t="s">
         <v>576</v>
       </c>
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="45" t="s">
         <v>577</v>
       </c>
       <c r="D70" s="44" t="s">
@@ -20612,7 +20612,7 @@
       <c r="B138" s="49" t="s">
         <v>972</v>
       </c>
-      <c r="C138" s="47" t="s">
+      <c r="C138" s="49" t="s">
         <v>973</v>
       </c>
       <c r="D138" s="49" t="s">
@@ -20645,7 +20645,7 @@
       <c r="B139" s="49" t="s">
         <v>976</v>
       </c>
-      <c r="C139" s="47" t="s">
+      <c r="C139" s="49" t="s">
         <v>977</v>
       </c>
       <c r="D139" s="49" t="s">
@@ -20678,7 +20678,7 @@
       <c r="B140" s="49" t="s">
         <v>981</v>
       </c>
-      <c r="C140" s="47" t="s">
+      <c r="C140" s="49" t="s">
         <v>982</v>
       </c>
       <c r="D140" s="49" t="s">
@@ -20711,7 +20711,7 @@
       <c r="B141" s="49" t="s">
         <v>985</v>
       </c>
-      <c r="C141" s="47" t="s">
+      <c r="C141" s="49" t="s">
         <v>986</v>
       </c>
       <c r="D141" s="49" t="s">
@@ -20744,7 +20744,7 @@
       <c r="B142" s="49" t="s">
         <v>641</v>
       </c>
-      <c r="C142" s="47" t="s">
+      <c r="C142" s="49" t="s">
         <v>988</v>
       </c>
       <c r="D142" s="49" t="s">
@@ -20777,7 +20777,7 @@
       <c r="B143" s="49" t="s">
         <v>991</v>
       </c>
-      <c r="C143" s="47" t="s">
+      <c r="C143" s="49" t="s">
         <v>992</v>
       </c>
       <c r="D143" s="49" t="s">
@@ -20825,7 +20825,7 @@
       <c r="B144" s="49" t="s">
         <v>997</v>
       </c>
-      <c r="C144" s="47" t="s">
+      <c r="C144" s="49" t="s">
         <v>998</v>
       </c>
       <c r="D144" s="49" t="s">
@@ -20873,7 +20873,7 @@
       <c r="B145" s="49" t="s">
         <v>1002</v>
       </c>
-      <c r="C145" s="47" t="s">
+      <c r="C145" s="49" t="s">
         <v>1003</v>
       </c>
       <c r="D145" s="49" t="s">
@@ -20921,7 +20921,7 @@
       <c r="B146" s="49" t="s">
         <v>1007</v>
       </c>
-      <c r="C146" s="47" t="s">
+      <c r="C146" s="49" t="s">
         <v>1008</v>
       </c>
       <c r="D146" s="49" t="s">
@@ -20969,7 +20969,7 @@
       <c r="B147" s="49" t="s">
         <v>1012</v>
       </c>
-      <c r="C147" s="47" t="s">
+      <c r="C147" s="49" t="s">
         <v>1013</v>
       </c>
       <c r="D147" s="49" t="s">
@@ -21017,7 +21017,7 @@
       <c r="B148" s="49" t="s">
         <v>1017</v>
       </c>
-      <c r="C148" s="47" t="s">
+      <c r="C148" s="49" t="s">
         <v>1018</v>
       </c>
       <c r="D148" s="49" t="s">
@@ -21065,7 +21065,7 @@
       <c r="B149" s="49" t="s">
         <v>1022</v>
       </c>
-      <c r="C149" s="47" t="s">
+      <c r="C149" s="49" t="s">
         <v>1023</v>
       </c>
       <c r="D149" s="49" t="s">
@@ -21113,7 +21113,7 @@
       <c r="B150" s="49" t="s">
         <v>1027</v>
       </c>
-      <c r="C150" s="47" t="s">
+      <c r="C150" s="49" t="s">
         <v>1028</v>
       </c>
       <c r="D150" s="49" t="s">
@@ -21161,7 +21161,7 @@
       <c r="B151" s="49" t="s">
         <v>1032</v>
       </c>
-      <c r="C151" s="47" t="s">
+      <c r="C151" s="49" t="s">
         <v>1033</v>
       </c>
       <c r="D151" s="49" t="s">
@@ -21209,7 +21209,7 @@
       <c r="B152" s="49" t="s">
         <v>1037</v>
       </c>
-      <c r="C152" s="47" t="s">
+      <c r="C152" s="49" t="s">
         <v>1038</v>
       </c>
       <c r="D152" s="49" t="s">
@@ -21257,7 +21257,7 @@
       <c r="B153" s="49" t="s">
         <v>1042</v>
       </c>
-      <c r="C153" s="47" t="s">
+      <c r="C153" s="49" t="s">
         <v>1043</v>
       </c>
       <c r="D153" s="49" t="s">
@@ -21305,7 +21305,7 @@
       <c r="B154" s="49" t="s">
         <v>1047</v>
       </c>
-      <c r="C154" s="47" t="s">
+      <c r="C154" s="49" t="s">
         <v>1048</v>
       </c>
       <c r="D154" s="49" t="s">
@@ -21353,7 +21353,7 @@
       <c r="B155" s="49" t="s">
         <v>1052</v>
       </c>
-      <c r="C155" s="47" t="s">
+      <c r="C155" s="49" t="s">
         <v>1053</v>
       </c>
       <c r="D155" s="49" t="s">
@@ -21401,7 +21401,7 @@
       <c r="B156" s="49" t="s">
         <v>1057</v>
       </c>
-      <c r="C156" s="47" t="s">
+      <c r="C156" s="49" t="s">
         <v>1058</v>
       </c>
       <c r="D156" s="49" t="s">
@@ -21449,7 +21449,7 @@
       <c r="B157" s="45" t="s">
         <v>1062</v>
       </c>
-      <c r="C157" s="47" t="s">
+      <c r="C157" s="49" t="s">
         <v>1063</v>
       </c>
       <c r="D157" s="49" t="s">
@@ -21669,7 +21669,7 @@
       <c r="B158" s="49" t="s">
         <v>1068</v>
       </c>
-      <c r="C158" s="47" t="s">
+      <c r="C158" s="49" t="s">
         <v>1069</v>
       </c>
       <c r="D158" s="49" t="s">
@@ -21711,7 +21711,7 @@
       <c r="B159" s="49" t="s">
         <v>1072</v>
       </c>
-      <c r="C159" s="47" t="s">
+      <c r="C159" s="49" t="s">
         <v>1073</v>
       </c>
       <c r="D159" s="49" t="s">
@@ -21753,7 +21753,7 @@
       <c r="B160" s="49" t="s">
         <v>1076</v>
       </c>
-      <c r="C160" s="47" t="s">
+      <c r="C160" s="49" t="s">
         <v>1077</v>
       </c>
       <c r="D160" s="49" t="s">
@@ -21824,7 +21824,7 @@
       <c r="B161" s="49" t="s">
         <v>1081</v>
       </c>
-      <c r="C161" s="47" t="s">
+      <c r="C161" s="49" t="s">
         <v>1082</v>
       </c>
       <c r="D161" s="49" t="s">
@@ -21857,7 +21857,7 @@
       <c r="B162" s="49" t="s">
         <v>1085</v>
       </c>
-      <c r="C162" s="47" t="s">
+      <c r="C162" s="49" t="s">
         <v>1086</v>
       </c>
       <c r="D162" s="49" t="s">
@@ -21919,7 +21919,7 @@
       <c r="B163" s="49" t="s">
         <v>1090</v>
       </c>
-      <c r="C163" s="47" t="s">
+      <c r="C163" s="49" t="s">
         <v>1091</v>
       </c>
       <c r="D163" s="49" t="s">
@@ -21952,7 +21952,7 @@
       <c r="B164" s="49" t="s">
         <v>1094</v>
       </c>
-      <c r="C164" s="47" t="s">
+      <c r="C164" s="49" t="s">
         <v>1095</v>
       </c>
       <c r="D164" s="49" t="s">
@@ -22014,7 +22014,7 @@
       <c r="B165" s="49" t="s">
         <v>1099</v>
       </c>
-      <c r="C165" s="47" t="s">
+      <c r="C165" s="49" t="s">
         <v>1100</v>
       </c>
       <c r="D165" s="49" t="s">
@@ -22047,7 +22047,7 @@
       <c r="B166" s="49" t="s">
         <v>1103</v>
       </c>
-      <c r="C166" s="47" t="s">
+      <c r="C166" s="49" t="s">
         <v>1104</v>
       </c>
       <c r="D166" s="49" t="s">
@@ -22118,7 +22118,7 @@
       <c r="B167" s="49" t="s">
         <v>1108</v>
       </c>
-      <c r="C167" s="47" t="s">
+      <c r="C167" s="49" t="s">
         <v>1109</v>
       </c>
       <c r="D167" s="49" t="s">
@@ -22160,7 +22160,7 @@
       <c r="B168" s="49" t="s">
         <v>1112</v>
       </c>
-      <c r="C168" s="47" t="s">
+      <c r="C168" s="49" t="s">
         <v>1113</v>
       </c>
       <c r="D168" s="49" t="s">
@@ -22269,7 +22269,7 @@
       <c r="B169" s="49" t="s">
         <v>1119</v>
       </c>
-      <c r="C169" s="47" t="s">
+      <c r="C169" s="49" t="s">
         <v>1120</v>
       </c>
       <c r="D169" s="49" t="s">
@@ -22311,7 +22311,7 @@
       <c r="B170" s="49" t="s">
         <v>1123</v>
       </c>
-      <c r="C170" s="47" t="s">
+      <c r="C170" s="49" t="s">
         <v>1124</v>
       </c>
       <c r="D170" s="49" t="s">
@@ -22420,7 +22420,7 @@
       <c r="B171" s="49" t="s">
         <v>1130</v>
       </c>
-      <c r="C171" s="47" t="s">
+      <c r="C171" s="49" t="s">
         <v>1131</v>
       </c>
       <c r="D171" s="49" t="s">
@@ -22462,7 +22462,7 @@
       <c r="B172" s="45" t="s">
         <v>1134</v>
       </c>
-      <c r="C172" s="47" t="s">
+      <c r="C172" s="49" t="s">
         <v>1135</v>
       </c>
       <c r="D172" s="49" t="s">
@@ -22701,7 +22701,7 @@
       <c r="B173" s="49" t="s">
         <v>1144</v>
       </c>
-      <c r="C173" s="55" t="s">
+      <c r="C173" s="49" t="s">
         <v>1145</v>
       </c>
       <c r="D173" s="44" t="s">
@@ -22802,7 +22802,7 @@
       <c r="B174" s="45" t="s">
         <v>1151</v>
       </c>
-      <c r="C174" s="55" t="s">
+      <c r="C174" s="49" t="s">
         <v>1152</v>
       </c>
       <c r="D174" s="44" t="s">
@@ -23035,7 +23035,7 @@
       <c r="B175" s="45" t="s">
         <v>1159</v>
       </c>
-      <c r="C175" s="55" t="s">
+      <c r="C175" s="49" t="s">
         <v>1160</v>
       </c>
       <c r="D175" s="44" t="s">
@@ -23191,7 +23191,7 @@
       <c r="B176" s="45" t="s">
         <v>1163</v>
       </c>
-      <c r="C176" s="55" t="s">
+      <c r="C176" s="49" t="s">
         <v>1164</v>
       </c>
       <c r="D176" s="44" t="s">

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC404D2-C259-4D37-B8DB-1F506F2FEB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2780B0E-3728-4936-87A1-37D1E87A6BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -597,7 +597,7 @@
     <t>TEXT_FIELD</t>
   </si>
   <si>
-    <t>2023-05-21</t>
+    <t>2023-05-22</t>
   </si>
   <si>
     <t>YYYY-MM-DD; Some browsers can display dates in a different format, but it is still correct</t>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{206A7F0F-DE83-4D1B-9ED5-2A55C3280FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47B90CF0-FF06-41EE-B3FD-40B845BB791F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4649" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="1603">
   <si>
     <t>VJDBv0.3</t>
   </si>
@@ -4354,9 +4354,6 @@
     <t>There is one page in Viralzone for this Taxon ID</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>ViralZone</t>
   </si>
   <si>
@@ -4372,9 +4369,6 @@
     <t>The ICTV Host source field content to be combined with other host group data from the other sources.</t>
   </si>
   <si>
-    <t>["ICTV"]</t>
-  </si>
-  <si>
     <t>0gy</t>
   </si>
   <si>
@@ -4415,9 +4409,6 @@
   </si>
   <si>
     <t>BVBRC Host Age</t>
-  </si>
-  <si>
-    <t>["BV-BRC", "Sample", "Clinical", "BVBRC"]</t>
   </si>
   <si>
     <t>Seperation of values good for submission, display should be in one, needs curation from ENA values, seperate Fields for submission?</t>
@@ -5888,8 +5879,8 @@
   <dimension ref="A1:FY196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AV176" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW193" sqref="AW193"/>
+      <pane xSplit="1" topLeftCell="Q176" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V180" sqref="V180:V191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
@@ -46382,15 +46373,15 @@
       <c r="T181" s="61"/>
       <c r="U181" s="61"/>
       <c r="V181" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(AdditionalMetadata!H106&lt;&gt;"", """" &amp; VJDBCore!H$1 &amp; """", ""),
-    IF(AdditionalMetadata!I106&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
-    IF(AdditionalMetadata!J106&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
-    IF(AdditionalMetadata!K106&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(AdditionalMetadata!L106&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(AdditionalMetadata!M106&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N181&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O181&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O181&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P181&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
-    IF(AdditionalMetadata!Q110&lt;&gt;"", """" &amp; AdditionalMetadata!Q110 &amp; """", ""),
-    IF(R181&lt;&gt;"", """" &amp; R181 &amp; """", ""),
-    IF(S181&lt;&gt;"", """" &amp; S181 &amp; """", "")
+        <f t="shared" ref="V181:V191" si="3">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+    IF(H181&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
+    IF(I181&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
+    IF(J181&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
+    IF(K181&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
+    IF(L181&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M181&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N181&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O181&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P181&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
+    IF(S181&lt;&gt;"", """" &amp; S181 &amp; """", ""), IF(Q181&lt;&gt;"", """" &amp; Q181 &amp; """", ""), IF(R181&lt;&gt;"", """" &amp; R181 &amp; """", ""),
+    IF(T181&lt;&gt;"", """" &amp; T181 &amp; """", ""),
+    IF(U181&lt;&gt;"", """" &amp; U181 &amp; """", "")
 ) &amp; "]"</f>
         <v>["BV-BRC"]</v>
       </c>
@@ -46570,16 +46561,7 @@
         <v>58</v>
       </c>
       <c r="V182" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H182&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I182&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J182&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K182&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L182&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M182&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N182&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O182&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P182&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S182&lt;&gt;"", """" &amp; S182 &amp; """", ""), IF(Q182&lt;&gt;"", """" &amp; Q182 &amp; """", ""), IF(R182&lt;&gt;"", """" &amp; R182 &amp; """", ""),
-    IF(T182&lt;&gt;"", """" &amp; T182 &amp; """", ""),
-    IF(U182&lt;&gt;"", """" &amp; U182 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>[]</v>
       </c>
       <c r="X182" s="58" t="s">
@@ -46738,16 +46720,7 @@
         <v>150</v>
       </c>
       <c r="V183" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H183&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I183&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J183&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K183&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L183&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M183&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N183&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O183&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P183&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S183&lt;&gt;"", """" &amp; S183 &amp; """", ""), IF(Q183&lt;&gt;"", """" &amp; Q183 &amp; """", ""), IF(R183&lt;&gt;"", """" &amp; R183 &amp; """", ""),
-    IF(T183&lt;&gt;"", """" &amp; T183 &amp; """", ""),
-    IF(U183&lt;&gt;"", """" &amp; U183 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>[]</v>
       </c>
       <c r="W183" s="58" t="s">
@@ -46908,15 +46881,16 @@
       <c r="E184" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="V184" s="54" t="s">
+      <c r="V184" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>[]</v>
+      </c>
+      <c r="W184" s="54" t="s">
         <v>1373</v>
-      </c>
-      <c r="W184" s="54" t="s">
-        <v>1374</v>
       </c>
       <c r="AS184" s="53"/>
       <c r="AW184" s="58" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="AY184"/>
       <c r="AZ184"/>
@@ -47052,13 +47026,13 @@
     </row>
     <row r="185" spans="1:181" s="54" customFormat="1" ht="23.25" customHeight="1">
       <c r="A185" s="54" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B185" s="54" t="s">
         <v>1376</v>
       </c>
-      <c r="B185" s="54" t="s">
+      <c r="C185" s="48" t="s">
         <v>1377</v>
-      </c>
-      <c r="C185" s="48" t="s">
-        <v>1378</v>
       </c>
       <c r="D185" s="54" t="s">
         <v>57</v>
@@ -47069,18 +47043,19 @@
       <c r="U185" s="54" t="s">
         <v>653</v>
       </c>
-      <c r="V185" s="54" t="s">
-        <v>1379</v>
+      <c r="V185" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>["ICTV"]</v>
       </c>
       <c r="W185" s="54" t="s">
         <v>653</v>
       </c>
       <c r="AS185" s="53"/>
       <c r="AW185" s="54" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="AX185" s="54" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="AY185"/>
       <c r="AZ185"/>
@@ -47216,13 +47191,13 @@
     </row>
     <row r="186" spans="1:181" s="54" customFormat="1" ht="23.25" customHeight="1">
       <c r="A186" s="54" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B186" s="54" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C186" s="48" t="s">
         <v>1382</v>
-      </c>
-      <c r="B186" s="54" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C186" s="48" t="s">
-        <v>1384</v>
       </c>
       <c r="D186" s="54" t="s">
         <v>57</v>
@@ -47233,18 +47208,19 @@
       <c r="U186" s="54" t="s">
         <v>653</v>
       </c>
-      <c r="V186" s="54" t="s">
-        <v>1379</v>
+      <c r="V186" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>["ICTV"]</v>
       </c>
       <c r="W186" s="54" t="s">
         <v>653</v>
       </c>
       <c r="AS186" s="53"/>
       <c r="AW186" s="54" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="AX186" s="54" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="AY186"/>
       <c r="AZ186"/>
@@ -47380,13 +47356,13 @@
     </row>
     <row r="187" spans="1:181" s="54" customFormat="1" ht="23.25" customHeight="1">
       <c r="A187" s="54" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B187" s="54" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C187" s="48" t="s">
         <v>1387</v>
-      </c>
-      <c r="B187" s="54" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C187" s="48" t="s">
-        <v>1389</v>
       </c>
       <c r="D187" s="54" t="s">
         <v>57</v>
@@ -47397,18 +47373,19 @@
       <c r="U187" s="54" t="s">
         <v>653</v>
       </c>
-      <c r="V187" s="54" t="s">
-        <v>1379</v>
+      <c r="V187" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>["ICTV"]</v>
       </c>
       <c r="W187" s="54" t="s">
         <v>653</v>
       </c>
       <c r="AS187" s="53"/>
       <c r="AW187" s="54" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="AX187" s="54" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="AY187"/>
       <c r="AZ187"/>
@@ -47544,10 +47521,10 @@
     </row>
     <row r="188" spans="1:181" s="54" customFormat="1" ht="23.25" customHeight="1">
       <c r="A188" s="54" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B188" s="54" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C188" s="48" t="s">
         <v>1337</v>
@@ -47570,14 +47547,15 @@
       <c r="U188" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="V188" s="54" t="s">
-        <v>1394</v>
+      <c r="V188" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>["BV-BRC", "Sample", "Clinical", "BVBRC"]</v>
       </c>
       <c r="W188" s="54" t="s">
         <v>361</v>
       </c>
       <c r="X188" s="54" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="AE188" s="54" t="s">
         <v>203</v>
@@ -47590,7 +47568,7 @@
       </c>
       <c r="AS188" s="53"/>
       <c r="AW188" s="54" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="AY188"/>
       <c r="AZ188"/>
@@ -47726,10 +47704,10 @@
     </row>
     <row r="189" spans="1:181" s="54" customFormat="1" ht="23.25" customHeight="1">
       <c r="A189" s="54" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B189" s="54" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C189" s="48"/>
       <c r="D189" s="54" t="s">
@@ -47738,12 +47716,16 @@
       <c r="E189" s="54" t="s">
         <v>150</v>
       </c>
+      <c r="V189" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>[]</v>
+      </c>
       <c r="W189" s="58" t="s">
         <v>14</v>
       </c>
       <c r="AS189" s="53"/>
       <c r="AW189" s="54" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="AY189"/>
       <c r="AZ189"/>
@@ -47879,13 +47861,13 @@
     </row>
     <row r="190" spans="1:181" s="54" customFormat="1" ht="23.25" customHeight="1">
       <c r="A190" s="54" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="B190" s="54" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C190" s="48" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D190" s="54" t="s">
         <v>158</v>
@@ -47893,12 +47875,16 @@
       <c r="E190" s="54" t="s">
         <v>150</v>
       </c>
+      <c r="V190" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>[]</v>
+      </c>
       <c r="W190" s="58" t="s">
         <v>14</v>
       </c>
       <c r="AS190" s="53"/>
       <c r="AW190" s="54" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="AY190"/>
       <c r="AZ190"/>
@@ -48034,26 +48020,30 @@
     </row>
     <row r="191" spans="1:181" s="54" customFormat="1" ht="23.25" customHeight="1">
       <c r="A191" s="54" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B191" s="54" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C191" s="48" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D191" s="54" t="s">
         <v>1404</v>
-      </c>
-      <c r="B191" s="54" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C191" s="48" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D191" s="54" t="s">
-        <v>1407</v>
       </c>
       <c r="E191" s="54" t="s">
         <v>150</v>
       </c>
+      <c r="V191" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>[]</v>
+      </c>
       <c r="W191" s="58" t="s">
         <v>14</v>
       </c>
       <c r="AS191" s="53"/>
       <c r="AW191" s="54" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="AY191"/>
       <c r="AZ191"/>
@@ -48189,13 +48179,13 @@
     </row>
     <row r="192" spans="1:181" s="54" customFormat="1" ht="23.25" customHeight="1">
       <c r="A192" s="54" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="B192" s="54" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="C192" s="48" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E192" s="54" t="s">
         <v>342</v>
@@ -48221,7 +48211,7 @@
       </c>
       <c r="AS192" s="53"/>
       <c r="AW192" s="58" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="AY192"/>
       <c r="AZ192"/>
@@ -49563,7 +49553,7 @@
         <v>361</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
@@ -49573,14 +49563,14 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="2" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AH5" s="9" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -49607,7 +49597,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -49632,7 +49622,7 @@
         <v>361</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
@@ -49644,14 +49634,14 @@
       </c>
       <c r="AD6" s="13"/>
       <c r="AE6" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG6" s="13"/>
       <c r="AH6" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
@@ -49701,7 +49691,7 @@
         <v>361</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
@@ -49713,14 +49703,14 @@
         <v>121</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG7" s="13"/>
       <c r="AH7" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
@@ -49770,7 +49760,7 @@
         <v>361</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
@@ -49780,14 +49770,14 @@
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
       <c r="AE8" s="1" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG8" s="13"/>
       <c r="AH8" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
@@ -49837,7 +49827,7 @@
         <v>361</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
@@ -49847,14 +49837,14 @@
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="1" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG9" s="13"/>
       <c r="AH9" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
@@ -49881,7 +49871,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -49906,7 +49896,7 @@
         <v>361</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
@@ -49918,14 +49908,14 @@
       </c>
       <c r="AD10" s="13"/>
       <c r="AE10" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG10" s="13"/>
       <c r="AH10" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
@@ -49952,7 +49942,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -49977,7 +49967,7 @@
         <v>361</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
@@ -49989,14 +49979,14 @@
       </c>
       <c r="AD11" s="13"/>
       <c r="AE11" s="1" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG11" s="13"/>
       <c r="AH11" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
@@ -50046,7 +50036,7 @@
         <v>361</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
@@ -50056,14 +50046,14 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="1" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG12" s="13"/>
       <c r="AH12" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
@@ -50113,7 +50103,7 @@
         <v>361</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
@@ -50123,14 +50113,14 @@
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="1" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG13" s="13"/>
       <c r="AH13" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
@@ -50157,7 +50147,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -50182,7 +50172,7 @@
         <v>361</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
@@ -50190,20 +50180,20 @@
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG14" s="13"/>
       <c r="AH14" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
@@ -50253,7 +50243,7 @@
         <v>361</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
@@ -50262,17 +50252,17 @@
       <c r="AB15" s="13"/>
       <c r="AC15" s="13"/>
       <c r="AD15" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="AF15" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG15" s="13"/>
       <c r="AH15" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
@@ -50322,7 +50312,7 @@
         <v>361</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
@@ -50332,14 +50322,14 @@
       <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
       <c r="AE16" s="1" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG16" s="13"/>
       <c r="AH16" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="13"/>
@@ -50366,7 +50356,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -50391,7 +50381,7 @@
         <v>361</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -50399,20 +50389,20 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="AF17" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG17" s="13"/>
       <c r="AH17" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="13"/>
@@ -50439,7 +50429,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -50464,7 +50454,7 @@
         <v>361</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
@@ -50472,20 +50462,20 @@
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
       <c r="AC18" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AD18" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AE18" s="1" t="s">
         <v>1434</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>1437</v>
       </c>
       <c r="AF18" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG18" s="13"/>
       <c r="AH18" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI18" s="13"/>
       <c r="AJ18" s="13"/>
@@ -50512,7 +50502,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -50537,7 +50527,7 @@
         <v>361</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -50551,14 +50541,14 @@
         <v>218</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG19" s="13"/>
       <c r="AH19" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI19" s="13"/>
       <c r="AJ19" s="13"/>
@@ -50585,7 +50575,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -50610,7 +50600,7 @@
         <v>361</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
@@ -50622,14 +50612,14 @@
       </c>
       <c r="AD20" s="13"/>
       <c r="AE20" s="1" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="AF20" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG20" s="13"/>
       <c r="AH20" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI20" s="13"/>
       <c r="AJ20" s="13"/>
@@ -50701,7 +50691,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -50726,7 +50716,7 @@
         <v>361</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
@@ -50734,20 +50724,20 @@
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
       <c r="AC22" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="AF22" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG22" s="13"/>
       <c r="AH22" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI22" s="13"/>
       <c r="AJ22" s="13"/>
@@ -50774,7 +50764,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -50799,7 +50789,7 @@
         <v>361</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
@@ -50813,14 +50803,14 @@
         <v>121</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="AF23" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG23" s="13"/>
       <c r="AH23" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI23" s="13"/>
       <c r="AJ23" s="13"/>
@@ -50847,7 +50837,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -50872,7 +50862,7 @@
         <v>361</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
@@ -50884,14 +50874,14 @@
       </c>
       <c r="AD24" s="13"/>
       <c r="AE24" s="1" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="AF24" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG24" s="13"/>
       <c r="AH24" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI24" s="13"/>
       <c r="AJ24" s="13"/>
@@ -50941,7 +50931,7 @@
         <v>361</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
@@ -50951,14 +50941,14 @@
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="1" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="AF25" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG25" s="13"/>
       <c r="AH25" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI25" s="13"/>
       <c r="AJ25" s="13"/>
@@ -50985,7 +50975,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -51010,7 +51000,7 @@
         <v>361</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
@@ -51022,14 +51012,14 @@
       </c>
       <c r="AD26" s="13"/>
       <c r="AE26" s="1" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="AF26" s="1" t="s">
         <v>731</v>
       </c>
       <c r="AG26" s="13"/>
       <c r="AH26" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="13"/>
@@ -51056,7 +51046,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -51081,7 +51071,7 @@
         <v>361</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
@@ -51095,14 +51085,14 @@
         <v>218</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="AF27" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG27" s="13"/>
       <c r="AH27" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="13"/>
@@ -51129,7 +51119,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -51154,7 +51144,7 @@
         <v>361</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
@@ -51168,14 +51158,14 @@
         <v>218</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="AF28" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG28" s="13"/>
       <c r="AH28" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="13"/>
@@ -51202,7 +51192,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -51227,7 +51217,7 @@
         <v>361</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
@@ -51241,14 +51231,14 @@
         <v>218</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="AF29" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG29" s="13"/>
       <c r="AH29" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
@@ -51298,7 +51288,7 @@
         <v>361</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
@@ -51307,17 +51297,17 @@
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
       <c r="AD30" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="AF30" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG30" s="13"/>
       <c r="AH30" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="13"/>
@@ -51367,7 +51357,7 @@
         <v>361</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
@@ -51376,17 +51366,17 @@
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
       <c r="AD31" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="AF31" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG31" s="13"/>
       <c r="AH31" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="13"/>
@@ -51413,7 +51403,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -51438,7 +51428,7 @@
         <v>361</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
@@ -51450,14 +51440,14 @@
       </c>
       <c r="AD32" s="13"/>
       <c r="AE32" s="1" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="AF32" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG32" s="13"/>
       <c r="AH32" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="13"/>
@@ -51507,7 +51497,7 @@
         <v>361</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
@@ -51517,14 +51507,14 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
       <c r="AE33" s="1" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="AF33" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG33" s="13"/>
       <c r="AH33" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="13"/>
@@ -51551,7 +51541,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -51576,7 +51566,7 @@
         <v>361</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
@@ -51588,14 +51578,14 @@
       </c>
       <c r="AD34" s="13"/>
       <c r="AE34" s="1" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="AF34" s="1" t="s">
         <v>731</v>
       </c>
       <c r="AG34" s="13"/>
       <c r="AH34" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="13"/>
@@ -51645,7 +51635,7 @@
         <v>361</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
@@ -51657,14 +51647,14 @@
         <v>121</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="AF35" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG35" s="13"/>
       <c r="AH35" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="13"/>
@@ -51714,7 +51704,7 @@
         <v>361</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
@@ -51731,7 +51721,7 @@
       </c>
       <c r="AG36" s="13"/>
       <c r="AH36" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI36" s="13"/>
       <c r="AJ36" s="13"/>
@@ -51758,7 +51748,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -51783,7 +51773,7 @@
         <v>361</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
@@ -51791,20 +51781,20 @@
       <c r="AA37" s="13"/>
       <c r="AB37" s="13"/>
       <c r="AC37" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG37" s="13"/>
       <c r="AH37" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI37" s="13"/>
       <c r="AJ37" s="13"/>
@@ -51831,7 +51821,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -51856,7 +51846,7 @@
         <v>361</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
@@ -51864,20 +51854,20 @@
       <c r="AA38" s="13"/>
       <c r="AB38" s="13"/>
       <c r="AC38" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="AF38" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG38" s="13"/>
       <c r="AH38" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI38" s="13"/>
       <c r="AJ38" s="13"/>
@@ -51904,7 +51894,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -51929,7 +51919,7 @@
         <v>361</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
@@ -51937,20 +51927,20 @@
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
       <c r="AC39" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="AF39" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG39" s="13"/>
       <c r="AH39" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI39" s="13"/>
       <c r="AJ39" s="13"/>
@@ -51977,7 +51967,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -52002,7 +51992,7 @@
         <v>361</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
@@ -52010,18 +52000,18 @@
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
       <c r="AC40" s="1" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="AD40" s="13"/>
       <c r="AE40" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="AF40" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG40" s="13"/>
       <c r="AH40" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI40" s="13"/>
       <c r="AJ40" s="13"/>
@@ -52048,7 +52038,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -52073,7 +52063,7 @@
         <v>361</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
@@ -52087,14 +52077,14 @@
         <v>121</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="AF41" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG41" s="13"/>
       <c r="AH41" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI41" s="13"/>
       <c r="AJ41" s="13"/>
@@ -52144,7 +52134,7 @@
         <v>361</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
@@ -52154,14 +52144,14 @@
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
       <c r="AE42" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="AF42" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG42" s="13"/>
       <c r="AH42" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI42" s="13"/>
       <c r="AJ42" s="13"/>
@@ -52188,7 +52178,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -52213,7 +52203,7 @@
         <v>361</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
@@ -52225,14 +52215,14 @@
       </c>
       <c r="AD43" s="13"/>
       <c r="AE43" s="1" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="AF43" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG43" s="13"/>
       <c r="AH43" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI43" s="13"/>
       <c r="AJ43" s="13"/>
@@ -52259,7 +52249,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -52284,7 +52274,7 @@
         <v>361</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
@@ -52296,14 +52286,14 @@
       </c>
       <c r="AD44" s="13"/>
       <c r="AE44" s="1" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="AF44" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG44" s="13"/>
       <c r="AH44" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI44" s="13"/>
       <c r="AJ44" s="13"/>
@@ -52330,7 +52320,7 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -52355,7 +52345,7 @@
         <v>361</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
@@ -52367,14 +52357,14 @@
       </c>
       <c r="AD45" s="13"/>
       <c r="AE45" s="1" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="AF45" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG45" s="13"/>
       <c r="AH45" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI45" s="13"/>
       <c r="AJ45" s="13"/>
@@ -52424,7 +52414,7 @@
         <v>361</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
@@ -52434,14 +52424,14 @@
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="1" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="AF46" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG46" s="13"/>
       <c r="AH46" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="13"/>
@@ -52468,7 +52458,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -52493,7 +52483,7 @@
         <v>361</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
@@ -52505,14 +52495,14 @@
       </c>
       <c r="AD47" s="13"/>
       <c r="AE47" s="1" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="AF47" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG47" s="13"/>
       <c r="AH47" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI47" s="13"/>
       <c r="AJ47" s="13"/>
@@ -52562,7 +52552,7 @@
         <v>361</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
@@ -52572,14 +52562,14 @@
       <c r="AC48" s="13"/>
       <c r="AD48" s="13"/>
       <c r="AE48" s="1" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="AF48" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG48" s="13"/>
       <c r="AH48" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI48" s="13"/>
       <c r="AJ48" s="13"/>
@@ -52606,7 +52596,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -52631,7 +52621,7 @@
         <v>361</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
@@ -52643,14 +52633,14 @@
       </c>
       <c r="AD49" s="13"/>
       <c r="AE49" s="1" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="AF49" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG49" s="13"/>
       <c r="AH49" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI49" s="13"/>
       <c r="AJ49" s="13"/>
@@ -52700,7 +52690,7 @@
         <v>361</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
@@ -52710,14 +52700,14 @@
       <c r="AC50" s="13"/>
       <c r="AD50" s="13"/>
       <c r="AE50" s="1" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="AF50" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG50" s="13"/>
       <c r="AH50" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI50" s="13"/>
       <c r="AJ50" s="13"/>
@@ -52767,7 +52757,7 @@
         <v>361</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X51" s="13"/>
       <c r="Y51" s="13"/>
@@ -52776,17 +52766,17 @@
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
       <c r="AD51" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="AF51" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG51" s="13"/>
       <c r="AH51" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI51" s="13"/>
       <c r="AJ51" s="13"/>
@@ -52836,7 +52826,7 @@
         <v>361</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
@@ -52845,17 +52835,17 @@
       <c r="AB52" s="13"/>
       <c r="AC52" s="13"/>
       <c r="AD52" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="AF52" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG52" s="13"/>
       <c r="AH52" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI52" s="13"/>
       <c r="AJ52" s="13"/>
@@ -52882,7 +52872,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
@@ -52907,7 +52897,7 @@
         <v>361</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
@@ -52921,14 +52911,14 @@
         <v>121</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="AF53" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG53" s="13"/>
       <c r="AH53" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI53" s="13"/>
       <c r="AJ53" s="13"/>
@@ -52978,7 +52968,7 @@
         <v>361</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X54" s="13"/>
       <c r="Y54" s="13"/>
@@ -52990,14 +52980,14 @@
         <v>121</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="AF54" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG54" s="13"/>
       <c r="AH54" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI54" s="13"/>
       <c r="AJ54" s="13"/>
@@ -53024,7 +53014,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -53049,7 +53039,7 @@
         <v>361</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
@@ -53063,14 +53053,14 @@
         <v>121</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="AF55" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG55" s="13"/>
       <c r="AH55" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI55" s="13"/>
       <c r="AJ55" s="13"/>
@@ -53144,7 +53134,7 @@
         <v>361</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
@@ -53156,14 +53146,14 @@
         <v>121</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="AF57" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG57" s="13"/>
       <c r="AH57" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI57" s="13"/>
       <c r="AJ57" s="13"/>
@@ -53213,7 +53203,7 @@
         <v>361</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
@@ -53225,14 +53215,14 @@
         <v>121</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="AF58" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI58" s="13"/>
       <c r="AJ58" s="13"/>
@@ -53259,7 +53249,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
@@ -53284,7 +53274,7 @@
         <v>361</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
@@ -53292,20 +53282,20 @@
       <c r="AA59" s="13"/>
       <c r="AB59" s="13"/>
       <c r="AC59" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="AF59" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG59" s="13"/>
       <c r="AH59" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI59" s="13"/>
       <c r="AJ59" s="13"/>
@@ -53355,7 +53345,7 @@
         <v>361</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
@@ -53364,17 +53354,17 @@
       <c r="AB60" s="13"/>
       <c r="AC60" s="13"/>
       <c r="AD60" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="AF60" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG60" s="13"/>
       <c r="AH60" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI60" s="13"/>
       <c r="AJ60" s="13"/>
@@ -53401,7 +53391,7 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
@@ -53426,7 +53416,7 @@
         <v>361</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
@@ -53438,14 +53428,14 @@
       </c>
       <c r="AD61" s="13"/>
       <c r="AE61" s="1" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="AF61" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG61" s="13"/>
       <c r="AH61" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI61" s="13"/>
       <c r="AJ61" s="13"/>
@@ -53495,7 +53485,7 @@
         <v>361</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
@@ -53505,14 +53495,14 @@
       <c r="AC62" s="13"/>
       <c r="AD62" s="13"/>
       <c r="AE62" s="1" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="AF62" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG62" s="13"/>
       <c r="AH62" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI62" s="13"/>
       <c r="AJ62" s="13"/>
@@ -53539,7 +53529,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
@@ -53564,7 +53554,7 @@
         <v>361</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
@@ -53576,14 +53566,14 @@
       </c>
       <c r="AD63" s="13"/>
       <c r="AE63" s="1" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="AF63" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG63" s="13"/>
       <c r="AH63" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI63" s="13"/>
       <c r="AJ63" s="13"/>
@@ -53633,7 +53623,7 @@
         <v>361</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
@@ -53643,14 +53633,14 @@
       <c r="AC64" s="13"/>
       <c r="AD64" s="13"/>
       <c r="AE64" s="1" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="AF64" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG64" s="13"/>
       <c r="AH64" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI64" s="13"/>
       <c r="AJ64" s="13"/>
@@ -53700,7 +53690,7 @@
         <v>361</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X65" s="13"/>
       <c r="Y65" s="13"/>
@@ -53709,17 +53699,17 @@
       <c r="AB65" s="13"/>
       <c r="AC65" s="13"/>
       <c r="AD65" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="AF65" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG65" s="13"/>
       <c r="AH65" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI65" s="13"/>
       <c r="AJ65" s="13"/>
@@ -53769,7 +53759,7 @@
         <v>361</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
@@ -53779,14 +53769,14 @@
       <c r="AC66" s="13"/>
       <c r="AD66" s="13"/>
       <c r="AE66" s="1" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="AF66" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG66" s="13"/>
       <c r="AH66" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI66" s="13"/>
       <c r="AJ66" s="13"/>
@@ -53860,7 +53850,7 @@
         <v>361</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X68" s="13"/>
       <c r="Y68" s="13"/>
@@ -53877,7 +53867,7 @@
       </c>
       <c r="AG68" s="13"/>
       <c r="AH68" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI68" s="13"/>
       <c r="AJ68" s="13"/>
@@ -53904,7 +53894,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
@@ -53929,7 +53919,7 @@
         <v>361</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X69" s="13"/>
       <c r="Y69" s="13"/>
@@ -53941,14 +53931,14 @@
       </c>
       <c r="AD69" s="13"/>
       <c r="AE69" s="1" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="AF69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG69" s="13"/>
       <c r="AH69" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI69" s="13"/>
       <c r="AJ69" s="13"/>
@@ -53975,7 +53965,7 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
@@ -54000,7 +53990,7 @@
         <v>361</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X70" s="13"/>
       <c r="Y70" s="13"/>
@@ -54014,14 +54004,14 @@
         <v>121</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="AF70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG70" s="13"/>
       <c r="AH70" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI70" s="13"/>
       <c r="AJ70" s="13"/>
@@ -54048,7 +54038,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
@@ -54073,7 +54063,7 @@
         <v>361</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X71" s="13"/>
       <c r="Y71" s="13"/>
@@ -54085,14 +54075,14 @@
       </c>
       <c r="AD71" s="13"/>
       <c r="AE71" s="1" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="AF71" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG71" s="13"/>
       <c r="AH71" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI71" s="13"/>
       <c r="AJ71" s="13"/>
@@ -54119,7 +54109,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
@@ -54144,7 +54134,7 @@
         <v>361</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X72" s="13"/>
       <c r="Y72" s="13"/>
@@ -54156,14 +54146,14 @@
       </c>
       <c r="AD72" s="13"/>
       <c r="AE72" s="1" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="AF72" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG72" s="13"/>
       <c r="AH72" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI72" s="13"/>
       <c r="AJ72" s="13"/>
@@ -54213,7 +54203,7 @@
         <v>361</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X73" s="13"/>
       <c r="Y73" s="13"/>
@@ -54222,17 +54212,17 @@
       <c r="AB73" s="13"/>
       <c r="AC73" s="13"/>
       <c r="AD73" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="AF73" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG73" s="13"/>
       <c r="AH73" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI73" s="13"/>
       <c r="AJ73" s="13"/>
@@ -54259,7 +54249,7 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -54284,7 +54274,7 @@
         <v>361</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X74" s="13"/>
       <c r="Y74" s="13"/>
@@ -54295,17 +54285,17 @@
         <v>729</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="AE74" s="1" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="AF74" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG74" s="13"/>
       <c r="AH74" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI74" s="13"/>
       <c r="AJ74" s="13"/>
@@ -54355,7 +54345,7 @@
         <v>361</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
@@ -54365,14 +54355,14 @@
       <c r="AC75" s="13"/>
       <c r="AD75" s="13"/>
       <c r="AE75" s="1" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="AF75" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG75" s="13"/>
       <c r="AH75" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI75" s="13"/>
       <c r="AJ75" s="13"/>
@@ -54422,7 +54412,7 @@
         <v>361</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X76" s="13"/>
       <c r="Y76" s="13"/>
@@ -54432,14 +54422,14 @@
       <c r="AC76" s="13"/>
       <c r="AD76" s="13"/>
       <c r="AE76" s="1" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="AF76" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG76" s="13"/>
       <c r="AH76" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI76" s="13"/>
       <c r="AJ76" s="13"/>
@@ -54489,7 +54479,7 @@
         <v>361</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X77" s="13"/>
       <c r="Y77" s="13"/>
@@ -54498,17 +54488,17 @@
       <c r="AB77" s="13"/>
       <c r="AC77" s="13"/>
       <c r="AD77" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="AF77" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG77" s="13"/>
       <c r="AH77" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI77" s="13"/>
       <c r="AJ77" s="13"/>
@@ -54558,7 +54548,7 @@
         <v>361</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X78" s="13"/>
       <c r="Y78" s="13"/>
@@ -54567,17 +54557,17 @@
       <c r="AB78" s="13"/>
       <c r="AC78" s="13"/>
       <c r="AD78" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="AF78" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG78" s="13"/>
       <c r="AH78" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI78" s="13"/>
       <c r="AJ78" s="13"/>
@@ -54604,7 +54594,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
@@ -54629,7 +54619,7 @@
         <v>361</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X79" s="13"/>
       <c r="Y79" s="13"/>
@@ -54641,14 +54631,14 @@
       </c>
       <c r="AD79" s="13"/>
       <c r="AE79" s="1" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="AF79" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG79" s="13"/>
       <c r="AH79" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI79" s="13"/>
       <c r="AJ79" s="13"/>
@@ -54675,7 +54665,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -54700,7 +54690,7 @@
         <v>361</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X80" s="13"/>
       <c r="Y80" s="13"/>
@@ -54712,14 +54702,14 @@
       </c>
       <c r="AD80" s="13"/>
       <c r="AE80" s="1" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="AF80" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG80" s="13"/>
       <c r="AH80" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI80" s="13"/>
       <c r="AJ80" s="13"/>
@@ -54769,7 +54759,7 @@
         <v>361</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
@@ -54778,17 +54768,17 @@
       <c r="AB81" s="13"/>
       <c r="AC81" s="13"/>
       <c r="AD81" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="AF81" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG81" s="13"/>
       <c r="AH81" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI81" s="13"/>
       <c r="AJ81" s="13"/>
@@ -54815,7 +54805,7 @@
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -54840,7 +54830,7 @@
         <v>361</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X82" s="13"/>
       <c r="Y82" s="13"/>
@@ -54852,14 +54842,14 @@
       </c>
       <c r="AD82" s="13"/>
       <c r="AE82" s="1" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="AF82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG82" s="13"/>
       <c r="AH82" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI82" s="13"/>
       <c r="AJ82" s="13"/>
@@ -54909,7 +54899,7 @@
         <v>361</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
@@ -54919,14 +54909,14 @@
       <c r="AC83" s="13"/>
       <c r="AD83" s="13"/>
       <c r="AE83" s="1" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="AF83" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG83" s="13"/>
       <c r="AH83" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI83" s="13"/>
       <c r="AJ83" s="13"/>
@@ -54998,7 +54988,7 @@
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
@@ -55023,7 +55013,7 @@
         <v>361</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X85" s="13"/>
       <c r="Y85" s="13"/>
@@ -55037,14 +55027,14 @@
         <v>218</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="AF85" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG85" s="13"/>
       <c r="AH85" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI85" s="13"/>
       <c r="AJ85" s="13"/>
@@ -55094,7 +55084,7 @@
         <v>361</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X86" s="13"/>
       <c r="Y86" s="13"/>
@@ -55103,17 +55093,17 @@
       <c r="AB86" s="13"/>
       <c r="AC86" s="13"/>
       <c r="AD86" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="AF86" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG86" s="13"/>
       <c r="AH86" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI86" s="13"/>
       <c r="AJ86" s="13"/>
@@ -55163,7 +55153,7 @@
         <v>361</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X87" s="13"/>
       <c r="Y87" s="13"/>
@@ -55172,17 +55162,17 @@
       <c r="AB87" s="13"/>
       <c r="AC87" s="13"/>
       <c r="AD87" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AE87" s="1" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="AF87" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG87" s="13"/>
       <c r="AH87" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI87" s="13"/>
       <c r="AJ87" s="13"/>
@@ -55209,7 +55199,7 @@
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
@@ -55234,7 +55224,7 @@
         <v>361</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X88" s="13"/>
       <c r="Y88" s="13"/>
@@ -55245,7 +55235,7 @@
         <v>729</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="AE88" s="1" t="s">
         <v>58</v>
@@ -55255,7 +55245,7 @@
       </c>
       <c r="AG88" s="13"/>
       <c r="AH88" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI88" s="13"/>
       <c r="AJ88" s="13"/>
@@ -55305,7 +55295,7 @@
         <v>361</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
@@ -55322,7 +55312,7 @@
       </c>
       <c r="AG89" s="13"/>
       <c r="AH89" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI89" s="13"/>
       <c r="AJ89" s="13"/>
@@ -55372,7 +55362,7 @@
         <v>361</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X90" s="13"/>
       <c r="Y90" s="13"/>
@@ -55382,14 +55372,14 @@
       <c r="AC90" s="13"/>
       <c r="AD90" s="13"/>
       <c r="AE90" s="1" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="AF90" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG90" s="13"/>
       <c r="AH90" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI90" s="13"/>
       <c r="AJ90" s="13"/>
@@ -55439,7 +55429,7 @@
         <v>361</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X91" s="13"/>
       <c r="Y91" s="13"/>
@@ -55448,17 +55438,17 @@
       <c r="AB91" s="13"/>
       <c r="AC91" s="13"/>
       <c r="AD91" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="AF91" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG91" s="13"/>
       <c r="AH91" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI91" s="13"/>
       <c r="AJ91" s="13"/>
@@ -55508,7 +55498,7 @@
         <v>361</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X92" s="13"/>
       <c r="Y92" s="13"/>
@@ -55518,14 +55508,14 @@
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
       <c r="AE92" s="1" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="AF92" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG92" s="13"/>
       <c r="AH92" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI92" s="13"/>
       <c r="AJ92" s="13"/>
@@ -55552,7 +55542,7 @@
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
@@ -55577,7 +55567,7 @@
         <v>361</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X93" s="13"/>
       <c r="Y93" s="13"/>
@@ -55585,20 +55575,20 @@
       <c r="AA93" s="13"/>
       <c r="AB93" s="13"/>
       <c r="AC93" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="AF93" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG93" s="13"/>
       <c r="AH93" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI93" s="13"/>
       <c r="AJ93" s="13"/>
@@ -55648,7 +55638,7 @@
         <v>361</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X94" s="13"/>
       <c r="Y94" s="13"/>
@@ -55658,14 +55648,14 @@
       <c r="AC94" s="13"/>
       <c r="AD94" s="13"/>
       <c r="AE94" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AF94" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG94" s="13"/>
       <c r="AH94" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI94" s="13"/>
       <c r="AJ94" s="13"/>
@@ -55692,7 +55682,7 @@
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
@@ -55717,7 +55707,7 @@
         <v>361</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X95" s="13"/>
       <c r="Y95" s="13"/>
@@ -55731,14 +55721,14 @@
         <v>121</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="AF95" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG95" s="13"/>
       <c r="AH95" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI95" s="13"/>
       <c r="AJ95" s="13"/>
@@ -55790,7 +55780,7 @@
         <v>361</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X96" s="13"/>
       <c r="Y96" s="13"/>
@@ -55802,14 +55792,14 @@
       </c>
       <c r="AD96" s="13"/>
       <c r="AE96" s="1" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="AF96" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG96" s="13"/>
       <c r="AH96" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI96" s="13"/>
       <c r="AJ96" s="13"/>
@@ -55859,7 +55849,7 @@
         <v>361</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X97" s="13"/>
       <c r="Y97" s="13"/>
@@ -55871,14 +55861,14 @@
         <v>218</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="AF97" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG97" s="13"/>
       <c r="AH97" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI97" s="13"/>
       <c r="AJ97" s="13"/>
@@ -55905,7 +55895,7 @@
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
@@ -55930,7 +55920,7 @@
         <v>361</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X98" s="13"/>
       <c r="Y98" s="13"/>
@@ -55942,14 +55932,14 @@
       </c>
       <c r="AD98" s="13"/>
       <c r="AE98" s="1" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="AF98" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG98" s="13"/>
       <c r="AH98" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI98" s="13"/>
       <c r="AJ98" s="13"/>
@@ -55976,7 +55966,7 @@
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -56001,7 +55991,7 @@
         <v>361</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X99" s="13"/>
       <c r="Y99" s="13"/>
@@ -56013,14 +56003,14 @@
       </c>
       <c r="AD99" s="13"/>
       <c r="AE99" s="1" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="AF99" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG99" s="13"/>
       <c r="AH99" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI99" s="13"/>
       <c r="AJ99" s="13"/>
@@ -56070,7 +56060,7 @@
         <v>361</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X100" s="13"/>
       <c r="Y100" s="13"/>
@@ -56080,14 +56070,14 @@
       <c r="AC100" s="13"/>
       <c r="AD100" s="13"/>
       <c r="AE100" s="1" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="AF100" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG100" s="13"/>
       <c r="AH100" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI100" s="13"/>
       <c r="AJ100" s="13"/>
@@ -56114,7 +56104,7 @@
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
@@ -56139,7 +56129,7 @@
         <v>361</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X101" s="13"/>
       <c r="Y101" s="13"/>
@@ -56153,14 +56143,14 @@
         <v>121</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="AF101" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG101" s="13"/>
       <c r="AH101" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI101" s="13"/>
       <c r="AJ101" s="13"/>
@@ -56212,7 +56202,7 @@
         <v>361</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X102" s="13"/>
       <c r="Y102" s="13"/>
@@ -56231,7 +56221,7 @@
       </c>
       <c r="AG102" s="13"/>
       <c r="AH102" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI102" s="13"/>
       <c r="AJ102" s="13"/>
@@ -56258,7 +56248,7 @@
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
@@ -56283,7 +56273,7 @@
         <v>361</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X103" s="13"/>
       <c r="Y103" s="13"/>
@@ -56295,14 +56285,14 @@
       </c>
       <c r="AD103" s="13"/>
       <c r="AE103" s="1" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="AF103" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG103" s="13"/>
       <c r="AH103" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI103" s="13"/>
       <c r="AJ103" s="13"/>
@@ -56329,7 +56319,7 @@
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
@@ -56354,7 +56344,7 @@
         <v>361</v>
       </c>
       <c r="W104" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X104" s="13"/>
       <c r="Y104" s="13"/>
@@ -56366,14 +56356,14 @@
       </c>
       <c r="AD104" s="13"/>
       <c r="AE104" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AF104" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG104" s="13"/>
       <c r="AH104" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI104" s="13"/>
       <c r="AJ104" s="13"/>
@@ -56400,7 +56390,7 @@
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
@@ -56425,7 +56415,7 @@
         <v>361</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X105" s="13"/>
       <c r="Y105" s="13"/>
@@ -56439,14 +56429,14 @@
         <v>634</v>
       </c>
       <c r="AE105" s="1" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="AF105" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG105" s="13"/>
       <c r="AH105" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI105" s="13"/>
       <c r="AJ105" s="13"/>
@@ -56474,7 +56464,7 @@
       <c r="M106" s="4"/>
       <c r="AG106" s="13"/>
       <c r="AH106" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI106" s="13"/>
       <c r="AJ106" s="13"/>
@@ -56524,7 +56514,7 @@
         <v>361</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
@@ -56534,14 +56524,14 @@
       <c r="AC107" s="13"/>
       <c r="AD107" s="13"/>
       <c r="AE107" s="1" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="AF107" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG107" s="13"/>
       <c r="AH107" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI107" s="13"/>
       <c r="AJ107" s="13"/>
@@ -56591,7 +56581,7 @@
         <v>361</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X108" s="13"/>
       <c r="Y108" s="13"/>
@@ -56604,11 +56594,11 @@
         <v>69</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="AG108" s="13"/>
       <c r="AH108" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI108" s="13"/>
       <c r="AJ108" s="13"/>
@@ -56635,7 +56625,7 @@
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
@@ -56660,7 +56650,7 @@
         <v>361</v>
       </c>
       <c r="W109" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X109" s="13"/>
       <c r="Y109" s="13"/>
@@ -56668,20 +56658,20 @@
       <c r="AA109" s="13"/>
       <c r="AB109" s="13"/>
       <c r="AC109" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AD109" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="AE109" s="1" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="AF109" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG109" s="13"/>
       <c r="AH109" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI109" s="13"/>
       <c r="AJ109" s="13"/>
@@ -56708,7 +56698,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
@@ -56733,7 +56723,7 @@
         <v>361</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X110" s="13"/>
       <c r="Y110" s="13"/>
@@ -56745,14 +56735,14 @@
       </c>
       <c r="AD110" s="13"/>
       <c r="AE110" s="1" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="AF110" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG110" s="13"/>
       <c r="AH110" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI110" s="13"/>
       <c r="AJ110" s="13"/>
@@ -56802,7 +56792,7 @@
         <v>361</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X111" s="13"/>
       <c r="Y111" s="13"/>
@@ -56812,14 +56802,14 @@
       <c r="AC111" s="13"/>
       <c r="AD111" s="13"/>
       <c r="AE111" s="1" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="AF111" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG111" s="13"/>
       <c r="AH111" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI111" s="13"/>
       <c r="AJ111" s="13"/>
@@ -56869,7 +56859,7 @@
         <v>361</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X112" s="13"/>
       <c r="Y112" s="13"/>
@@ -56878,17 +56868,17 @@
       <c r="AB112" s="13"/>
       <c r="AC112" s="13"/>
       <c r="AD112" s="1" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="AE112" s="1" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="AF112" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG112" s="13"/>
       <c r="AH112" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI112" s="13"/>
       <c r="AJ112" s="13"/>
@@ -56938,7 +56928,7 @@
         <v>361</v>
       </c>
       <c r="W113" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X113" s="13"/>
       <c r="Y113" s="13"/>
@@ -56947,17 +56937,17 @@
       <c r="AB113" s="13"/>
       <c r="AC113" s="13"/>
       <c r="AD113" s="1" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="AE113" s="1" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="AF113" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG113" s="13"/>
       <c r="AH113" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI113" s="13"/>
       <c r="AJ113" s="13"/>
@@ -56984,7 +56974,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
@@ -57009,7 +56999,7 @@
         <v>361</v>
       </c>
       <c r="W114" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
@@ -57024,7 +57014,7 @@
       <c r="AF114" s="13"/>
       <c r="AG114" s="13"/>
       <c r="AH114" s="14" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AI114" s="13"/>
       <c r="AJ114" s="13"/>
@@ -57079,14 +57069,14 @@
       <c r="X115" s="34"/>
       <c r="Y115" s="34"/>
       <c r="Z115" s="36" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="AA115" s="36" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="AB115" s="34"/>
       <c r="AC115" s="34" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AD115" s="34"/>
       <c r="AE115" s="34"/>
@@ -57249,7 +57239,7 @@
       <c r="K116" s="34"/>
       <c r="L116" s="34"/>
       <c r="M116" s="36" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="N116" s="34"/>
       <c r="O116" s="34"/>
@@ -57282,14 +57272,14 @@
       <c r="X116" s="34"/>
       <c r="Y116" s="34"/>
       <c r="Z116" s="36" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="AA116" s="36" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="AB116" s="34"/>
       <c r="AC116" s="34" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="AD116" s="34"/>
       <c r="AE116" s="34"/>
@@ -57311,7 +57301,7 @@
       <c r="AU116" s="34"/>
       <c r="AV116" s="37"/>
       <c r="AW116" s="37" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="AX116" s="37"/>
       <c r="AY116" s="37"/>
@@ -57485,14 +57475,14 @@
       <c r="X117" s="34"/>
       <c r="Y117" s="34"/>
       <c r="Z117" s="36" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="AA117" s="36" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="AB117" s="34"/>
       <c r="AC117" s="34" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="AD117" s="34"/>
       <c r="AE117" s="34"/>
@@ -57514,7 +57504,7 @@
       <c r="AU117" s="34"/>
       <c r="AV117" s="37"/>
       <c r="AW117" s="37" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="AX117" s="37"/>
       <c r="AY117" s="37"/>
@@ -57643,13 +57633,13 @@
     </row>
     <row r="118" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A118" s="38" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="B118" s="39" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
@@ -57665,10 +57655,10 @@
       <c r="M118" s="39"/>
       <c r="N118" s="39"/>
       <c r="O118" s="38" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="P118" s="38" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="Q118" s="40" t="s">
         <v>90</v>
@@ -57706,12 +57696,12 @@
       <c r="AH118" s="39"/>
       <c r="AI118" s="39"/>
       <c r="AJ118" s="38" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="AK118" s="38"/>
       <c r="AL118" s="38"/>
       <c r="AM118" s="38" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="AN118" s="38"/>
       <c r="AO118" s="38" t="s">
@@ -57730,14 +57720,14 @@
         <v>126</v>
       </c>
       <c r="AT118" s="38" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="AU118" s="39" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="AV118" s="39"/>
       <c r="AW118" s="39" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="AX118" s="39"/>
       <c r="AY118" s="39"/>
@@ -57866,13 +57856,13 @@
     </row>
     <row r="119" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A119" s="38" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B119" s="39" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
@@ -57888,10 +57878,10 @@
       <c r="M119" s="39"/>
       <c r="N119" s="39"/>
       <c r="O119" s="38" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="P119" s="38" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="Q119" s="40" t="s">
         <v>750</v>
@@ -57929,12 +57919,12 @@
       <c r="AH119" s="39"/>
       <c r="AI119" s="39"/>
       <c r="AJ119" s="38" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="AK119" s="38"/>
       <c r="AL119" s="38"/>
       <c r="AM119" s="38" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="AN119" s="38"/>
       <c r="AO119" s="38" t="s">
@@ -57953,14 +57943,14 @@
         <v>126</v>
       </c>
       <c r="AT119" s="38" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="AU119" s="39" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="AV119" s="39"/>
       <c r="AW119" s="39" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="AX119" s="39"/>
       <c r="AY119" s="39"/>
@@ -58089,13 +58079,13 @@
     </row>
     <row r="120" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A120" s="38" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="B120" s="39" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
@@ -58111,10 +58101,10 @@
       <c r="M120" s="39"/>
       <c r="N120" s="39"/>
       <c r="O120" s="38" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="P120" s="38" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="Q120" s="40" t="s">
         <v>906</v>
@@ -58152,12 +58142,12 @@
       <c r="AH120" s="39"/>
       <c r="AI120" s="39"/>
       <c r="AJ120" s="38" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="AK120" s="38"/>
       <c r="AL120" s="38"/>
       <c r="AM120" s="38" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="AN120" s="38"/>
       <c r="AO120" s="38" t="s">
@@ -58176,14 +58166,14 @@
         <v>126</v>
       </c>
       <c r="AT120" s="38" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="AU120" s="39" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="AV120" s="39"/>
       <c r="AW120" s="39" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="AX120" s="39"/>
       <c r="AY120" s="39"/>
@@ -58312,13 +58302,13 @@
     </row>
     <row r="121" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A121" s="38" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="B121" s="39" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D121" s="38"/>
       <c r="E121" s="38" t="s">
@@ -58334,10 +58324,10 @@
       <c r="M121" s="39"/>
       <c r="N121" s="39"/>
       <c r="O121" s="38" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="P121" s="38" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="Q121" s="40" t="s">
         <v>103</v>
@@ -58375,12 +58365,12 @@
       <c r="AH121" s="39"/>
       <c r="AI121" s="39"/>
       <c r="AJ121" s="38" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="AK121" s="38"/>
       <c r="AL121" s="38"/>
       <c r="AM121" s="38" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="AN121" s="38"/>
       <c r="AO121" s="38" t="s">
@@ -58399,14 +58389,14 @@
         <v>126</v>
       </c>
       <c r="AT121" s="38" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="AU121" s="39" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="AV121" s="39"/>
       <c r="AW121" s="39" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="AX121" s="39"/>
       <c r="AY121" s="39"/>
@@ -58535,13 +58525,13 @@
     </row>
     <row r="122" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A122" s="38" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B122" s="39" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
@@ -58557,10 +58547,10 @@
       <c r="M122" s="39"/>
       <c r="N122" s="39"/>
       <c r="O122" s="38" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="P122" s="38" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="Q122" s="40" t="s">
         <v>906</v>
@@ -58598,12 +58588,12 @@
       <c r="AH122" s="39"/>
       <c r="AI122" s="39"/>
       <c r="AJ122" s="38" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="AK122" s="38"/>
       <c r="AL122" s="38"/>
       <c r="AM122" s="38" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="AN122" s="38"/>
       <c r="AO122" s="38" t="s">
@@ -58622,14 +58612,14 @@
         <v>126</v>
       </c>
       <c r="AT122" s="38" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="AU122" s="39" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="AV122" s="39"/>
       <c r="AW122" s="39" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="AX122" s="39"/>
       <c r="AY122" s="39"/>
@@ -58758,13 +58748,13 @@
     </row>
     <row r="123" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A123" s="32" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="B123" s="42" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="D123" s="32"/>
       <c r="E123" s="32" t="s">
@@ -58780,10 +58770,10 @@
       <c r="M123" s="42"/>
       <c r="N123" s="42"/>
       <c r="O123" s="32" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="P123" s="32" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="Q123" s="43" t="s">
         <v>90</v>
@@ -58821,12 +58811,12 @@
       <c r="AH123" s="42"/>
       <c r="AI123" s="42"/>
       <c r="AJ123" s="32" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="AK123" s="32"/>
       <c r="AL123" s="32"/>
       <c r="AM123" s="32" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="AN123" s="32"/>
       <c r="AO123" s="32" t="s">
@@ -58845,14 +58835,14 @@
         <v>126</v>
       </c>
       <c r="AT123" s="32" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="AU123" s="42" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="AV123" s="42"/>
       <c r="AW123" s="42" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="AX123" s="42"/>
       <c r="AY123" s="42"/>
@@ -58981,13 +58971,13 @@
     </row>
     <row r="124" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A124" s="32" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="D124" s="32"/>
       <c r="E124" s="32" t="s">
@@ -59003,10 +58993,10 @@
       <c r="M124" s="42"/>
       <c r="N124" s="42"/>
       <c r="O124" s="32" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="P124" s="32" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="Q124" s="43" t="s">
         <v>90</v>
@@ -59044,12 +59034,12 @@
       <c r="AH124" s="42"/>
       <c r="AI124" s="42"/>
       <c r="AJ124" s="32" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="AK124" s="32"/>
       <c r="AL124" s="32"/>
       <c r="AM124" s="32" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="AN124" s="32"/>
       <c r="AO124" s="32" t="s">
@@ -59068,14 +59058,14 @@
         <v>145</v>
       </c>
       <c r="AT124" s="32" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="AU124" s="42" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="AV124" s="42"/>
       <c r="AW124" s="42" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="AX124" s="42"/>
       <c r="AY124" s="42"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{696BB408-924E-4C26-960B-57C67839ECF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07056291-CA25-4D52-9AB9-A75CC46242E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4647" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4649" uniqueCount="1607">
   <si>
     <t>VJDBv0.3</t>
   </si>
@@ -4469,6 +4469,9 @@
   </si>
   <si>
     <t>Host GTDB TaxID</t>
+  </si>
+  <si>
+    <t>GTDB</t>
   </si>
   <si>
     <t>0hg</t>
@@ -5885,8 +5888,8 @@
   <dimension ref="A1:FY196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AV191" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW194" sqref="AW194"/>
+      <pane xSplit="1" topLeftCell="T186" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U194" sqref="U194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
@@ -47170,9 +47173,28 @@
       <c r="B193" t="s">
         <v>1411</v>
       </c>
+      <c r="U193" t="s">
+        <v>1412</v>
+      </c>
+      <c r="V193" s="48" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+    IF(H193&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
+    IF(I193&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
+    IF(J193&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
+    IF(K193&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
+    IF(L193&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M193&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N193&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O193&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P193&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
+    IF(S193&lt;&gt;"", """" &amp; S193 &amp; """", ""), IF(Q193&lt;&gt;"", """" &amp; Q193 &amp; """", ""), IF(R193&lt;&gt;"", """" &amp; R193 &amp; """", ""),
+    IF(T193&lt;&gt;"", """" &amp; T193 &amp; """", ""),
+    IF(U193&lt;&gt;"", """" &amp; U193 &amp; """", "")
+) &amp; "]"</f>
+        <v>["GTDB"]</v>
+      </c>
+      <c r="W193" t="s">
+        <v>1412</v>
+      </c>
       <c r="AS193"/>
       <c r="AW193" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="194" spans="1:49" ht="23.25" customHeight="1">
@@ -48380,7 +48402,7 @@
         <v>361</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
@@ -48390,14 +48412,14 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="2" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AH5" s="9" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -48424,7 +48446,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -48449,7 +48471,7 @@
         <v>361</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
@@ -48461,14 +48483,14 @@
       </c>
       <c r="AD6" s="13"/>
       <c r="AE6" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG6" s="13"/>
       <c r="AH6" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
@@ -48518,7 +48540,7 @@
         <v>361</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
@@ -48530,14 +48552,14 @@
         <v>121</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG7" s="13"/>
       <c r="AH7" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
@@ -48587,7 +48609,7 @@
         <v>361</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
@@ -48597,14 +48619,14 @@
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
       <c r="AE8" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG8" s="13"/>
       <c r="AH8" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
@@ -48654,7 +48676,7 @@
         <v>361</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
@@ -48664,14 +48686,14 @@
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG9" s="13"/>
       <c r="AH9" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
@@ -48698,7 +48720,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -48723,7 +48745,7 @@
         <v>361</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
@@ -48735,14 +48757,14 @@
       </c>
       <c r="AD10" s="13"/>
       <c r="AE10" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG10" s="13"/>
       <c r="AH10" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
@@ -48769,7 +48791,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -48794,7 +48816,7 @@
         <v>361</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
@@ -48806,14 +48828,14 @@
       </c>
       <c r="AD11" s="13"/>
       <c r="AE11" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG11" s="13"/>
       <c r="AH11" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
@@ -48863,7 +48885,7 @@
         <v>361</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
@@ -48873,14 +48895,14 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="1" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG12" s="13"/>
       <c r="AH12" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
@@ -48930,7 +48952,7 @@
         <v>361</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
@@ -48940,14 +48962,14 @@
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="1" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG13" s="13"/>
       <c r="AH13" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
@@ -48974,7 +48996,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -48999,7 +49021,7 @@
         <v>361</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
@@ -49007,20 +49029,20 @@
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG14" s="13"/>
       <c r="AH14" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
@@ -49070,7 +49092,7 @@
         <v>361</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
@@ -49079,17 +49101,17 @@
       <c r="AB15" s="13"/>
       <c r="AC15" s="13"/>
       <c r="AD15" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AF15" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG15" s="13"/>
       <c r="AH15" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
@@ -49139,7 +49161,7 @@
         <v>361</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
@@ -49149,14 +49171,14 @@
       <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
       <c r="AE16" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG16" s="13"/>
       <c r="AH16" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="13"/>
@@ -49183,7 +49205,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -49208,7 +49230,7 @@
         <v>361</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -49216,20 +49238,20 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="AF17" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG17" s="13"/>
       <c r="AH17" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="13"/>
@@ -49256,7 +49278,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -49281,7 +49303,7 @@
         <v>361</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
@@ -49289,20 +49311,20 @@
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
       <c r="AC18" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="AF18" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG18" s="13"/>
       <c r="AH18" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI18" s="13"/>
       <c r="AJ18" s="13"/>
@@ -49329,7 +49351,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -49354,7 +49376,7 @@
         <v>361</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -49368,14 +49390,14 @@
         <v>218</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG19" s="13"/>
       <c r="AH19" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI19" s="13"/>
       <c r="AJ19" s="13"/>
@@ -49402,7 +49424,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -49427,7 +49449,7 @@
         <v>361</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
@@ -49439,14 +49461,14 @@
       </c>
       <c r="AD20" s="13"/>
       <c r="AE20" s="1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="AF20" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG20" s="13"/>
       <c r="AH20" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI20" s="13"/>
       <c r="AJ20" s="13"/>
@@ -49518,7 +49540,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -49543,7 +49565,7 @@
         <v>361</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
@@ -49551,20 +49573,20 @@
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
       <c r="AC22" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="AF22" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG22" s="13"/>
       <c r="AH22" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI22" s="13"/>
       <c r="AJ22" s="13"/>
@@ -49591,7 +49613,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -49616,7 +49638,7 @@
         <v>361</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
@@ -49630,14 +49652,14 @@
         <v>121</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="AF23" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG23" s="13"/>
       <c r="AH23" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI23" s="13"/>
       <c r="AJ23" s="13"/>
@@ -49664,7 +49686,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -49689,7 +49711,7 @@
         <v>361</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
@@ -49701,14 +49723,14 @@
       </c>
       <c r="AD24" s="13"/>
       <c r="AE24" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="AF24" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG24" s="13"/>
       <c r="AH24" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI24" s="13"/>
       <c r="AJ24" s="13"/>
@@ -49758,7 +49780,7 @@
         <v>361</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
@@ -49768,14 +49790,14 @@
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="AF25" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG25" s="13"/>
       <c r="AH25" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI25" s="13"/>
       <c r="AJ25" s="13"/>
@@ -49802,7 +49824,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -49827,7 +49849,7 @@
         <v>361</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
@@ -49839,14 +49861,14 @@
       </c>
       <c r="AD26" s="13"/>
       <c r="AE26" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="AF26" s="1" t="s">
         <v>731</v>
       </c>
       <c r="AG26" s="13"/>
       <c r="AH26" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="13"/>
@@ -49873,7 +49895,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -49898,7 +49920,7 @@
         <v>361</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
@@ -49912,14 +49934,14 @@
         <v>218</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="AF27" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG27" s="13"/>
       <c r="AH27" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="13"/>
@@ -49946,7 +49968,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -49971,7 +49993,7 @@
         <v>361</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
@@ -49985,14 +50007,14 @@
         <v>218</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="AF28" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG28" s="13"/>
       <c r="AH28" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="13"/>
@@ -50019,7 +50041,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -50044,7 +50066,7 @@
         <v>361</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
@@ -50058,14 +50080,14 @@
         <v>218</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="AF29" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG29" s="13"/>
       <c r="AH29" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
@@ -50115,7 +50137,7 @@
         <v>361</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
@@ -50124,17 +50146,17 @@
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
       <c r="AD30" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="AF30" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG30" s="13"/>
       <c r="AH30" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="13"/>
@@ -50184,7 +50206,7 @@
         <v>361</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
@@ -50193,17 +50215,17 @@
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
       <c r="AD31" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="AF31" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG31" s="13"/>
       <c r="AH31" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="13"/>
@@ -50230,7 +50252,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -50255,7 +50277,7 @@
         <v>361</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
@@ -50267,14 +50289,14 @@
       </c>
       <c r="AD32" s="13"/>
       <c r="AE32" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="AF32" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG32" s="13"/>
       <c r="AH32" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="13"/>
@@ -50324,7 +50346,7 @@
         <v>361</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
@@ -50334,14 +50356,14 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
       <c r="AE33" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="AF33" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG33" s="13"/>
       <c r="AH33" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="13"/>
@@ -50368,7 +50390,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -50393,7 +50415,7 @@
         <v>361</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
@@ -50405,14 +50427,14 @@
       </c>
       <c r="AD34" s="13"/>
       <c r="AE34" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="AF34" s="1" t="s">
         <v>731</v>
       </c>
       <c r="AG34" s="13"/>
       <c r="AH34" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="13"/>
@@ -50462,7 +50484,7 @@
         <v>361</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
@@ -50474,14 +50496,14 @@
         <v>121</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="AF35" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG35" s="13"/>
       <c r="AH35" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="13"/>
@@ -50531,7 +50553,7 @@
         <v>361</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
@@ -50548,7 +50570,7 @@
       </c>
       <c r="AG36" s="13"/>
       <c r="AH36" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI36" s="13"/>
       <c r="AJ36" s="13"/>
@@ -50575,7 +50597,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -50600,7 +50622,7 @@
         <v>361</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
@@ -50608,20 +50630,20 @@
       <c r="AA37" s="13"/>
       <c r="AB37" s="13"/>
       <c r="AC37" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG37" s="13"/>
       <c r="AH37" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI37" s="13"/>
       <c r="AJ37" s="13"/>
@@ -50648,7 +50670,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -50673,7 +50695,7 @@
         <v>361</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
@@ -50681,20 +50703,20 @@
       <c r="AA38" s="13"/>
       <c r="AB38" s="13"/>
       <c r="AC38" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="AF38" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG38" s="13"/>
       <c r="AH38" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI38" s="13"/>
       <c r="AJ38" s="13"/>
@@ -50721,7 +50743,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -50746,7 +50768,7 @@
         <v>361</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
@@ -50754,20 +50776,20 @@
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
       <c r="AC39" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="AF39" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG39" s="13"/>
       <c r="AH39" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI39" s="13"/>
       <c r="AJ39" s="13"/>
@@ -50794,7 +50816,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -50819,7 +50841,7 @@
         <v>361</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
@@ -50827,18 +50849,18 @@
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
       <c r="AC40" s="1" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="AD40" s="13"/>
       <c r="AE40" s="1" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="AF40" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG40" s="13"/>
       <c r="AH40" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI40" s="13"/>
       <c r="AJ40" s="13"/>
@@ -50865,7 +50887,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -50890,7 +50912,7 @@
         <v>361</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
@@ -50904,14 +50926,14 @@
         <v>121</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="AF41" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG41" s="13"/>
       <c r="AH41" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI41" s="13"/>
       <c r="AJ41" s="13"/>
@@ -50961,7 +50983,7 @@
         <v>361</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
@@ -50971,14 +50993,14 @@
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
       <c r="AE42" s="1" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="AF42" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG42" s="13"/>
       <c r="AH42" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI42" s="13"/>
       <c r="AJ42" s="13"/>
@@ -51005,7 +51027,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -51030,7 +51052,7 @@
         <v>361</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
@@ -51042,14 +51064,14 @@
       </c>
       <c r="AD43" s="13"/>
       <c r="AE43" s="1" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="AF43" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG43" s="13"/>
       <c r="AH43" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI43" s="13"/>
       <c r="AJ43" s="13"/>
@@ -51076,7 +51098,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -51101,7 +51123,7 @@
         <v>361</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
@@ -51113,14 +51135,14 @@
       </c>
       <c r="AD44" s="13"/>
       <c r="AE44" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="AF44" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG44" s="13"/>
       <c r="AH44" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI44" s="13"/>
       <c r="AJ44" s="13"/>
@@ -51147,7 +51169,7 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -51172,7 +51194,7 @@
         <v>361</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
@@ -51184,14 +51206,14 @@
       </c>
       <c r="AD45" s="13"/>
       <c r="AE45" s="1" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="AF45" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG45" s="13"/>
       <c r="AH45" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI45" s="13"/>
       <c r="AJ45" s="13"/>
@@ -51241,7 +51263,7 @@
         <v>361</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
@@ -51251,14 +51273,14 @@
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="AF46" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG46" s="13"/>
       <c r="AH46" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="13"/>
@@ -51285,7 +51307,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -51310,7 +51332,7 @@
         <v>361</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
@@ -51322,14 +51344,14 @@
       </c>
       <c r="AD47" s="13"/>
       <c r="AE47" s="1" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="AF47" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG47" s="13"/>
       <c r="AH47" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI47" s="13"/>
       <c r="AJ47" s="13"/>
@@ -51379,7 +51401,7 @@
         <v>361</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
@@ -51389,14 +51411,14 @@
       <c r="AC48" s="13"/>
       <c r="AD48" s="13"/>
       <c r="AE48" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="AF48" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG48" s="13"/>
       <c r="AH48" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI48" s="13"/>
       <c r="AJ48" s="13"/>
@@ -51423,7 +51445,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -51448,7 +51470,7 @@
         <v>361</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
@@ -51460,14 +51482,14 @@
       </c>
       <c r="AD49" s="13"/>
       <c r="AE49" s="1" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="AF49" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG49" s="13"/>
       <c r="AH49" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI49" s="13"/>
       <c r="AJ49" s="13"/>
@@ -51517,7 +51539,7 @@
         <v>361</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
@@ -51527,14 +51549,14 @@
       <c r="AC50" s="13"/>
       <c r="AD50" s="13"/>
       <c r="AE50" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="AF50" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG50" s="13"/>
       <c r="AH50" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI50" s="13"/>
       <c r="AJ50" s="13"/>
@@ -51584,7 +51606,7 @@
         <v>361</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X51" s="13"/>
       <c r="Y51" s="13"/>
@@ -51593,17 +51615,17 @@
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
       <c r="AD51" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="AF51" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG51" s="13"/>
       <c r="AH51" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI51" s="13"/>
       <c r="AJ51" s="13"/>
@@ -51653,7 +51675,7 @@
         <v>361</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
@@ -51662,17 +51684,17 @@
       <c r="AB52" s="13"/>
       <c r="AC52" s="13"/>
       <c r="AD52" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="AF52" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG52" s="13"/>
       <c r="AH52" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI52" s="13"/>
       <c r="AJ52" s="13"/>
@@ -51699,7 +51721,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
@@ -51724,7 +51746,7 @@
         <v>361</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
@@ -51738,14 +51760,14 @@
         <v>121</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="AF53" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG53" s="13"/>
       <c r="AH53" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI53" s="13"/>
       <c r="AJ53" s="13"/>
@@ -51795,7 +51817,7 @@
         <v>361</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X54" s="13"/>
       <c r="Y54" s="13"/>
@@ -51807,14 +51829,14 @@
         <v>121</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="AF54" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG54" s="13"/>
       <c r="AH54" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI54" s="13"/>
       <c r="AJ54" s="13"/>
@@ -51841,7 +51863,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -51866,7 +51888,7 @@
         <v>361</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
@@ -51880,14 +51902,14 @@
         <v>121</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="AF55" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG55" s="13"/>
       <c r="AH55" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI55" s="13"/>
       <c r="AJ55" s="13"/>
@@ -51961,7 +51983,7 @@
         <v>361</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
@@ -51973,14 +51995,14 @@
         <v>121</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="AF57" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG57" s="13"/>
       <c r="AH57" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI57" s="13"/>
       <c r="AJ57" s="13"/>
@@ -52030,7 +52052,7 @@
         <v>361</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
@@ -52042,14 +52064,14 @@
         <v>121</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="AF58" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI58" s="13"/>
       <c r="AJ58" s="13"/>
@@ -52076,7 +52098,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
@@ -52101,7 +52123,7 @@
         <v>361</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
@@ -52109,20 +52131,20 @@
       <c r="AA59" s="13"/>
       <c r="AB59" s="13"/>
       <c r="AC59" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="AF59" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG59" s="13"/>
       <c r="AH59" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI59" s="13"/>
       <c r="AJ59" s="13"/>
@@ -52172,7 +52194,7 @@
         <v>361</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
@@ -52181,17 +52203,17 @@
       <c r="AB60" s="13"/>
       <c r="AC60" s="13"/>
       <c r="AD60" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="AF60" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG60" s="13"/>
       <c r="AH60" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI60" s="13"/>
       <c r="AJ60" s="13"/>
@@ -52218,7 +52240,7 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
@@ -52243,7 +52265,7 @@
         <v>361</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
@@ -52255,14 +52277,14 @@
       </c>
       <c r="AD61" s="13"/>
       <c r="AE61" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="AF61" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG61" s="13"/>
       <c r="AH61" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI61" s="13"/>
       <c r="AJ61" s="13"/>
@@ -52312,7 +52334,7 @@
         <v>361</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
@@ -52322,14 +52344,14 @@
       <c r="AC62" s="13"/>
       <c r="AD62" s="13"/>
       <c r="AE62" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="AF62" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG62" s="13"/>
       <c r="AH62" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI62" s="13"/>
       <c r="AJ62" s="13"/>
@@ -52356,7 +52378,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
@@ -52381,7 +52403,7 @@
         <v>361</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
@@ -52393,14 +52415,14 @@
       </c>
       <c r="AD63" s="13"/>
       <c r="AE63" s="1" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="AF63" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG63" s="13"/>
       <c r="AH63" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI63" s="13"/>
       <c r="AJ63" s="13"/>
@@ -52450,7 +52472,7 @@
         <v>361</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
@@ -52460,14 +52482,14 @@
       <c r="AC64" s="13"/>
       <c r="AD64" s="13"/>
       <c r="AE64" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="AF64" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG64" s="13"/>
       <c r="AH64" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI64" s="13"/>
       <c r="AJ64" s="13"/>
@@ -52517,7 +52539,7 @@
         <v>361</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X65" s="13"/>
       <c r="Y65" s="13"/>
@@ -52526,17 +52548,17 @@
       <c r="AB65" s="13"/>
       <c r="AC65" s="13"/>
       <c r="AD65" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="AF65" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG65" s="13"/>
       <c r="AH65" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI65" s="13"/>
       <c r="AJ65" s="13"/>
@@ -52586,7 +52608,7 @@
         <v>361</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
@@ -52596,14 +52618,14 @@
       <c r="AC66" s="13"/>
       <c r="AD66" s="13"/>
       <c r="AE66" s="1" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="AF66" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG66" s="13"/>
       <c r="AH66" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI66" s="13"/>
       <c r="AJ66" s="13"/>
@@ -52677,7 +52699,7 @@
         <v>361</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X68" s="13"/>
       <c r="Y68" s="13"/>
@@ -52694,7 +52716,7 @@
       </c>
       <c r="AG68" s="13"/>
       <c r="AH68" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI68" s="13"/>
       <c r="AJ68" s="13"/>
@@ -52721,7 +52743,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
@@ -52746,7 +52768,7 @@
         <v>361</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X69" s="13"/>
       <c r="Y69" s="13"/>
@@ -52758,14 +52780,14 @@
       </c>
       <c r="AD69" s="13"/>
       <c r="AE69" s="1" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="AF69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG69" s="13"/>
       <c r="AH69" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI69" s="13"/>
       <c r="AJ69" s="13"/>
@@ -52792,7 +52814,7 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
@@ -52817,7 +52839,7 @@
         <v>361</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X70" s="13"/>
       <c r="Y70" s="13"/>
@@ -52831,14 +52853,14 @@
         <v>121</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="AF70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG70" s="13"/>
       <c r="AH70" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI70" s="13"/>
       <c r="AJ70" s="13"/>
@@ -52865,7 +52887,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
@@ -52890,7 +52912,7 @@
         <v>361</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X71" s="13"/>
       <c r="Y71" s="13"/>
@@ -52902,14 +52924,14 @@
       </c>
       <c r="AD71" s="13"/>
       <c r="AE71" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="AF71" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG71" s="13"/>
       <c r="AH71" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI71" s="13"/>
       <c r="AJ71" s="13"/>
@@ -52936,7 +52958,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
@@ -52961,7 +52983,7 @@
         <v>361</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X72" s="13"/>
       <c r="Y72" s="13"/>
@@ -52973,14 +52995,14 @@
       </c>
       <c r="AD72" s="13"/>
       <c r="AE72" s="1" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="AF72" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG72" s="13"/>
       <c r="AH72" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI72" s="13"/>
       <c r="AJ72" s="13"/>
@@ -53030,7 +53052,7 @@
         <v>361</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X73" s="13"/>
       <c r="Y73" s="13"/>
@@ -53039,17 +53061,17 @@
       <c r="AB73" s="13"/>
       <c r="AC73" s="13"/>
       <c r="AD73" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="AF73" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG73" s="13"/>
       <c r="AH73" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI73" s="13"/>
       <c r="AJ73" s="13"/>
@@ -53076,7 +53098,7 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -53101,7 +53123,7 @@
         <v>361</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X74" s="13"/>
       <c r="Y74" s="13"/>
@@ -53112,17 +53134,17 @@
         <v>729</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="AE74" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="AF74" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG74" s="13"/>
       <c r="AH74" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI74" s="13"/>
       <c r="AJ74" s="13"/>
@@ -53172,7 +53194,7 @@
         <v>361</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
@@ -53182,14 +53204,14 @@
       <c r="AC75" s="13"/>
       <c r="AD75" s="13"/>
       <c r="AE75" s="1" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="AF75" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG75" s="13"/>
       <c r="AH75" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI75" s="13"/>
       <c r="AJ75" s="13"/>
@@ -53239,7 +53261,7 @@
         <v>361</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X76" s="13"/>
       <c r="Y76" s="13"/>
@@ -53249,14 +53271,14 @@
       <c r="AC76" s="13"/>
       <c r="AD76" s="13"/>
       <c r="AE76" s="1" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="AF76" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG76" s="13"/>
       <c r="AH76" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI76" s="13"/>
       <c r="AJ76" s="13"/>
@@ -53306,7 +53328,7 @@
         <v>361</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X77" s="13"/>
       <c r="Y77" s="13"/>
@@ -53315,17 +53337,17 @@
       <c r="AB77" s="13"/>
       <c r="AC77" s="13"/>
       <c r="AD77" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="AF77" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG77" s="13"/>
       <c r="AH77" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI77" s="13"/>
       <c r="AJ77" s="13"/>
@@ -53375,7 +53397,7 @@
         <v>361</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X78" s="13"/>
       <c r="Y78" s="13"/>
@@ -53384,17 +53406,17 @@
       <c r="AB78" s="13"/>
       <c r="AC78" s="13"/>
       <c r="AD78" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="AF78" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG78" s="13"/>
       <c r="AH78" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI78" s="13"/>
       <c r="AJ78" s="13"/>
@@ -53421,7 +53443,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
@@ -53446,7 +53468,7 @@
         <v>361</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X79" s="13"/>
       <c r="Y79" s="13"/>
@@ -53458,14 +53480,14 @@
       </c>
       <c r="AD79" s="13"/>
       <c r="AE79" s="1" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="AF79" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG79" s="13"/>
       <c r="AH79" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI79" s="13"/>
       <c r="AJ79" s="13"/>
@@ -53492,7 +53514,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -53517,7 +53539,7 @@
         <v>361</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X80" s="13"/>
       <c r="Y80" s="13"/>
@@ -53529,14 +53551,14 @@
       </c>
       <c r="AD80" s="13"/>
       <c r="AE80" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AF80" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG80" s="13"/>
       <c r="AH80" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI80" s="13"/>
       <c r="AJ80" s="13"/>
@@ -53586,7 +53608,7 @@
         <v>361</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
@@ -53595,17 +53617,17 @@
       <c r="AB81" s="13"/>
       <c r="AC81" s="13"/>
       <c r="AD81" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="AF81" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG81" s="13"/>
       <c r="AH81" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI81" s="13"/>
       <c r="AJ81" s="13"/>
@@ -53632,7 +53654,7 @@
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -53657,7 +53679,7 @@
         <v>361</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X82" s="13"/>
       <c r="Y82" s="13"/>
@@ -53669,14 +53691,14 @@
       </c>
       <c r="AD82" s="13"/>
       <c r="AE82" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="AF82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG82" s="13"/>
       <c r="AH82" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI82" s="13"/>
       <c r="AJ82" s="13"/>
@@ -53726,7 +53748,7 @@
         <v>361</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
@@ -53736,14 +53758,14 @@
       <c r="AC83" s="13"/>
       <c r="AD83" s="13"/>
       <c r="AE83" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="AF83" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG83" s="13"/>
       <c r="AH83" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI83" s="13"/>
       <c r="AJ83" s="13"/>
@@ -53815,7 +53837,7 @@
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
@@ -53840,7 +53862,7 @@
         <v>361</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X85" s="13"/>
       <c r="Y85" s="13"/>
@@ -53854,14 +53876,14 @@
         <v>218</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="AF85" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG85" s="13"/>
       <c r="AH85" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI85" s="13"/>
       <c r="AJ85" s="13"/>
@@ -53911,7 +53933,7 @@
         <v>361</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X86" s="13"/>
       <c r="Y86" s="13"/>
@@ -53920,17 +53942,17 @@
       <c r="AB86" s="13"/>
       <c r="AC86" s="13"/>
       <c r="AD86" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="AF86" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG86" s="13"/>
       <c r="AH86" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI86" s="13"/>
       <c r="AJ86" s="13"/>
@@ -53980,7 +54002,7 @@
         <v>361</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X87" s="13"/>
       <c r="Y87" s="13"/>
@@ -53989,17 +54011,17 @@
       <c r="AB87" s="13"/>
       <c r="AC87" s="13"/>
       <c r="AD87" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AE87" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="AF87" s="1" t="s">
         <v>249</v>
       </c>
       <c r="AG87" s="13"/>
       <c r="AH87" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI87" s="13"/>
       <c r="AJ87" s="13"/>
@@ -54026,7 +54048,7 @@
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
@@ -54051,7 +54073,7 @@
         <v>361</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X88" s="13"/>
       <c r="Y88" s="13"/>
@@ -54062,7 +54084,7 @@
         <v>729</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="AE88" s="1" t="s">
         <v>58</v>
@@ -54072,7 +54094,7 @@
       </c>
       <c r="AG88" s="13"/>
       <c r="AH88" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI88" s="13"/>
       <c r="AJ88" s="13"/>
@@ -54122,7 +54144,7 @@
         <v>361</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
@@ -54139,7 +54161,7 @@
       </c>
       <c r="AG89" s="13"/>
       <c r="AH89" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI89" s="13"/>
       <c r="AJ89" s="13"/>
@@ -54189,7 +54211,7 @@
         <v>361</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X90" s="13"/>
       <c r="Y90" s="13"/>
@@ -54199,14 +54221,14 @@
       <c r="AC90" s="13"/>
       <c r="AD90" s="13"/>
       <c r="AE90" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="AF90" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG90" s="13"/>
       <c r="AH90" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI90" s="13"/>
       <c r="AJ90" s="13"/>
@@ -54256,7 +54278,7 @@
         <v>361</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X91" s="13"/>
       <c r="Y91" s="13"/>
@@ -54265,17 +54287,17 @@
       <c r="AB91" s="13"/>
       <c r="AC91" s="13"/>
       <c r="AD91" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="AF91" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG91" s="13"/>
       <c r="AH91" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI91" s="13"/>
       <c r="AJ91" s="13"/>
@@ -54325,7 +54347,7 @@
         <v>361</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X92" s="13"/>
       <c r="Y92" s="13"/>
@@ -54335,14 +54357,14 @@
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
       <c r="AE92" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="AF92" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG92" s="13"/>
       <c r="AH92" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI92" s="13"/>
       <c r="AJ92" s="13"/>
@@ -54369,7 +54391,7 @@
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
@@ -54394,7 +54416,7 @@
         <v>361</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X93" s="13"/>
       <c r="Y93" s="13"/>
@@ -54402,20 +54424,20 @@
       <c r="AA93" s="13"/>
       <c r="AB93" s="13"/>
       <c r="AC93" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AF93" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG93" s="13"/>
       <c r="AH93" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI93" s="13"/>
       <c r="AJ93" s="13"/>
@@ -54465,7 +54487,7 @@
         <v>361</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X94" s="13"/>
       <c r="Y94" s="13"/>
@@ -54475,14 +54497,14 @@
       <c r="AC94" s="13"/>
       <c r="AD94" s="13"/>
       <c r="AE94" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AF94" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG94" s="13"/>
       <c r="AH94" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI94" s="13"/>
       <c r="AJ94" s="13"/>
@@ -54509,7 +54531,7 @@
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
@@ -54534,7 +54556,7 @@
         <v>361</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X95" s="13"/>
       <c r="Y95" s="13"/>
@@ -54548,14 +54570,14 @@
         <v>121</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="AF95" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG95" s="13"/>
       <c r="AH95" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI95" s="13"/>
       <c r="AJ95" s="13"/>
@@ -54607,7 +54629,7 @@
         <v>361</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X96" s="13"/>
       <c r="Y96" s="13"/>
@@ -54619,14 +54641,14 @@
       </c>
       <c r="AD96" s="13"/>
       <c r="AE96" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="AF96" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG96" s="13"/>
       <c r="AH96" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI96" s="13"/>
       <c r="AJ96" s="13"/>
@@ -54676,7 +54698,7 @@
         <v>361</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X97" s="13"/>
       <c r="Y97" s="13"/>
@@ -54688,14 +54710,14 @@
         <v>218</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="AF97" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG97" s="13"/>
       <c r="AH97" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI97" s="13"/>
       <c r="AJ97" s="13"/>
@@ -54722,7 +54744,7 @@
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
@@ -54747,7 +54769,7 @@
         <v>361</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X98" s="13"/>
       <c r="Y98" s="13"/>
@@ -54759,14 +54781,14 @@
       </c>
       <c r="AD98" s="13"/>
       <c r="AE98" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="AF98" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG98" s="13"/>
       <c r="AH98" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI98" s="13"/>
       <c r="AJ98" s="13"/>
@@ -54793,7 +54815,7 @@
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -54818,7 +54840,7 @@
         <v>361</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X99" s="13"/>
       <c r="Y99" s="13"/>
@@ -54830,14 +54852,14 @@
       </c>
       <c r="AD99" s="13"/>
       <c r="AE99" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="AF99" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG99" s="13"/>
       <c r="AH99" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI99" s="13"/>
       <c r="AJ99" s="13"/>
@@ -54887,7 +54909,7 @@
         <v>361</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X100" s="13"/>
       <c r="Y100" s="13"/>
@@ -54897,14 +54919,14 @@
       <c r="AC100" s="13"/>
       <c r="AD100" s="13"/>
       <c r="AE100" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="AF100" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG100" s="13"/>
       <c r="AH100" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI100" s="13"/>
       <c r="AJ100" s="13"/>
@@ -54931,7 +54953,7 @@
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
@@ -54956,7 +54978,7 @@
         <v>361</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X101" s="13"/>
       <c r="Y101" s="13"/>
@@ -54970,14 +54992,14 @@
         <v>121</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="AF101" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG101" s="13"/>
       <c r="AH101" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI101" s="13"/>
       <c r="AJ101" s="13"/>
@@ -55029,7 +55051,7 @@
         <v>361</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X102" s="13"/>
       <c r="Y102" s="13"/>
@@ -55048,7 +55070,7 @@
       </c>
       <c r="AG102" s="13"/>
       <c r="AH102" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI102" s="13"/>
       <c r="AJ102" s="13"/>
@@ -55075,7 +55097,7 @@
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
@@ -55100,7 +55122,7 @@
         <v>361</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X103" s="13"/>
       <c r="Y103" s="13"/>
@@ -55112,14 +55134,14 @@
       </c>
       <c r="AD103" s="13"/>
       <c r="AE103" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="AF103" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG103" s="13"/>
       <c r="AH103" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI103" s="13"/>
       <c r="AJ103" s="13"/>
@@ -55146,7 +55168,7 @@
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
@@ -55171,7 +55193,7 @@
         <v>361</v>
       </c>
       <c r="W104" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X104" s="13"/>
       <c r="Y104" s="13"/>
@@ -55183,14 +55205,14 @@
       </c>
       <c r="AD104" s="13"/>
       <c r="AE104" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="AF104" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG104" s="13"/>
       <c r="AH104" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI104" s="13"/>
       <c r="AJ104" s="13"/>
@@ -55217,7 +55239,7 @@
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
@@ -55242,7 +55264,7 @@
         <v>361</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X105" s="13"/>
       <c r="Y105" s="13"/>
@@ -55256,14 +55278,14 @@
         <v>634</v>
       </c>
       <c r="AE105" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="AF105" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG105" s="13"/>
       <c r="AH105" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI105" s="13"/>
       <c r="AJ105" s="13"/>
@@ -55291,7 +55313,7 @@
       <c r="M106" s="4"/>
       <c r="AG106" s="13"/>
       <c r="AH106" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI106" s="13"/>
       <c r="AJ106" s="13"/>
@@ -55341,7 +55363,7 @@
         <v>361</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
@@ -55351,14 +55373,14 @@
       <c r="AC107" s="13"/>
       <c r="AD107" s="13"/>
       <c r="AE107" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="AF107" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG107" s="13"/>
       <c r="AH107" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI107" s="13"/>
       <c r="AJ107" s="13"/>
@@ -55408,7 +55430,7 @@
         <v>361</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X108" s="13"/>
       <c r="Y108" s="13"/>
@@ -55421,11 +55443,11 @@
         <v>69</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="AG108" s="13"/>
       <c r="AH108" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI108" s="13"/>
       <c r="AJ108" s="13"/>
@@ -55452,7 +55474,7 @@
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
@@ -55477,7 +55499,7 @@
         <v>361</v>
       </c>
       <c r="W109" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X109" s="13"/>
       <c r="Y109" s="13"/>
@@ -55485,20 +55507,20 @@
       <c r="AA109" s="13"/>
       <c r="AB109" s="13"/>
       <c r="AC109" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AD109" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AE109" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="AF109" s="1" t="s">
         <v>220</v>
       </c>
       <c r="AG109" s="13"/>
       <c r="AH109" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI109" s="13"/>
       <c r="AJ109" s="13"/>
@@ -55525,7 +55547,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
@@ -55550,7 +55572,7 @@
         <v>361</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X110" s="13"/>
       <c r="Y110" s="13"/>
@@ -55562,14 +55584,14 @@
       </c>
       <c r="AD110" s="13"/>
       <c r="AE110" s="1" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="AF110" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG110" s="13"/>
       <c r="AH110" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI110" s="13"/>
       <c r="AJ110" s="13"/>
@@ -55619,7 +55641,7 @@
         <v>361</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X111" s="13"/>
       <c r="Y111" s="13"/>
@@ -55629,14 +55651,14 @@
       <c r="AC111" s="13"/>
       <c r="AD111" s="13"/>
       <c r="AE111" s="1" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="AF111" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AG111" s="13"/>
       <c r="AH111" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI111" s="13"/>
       <c r="AJ111" s="13"/>
@@ -55686,7 +55708,7 @@
         <v>361</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X112" s="13"/>
       <c r="Y112" s="13"/>
@@ -55695,17 +55717,17 @@
       <c r="AB112" s="13"/>
       <c r="AC112" s="13"/>
       <c r="AD112" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="AE112" s="1" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="AF112" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG112" s="13"/>
       <c r="AH112" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI112" s="13"/>
       <c r="AJ112" s="13"/>
@@ -55755,7 +55777,7 @@
         <v>361</v>
       </c>
       <c r="W113" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X113" s="13"/>
       <c r="Y113" s="13"/>
@@ -55764,17 +55786,17 @@
       <c r="AB113" s="13"/>
       <c r="AC113" s="13"/>
       <c r="AD113" s="1" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="AE113" s="1" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="AF113" s="1" t="s">
         <v>80</v>
       </c>
       <c r="AG113" s="13"/>
       <c r="AH113" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI113" s="13"/>
       <c r="AJ113" s="13"/>
@@ -55801,7 +55823,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
@@ -55826,7 +55848,7 @@
         <v>361</v>
       </c>
       <c r="W114" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
@@ -55841,7 +55863,7 @@
       <c r="AF114" s="13"/>
       <c r="AG114" s="13"/>
       <c r="AH114" s="14" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AI114" s="13"/>
       <c r="AJ114" s="13"/>
@@ -55896,14 +55918,14 @@
       <c r="X115" s="34"/>
       <c r="Y115" s="34"/>
       <c r="Z115" s="36" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="AA115" s="36" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="AB115" s="34"/>
       <c r="AC115" s="34" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AD115" s="34"/>
       <c r="AE115" s="34"/>
@@ -56066,7 +56088,7 @@
       <c r="K116" s="34"/>
       <c r="L116" s="34"/>
       <c r="M116" s="36" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="N116" s="34"/>
       <c r="O116" s="34"/>
@@ -56099,14 +56121,14 @@
       <c r="X116" s="34"/>
       <c r="Y116" s="34"/>
       <c r="Z116" s="36" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="AA116" s="36" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="AB116" s="34"/>
       <c r="AC116" s="34" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="AD116" s="34"/>
       <c r="AE116" s="34"/>
@@ -56128,7 +56150,7 @@
       <c r="AU116" s="34"/>
       <c r="AV116" s="37"/>
       <c r="AW116" s="37" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="AX116" s="37"/>
       <c r="AY116" s="37"/>
@@ -56302,14 +56324,14 @@
       <c r="X117" s="34"/>
       <c r="Y117" s="34"/>
       <c r="Z117" s="36" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="AA117" s="36" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="AB117" s="34"/>
       <c r="AC117" s="34" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="AD117" s="34"/>
       <c r="AE117" s="34"/>
@@ -56331,7 +56353,7 @@
       <c r="AU117" s="34"/>
       <c r="AV117" s="37"/>
       <c r="AW117" s="37" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="AX117" s="37"/>
       <c r="AY117" s="37"/>
@@ -56460,13 +56482,13 @@
     </row>
     <row r="118" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A118" s="38" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B118" s="39" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
@@ -56482,10 +56504,10 @@
       <c r="M118" s="39"/>
       <c r="N118" s="39"/>
       <c r="O118" s="38" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="P118" s="38" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="Q118" s="40" t="s">
         <v>90</v>
@@ -56523,12 +56545,12 @@
       <c r="AH118" s="39"/>
       <c r="AI118" s="39"/>
       <c r="AJ118" s="38" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="AK118" s="38"/>
       <c r="AL118" s="38"/>
       <c r="AM118" s="38" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="AN118" s="38"/>
       <c r="AO118" s="38" t="s">
@@ -56547,14 +56569,14 @@
         <v>126</v>
       </c>
       <c r="AT118" s="38" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="AU118" s="39" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="AV118" s="39"/>
       <c r="AW118" s="39" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="AX118" s="39"/>
       <c r="AY118" s="39"/>
@@ -56683,13 +56705,13 @@
     </row>
     <row r="119" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A119" s="38" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B119" s="39" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
@@ -56705,10 +56727,10 @@
       <c r="M119" s="39"/>
       <c r="N119" s="39"/>
       <c r="O119" s="38" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="P119" s="38" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="Q119" s="40" t="s">
         <v>750</v>
@@ -56746,12 +56768,12 @@
       <c r="AH119" s="39"/>
       <c r="AI119" s="39"/>
       <c r="AJ119" s="38" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AK119" s="38"/>
       <c r="AL119" s="38"/>
       <c r="AM119" s="38" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AN119" s="38"/>
       <c r="AO119" s="38" t="s">
@@ -56770,14 +56792,14 @@
         <v>126</v>
       </c>
       <c r="AT119" s="38" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="AU119" s="39" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="AV119" s="39"/>
       <c r="AW119" s="39" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="AX119" s="39"/>
       <c r="AY119" s="39"/>
@@ -56906,13 +56928,13 @@
     </row>
     <row r="120" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A120" s="38" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B120" s="39" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
@@ -56928,10 +56950,10 @@
       <c r="M120" s="39"/>
       <c r="N120" s="39"/>
       <c r="O120" s="38" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="P120" s="38" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="Q120" s="40" t="s">
         <v>906</v>
@@ -56969,12 +56991,12 @@
       <c r="AH120" s="39"/>
       <c r="AI120" s="39"/>
       <c r="AJ120" s="38" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="AK120" s="38"/>
       <c r="AL120" s="38"/>
       <c r="AM120" s="38" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="AN120" s="38"/>
       <c r="AO120" s="38" t="s">
@@ -56993,14 +57015,14 @@
         <v>126</v>
       </c>
       <c r="AT120" s="38" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="AU120" s="39" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="AV120" s="39"/>
       <c r="AW120" s="39" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="AX120" s="39"/>
       <c r="AY120" s="39"/>
@@ -57129,13 +57151,13 @@
     </row>
     <row r="121" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A121" s="38" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B121" s="39" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="D121" s="38"/>
       <c r="E121" s="38" t="s">
@@ -57151,10 +57173,10 @@
       <c r="M121" s="39"/>
       <c r="N121" s="39"/>
       <c r="O121" s="38" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="P121" s="38" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="Q121" s="40" t="s">
         <v>103</v>
@@ -57192,12 +57214,12 @@
       <c r="AH121" s="39"/>
       <c r="AI121" s="39"/>
       <c r="AJ121" s="38" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="AK121" s="38"/>
       <c r="AL121" s="38"/>
       <c r="AM121" s="38" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="AN121" s="38"/>
       <c r="AO121" s="38" t="s">
@@ -57216,14 +57238,14 @@
         <v>126</v>
       </c>
       <c r="AT121" s="38" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="AU121" s="39" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="AV121" s="39"/>
       <c r="AW121" s="39" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="AX121" s="39"/>
       <c r="AY121" s="39"/>
@@ -57352,13 +57374,13 @@
     </row>
     <row r="122" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A122" s="38" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B122" s="39" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
@@ -57374,10 +57396,10 @@
       <c r="M122" s="39"/>
       <c r="N122" s="39"/>
       <c r="O122" s="38" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="P122" s="38" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="Q122" s="40" t="s">
         <v>906</v>
@@ -57415,12 +57437,12 @@
       <c r="AH122" s="39"/>
       <c r="AI122" s="39"/>
       <c r="AJ122" s="38" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="AK122" s="38"/>
       <c r="AL122" s="38"/>
       <c r="AM122" s="38" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="AN122" s="38"/>
       <c r="AO122" s="38" t="s">
@@ -57439,14 +57461,14 @@
         <v>126</v>
       </c>
       <c r="AT122" s="38" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="AU122" s="39" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="AV122" s="39"/>
       <c r="AW122" s="39" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="AX122" s="39"/>
       <c r="AY122" s="39"/>
@@ -57575,13 +57597,13 @@
     </row>
     <row r="123" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A123" s="32" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B123" s="42" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="D123" s="32"/>
       <c r="E123" s="32" t="s">
@@ -57597,10 +57619,10 @@
       <c r="M123" s="42"/>
       <c r="N123" s="42"/>
       <c r="O123" s="32" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="P123" s="32" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="Q123" s="43" t="s">
         <v>90</v>
@@ -57638,12 +57660,12 @@
       <c r="AH123" s="42"/>
       <c r="AI123" s="42"/>
       <c r="AJ123" s="32" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="AK123" s="32"/>
       <c r="AL123" s="32"/>
       <c r="AM123" s="32" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="AN123" s="32"/>
       <c r="AO123" s="32" t="s">
@@ -57662,14 +57684,14 @@
         <v>126</v>
       </c>
       <c r="AT123" s="32" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="AU123" s="42" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="AV123" s="42"/>
       <c r="AW123" s="42" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="AX123" s="42"/>
       <c r="AY123" s="42"/>
@@ -57798,13 +57820,13 @@
     </row>
     <row r="124" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A124" s="32" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="D124" s="32"/>
       <c r="E124" s="32" t="s">
@@ -57820,10 +57842,10 @@
       <c r="M124" s="42"/>
       <c r="N124" s="42"/>
       <c r="O124" s="32" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="P124" s="32" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="Q124" s="43" t="s">
         <v>90</v>
@@ -57861,12 +57883,12 @@
       <c r="AH124" s="42"/>
       <c r="AI124" s="42"/>
       <c r="AJ124" s="32" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="AK124" s="32"/>
       <c r="AL124" s="32"/>
       <c r="AM124" s="32" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="AN124" s="32"/>
       <c r="AO124" s="32" t="s">
@@ -57885,14 +57907,14 @@
         <v>145</v>
       </c>
       <c r="AT124" s="32" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="AU124" s="42" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="AV124" s="42"/>
       <c r="AW124" s="42" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="AX124" s="42"/>
       <c r="AY124" s="42"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07056291-CA25-4D52-9AB9-A75CC46242E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A6F0234-7F27-499A-B6EB-3AA5536C52AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4649" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4650" uniqueCount="1607">
   <si>
     <t>VJDBv0.3</t>
   </si>
@@ -5888,8 +5888,8 @@
   <dimension ref="A1:FY196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T186" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U194" sqref="U194"/>
+      <pane xSplit="1" topLeftCell="B186" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
@@ -47172,6 +47172,9 @@
       </c>
       <c r="B193" t="s">
         <v>1411</v>
+      </c>
+      <c r="E193" t="s">
+        <v>58</v>
       </c>
       <c r="U193" t="s">
         <v>1412</v>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E08425-2AB0-4EE9-A0C7-975A41E5BE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD5C3FC-B382-4A4C-A73E-38D28BBD5F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4853" uniqueCount="1619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4833" uniqueCount="1619">
   <si>
     <t>VJDBv0.3</t>
   </si>
@@ -717,6 +717,9 @@
     <t>boolean</t>
   </si>
   <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>GenBank_RefSeq</t>
   </si>
   <si>
@@ -1264,9 +1267,6 @@
   </si>
   <si>
     <t>The level of the Assembly (contig, scaffold, chromosome, complete genome).</t>
-  </si>
-  <si>
-    <t>private</t>
   </si>
   <si>
     <t>assembly level</t>
@@ -4420,7 +4420,7 @@
     <t>bvbrc_host_age</t>
   </si>
   <si>
-    <t>BVBRC Host Age</t>
+    <t>BV-BRC Host Age</t>
   </si>
   <si>
     <t>Seperation of values good for submission, display should be in one, needs curation from ENA values, seperate Fields for submission?</t>
@@ -5924,8 +5924,8 @@
   <dimension ref="A1:FY196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N90" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P97" sqref="P97"/>
+      <pane xSplit="1" topLeftCell="B175" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="U6" s="48"/>
       <c r="V6" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+        <f t="shared" ref="V6:V69" si="2">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
     IF(H6&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
     IF(I6&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
     IF(J6&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
@@ -7711,16 +7711,7 @@
       </c>
       <c r="U7" s="48"/>
       <c r="V7" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H7&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I7&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J7&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K7&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L7&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M7&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N7&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O7&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P7&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S7&lt;&gt;"", """" &amp; S7 &amp; """", ""), IF(Q7&lt;&gt;"", """" &amp; Q7 &amp; """", ""), IF(R7&lt;&gt;"", """" &amp; R7 &amp; """", ""),
-    IF(T7&lt;&gt;"", """" &amp; T7 &amp; """", ""),
-    IF(U7&lt;&gt;"", """" &amp; U7 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "NCBI Virus", "BV-BRC", "Organizational", "ENA Study", "Identifiers"]</v>
       </c>
       <c r="W7" s="48" t="s">
@@ -7962,16 +7953,7 @@
       </c>
       <c r="U8" s="48"/>
       <c r="V8" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H8&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I8&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J8&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K8&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L8&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M8&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N8&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O8&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P8&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S8&lt;&gt;"", """" &amp; S8 &amp; """", ""), IF(Q8&lt;&gt;"", """" &amp; Q8 &amp; """", ""), IF(R8&lt;&gt;"", """" &amp; R8 &amp; """", ""),
-    IF(T8&lt;&gt;"", """" &amp; T8 &amp; """", ""),
-    IF(U8&lt;&gt;"", """" &amp; U8 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "MIGS-VI", "NCBI Virus", "BV-BRC", "Organizational", "ENA Sample", "VJDB Sample", "Identifiers"]</v>
       </c>
       <c r="W8" s="48" t="s">
@@ -8219,16 +8201,7 @@
       </c>
       <c r="U9" s="48"/>
       <c r="V9" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H9&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I9&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J9&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K9&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L9&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M9&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N9&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O9&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P9&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S9&lt;&gt;"", """" &amp; S9 &amp; """", ""), IF(Q9&lt;&gt;"", """" &amp; Q9 &amp; """", ""), IF(R9&lt;&gt;"", """" &amp; R9 &amp; """", ""),
-    IF(T9&lt;&gt;"", """" &amp; T9 &amp; """", ""),
-    IF(U9&lt;&gt;"", """" &amp; U9 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "RKI", "MIGS-VI", "NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Collection"]</v>
       </c>
       <c r="W9" s="48" t="s">
@@ -8483,20 +8456,13 @@
       <c r="S10" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T10" s="48"/>
+      <c r="T10" s="48" t="s">
+        <v>119</v>
+      </c>
       <c r="U10" s="48"/>
       <c r="V10" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H10&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I10&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J10&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K10&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L10&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M10&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N10&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O10&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P10&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S10&lt;&gt;"", """" &amp; S10 &amp; """", ""), IF(Q10&lt;&gt;"", """" &amp; Q10 &amp; """", ""), IF(R10&lt;&gt;"", """" &amp; R10 &amp; """", ""),
-    IF(T10&lt;&gt;"", """" &amp; T10 &amp; """", ""),
-    IF(U10&lt;&gt;"", """" &amp; U10 &amp; """", "")
-) &amp; "]"</f>
-        <v>["ENA", "MIGS-VI", "NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "MIGS-VI", "NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Collection"]</v>
       </c>
       <c r="W10" s="48" t="s">
         <v>64</v>
@@ -8743,16 +8709,7 @@
       </c>
       <c r="U11" s="48"/>
       <c r="V11" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H11&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I11&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J11&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K11&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L11&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M11&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N11&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O11&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P11&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S11&lt;&gt;"", """" &amp; S11 &amp; """", ""), IF(Q11&lt;&gt;"", """" &amp; Q11 &amp; """", ""), IF(R11&lt;&gt;"", """" &amp; R11 &amp; """", ""),
-    IF(T11&lt;&gt;"", """" &amp; T11 &amp; """", ""),
-    IF(U11&lt;&gt;"", """" &amp; U11 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Sample", "Sequence"]</v>
       </c>
       <c r="W11" s="48" t="s">
@@ -8944,8 +8901,8 @@
       <c r="D12" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="48" t="s">
-        <v>59</v>
+      <c r="E12" s="56" t="s">
+        <v>162</v>
       </c>
       <c r="F12" s="48" t="s">
         <v>158</v>
@@ -8957,7 +8914,7 @@
       <c r="K12" s="48"/>
       <c r="L12" s="48"/>
       <c r="M12" s="48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N12" s="48"/>
       <c r="O12" s="48"/>
@@ -8974,16 +8931,7 @@
       </c>
       <c r="U12" s="48"/>
       <c r="V12" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H12&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I12&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J12&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K12&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L12&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M12&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N12&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O12&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P12&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S12&lt;&gt;"", """" &amp; S12 &amp; """", ""), IF(Q12&lt;&gt;"", """" &amp; Q12 &amp; """", ""), IF(R12&lt;&gt;"", """" &amp; R12 &amp; """", ""),
-    IF(T12&lt;&gt;"", """" &amp; T12 &amp; """", ""),
-    IF(U12&lt;&gt;"", """" &amp; U12 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Sample", "Sequence"]</v>
       </c>
       <c r="W12" s="48" t="s">
@@ -8995,14 +8943,14 @@
       <c r="Y12" s="48"/>
       <c r="Z12" s="48"/>
       <c r="AA12" s="48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AB12" s="48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC12" s="48"/>
       <c r="AD12" s="48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AE12" s="48"/>
       <c r="AF12" s="48"/>
@@ -9019,13 +8967,13 @@
       <c r="AQ12" s="48"/>
       <c r="AR12" s="48"/>
       <c r="AS12" s="51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AT12" s="48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AW12" s="49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AX12" s="48"/>
       <c r="AY12" t="s">
@@ -9164,25 +9112,25 @@
     </row>
     <row r="13" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A13" s="48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D13" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="48" t="s">
-        <v>59</v>
+      <c r="E13" s="56" t="s">
+        <v>162</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
@@ -9190,10 +9138,10 @@
       <c r="K13" s="48"/>
       <c r="L13" s="48"/>
       <c r="M13" s="48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N13" s="48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O13" s="48"/>
       <c r="P13" s="48"/>
@@ -9209,16 +9157,7 @@
       </c>
       <c r="U13" s="48"/>
       <c r="V13" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H13&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I13&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J13&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K13&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L13&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M13&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N13&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O13&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P13&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S13&lt;&gt;"", """" &amp; S13 &amp; """", ""), IF(Q13&lt;&gt;"", """" &amp; Q13 &amp; """", ""), IF(R13&lt;&gt;"", """" &amp; R13 &amp; """", ""),
-    IF(T13&lt;&gt;"", """" &amp; T13 &amp; """", ""),
-    IF(U13&lt;&gt;"", """" &amp; U13 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "BV-BRC", "Sample", "Sequence"]</v>
       </c>
       <c r="W13" s="48" t="s">
@@ -9230,28 +9169,28 @@
       <c r="Y13" s="48"/>
       <c r="Z13" s="48"/>
       <c r="AA13" s="48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AB13" s="48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AC13" s="48"/>
       <c r="AD13" s="48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AE13" s="48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF13" s="48"/>
       <c r="AG13" s="48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AH13" s="48" t="s">
         <v>82</v>
       </c>
       <c r="AI13" s="48"/>
       <c r="AJ13" s="48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK13" s="48"/>
       <c r="AL13" s="48"/>
@@ -9262,13 +9201,13 @@
       <c r="AQ13" s="48"/>
       <c r="AR13" s="48"/>
       <c r="AS13" s="51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AT13" s="48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AW13" s="49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AX13" s="48"/>
       <c r="AY13" t="s">
@@ -9407,13 +9346,13 @@
     </row>
     <row r="14" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A14" s="48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D14" s="48" t="s">
         <v>58</v>
@@ -9422,18 +9361,18 @@
         <v>59</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
       <c r="K14" s="48"/>
       <c r="L14" s="48"/>
       <c r="M14" s="48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
@@ -9445,20 +9384,13 @@
       <c r="S14" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T14" s="48"/>
+      <c r="T14" s="48" t="s">
+        <v>119</v>
+      </c>
       <c r="U14" s="48"/>
       <c r="V14" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H14&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I14&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J14&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K14&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L14&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M14&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N14&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O14&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P14&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S14&lt;&gt;"", """" &amp; S14 &amp; """", ""), IF(Q14&lt;&gt;"", """" &amp; Q14 &amp; """", ""), IF(R14&lt;&gt;"", """" &amp; R14 &amp; """", ""),
-    IF(T14&lt;&gt;"", """" &amp; T14 &amp; """", ""),
-    IF(U14&lt;&gt;"", """" &amp; U14 &amp; """", "")
-) &amp; "]"</f>
-        <v>["ENA", "NCBI Virus", "Sample"]</v>
+        <f t="shared" si="2"/>
+        <v>["ENA", "NCBI Virus", "Sample", "Collection"]</v>
       </c>
       <c r="W14" s="48" t="s">
         <v>8</v>
@@ -9468,13 +9400,13 @@
       </c>
       <c r="Y14" s="48"/>
       <c r="Z14" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA14" s="48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB14" s="48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC14" s="48"/>
       <c r="AD14" s="48" t="s">
@@ -9493,16 +9425,16 @@
       <c r="AO14" s="48"/>
       <c r="AP14" s="48"/>
       <c r="AQ14" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR14" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS14" s="51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AT14" s="48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AU14" s="49" t="s">
         <v>70</v>
@@ -9511,7 +9443,7 @@
         <v>129</v>
       </c>
       <c r="AW14" s="49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX14" s="48"/>
       <c r="AY14" t="s">
@@ -9650,13 +9582,13 @@
     </row>
     <row r="15" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D15" s="48" t="s">
         <v>58</v>
@@ -9665,7 +9597,7 @@
         <v>59</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G15" s="48"/>
       <c r="H15" s="48"/>
@@ -9674,16 +9606,16 @@
       <c r="K15" s="48"/>
       <c r="L15" s="48"/>
       <c r="M15" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="N15" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="N15" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="O15" s="48" t="s">
-        <v>181</v>
-      </c>
       <c r="P15" s="48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q15" s="50" t="s">
         <v>106</v>
@@ -9694,34 +9626,27 @@
       <c r="S15" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T15" s="48"/>
+      <c r="T15" s="48" t="s">
+        <v>119</v>
+      </c>
       <c r="U15" s="48"/>
       <c r="V15" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H15&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I15&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J15&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K15&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L15&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M15&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N15&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O15&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P15&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S15&lt;&gt;"", """" &amp; S15 &amp; """", ""), IF(Q15&lt;&gt;"", """" &amp; Q15 &amp; """", ""), IF(R15&lt;&gt;"", """" &amp; R15 &amp; """", ""),
-    IF(T15&lt;&gt;"", """" &amp; T15 &amp; """", ""),
-    IF(U15&lt;&gt;"", """" &amp; U15 &amp; """", "")
-) &amp; "]"</f>
-        <v>["NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample"]</v>
+        <f t="shared" si="2"/>
+        <v>["NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Collection"]</v>
       </c>
       <c r="W15" s="48" t="s">
         <v>64</v>
       </c>
       <c r="X15" s="49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y15" s="48"/>
       <c r="Z15" s="48"/>
       <c r="AA15" s="48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AB15" s="48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC15" s="48"/>
       <c r="AD15" s="48" t="s">
@@ -9734,7 +9659,7 @@
         <v>124</v>
       </c>
       <c r="AG15" s="48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AH15" s="48" t="s">
         <v>69</v>
@@ -9742,12 +9667,12 @@
       <c r="AI15" s="48"/>
       <c r="AJ15" s="48"/>
       <c r="AK15" s="48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL15" s="48"/>
       <c r="AM15" s="48"/>
       <c r="AN15" s="48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO15" s="48"/>
       <c r="AP15" s="48" t="s">
@@ -9756,10 +9681,10 @@
       <c r="AQ15" s="48"/>
       <c r="AR15" s="48"/>
       <c r="AS15" s="51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AT15" s="48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AU15" s="49" t="s">
         <v>70</v>
@@ -9768,7 +9693,7 @@
         <v>129</v>
       </c>
       <c r="AW15" s="49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AX15" s="48"/>
       <c r="AY15" t="s">
@@ -9907,13 +9832,13 @@
     </row>
     <row r="16" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A16" s="48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D16" s="48" t="s">
         <v>58</v>
@@ -9922,27 +9847,27 @@
         <v>59</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G16" s="48"/>
       <c r="H16" s="48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I16" s="48"/>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
       <c r="L16" s="48"/>
       <c r="M16" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="N16" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="O16" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="N16" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="O16" s="48" t="s">
-        <v>203</v>
-      </c>
       <c r="P16" s="48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="50" t="s">
         <v>106</v>
@@ -9954,20 +9879,11 @@
         <v>118</v>
       </c>
       <c r="T16" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U16" s="48"/>
       <c r="V16" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H16&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I16&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J16&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K16&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L16&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M16&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N16&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O16&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P16&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S16&lt;&gt;"", """" &amp; S16 &amp; """", ""), IF(Q16&lt;&gt;"", """" &amp; Q16 &amp; """", ""), IF(R16&lt;&gt;"", """" &amp; R16 &amp; """", ""),
-    IF(T16&lt;&gt;"", """" &amp; T16 &amp; """", ""),
-    IF(U16&lt;&gt;"", """" &amp; U16 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "NCBI Virus", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Host"]</v>
       </c>
       <c r="W16" s="48" t="s">
@@ -9978,22 +9894,22 @@
       </c>
       <c r="Y16" s="48"/>
       <c r="Z16" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA16" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AB16" s="48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AC16" s="48"/>
       <c r="AD16" s="48"/>
       <c r="AE16" s="48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF16" s="48"/>
       <c r="AG16" s="48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AH16" s="48" t="s">
         <v>69</v>
@@ -10001,12 +9917,12 @@
       <c r="AI16" s="48"/>
       <c r="AJ16" s="48"/>
       <c r="AK16" s="48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL16" s="48"/>
       <c r="AM16" s="48"/>
       <c r="AN16" s="48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" s="48"/>
       <c r="AP16" s="48" t="s">
@@ -10019,19 +9935,19 @@
         <v>96</v>
       </c>
       <c r="AS16" s="51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AT16" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU16" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV16" s="49" t="s">
         <v>129</v>
       </c>
       <c r="AW16" s="49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AX16" s="48"/>
       <c r="AY16" t="s">
@@ -10170,25 +10086,25 @@
     </row>
     <row r="17" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E17" s="48" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H17" s="48"/>
       <c r="I17" s="48"/>
@@ -10196,10 +10112,10 @@
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
       <c r="M17" s="48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N17" s="48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O17" s="48"/>
       <c r="P17" s="48"/>
@@ -10215,45 +10131,36 @@
       </c>
       <c r="U17" s="48"/>
       <c r="V17" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H17&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I17&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J17&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K17&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L17&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M17&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N17&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O17&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P17&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S17&lt;&gt;"", """" &amp; S17 &amp; """", ""), IF(Q17&lt;&gt;"", """" &amp; Q17 &amp; """", ""), IF(R17&lt;&gt;"", """" &amp; R17 &amp; """", ""),
-    IF(T17&lt;&gt;"", """" &amp; T17 &amp; """", ""),
-    IF(U17&lt;&gt;"", """" &amp; U17 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "BV-BRC", "Sample", "Sequence"]</v>
       </c>
       <c r="W17" s="48" t="s">
         <v>64</v>
       </c>
       <c r="X17" s="49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y17" s="48"/>
       <c r="Z17" s="48"/>
       <c r="AA17" s="48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AB17" s="48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AC17" s="48"/>
       <c r="AD17" s="48"/>
       <c r="AE17" s="48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF17" s="48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG17" s="48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AH17" s="48" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AI17" s="48"/>
       <c r="AJ17" s="48"/>
@@ -10266,10 +10173,10 @@
       <c r="AQ17" s="48"/>
       <c r="AR17" s="48"/>
       <c r="AS17" s="51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AT17" s="48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AU17" s="49" t="s">
         <v>70</v>
@@ -10278,7 +10185,7 @@
         <v>71</v>
       </c>
       <c r="AW17" s="49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AX17" s="48"/>
       <c r="AY17" t="s">
@@ -10417,13 +10324,13 @@
     </row>
     <row r="18" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>58</v>
@@ -10432,20 +10339,20 @@
         <v>59</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="48"/>
       <c r="K18" s="48"/>
       <c r="L18" s="48"/>
       <c r="M18" s="48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
@@ -10458,35 +10365,26 @@
         <v>118</v>
       </c>
       <c r="T18" s="48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U18" s="48"/>
       <c r="V18" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H18&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I18&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J18&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K18&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L18&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M18&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N18&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O18&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P18&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S18&lt;&gt;"", """" &amp; S18 &amp; """", ""), IF(Q18&lt;&gt;"", """" &amp; Q18 &amp; """", ""), IF(R18&lt;&gt;"", """" &amp; R18 &amp; """", ""),
-    IF(T18&lt;&gt;"", """" &amp; T18 &amp; """", ""),
-    IF(U18&lt;&gt;"", """" &amp; U18 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "NCBI Virus", "Sample", "Virus"]</v>
       </c>
       <c r="W18" s="48" t="s">
         <v>8</v>
       </c>
       <c r="X18" s="49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y18" s="48"/>
       <c r="Z18" s="48"/>
       <c r="AA18" s="48" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB18" s="48" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AC18" s="48"/>
       <c r="AD18" s="48"/>
@@ -10503,16 +10401,16 @@
       <c r="AO18" s="48"/>
       <c r="AP18" s="48"/>
       <c r="AQ18" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR18" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS18" s="51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AT18" s="48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AU18" s="49" t="s">
         <v>147</v>
@@ -10521,7 +10419,7 @@
         <v>148</v>
       </c>
       <c r="AW18" s="49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AX18" s="48"/>
       <c r="AY18" t="s">
@@ -10660,13 +10558,13 @@
     </row>
     <row r="19" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A19" s="48" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D19" s="48" t="s">
         <v>58</v>
@@ -10675,10 +10573,10 @@
         <v>59</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H19" s="48"/>
       <c r="I19" s="48"/>
@@ -10686,7 +10584,7 @@
       <c r="K19" s="48"/>
       <c r="L19" s="48"/>
       <c r="M19" s="48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N19" s="48"/>
       <c r="O19" s="48"/>
@@ -10703,16 +10601,7 @@
       </c>
       <c r="U19" s="48"/>
       <c r="V19" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H19&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I19&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J19&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K19&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L19&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M19&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N19&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O19&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P19&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S19&lt;&gt;"", """" &amp; S19 &amp; """", ""), IF(Q19&lt;&gt;"", """" &amp; Q19 &amp; """", ""), IF(R19&lt;&gt;"", """" &amp; R19 &amp; """", ""),
-    IF(T19&lt;&gt;"", """" &amp; T19 &amp; """", ""),
-    IF(U19&lt;&gt;"", """" &amp; U19 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Sample", "Sequence"]</v>
       </c>
       <c r="W19" s="48" t="s">
@@ -10724,10 +10613,10 @@
       <c r="Y19" s="48"/>
       <c r="Z19" s="48"/>
       <c r="AA19" s="48" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB19" s="48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AC19" s="48"/>
       <c r="AD19" s="48"/>
@@ -10746,10 +10635,10 @@
       <c r="AQ19" s="48"/>
       <c r="AR19" s="48"/>
       <c r="AS19" s="51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AT19" s="48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AU19" s="49" t="s">
         <v>147</v>
@@ -10758,7 +10647,7 @@
         <v>148</v>
       </c>
       <c r="AW19" s="49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AX19" s="48"/>
       <c r="AY19" t="s">
@@ -10897,16 +10786,16 @@
     </row>
     <row r="20" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A20" s="48" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E20" s="48" t="s">
         <v>153</v>
@@ -10934,16 +10823,7 @@
       </c>
       <c r="U20" s="48"/>
       <c r="V20" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H20&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I20&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J20&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K20&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L20&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M20&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N20&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O20&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P20&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S20&lt;&gt;"", """" &amp; S20 &amp; """", ""), IF(Q20&lt;&gt;"", """" &amp; Q20 &amp; """", ""), IF(R20&lt;&gt;"", """" &amp; R20 &amp; """", ""),
-    IF(T20&lt;&gt;"", """" &amp; T20 &amp; """", ""),
-    IF(U20&lt;&gt;"", """" &amp; U20 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["Sample", "Sequence"]</v>
       </c>
       <c r="W20" s="48"/>
@@ -10970,7 +10850,7 @@
       <c r="AS20" s="48"/>
       <c r="AT20" s="48"/>
       <c r="AW20" s="49" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AX20" s="48"/>
       <c r="AY20" t="s">
@@ -11109,13 +10989,13 @@
     </row>
     <row r="21" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A21" s="48" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>58</v>
@@ -11131,7 +11011,7 @@
       <c r="K21" s="48"/>
       <c r="L21" s="48"/>
       <c r="M21" s="48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N21" s="48"/>
       <c r="O21" s="48"/>
@@ -11144,37 +11024,28 @@
         <v>118</v>
       </c>
       <c r="T21" s="48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U21" s="48"/>
       <c r="V21" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H21&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I21&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J21&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K21&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L21&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M21&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N21&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O21&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P21&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S21&lt;&gt;"", """" &amp; S21 &amp; """", ""), IF(Q21&lt;&gt;"", """" &amp; Q21 &amp; """", ""), IF(R21&lt;&gt;"", """" &amp; R21 &amp; """", ""),
-    IF(T21&lt;&gt;"", """" &amp; T21 &amp; """", ""),
-    IF(U21&lt;&gt;"", """" &amp; U21 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Sample", "Virus"]</v>
       </c>
       <c r="W21" s="48" t="s">
         <v>8</v>
       </c>
       <c r="X21" s="49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y21" s="48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z21" s="48"/>
       <c r="AA21" s="48" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AB21" s="48" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AC21" s="48"/>
       <c r="AD21" s="48"/>
@@ -11193,19 +11064,19 @@
       <c r="AQ21" s="48"/>
       <c r="AR21" s="48"/>
       <c r="AS21" s="51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AT21" s="48" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AU21" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV21" s="49" t="s">
         <v>129</v>
       </c>
       <c r="AW21" s="49" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AX21" s="48"/>
       <c r="AY21" t="s">
@@ -11344,13 +11215,13 @@
     </row>
     <row r="22" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A22" s="48" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>58</v>
@@ -11359,10 +11230,10 @@
         <v>59</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
@@ -11370,33 +11241,24 @@
       <c r="K22" s="48"/>
       <c r="L22" s="48"/>
       <c r="M22" s="48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N22" s="48"/>
       <c r="O22" s="48"/>
       <c r="P22" s="48"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="50" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S22" s="48" t="s">
         <v>62</v>
       </c>
       <c r="T22" s="48" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U22" s="48"/>
       <c r="V22" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H22&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I22&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J22&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K22&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L22&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M22&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N22&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O22&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P22&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S22&lt;&gt;"", """" &amp; S22 &amp; """", ""), IF(Q22&lt;&gt;"", """" &amp; Q22 &amp; """", ""), IF(R22&lt;&gt;"", """" &amp; R22 &amp; """", ""),
-    IF(T22&lt;&gt;"", """" &amp; T22 &amp; """", ""),
-    IF(U22&lt;&gt;"", """" &amp; U22 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Organizational", "VJDB Study", "Submission"]</v>
       </c>
       <c r="W22" s="48" t="s">
@@ -11408,14 +11270,14 @@
       <c r="Y22" s="48"/>
       <c r="Z22" s="48"/>
       <c r="AA22" s="48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AB22" s="48" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AC22" s="48"/>
       <c r="AD22" s="48" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AE22" s="48"/>
       <c r="AF22" s="48"/>
@@ -11434,10 +11296,10 @@
         <v>96</v>
       </c>
       <c r="AS22" s="47" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AT22" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU22" s="49" t="s">
         <v>70</v>
@@ -11446,7 +11308,7 @@
         <v>129</v>
       </c>
       <c r="AW22" s="49" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AX22" s="48"/>
       <c r="AY22" t="s">
@@ -11585,13 +11447,13 @@
     </row>
     <row r="23" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A23" s="48" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D23" s="48" t="s">
         <v>113</v>
@@ -11600,20 +11462,20 @@
         <v>59</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G23" s="48" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H23" s="48"/>
       <c r="I23" s="48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J23" s="48"/>
       <c r="K23" s="48"/>
       <c r="L23" s="48"/>
       <c r="M23" s="48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N23" s="48"/>
       <c r="O23" s="48"/>
@@ -11628,16 +11490,7 @@
       <c r="T23" s="48"/>
       <c r="U23" s="48"/>
       <c r="V23" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H23&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I23&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J23&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K23&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L23&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M23&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N23&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O23&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P23&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S23&lt;&gt;"", """" &amp; S23 &amp; """", ""), IF(Q23&lt;&gt;"", """" &amp; Q23 &amp; """", ""), IF(R23&lt;&gt;"", """" &amp; R23 &amp; """", ""),
-    IF(T23&lt;&gt;"", """" &amp; T23 &amp; """", ""),
-    IF(U23&lt;&gt;"", """" &amp; U23 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["RKI", "NCBI Virus", "Organizational"]</v>
       </c>
       <c r="W23" s="48" t="s">
@@ -11647,14 +11500,14 @@
         <v>138</v>
       </c>
       <c r="Y23" s="48" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z23" s="48"/>
       <c r="AA23" s="48" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AB23" s="48" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AC23" s="48"/>
       <c r="AD23" s="48"/>
@@ -11673,10 +11526,10 @@
       <c r="AQ23" s="48"/>
       <c r="AR23" s="48"/>
       <c r="AS23" s="51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AT23" s="48" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AU23" s="49" t="s">
         <v>113</v>
@@ -11685,7 +11538,7 @@
         <v>129</v>
       </c>
       <c r="AW23" s="49" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AX23" s="48"/>
       <c r="AY23" t="s">
@@ -11824,13 +11677,13 @@
     </row>
     <row r="24" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A24" s="48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>58</v>
@@ -11839,10 +11692,10 @@
         <v>59</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
@@ -11850,7 +11703,7 @@
       <c r="K24" s="48"/>
       <c r="L24" s="48"/>
       <c r="M24" s="48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N24" s="48"/>
       <c r="O24" s="48"/>
@@ -11863,22 +11716,13 @@
         <v>118</v>
       </c>
       <c r="T24" s="48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U24" s="48" t="s">
         <v>155</v>
       </c>
       <c r="V24" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H24&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I24&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J24&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K24&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L24&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M24&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N24&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O24&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P24&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S24&lt;&gt;"", """" &amp; S24 &amp; """", ""), IF(Q24&lt;&gt;"", """" &amp; Q24 &amp; """", ""), IF(R24&lt;&gt;"", """" &amp; R24 &amp; """", ""),
-    IF(T24&lt;&gt;"", """" &amp; T24 &amp; """", ""),
-    IF(U24&lt;&gt;"", """" &amp; U24 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Sample", "Virus", "Sequence"]</v>
       </c>
       <c r="W24" s="48" t="s">
@@ -11890,10 +11734,10 @@
       <c r="Y24" s="48"/>
       <c r="Z24" s="48"/>
       <c r="AA24" s="48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AB24" s="48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AC24" s="48"/>
       <c r="AD24" s="48"/>
@@ -11912,10 +11756,10 @@
       <c r="AQ24" s="48"/>
       <c r="AR24" s="48"/>
       <c r="AS24" s="51" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AT24" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU24" s="49" t="s">
         <v>70</v>
@@ -11924,7 +11768,7 @@
         <v>129</v>
       </c>
       <c r="AW24" s="49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AX24" s="48"/>
       <c r="AY24" t="s">
@@ -12063,13 +11907,13 @@
     </row>
     <row r="25" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D25" s="48" t="s">
         <v>58</v>
@@ -12078,10 +11922,10 @@
         <v>59</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H25" s="48"/>
       <c r="I25" s="48"/>
@@ -12089,10 +11933,10 @@
       <c r="K25" s="48"/>
       <c r="L25" s="48"/>
       <c r="M25" s="48" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N25" s="48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O25" s="48"/>
       <c r="P25" s="48"/>
@@ -12108,16 +11952,7 @@
       </c>
       <c r="U25" s="48"/>
       <c r="V25" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H25&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I25&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J25&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K25&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L25&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M25&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N25&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O25&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P25&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S25&lt;&gt;"", """" &amp; S25 &amp; """", ""), IF(Q25&lt;&gt;"", """" &amp; Q25 &amp; """", ""), IF(R25&lt;&gt;"", """" &amp; R25 &amp; """", ""),
-    IF(T25&lt;&gt;"", """" &amp; T25 &amp; """", ""),
-    IF(U25&lt;&gt;"", """" &amp; U25 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "BV-BRC", "Organizational", "Identifiers"]</v>
       </c>
       <c r="W25" s="48" t="s">
@@ -12129,10 +11964,10 @@
       <c r="Y25" s="48"/>
       <c r="Z25" s="48"/>
       <c r="AA25" s="48" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AB25" s="48" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AC25" s="48"/>
       <c r="AD25" s="48"/>
@@ -12141,7 +11976,7 @@
       </c>
       <c r="AF25" s="48"/>
       <c r="AG25" s="48" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AH25" s="48" t="s">
         <v>82</v>
@@ -12165,7 +12000,7 @@
         <v>129</v>
       </c>
       <c r="AW25" s="49" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AX25" s="48"/>
       <c r="AY25" t="s">
@@ -12304,13 +12139,13 @@
     </row>
     <row r="26" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A26" s="48" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D26" s="48" t="s">
         <v>58</v>
@@ -12319,10 +12154,10 @@
         <v>59</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -12330,33 +12165,24 @@
       <c r="K26" s="48"/>
       <c r="L26" s="48"/>
       <c r="M26" s="48" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N26" s="48"/>
       <c r="O26" s="48"/>
       <c r="P26" s="48"/>
       <c r="Q26" s="50"/>
       <c r="R26" s="50" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S26" s="48" t="s">
         <v>62</v>
       </c>
       <c r="T26" s="48" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U26" s="48"/>
       <c r="V26" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H26&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I26&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J26&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K26&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L26&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M26&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N26&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O26&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P26&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S26&lt;&gt;"", """" &amp; S26 &amp; """", ""), IF(Q26&lt;&gt;"", """" &amp; Q26 &amp; """", ""), IF(R26&lt;&gt;"", """" &amp; R26 &amp; """", ""),
-    IF(T26&lt;&gt;"", """" &amp; T26 &amp; """", ""),
-    IF(U26&lt;&gt;"", """" &amp; U26 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Organizational", "VJDB Study", "Submission"]</v>
       </c>
       <c r="W26" s="48" t="s">
@@ -12368,10 +12194,10 @@
       <c r="Y26" s="48"/>
       <c r="Z26" s="48"/>
       <c r="AA26" s="48" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AB26" s="48" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC26" s="48"/>
       <c r="AD26" s="48"/>
@@ -12392,10 +12218,10 @@
         <v>96</v>
       </c>
       <c r="AS26" s="51" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AT26" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU26" s="49" t="s">
         <v>70</v>
@@ -12404,7 +12230,7 @@
         <v>129</v>
       </c>
       <c r="AW26" s="49" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AX26" s="48"/>
       <c r="AY26" t="s">
@@ -12543,13 +12369,13 @@
     </row>
     <row r="27" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A27" s="48" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D27" s="48" t="s">
         <v>58</v>
@@ -12558,31 +12384,31 @@
         <v>59</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H27" s="48" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I27" s="48" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J27" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="48"/>
       <c r="M27" s="48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N27" s="48"/>
       <c r="O27" s="48" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P27" s="48" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q27" s="50" t="s">
         <v>106</v>
@@ -12598,37 +12424,28 @@
       </c>
       <c r="U27" s="48"/>
       <c r="V27" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H27&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I27&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J27&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K27&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L27&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M27&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N27&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O27&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P27&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S27&lt;&gt;"", """" &amp; S27 &amp; """", ""), IF(Q27&lt;&gt;"", """" &amp; Q27 &amp; """", ""), IF(R27&lt;&gt;"", """" &amp; R27 &amp; """", ""),
-    IF(T27&lt;&gt;"", """" &amp; T27 &amp; """", ""),
-    IF(U27&lt;&gt;"", """" &amp; U27 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "RKI", "MIGS-VI", "NCBI Virus", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Collection"]</v>
       </c>
       <c r="W27" s="48" t="s">
         <v>8</v>
       </c>
       <c r="X27" s="49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y27" s="48" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z27" s="48"/>
       <c r="AA27" s="48" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AB27" s="48" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC27" s="48"/>
       <c r="AD27" s="48" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AE27" s="48"/>
       <c r="AF27" s="48"/>
@@ -12637,28 +12454,28 @@
       <c r="AI27" s="48"/>
       <c r="AJ27" s="48"/>
       <c r="AK27" s="48" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL27" s="48"/>
       <c r="AM27" s="48"/>
       <c r="AN27" s="48" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO27" s="48"/>
       <c r="AP27" s="48" t="s">
         <v>126</v>
       </c>
       <c r="AQ27" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR27" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AT27" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU27" s="49" t="s">
         <v>147</v>
@@ -12667,7 +12484,7 @@
         <v>148</v>
       </c>
       <c r="AW27" s="49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AX27" s="48"/>
       <c r="AY27" t="s">
@@ -12806,13 +12623,13 @@
     </row>
     <row r="28" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A28" s="48" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>58</v>
@@ -12828,7 +12645,7 @@
       <c r="K28" s="48"/>
       <c r="L28" s="48"/>
       <c r="M28" s="48" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N28" s="48"/>
       <c r="O28" s="48"/>
@@ -12845,37 +12662,28 @@
       </c>
       <c r="U28" s="48"/>
       <c r="V28" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H28&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I28&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J28&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K28&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L28&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M28&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N28&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O28&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P28&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S28&lt;&gt;"", """" &amp; S28 &amp; """", ""), IF(Q28&lt;&gt;"", """" &amp; Q28 &amp; """", ""), IF(R28&lt;&gt;"", """" &amp; R28 &amp; """", ""),
-    IF(T28&lt;&gt;"", """" &amp; T28 &amp; """", ""),
-    IF(U28&lt;&gt;"", """" &amp; U28 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["NCBI Virus", "Sample", "Collection"]</v>
       </c>
       <c r="W28" s="48" t="s">
         <v>8</v>
       </c>
       <c r="X28" s="49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y28" s="48" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z28" s="48"/>
       <c r="AA28" s="48" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AB28" s="48" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AC28" s="48"/>
       <c r="AD28" s="48" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AE28" s="48"/>
       <c r="AF28" s="48"/>
@@ -12892,10 +12700,10 @@
       <c r="AQ28" s="48"/>
       <c r="AR28" s="48"/>
       <c r="AS28" s="51" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AT28" s="48" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AU28" s="49" t="s">
         <v>147</v>
@@ -12904,7 +12712,7 @@
         <v>148</v>
       </c>
       <c r="AW28" s="49" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AX28" s="48"/>
       <c r="AY28" t="s">
@@ -13043,13 +12851,13 @@
     </row>
     <row r="29" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A29" s="48" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>58</v>
@@ -13058,11 +12866,11 @@
         <v>59</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G29" s="48"/>
       <c r="H29" s="48" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I29" s="48"/>
       <c r="J29" s="48"/>
@@ -13086,16 +12894,7 @@
       </c>
       <c r="U29" s="48"/>
       <c r="V29" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H29&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I29&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J29&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K29&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L29&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M29&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N29&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O29&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P29&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S29&lt;&gt;"", """" &amp; S29 &amp; """", ""), IF(Q29&lt;&gt;"", """" &amp; Q29 &amp; """", ""), IF(R29&lt;&gt;"", """" &amp; R29 &amp; """", ""),
-    IF(T29&lt;&gt;"", """" &amp; T29 &amp; """", ""),
-    IF(U29&lt;&gt;"", """" &amp; U29 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "Organizational", "ENA Analysis", "VJDB Analysis", "Identifiers"]</v>
       </c>
       <c r="W29" s="48"/>
@@ -13103,10 +12902,10 @@
         <v>65</v>
       </c>
       <c r="Y29" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z29" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA29" s="48"/>
       <c r="AB29" s="48"/>
@@ -13135,7 +12934,7 @@
         <v>71</v>
       </c>
       <c r="AW29" s="49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AX29" s="48"/>
       <c r="AY29" t="s">
@@ -13274,25 +13073,25 @@
     </row>
     <row r="30" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A30" s="48" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D30" s="48" t="s">
         <v>58</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H30" s="48" t="s">
         <v>346</v>
@@ -13319,16 +13118,7 @@
       </c>
       <c r="U30" s="48"/>
       <c r="V30" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H30&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I30&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J30&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K30&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L30&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M30&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N30&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O30&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P30&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S30&lt;&gt;"", """" &amp; S30 &amp; """", ""), IF(Q30&lt;&gt;"", """" &amp; Q30 &amp; """", ""), IF(R30&lt;&gt;"", """" &amp; R30 &amp; """", ""),
-    IF(T30&lt;&gt;"", """" &amp; T30 &amp; """", ""),
-    IF(U30&lt;&gt;"", """" &amp; U30 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "Analysis", "ENA Analysis", "VJDB Analysis", "Sequence"]</v>
       </c>
       <c r="W30" s="48"/>
@@ -13336,7 +13126,7 @@
         <v>348</v>
       </c>
       <c r="Y30" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z30" s="48" t="s">
         <v>349</v>
@@ -13520,10 +13310,10 @@
         <v>353</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E31" s="48" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F31" s="48" t="s">
         <v>351</v>
@@ -13554,16 +13344,7 @@
       </c>
       <c r="U31" s="48"/>
       <c r="V31" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H31&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I31&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J31&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K31&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L31&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M31&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N31&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O31&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P31&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S31&lt;&gt;"", """" &amp; S31 &amp; """", ""), IF(Q31&lt;&gt;"", """" &amp; Q31 &amp; """", ""), IF(R31&lt;&gt;"", """" &amp; R31 &amp; """", ""),
-    IF(T31&lt;&gt;"", """" &amp; T31 &amp; """", ""),
-    IF(U31&lt;&gt;"", """" &amp; U31 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "Analysis", "ENA Analysis", "VJDB Analysis", "Sequence"]</v>
       </c>
       <c r="W31" s="48"/>
@@ -13571,10 +13352,10 @@
         <v>355</v>
       </c>
       <c r="Y31" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z31" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA31" s="48"/>
       <c r="AB31" s="48"/>
@@ -13593,10 +13374,10 @@
       <c r="AO31" s="48"/>
       <c r="AP31" s="48"/>
       <c r="AQ31" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR31" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS31" s="51"/>
       <c r="AT31" s="48"/>
@@ -13758,7 +13539,7 @@
         <v>58</v>
       </c>
       <c r="E32" s="48" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F32" s="48" t="s">
         <v>357</v>
@@ -13795,16 +13576,7 @@
       </c>
       <c r="U32" s="48"/>
       <c r="V32" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H32&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I32&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J32&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K32&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L32&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M32&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N32&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O32&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P32&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S32&lt;&gt;"", """" &amp; S32 &amp; """", ""), IF(Q32&lt;&gt;"", """" &amp; Q32 &amp; """", ""), IF(R32&lt;&gt;"", """" &amp; R32 &amp; """", ""),
-    IF(T32&lt;&gt;"", """" &amp; T32 &amp; """", ""),
-    IF(U32&lt;&gt;"", """" &amp; U32 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "MIGS-VI", "BV-BRC", "Analysis", "ENA Analysis", "VJDB Analysis", "Sequence"]</v>
       </c>
       <c r="W32" s="48" t="s">
@@ -13814,10 +13586,10 @@
         <v>138</v>
       </c>
       <c r="Y32" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z32" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA32" s="48"/>
       <c r="AB32" s="48"/>
@@ -13851,7 +13623,7 @@
       </c>
       <c r="AS32" s="51"/>
       <c r="AT32" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU32" s="49" t="s">
         <v>70</v>
@@ -14011,7 +13783,7 @@
         <v>58</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F33" s="48" t="s">
         <v>369</v>
@@ -14042,16 +13814,7 @@
       </c>
       <c r="U33" s="48"/>
       <c r="V33" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H33&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I33&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J33&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K33&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L33&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M33&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N33&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O33&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P33&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S33&lt;&gt;"", """" &amp; S33 &amp; """", ""), IF(Q33&lt;&gt;"", """" &amp; Q33 &amp; """", ""), IF(R33&lt;&gt;"", """" &amp; R33 &amp; """", ""),
-    IF(T33&lt;&gt;"", """" &amp; T33 &amp; """", ""),
-    IF(U33&lt;&gt;"", """" &amp; U33 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "Analysis", "ENA Analysis", "VJDB Analysis", "Sequence"]</v>
       </c>
       <c r="W33" s="48"/>
@@ -14059,10 +13822,10 @@
         <v>372</v>
       </c>
       <c r="Y33" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z33" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA33" s="48"/>
       <c r="AB33" s="48"/>
@@ -14283,16 +14046,7 @@
         <v>155</v>
       </c>
       <c r="V34" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H34&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I34&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J34&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K34&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L34&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M34&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N34&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O34&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P34&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S34&lt;&gt;"", """" &amp; S34 &amp; """", ""), IF(Q34&lt;&gt;"", """" &amp; Q34 &amp; """", ""), IF(R34&lt;&gt;"", """" &amp; R34 &amp; """", ""),
-    IF(T34&lt;&gt;"", """" &amp; T34 &amp; """", ""),
-    IF(U34&lt;&gt;"", """" &amp; U34 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["BV-BRC", "Organizational", "Identifiers", "Sequence"]</v>
       </c>
       <c r="W34" s="48" t="s">
@@ -14524,16 +14278,7 @@
       </c>
       <c r="U35" s="48"/>
       <c r="V35" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H35&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I35&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J35&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K35&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L35&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M35&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N35&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O35&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P35&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S35&lt;&gt;"", """" &amp; S35 &amp; """", ""), IF(Q35&lt;&gt;"", """" &amp; Q35 &amp; """", ""), IF(R35&lt;&gt;"", """" &amp; R35 &amp; """", ""),
-    IF(T35&lt;&gt;"", """" &amp; T35 &amp; """", ""),
-    IF(U35&lt;&gt;"", """" &amp; U35 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Collection"]</v>
       </c>
       <c r="W35" s="48"/>
@@ -14541,10 +14286,10 @@
         <v>389</v>
       </c>
       <c r="Y35" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z35" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA35" s="48"/>
       <c r="AB35" s="48"/>
@@ -14576,7 +14321,7 @@
       </c>
       <c r="AS35" s="51"/>
       <c r="AT35" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU35" s="49" t="s">
         <v>70</v>
@@ -14770,19 +14515,10 @@
         <v>119</v>
       </c>
       <c r="U36" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V36" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H36&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I36&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J36&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K36&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L36&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M36&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N36&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O36&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P36&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S36&lt;&gt;"", """" &amp; S36 &amp; """", ""), IF(Q36&lt;&gt;"", """" &amp; Q36 &amp; """", ""), IF(R36&lt;&gt;"", """" &amp; R36 &amp; """", ""),
-    IF(T36&lt;&gt;"", """" &amp; T36 &amp; """", ""),
-    IF(U36&lt;&gt;"", """" &amp; U36 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Collection", "Host"]</v>
       </c>
       <c r="W36" s="48"/>
@@ -14790,10 +14526,10 @@
         <v>138</v>
       </c>
       <c r="Y36" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z36" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA36" s="48"/>
       <c r="AB36" s="48"/>
@@ -15024,16 +14760,7 @@
       </c>
       <c r="U37" s="48"/>
       <c r="V37" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H37&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I37&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J37&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K37&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L37&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M37&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N37&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O37&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P37&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S37&lt;&gt;"", """" &amp; S37 &amp; """", ""), IF(Q37&lt;&gt;"", """" &amp; Q37 &amp; """", ""), IF(R37&lt;&gt;"", """" &amp; R37 &amp; """", ""),
-    IF(T37&lt;&gt;"", """" &amp; T37 &amp; """", ""),
-    IF(U37&lt;&gt;"", """" &amp; U37 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Collection"]</v>
       </c>
       <c r="W37" s="48"/>
@@ -15041,10 +14768,10 @@
         <v>138</v>
       </c>
       <c r="Y37" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z37" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA37" s="48"/>
       <c r="AB37" s="48"/>
@@ -15069,10 +14796,10 @@
         <v>126</v>
       </c>
       <c r="AQ37" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR37" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS37" s="51" t="s">
         <v>409</v>
@@ -15275,16 +15002,7 @@
       </c>
       <c r="U38" s="48"/>
       <c r="V38" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H38&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I38&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J38&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K38&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L38&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M38&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N38&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O38&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P38&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S38&lt;&gt;"", """" &amp; S38 &amp; """", ""), IF(Q38&lt;&gt;"", """" &amp; Q38 &amp; """", ""), IF(R38&lt;&gt;"", """" &amp; R38 &amp; """", ""),
-    IF(T38&lt;&gt;"", """" &amp; T38 &amp; """", ""),
-    IF(U38&lt;&gt;"", """" &amp; U38 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Collection"]</v>
       </c>
       <c r="W38" s="48"/>
@@ -15292,10 +15010,10 @@
         <v>138</v>
       </c>
       <c r="Y38" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z38" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA38" s="48"/>
       <c r="AB38" s="48"/>
@@ -15320,10 +15038,10 @@
         <v>126</v>
       </c>
       <c r="AQ38" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR38" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS38" s="51" t="s">
         <v>418</v>
@@ -15477,7 +15195,7 @@
     </row>
     <row r="39" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
       <c r="A39" s="48" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B39" s="49" t="s">
         <v>421</v>
@@ -15492,7 +15210,7 @@
         <v>153</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G39" s="48"/>
       <c r="H39" s="48"/>
@@ -15516,16 +15234,7 @@
       </c>
       <c r="U39" s="48"/>
       <c r="V39" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H39&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I39&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J39&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K39&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L39&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M39&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N39&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O39&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P39&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S39&lt;&gt;"", """" &amp; S39 &amp; """", ""), IF(Q39&lt;&gt;"", """" &amp; Q39 &amp; """", ""), IF(R39&lt;&gt;"", """" &amp; R39 &amp; """", ""),
-    IF(T39&lt;&gt;"", """" &amp; T39 &amp; """", ""),
-    IF(U39&lt;&gt;"", """" &amp; U39 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["Sample", "Collection"]</v>
       </c>
       <c r="W39" s="48" t="s">
@@ -15726,14 +15435,14 @@
         <v>429</v>
       </c>
       <c r="G40" s="48" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H40" s="48" t="s">
         <v>432</v>
       </c>
       <c r="I40" s="48"/>
       <c r="J40" s="48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K40" s="48"/>
       <c r="L40" s="48"/>
@@ -15759,16 +15468,7 @@
       </c>
       <c r="U40" s="48"/>
       <c r="V40" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H40&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I40&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J40&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K40&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L40&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M40&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N40&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O40&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P40&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S40&lt;&gt;"", """" &amp; S40 &amp; """", ""), IF(Q40&lt;&gt;"", """" &amp; Q40 &amp; """", ""), IF(R40&lt;&gt;"", """" &amp; R40 &amp; """", ""),
-    IF(T40&lt;&gt;"", """" &amp; T40 &amp; """", ""),
-    IF(U40&lt;&gt;"", """" &amp; U40 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Collection"]</v>
       </c>
       <c r="W40" s="48"/>
@@ -15783,7 +15483,7 @@
       <c r="AB40" s="48"/>
       <c r="AC40" s="48"/>
       <c r="AD40" s="48" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AE40" s="48"/>
       <c r="AF40" s="48"/>
@@ -15804,15 +15504,15 @@
         <v>126</v>
       </c>
       <c r="AQ40" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR40" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS40" s="51"/>
       <c r="AT40" s="48"/>
       <c r="AU40" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV40" s="49" t="s">
         <v>129</v>
@@ -16004,16 +15704,7 @@
       </c>
       <c r="U41" s="48"/>
       <c r="V41" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H41&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I41&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J41&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K41&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L41&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M41&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N41&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O41&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P41&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S41&lt;&gt;"", """" &amp; S41 &amp; """", ""), IF(Q41&lt;&gt;"", """" &amp; Q41 &amp; """", ""), IF(R41&lt;&gt;"", """" &amp; R41 &amp; """", ""),
-    IF(T41&lt;&gt;"", """" &amp; T41 &amp; """", ""),
-    IF(U41&lt;&gt;"", """" &amp; U41 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Collection"]</v>
       </c>
       <c r="W41" s="48"/>
@@ -16021,10 +15712,10 @@
         <v>138</v>
       </c>
       <c r="Y41" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z41" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA41" s="48"/>
       <c r="AB41" s="48"/>
@@ -16058,7 +15749,7 @@
         <v>442</v>
       </c>
       <c r="AT41" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU41" s="49" t="s">
         <v>70</v>
@@ -16215,7 +15906,7 @@
         <v>446</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E42" s="48" t="s">
         <v>153</v>
@@ -16253,16 +15944,7 @@
       </c>
       <c r="U42" s="48"/>
       <c r="V42" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H42&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I42&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J42&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K42&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L42&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M42&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N42&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O42&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P42&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S42&lt;&gt;"", """" &amp; S42 &amp; """", ""), IF(Q42&lt;&gt;"", """" &amp; Q42 &amp; """", ""), IF(R42&lt;&gt;"", """" &amp; R42 &amp; """", ""),
-    IF(T42&lt;&gt;"", """" &amp; T42 &amp; """", ""),
-    IF(U42&lt;&gt;"", """" &amp; U42 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Clinical"]</v>
       </c>
       <c r="W42" s="48"/>
@@ -16270,10 +15952,10 @@
         <v>355</v>
       </c>
       <c r="Y42" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z42" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA42" s="48"/>
       <c r="AB42" s="48"/>
@@ -16298,10 +15980,10 @@
         <v>126</v>
       </c>
       <c r="AQ42" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR42" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS42" s="51"/>
       <c r="AT42" s="48"/>
@@ -16492,16 +16174,7 @@
       </c>
       <c r="U43" s="48"/>
       <c r="V43" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H43&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I43&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J43&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K43&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L43&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M43&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N43&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O43&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P43&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S43&lt;&gt;"", """" &amp; S43 &amp; """", ""), IF(Q43&lt;&gt;"", """" &amp; Q43 &amp; """", ""), IF(R43&lt;&gt;"", """" &amp; R43 &amp; """", ""),
-    IF(T43&lt;&gt;"", """" &amp; T43 &amp; """", ""),
-    IF(U43&lt;&gt;"", """" &amp; U43 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "Organizational", "Identifiers"]</v>
       </c>
       <c r="W43" s="48"/>
@@ -16509,10 +16182,10 @@
         <v>65</v>
       </c>
       <c r="Y43" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z43" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA43" s="48"/>
       <c r="AB43" s="48"/>
@@ -16726,19 +16399,10 @@
         <v>448</v>
       </c>
       <c r="U44" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V44" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H44&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I44&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J44&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K44&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L44&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M44&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N44&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O44&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P44&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S44&lt;&gt;"", """" &amp; S44 &amp; """", ""), IF(Q44&lt;&gt;"", """" &amp; Q44 &amp; """", ""), IF(R44&lt;&gt;"", """" &amp; R44 &amp; """", ""),
-    IF(T44&lt;&gt;"", """" &amp; T44 &amp; """", ""),
-    IF(U44&lt;&gt;"", """" &amp; U44 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Clinical", "Host"]</v>
       </c>
       <c r="W44" s="48"/>
@@ -16746,10 +16410,10 @@
         <v>138</v>
       </c>
       <c r="Y44" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z44" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA44" s="48"/>
       <c r="AB44" s="48"/>
@@ -16774,10 +16438,10 @@
         <v>144</v>
       </c>
       <c r="AQ44" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR44" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS44" s="51" t="s">
         <v>461</v>
@@ -16971,19 +16635,10 @@
         <v>448</v>
       </c>
       <c r="U45" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V45" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H45&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I45&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J45&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K45&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L45&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M45&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N45&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O45&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P45&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S45&lt;&gt;"", """" &amp; S45 &amp; """", ""), IF(Q45&lt;&gt;"", """" &amp; Q45 &amp; """", ""), IF(R45&lt;&gt;"", """" &amp; R45 &amp; """", ""),
-    IF(T45&lt;&gt;"", """" &amp; T45 &amp; """", ""),
-    IF(U45&lt;&gt;"", """" &amp; U45 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["Sample", "Clinical", "Host"]</v>
       </c>
       <c r="W45" s="48"/>
@@ -16991,10 +16646,10 @@
         <v>355</v>
       </c>
       <c r="Y45" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z45" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA45" s="48"/>
       <c r="AB45" s="48"/>
@@ -17208,19 +16863,10 @@
         <v>448</v>
       </c>
       <c r="U46" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V46" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H46&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I46&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J46&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K46&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L46&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M46&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N46&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O46&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P46&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S46&lt;&gt;"", """" &amp; S46 &amp; """", ""), IF(Q46&lt;&gt;"", """" &amp; Q46 &amp; """", ""), IF(R46&lt;&gt;"", """" &amp; R46 &amp; """", ""),
-    IF(T46&lt;&gt;"", """" &amp; T46 &amp; """", ""),
-    IF(U46&lt;&gt;"", """" &amp; U46 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Clinical", "Host"]</v>
       </c>
       <c r="W46" s="48"/>
@@ -17228,10 +16874,10 @@
         <v>138</v>
       </c>
       <c r="Y46" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z46" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA46" s="48"/>
       <c r="AB46" s="48"/>
@@ -17256,10 +16902,10 @@
         <v>144</v>
       </c>
       <c r="AQ46" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR46" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS46" s="51" t="s">
         <v>473</v>
@@ -17453,19 +17099,10 @@
         <v>448</v>
       </c>
       <c r="U47" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V47" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H47&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I47&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J47&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K47&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L47&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M47&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N47&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O47&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P47&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S47&lt;&gt;"", """" &amp; S47 &amp; """", ""), IF(Q47&lt;&gt;"", """" &amp; Q47 &amp; """", ""), IF(R47&lt;&gt;"", """" &amp; R47 &amp; """", ""),
-    IF(T47&lt;&gt;"", """" &amp; T47 &amp; """", ""),
-    IF(U47&lt;&gt;"", """" &amp; U47 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "Sample", "Clinical", "Host"]</v>
       </c>
       <c r="W47" s="48"/>
@@ -17473,10 +17110,10 @@
         <v>138</v>
       </c>
       <c r="Y47" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z47" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA47" s="48"/>
       <c r="AB47" s="48"/>
@@ -17495,19 +17132,19 @@
       <c r="AO47" s="48"/>
       <c r="AP47" s="48"/>
       <c r="AQ47" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR47" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS47" s="51" t="s">
         <v>479</v>
       </c>
       <c r="AT47" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU47" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV47" s="49" t="s">
         <v>71</v>
@@ -17691,20 +17328,11 @@
         <v>118</v>
       </c>
       <c r="T48" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U48" s="48"/>
       <c r="V48" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H48&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I48&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J48&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K48&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L48&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M48&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N48&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O48&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P48&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S48&lt;&gt;"", """" &amp; S48 &amp; """", ""), IF(Q48&lt;&gt;"", """" &amp; Q48 &amp; """", ""), IF(R48&lt;&gt;"", """" &amp; R48 &amp; """", ""),
-    IF(T48&lt;&gt;"", """" &amp; T48 &amp; """", ""),
-    IF(U48&lt;&gt;"", """" &amp; U48 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["BV-BRC", "Sample", "Host"]</v>
       </c>
       <c r="W48" s="48" t="s">
@@ -17720,7 +17348,7 @@
       <c r="AC48" s="48"/>
       <c r="AD48" s="48"/>
       <c r="AE48" s="48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF48" s="48"/>
       <c r="AG48" s="48" t="s">
@@ -17746,7 +17374,7 @@
         <v>485</v>
       </c>
       <c r="AU48" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV48" s="49" t="s">
         <v>129</v>
@@ -17934,20 +17562,11 @@
         <v>118</v>
       </c>
       <c r="T49" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U49" s="48"/>
       <c r="V49" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H49&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I49&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J49&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K49&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L49&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M49&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N49&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O49&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P49&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S49&lt;&gt;"", """" &amp; S49 &amp; """", ""), IF(Q49&lt;&gt;"", """" &amp; Q49 &amp; """", ""), IF(R49&lt;&gt;"", """" &amp; R49 &amp; """", ""),
-    IF(T49&lt;&gt;"", """" &amp; T49 &amp; """", ""),
-    IF(U49&lt;&gt;"", """" &amp; U49 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Host"]</v>
       </c>
       <c r="W49" s="48"/>
@@ -17955,10 +17574,10 @@
         <v>138</v>
       </c>
       <c r="Y49" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z49" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA49" s="48"/>
       <c r="AB49" s="48"/>
@@ -17983,10 +17602,10 @@
         <v>144</v>
       </c>
       <c r="AQ49" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR49" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS49" s="51" t="s">
         <v>492</v>
@@ -18152,7 +17771,7 @@
         <v>58</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F50" s="48"/>
       <c r="G50" s="48"/>
@@ -18175,20 +17794,11 @@
         <v>118</v>
       </c>
       <c r="T50" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U50" s="48"/>
       <c r="V50" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H50&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I50&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J50&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K50&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L50&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M50&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N50&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O50&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P50&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S50&lt;&gt;"", """" &amp; S50 &amp; """", ""), IF(Q50&lt;&gt;"", """" &amp; Q50 &amp; """", ""), IF(R50&lt;&gt;"", """" &amp; R50 &amp; """", ""),
-    IF(T50&lt;&gt;"", """" &amp; T50 &amp; """", ""),
-    IF(U50&lt;&gt;"", """" &amp; U50 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["BV-BRC", "Sample", "Host"]</v>
       </c>
       <c r="W50" s="48" t="s">
@@ -18206,7 +17816,7 @@
       <c r="AC50" s="48"/>
       <c r="AD50" s="48"/>
       <c r="AE50" s="48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF50" s="48"/>
       <c r="AG50" s="48" t="s">
@@ -18230,7 +17840,7 @@
       <c r="AS50" s="51"/>
       <c r="AT50" s="48"/>
       <c r="AU50" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV50" s="49" t="s">
         <v>129</v>
@@ -18387,7 +17997,7 @@
         <v>58</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F51" s="48" t="s">
         <v>505</v>
@@ -18412,20 +18022,11 @@
         <v>118</v>
       </c>
       <c r="T51" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U51" s="48"/>
       <c r="V51" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H51&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I51&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J51&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K51&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L51&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M51&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N51&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O51&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P51&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S51&lt;&gt;"", """" &amp; S51 &amp; """", ""), IF(Q51&lt;&gt;"", """" &amp; Q51 &amp; """", ""), IF(R51&lt;&gt;"", """" &amp; R51 &amp; """", ""),
-    IF(T51&lt;&gt;"", """" &amp; T51 &amp; """", ""),
-    IF(U51&lt;&gt;"", """" &amp; U51 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["MIGS-VI", "Sample", "Host"]</v>
       </c>
       <c r="W51" s="48"/>
@@ -18433,10 +18034,10 @@
         <v>507</v>
       </c>
       <c r="Y51" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z51" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA51" s="48"/>
       <c r="AB51" s="48"/>
@@ -18616,7 +18217,7 @@
         <v>58</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F52" s="48" t="s">
         <v>509</v>
@@ -18643,20 +18244,11 @@
         <v>118</v>
       </c>
       <c r="T52" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U52" s="48"/>
       <c r="V52" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H52&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I52&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J52&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K52&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L52&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M52&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N52&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O52&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P52&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S52&lt;&gt;"", """" &amp; S52 &amp; """", ""), IF(Q52&lt;&gt;"", """" &amp; Q52 &amp; """", ""), IF(R52&lt;&gt;"", """" &amp; R52 &amp; """", ""),
-    IF(T52&lt;&gt;"", """" &amp; T52 &amp; """", ""),
-    IF(U52&lt;&gt;"", """" &amp; U52 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "MIGS-VI", "Sample", "Host"]</v>
       </c>
       <c r="W52" s="48"/>
@@ -18664,10 +18256,10 @@
         <v>507</v>
       </c>
       <c r="Y52" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z52" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA52" s="48"/>
       <c r="AB52" s="48"/>
@@ -18686,15 +18278,15 @@
       <c r="AO52" s="48"/>
       <c r="AP52" s="48"/>
       <c r="AQ52" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR52" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS52" s="51"/>
       <c r="AT52" s="48"/>
       <c r="AU52" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV52" s="49" t="s">
         <v>71</v>
@@ -18888,20 +18480,11 @@
         <v>118</v>
       </c>
       <c r="T53" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U53" s="48"/>
       <c r="V53" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H53&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I53&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J53&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K53&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L53&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M53&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N53&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O53&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P53&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S53&lt;&gt;"", """" &amp; S53 &amp; """", ""), IF(Q53&lt;&gt;"", """" &amp; Q53 &amp; """", ""), IF(R53&lt;&gt;"", """" &amp; R53 &amp; """", ""),
-    IF(T53&lt;&gt;"", """" &amp; T53 &amp; """", ""),
-    IF(U53&lt;&gt;"", """" &amp; U53 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "MIGS-VI", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Host"]</v>
       </c>
       <c r="W53" s="48" t="s">
@@ -18917,7 +18500,7 @@
       <c r="AC53" s="48"/>
       <c r="AD53" s="48"/>
       <c r="AE53" s="48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF53" s="48"/>
       <c r="AG53" s="48" t="s">
@@ -18955,7 +18538,7 @@
         <v>523</v>
       </c>
       <c r="AU53" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV53" s="49" t="s">
         <v>71</v>
@@ -19143,22 +18726,13 @@
         <v>118</v>
       </c>
       <c r="T54" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U54" s="48" t="s">
         <v>529</v>
       </c>
       <c r="V54" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H54&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I54&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J54&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K54&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L54&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M54&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N54&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O54&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P54&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S54&lt;&gt;"", """" &amp; S54 &amp; """", ""), IF(Q54&lt;&gt;"", """" &amp; Q54 &amp; """", ""), IF(R54&lt;&gt;"", """" &amp; R54 &amp; """", ""),
-    IF(T54&lt;&gt;"", """" &amp; T54 &amp; """", ""),
-    IF(U54&lt;&gt;"", """" &amp; U54 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["MIGS-VI", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Host", "NCBI Taxonomy"]</v>
       </c>
       <c r="W54" s="48"/>
@@ -19166,7 +18740,7 @@
         <v>138</v>
       </c>
       <c r="Y54" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z54" s="48"/>
       <c r="AA54" s="48"/>
@@ -19393,19 +18967,10 @@
         <v>448</v>
       </c>
       <c r="U55" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V55" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H55&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I55&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J55&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K55&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L55&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M55&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N55&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O55&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P55&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S55&lt;&gt;"", """" &amp; S55 &amp; """", ""), IF(Q55&lt;&gt;"", """" &amp; Q55 &amp; """", ""), IF(R55&lt;&gt;"", """" &amp; R55 &amp; """", ""),
-    IF(T55&lt;&gt;"", """" &amp; T55 &amp; """", ""),
-    IF(U55&lt;&gt;"", """" &amp; U55 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Clinical", "Host"]</v>
       </c>
       <c r="W55" s="48" t="s">
@@ -19421,7 +18986,7 @@
       <c r="AC55" s="48"/>
       <c r="AD55" s="48"/>
       <c r="AE55" s="48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF55" s="48"/>
       <c r="AG55" s="48" t="s">
@@ -19648,19 +19213,10 @@
         <v>547</v>
       </c>
       <c r="U56" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V56" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H56&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I56&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J56&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K56&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L56&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M56&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N56&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O56&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P56&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S56&lt;&gt;"", """" &amp; S56 &amp; """", ""), IF(Q56&lt;&gt;"", """" &amp; Q56 &amp; """", ""), IF(R56&lt;&gt;"", """" &amp; R56 &amp; """", ""),
-    IF(T56&lt;&gt;"", """" &amp; T56 &amp; """", ""),
-    IF(U56&lt;&gt;"", """" &amp; U56 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="W56" s="48"/>
@@ -19668,10 +19224,10 @@
         <v>355</v>
       </c>
       <c r="Y56" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z56" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA56" s="48"/>
       <c r="AB56" s="48"/>
@@ -19704,7 +19260,7 @@
       <c r="AS56" s="51"/>
       <c r="AT56" s="48"/>
       <c r="AU56" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV56" s="49" t="s">
         <v>129</v>
@@ -19893,19 +19449,10 @@
         <v>547</v>
       </c>
       <c r="U57" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V57" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H57&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I57&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J57&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K57&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L57&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M57&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N57&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O57&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P57&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S57&lt;&gt;"", """" &amp; S57 &amp; """", ""), IF(Q57&lt;&gt;"", """" &amp; Q57 &amp; """", ""), IF(R57&lt;&gt;"", """" &amp; R57 &amp; """", ""),
-    IF(T57&lt;&gt;"", """" &amp; T57 &amp; """", ""),
-    IF(U57&lt;&gt;"", """" &amp; U57 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "ENA ERC32", "Sample", "ENA Sample", "VJDB Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="W57" s="48"/>
@@ -19913,10 +19460,10 @@
         <v>138</v>
       </c>
       <c r="Y57" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z57" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA57" s="48"/>
       <c r="AB57" s="48"/>
@@ -19949,7 +19496,7 @@
         <v>556</v>
       </c>
       <c r="AU57" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV57" s="49" t="s">
         <v>71</v>
@@ -20138,19 +19685,10 @@
         <v>547</v>
       </c>
       <c r="U58" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V58" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H58&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I58&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J58&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K58&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L58&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M58&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N58&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O58&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P58&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S58&lt;&gt;"", """" &amp; S58 &amp; """", ""), IF(Q58&lt;&gt;"", """" &amp; Q58 &amp; """", ""), IF(R58&lt;&gt;"", """" &amp; R58 &amp; """", ""),
-    IF(T58&lt;&gt;"", """" &amp; T58 &amp; """", ""),
-    IF(U58&lt;&gt;"", """" &amp; U58 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "ENA ERC32", "Sample", "ENA Sample", "VJDB Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="W58" s="48"/>
@@ -20158,10 +19696,10 @@
         <v>138</v>
       </c>
       <c r="Y58" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z58" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA58" s="48"/>
       <c r="AB58" s="48"/>
@@ -20194,7 +19732,7 @@
         <v>564</v>
       </c>
       <c r="AU58" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV58" s="49" t="s">
         <v>71</v>
@@ -20385,19 +19923,10 @@
         <v>547</v>
       </c>
       <c r="U59" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V59" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H59&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I59&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J59&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K59&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L59&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M59&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N59&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O59&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P59&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S59&lt;&gt;"", """" &amp; S59 &amp; """", ""), IF(Q59&lt;&gt;"", """" &amp; Q59 &amp; """", ""), IF(R59&lt;&gt;"", """" &amp; R59 &amp; """", ""),
-    IF(T59&lt;&gt;"", """" &amp; T59 &amp; """", ""),
-    IF(U59&lt;&gt;"", """" &amp; U59 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "ENA ERC32", "Sample", "ENA Sample", "VJDB Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="W59" s="48"/>
@@ -20405,10 +19934,10 @@
         <v>138</v>
       </c>
       <c r="Y59" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z59" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA59" s="48"/>
       <c r="AB59" s="48"/>
@@ -20429,10 +19958,10 @@
       <c r="AO59" s="48"/>
       <c r="AP59" s="48"/>
       <c r="AQ59" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR59" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS59" s="51" t="s">
         <v>572</v>
@@ -20597,8 +20126,8 @@
       <c r="D60" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="E60" s="48" t="s">
-        <v>59</v>
+      <c r="E60" s="56" t="s">
+        <v>162</v>
       </c>
       <c r="F60" s="48"/>
       <c r="G60" s="48"/>
@@ -20623,16 +20152,7 @@
       </c>
       <c r="U60" s="48"/>
       <c r="V60" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H60&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I60&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J60&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K60&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L60&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M60&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N60&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O60&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P60&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S60&lt;&gt;"", """" &amp; S60 &amp; """", ""), IF(Q60&lt;&gt;"", """" &amp; Q60 &amp; """", ""), IF(R60&lt;&gt;"", """" &amp; R60 &amp; """", ""),
-    IF(T60&lt;&gt;"", """" &amp; T60 &amp; """", ""),
-    IF(U60&lt;&gt;"", """" &amp; U60 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["Organizational", "Sequence"]</v>
       </c>
       <c r="W60" s="48" t="s">
@@ -20664,10 +20184,10 @@
       <c r="AQ60" s="48"/>
       <c r="AR60" s="48"/>
       <c r="AS60" s="51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AT60" s="48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AW60" s="49" t="s">
         <v>579</v>
@@ -20853,19 +20373,10 @@
         <v>547</v>
       </c>
       <c r="U61" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V61" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H61&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I61&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J61&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K61&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L61&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M61&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N61&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O61&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P61&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S61&lt;&gt;"", """" &amp; S61 &amp; """", ""), IF(Q61&lt;&gt;"", """" &amp; Q61 &amp; """", ""), IF(R61&lt;&gt;"", """" &amp; R61 &amp; """", ""),
-    IF(T61&lt;&gt;"", """" &amp; T61 &amp; """", ""),
-    IF(U61&lt;&gt;"", """" &amp; U61 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "ENA ERC32", "Sample", "ENA Sample", "VJDB Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="W61" s="48"/>
@@ -20873,10 +20384,10 @@
         <v>138</v>
       </c>
       <c r="Y61" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z61" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA61" s="48"/>
       <c r="AB61" s="48"/>
@@ -20909,7 +20420,7 @@
         <v>586</v>
       </c>
       <c r="AU61" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV61" s="49" t="s">
         <v>71</v>
@@ -21098,19 +20609,10 @@
         <v>547</v>
       </c>
       <c r="U62" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V62" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H62&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I62&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J62&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K62&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L62&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M62&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N62&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O62&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P62&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S62&lt;&gt;"", """" &amp; S62 &amp; """", ""), IF(Q62&lt;&gt;"", """" &amp; Q62 &amp; """", ""), IF(R62&lt;&gt;"", """" &amp; R62 &amp; """", ""),
-    IF(T62&lt;&gt;"", """" &amp; T62 &amp; """", ""),
-    IF(U62&lt;&gt;"", """" &amp; U62 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "ENA ERC32", "Sample", "ENA Sample", "VJDB Sample", "Clinical ", "Host"]</v>
       </c>
       <c r="W62" s="48"/>
@@ -21118,10 +20620,10 @@
         <v>138</v>
       </c>
       <c r="Y62" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z62" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA62" s="48"/>
       <c r="AB62" s="48"/>
@@ -21154,7 +20656,7 @@
         <v>594</v>
       </c>
       <c r="AU62" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV62" s="49" t="s">
         <v>71</v>
@@ -21342,16 +20844,7 @@
       </c>
       <c r="U63" s="48"/>
       <c r="V63" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H63&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I63&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J63&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K63&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L63&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M63&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N63&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O63&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P63&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S63&lt;&gt;"", """" &amp; S63 &amp; """", ""), IF(Q63&lt;&gt;"", """" &amp; Q63 &amp; """", ""), IF(R63&lt;&gt;"", """" &amp; R63 &amp; """", ""),
-    IF(T63&lt;&gt;"", """" &amp; T63 &amp; """", ""),
-    IF(U63&lt;&gt;"", """" &amp; U63 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["RKI", "BV-BRC", "Analysis", "Sequence"]</v>
       </c>
       <c r="W63" s="48" t="s">
@@ -21362,14 +20855,14 @@
       </c>
       <c r="Y63" s="48"/>
       <c r="Z63" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA63" s="48"/>
       <c r="AB63" s="48"/>
       <c r="AC63" s="48"/>
       <c r="AD63" s="48"/>
       <c r="AE63" s="48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF63" s="48"/>
       <c r="AG63" s="48" t="s">
@@ -21391,7 +20884,7 @@
       <c r="AS63" s="51"/>
       <c r="AT63" s="48"/>
       <c r="AU63" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV63" s="49" t="s">
         <v>129</v>
@@ -21545,7 +21038,7 @@
         <v>606</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E64" s="48" t="s">
         <v>153</v>
@@ -21577,16 +21070,7 @@
       </c>
       <c r="U64" s="48"/>
       <c r="V64" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H64&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I64&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J64&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K64&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L64&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M64&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N64&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O64&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P64&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S64&lt;&gt;"", """" &amp; S64 &amp; """", ""), IF(Q64&lt;&gt;"", """" &amp; Q64 &amp; """", ""), IF(R64&lt;&gt;"", """" &amp; R64 &amp; """", ""),
-    IF(T64&lt;&gt;"", """" &amp; T64 &amp; """", ""),
-    IF(U64&lt;&gt;"", """" &amp; U64 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["RKI", "Analysis", "Sequence"]</v>
       </c>
       <c r="W64" s="48"/>
@@ -21594,10 +21078,10 @@
         <v>138</v>
       </c>
       <c r="Y64" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z64" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA64" s="48"/>
       <c r="AB64" s="48"/>
@@ -21620,7 +21104,7 @@
       <c r="AS64" s="51"/>
       <c r="AT64" s="48"/>
       <c r="AU64" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV64" s="49" t="s">
         <v>129</v>
@@ -21810,16 +21294,7 @@
       <c r="T65" s="48"/>
       <c r="U65" s="48"/>
       <c r="V65" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H65&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I65&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J65&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K65&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L65&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M65&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N65&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O65&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P65&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S65&lt;&gt;"", """" &amp; S65 &amp; """", ""), IF(Q65&lt;&gt;"", """" &amp; Q65 &amp; """", ""), IF(R65&lt;&gt;"", """" &amp; R65 &amp; """", ""),
-    IF(T65&lt;&gt;"", """" &amp; T65 &amp; """", ""),
-    IF(U65&lt;&gt;"", """" &amp; U65 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="W65" s="48"/>
@@ -21827,10 +21302,10 @@
         <v>138</v>
       </c>
       <c r="Y65" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z65" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA65" s="48"/>
       <c r="AB65" s="48"/>
@@ -21855,16 +21330,16 @@
         <v>126</v>
       </c>
       <c r="AQ65" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR65" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS65" s="51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AT65" s="48" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AU65" s="49" t="s">
         <v>113</v>
@@ -22053,16 +21528,7 @@
       </c>
       <c r="U66" s="48"/>
       <c r="V66" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H66&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I66&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J66&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K66&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L66&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M66&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N66&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O66&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P66&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S66&lt;&gt;"", """" &amp; S66 &amp; """", ""), IF(Q66&lt;&gt;"", """" &amp; Q66 &amp; """", ""), IF(R66&lt;&gt;"", """" &amp; R66 &amp; """", ""),
-    IF(T66&lt;&gt;"", """" &amp; T66 &amp; """", ""),
-    IF(U66&lt;&gt;"", """" &amp; U66 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["RKI", "Organizational", "Identifiers"]</v>
       </c>
       <c r="W66" s="48"/>
@@ -22073,7 +21539,7 @@
         <v>425</v>
       </c>
       <c r="Z66" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA66" s="48"/>
       <c r="AB66" s="48"/>
@@ -22282,16 +21748,7 @@
       </c>
       <c r="U67" s="48"/>
       <c r="V67" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H67&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I67&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J67&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K67&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L67&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M67&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N67&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O67&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P67&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S67&lt;&gt;"", """" &amp; S67 &amp; """", ""), IF(Q67&lt;&gt;"", """" &amp; Q67 &amp; """", ""), IF(R67&lt;&gt;"", """" &amp; R67 &amp; """", ""),
-    IF(T67&lt;&gt;"", """" &amp; T67 &amp; """", ""),
-    IF(U67&lt;&gt;"", """" &amp; U67 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "Organizational", "Identifiers"]</v>
       </c>
       <c r="W67" s="48"/>
@@ -22299,10 +21756,10 @@
         <v>65</v>
       </c>
       <c r="Y67" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z67" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA67" s="48"/>
       <c r="AB67" s="48"/>
@@ -22321,10 +21778,10 @@
       <c r="AO67" s="48"/>
       <c r="AP67" s="48"/>
       <c r="AQ67" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR67" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS67" s="51"/>
       <c r="AT67" s="48"/>
@@ -22529,16 +21986,7 @@
         <v>529</v>
       </c>
       <c r="V68" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H68&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I68&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J68&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K68&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L68&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M68&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N68&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O68&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P68&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S68&lt;&gt;"", """" &amp; S68 &amp; """", ""), IF(Q68&lt;&gt;"", """" &amp; Q68 &amp; """", ""), IF(R68&lt;&gt;"", """" &amp; R68 &amp; """", ""),
-    IF(T68&lt;&gt;"", """" &amp; T68 &amp; """", ""),
-    IF(U68&lt;&gt;"", """" &amp; U68 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "MIGS-VI", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Virus ", "NCBI Taxonomy"]</v>
       </c>
       <c r="W68" s="48" t="s">
@@ -22563,7 +22011,7 @@
         <v>633</v>
       </c>
       <c r="AH68" s="48" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AI68" s="48"/>
       <c r="AJ68" s="48"/>
@@ -22592,7 +22040,7 @@
         <v>532</v>
       </c>
       <c r="AU68" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV68" s="49" t="s">
         <v>71</v>
@@ -22788,16 +22236,7 @@
       </c>
       <c r="U69" s="48"/>
       <c r="V69" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H69&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I69&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J69&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K69&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L69&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M69&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N69&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O69&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P69&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S69&lt;&gt;"", """" &amp; S69 &amp; """", ""), IF(Q69&lt;&gt;"", """" &amp; Q69 &amp; """", ""), IF(R69&lt;&gt;"", """" &amp; R69 &amp; """", ""),
-    IF(T69&lt;&gt;"", """" &amp; T69 &amp; """", ""),
-    IF(U69&lt;&gt;"", """" &amp; U69 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="2"/>
         <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Clinical"]</v>
       </c>
       <c r="W69" s="48"/>
@@ -22805,10 +22244,10 @@
         <v>647</v>
       </c>
       <c r="Y69" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z69" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA69" s="48"/>
       <c r="AB69" s="48"/>
@@ -22833,19 +22272,19 @@
         <v>126</v>
       </c>
       <c r="AQ69" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR69" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS69" s="51" t="s">
         <v>649</v>
       </c>
       <c r="AT69" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU69" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV69" s="49" t="s">
         <v>129</v>
@@ -23027,11 +22466,11 @@
         <v>118</v>
       </c>
       <c r="T70" s="48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U70" s="48"/>
       <c r="V70" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+        <f t="shared" ref="V70:V133" si="3">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
     IF(H70&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
     IF(I70&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
     IF(J70&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
@@ -23078,7 +22517,7 @@
         <v>659</v>
       </c>
       <c r="AU70" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV70" s="49" t="s">
         <v>129</v>
@@ -23262,22 +22701,13 @@
         <v>118</v>
       </c>
       <c r="T71" s="53" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U71" s="53" t="s">
         <v>529</v>
       </c>
-      <c r="V71" s="53" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H71&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I71&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J71&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K71&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L71&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M71&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N71&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O71&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P71&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S71&lt;&gt;"", """" &amp; S71 &amp; """", ""), IF(Q71&lt;&gt;"", """" &amp; Q71 &amp; """", ""), IF(R71&lt;&gt;"", """" &amp; R71 &amp; """", ""),
-    IF(T71&lt;&gt;"", """" &amp; T71 &amp; """", ""),
-    IF(U71&lt;&gt;"", """" &amp; U71 &amp; """", "")
-) &amp; "]"</f>
+      <c r="V71" s="48" t="str">
+        <f t="shared" si="3"/>
         <v>["Sample", "Virus", "NCBI Taxonomy"]</v>
       </c>
       <c r="W71" s="53" t="s">
@@ -23311,7 +22741,7 @@
       <c r="AS71" s="55"/>
       <c r="AT71" s="53"/>
       <c r="AU71" s="53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV71" s="53" t="s">
         <v>129</v>
@@ -23465,7 +22895,7 @@
         <v>670</v>
       </c>
       <c r="D72" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E72" s="48" t="s">
         <v>59</v>
@@ -23499,16 +22929,7 @@
       </c>
       <c r="U72" s="48"/>
       <c r="V72" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H72&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I72&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J72&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K72&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L72&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M72&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N72&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O72&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P72&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S72&lt;&gt;"", """" &amp; S72 &amp; """", ""), IF(Q72&lt;&gt;"", """" &amp; Q72 &amp; """", ""), IF(R72&lt;&gt;"", """" &amp; R72 &amp; """", ""),
-    IF(T72&lt;&gt;"", """" &amp; T72 &amp; """", ""),
-    IF(U72&lt;&gt;"", """" &amp; U72 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA", "BV-BRC", "Analysis", "Sequence"]</v>
       </c>
       <c r="W72" s="48" t="s">
@@ -23519,7 +22940,7 @@
       </c>
       <c r="Y72" s="48"/>
       <c r="Z72" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA72" s="48"/>
       <c r="AB72" s="48"/>
@@ -23712,7 +23133,7 @@
         <v>680</v>
       </c>
       <c r="D73" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E73" s="48" t="s">
         <v>59</v>
@@ -23746,16 +23167,7 @@
       </c>
       <c r="U73" s="48"/>
       <c r="V73" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H73&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I73&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J73&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K73&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L73&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M73&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N73&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O73&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P73&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S73&lt;&gt;"", """" &amp; S73 &amp; """", ""), IF(Q73&lt;&gt;"", """" &amp; Q73 &amp; """", ""), IF(R73&lt;&gt;"", """" &amp; R73 &amp; """", ""),
-    IF(T73&lt;&gt;"", """" &amp; T73 &amp; """", ""),
-    IF(U73&lt;&gt;"", """" &amp; U73 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["BV-BRC", "Analysis", "Sequence"]</v>
       </c>
       <c r="W73" s="48" t="s">
@@ -23771,16 +23183,16 @@
       <c r="AC73" s="48"/>
       <c r="AD73" s="48"/>
       <c r="AE73" s="48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF73" s="48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG73" s="48" t="s">
         <v>681</v>
       </c>
       <c r="AH73" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AI73" s="48"/>
       <c r="AJ73" s="48"/>
@@ -23953,7 +23365,7 @@
         <v>687</v>
       </c>
       <c r="D74" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E74" s="48" t="s">
         <v>654</v>
@@ -23985,16 +23397,7 @@
       </c>
       <c r="U74" s="48"/>
       <c r="V74" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H74&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I74&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J74&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K74&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L74&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M74&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N74&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O74&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P74&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S74&lt;&gt;"", """" &amp; S74 &amp; """", ""), IF(Q74&lt;&gt;"", """" &amp; Q74 &amp; """", ""), IF(R74&lt;&gt;"", """" &amp; R74 &amp; """", ""),
-    IF(T74&lt;&gt;"", """" &amp; T74 &amp; """", ""),
-    IF(U74&lt;&gt;"", """" &amp; U74 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["MIGS-VI", "Analysis", "Sequence"]</v>
       </c>
       <c r="W74" s="48" t="s">
@@ -24218,16 +23621,7 @@
       </c>
       <c r="U75" s="48"/>
       <c r="V75" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H75&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I75&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J75&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K75&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L75&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M75&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N75&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O75&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P75&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S75&lt;&gt;"", """" &amp; S75 &amp; """", ""), IF(Q75&lt;&gt;"", """" &amp; Q75 &amp; """", ""), IF(R75&lt;&gt;"", """" &amp; R75 &amp; """", ""),
-    IF(T75&lt;&gt;"", """" &amp; T75 &amp; """", ""),
-    IF(U75&lt;&gt;"", """" &amp; U75 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["MIGS-VI", "BV-BRC", "Analysis", "Sequence"]</v>
       </c>
       <c r="W75" s="48" t="s">
@@ -24423,7 +23817,7 @@
         <v>703</v>
       </c>
       <c r="D76" s="48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E76" s="48" t="s">
         <v>654</v>
@@ -24457,16 +23851,7 @@
       </c>
       <c r="U76" s="48"/>
       <c r="V76" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H76&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I76&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J76&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K76&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L76&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M76&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N76&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O76&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P76&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S76&lt;&gt;"", """" &amp; S76 &amp; """", ""), IF(Q76&lt;&gt;"", """" &amp; Q76 &amp; """", ""), IF(R76&lt;&gt;"", """" &amp; R76 &amp; """", ""),
-    IF(T76&lt;&gt;"", """" &amp; T76 &amp; """", ""),
-    IF(U76&lt;&gt;"", """" &amp; U76 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["MIGS-VI", "Analysis", "Sequence"]</v>
       </c>
       <c r="W76" s="48" t="s">
@@ -24690,16 +24075,7 @@
       <c r="T77" s="48"/>
       <c r="U77" s="48"/>
       <c r="V77" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H77&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I77&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J77&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K77&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L77&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M77&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N77&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O77&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P77&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S77&lt;&gt;"", """" &amp; S77 &amp; """", ""), IF(Q77&lt;&gt;"", """" &amp; Q77 &amp; """", ""), IF(R77&lt;&gt;"", """" &amp; R77 &amp; """", ""),
-    IF(T77&lt;&gt;"", """" &amp; T77 &amp; """", ""),
-    IF(U77&lt;&gt;"", """" &amp; U77 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["MIGS-VI", "Organizational"]</v>
       </c>
       <c r="W77" s="48" t="s">
@@ -24927,16 +24303,7 @@
       </c>
       <c r="U78" s="48"/>
       <c r="V78" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H78&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I78&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J78&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K78&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L78&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M78&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N78&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O78&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P78&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S78&lt;&gt;"", """" &amp; S78 &amp; """", ""), IF(Q78&lt;&gt;"", """" &amp; Q78 &amp; """", ""), IF(R78&lt;&gt;"", """" &amp; R78 &amp; """", ""),
-    IF(T78&lt;&gt;"", """" &amp; T78 &amp; """", ""),
-    IF(U78&lt;&gt;"", """" &amp; U78 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["MIGS-VI", "BV-BRC", "Organizational", "Identifiers"]</v>
       </c>
       <c r="W78" s="48" t="s">
@@ -25164,16 +24531,7 @@
       </c>
       <c r="U79" s="48"/>
       <c r="V79" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H79&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I79&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J79&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K79&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L79&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M79&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N79&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O79&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P79&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S79&lt;&gt;"", """" &amp; S79 &amp; """", ""), IF(Q79&lt;&gt;"", """" &amp; Q79 &amp; """", ""), IF(R79&lt;&gt;"", """" &amp; R79 &amp; """", ""),
-    IF(T79&lt;&gt;"", """" &amp; T79 &amp; """", ""),
-    IF(U79&lt;&gt;"", """" &amp; U79 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["BV-BRC", "Organizational", "Sequence"]</v>
       </c>
       <c r="W79" s="48" t="s">
@@ -25213,10 +24571,10 @@
       <c r="AQ79" s="48"/>
       <c r="AR79" s="48"/>
       <c r="AS79" s="51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AT79" s="48" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AU79" s="49" t="s">
         <v>113</v>
@@ -25373,7 +24731,7 @@
         <v>738</v>
       </c>
       <c r="D80" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E80" s="48" t="s">
         <v>654</v>
@@ -25407,16 +24765,7 @@
       </c>
       <c r="U80" s="48"/>
       <c r="V80" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H80&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I80&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J80&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K80&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L80&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M80&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N80&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O80&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P80&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S80&lt;&gt;"", """" &amp; S80 &amp; """", ""), IF(Q80&lt;&gt;"", """" &amp; Q80 &amp; """", ""), IF(R80&lt;&gt;"", """" &amp; R80 &amp; """", ""),
-    IF(T80&lt;&gt;"", """" &amp; T80 &amp; """", ""),
-    IF(U80&lt;&gt;"", """" &amp; U80 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["RKI", "Organizational", "Sequence"]</v>
       </c>
       <c r="W80" s="48" t="s">
@@ -25640,16 +24989,7 @@
       </c>
       <c r="U81" s="48"/>
       <c r="V81" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H81&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I81&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J81&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K81&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L81&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M81&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N81&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O81&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P81&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S81&lt;&gt;"", """" &amp; S81 &amp; """", ""), IF(Q81&lt;&gt;"", """" &amp; Q81 &amp; """", ""), IF(R81&lt;&gt;"", """" &amp; R81 &amp; """", ""),
-    IF(T81&lt;&gt;"", """" &amp; T81 &amp; """", ""),
-    IF(U81&lt;&gt;"", """" &amp; U81 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["BV-BRC", "Organizational", "Sequence"]</v>
       </c>
       <c r="W81" s="48" t="s">
@@ -25688,7 +25028,7 @@
         <v>746</v>
       </c>
       <c r="AT81" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU81" s="49" t="s">
         <v>70</v>
@@ -25845,7 +25185,7 @@
         <v>750</v>
       </c>
       <c r="D82" s="48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E82" s="48" t="s">
         <v>153</v>
@@ -25883,16 +25223,7 @@
       </c>
       <c r="U82" s="48"/>
       <c r="V82" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H82&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I82&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J82&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K82&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L82&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M82&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N82&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O82&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P82&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S82&lt;&gt;"", """" &amp; S82 &amp; """", ""), IF(Q82&lt;&gt;"", """" &amp; Q82 &amp; """", ""), IF(R82&lt;&gt;"", """" &amp; R82 &amp; """", ""),
-    IF(T82&lt;&gt;"", """" &amp; T82 &amp; """", ""),
-    IF(U82&lt;&gt;"", """" &amp; U82 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "VJDB Experiment", "Sequencing"]</v>
       </c>
       <c r="W82" s="48"/>
@@ -25900,10 +25231,10 @@
         <v>355</v>
       </c>
       <c r="Y82" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z82" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA82" s="48"/>
       <c r="AB82" s="48"/>
@@ -25928,10 +25259,10 @@
         <v>126</v>
       </c>
       <c r="AQ82" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR82" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS82" s="51"/>
       <c r="AT82" s="48"/>
@@ -26130,16 +25461,7 @@
       </c>
       <c r="U83" s="48"/>
       <c r="V83" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H83&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I83&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J83&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K83&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L83&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M83&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N83&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O83&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P83&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S83&lt;&gt;"", """" &amp; S83 &amp; """", ""), IF(Q83&lt;&gt;"", """" &amp; Q83 &amp; """", ""), IF(R83&lt;&gt;"", """" &amp; R83 &amp; """", ""),
-    IF(T83&lt;&gt;"", """" &amp; T83 &amp; """", ""),
-    IF(U83&lt;&gt;"", """" &amp; U83 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "VJDB Experiment", "Sequencing"]</v>
       </c>
       <c r="W83" s="48"/>
@@ -26147,10 +25469,10 @@
         <v>138</v>
       </c>
       <c r="Y83" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z83" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA83" s="48"/>
       <c r="AB83" s="48"/>
@@ -26379,16 +25701,7 @@
       </c>
       <c r="U84" s="48"/>
       <c r="V84" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H84&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I84&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J84&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K84&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L84&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M84&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N84&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O84&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P84&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S84&lt;&gt;"", """" &amp; S84 &amp; """", ""), IF(Q84&lt;&gt;"", """" &amp; Q84 &amp; """", ""), IF(R84&lt;&gt;"", """" &amp; R84 &amp; """", ""),
-    IF(T84&lt;&gt;"", """" &amp; T84 &amp; """", ""),
-    IF(U84&lt;&gt;"", """" &amp; U84 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "VJDB Experiment", "Sequencing"]</v>
       </c>
       <c r="W84" s="48"/>
@@ -26396,10 +25709,10 @@
         <v>355</v>
       </c>
       <c r="Y84" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z84" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA84" s="48"/>
       <c r="AB84" s="48"/>
@@ -26424,14 +25737,14 @@
         <v>126</v>
       </c>
       <c r="AQ84" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR84" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS84" s="51"/>
       <c r="AT84" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU84" s="49" t="s">
         <v>70</v>
@@ -26626,16 +25939,7 @@
       </c>
       <c r="U85" s="48"/>
       <c r="V85" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H85&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I85&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J85&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K85&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L85&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M85&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N85&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O85&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P85&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S85&lt;&gt;"", """" &amp; S85 &amp; """", ""), IF(Q85&lt;&gt;"", """" &amp; Q85 &amp; """", ""), IF(R85&lt;&gt;"", """" &amp; R85 &amp; """", ""),
-    IF(T85&lt;&gt;"", """" &amp; T85 &amp; """", ""),
-    IF(U85&lt;&gt;"", """" &amp; U85 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "VJDB Experiment", "Sequencing"]</v>
       </c>
       <c r="W85" s="48"/>
@@ -26643,10 +25947,10 @@
         <v>355</v>
       </c>
       <c r="Y85" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z85" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA85" s="48"/>
       <c r="AB85" s="48"/>
@@ -26671,14 +25975,14 @@
         <v>391</v>
       </c>
       <c r="AQ85" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR85" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS85" s="51"/>
       <c r="AT85" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU85" s="49" t="s">
         <v>70</v>
@@ -26875,16 +26179,7 @@
       </c>
       <c r="U86" s="48"/>
       <c r="V86" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H86&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I86&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J86&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K86&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L86&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M86&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N86&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O86&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P86&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S86&lt;&gt;"", """" &amp; S86 &amp; """", ""), IF(Q86&lt;&gt;"", """" &amp; Q86 &amp; """", ""), IF(R86&lt;&gt;"", """" &amp; R86 &amp; """", ""),
-    IF(T86&lt;&gt;"", """" &amp; T86 &amp; """", ""),
-    IF(U86&lt;&gt;"", """" &amp; U86 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "VJDB Experiment", "Sequencing"]</v>
       </c>
       <c r="W86" s="48"/>
@@ -26892,10 +26187,10 @@
         <v>138</v>
       </c>
       <c r="Y86" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z86" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA86" s="48"/>
       <c r="AB86" s="48"/>
@@ -27124,16 +26419,7 @@
       </c>
       <c r="U87" s="48"/>
       <c r="V87" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H87&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I87&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J87&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K87&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L87&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M87&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N87&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O87&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P87&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S87&lt;&gt;"", """" &amp; S87 &amp; """", ""), IF(Q87&lt;&gt;"", """" &amp; Q87 &amp; """", ""), IF(R87&lt;&gt;"", """" &amp; R87 &amp; """", ""),
-    IF(T87&lt;&gt;"", """" &amp; T87 &amp; """", ""),
-    IF(U87&lt;&gt;"", """" &amp; U87 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "VJDB Experiment", "Sequencing"]</v>
       </c>
       <c r="W87" s="48"/>
@@ -27141,10 +26427,10 @@
         <v>138</v>
       </c>
       <c r="Y87" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z87" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA87" s="48"/>
       <c r="AB87" s="48"/>
@@ -27178,10 +26464,10 @@
         <v>1111898265709</v>
       </c>
       <c r="AT87" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU87" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV87" s="49" t="s">
         <v>129</v>
@@ -27375,16 +26661,7 @@
       </c>
       <c r="U88" s="48"/>
       <c r="V88" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H88&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I88&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J88&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K88&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L88&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M88&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N88&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O88&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P88&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S88&lt;&gt;"", """" &amp; S88 &amp; """", ""), IF(Q88&lt;&gt;"", """" &amp; Q88 &amp; """", ""), IF(R88&lt;&gt;"", """" &amp; R88 &amp; """", ""),
-    IF(T88&lt;&gt;"", """" &amp; T88 &amp; """", ""),
-    IF(U88&lt;&gt;"", """" &amp; U88 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA", "MIGS-VI", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "VJDB Experiment", "Sequencing"]</v>
       </c>
       <c r="W88" s="48"/>
@@ -27392,10 +26669,10 @@
         <v>138</v>
       </c>
       <c r="Y88" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z88" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA88" s="48"/>
       <c r="AB88" s="48"/>
@@ -27624,16 +26901,7 @@
       </c>
       <c r="U89" s="48"/>
       <c r="V89" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H89&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I89&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J89&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K89&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L89&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M89&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N89&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O89&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P89&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S89&lt;&gt;"", """" &amp; S89 &amp; """", ""), IF(Q89&lt;&gt;"", """" &amp; Q89 &amp; """", ""), IF(R89&lt;&gt;"", """" &amp; R89 &amp; """", ""),
-    IF(T89&lt;&gt;"", """" &amp; T89 &amp; """", ""),
-    IF(U89&lt;&gt;"", """" &amp; U89 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "VJDB Experiment", "Sequencing"]</v>
       </c>
       <c r="W89" s="48"/>
@@ -27641,10 +26909,10 @@
         <v>138</v>
       </c>
       <c r="Y89" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z89" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA89" s="48"/>
       <c r="AB89" s="48"/>
@@ -27875,16 +27143,7 @@
       </c>
       <c r="U90" s="48"/>
       <c r="V90" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H90&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I90&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J90&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K90&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L90&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M90&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N90&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O90&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P90&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S90&lt;&gt;"", """" &amp; S90 &amp; """", ""), IF(Q90&lt;&gt;"", """" &amp; Q90 &amp; """", ""), IF(R90&lt;&gt;"", """" &amp; R90 &amp; """", ""),
-    IF(T90&lt;&gt;"", """" &amp; T90 &amp; """", ""),
-    IF(U90&lt;&gt;"", """" &amp; U90 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "VJDB Experiment", "Sequencing"]</v>
       </c>
       <c r="W90" s="48"/>
@@ -27892,10 +27151,10 @@
         <v>138</v>
       </c>
       <c r="Y90" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z90" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA90" s="48"/>
       <c r="AB90" s="48"/>
@@ -28126,19 +27385,12 @@
       <c r="T91" s="48" t="s">
         <v>755</v>
       </c>
-      <c r="U91" s="48"/>
+      <c r="U91" s="48" t="s">
+        <v>155</v>
+      </c>
       <c r="V91" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H91&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I91&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J91&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K91&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L91&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M91&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N91&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O91&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P91&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S91&lt;&gt;"", """" &amp; S91 &amp; """", ""), IF(Q91&lt;&gt;"", """" &amp; Q91 &amp; """", ""), IF(R91&lt;&gt;"", """" &amp; R91 &amp; """", ""),
-    IF(T91&lt;&gt;"", """" &amp; T91 &amp; """", ""),
-    IF(U91&lt;&gt;"", """" &amp; U91 &amp; """", "")
-) &amp; "]"</f>
-        <v>["ENA", "RKI", "BV-BRC", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "VJDB Experiment", "Sequencing"]</v>
+        <f t="shared" si="3"/>
+        <v>["ENA", "RKI", "BV-BRC", "ENA ERC32", "ENA ERC33", "Analysis", "ENA Experiment", "VJDB Experiment", "Sequencing", "Sequence"]</v>
       </c>
       <c r="W91" s="48" t="s">
         <v>364</v>
@@ -28148,7 +27400,7 @@
       </c>
       <c r="Y91" s="48"/>
       <c r="Z91" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA91" s="48"/>
       <c r="AB91" s="48"/>
@@ -28379,16 +27631,7 @@
       </c>
       <c r="U92" s="48"/>
       <c r="V92" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H92&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I92&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J92&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K92&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L92&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M92&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N92&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O92&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P92&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S92&lt;&gt;"", """" &amp; S92 &amp; """", ""), IF(Q92&lt;&gt;"", """" &amp; Q92 &amp; """", ""), IF(R92&lt;&gt;"", """" &amp; R92 &amp; """", ""),
-    IF(T92&lt;&gt;"", """" &amp; T92 &amp; """", ""),
-    IF(U92&lt;&gt;"", """" &amp; U92 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA", "RKI", "Analysis", "Sequencing"]</v>
       </c>
       <c r="W92" s="48" t="s">
@@ -28401,7 +27644,7 @@
         <v>425</v>
       </c>
       <c r="Z92" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA92" s="48"/>
       <c r="AB92" s="48"/>
@@ -28420,10 +27663,10 @@
       <c r="AO92" s="48"/>
       <c r="AP92" s="48"/>
       <c r="AQ92" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR92" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS92" s="51"/>
       <c r="AT92" s="48"/>
@@ -28614,16 +27857,7 @@
       </c>
       <c r="U93" s="48"/>
       <c r="V93" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H93&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I93&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J93&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K93&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L93&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M93&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N93&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O93&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P93&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S93&lt;&gt;"", """" &amp; S93 &amp; """", ""), IF(Q93&lt;&gt;"", """" &amp; Q93 &amp; """", ""), IF(R93&lt;&gt;"", """" &amp; R93 &amp; """", ""),
-    IF(T93&lt;&gt;"", """" &amp; T93 &amp; """", ""),
-    IF(U93&lt;&gt;"", """" &amp; U93 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["Organizational", "Source"]</v>
       </c>
       <c r="W93" s="48" t="s">
@@ -28833,26 +28067,17 @@
       <c r="P94" s="48"/>
       <c r="Q94" s="50"/>
       <c r="R94" s="50" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S94" s="48" t="s">
         <v>118</v>
       </c>
       <c r="T94" s="48" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U94" s="48"/>
       <c r="V94" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H94&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I94&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J94&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K94&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L94&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M94&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N94&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O94&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P94&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S94&lt;&gt;"", """" &amp; S94 &amp; """", ""), IF(Q94&lt;&gt;"", """" &amp; Q94 &amp; """", ""), IF(R94&lt;&gt;"", """" &amp; R94 &amp; """", ""),
-    IF(T94&lt;&gt;"", """" &amp; T94 &amp; """", ""),
-    IF(U94&lt;&gt;"", """" &amp; U94 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["NCBI Virus", "Sample", "VJDB Study", "Submission"]</v>
       </c>
       <c r="W94" s="48" t="s">
@@ -29068,20 +28293,11 @@
         <v>118</v>
       </c>
       <c r="T95" s="48" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U95" s="48"/>
       <c r="V95" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H95&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I95&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J95&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K95&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L95&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M95&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N95&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O95&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P95&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S95&lt;&gt;"", """" &amp; S95 &amp; """", ""), IF(Q95&lt;&gt;"", """" &amp; Q95 &amp; """", ""), IF(R95&lt;&gt;"", """" &amp; R95 &amp; """", ""),
-    IF(T95&lt;&gt;"", """" &amp; T95 &amp; """", ""),
-    IF(U95&lt;&gt;"", """" &amp; U95 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["Sample", "Submission"]</v>
       </c>
       <c r="W95" s="48" t="s">
@@ -29098,7 +28314,7 @@
       <c r="AB95" s="48"/>
       <c r="AC95" s="48"/>
       <c r="AD95" s="48" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AE95" s="48"/>
       <c r="AF95" s="48"/>
@@ -29271,7 +28487,7 @@
         <v>858</v>
       </c>
       <c r="D96" s="48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E96" s="48" t="s">
         <v>59</v>
@@ -29301,19 +28517,12 @@
       <c r="T96" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="U96" s="48"/>
+      <c r="U96" s="48" t="s">
+        <v>63</v>
+      </c>
       <c r="V96" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H96&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I96&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J96&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K96&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L96&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M96&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N96&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O96&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P96&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S96&lt;&gt;"", """" &amp; S96 &amp; """", ""), IF(Q96&lt;&gt;"", """" &amp; Q96 &amp; """", ""), IF(R96&lt;&gt;"", """" &amp; R96 &amp; """", ""),
-    IF(T96&lt;&gt;"", """" &amp; T96 &amp; """", ""),
-    IF(U96&lt;&gt;"", """" &amp; U96 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Organizational", "Sequence"]</v>
+        <f t="shared" si="3"/>
+        <v>["Organizational", "Sequence", "Identifiers"]</v>
       </c>
       <c r="W96" s="48" t="s">
         <v>577</v>
@@ -29502,7 +28711,7 @@
         <v>865</v>
       </c>
       <c r="D97" s="48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E97" s="48" t="s">
         <v>59</v>
@@ -29528,16 +28737,7 @@
       </c>
       <c r="U97" s="48"/>
       <c r="V97" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H97&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I97&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J97&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K97&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L97&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M97&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N97&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O97&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P97&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S97&lt;&gt;"", """" &amp; S97 &amp; """", ""), IF(Q97&lt;&gt;"", """" &amp; Q97 &amp; """", ""), IF(R97&lt;&gt;"", """" &amp; R97 &amp; """", ""),
-    IF(T97&lt;&gt;"", """" &amp; T97 &amp; """", ""),
-    IF(U97&lt;&gt;"", """" &amp; U97 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["Organizational", "Sequence"]</v>
       </c>
       <c r="W97" s="48" t="s">
@@ -29756,20 +28956,11 @@
         <v>62</v>
       </c>
       <c r="T98" s="48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U98" s="48"/>
       <c r="V98" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H98&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I98&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J98&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K98&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L98&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M98&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N98&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O98&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P98&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S98&lt;&gt;"", """" &amp; S98 &amp; """", ""), IF(Q98&lt;&gt;"", """" &amp; Q98 &amp; """", ""), IF(R98&lt;&gt;"", """" &amp; R98 &amp; """", ""),
-    IF(T98&lt;&gt;"", """" &amp; T98 &amp; """", ""),
-    IF(U98&lt;&gt;"", """" &amp; U98 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA", "RKI", "ENA ERC32", "ENA ERC33", "Organizational", "ENA Sample", "VJDB Sample", "Virus"]</v>
       </c>
       <c r="W98" s="48"/>
@@ -29777,10 +28968,10 @@
         <v>355</v>
       </c>
       <c r="Y98" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z98" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA98" s="48"/>
       <c r="AB98" s="48"/>
@@ -29805,10 +28996,10 @@
         <v>126</v>
       </c>
       <c r="AQ98" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR98" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS98" s="51"/>
       <c r="AT98" s="48"/>
@@ -29995,16 +29186,7 @@
       <c r="T99" s="56"/>
       <c r="U99" s="56"/>
       <c r="V99" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H99&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I99&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J99&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K99&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L99&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M99&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N99&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O99&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P99&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S99&lt;&gt;"", """" &amp; S99 &amp; """", ""), IF(Q99&lt;&gt;"", """" &amp; Q99 &amp; """", ""), IF(R99&lt;&gt;"", """" &amp; R99 &amp; """", ""),
-    IF(T99&lt;&gt;"", """" &amp; T99 &amp; """", ""),
-    IF(U99&lt;&gt;"", """" &amp; U99 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="W99" s="56"/>
@@ -30032,16 +29214,16 @@
       <c r="AO99" s="48"/>
       <c r="AP99" s="48"/>
       <c r="AQ99" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR99" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS99" s="51" t="s">
         <v>880</v>
       </c>
       <c r="AT99" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU99" s="49" t="s">
         <v>70</v>
@@ -30226,16 +29408,7 @@
       <c r="T100" s="56"/>
       <c r="U100" s="56"/>
       <c r="V100" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H100&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I100&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J100&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K100&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L100&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M100&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N100&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O100&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P100&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S100&lt;&gt;"", """" &amp; S100 &amp; """", ""), IF(Q100&lt;&gt;"", """" &amp; Q100 &amp; """", ""), IF(R100&lt;&gt;"", """" &amp; R100 &amp; """", ""),
-    IF(T100&lt;&gt;"", """" &amp; T100 &amp; """", ""),
-    IF(U100&lt;&gt;"", """" &amp; U100 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="W100" s="56"/>
@@ -30263,10 +29436,10 @@
       <c r="AO100" s="48"/>
       <c r="AP100" s="48"/>
       <c r="AQ100" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR100" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS100" s="51" t="s">
         <v>887</v>
@@ -30457,16 +29630,7 @@
       <c r="T101" s="56"/>
       <c r="U101" s="56"/>
       <c r="V101" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H101&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I101&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J101&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K101&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L101&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M101&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N101&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O101&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P101&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S101&lt;&gt;"", """" &amp; S101 &amp; """", ""), IF(Q101&lt;&gt;"", """" &amp; Q101 &amp; """", ""), IF(R101&lt;&gt;"", """" &amp; R101 &amp; """", ""),
-    IF(T101&lt;&gt;"", """" &amp; T101 &amp; """", ""),
-    IF(U101&lt;&gt;"", """" &amp; U101 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="W101" s="56"/>
@@ -30494,10 +29658,10 @@
       <c r="AO101" s="48"/>
       <c r="AP101" s="48"/>
       <c r="AQ101" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR101" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS101" s="51" t="s">
         <v>895</v>
@@ -30688,16 +29852,7 @@
       <c r="T102" s="56"/>
       <c r="U102" s="56"/>
       <c r="V102" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H102&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I102&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J102&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K102&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L102&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M102&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N102&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O102&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P102&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S102&lt;&gt;"", """" &amp; S102 &amp; """", ""), IF(Q102&lt;&gt;"", """" &amp; Q102 &amp; """", ""), IF(R102&lt;&gt;"", """" &amp; R102 &amp; """", ""),
-    IF(T102&lt;&gt;"", """" &amp; T102 &amp; """", ""),
-    IF(U102&lt;&gt;"", """" &amp; U102 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="W102" s="56"/>
@@ -30725,10 +29880,10 @@
       <c r="AO102" s="48"/>
       <c r="AP102" s="48"/>
       <c r="AQ102" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR102" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS102" s="51" t="s">
         <v>903</v>
@@ -30894,7 +30049,7 @@
         <v>58</v>
       </c>
       <c r="E103" s="48" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F103" s="56"/>
       <c r="G103" s="56"/>
@@ -30921,16 +30076,7 @@
       <c r="T103" s="56"/>
       <c r="U103" s="56"/>
       <c r="V103" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H103&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I103&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J103&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K103&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L103&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M103&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N103&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O103&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P103&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S103&lt;&gt;"", """" &amp; S103 &amp; """", ""), IF(Q103&lt;&gt;"", """" &amp; Q103 &amp; """", ""), IF(R103&lt;&gt;"", """" &amp; R103 &amp; """", ""),
-    IF(T103&lt;&gt;"", """" &amp; T103 &amp; """", ""),
-    IF(U103&lt;&gt;"", """" &amp; U103 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Run", "VJDB Run"]</v>
       </c>
       <c r="W103" s="56"/>
@@ -31127,7 +30273,7 @@
         <v>58</v>
       </c>
       <c r="E104" s="48" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F104" s="56"/>
       <c r="G104" s="56"/>
@@ -31154,16 +30300,7 @@
       <c r="T104" s="56"/>
       <c r="U104" s="56"/>
       <c r="V104" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H104&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I104&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J104&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K104&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L104&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M104&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N104&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O104&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P104&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S104&lt;&gt;"", """" &amp; S104 &amp; """", ""), IF(Q104&lt;&gt;"", """" &amp; Q104 &amp; """", ""), IF(R104&lt;&gt;"", """" &amp; R104 &amp; """", ""),
-    IF(T104&lt;&gt;"", """" &amp; T104 &amp; """", ""),
-    IF(U104&lt;&gt;"", """" &amp; U104 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Run", "VJDB Run"]</v>
       </c>
       <c r="W104" s="56"/>
@@ -31387,16 +30524,7 @@
       <c r="T105" s="56"/>
       <c r="U105" s="56"/>
       <c r="V105" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H105&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I105&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J105&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K105&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L105&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M105&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N105&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O105&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P105&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S105&lt;&gt;"", """" &amp; S105 &amp; """", ""), IF(Q105&lt;&gt;"", """" &amp; Q105 &amp; """", ""), IF(R105&lt;&gt;"", """" &amp; R105 &amp; """", ""),
-    IF(T105&lt;&gt;"", """" &amp; T105 &amp; """", ""),
-    IF(U105&lt;&gt;"", """" &amp; U105 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="W105" s="56"/>
@@ -31428,10 +30556,10 @@
         <v>126</v>
       </c>
       <c r="AQ105" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR105" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS105" s="51" t="s">
         <v>922</v>
@@ -31624,16 +30752,7 @@
       <c r="T106" s="56"/>
       <c r="U106" s="56"/>
       <c r="V106" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H106&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I106&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J106&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K106&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L106&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M106&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N106&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O106&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P106&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S106&lt;&gt;"", """" &amp; S106 &amp; """", ""), IF(Q106&lt;&gt;"", """" &amp; Q106 &amp; """", ""), IF(R106&lt;&gt;"", """" &amp; R106 &amp; """", ""),
-    IF(T106&lt;&gt;"", """" &amp; T106 &amp; """", ""),
-    IF(U106&lt;&gt;"", """" &amp; U106 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="W106" s="56"/>
@@ -31665,10 +30784,10 @@
         <v>144</v>
       </c>
       <c r="AQ106" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR106" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS106" s="51" t="s">
         <v>929</v>
@@ -31861,16 +30980,7 @@
       <c r="T107" s="56"/>
       <c r="U107" s="56"/>
       <c r="V107" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H107&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I107&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J107&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K107&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L107&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M107&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N107&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O107&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P107&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S107&lt;&gt;"", """" &amp; S107 &amp; """", ""), IF(Q107&lt;&gt;"", """" &amp; Q107 &amp; """", ""), IF(R107&lt;&gt;"", """" &amp; R107 &amp; """", ""),
-    IF(T107&lt;&gt;"", """" &amp; T107 &amp; """", ""),
-    IF(U107&lt;&gt;"", """" &amp; U107 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="W107" s="56"/>
@@ -31902,14 +31012,14 @@
         <v>126</v>
       </c>
       <c r="AQ107" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR107" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS107" s="51"/>
       <c r="AT107" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU107" s="49" t="s">
         <v>936</v>
@@ -32096,16 +31206,7 @@
       <c r="T108" s="56"/>
       <c r="U108" s="56"/>
       <c r="V108" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H108&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I108&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J108&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K108&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L108&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M108&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N108&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O108&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P108&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S108&lt;&gt;"", """" &amp; S108 &amp; """", ""), IF(Q108&lt;&gt;"", """" &amp; Q108 &amp; """", ""), IF(R108&lt;&gt;"", """" &amp; R108 &amp; """", ""),
-    IF(T108&lt;&gt;"", """" &amp; T108 &amp; """", ""),
-    IF(U108&lt;&gt;"", """" &amp; U108 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="W108" s="56"/>
@@ -32137,10 +31238,10 @@
         <v>126</v>
       </c>
       <c r="AQ108" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR108" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS108" s="51" t="s">
         <v>943</v>
@@ -32331,16 +31432,7 @@
       <c r="T109" s="56"/>
       <c r="U109" s="56"/>
       <c r="V109" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H109&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I109&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J109&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K109&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L109&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M109&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N109&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O109&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P109&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S109&lt;&gt;"", """" &amp; S109 &amp; """", ""), IF(Q109&lt;&gt;"", """" &amp; Q109 &amp; """", ""), IF(R109&lt;&gt;"", """" &amp; R109 &amp; """", ""),
-    IF(T109&lt;&gt;"", """" &amp; T109 &amp; """", ""),
-    IF(U109&lt;&gt;"", """" &amp; U109 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="W109" s="56"/>
@@ -32368,16 +31460,16 @@
       <c r="AO109" s="48"/>
       <c r="AP109" s="48"/>
       <c r="AQ109" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR109" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS109" s="51" t="s">
         <v>950</v>
       </c>
       <c r="AT109" s="48" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AU109" s="49" t="s">
         <v>113</v>
@@ -32564,16 +31656,7 @@
       <c r="T110" s="56"/>
       <c r="U110" s="56"/>
       <c r="V110" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H110&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I110&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J110&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K110&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L110&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M110&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N110&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O110&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P110&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S110&lt;&gt;"", """" &amp; S110 &amp; """", ""), IF(Q110&lt;&gt;"", """" &amp; Q110 &amp; """", ""), IF(R110&lt;&gt;"", """" &amp; R110 &amp; """", ""),
-    IF(T110&lt;&gt;"", """" &amp; T110 &amp; """", ""),
-    IF(U110&lt;&gt;"", """" &amp; U110 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="W110" s="56"/>
@@ -32605,10 +31688,10 @@
         <v>391</v>
       </c>
       <c r="AQ110" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR110" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS110" s="51" t="s">
         <v>956</v>
@@ -32799,16 +31882,7 @@
       <c r="T111" s="56"/>
       <c r="U111" s="56"/>
       <c r="V111" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H111&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I111&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J111&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K111&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L111&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M111&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N111&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O111&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P111&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S111&lt;&gt;"", """" &amp; S111 &amp; """", ""), IF(Q111&lt;&gt;"", """" &amp; Q111 &amp; """", ""), IF(R111&lt;&gt;"", """" &amp; R111 &amp; """", ""),
-    IF(T111&lt;&gt;"", """" &amp; T111 &amp; """", ""),
-    IF(U111&lt;&gt;"", """" &amp; U111 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="W111" s="56"/>
@@ -32836,10 +31910,10 @@
       <c r="AO111" s="48"/>
       <c r="AP111" s="48"/>
       <c r="AQ111" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR111" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS111" s="51" t="s">
         <v>964</v>
@@ -33018,16 +32092,7 @@
         <v>107</v>
       </c>
       <c r="V112" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H112&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I112&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J112&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K112&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L112&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M112&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N112&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O112&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P112&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S112&lt;&gt;"", """" &amp; S112 &amp; """", ""), IF(Q112&lt;&gt;"", """" &amp; Q112 &amp; """", ""), IF(R112&lt;&gt;"", """" &amp; R112 &amp; """", ""),
-    IF(T112&lt;&gt;"", """" &amp; T112 &amp; """", ""),
-    IF(U112&lt;&gt;"", """" &amp; U112 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X112" s="56" t="s">
@@ -33042,16 +32107,16 @@
       <c r="AO112" s="48"/>
       <c r="AP112" s="48"/>
       <c r="AQ112" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR112" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS112" s="51" t="s">
         <v>971</v>
       </c>
       <c r="AT112" s="48" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AU112" s="49" t="s">
         <v>113</v>
@@ -33224,16 +32289,7 @@
         <v>107</v>
       </c>
       <c r="V113" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H113&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I113&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J113&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K113&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L113&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M113&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N113&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O113&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P113&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S113&lt;&gt;"", """" &amp; S113 &amp; """", ""), IF(Q113&lt;&gt;"", """" &amp; Q113 &amp; """", ""), IF(R113&lt;&gt;"", """" &amp; R113 &amp; """", ""),
-    IF(T113&lt;&gt;"", """" &amp; T113 &amp; """", ""),
-    IF(U113&lt;&gt;"", """" &amp; U113 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X113" s="56" t="s">
@@ -33248,16 +32304,16 @@
       <c r="AO113" s="48"/>
       <c r="AP113" s="48"/>
       <c r="AQ113" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR113" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS113" s="51" t="s">
         <v>978</v>
       </c>
       <c r="AT113" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU113" s="49" t="s">
         <v>70</v>
@@ -33430,16 +32486,7 @@
         <v>107</v>
       </c>
       <c r="V114" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H114&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I114&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J114&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K114&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L114&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M114&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N114&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O114&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P114&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S114&lt;&gt;"", """" &amp; S114 &amp; """", ""), IF(Q114&lt;&gt;"", """" &amp; Q114 &amp; """", ""), IF(R114&lt;&gt;"", """" &amp; R114 &amp; """", ""),
-    IF(T114&lt;&gt;"", """" &amp; T114 &amp; """", ""),
-    IF(U114&lt;&gt;"", """" &amp; U114 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X114" s="56" t="s">
@@ -33454,10 +32501,10 @@
       <c r="AO114" s="48"/>
       <c r="AP114" s="48"/>
       <c r="AQ114" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR114" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS114" s="51" t="s">
         <v>929</v>
@@ -33636,16 +32683,7 @@
         <v>107</v>
       </c>
       <c r="V115" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H115&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I115&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J115&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K115&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L115&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M115&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N115&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O115&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P115&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S115&lt;&gt;"", """" &amp; S115 &amp; """", ""), IF(Q115&lt;&gt;"", """" &amp; Q115 &amp; """", ""), IF(R115&lt;&gt;"", """" &amp; R115 &amp; """", ""),
-    IF(T115&lt;&gt;"", """" &amp; T115 &amp; """", ""),
-    IF(U115&lt;&gt;"", """" &amp; U115 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X115" s="56" t="s">
@@ -33660,14 +32698,14 @@
       <c r="AO115" s="48"/>
       <c r="AP115" s="48"/>
       <c r="AQ115" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR115" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS115" s="51"/>
       <c r="AT115" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU115" s="49" t="s">
         <v>70</v>
@@ -33840,16 +32878,7 @@
         <v>107</v>
       </c>
       <c r="V116" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H116&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I116&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J116&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K116&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L116&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M116&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N116&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O116&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P116&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S116&lt;&gt;"", """" &amp; S116 &amp; """", ""), IF(Q116&lt;&gt;"", """" &amp; Q116 &amp; """", ""), IF(R116&lt;&gt;"", """" &amp; R116 &amp; """", ""),
-    IF(T116&lt;&gt;"", """" &amp; T116 &amp; """", ""),
-    IF(U116&lt;&gt;"", """" &amp; U116 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X116" s="56" t="s">
@@ -33864,14 +32893,14 @@
       <c r="AO116" s="48"/>
       <c r="AP116" s="48"/>
       <c r="AQ116" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR116" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS116" s="51"/>
       <c r="AT116" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU116" s="49" t="s">
         <v>70</v>
@@ -34044,16 +33073,7 @@
         <v>107</v>
       </c>
       <c r="V117" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H117&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I117&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J117&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K117&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L117&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M117&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N117&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O117&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P117&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S117&lt;&gt;"", """" &amp; S117 &amp; """", ""), IF(Q117&lt;&gt;"", """" &amp; Q117 &amp; """", ""), IF(R117&lt;&gt;"", """" &amp; R117 &amp; """", ""),
-    IF(T117&lt;&gt;"", """" &amp; T117 &amp; """", ""),
-    IF(U117&lt;&gt;"", """" &amp; U117 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X117" s="56" t="s">
@@ -34068,14 +33088,14 @@
       <c r="AO117" s="48"/>
       <c r="AP117" s="48"/>
       <c r="AQ117" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR117" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS117" s="51"/>
       <c r="AT117" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU117" s="49" t="s">
         <v>147</v>
@@ -34248,16 +33268,7 @@
         <v>107</v>
       </c>
       <c r="V118" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H118&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I118&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J118&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K118&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L118&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M118&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N118&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O118&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P118&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S118&lt;&gt;"", """" &amp; S118 &amp; """", ""), IF(Q118&lt;&gt;"", """" &amp; Q118 &amp; """", ""), IF(R118&lt;&gt;"", """" &amp; R118 &amp; """", ""),
-    IF(T118&lt;&gt;"", """" &amp; T118 &amp; """", ""),
-    IF(U118&lt;&gt;"", """" &amp; U118 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X118" s="56" t="s">
@@ -34272,14 +33283,14 @@
       <c r="AO118" s="48"/>
       <c r="AP118" s="48"/>
       <c r="AQ118" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR118" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS118" s="51"/>
       <c r="AT118" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU118" s="49" t="s">
         <v>147</v>
@@ -34452,16 +33463,7 @@
         <v>107</v>
       </c>
       <c r="V119" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H119&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I119&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J119&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K119&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L119&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M119&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N119&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O119&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P119&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S119&lt;&gt;"", """" &amp; S119 &amp; """", ""), IF(Q119&lt;&gt;"", """" &amp; Q119 &amp; """", ""), IF(R119&lt;&gt;"", """" &amp; R119 &amp; """", ""),
-    IF(T119&lt;&gt;"", """" &amp; T119 &amp; """", ""),
-    IF(U119&lt;&gt;"", """" &amp; U119 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X119" s="56" t="s">
@@ -34476,14 +33478,14 @@
       <c r="AO119" s="48"/>
       <c r="AP119" s="48"/>
       <c r="AQ119" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR119" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS119" s="51"/>
       <c r="AT119" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU119" s="49" t="s">
         <v>70</v>
@@ -34656,16 +33658,7 @@
         <v>107</v>
       </c>
       <c r="V120" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H120&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I120&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J120&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K120&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L120&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M120&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N120&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O120&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P120&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S120&lt;&gt;"", """" &amp; S120 &amp; """", ""), IF(Q120&lt;&gt;"", """" &amp; Q120 &amp; """", ""), IF(R120&lt;&gt;"", """" &amp; R120 &amp; """", ""),
-    IF(T120&lt;&gt;"", """" &amp; T120 &amp; """", ""),
-    IF(U120&lt;&gt;"", """" &amp; U120 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X120" s="56" t="s">
@@ -34680,10 +33673,10 @@
       <c r="AO120" s="48"/>
       <c r="AP120" s="48"/>
       <c r="AQ120" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR120" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS120" s="51" t="s">
         <v>895</v>
@@ -34864,16 +33857,7 @@
         <v>107</v>
       </c>
       <c r="V121" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H121&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I121&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J121&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K121&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L121&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M121&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N121&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O121&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P121&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S121&lt;&gt;"", """" &amp; S121 &amp; """", ""), IF(Q121&lt;&gt;"", """" &amp; Q121 &amp; """", ""), IF(R121&lt;&gt;"", """" &amp; R121 &amp; """", ""),
-    IF(T121&lt;&gt;"", """" &amp; T121 &amp; """", ""),
-    IF(U121&lt;&gt;"", """" &amp; U121 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X121" s="56" t="s">
@@ -34892,10 +33876,10 @@
         <v>126</v>
       </c>
       <c r="AQ121" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR121" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS121" s="51" t="s">
         <v>1027</v>
@@ -35076,16 +34060,7 @@
         <v>107</v>
       </c>
       <c r="V122" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H122&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I122&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J122&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K122&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L122&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M122&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N122&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O122&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P122&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S122&lt;&gt;"", """" &amp; S122 &amp; """", ""), IF(Q122&lt;&gt;"", """" &amp; Q122 &amp; """", ""), IF(R122&lt;&gt;"", """" &amp; R122 &amp; """", ""),
-    IF(T122&lt;&gt;"", """" &amp; T122 &amp; """", ""),
-    IF(U122&lt;&gt;"", """" &amp; U122 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X122" s="56" t="s">
@@ -35104,10 +34079,10 @@
         <v>144</v>
       </c>
       <c r="AQ122" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR122" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS122" s="51" t="s">
         <v>1034</v>
@@ -35288,16 +34263,7 @@
         <v>107</v>
       </c>
       <c r="V123" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H123&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I123&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J123&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K123&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L123&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M123&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N123&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O123&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P123&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S123&lt;&gt;"", """" &amp; S123 &amp; """", ""), IF(Q123&lt;&gt;"", """" &amp; Q123 &amp; """", ""), IF(R123&lt;&gt;"", """" &amp; R123 &amp; """", ""),
-    IF(T123&lt;&gt;"", """" &amp; T123 &amp; """", ""),
-    IF(U123&lt;&gt;"", """" &amp; U123 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X123" s="56" t="s">
@@ -35316,14 +34282,14 @@
         <v>126</v>
       </c>
       <c r="AQ123" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR123" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS123" s="51"/>
       <c r="AT123" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU123" s="49" t="s">
         <v>70</v>
@@ -35498,16 +34464,7 @@
         <v>107</v>
       </c>
       <c r="V124" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H124&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I124&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J124&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K124&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L124&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M124&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N124&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O124&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P124&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S124&lt;&gt;"", """" &amp; S124 &amp; """", ""), IF(Q124&lt;&gt;"", """" &amp; Q124 &amp; """", ""), IF(R124&lt;&gt;"", """" &amp; R124 &amp; """", ""),
-    IF(T124&lt;&gt;"", """" &amp; T124 &amp; """", ""),
-    IF(U124&lt;&gt;"", """" &amp; U124 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X124" s="56" t="s">
@@ -35526,14 +34483,14 @@
         <v>391</v>
       </c>
       <c r="AQ124" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR124" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS124" s="51"/>
       <c r="AT124" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU124" s="49" t="s">
         <v>936</v>
@@ -35706,16 +34663,7 @@
         <v>107</v>
       </c>
       <c r="V125" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H125&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I125&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J125&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K125&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L125&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M125&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N125&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O125&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P125&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S125&lt;&gt;"", """" &amp; S125 &amp; """", ""), IF(Q125&lt;&gt;"", """" &amp; Q125 &amp; """", ""), IF(R125&lt;&gt;"", """" &amp; R125 &amp; """", ""),
-    IF(T125&lt;&gt;"", """" &amp; T125 &amp; """", ""),
-    IF(U125&lt;&gt;"", """" &amp; U125 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X125" s="56" t="s">
@@ -35730,10 +34678,10 @@
       <c r="AO125" s="48"/>
       <c r="AP125" s="48"/>
       <c r="AQ125" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR125" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS125" s="51" t="s">
         <v>1053</v>
@@ -35917,16 +34865,7 @@
         <v>107</v>
       </c>
       <c r="V126" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H126&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I126&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J126&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K126&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L126&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M126&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N126&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O126&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P126&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S126&lt;&gt;"", """" &amp; S126 &amp; """", ""), IF(Q126&lt;&gt;"", """" &amp; Q126 &amp; """", ""), IF(R126&lt;&gt;"", """" &amp; R126 &amp; """", ""),
-    IF(T126&lt;&gt;"", """" &amp; T126 &amp; """", ""),
-    IF(U126&lt;&gt;"", """" &amp; U126 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["BV-BRC", "ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X126" s="56" t="s">
@@ -35948,14 +34887,14 @@
         <v>126</v>
       </c>
       <c r="AQ126" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR126" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS126" s="51"/>
       <c r="AT126" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU126" s="49" t="s">
         <v>70</v>
@@ -36127,19 +35066,10 @@
         <v>93</v>
       </c>
       <c r="R127" s="57" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V127" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H127&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I127&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J127&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K127&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L127&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M127&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N127&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O127&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P127&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S127&lt;&gt;"", """" &amp; S127 &amp; """", ""), IF(Q127&lt;&gt;"", """" &amp; Q127 &amp; """", ""), IF(R127&lt;&gt;"", """" &amp; R127 &amp; """", ""),
-    IF(T127&lt;&gt;"", """" &amp; T127 &amp; """", ""),
-    IF(U127&lt;&gt;"", """" &amp; U127 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Study", "VJDB Study"]</v>
       </c>
       <c r="X127" s="56" t="s">
@@ -36158,14 +35088,14 @@
         <v>391</v>
       </c>
       <c r="AQ127" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR127" s="48" t="s">
         <v>96</v>
       </c>
       <c r="AS127" s="51"/>
       <c r="AT127" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU127" s="49" t="s">
         <v>936</v>
@@ -36340,16 +35270,7 @@
         <v>107</v>
       </c>
       <c r="V128" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H128&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I128&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J128&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K128&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L128&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M128&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N128&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O128&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P128&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S128&lt;&gt;"", """" &amp; S128 &amp; """", ""), IF(Q128&lt;&gt;"", """" &amp; Q128 &amp; """", ""), IF(R128&lt;&gt;"", """" &amp; R128 &amp; """", ""),
-    IF(T128&lt;&gt;"", """" &amp; T128 &amp; """", ""),
-    IF(U128&lt;&gt;"", """" &amp; U128 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X128" s="56" t="s">
@@ -36368,10 +35289,10 @@
         <v>126</v>
       </c>
       <c r="AQ128" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR128" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS128" s="48" t="s">
         <v>1070</v>
@@ -36552,16 +35473,7 @@
         <v>107</v>
       </c>
       <c r="V129" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H129&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I129&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J129&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K129&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L129&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M129&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N129&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O129&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P129&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S129&lt;&gt;"", """" &amp; S129 &amp; """", ""), IF(Q129&lt;&gt;"", """" &amp; Q129 &amp; """", ""), IF(R129&lt;&gt;"", """" &amp; R129 &amp; """", ""),
-    IF(T129&lt;&gt;"", """" &amp; T129 &amp; """", ""),
-    IF(U129&lt;&gt;"", """" &amp; U129 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X129" s="56" t="s">
@@ -36580,10 +35492,10 @@
         <v>126</v>
       </c>
       <c r="AQ129" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR129" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS129" s="51" t="s">
         <v>1078</v>
@@ -36761,19 +35673,10 @@
         <v>93</v>
       </c>
       <c r="R130" s="57" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V130" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H130&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I130&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J130&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K130&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L130&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M130&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N130&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O130&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P130&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S130&lt;&gt;"", """" &amp; S130 &amp; """", ""), IF(Q130&lt;&gt;"", """" &amp; Q130 &amp; """", ""), IF(R130&lt;&gt;"", """" &amp; R130 &amp; """", ""),
-    IF(T130&lt;&gt;"", """" &amp; T130 &amp; """", ""),
-    IF(U130&lt;&gt;"", """" &amp; U130 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Study", "VJDB Study"]</v>
       </c>
       <c r="X130" s="56" t="s">
@@ -36799,7 +35702,7 @@
       </c>
       <c r="AS130" s="51"/>
       <c r="AT130" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU130" s="49" t="s">
         <v>70</v>
@@ -36974,16 +35877,7 @@
         <v>754</v>
       </c>
       <c r="V131" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H131&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I131&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J131&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K131&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L131&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M131&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N131&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O131&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P131&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S131&lt;&gt;"", """" &amp; S131 &amp; """", ""), IF(Q131&lt;&gt;"", """" &amp; Q131 &amp; """", ""), IF(R131&lt;&gt;"", """" &amp; R131 &amp; """", ""),
-    IF(T131&lt;&gt;"", """" &amp; T131 &amp; """", ""),
-    IF(U131&lt;&gt;"", """" &amp; U131 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Experiment", "VJDB Experiment"]</v>
       </c>
       <c r="X131" s="56" t="s">
@@ -37009,7 +35903,7 @@
       </c>
       <c r="AS131" s="51"/>
       <c r="AT131" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU131" s="49" t="s">
         <v>70</v>
@@ -37184,16 +36078,7 @@
         <v>107</v>
       </c>
       <c r="V132" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H132&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I132&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J132&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K132&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L132&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M132&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N132&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O132&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P132&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S132&lt;&gt;"", """" &amp; S132 &amp; """", ""), IF(Q132&lt;&gt;"", """" &amp; Q132 &amp; """", ""), IF(R132&lt;&gt;"", """" &amp; R132 &amp; """", ""),
-    IF(T132&lt;&gt;"", """" &amp; T132 &amp; """", ""),
-    IF(U132&lt;&gt;"", """" &amp; U132 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X132" s="56" t="s">
@@ -37219,7 +36104,7 @@
       </c>
       <c r="AS132" s="51"/>
       <c r="AT132" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU132" s="49" t="s">
         <v>70</v>
@@ -37394,16 +36279,7 @@
         <v>107</v>
       </c>
       <c r="V133" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H133&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I133&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J133&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K133&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L133&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M133&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N133&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O133&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P133&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S133&lt;&gt;"", """" &amp; S133 &amp; """", ""), IF(Q133&lt;&gt;"", """" &amp; Q133 &amp; """", ""), IF(R133&lt;&gt;"", """" &amp; R133 &amp; """", ""),
-    IF(T133&lt;&gt;"", """" &amp; T133 &amp; """", ""),
-    IF(U133&lt;&gt;"", """" &amp; U133 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="3"/>
         <v>["ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X133" s="56" t="s">
@@ -37422,10 +36298,10 @@
         <v>126</v>
       </c>
       <c r="AQ133" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR133" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS133" s="51" t="s">
         <v>1103</v>
@@ -37604,7 +36480,7 @@
         <v>107</v>
       </c>
       <c r="V134" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+        <f t="shared" ref="V134:V195" si="4">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
     IF(H134&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
     IF(I134&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
     IF(J134&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
@@ -37628,10 +36504,10 @@
       <c r="AO134" s="49"/>
       <c r="AP134" s="49"/>
       <c r="AQ134" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR134" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS134" s="51" t="s">
         <v>1111</v>
@@ -37810,16 +36686,7 @@
         <v>107</v>
       </c>
       <c r="V135" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H135&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I135&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J135&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K135&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L135&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M135&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N135&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O135&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P135&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S135&lt;&gt;"", """" &amp; S135 &amp; """", ""), IF(Q135&lt;&gt;"", """" &amp; Q135 &amp; """", ""), IF(R135&lt;&gt;"", """" &amp; R135 &amp; """", ""),
-    IF(T135&lt;&gt;"", """" &amp; T135 &amp; """", ""),
-    IF(U135&lt;&gt;"", """" &amp; U135 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="4"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X135" s="56" t="s">
@@ -37834,14 +36701,14 @@
       <c r="AO135" s="49"/>
       <c r="AP135" s="49"/>
       <c r="AQ135" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR135" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS135" s="51"/>
       <c r="AT135" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU135" s="49" t="s">
         <v>70</v>
@@ -38014,16 +36881,7 @@
         <v>107</v>
       </c>
       <c r="V136" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H136&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I136&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J136&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K136&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L136&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M136&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N136&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O136&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P136&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S136&lt;&gt;"", """" &amp; S136 &amp; """", ""), IF(Q136&lt;&gt;"", """" &amp; Q136 &amp; """", ""), IF(R136&lt;&gt;"", """" &amp; R136 &amp; """", ""),
-    IF(T136&lt;&gt;"", """" &amp; T136 &amp; """", ""),
-    IF(U136&lt;&gt;"", """" &amp; U136 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="4"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X136" s="56" t="s">
@@ -38038,14 +36896,14 @@
       <c r="AO136" s="49"/>
       <c r="AP136" s="49"/>
       <c r="AQ136" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR136" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS136" s="51"/>
       <c r="AT136" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU136" s="49" t="s">
         <v>70</v>
@@ -38218,16 +37076,7 @@
         <v>107</v>
       </c>
       <c r="V137" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H137&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I137&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J137&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K137&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L137&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M137&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N137&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O137&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P137&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S137&lt;&gt;"", """" &amp; S137 &amp; """", ""), IF(Q137&lt;&gt;"", """" &amp; Q137 &amp; """", ""), IF(R137&lt;&gt;"", """" &amp; R137 &amp; """", ""),
-    IF(T137&lt;&gt;"", """" &amp; T137 &amp; """", ""),
-    IF(U137&lt;&gt;"", """" &amp; U137 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="4"/>
         <v>["ENA ERC32", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="X137" s="56" t="s">
@@ -38242,16 +37091,16 @@
       <c r="AO137" s="49"/>
       <c r="AP137" s="49"/>
       <c r="AQ137" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR137" s="48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS137" s="51" t="s">
         <v>1130</v>
       </c>
       <c r="AT137" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU137" s="49" t="s">
         <v>70</v>
@@ -38414,16 +37263,7 @@
         <v>153</v>
       </c>
       <c r="V138" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H138&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I138&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J138&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K138&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L138&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M138&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N138&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O138&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P138&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S138&lt;&gt;"", """" &amp; S138 &amp; """", ""), IF(Q138&lt;&gt;"", """" &amp; Q138 &amp; """", ""), IF(R138&lt;&gt;"", """" &amp; R138 &amp; """", ""),
-    IF(T138&lt;&gt;"", """" &amp; T138 &amp; """", ""),
-    IF(U138&lt;&gt;"", """" &amp; U138 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="4"/>
         <v>[]</v>
       </c>
       <c r="X138" s="56" t="s">
@@ -38584,16 +37424,7 @@
         <v>153</v>
       </c>
       <c r="V139" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H139&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I139&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J139&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K139&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L139&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M139&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N139&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O139&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P139&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S139&lt;&gt;"", """" &amp; S139 &amp; """", ""), IF(Q139&lt;&gt;"", """" &amp; Q139 &amp; """", ""), IF(R139&lt;&gt;"", """" &amp; R139 &amp; """", ""),
-    IF(T139&lt;&gt;"", """" &amp; T139 &amp; """", ""),
-    IF(U139&lt;&gt;"", """" &amp; U139 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="4"/>
         <v>[]</v>
       </c>
       <c r="X139" s="56" t="s">
@@ -38754,16 +37585,7 @@
         <v>153</v>
       </c>
       <c r="V140" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H140&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I140&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J140&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K140&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L140&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M140&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N140&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O140&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P140&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S140&lt;&gt;"", """" &amp; S140 &amp; """", ""), IF(Q140&lt;&gt;"", """" &amp; Q140 &amp; """", ""), IF(R140&lt;&gt;"", """" &amp; R140 &amp; """", ""),
-    IF(T140&lt;&gt;"", """" &amp; T140 &amp; """", ""),
-    IF(U140&lt;&gt;"", """" &amp; U140 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="4"/>
         <v>[]</v>
       </c>
       <c r="X140" s="56" t="s">
@@ -38924,16 +37746,7 @@
         <v>153</v>
       </c>
       <c r="V141" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H141&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I141&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J141&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K141&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L141&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M141&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N141&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O141&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P141&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S141&lt;&gt;"", """" &amp; S141 &amp; """", ""), IF(Q141&lt;&gt;"", """" &amp; Q141 &amp; """", ""), IF(R141&lt;&gt;"", """" &amp; R141 &amp; """", ""),
-    IF(T141&lt;&gt;"", """" &amp; T141 &amp; """", ""),
-    IF(U141&lt;&gt;"", """" &amp; U141 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="4"/>
         <v>[]</v>
       </c>
       <c r="X141" s="56" t="s">
@@ -39094,16 +37907,7 @@
         <v>153</v>
       </c>
       <c r="V142" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H142&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I142&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J142&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K142&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L142&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M142&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N142&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O142&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P142&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S142&lt;&gt;"", """" &amp; S142 &amp; """", ""), IF(Q142&lt;&gt;"", """" &amp; Q142 &amp; """", ""), IF(R142&lt;&gt;"", """" &amp; R142 &amp; """", ""),
-    IF(T142&lt;&gt;"", """" &amp; T142 &amp; """", ""),
-    IF(U142&lt;&gt;"", """" &amp; U142 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="4"/>
         <v>[]</v>
       </c>
       <c r="AW142" s="56" t="s">
@@ -39262,24 +38066,13 @@
       <c r="S143" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T143" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T143" s="48"/>
       <c r="U143" s="48" t="s">
         <v>1154</v>
       </c>
       <c r="V143" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H143&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I143&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J143&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K143&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L143&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M143&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N143&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O143&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P143&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S143&lt;&gt;"", """" &amp; S143 &amp; """", ""), IF(Q143&lt;&gt;"", """" &amp; Q143 &amp; """", ""), IF(R143&lt;&gt;"", """" &amp; R143 &amp; """", ""),
-    IF(T143&lt;&gt;"", """" &amp; T143 &amp; """", ""),
-    IF(U143&lt;&gt;"", """" &amp; U143 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "ICTV Taxonomy"]</v>
       </c>
       <c r="W143" s="48" t="s">
         <v>656</v>
@@ -39447,24 +38240,13 @@
       <c r="S144" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T144" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T144" s="48"/>
       <c r="U144" s="48" t="s">
         <v>1154</v>
       </c>
       <c r="V144" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H144&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I144&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J144&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K144&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L144&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M144&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N144&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O144&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P144&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S144&lt;&gt;"", """" &amp; S144 &amp; """", ""), IF(Q144&lt;&gt;"", """" &amp; Q144 &amp; """", ""), IF(R144&lt;&gt;"", """" &amp; R144 &amp; """", ""),
-    IF(T144&lt;&gt;"", """" &amp; T144 &amp; """", ""),
-    IF(U144&lt;&gt;"", """" &amp; U144 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "ICTV Taxonomy"]</v>
       </c>
       <c r="W144" s="48" t="s">
         <v>656</v>
@@ -39632,24 +38414,13 @@
       <c r="S145" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T145" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T145" s="48"/>
       <c r="U145" s="48" t="s">
         <v>1154</v>
       </c>
       <c r="V145" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H145&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I145&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J145&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K145&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L145&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M145&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N145&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O145&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P145&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S145&lt;&gt;"", """" &amp; S145 &amp; """", ""), IF(Q145&lt;&gt;"", """" &amp; Q145 &amp; """", ""), IF(R145&lt;&gt;"", """" &amp; R145 &amp; """", ""),
-    IF(T145&lt;&gt;"", """" &amp; T145 &amp; """", ""),
-    IF(U145&lt;&gt;"", """" &amp; U145 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "ICTV Taxonomy"]</v>
       </c>
       <c r="W145" s="48" t="s">
         <v>656</v>
@@ -39817,24 +38588,13 @@
       <c r="S146" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T146" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T146" s="48"/>
       <c r="U146" s="48" t="s">
         <v>1154</v>
       </c>
       <c r="V146" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H146&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I146&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J146&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K146&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L146&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M146&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N146&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O146&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P146&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S146&lt;&gt;"", """" &amp; S146 &amp; """", ""), IF(Q146&lt;&gt;"", """" &amp; Q146 &amp; """", ""), IF(R146&lt;&gt;"", """" &amp; R146 &amp; """", ""),
-    IF(T146&lt;&gt;"", """" &amp; T146 &amp; """", ""),
-    IF(U146&lt;&gt;"", """" &amp; U146 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "ICTV Taxonomy"]</v>
       </c>
       <c r="W146" s="48" t="s">
         <v>656</v>
@@ -40002,24 +38762,13 @@
       <c r="S147" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T147" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T147" s="48"/>
       <c r="U147" s="48" t="s">
         <v>1154</v>
       </c>
       <c r="V147" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H147&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I147&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J147&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K147&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L147&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M147&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N147&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O147&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P147&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S147&lt;&gt;"", """" &amp; S147 &amp; """", ""), IF(Q147&lt;&gt;"", """" &amp; Q147 &amp; """", ""), IF(R147&lt;&gt;"", """" &amp; R147 &amp; """", ""),
-    IF(T147&lt;&gt;"", """" &amp; T147 &amp; """", ""),
-    IF(U147&lt;&gt;"", """" &amp; U147 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "ICTV Taxonomy"]</v>
       </c>
       <c r="W147" s="48" t="s">
         <v>656</v>
@@ -40187,24 +38936,13 @@
       <c r="S148" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T148" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T148" s="48"/>
       <c r="U148" s="48" t="s">
         <v>1154</v>
       </c>
       <c r="V148" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H148&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I148&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J148&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K148&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L148&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M148&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N148&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O148&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P148&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S148&lt;&gt;"", """" &amp; S148 &amp; """", ""), IF(Q148&lt;&gt;"", """" &amp; Q148 &amp; """", ""), IF(R148&lt;&gt;"", """" &amp; R148 &amp; """", ""),
-    IF(T148&lt;&gt;"", """" &amp; T148 &amp; """", ""),
-    IF(U148&lt;&gt;"", """" &amp; U148 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "ICTV Taxonomy"]</v>
       </c>
       <c r="W148" s="48" t="s">
         <v>656</v>
@@ -40372,24 +39110,13 @@
       <c r="S149" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T149" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T149" s="48"/>
       <c r="U149" s="48" t="s">
         <v>1154</v>
       </c>
       <c r="V149" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H149&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I149&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J149&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K149&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L149&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M149&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N149&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O149&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P149&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S149&lt;&gt;"", """" &amp; S149 &amp; """", ""), IF(Q149&lt;&gt;"", """" &amp; Q149 &amp; """", ""), IF(R149&lt;&gt;"", """" &amp; R149 &amp; """", ""),
-    IF(T149&lt;&gt;"", """" &amp; T149 &amp; """", ""),
-    IF(U149&lt;&gt;"", """" &amp; U149 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "ICTV Taxonomy"]</v>
       </c>
       <c r="W149" s="48" t="s">
         <v>656</v>
@@ -40557,24 +39284,13 @@
       <c r="S150" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T150" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T150" s="48"/>
       <c r="U150" s="48" t="s">
         <v>1154</v>
       </c>
       <c r="V150" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H150&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I150&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J150&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K150&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L150&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M150&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N150&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O150&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P150&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S150&lt;&gt;"", """" &amp; S150 &amp; """", ""), IF(Q150&lt;&gt;"", """" &amp; Q150 &amp; """", ""), IF(R150&lt;&gt;"", """" &amp; R150 &amp; """", ""),
-    IF(T150&lt;&gt;"", """" &amp; T150 &amp; """", ""),
-    IF(U150&lt;&gt;"", """" &amp; U150 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "ICTV Taxonomy"]</v>
       </c>
       <c r="W150" s="48" t="s">
         <v>656</v>
@@ -40742,24 +39458,13 @@
       <c r="S151" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T151" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T151" s="48"/>
       <c r="U151" s="48" t="s">
         <v>1154</v>
       </c>
       <c r="V151" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H151&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I151&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J151&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K151&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L151&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M151&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N151&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O151&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P151&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S151&lt;&gt;"", """" &amp; S151 &amp; """", ""), IF(Q151&lt;&gt;"", """" &amp; Q151 &amp; """", ""), IF(R151&lt;&gt;"", """" &amp; R151 &amp; """", ""),
-    IF(T151&lt;&gt;"", """" &amp; T151 &amp; """", ""),
-    IF(U151&lt;&gt;"", """" &amp; U151 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "ICTV Taxonomy"]</v>
       </c>
       <c r="W151" s="48" t="s">
         <v>656</v>
@@ -40927,24 +39632,13 @@
       <c r="S152" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T152" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T152" s="48"/>
       <c r="U152" s="48" t="s">
         <v>1154</v>
       </c>
       <c r="V152" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H152&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I152&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J152&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K152&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L152&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M152&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N152&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O152&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P152&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S152&lt;&gt;"", """" &amp; S152 &amp; """", ""), IF(Q152&lt;&gt;"", """" &amp; Q152 &amp; """", ""), IF(R152&lt;&gt;"", """" &amp; R152 &amp; """", ""),
-    IF(T152&lt;&gt;"", """" &amp; T152 &amp; """", ""),
-    IF(U152&lt;&gt;"", """" &amp; U152 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "ICTV Taxonomy"]</v>
       </c>
       <c r="W152" s="48" t="s">
         <v>656</v>
@@ -41112,24 +39806,13 @@
       <c r="S153" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T153" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T153" s="48"/>
       <c r="U153" s="48" t="s">
         <v>1154</v>
       </c>
       <c r="V153" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H153&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I153&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J153&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K153&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L153&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M153&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N153&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O153&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P153&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S153&lt;&gt;"", """" &amp; S153 &amp; """", ""), IF(Q153&lt;&gt;"", """" &amp; Q153 &amp; """", ""), IF(R153&lt;&gt;"", """" &amp; R153 &amp; """", ""),
-    IF(T153&lt;&gt;"", """" &amp; T153 &amp; """", ""),
-    IF(U153&lt;&gt;"", """" &amp; U153 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "ICTV Taxonomy"]</v>
       </c>
       <c r="W153" s="48" t="s">
         <v>656</v>
@@ -41297,24 +39980,13 @@
       <c r="S154" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T154" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T154" s="48"/>
       <c r="U154" s="48" t="s">
         <v>1154</v>
       </c>
       <c r="V154" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H154&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I154&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J154&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K154&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L154&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M154&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N154&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O154&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P154&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S154&lt;&gt;"", """" &amp; S154 &amp; """", ""), IF(Q154&lt;&gt;"", """" &amp; Q154 &amp; """", ""), IF(R154&lt;&gt;"", """" &amp; R154 &amp; """", ""),
-    IF(T154&lt;&gt;"", """" &amp; T154 &amp; """", ""),
-    IF(U154&lt;&gt;"", """" &amp; U154 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "ICTV Taxonomy"]</v>
       </c>
       <c r="W154" s="48" t="s">
         <v>656</v>
@@ -41482,24 +40154,13 @@
       <c r="S155" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T155" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T155" s="48"/>
       <c r="U155" s="48" t="s">
         <v>1154</v>
       </c>
       <c r="V155" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H155&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I155&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J155&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K155&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L155&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M155&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N155&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O155&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P155&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S155&lt;&gt;"", """" &amp; S155 &amp; """", ""), IF(Q155&lt;&gt;"", """" &amp; Q155 &amp; """", ""), IF(R155&lt;&gt;"", """" &amp; R155 &amp; """", ""),
-    IF(T155&lt;&gt;"", """" &amp; T155 &amp; """", ""),
-    IF(U155&lt;&gt;"", """" &amp; U155 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "ICTV Taxonomy"]</v>
       </c>
       <c r="W155" s="48" t="s">
         <v>656</v>
@@ -41667,24 +40328,13 @@
       <c r="S156" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T156" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T156" s="48"/>
       <c r="U156" s="48" t="s">
         <v>1154</v>
       </c>
       <c r="V156" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H156&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I156&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J156&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K156&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L156&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M156&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N156&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O156&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P156&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S156&lt;&gt;"", """" &amp; S156 &amp; """", ""), IF(Q156&lt;&gt;"", """" &amp; Q156 &amp; """", ""), IF(R156&lt;&gt;"", """" &amp; R156 &amp; """", ""),
-    IF(T156&lt;&gt;"", """" &amp; T156 &amp; """", ""),
-    IF(U156&lt;&gt;"", """" &amp; U156 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "ICTV Taxonomy"]</v>
       </c>
       <c r="W156" s="48" t="s">
         <v>656</v>
@@ -41871,24 +40521,13 @@
       <c r="S157" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T157" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T157" s="48"/>
       <c r="U157" s="48" t="s">
         <v>1154</v>
       </c>
       <c r="V157" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H157&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I157&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J157&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K157&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L157&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M157&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N157&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O157&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P157&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S157&lt;&gt;"", """" &amp; S157 &amp; """", ""), IF(Q157&lt;&gt;"", """" &amp; Q157 &amp; """", ""), IF(R157&lt;&gt;"", """" &amp; R157 &amp; """", ""),
-    IF(T157&lt;&gt;"", """" &amp; T157 &amp; """", ""),
-    IF(U157&lt;&gt;"", """" &amp; U157 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "ICTV Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "ICTV Taxonomy"]</v>
       </c>
       <c r="W157" s="48" t="s">
         <v>656</v>
@@ -41921,7 +40560,7 @@
       <c r="AS157" s="51"/>
       <c r="AT157" s="48"/>
       <c r="AU157" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV157" s="49" t="s">
         <v>129</v>
@@ -42086,24 +40725,13 @@
       <c r="S158" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T158" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T158" s="48"/>
       <c r="U158" s="48" t="s">
         <v>529</v>
       </c>
       <c r="V158" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H158&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I158&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J158&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K158&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L158&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M158&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N158&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O158&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P158&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S158&lt;&gt;"", """" &amp; S158 &amp; """", ""), IF(Q158&lt;&gt;"", """" &amp; Q158 &amp; """", ""), IF(R158&lt;&gt;"", """" &amp; R158 &amp; """", ""),
-    IF(T158&lt;&gt;"", """" &amp; T158 &amp; """", ""),
-    IF(U158&lt;&gt;"", """" &amp; U158 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "NCBI Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="X158" s="56" t="s">
         <v>65</v>
@@ -42265,24 +40893,13 @@
       <c r="S159" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T159" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T159" s="48"/>
       <c r="U159" s="48" t="s">
         <v>529</v>
       </c>
       <c r="V159" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H159&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I159&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J159&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K159&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L159&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M159&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N159&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O159&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P159&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S159&lt;&gt;"", """" &amp; S159 &amp; """", ""), IF(Q159&lt;&gt;"", """" &amp; Q159 &amp; """", ""), IF(R159&lt;&gt;"", """" &amp; R159 &amp; """", ""),
-    IF(T159&lt;&gt;"", """" &amp; T159 &amp; """", ""),
-    IF(U159&lt;&gt;"", """" &amp; U159 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "NCBI Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="X159" s="56" t="s">
         <v>65</v>
@@ -42450,24 +41067,13 @@
       <c r="S160" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T160" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T160" s="48"/>
       <c r="U160" s="48" t="s">
         <v>529</v>
       </c>
       <c r="V160" s="48" t="str">
-        <f t="shared" ref="V160:V165" si="2">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H160&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I160&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J160&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K160&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L160&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M160&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N160&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O160&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P160&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S160&lt;&gt;"", """" &amp; S160 &amp; """", ""), IF(Q160&lt;&gt;"", """" &amp; Q160 &amp; """", ""), IF(R160&lt;&gt;"", """" &amp; R160 &amp; """", ""),
-    IF(T160&lt;&gt;"", """" &amp; T160 &amp; """", ""),
-    IF(U160&lt;&gt;"", """" &amp; U160 &amp; """", "")
-) &amp; "]"</f>
-        <v>["BV-BRC", "Sample", "Virus", "NCBI Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["BV-BRC", "Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="W160" s="56" t="s">
         <v>364</v>
@@ -42651,15 +41257,13 @@
       <c r="S161" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T161" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T161" s="48"/>
       <c r="U161" s="48" t="s">
         <v>529</v>
       </c>
       <c r="V161" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>["Sample", "Virus", "NCBI Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="X161" s="56" t="s">
         <v>65</v>
@@ -42827,15 +41431,13 @@
       <c r="S162" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T162" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T162" s="48"/>
       <c r="U162" s="48" t="s">
         <v>529</v>
       </c>
       <c r="V162" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>["BV-BRC", "Sample", "Virus", "NCBI Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["BV-BRC", "Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="W162" s="56" t="s">
         <v>364</v>
@@ -43019,15 +41621,13 @@
       <c r="S163" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T163" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T163" s="48"/>
       <c r="U163" s="48" t="s">
         <v>529</v>
       </c>
       <c r="V163" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>["Sample", "Virus", "NCBI Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="X163" s="56" t="s">
         <v>65</v>
@@ -43195,15 +41795,13 @@
       <c r="S164" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T164" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T164" s="48"/>
       <c r="U164" s="48" t="s">
         <v>529</v>
       </c>
       <c r="V164" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>["BV-BRC", "Sample", "Virus", "NCBI Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["BV-BRC", "Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="W164" s="56" t="s">
         <v>364</v>
@@ -43387,15 +41985,13 @@
       <c r="S165" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T165" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T165" s="48"/>
       <c r="U165" s="48" t="s">
         <v>529</v>
       </c>
       <c r="V165" s="48" t="str">
-        <f t="shared" si="2"/>
-        <v>["Sample", "Virus", "NCBI Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="X165" s="56" t="s">
         <v>65</v>
@@ -43563,24 +42159,13 @@
       <c r="S166" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T166" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T166" s="48"/>
       <c r="U166" s="48" t="s">
         <v>529</v>
       </c>
       <c r="V166" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(AdditionalMetadata!H67&lt;&gt;"", """" &amp; VJDBCore!H$1 &amp; """", ""),
-    IF(AdditionalMetadata!I67&lt;&gt;"", """" &amp; VJDBCore!I$1 &amp; """", ""),
-    IF(AdditionalMetadata!J67&lt;&gt;"", """" &amp; VJDBCore!J$1 &amp; """", ""),
-    IF(AdditionalMetadata!K67&lt;&gt;"", """" &amp; VJDBCore!K$1 &amp; """", ""),
-    IF(AdditionalMetadata!L67&lt;&gt;"", """" &amp; VJDBCore!L$1 &amp; """", ""),    IF(AdditionalMetadata!M67&lt;&gt;"", """" &amp; VJDBCore!M$1 &amp; """", ""),    IF(N166&lt;&gt;"", """" &amp; VJDBCore!N$1 &amp; """", ""),     IF(O166&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(O166&lt;&gt;"", """" &amp; VJDBCore!O$1 &amp; """", ""),     IF(P166&lt;&gt;"", """" &amp; VJDBCore!P$1 &amp; """", ""),
-    IF(AdditionalMetadata!Q71&lt;&gt;"", """" &amp; AdditionalMetadata!Q71 &amp; """", ""),
-    IF(R166&lt;&gt;"", """" &amp; R166 &amp; """", ""),
-    IF(S166&lt;&gt;"", """" &amp; S166 &amp; """", "")
-) &amp; "]"</f>
-        <v>["BV-BRC", "Sample"]</v>
+        <f t="shared" si="4"/>
+        <v>["BV-BRC", "Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="W166" s="56" t="s">
         <v>364</v>
@@ -43764,24 +42349,13 @@
       <c r="S167" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T167" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T167" s="48"/>
       <c r="U167" s="48" t="s">
         <v>529</v>
       </c>
       <c r="V167" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H167&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I167&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J167&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K167&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L167&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M167&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N167&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O167&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P167&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S167&lt;&gt;"", """" &amp; S167 &amp; """", ""), IF(Q167&lt;&gt;"", """" &amp; Q167 &amp; """", ""), IF(R167&lt;&gt;"", """" &amp; R167 &amp; """", ""),
-    IF(T167&lt;&gt;"", """" &amp; T167 &amp; """", ""),
-    IF(U167&lt;&gt;"", """" &amp; U167 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "NCBI Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="X167" s="56" t="s">
         <v>65</v>
@@ -43964,24 +42538,13 @@
       <c r="S168" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T168" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T168" s="48"/>
       <c r="U168" s="48" t="s">
         <v>529</v>
       </c>
       <c r="V168" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H168&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I168&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J168&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K168&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L168&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M168&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N168&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O168&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P168&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S168&lt;&gt;"", """" &amp; S168 &amp; """", ""), IF(Q168&lt;&gt;"", """" &amp; Q168 &amp; """", ""), IF(R168&lt;&gt;"", """" &amp; R168 &amp; """", ""),
-    IF(T168&lt;&gt;"", """" &amp; T168 &amp; """", ""),
-    IF(U168&lt;&gt;"", """" &amp; U168 &amp; """", "")
-) &amp; "]"</f>
-        <v>["NCBI Virus", "BV-BRC", "Sample", "Virus", "NCBI Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["NCBI Virus", "BV-BRC", "Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="W168" s="48" t="s">
         <v>64</v>
@@ -44185,24 +42748,13 @@
       <c r="S169" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T169" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T169" s="48"/>
       <c r="U169" s="48" t="s">
         <v>529</v>
       </c>
       <c r="V169" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H169&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I169&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J169&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K169&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L169&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M169&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N169&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O169&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P169&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S169&lt;&gt;"", """" &amp; S169 &amp; """", ""), IF(Q169&lt;&gt;"", """" &amp; Q169 &amp; """", ""), IF(R169&lt;&gt;"", """" &amp; R169 &amp; """", ""),
-    IF(T169&lt;&gt;"", """" &amp; T169 &amp; """", ""),
-    IF(U169&lt;&gt;"", """" &amp; U169 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "NCBI Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="X169" s="56" t="s">
         <v>65</v>
@@ -44385,24 +42937,13 @@
       <c r="S170" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T170" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T170" s="48"/>
       <c r="U170" s="48" t="s">
         <v>529</v>
       </c>
       <c r="V170" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H170&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I170&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J170&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K170&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L170&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M170&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N170&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O170&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P170&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S170&lt;&gt;"", """" &amp; S170 &amp; """", ""), IF(Q170&lt;&gt;"", """" &amp; Q170 &amp; """", ""), IF(R170&lt;&gt;"", """" &amp; R170 &amp; """", ""),
-    IF(T170&lt;&gt;"", """" &amp; T170 &amp; """", ""),
-    IF(U170&lt;&gt;"", """" &amp; U170 &amp; """", "")
-) &amp; "]"</f>
-        <v>["NCBI Virus", "BV-BRC", "Sample", "Virus", "NCBI Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["NCBI Virus", "BV-BRC", "Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="W170" s="48" t="s">
         <v>64</v>
@@ -44606,24 +43147,13 @@
       <c r="S171" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T171" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T171" s="48"/>
       <c r="U171" s="48" t="s">
         <v>529</v>
       </c>
       <c r="V171" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H171&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I171&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J171&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K171&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L171&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M171&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N171&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O171&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P171&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S171&lt;&gt;"", """" &amp; S171 &amp; """", ""), IF(Q171&lt;&gt;"", """" &amp; Q171 &amp; """", ""), IF(R171&lt;&gt;"", """" &amp; R171 &amp; """", ""),
-    IF(T171&lt;&gt;"", """" &amp; T171 &amp; """", ""),
-    IF(U171&lt;&gt;"", """" &amp; U171 &amp; """", "")
-) &amp; "]"</f>
-        <v>["Sample", "Virus", "NCBI Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="X171" s="56" t="s">
         <v>65</v>
@@ -44810,24 +43340,13 @@
       <c r="S172" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T172" s="48" t="s">
-        <v>232</v>
-      </c>
+      <c r="T172" s="48"/>
       <c r="U172" s="48" t="s">
         <v>529</v>
       </c>
       <c r="V172" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H172&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I172&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J172&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K172&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L172&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M172&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N172&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O172&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P172&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S172&lt;&gt;"", """" &amp; S172 &amp; """", ""), IF(Q172&lt;&gt;"", """" &amp; Q172 &amp; """", ""), IF(R172&lt;&gt;"", """" &amp; R172 &amp; """", ""),
-    IF(T172&lt;&gt;"", """" &amp; T172 &amp; """", ""),
-    IF(U172&lt;&gt;"", """" &amp; U172 &amp; """", "")
-) &amp; "]"</f>
-        <v>["ENA", "NCBI Virus", "BV-BRC", "Sample", "Virus", "NCBI Taxonomy"]</v>
+        <f t="shared" si="4"/>
+        <v>["ENA", "NCBI Virus", "BV-BRC", "Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="W172" s="48" t="s">
         <v>64</v>
@@ -44837,7 +43356,7 @@
       </c>
       <c r="Y172" s="48"/>
       <c r="Z172" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA172" s="48" t="s">
         <v>1230</v>
@@ -44876,7 +43395,7 @@
       <c r="AS172" s="51"/>
       <c r="AT172" s="48"/>
       <c r="AU172" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AV172" s="49" t="s">
         <v>71</v>
@@ -45060,22 +43579,13 @@
       <c r="S173" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T173" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="U173" s="48"/>
+      <c r="T173" s="48"/>
+      <c r="U173" s="48" t="s">
+        <v>529</v>
+      </c>
       <c r="V173" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H173&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I173&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J173&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K173&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L173&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M173&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N173&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O173&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P173&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S173&lt;&gt;"", """" &amp; S173 &amp; """", ""), IF(Q173&lt;&gt;"", """" &amp; Q173 &amp; """", ""), IF(R173&lt;&gt;"", """" &amp; R173 &amp; """", ""),
-    IF(T173&lt;&gt;"", """" &amp; T173 &amp; """", ""),
-    IF(U173&lt;&gt;"", """" &amp; U173 &amp; """", "")
-) &amp; "]"</f>
-        <v>["MIGS-VI", "NCBI Virus", "Sample", "Sequence"]</v>
+        <f t="shared" si="4"/>
+        <v>["MIGS-VI", "NCBI Virus", "Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="W173" s="48" t="s">
         <v>8</v>
@@ -45297,22 +43807,13 @@
       <c r="S174" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="T174" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="U174" s="48"/>
+      <c r="T174" s="48"/>
+      <c r="U174" s="48" t="s">
+        <v>529</v>
+      </c>
       <c r="V174" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H174&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I174&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J174&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K174&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L174&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M174&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N174&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O174&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P174&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S174&lt;&gt;"", """" &amp; S174 &amp; """", ""), IF(Q174&lt;&gt;"", """" &amp; Q174 &amp; """", ""), IF(R174&lt;&gt;"", """" &amp; R174 &amp; """", ""),
-    IF(T174&lt;&gt;"", """" &amp; T174 &amp; """", ""),
-    IF(U174&lt;&gt;"", """" &amp; U174 &amp; """", "")
-) &amp; "]"</f>
-        <v>["ENA", "NCBI Virus", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Virus"]</v>
+        <f t="shared" si="4"/>
+        <v>["ENA", "NCBI Virus", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "NCBI Taxonomy"]</v>
       </c>
       <c r="W174" s="48" t="s">
         <v>8</v>
@@ -45322,7 +43823,7 @@
       </c>
       <c r="Y174" s="48"/>
       <c r="Z174" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA174" s="48" t="s">
         <v>1314</v>
@@ -45356,7 +43857,7 @@
       </c>
       <c r="AS174" s="51"/>
       <c r="AT174" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU174" s="49" t="s">
         <v>70</v>
@@ -45513,22 +44014,13 @@
         <v>1324</v>
       </c>
       <c r="D175" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E175" s="48" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="V175" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H175&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I175&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J175&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K175&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L175&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M175&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N175&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O175&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P175&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S175&lt;&gt;"", """" &amp; S175 &amp; """", ""), IF(Q175&lt;&gt;"", """" &amp; Q175 &amp; """", ""), IF(R175&lt;&gt;"", """" &amp; R175 &amp; """", ""),
-    IF(T175&lt;&gt;"", """" &amp; T175 &amp; """", ""),
-    IF(U175&lt;&gt;"", """" &amp; U175 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="4"/>
         <v>[]</v>
       </c>
       <c r="W175" s="48" t="s">
@@ -45695,7 +44187,7 @@
         <v>58</v>
       </c>
       <c r="E176" s="48" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F176" s="48" t="s">
         <v>1330</v>
@@ -45723,19 +44215,10 @@
         <v>448</v>
       </c>
       <c r="U176" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V176" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H176&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I176&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J176&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K176&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L176&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M176&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N176&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O176&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P176&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S176&lt;&gt;"", """" &amp; S176 &amp; """", ""), IF(Q176&lt;&gt;"", """" &amp; Q176 &amp; """", ""), IF(R176&lt;&gt;"", """" &amp; R176 &amp; """", ""),
-    IF(T176&lt;&gt;"", """" &amp; T176 &amp; """", ""),
-    IF(U176&lt;&gt;"", """" &amp; U176 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="4"/>
         <v>["Sample", "Clinical", "Host"]</v>
       </c>
       <c r="W176" s="48" t="s">
@@ -45933,16 +44416,7 @@
         <v>153</v>
       </c>
       <c r="V177" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H177&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I177&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J177&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K177&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L177&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M177&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N177&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O177&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P177&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S177&lt;&gt;"", """" &amp; S177 &amp; """", ""), IF(Q177&lt;&gt;"", """" &amp; Q177 &amp; """", ""), IF(R177&lt;&gt;"", """" &amp; R177 &amp; """", ""),
-    IF(T177&lt;&gt;"", """" &amp; T177 &amp; """", ""),
-    IF(U177&lt;&gt;"", """" &amp; U177 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="4"/>
         <v>[]</v>
       </c>
       <c r="W177" s="56" t="s">
@@ -46100,7 +44574,7 @@
         <v>1341</v>
       </c>
       <c r="D178" s="56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E178" s="56" t="s">
         <v>59</v>
@@ -46141,19 +44615,10 @@
         <v>448</v>
       </c>
       <c r="U178" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V178" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H178&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I178&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J178&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K178&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L178&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M178&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N178&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O178&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P178&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S178&lt;&gt;"", """" &amp; S178 &amp; """", ""), IF(Q178&lt;&gt;"", """" &amp; Q178 &amp; """", ""), IF(R178&lt;&gt;"", """" &amp; R178 &amp; """", ""),
-    IF(T178&lt;&gt;"", """" &amp; T178 &amp; """", ""),
-    IF(U178&lt;&gt;"", """" &amp; U178 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="4"/>
         <v>["ENA", "BV-BRC", "ENA ERC32", "ENA ERC33", "Sample", "ENA Sample", "VJDB Sample", "Clinical", "Host"]</v>
       </c>
       <c r="W178" s="48" t="s">
@@ -46169,7 +44634,7 @@
       <c r="AC178" s="48"/>
       <c r="AD178" s="48"/>
       <c r="AE178" s="48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF178" s="48"/>
       <c r="AG178" s="48" t="s">
@@ -46193,16 +44658,16 @@
         <v>126</v>
       </c>
       <c r="AQ178" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AR178" s="48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AS178" s="51" t="s">
         <v>1346</v>
       </c>
       <c r="AT178" s="48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AU178" s="49" t="s">
         <v>70</v>
@@ -46363,18 +44828,12 @@
       <c r="E179" s="56" t="s">
         <v>59</v>
       </c>
+      <c r="S179" s="56" t="s">
+        <v>233</v>
+      </c>
       <c r="V179" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H179&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I179&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J179&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K179&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L179&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M179&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N179&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O179&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P179&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S179&lt;&gt;"", """" &amp; S179 &amp; """", ""), IF(Q179&lt;&gt;"", """" &amp; Q179 &amp; """", ""), IF(R179&lt;&gt;"", """" &amp; R179 &amp; """", ""),
-    IF(T179&lt;&gt;"", """" &amp; T179 &amp; """", ""),
-    IF(U179&lt;&gt;"", """" &amp; U179 &amp; """", "")
-) &amp; "]"</f>
-        <v>[]</v>
+        <f t="shared" si="4"/>
+        <v>["Virus"]</v>
       </c>
       <c r="X179" s="56" t="s">
         <v>355</v>
@@ -46554,21 +45013,14 @@
         <v>62</v>
       </c>
       <c r="T180" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="U180" s="48"/>
+        <v>271</v>
+      </c>
+      <c r="U180" s="48" t="s">
+        <v>529</v>
+      </c>
       <c r="V180" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H180&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I180&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J180&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K180&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L180&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M180&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N180&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O180&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P180&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S180&lt;&gt;"", """" &amp; S180 &amp; """", ""), IF(Q180&lt;&gt;"", """" &amp; Q180 &amp; """", ""), IF(R180&lt;&gt;"", """" &amp; R180 &amp; """", ""),
-    IF(T180&lt;&gt;"", """" &amp; T180 &amp; """", ""),
-    IF(U180&lt;&gt;"", """" &amp; U180 &amp; """", "")
-) &amp; "]"</f>
-        <v>["BV-BRC", "Organizational", "Submission"]</v>
+        <f t="shared" si="4"/>
+        <v>["BV-BRC", "Organizational", "Submission", "NCBI Taxonomy"]</v>
       </c>
       <c r="W180" s="48" t="s">
         <v>364</v>
@@ -46778,19 +45230,12 @@
       <c r="Q181" s="59"/>
       <c r="S181" s="59"/>
       <c r="T181" s="59"/>
-      <c r="U181" s="59"/>
+      <c r="U181" s="48" t="s">
+        <v>529</v>
+      </c>
       <c r="V181" s="48" t="str">
-        <f t="shared" ref="V181:V191" si="3">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H181&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I181&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J181&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K181&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L181&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M181&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N181&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O181&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P181&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S181&lt;&gt;"", """" &amp; S181 &amp; """", ""), IF(Q181&lt;&gt;"", """" &amp; Q181 &amp; """", ""), IF(R181&lt;&gt;"", """" &amp; R181 &amp; """", ""),
-    IF(T181&lt;&gt;"", """" &amp; T181 &amp; """", ""),
-    IF(U181&lt;&gt;"", """" &amp; U181 &amp; """", "")
-) &amp; "]"</f>
-        <v>["BV-BRC"]</v>
+        <f t="shared" si="4"/>
+        <v>["BV-BRC", "NCBI Taxonomy"]</v>
       </c>
       <c r="W181" s="56" t="s">
         <v>364</v>
@@ -46969,9 +45414,12 @@
       <c r="E182" s="48" t="s">
         <v>59</v>
       </c>
+      <c r="U182" s="48" t="s">
+        <v>1154</v>
+      </c>
       <c r="V182" s="48" t="str">
-        <f t="shared" si="3"/>
-        <v>[]</v>
+        <f t="shared" si="4"/>
+        <v>["ICTV Taxonomy"]</v>
       </c>
       <c r="X182" s="56" t="s">
         <v>65</v>
@@ -47128,10 +45576,10 @@
         <v>161</v>
       </c>
       <c r="E183" s="56" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="V183" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[]</v>
       </c>
       <c r="W183" s="56" t="s">
@@ -47295,7 +45743,7 @@
         <v>153</v>
       </c>
       <c r="V184" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[]</v>
       </c>
       <c r="W184" t="s">
@@ -47324,12 +45772,13 @@
       <c r="E185" t="s">
         <v>59</v>
       </c>
-      <c r="U185" t="s">
-        <v>656</v>
-      </c>
+      <c r="T185" t="s">
+        <v>205</v>
+      </c>
+      <c r="U185" s="48"/>
       <c r="V185" s="48" t="str">
-        <f t="shared" si="3"/>
-        <v>["ICTV"]</v>
+        <f t="shared" si="4"/>
+        <v>["Host"]</v>
       </c>
       <c r="W185" t="s">
         <v>656</v>
@@ -47360,12 +45809,12 @@
       <c r="E186" t="s">
         <v>59</v>
       </c>
-      <c r="U186" t="s">
-        <v>656</v>
+      <c r="U186" s="48" t="s">
+        <v>1154</v>
       </c>
       <c r="V186" s="48" t="str">
-        <f t="shared" si="3"/>
-        <v>["ICTV"]</v>
+        <f t="shared" si="4"/>
+        <v>["ICTV Taxonomy"]</v>
       </c>
       <c r="W186" t="s">
         <v>656</v>
@@ -47396,12 +45845,12 @@
       <c r="E187" t="s">
         <v>59</v>
       </c>
-      <c r="U187" t="s">
-        <v>656</v>
+      <c r="U187" s="48" t="s">
+        <v>1154</v>
       </c>
       <c r="V187" s="48" t="str">
-        <f t="shared" si="3"/>
-        <v>["ICTV"]</v>
+        <f t="shared" si="4"/>
+        <v>["ICTV Taxonomy"]</v>
       </c>
       <c r="W187" t="s">
         <v>656</v>
@@ -47442,11 +45891,11 @@
         <v>448</v>
       </c>
       <c r="U188" t="s">
-        <v>364</v>
+        <v>205</v>
       </c>
       <c r="V188" s="48" t="str">
-        <f t="shared" si="3"/>
-        <v>["BV-BRC", "Sample", "Clinical", "BVBRC"]</v>
+        <f t="shared" si="4"/>
+        <v>["BV-BRC", "Sample", "Clinical", "Host"]</v>
       </c>
       <c r="W188" t="s">
         <v>364</v>
@@ -47455,7 +45904,7 @@
         <v>1396</v>
       </c>
       <c r="AE188" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG188" t="s">
         <v>1340</v>
@@ -47485,7 +45934,7 @@
         <v>153</v>
       </c>
       <c r="V189" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[]</v>
       </c>
       <c r="W189" s="56" t="s">
@@ -47515,7 +45964,7 @@
         <v>153</v>
       </c>
       <c r="V190" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[]</v>
       </c>
       <c r="W190" s="56" t="s">
@@ -47545,7 +45994,7 @@
         <v>153</v>
       </c>
       <c r="V191" s="48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>[]</v>
       </c>
       <c r="W191" s="56" t="s">
@@ -47569,22 +46018,13 @@
         <v>1412</v>
       </c>
       <c r="E192" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="R192" t="s">
         <v>80</v>
       </c>
       <c r="V192" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H192&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I192&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J192&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K192&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L192&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M192&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N192&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O192&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P192&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S192&lt;&gt;"", """" &amp; S192 &amp; """", ""), IF(Q192&lt;&gt;"", """" &amp; Q192 &amp; """", ""), IF(R192&lt;&gt;"", """" &amp; R192 &amp; """", ""),
-    IF(T192&lt;&gt;"", """" &amp; T192 &amp; """", ""),
-    IF(U192&lt;&gt;"", """" &amp; U192 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="4"/>
         <v>["VJDB Analysis"]</v>
       </c>
       <c r="X192" t="s">
@@ -47607,21 +46047,15 @@
       <c r="E193" t="s">
         <v>59</v>
       </c>
+      <c r="T193" t="s">
+        <v>205</v>
+      </c>
       <c r="U193" t="s">
         <v>1416</v>
       </c>
       <c r="V193" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H193&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I193&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J193&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K193&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L193&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M193&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N193&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O193&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P193&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S193&lt;&gt;"", """" &amp; S193 &amp; """", ""), IF(Q193&lt;&gt;"", """" &amp; Q193 &amp; """", ""), IF(R193&lt;&gt;"", """" &amp; R193 &amp; """", ""),
-    IF(T193&lt;&gt;"", """" &amp; T193 &amp; """", ""),
-    IF(U193&lt;&gt;"", """" &amp; U193 &amp; """", "")
-) &amp; "]"</f>
-        <v>["GTDB"]</v>
+        <f t="shared" si="4"/>
+        <v>["Host", "GTDB"]</v>
       </c>
       <c r="W193" t="s">
         <v>1416</v>
@@ -47642,19 +46076,10 @@
         <v>1419</v>
       </c>
       <c r="E194" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="V194" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H194&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I194&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J194&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K194&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L194&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M194&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N194&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O194&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P194&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S194&lt;&gt;"", """" &amp; S194 &amp; """", ""), IF(Q194&lt;&gt;"", """" &amp; Q194 &amp; """", ""), IF(R194&lt;&gt;"", """" &amp; R194 &amp; """", ""),
-    IF(T194&lt;&gt;"", """" &amp; T194 &amp; """", ""),
-    IF(U194&lt;&gt;"", """" &amp; U194 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="4"/>
         <v>[]</v>
       </c>
       <c r="W194" t="s">
@@ -47679,16 +46104,7 @@
         <v>153</v>
       </c>
       <c r="V195" s="48" t="str">
-        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
-    IF(H195&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
-    IF(I195&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
-    IF(J195&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
-    IF(K195&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
-    IF(L195&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M195&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N195&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O195&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P195&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
-    IF(S195&lt;&gt;"", """" &amp; S195 &amp; """", ""), IF(Q195&lt;&gt;"", """" &amp; Q195 &amp; """", ""), IF(R195&lt;&gt;"", """" &amp; R195 &amp; """", ""),
-    IF(T195&lt;&gt;"", """" &amp; T195 &amp; """", ""),
-    IF(U195&lt;&gt;"", """" &amp; U195 &amp; """", "")
-) &amp; "]"</f>
+        <f t="shared" si="4"/>
         <v>[]</v>
       </c>
       <c r="W195" t="s">
@@ -47726,7 +46142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765CDCC6-1CB9-4D09-8DD5-54FCC33BD049}">
   <dimension ref="A1:FQ296"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="J14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -49323,7 +47739,7 @@
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
       <c r="AC11" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD11" s="13"/>
       <c r="AE11" s="1" t="s">
@@ -49537,7 +47953,7 @@
         <v>1442</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG14" s="13"/>
       <c r="AH14" s="14" t="s">
@@ -49606,7 +48022,7 @@
         <v>1443</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG15" s="13"/>
       <c r="AH15" s="14" t="s">
@@ -49746,7 +48162,7 @@
         <v>1448</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG17" s="13"/>
       <c r="AH17" s="14" t="s">
@@ -49819,7 +48235,7 @@
         <v>1450</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG18" s="13"/>
       <c r="AH18" s="14" t="s">
@@ -49883,16 +48299,16 @@
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
       <c r="AC19" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE19" s="1" t="s">
         <v>1452</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG19" s="13"/>
       <c r="AH19" s="14" t="s">
@@ -49956,7 +48372,7 @@
       <c r="AA20" s="13"/>
       <c r="AB20" s="13"/>
       <c r="AC20" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD20" s="13"/>
       <c r="AE20" s="1" t="s">
@@ -50081,7 +48497,7 @@
         <v>1456</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG22" s="13"/>
       <c r="AH22" s="14" t="s">
@@ -50154,7 +48570,7 @@
         <v>1458</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG23" s="13"/>
       <c r="AH23" s="14" t="s">
@@ -50427,16 +48843,16 @@
       <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
       <c r="AC27" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE27" s="1" t="s">
         <v>1465</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG27" s="13"/>
       <c r="AH27" s="14" t="s">
@@ -50500,16 +48916,16 @@
       <c r="AA28" s="13"/>
       <c r="AB28" s="13"/>
       <c r="AC28" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE28" s="1" t="s">
         <v>1467</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG28" s="13"/>
       <c r="AH28" s="14" t="s">
@@ -50573,16 +48989,16 @@
       <c r="AA29" s="13"/>
       <c r="AB29" s="13"/>
       <c r="AC29" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE29" s="1" t="s">
         <v>1469</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG29" s="13"/>
       <c r="AH29" s="14" t="s">
@@ -50651,7 +49067,7 @@
         <v>1470</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG30" s="13"/>
       <c r="AH30" s="14" t="s">
@@ -50720,7 +49136,7 @@
         <v>1471</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG31" s="13"/>
       <c r="AH31" s="14" t="s">
@@ -50784,7 +49200,7 @@
       <c r="AA32" s="13"/>
       <c r="AB32" s="13"/>
       <c r="AC32" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD32" s="13"/>
       <c r="AE32" s="1" t="s">
@@ -51138,7 +49554,7 @@
         <v>1478</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG37" s="13"/>
       <c r="AH37" s="14" t="s">
@@ -51559,14 +49975,14 @@
       <c r="AA43" s="13"/>
       <c r="AB43" s="13"/>
       <c r="AC43" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD43" s="13"/>
       <c r="AE43" s="1" t="s">
         <v>1489</v>
       </c>
       <c r="AF43" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG43" s="13"/>
       <c r="AH43" s="14" t="s">
@@ -51630,7 +50046,7 @@
       <c r="AA44" s="13"/>
       <c r="AB44" s="13"/>
       <c r="AC44" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD44" s="13"/>
       <c r="AE44" s="1" t="s">
@@ -51701,7 +50117,7 @@
       <c r="AA45" s="13"/>
       <c r="AB45" s="13"/>
       <c r="AC45" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD45" s="13"/>
       <c r="AE45" s="1" t="s">
@@ -51839,7 +50255,7 @@
       <c r="AA47" s="13"/>
       <c r="AB47" s="13"/>
       <c r="AC47" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD47" s="13"/>
       <c r="AE47" s="1" t="s">
@@ -51977,7 +50393,7 @@
       <c r="AA49" s="13"/>
       <c r="AB49" s="13"/>
       <c r="AC49" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AD49" s="13"/>
       <c r="AE49" s="1" t="s">
@@ -52120,7 +50536,7 @@
         <v>1501</v>
       </c>
       <c r="AF51" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG51" s="13"/>
       <c r="AH51" s="14" t="s">
@@ -52189,7 +50605,7 @@
         <v>1502</v>
       </c>
       <c r="AF52" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG52" s="13"/>
       <c r="AH52" s="14" t="s">
@@ -52639,7 +51055,7 @@
         <v>1511</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG59" s="13"/>
       <c r="AH59" s="14" t="s">
@@ -52772,7 +51188,7 @@
       <c r="AA61" s="13"/>
       <c r="AB61" s="13"/>
       <c r="AC61" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD61" s="13"/>
       <c r="AE61" s="1" t="s">
@@ -52910,14 +51326,14 @@
       <c r="AA63" s="13"/>
       <c r="AB63" s="13"/>
       <c r="AC63" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD63" s="13"/>
       <c r="AE63" s="1" t="s">
         <v>1517</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG63" s="13"/>
       <c r="AH63" s="14" t="s">
@@ -53208,7 +51624,7 @@
       <c r="AC68" s="13"/>
       <c r="AD68" s="13"/>
       <c r="AE68" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF68" s="1" t="s">
         <v>69</v>
@@ -53275,7 +51691,7 @@
       <c r="AA69" s="13"/>
       <c r="AB69" s="13"/>
       <c r="AC69" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AD69" s="13"/>
       <c r="AE69" s="1" t="s">
@@ -53490,7 +51906,7 @@
       <c r="AA72" s="13"/>
       <c r="AB72" s="13"/>
       <c r="AC72" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD72" s="13"/>
       <c r="AE72" s="1" t="s">
@@ -53773,7 +52189,7 @@
         <v>1534</v>
       </c>
       <c r="AF76" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG76" s="13"/>
       <c r="AH76" s="14" t="s">
@@ -53842,7 +52258,7 @@
         <v>1535</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG77" s="13"/>
       <c r="AH77" s="14" t="s">
@@ -53911,7 +52327,7 @@
         <v>1536</v>
       </c>
       <c r="AF78" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG78" s="13"/>
       <c r="AH78" s="14" t="s">
@@ -53975,7 +52391,7 @@
       <c r="AA79" s="13"/>
       <c r="AB79" s="13"/>
       <c r="AC79" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AD79" s="13"/>
       <c r="AE79" s="1" t="s">
@@ -54046,7 +52462,7 @@
       <c r="AA80" s="13"/>
       <c r="AB80" s="13"/>
       <c r="AC80" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD80" s="13"/>
       <c r="AE80" s="1" t="s">
@@ -54122,7 +52538,7 @@
         <v>1541</v>
       </c>
       <c r="AF81" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG81" s="13"/>
       <c r="AH81" s="14" t="s">
@@ -54186,7 +52602,7 @@
       <c r="AA82" s="13"/>
       <c r="AB82" s="13"/>
       <c r="AC82" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD82" s="13"/>
       <c r="AE82" s="1" t="s">
@@ -54369,16 +52785,16 @@
       <c r="AA85" s="13"/>
       <c r="AB85" s="13"/>
       <c r="AC85" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AD85" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE85" s="1" t="s">
         <v>1546</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG85" s="13"/>
       <c r="AH85" s="14" t="s">
@@ -54447,7 +52863,7 @@
         <v>1547</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG86" s="13"/>
       <c r="AH86" s="14" t="s">
@@ -54516,7 +52932,7 @@
         <v>1548</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG87" s="13"/>
       <c r="AH87" s="14" t="s">
@@ -54653,7 +53069,7 @@
       <c r="AC89" s="13"/>
       <c r="AD89" s="13"/>
       <c r="AE89" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF89" s="1" t="s">
         <v>82</v>
@@ -54792,7 +53208,7 @@
         <v>1551</v>
       </c>
       <c r="AF91" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG91" s="13"/>
       <c r="AH91" s="14" t="s">
@@ -54932,7 +53348,7 @@
         <v>1554</v>
       </c>
       <c r="AF93" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG93" s="13"/>
       <c r="AH93" s="14" t="s">
@@ -55103,7 +53519,7 @@
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
@@ -55136,7 +53552,7 @@
       <c r="AA96" s="13"/>
       <c r="AB96" s="13"/>
       <c r="AC96" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD96" s="13"/>
       <c r="AE96" s="1" t="s">
@@ -55206,13 +53622,13 @@
       <c r="AB97" s="13"/>
       <c r="AC97" s="13"/>
       <c r="AD97" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AE97" s="1" t="s">
         <v>1559</v>
       </c>
       <c r="AF97" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG97" s="13"/>
       <c r="AH97" s="14" t="s">
@@ -55347,7 +53763,7 @@
       <c r="AA99" s="13"/>
       <c r="AB99" s="13"/>
       <c r="AC99" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD99" s="13"/>
       <c r="AE99" s="1" t="s">
@@ -55558,7 +53974,7 @@
       <c r="AA102" s="13"/>
       <c r="AB102" s="13"/>
       <c r="AC102" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD102" s="13"/>
       <c r="AE102" s="1" t="s">
@@ -55629,7 +54045,7 @@
       <c r="AA103" s="13"/>
       <c r="AB103" s="13"/>
       <c r="AC103" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD103" s="13"/>
       <c r="AE103" s="1" t="s">
@@ -55700,7 +54116,7 @@
       <c r="AA104" s="13"/>
       <c r="AB104" s="13"/>
       <c r="AC104" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD104" s="13"/>
       <c r="AE104" s="1" t="s">
@@ -56015,7 +54431,7 @@
         <v>1576</v>
       </c>
       <c r="AF109" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG109" s="13"/>
       <c r="AH109" s="14" t="s">
@@ -56079,7 +54495,7 @@
       <c r="AA110" s="13"/>
       <c r="AB110" s="13"/>
       <c r="AC110" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AD110" s="13"/>
       <c r="AE110" s="1" t="s">
@@ -56991,7 +55407,7 @@
       </c>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F118" s="39"/>
       <c r="G118" s="39"/>
@@ -57012,7 +55428,7 @@
         <v>93</v>
       </c>
       <c r="R118" s="40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S118" s="39"/>
       <c r="T118" s="39"/>
@@ -57214,7 +55630,7 @@
       </c>
       <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F119" s="39"/>
       <c r="G119" s="39"/>
@@ -57437,7 +55853,7 @@
       </c>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F120" s="39"/>
       <c r="G120" s="39"/>
@@ -57660,7 +56076,7 @@
       </c>
       <c r="D121" s="38"/>
       <c r="E121" s="38" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F121" s="39"/>
       <c r="G121" s="39"/>
@@ -58106,7 +56522,7 @@
       </c>
       <c r="D123" s="32"/>
       <c r="E123" s="32" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F123" s="42"/>
       <c r="G123" s="42"/>
@@ -58127,7 +56543,7 @@
         <v>93</v>
       </c>
       <c r="R123" s="43" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S123" s="42"/>
       <c r="T123" s="42"/>
@@ -58171,10 +56587,10 @@
         <v>126</v>
       </c>
       <c r="AP123" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AQ123" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR123" s="33" t="s">
         <v>70</v>
@@ -58329,7 +56745,7 @@
       </c>
       <c r="D124" s="32"/>
       <c r="E124" s="32" t="s">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F124" s="42"/>
       <c r="G124" s="42"/>
@@ -58350,7 +56766,7 @@
         <v>93</v>
       </c>
       <c r="R124" s="43" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S124" s="42"/>
       <c r="T124" s="42"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD5C3FC-B382-4A4C-A73E-38D28BBD5F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1A43AEC-D9B8-45BD-8AF7-6013DC56F51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -4345,10 +4345,10 @@
     <t>0gv</t>
   </si>
   <si>
-    <t>is_ictv_reference</t>
-  </si>
-  <si>
-    <t>ICTV_Reference</t>
+    <t>is_ictv_exemplar</t>
+  </si>
+  <si>
+    <t>ICTV Exemplar</t>
   </si>
   <si>
     <t>This accession was used to define a species in the ICTV Taxonomy.</t>
@@ -5925,7 +5925,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B175" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E194" sqref="E194"/>
+      <selection pane="topRight" activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1A43AEC-D9B8-45BD-8AF7-6013DC56F51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7933F641-C92B-4392-A0F4-E64B822F306B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="VJDBCore" sheetId="1" r:id="rId1"/>
     <sheet name="AdditionalMetadata" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VJDBCore!$A$1:$A$199</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -229,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4833" uniqueCount="1619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4878" uniqueCount="1645">
   <si>
     <t>VJDBv0.3</t>
   </si>
@@ -495,7 +498,7 @@
     <t>Bioproject Accession</t>
   </si>
   <si>
-    <t>References the BioProject Accession that the viral sequence is a part of (INSDC).</t>
+    <t>References the BioProject Accession that the viral sequence is a part of (INSDC). Also BioProject id of the host of the prophages</t>
   </si>
   <si>
     <t>bioproject</t>
@@ -4511,6 +4514,84 @@
   </si>
   <si>
     <t>0hi</t>
+  </si>
+  <si>
+    <t>is_unique</t>
+  </si>
+  <si>
+    <t>Unique Representative</t>
+  </si>
+  <si>
+    <t>If the sequence is a representative for a group of identical sequences.</t>
+  </si>
+  <si>
+    <t>0hj</t>
+  </si>
+  <si>
+    <t>in_unique</t>
+  </si>
+  <si>
+    <t>Unique Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The VirJenDB Accession for the unique representative sequence. Usually the smallest Accession in the group. </t>
+  </si>
+  <si>
+    <t>0hk</t>
+  </si>
+  <si>
+    <t>is_cluster</t>
+  </si>
+  <si>
+    <t>Cluster Representative</t>
+  </si>
+  <si>
+    <t>If the sequence is a representative sequence of a group of sequences, computed by VClust.</t>
+  </si>
+  <si>
+    <t>0hl</t>
+  </si>
+  <si>
+    <t>in_cluster</t>
+  </si>
+  <si>
+    <t>Cluster Reference</t>
+  </si>
+  <si>
+    <t>VirJenDB Accession of the representative of its cluster</t>
+  </si>
+  <si>
+    <t>0hm</t>
+  </si>
+  <si>
+    <t>predicted</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tool or database that predicted the sequence. No value means that there it is not a predicted Sequence. </t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>IMG/VR|PhiSpy|PhD</t>
+  </si>
+  <si>
+    <t>0hn</t>
+  </si>
+  <si>
+    <t>host_insdc_accession</t>
+  </si>
+  <si>
+    <t>Host Accession</t>
+  </si>
+  <si>
+    <t>Host Accession ID from the GenBank that can refer to the host sequence (not the prophage)</t>
+  </si>
+  <si>
+    <t>0ho</t>
   </si>
   <si>
     <t>do not add</t>
@@ -5921,11 +6002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E033465-2455-477E-A700-6BF7A0771C26}">
-  <dimension ref="A1:FY196"/>
+  <dimension ref="A1:FY201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B175" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D183" sqref="D183"/>
+      <pane xSplit="1" topLeftCell="AU197" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY201" sqref="AY201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
@@ -36480,7 +36561,7 @@
         <v>107</v>
       </c>
       <c r="V134" s="48" t="str">
-        <f t="shared" ref="V134:V195" si="4">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+        <f t="shared" ref="V134:V197" si="4">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
     IF(H134&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
     IF(I134&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
     IF(J134&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
@@ -46119,7 +46200,186 @@
       </c>
     </row>
     <row r="196" spans="1:51" ht="23.25" customHeight="1">
+      <c r="A196" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D196" t="s">
+        <v>161</v>
+      </c>
+      <c r="E196" t="s">
+        <v>59</v>
+      </c>
+      <c r="V196" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v>[]</v>
+      </c>
+      <c r="W196" t="s">
+        <v>14</v>
+      </c>
       <c r="AS196"/>
+      <c r="AW196" t="s">
+        <v>1429</v>
+      </c>
+      <c r="AY196" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="197" spans="1:51" ht="23.25" customHeight="1">
+      <c r="A197" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E197" t="s">
+        <v>153</v>
+      </c>
+      <c r="V197" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v>[]</v>
+      </c>
+      <c r="W197" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS197"/>
+      <c r="AW197" t="s">
+        <v>1433</v>
+      </c>
+      <c r="AY197" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="198" spans="1:51" ht="23.25" customHeight="1">
+      <c r="A198" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D198" t="s">
+        <v>161</v>
+      </c>
+      <c r="E198" t="s">
+        <v>59</v>
+      </c>
+      <c r="V198" s="48" t="str">
+        <f t="shared" ref="V198:V201" si="5">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+    IF(H198&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
+    IF(I198&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
+    IF(J198&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
+    IF(K198&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
+    IF(L198&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M198&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N198&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O198&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P198&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
+    IF(S198&lt;&gt;"", """" &amp; S198 &amp; """", ""), IF(Q198&lt;&gt;"", """" &amp; Q198 &amp; """", ""), IF(R198&lt;&gt;"", """" &amp; R198 &amp; """", ""),
+    IF(T198&lt;&gt;"", """" &amp; T198 &amp; """", ""),
+    IF(U198&lt;&gt;"", """" &amp; U198 &amp; """", "")
+) &amp; "]"</f>
+        <v>[]</v>
+      </c>
+      <c r="W198" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW198" t="s">
+        <v>1437</v>
+      </c>
+      <c r="AY198" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="199" spans="1:51" ht="23.25" customHeight="1">
+      <c r="A199" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E199" t="s">
+        <v>59</v>
+      </c>
+      <c r="V199" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>[]</v>
+      </c>
+      <c r="W199" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW199" t="s">
+        <v>1441</v>
+      </c>
+      <c r="AY199" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="200" spans="1:51" ht="23.25" customHeight="1">
+      <c r="A200" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E200" t="s">
+        <v>59</v>
+      </c>
+      <c r="V200" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>[]</v>
+      </c>
+      <c r="W200" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AW200" t="s">
+        <v>1447</v>
+      </c>
+      <c r="AY200" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="201" spans="1:51" ht="23.25" customHeight="1">
+      <c r="A201" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E201" t="s">
+        <v>153</v>
+      </c>
+      <c r="V201" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>[]</v>
+      </c>
+      <c r="W201" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW201" t="s">
+        <v>1451</v>
+      </c>
+      <c r="AY201" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -47317,7 +47577,7 @@
         <v>364</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
@@ -47327,14 +47587,14 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="2" t="s">
-        <v>1427</v>
+        <v>1453</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>1428</v>
+        <v>1454</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AH5" s="9" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -47361,7 +47621,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>1429</v>
+        <v>1455</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -47386,7 +47646,7 @@
         <v>364</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
@@ -47398,14 +47658,14 @@
       </c>
       <c r="AD6" s="13"/>
       <c r="AE6" s="1" t="s">
-        <v>1430</v>
+        <v>1456</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG6" s="13"/>
       <c r="AH6" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
@@ -47455,7 +47715,7 @@
         <v>364</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
@@ -47467,14 +47727,14 @@
         <v>124</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>1431</v>
+        <v>1457</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG7" s="13"/>
       <c r="AH7" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
@@ -47524,7 +47784,7 @@
         <v>364</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
@@ -47534,14 +47794,14 @@
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
       <c r="AE8" s="1" t="s">
-        <v>1432</v>
+        <v>1458</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG8" s="13"/>
       <c r="AH8" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
@@ -47591,7 +47851,7 @@
         <v>364</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
@@ -47601,14 +47861,14 @@
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="1" t="s">
-        <v>1433</v>
+        <v>1459</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG9" s="13"/>
       <c r="AH9" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
@@ -47635,7 +47895,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>1434</v>
+        <v>1460</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -47660,7 +47920,7 @@
         <v>364</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
@@ -47672,14 +47932,14 @@
       </c>
       <c r="AD10" s="13"/>
       <c r="AE10" s="1" t="s">
-        <v>1435</v>
+        <v>1461</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG10" s="13"/>
       <c r="AH10" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
@@ -47706,7 +47966,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>1436</v>
+        <v>1462</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -47731,7 +47991,7 @@
         <v>364</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
@@ -47743,14 +48003,14 @@
       </c>
       <c r="AD11" s="13"/>
       <c r="AE11" s="1" t="s">
-        <v>1437</v>
+        <v>1463</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG11" s="13"/>
       <c r="AH11" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
@@ -47800,7 +48060,7 @@
         <v>364</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
@@ -47810,14 +48070,14 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="1" t="s">
-        <v>1438</v>
+        <v>1464</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG12" s="13"/>
       <c r="AH12" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
@@ -47867,7 +48127,7 @@
         <v>364</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
@@ -47877,14 +48137,14 @@
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="1" t="s">
-        <v>1439</v>
+        <v>1465</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG13" s="13"/>
       <c r="AH13" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
@@ -47911,7 +48171,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>1440</v>
+        <v>1466</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -47936,7 +48196,7 @@
         <v>364</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
@@ -47944,20 +48204,20 @@
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>1442</v>
+        <v>1468</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG14" s="13"/>
       <c r="AH14" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
@@ -48007,7 +48267,7 @@
         <v>364</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
@@ -48016,17 +48276,17 @@
       <c r="AB15" s="13"/>
       <c r="AC15" s="13"/>
       <c r="AD15" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>1443</v>
+        <v>1469</v>
       </c>
       <c r="AF15" s="1" t="s">
         <v>253</v>
       </c>
       <c r="AG15" s="13"/>
       <c r="AH15" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
@@ -48076,7 +48336,7 @@
         <v>364</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
@@ -48086,14 +48346,14 @@
       <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
       <c r="AE16" s="1" t="s">
-        <v>1444</v>
+        <v>1470</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG16" s="13"/>
       <c r="AH16" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="13"/>
@@ -48120,7 +48380,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>1445</v>
+        <v>1471</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -48145,7 +48405,7 @@
         <v>364</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -48153,20 +48413,20 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="1" t="s">
-        <v>1446</v>
+        <v>1472</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>1447</v>
+        <v>1473</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>1448</v>
+        <v>1474</v>
       </c>
       <c r="AF17" s="1" t="s">
         <v>253</v>
       </c>
       <c r="AG17" s="13"/>
       <c r="AH17" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="13"/>
@@ -48193,7 +48453,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>1449</v>
+        <v>1475</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -48218,7 +48478,7 @@
         <v>364</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
@@ -48226,20 +48486,20 @@
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
       <c r="AC18" s="1" t="s">
-        <v>1446</v>
+        <v>1472</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>1447</v>
+        <v>1473</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>1450</v>
+        <v>1476</v>
       </c>
       <c r="AF18" s="1" t="s">
         <v>253</v>
       </c>
       <c r="AG18" s="13"/>
       <c r="AH18" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI18" s="13"/>
       <c r="AJ18" s="13"/>
@@ -48266,7 +48526,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>1451</v>
+        <v>1477</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -48291,7 +48551,7 @@
         <v>364</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -48305,14 +48565,14 @@
         <v>222</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>1452</v>
+        <v>1478</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG19" s="13"/>
       <c r="AH19" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI19" s="13"/>
       <c r="AJ19" s="13"/>
@@ -48339,7 +48599,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>1453</v>
+        <v>1479</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -48364,7 +48624,7 @@
         <v>364</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
@@ -48376,14 +48636,14 @@
       </c>
       <c r="AD20" s="13"/>
       <c r="AE20" s="1" t="s">
-        <v>1454</v>
+        <v>1480</v>
       </c>
       <c r="AF20" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG20" s="13"/>
       <c r="AH20" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI20" s="13"/>
       <c r="AJ20" s="13"/>
@@ -48455,7 +48715,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>1455</v>
+        <v>1481</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -48480,7 +48740,7 @@
         <v>364</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
@@ -48488,20 +48748,20 @@
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
       <c r="AC22" s="1" t="s">
-        <v>1446</v>
+        <v>1472</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>1447</v>
+        <v>1473</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>1456</v>
+        <v>1482</v>
       </c>
       <c r="AF22" s="1" t="s">
         <v>253</v>
       </c>
       <c r="AG22" s="13"/>
       <c r="AH22" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI22" s="13"/>
       <c r="AJ22" s="13"/>
@@ -48528,7 +48788,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>1457</v>
+        <v>1483</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -48553,7 +48813,7 @@
         <v>364</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
@@ -48567,14 +48827,14 @@
         <v>124</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>1458</v>
+        <v>1484</v>
       </c>
       <c r="AF23" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG23" s="13"/>
       <c r="AH23" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI23" s="13"/>
       <c r="AJ23" s="13"/>
@@ -48601,7 +48861,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>1459</v>
+        <v>1485</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -48626,7 +48886,7 @@
         <v>364</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
@@ -48638,14 +48898,14 @@
       </c>
       <c r="AD24" s="13"/>
       <c r="AE24" s="1" t="s">
-        <v>1460</v>
+        <v>1486</v>
       </c>
       <c r="AF24" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG24" s="13"/>
       <c r="AH24" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI24" s="13"/>
       <c r="AJ24" s="13"/>
@@ -48695,7 +48955,7 @@
         <v>364</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
@@ -48705,14 +48965,14 @@
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="1" t="s">
-        <v>1461</v>
+        <v>1487</v>
       </c>
       <c r="AF25" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG25" s="13"/>
       <c r="AH25" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI25" s="13"/>
       <c r="AJ25" s="13"/>
@@ -48739,7 +48999,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
-        <v>1462</v>
+        <v>1488</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -48764,7 +49024,7 @@
         <v>364</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
@@ -48776,14 +49036,14 @@
       </c>
       <c r="AD26" s="13"/>
       <c r="AE26" s="1" t="s">
-        <v>1463</v>
+        <v>1489</v>
       </c>
       <c r="AF26" s="1" t="s">
         <v>734</v>
       </c>
       <c r="AG26" s="13"/>
       <c r="AH26" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="13"/>
@@ -48810,7 +49070,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>1464</v>
+        <v>1490</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -48835,7 +49095,7 @@
         <v>364</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
@@ -48849,14 +49109,14 @@
         <v>222</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>1465</v>
+        <v>1491</v>
       </c>
       <c r="AF27" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG27" s="13"/>
       <c r="AH27" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="13"/>
@@ -48883,7 +49143,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>1466</v>
+        <v>1492</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -48908,7 +49168,7 @@
         <v>364</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
@@ -48922,14 +49182,14 @@
         <v>222</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>1467</v>
+        <v>1493</v>
       </c>
       <c r="AF28" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG28" s="13"/>
       <c r="AH28" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="13"/>
@@ -48956,7 +49216,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>1468</v>
+        <v>1494</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -48981,7 +49241,7 @@
         <v>364</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
@@ -48995,14 +49255,14 @@
         <v>222</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>1469</v>
+        <v>1495</v>
       </c>
       <c r="AF29" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG29" s="13"/>
       <c r="AH29" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
@@ -49052,7 +49312,7 @@
         <v>364</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
@@ -49061,17 +49321,17 @@
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
       <c r="AD30" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
       <c r="AF30" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG30" s="13"/>
       <c r="AH30" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="13"/>
@@ -49121,7 +49381,7 @@
         <v>364</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
@@ -49130,17 +49390,17 @@
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
       <c r="AD31" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>1471</v>
+        <v>1497</v>
       </c>
       <c r="AF31" s="1" t="s">
         <v>253</v>
       </c>
       <c r="AG31" s="13"/>
       <c r="AH31" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="13"/>
@@ -49167,7 +49427,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>1472</v>
+        <v>1498</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -49192,7 +49452,7 @@
         <v>364</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
@@ -49204,14 +49464,14 @@
       </c>
       <c r="AD32" s="13"/>
       <c r="AE32" s="1" t="s">
-        <v>1473</v>
+        <v>1499</v>
       </c>
       <c r="AF32" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG32" s="13"/>
       <c r="AH32" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="13"/>
@@ -49261,7 +49521,7 @@
         <v>364</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
@@ -49271,14 +49531,14 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
       <c r="AE33" s="1" t="s">
-        <v>1473</v>
+        <v>1499</v>
       </c>
       <c r="AF33" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG33" s="13"/>
       <c r="AH33" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="13"/>
@@ -49305,7 +49565,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>1474</v>
+        <v>1500</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -49330,7 +49590,7 @@
         <v>364</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
@@ -49342,14 +49602,14 @@
       </c>
       <c r="AD34" s="13"/>
       <c r="AE34" s="1" t="s">
-        <v>1475</v>
+        <v>1501</v>
       </c>
       <c r="AF34" s="1" t="s">
         <v>734</v>
       </c>
       <c r="AG34" s="13"/>
       <c r="AH34" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="13"/>
@@ -49399,7 +49659,7 @@
         <v>364</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
@@ -49411,14 +49671,14 @@
         <v>124</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>1476</v>
+        <v>1502</v>
       </c>
       <c r="AF35" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG35" s="13"/>
       <c r="AH35" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="13"/>
@@ -49468,7 +49728,7 @@
         <v>364</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
@@ -49485,7 +49745,7 @@
       </c>
       <c r="AG36" s="13"/>
       <c r="AH36" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI36" s="13"/>
       <c r="AJ36" s="13"/>
@@ -49512,7 +49772,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>1477</v>
+        <v>1503</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -49537,7 +49797,7 @@
         <v>364</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
@@ -49545,20 +49805,20 @@
       <c r="AA37" s="13"/>
       <c r="AB37" s="13"/>
       <c r="AC37" s="1" t="s">
-        <v>1446</v>
+        <v>1472</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>1447</v>
+        <v>1473</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>1478</v>
+        <v>1504</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>253</v>
       </c>
       <c r="AG37" s="13"/>
       <c r="AH37" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI37" s="13"/>
       <c r="AJ37" s="13"/>
@@ -49585,7 +49845,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>1446</v>
+        <v>1472</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -49610,7 +49870,7 @@
         <v>364</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
@@ -49618,20 +49878,20 @@
       <c r="AA38" s="13"/>
       <c r="AB38" s="13"/>
       <c r="AC38" s="1" t="s">
-        <v>1446</v>
+        <v>1472</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>1447</v>
+        <v>1473</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>1479</v>
+        <v>1505</v>
       </c>
       <c r="AF38" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG38" s="13"/>
       <c r="AH38" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI38" s="13"/>
       <c r="AJ38" s="13"/>
@@ -49658,7 +49918,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>1480</v>
+        <v>1506</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -49683,7 +49943,7 @@
         <v>364</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
@@ -49691,20 +49951,20 @@
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
       <c r="AC39" s="1" t="s">
-        <v>1446</v>
+        <v>1472</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>1447</v>
+        <v>1473</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>1481</v>
+        <v>1507</v>
       </c>
       <c r="AF39" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG39" s="13"/>
       <c r="AH39" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI39" s="13"/>
       <c r="AJ39" s="13"/>
@@ -49731,7 +49991,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4" t="s">
-        <v>1482</v>
+        <v>1508</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -49756,7 +50016,7 @@
         <v>364</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
@@ -49764,18 +50024,18 @@
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
       <c r="AC40" s="1" t="s">
-        <v>1483</v>
+        <v>1509</v>
       </c>
       <c r="AD40" s="13"/>
       <c r="AE40" s="1" t="s">
-        <v>1484</v>
+        <v>1510</v>
       </c>
       <c r="AF40" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG40" s="13"/>
       <c r="AH40" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI40" s="13"/>
       <c r="AJ40" s="13"/>
@@ -49802,7 +50062,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4" t="s">
-        <v>1485</v>
+        <v>1511</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -49827,7 +50087,7 @@
         <v>364</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
@@ -49841,14 +50101,14 @@
         <v>124</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>1486</v>
+        <v>1512</v>
       </c>
       <c r="AF41" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG41" s="13"/>
       <c r="AH41" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI41" s="13"/>
       <c r="AJ41" s="13"/>
@@ -49898,7 +50158,7 @@
         <v>364</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
@@ -49908,14 +50168,14 @@
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
       <c r="AE42" s="1" t="s">
-        <v>1487</v>
+        <v>1513</v>
       </c>
       <c r="AF42" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG42" s="13"/>
       <c r="AH42" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI42" s="13"/>
       <c r="AJ42" s="13"/>
@@ -49942,7 +50202,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4" t="s">
-        <v>1488</v>
+        <v>1514</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -49967,7 +50227,7 @@
         <v>364</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
@@ -49979,14 +50239,14 @@
       </c>
       <c r="AD43" s="13"/>
       <c r="AE43" s="1" t="s">
-        <v>1489</v>
+        <v>1515</v>
       </c>
       <c r="AF43" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG43" s="13"/>
       <c r="AH43" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI43" s="13"/>
       <c r="AJ43" s="13"/>
@@ -50013,7 +50273,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4" t="s">
-        <v>1490</v>
+        <v>1516</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -50038,7 +50298,7 @@
         <v>364</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
@@ -50050,14 +50310,14 @@
       </c>
       <c r="AD44" s="13"/>
       <c r="AE44" s="1" t="s">
-        <v>1491</v>
+        <v>1517</v>
       </c>
       <c r="AF44" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG44" s="13"/>
       <c r="AH44" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI44" s="13"/>
       <c r="AJ44" s="13"/>
@@ -50084,7 +50344,7 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4" t="s">
-        <v>1492</v>
+        <v>1518</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -50109,7 +50369,7 @@
         <v>364</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
@@ -50121,14 +50381,14 @@
       </c>
       <c r="AD45" s="13"/>
       <c r="AE45" s="1" t="s">
-        <v>1493</v>
+        <v>1519</v>
       </c>
       <c r="AF45" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG45" s="13"/>
       <c r="AH45" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI45" s="13"/>
       <c r="AJ45" s="13"/>
@@ -50178,7 +50438,7 @@
         <v>364</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
@@ -50188,14 +50448,14 @@
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="1" t="s">
-        <v>1494</v>
+        <v>1520</v>
       </c>
       <c r="AF46" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG46" s="13"/>
       <c r="AH46" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="13"/>
@@ -50222,7 +50482,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4" t="s">
-        <v>1495</v>
+        <v>1521</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -50247,7 +50507,7 @@
         <v>364</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
@@ -50259,14 +50519,14 @@
       </c>
       <c r="AD47" s="13"/>
       <c r="AE47" s="1" t="s">
-        <v>1496</v>
+        <v>1522</v>
       </c>
       <c r="AF47" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG47" s="13"/>
       <c r="AH47" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI47" s="13"/>
       <c r="AJ47" s="13"/>
@@ -50316,7 +50576,7 @@
         <v>364</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
@@ -50326,14 +50586,14 @@
       <c r="AC48" s="13"/>
       <c r="AD48" s="13"/>
       <c r="AE48" s="1" t="s">
-        <v>1497</v>
+        <v>1523</v>
       </c>
       <c r="AF48" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG48" s="13"/>
       <c r="AH48" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI48" s="13"/>
       <c r="AJ48" s="13"/>
@@ -50360,7 +50620,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4" t="s">
-        <v>1498</v>
+        <v>1524</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -50385,7 +50645,7 @@
         <v>364</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
@@ -50397,14 +50657,14 @@
       </c>
       <c r="AD49" s="13"/>
       <c r="AE49" s="1" t="s">
-        <v>1499</v>
+        <v>1525</v>
       </c>
       <c r="AF49" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG49" s="13"/>
       <c r="AH49" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI49" s="13"/>
       <c r="AJ49" s="13"/>
@@ -50454,7 +50714,7 @@
         <v>364</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
@@ -50464,14 +50724,14 @@
       <c r="AC50" s="13"/>
       <c r="AD50" s="13"/>
       <c r="AE50" s="1" t="s">
-        <v>1500</v>
+        <v>1526</v>
       </c>
       <c r="AF50" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG50" s="13"/>
       <c r="AH50" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI50" s="13"/>
       <c r="AJ50" s="13"/>
@@ -50521,7 +50781,7 @@
         <v>364</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X51" s="13"/>
       <c r="Y51" s="13"/>
@@ -50530,17 +50790,17 @@
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
       <c r="AD51" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>1501</v>
+        <v>1527</v>
       </c>
       <c r="AF51" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG51" s="13"/>
       <c r="AH51" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI51" s="13"/>
       <c r="AJ51" s="13"/>
@@ -50590,7 +50850,7 @@
         <v>364</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
@@ -50599,17 +50859,17 @@
       <c r="AB52" s="13"/>
       <c r="AC52" s="13"/>
       <c r="AD52" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>1502</v>
+        <v>1528</v>
       </c>
       <c r="AF52" s="1" t="s">
         <v>253</v>
       </c>
       <c r="AG52" s="13"/>
       <c r="AH52" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI52" s="13"/>
       <c r="AJ52" s="13"/>
@@ -50636,7 +50896,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4" t="s">
-        <v>1503</v>
+        <v>1529</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
@@ -50661,7 +50921,7 @@
         <v>364</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
@@ -50675,14 +50935,14 @@
         <v>124</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>1504</v>
+        <v>1530</v>
       </c>
       <c r="AF53" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG53" s="13"/>
       <c r="AH53" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI53" s="13"/>
       <c r="AJ53" s="13"/>
@@ -50732,7 +50992,7 @@
         <v>364</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X54" s="13"/>
       <c r="Y54" s="13"/>
@@ -50744,14 +51004,14 @@
         <v>124</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>1505</v>
+        <v>1531</v>
       </c>
       <c r="AF54" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG54" s="13"/>
       <c r="AH54" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI54" s="13"/>
       <c r="AJ54" s="13"/>
@@ -50778,7 +51038,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4" t="s">
-        <v>1506</v>
+        <v>1532</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -50803,7 +51063,7 @@
         <v>364</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
@@ -50817,14 +51077,14 @@
         <v>124</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>1507</v>
+        <v>1533</v>
       </c>
       <c r="AF55" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG55" s="13"/>
       <c r="AH55" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI55" s="13"/>
       <c r="AJ55" s="13"/>
@@ -50898,7 +51158,7 @@
         <v>364</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
@@ -50910,14 +51170,14 @@
         <v>124</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>1508</v>
+        <v>1534</v>
       </c>
       <c r="AF57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG57" s="13"/>
       <c r="AH57" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI57" s="13"/>
       <c r="AJ57" s="13"/>
@@ -50967,7 +51227,7 @@
         <v>364</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
@@ -50979,14 +51239,14 @@
         <v>124</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>1509</v>
+        <v>1535</v>
       </c>
       <c r="AF58" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI58" s="13"/>
       <c r="AJ58" s="13"/>
@@ -51013,7 +51273,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4" t="s">
-        <v>1510</v>
+        <v>1536</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
@@ -51038,7 +51298,7 @@
         <v>364</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
@@ -51046,20 +51306,20 @@
       <c r="AA59" s="13"/>
       <c r="AB59" s="13"/>
       <c r="AC59" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>1511</v>
+        <v>1537</v>
       </c>
       <c r="AF59" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG59" s="13"/>
       <c r="AH59" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI59" s="13"/>
       <c r="AJ59" s="13"/>
@@ -51109,7 +51369,7 @@
         <v>364</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
@@ -51118,17 +51378,17 @@
       <c r="AB60" s="13"/>
       <c r="AC60" s="13"/>
       <c r="AD60" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>1512</v>
+        <v>1538</v>
       </c>
       <c r="AF60" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG60" s="13"/>
       <c r="AH60" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI60" s="13"/>
       <c r="AJ60" s="13"/>
@@ -51155,7 +51415,7 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4" t="s">
-        <v>1513</v>
+        <v>1539</v>
       </c>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
@@ -51180,7 +51440,7 @@
         <v>364</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
@@ -51192,14 +51452,14 @@
       </c>
       <c r="AD61" s="13"/>
       <c r="AE61" s="1" t="s">
-        <v>1514</v>
+        <v>1540</v>
       </c>
       <c r="AF61" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG61" s="13"/>
       <c r="AH61" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI61" s="13"/>
       <c r="AJ61" s="13"/>
@@ -51249,7 +51509,7 @@
         <v>364</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
@@ -51259,14 +51519,14 @@
       <c r="AC62" s="13"/>
       <c r="AD62" s="13"/>
       <c r="AE62" s="1" t="s">
-        <v>1515</v>
+        <v>1541</v>
       </c>
       <c r="AF62" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG62" s="13"/>
       <c r="AH62" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI62" s="13"/>
       <c r="AJ62" s="13"/>
@@ -51293,7 +51553,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4" t="s">
-        <v>1516</v>
+        <v>1542</v>
       </c>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
@@ -51318,7 +51578,7 @@
         <v>364</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
@@ -51330,14 +51590,14 @@
       </c>
       <c r="AD63" s="13"/>
       <c r="AE63" s="1" t="s">
-        <v>1517</v>
+        <v>1543</v>
       </c>
       <c r="AF63" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG63" s="13"/>
       <c r="AH63" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI63" s="13"/>
       <c r="AJ63" s="13"/>
@@ -51387,7 +51647,7 @@
         <v>364</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
@@ -51397,14 +51657,14 @@
       <c r="AC64" s="13"/>
       <c r="AD64" s="13"/>
       <c r="AE64" s="1" t="s">
-        <v>1518</v>
+        <v>1544</v>
       </c>
       <c r="AF64" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG64" s="13"/>
       <c r="AH64" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI64" s="13"/>
       <c r="AJ64" s="13"/>
@@ -51454,7 +51714,7 @@
         <v>364</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X65" s="13"/>
       <c r="Y65" s="13"/>
@@ -51463,17 +51723,17 @@
       <c r="AB65" s="13"/>
       <c r="AC65" s="13"/>
       <c r="AD65" s="1" t="s">
-        <v>1447</v>
+        <v>1473</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>1519</v>
+        <v>1545</v>
       </c>
       <c r="AF65" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG65" s="13"/>
       <c r="AH65" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI65" s="13"/>
       <c r="AJ65" s="13"/>
@@ -51523,7 +51783,7 @@
         <v>364</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
@@ -51533,14 +51793,14 @@
       <c r="AC66" s="13"/>
       <c r="AD66" s="13"/>
       <c r="AE66" s="1" t="s">
-        <v>1520</v>
+        <v>1546</v>
       </c>
       <c r="AF66" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG66" s="13"/>
       <c r="AH66" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI66" s="13"/>
       <c r="AJ66" s="13"/>
@@ -51614,7 +51874,7 @@
         <v>364</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X68" s="13"/>
       <c r="Y68" s="13"/>
@@ -51631,7 +51891,7 @@
       </c>
       <c r="AG68" s="13"/>
       <c r="AH68" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI68" s="13"/>
       <c r="AJ68" s="13"/>
@@ -51658,7 +51918,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4" t="s">
-        <v>1521</v>
+        <v>1547</v>
       </c>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
@@ -51683,7 +51943,7 @@
         <v>364</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X69" s="13"/>
       <c r="Y69" s="13"/>
@@ -51695,14 +51955,14 @@
       </c>
       <c r="AD69" s="13"/>
       <c r="AE69" s="1" t="s">
-        <v>1522</v>
+        <v>1548</v>
       </c>
       <c r="AF69" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG69" s="13"/>
       <c r="AH69" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI69" s="13"/>
       <c r="AJ69" s="13"/>
@@ -51729,7 +51989,7 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4" t="s">
-        <v>1523</v>
+        <v>1549</v>
       </c>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
@@ -51754,7 +52014,7 @@
         <v>364</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X70" s="13"/>
       <c r="Y70" s="13"/>
@@ -51768,14 +52028,14 @@
         <v>124</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>1524</v>
+        <v>1550</v>
       </c>
       <c r="AF70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG70" s="13"/>
       <c r="AH70" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI70" s="13"/>
       <c r="AJ70" s="13"/>
@@ -51802,7 +52062,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4" t="s">
-        <v>1525</v>
+        <v>1551</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
@@ -51827,7 +52087,7 @@
         <v>364</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X71" s="13"/>
       <c r="Y71" s="13"/>
@@ -51839,14 +52099,14 @@
       </c>
       <c r="AD71" s="13"/>
       <c r="AE71" s="1" t="s">
-        <v>1526</v>
+        <v>1552</v>
       </c>
       <c r="AF71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG71" s="13"/>
       <c r="AH71" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI71" s="13"/>
       <c r="AJ71" s="13"/>
@@ -51873,7 +52133,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4" t="s">
-        <v>1527</v>
+        <v>1553</v>
       </c>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
@@ -51898,7 +52158,7 @@
         <v>364</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X72" s="13"/>
       <c r="Y72" s="13"/>
@@ -51910,14 +52170,14 @@
       </c>
       <c r="AD72" s="13"/>
       <c r="AE72" s="1" t="s">
-        <v>1528</v>
+        <v>1554</v>
       </c>
       <c r="AF72" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG72" s="13"/>
       <c r="AH72" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI72" s="13"/>
       <c r="AJ72" s="13"/>
@@ -51967,7 +52227,7 @@
         <v>364</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X73" s="13"/>
       <c r="Y73" s="13"/>
@@ -51976,17 +52236,17 @@
       <c r="AB73" s="13"/>
       <c r="AC73" s="13"/>
       <c r="AD73" s="1" t="s">
-        <v>1447</v>
+        <v>1473</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>1529</v>
+        <v>1555</v>
       </c>
       <c r="AF73" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG73" s="13"/>
       <c r="AH73" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI73" s="13"/>
       <c r="AJ73" s="13"/>
@@ -52013,7 +52273,7 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4" t="s">
-        <v>1530</v>
+        <v>1556</v>
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -52038,7 +52298,7 @@
         <v>364</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X74" s="13"/>
       <c r="Y74" s="13"/>
@@ -52049,17 +52309,17 @@
         <v>732</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>1531</v>
+        <v>1557</v>
       </c>
       <c r="AE74" s="1" t="s">
-        <v>1532</v>
+        <v>1558</v>
       </c>
       <c r="AF74" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG74" s="13"/>
       <c r="AH74" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI74" s="13"/>
       <c r="AJ74" s="13"/>
@@ -52109,7 +52369,7 @@
         <v>364</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
@@ -52119,14 +52379,14 @@
       <c r="AC75" s="13"/>
       <c r="AD75" s="13"/>
       <c r="AE75" s="1" t="s">
-        <v>1533</v>
+        <v>1559</v>
       </c>
       <c r="AF75" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG75" s="13"/>
       <c r="AH75" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI75" s="13"/>
       <c r="AJ75" s="13"/>
@@ -52176,7 +52436,7 @@
         <v>364</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X76" s="13"/>
       <c r="Y76" s="13"/>
@@ -52186,14 +52446,14 @@
       <c r="AC76" s="13"/>
       <c r="AD76" s="13"/>
       <c r="AE76" s="1" t="s">
-        <v>1534</v>
+        <v>1560</v>
       </c>
       <c r="AF76" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG76" s="13"/>
       <c r="AH76" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI76" s="13"/>
       <c r="AJ76" s="13"/>
@@ -52243,7 +52503,7 @@
         <v>364</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X77" s="13"/>
       <c r="Y77" s="13"/>
@@ -52252,17 +52512,17 @@
       <c r="AB77" s="13"/>
       <c r="AC77" s="13"/>
       <c r="AD77" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>1535</v>
+        <v>1561</v>
       </c>
       <c r="AF77" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG77" s="13"/>
       <c r="AH77" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI77" s="13"/>
       <c r="AJ77" s="13"/>
@@ -52312,7 +52572,7 @@
         <v>364</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X78" s="13"/>
       <c r="Y78" s="13"/>
@@ -52321,17 +52581,17 @@
       <c r="AB78" s="13"/>
       <c r="AC78" s="13"/>
       <c r="AD78" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>1536</v>
+        <v>1562</v>
       </c>
       <c r="AF78" s="1" t="s">
         <v>253</v>
       </c>
       <c r="AG78" s="13"/>
       <c r="AH78" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI78" s="13"/>
       <c r="AJ78" s="13"/>
@@ -52358,7 +52618,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4" t="s">
-        <v>1537</v>
+        <v>1563</v>
       </c>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
@@ -52383,7 +52643,7 @@
         <v>364</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X79" s="13"/>
       <c r="Y79" s="13"/>
@@ -52395,14 +52655,14 @@
       </c>
       <c r="AD79" s="13"/>
       <c r="AE79" s="1" t="s">
-        <v>1538</v>
+        <v>1564</v>
       </c>
       <c r="AF79" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG79" s="13"/>
       <c r="AH79" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI79" s="13"/>
       <c r="AJ79" s="13"/>
@@ -52429,7 +52689,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
-        <v>1539</v>
+        <v>1565</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -52454,7 +52714,7 @@
         <v>364</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X80" s="13"/>
       <c r="Y80" s="13"/>
@@ -52466,14 +52726,14 @@
       </c>
       <c r="AD80" s="13"/>
       <c r="AE80" s="1" t="s">
-        <v>1540</v>
+        <v>1566</v>
       </c>
       <c r="AF80" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG80" s="13"/>
       <c r="AH80" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI80" s="13"/>
       <c r="AJ80" s="13"/>
@@ -52523,7 +52783,7 @@
         <v>364</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
@@ -52532,17 +52792,17 @@
       <c r="AB81" s="13"/>
       <c r="AC81" s="13"/>
       <c r="AD81" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>1541</v>
+        <v>1567</v>
       </c>
       <c r="AF81" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG81" s="13"/>
       <c r="AH81" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI81" s="13"/>
       <c r="AJ81" s="13"/>
@@ -52569,7 +52829,7 @@
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4" t="s">
-        <v>1542</v>
+        <v>1568</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -52594,7 +52854,7 @@
         <v>364</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X82" s="13"/>
       <c r="Y82" s="13"/>
@@ -52606,14 +52866,14 @@
       </c>
       <c r="AD82" s="13"/>
       <c r="AE82" s="1" t="s">
-        <v>1543</v>
+        <v>1569</v>
       </c>
       <c r="AF82" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG82" s="13"/>
       <c r="AH82" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI82" s="13"/>
       <c r="AJ82" s="13"/>
@@ -52663,7 +52923,7 @@
         <v>364</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
@@ -52673,14 +52933,14 @@
       <c r="AC83" s="13"/>
       <c r="AD83" s="13"/>
       <c r="AE83" s="1" t="s">
-        <v>1544</v>
+        <v>1570</v>
       </c>
       <c r="AF83" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG83" s="13"/>
       <c r="AH83" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI83" s="13"/>
       <c r="AJ83" s="13"/>
@@ -52752,7 +53012,7 @@
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4" t="s">
-        <v>1545</v>
+        <v>1571</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
@@ -52777,7 +53037,7 @@
         <v>364</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X85" s="13"/>
       <c r="Y85" s="13"/>
@@ -52791,14 +53051,14 @@
         <v>222</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>1546</v>
+        <v>1572</v>
       </c>
       <c r="AF85" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG85" s="13"/>
       <c r="AH85" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI85" s="13"/>
       <c r="AJ85" s="13"/>
@@ -52848,7 +53108,7 @@
         <v>364</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X86" s="13"/>
       <c r="Y86" s="13"/>
@@ -52857,17 +53117,17 @@
       <c r="AB86" s="13"/>
       <c r="AC86" s="13"/>
       <c r="AD86" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>1547</v>
+        <v>1573</v>
       </c>
       <c r="AF86" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG86" s="13"/>
       <c r="AH86" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI86" s="13"/>
       <c r="AJ86" s="13"/>
@@ -52917,7 +53177,7 @@
         <v>364</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X87" s="13"/>
       <c r="Y87" s="13"/>
@@ -52926,17 +53186,17 @@
       <c r="AB87" s="13"/>
       <c r="AC87" s="13"/>
       <c r="AD87" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AE87" s="1" t="s">
-        <v>1548</v>
+        <v>1574</v>
       </c>
       <c r="AF87" s="1" t="s">
         <v>253</v>
       </c>
       <c r="AG87" s="13"/>
       <c r="AH87" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI87" s="13"/>
       <c r="AJ87" s="13"/>
@@ -52963,7 +53223,7 @@
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4" t="s">
-        <v>1549</v>
+        <v>1575</v>
       </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
@@ -52988,7 +53248,7 @@
         <v>364</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X88" s="13"/>
       <c r="Y88" s="13"/>
@@ -52999,7 +53259,7 @@
         <v>732</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>1531</v>
+        <v>1557</v>
       </c>
       <c r="AE88" s="1" t="s">
         <v>59</v>
@@ -53009,7 +53269,7 @@
       </c>
       <c r="AG88" s="13"/>
       <c r="AH88" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI88" s="13"/>
       <c r="AJ88" s="13"/>
@@ -53059,7 +53319,7 @@
         <v>364</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
@@ -53076,7 +53336,7 @@
       </c>
       <c r="AG89" s="13"/>
       <c r="AH89" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI89" s="13"/>
       <c r="AJ89" s="13"/>
@@ -53126,7 +53386,7 @@
         <v>364</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X90" s="13"/>
       <c r="Y90" s="13"/>
@@ -53136,14 +53396,14 @@
       <c r="AC90" s="13"/>
       <c r="AD90" s="13"/>
       <c r="AE90" s="1" t="s">
-        <v>1550</v>
+        <v>1576</v>
       </c>
       <c r="AF90" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG90" s="13"/>
       <c r="AH90" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI90" s="13"/>
       <c r="AJ90" s="13"/>
@@ -53193,7 +53453,7 @@
         <v>364</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X91" s="13"/>
       <c r="Y91" s="13"/>
@@ -53202,17 +53462,17 @@
       <c r="AB91" s="13"/>
       <c r="AC91" s="13"/>
       <c r="AD91" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>1551</v>
+        <v>1577</v>
       </c>
       <c r="AF91" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG91" s="13"/>
       <c r="AH91" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI91" s="13"/>
       <c r="AJ91" s="13"/>
@@ -53262,7 +53522,7 @@
         <v>364</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X92" s="13"/>
       <c r="Y92" s="13"/>
@@ -53272,14 +53532,14 @@
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
       <c r="AE92" s="1" t="s">
-        <v>1552</v>
+        <v>1578</v>
       </c>
       <c r="AF92" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG92" s="13"/>
       <c r="AH92" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI92" s="13"/>
       <c r="AJ92" s="13"/>
@@ -53306,7 +53566,7 @@
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4" t="s">
-        <v>1553</v>
+        <v>1579</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
@@ -53331,7 +53591,7 @@
         <v>364</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X93" s="13"/>
       <c r="Y93" s="13"/>
@@ -53339,20 +53599,20 @@
       <c r="AA93" s="13"/>
       <c r="AB93" s="13"/>
       <c r="AC93" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>1554</v>
+        <v>1580</v>
       </c>
       <c r="AF93" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG93" s="13"/>
       <c r="AH93" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI93" s="13"/>
       <c r="AJ93" s="13"/>
@@ -53402,7 +53662,7 @@
         <v>364</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X94" s="13"/>
       <c r="Y94" s="13"/>
@@ -53412,14 +53672,14 @@
       <c r="AC94" s="13"/>
       <c r="AD94" s="13"/>
       <c r="AE94" s="1" t="s">
-        <v>1555</v>
+        <v>1581</v>
       </c>
       <c r="AF94" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG94" s="13"/>
       <c r="AH94" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI94" s="13"/>
       <c r="AJ94" s="13"/>
@@ -53446,7 +53706,7 @@
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4" t="s">
-        <v>1556</v>
+        <v>1582</v>
       </c>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
@@ -53471,7 +53731,7 @@
         <v>364</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X95" s="13"/>
       <c r="Y95" s="13"/>
@@ -53485,14 +53745,14 @@
         <v>124</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>1557</v>
+        <v>1583</v>
       </c>
       <c r="AF95" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG95" s="13"/>
       <c r="AH95" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI95" s="13"/>
       <c r="AJ95" s="13"/>
@@ -53544,7 +53804,7 @@
         <v>364</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X96" s="13"/>
       <c r="Y96" s="13"/>
@@ -53556,14 +53816,14 @@
       </c>
       <c r="AD96" s="13"/>
       <c r="AE96" s="1" t="s">
-        <v>1558</v>
+        <v>1584</v>
       </c>
       <c r="AF96" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG96" s="13"/>
       <c r="AH96" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI96" s="13"/>
       <c r="AJ96" s="13"/>
@@ -53613,7 +53873,7 @@
         <v>364</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X97" s="13"/>
       <c r="Y97" s="13"/>
@@ -53625,14 +53885,14 @@
         <v>222</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>1559</v>
+        <v>1585</v>
       </c>
       <c r="AF97" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG97" s="13"/>
       <c r="AH97" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI97" s="13"/>
       <c r="AJ97" s="13"/>
@@ -53659,7 +53919,7 @@
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4" t="s">
-        <v>1560</v>
+        <v>1586</v>
       </c>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
@@ -53684,7 +53944,7 @@
         <v>364</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X98" s="13"/>
       <c r="Y98" s="13"/>
@@ -53696,14 +53956,14 @@
       </c>
       <c r="AD98" s="13"/>
       <c r="AE98" s="1" t="s">
-        <v>1561</v>
+        <v>1587</v>
       </c>
       <c r="AF98" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG98" s="13"/>
       <c r="AH98" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI98" s="13"/>
       <c r="AJ98" s="13"/>
@@ -53730,7 +53990,7 @@
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4" t="s">
-        <v>1562</v>
+        <v>1588</v>
       </c>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -53755,7 +54015,7 @@
         <v>364</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X99" s="13"/>
       <c r="Y99" s="13"/>
@@ -53767,14 +54027,14 @@
       </c>
       <c r="AD99" s="13"/>
       <c r="AE99" s="1" t="s">
-        <v>1563</v>
+        <v>1589</v>
       </c>
       <c r="AF99" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG99" s="13"/>
       <c r="AH99" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI99" s="13"/>
       <c r="AJ99" s="13"/>
@@ -53824,7 +54084,7 @@
         <v>364</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X100" s="13"/>
       <c r="Y100" s="13"/>
@@ -53834,14 +54094,14 @@
       <c r="AC100" s="13"/>
       <c r="AD100" s="13"/>
       <c r="AE100" s="1" t="s">
-        <v>1564</v>
+        <v>1590</v>
       </c>
       <c r="AF100" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG100" s="13"/>
       <c r="AH100" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI100" s="13"/>
       <c r="AJ100" s="13"/>
@@ -53868,7 +54128,7 @@
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4" t="s">
-        <v>1565</v>
+        <v>1591</v>
       </c>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
@@ -53893,7 +54153,7 @@
         <v>364</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X101" s="13"/>
       <c r="Y101" s="13"/>
@@ -53907,14 +54167,14 @@
         <v>124</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>1566</v>
+        <v>1592</v>
       </c>
       <c r="AF101" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG101" s="13"/>
       <c r="AH101" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI101" s="13"/>
       <c r="AJ101" s="13"/>
@@ -53966,7 +54226,7 @@
         <v>364</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X102" s="13"/>
       <c r="Y102" s="13"/>
@@ -53985,7 +54245,7 @@
       </c>
       <c r="AG102" s="13"/>
       <c r="AH102" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI102" s="13"/>
       <c r="AJ102" s="13"/>
@@ -54012,7 +54272,7 @@
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4" t="s">
-        <v>1567</v>
+        <v>1593</v>
       </c>
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
@@ -54037,7 +54297,7 @@
         <v>364</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X103" s="13"/>
       <c r="Y103" s="13"/>
@@ -54049,14 +54309,14 @@
       </c>
       <c r="AD103" s="13"/>
       <c r="AE103" s="1" t="s">
-        <v>1568</v>
+        <v>1594</v>
       </c>
       <c r="AF103" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG103" s="13"/>
       <c r="AH103" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI103" s="13"/>
       <c r="AJ103" s="13"/>
@@ -54083,7 +54343,7 @@
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4" t="s">
-        <v>1569</v>
+        <v>1595</v>
       </c>
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
@@ -54108,7 +54368,7 @@
         <v>364</v>
       </c>
       <c r="W104" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X104" s="13"/>
       <c r="Y104" s="13"/>
@@ -54120,14 +54380,14 @@
       </c>
       <c r="AD104" s="13"/>
       <c r="AE104" s="1" t="s">
-        <v>1570</v>
+        <v>1596</v>
       </c>
       <c r="AF104" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG104" s="13"/>
       <c r="AH104" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI104" s="13"/>
       <c r="AJ104" s="13"/>
@@ -54154,7 +54414,7 @@
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4" t="s">
-        <v>1571</v>
+        <v>1597</v>
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
@@ -54179,7 +54439,7 @@
         <v>364</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X105" s="13"/>
       <c r="Y105" s="13"/>
@@ -54193,14 +54453,14 @@
         <v>637</v>
       </c>
       <c r="AE105" s="1" t="s">
-        <v>1572</v>
+        <v>1598</v>
       </c>
       <c r="AF105" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG105" s="13"/>
       <c r="AH105" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI105" s="13"/>
       <c r="AJ105" s="13"/>
@@ -54228,7 +54488,7 @@
       <c r="M106" s="4"/>
       <c r="AG106" s="13"/>
       <c r="AH106" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI106" s="13"/>
       <c r="AJ106" s="13"/>
@@ -54278,7 +54538,7 @@
         <v>364</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
@@ -54288,14 +54548,14 @@
       <c r="AC107" s="13"/>
       <c r="AD107" s="13"/>
       <c r="AE107" s="1" t="s">
-        <v>1573</v>
+        <v>1599</v>
       </c>
       <c r="AF107" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG107" s="13"/>
       <c r="AH107" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI107" s="13"/>
       <c r="AJ107" s="13"/>
@@ -54345,7 +54605,7 @@
         <v>364</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X108" s="13"/>
       <c r="Y108" s="13"/>
@@ -54358,11 +54618,11 @@
         <v>70</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>1574</v>
+        <v>1600</v>
       </c>
       <c r="AG108" s="13"/>
       <c r="AH108" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI108" s="13"/>
       <c r="AJ108" s="13"/>
@@ -54389,7 +54649,7 @@
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4" t="s">
-        <v>1575</v>
+        <v>1601</v>
       </c>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
@@ -54414,7 +54674,7 @@
         <v>364</v>
       </c>
       <c r="W109" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X109" s="13"/>
       <c r="Y109" s="13"/>
@@ -54422,20 +54682,20 @@
       <c r="AA109" s="13"/>
       <c r="AB109" s="13"/>
       <c r="AC109" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AD109" s="1" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
       <c r="AE109" s="1" t="s">
-        <v>1576</v>
+        <v>1602</v>
       </c>
       <c r="AF109" s="1" t="s">
         <v>224</v>
       </c>
       <c r="AG109" s="13"/>
       <c r="AH109" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI109" s="13"/>
       <c r="AJ109" s="13"/>
@@ -54462,7 +54722,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4" t="s">
-        <v>1577</v>
+        <v>1603</v>
       </c>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
@@ -54487,7 +54747,7 @@
         <v>364</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X110" s="13"/>
       <c r="Y110" s="13"/>
@@ -54499,14 +54759,14 @@
       </c>
       <c r="AD110" s="13"/>
       <c r="AE110" s="1" t="s">
-        <v>1578</v>
+        <v>1604</v>
       </c>
       <c r="AF110" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG110" s="13"/>
       <c r="AH110" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI110" s="13"/>
       <c r="AJ110" s="13"/>
@@ -54556,7 +54816,7 @@
         <v>364</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X111" s="13"/>
       <c r="Y111" s="13"/>
@@ -54566,14 +54826,14 @@
       <c r="AC111" s="13"/>
       <c r="AD111" s="13"/>
       <c r="AE111" s="1" t="s">
-        <v>1578</v>
+        <v>1604</v>
       </c>
       <c r="AF111" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AG111" s="13"/>
       <c r="AH111" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI111" s="13"/>
       <c r="AJ111" s="13"/>
@@ -54623,7 +54883,7 @@
         <v>364</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X112" s="13"/>
       <c r="Y112" s="13"/>
@@ -54632,17 +54892,17 @@
       <c r="AB112" s="13"/>
       <c r="AC112" s="13"/>
       <c r="AD112" s="1" t="s">
-        <v>1531</v>
+        <v>1557</v>
       </c>
       <c r="AE112" s="1" t="s">
-        <v>1579</v>
+        <v>1605</v>
       </c>
       <c r="AF112" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG112" s="13"/>
       <c r="AH112" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI112" s="13"/>
       <c r="AJ112" s="13"/>
@@ -54692,7 +54952,7 @@
         <v>364</v>
       </c>
       <c r="W113" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X113" s="13"/>
       <c r="Y113" s="13"/>
@@ -54701,17 +54961,17 @@
       <c r="AB113" s="13"/>
       <c r="AC113" s="13"/>
       <c r="AD113" s="1" t="s">
-        <v>1531</v>
+        <v>1557</v>
       </c>
       <c r="AE113" s="1" t="s">
-        <v>1580</v>
+        <v>1606</v>
       </c>
       <c r="AF113" s="1" t="s">
         <v>82</v>
       </c>
       <c r="AG113" s="13"/>
       <c r="AH113" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI113" s="13"/>
       <c r="AJ113" s="13"/>
@@ -54738,7 +54998,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4" t="s">
-        <v>1581</v>
+        <v>1607</v>
       </c>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
@@ -54763,7 +55023,7 @@
         <v>364</v>
       </c>
       <c r="W114" s="1" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
@@ -54778,7 +55038,7 @@
       <c r="AF114" s="13"/>
       <c r="AG114" s="13"/>
       <c r="AH114" s="14" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AI114" s="13"/>
       <c r="AJ114" s="13"/>
@@ -54833,14 +55093,14 @@
       <c r="X115" s="34"/>
       <c r="Y115" s="34"/>
       <c r="Z115" s="36" t="s">
-        <v>1582</v>
+        <v>1608</v>
       </c>
       <c r="AA115" s="36" t="s">
-        <v>1583</v>
+        <v>1609</v>
       </c>
       <c r="AB115" s="34"/>
       <c r="AC115" s="34" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AD115" s="34"/>
       <c r="AE115" s="34"/>
@@ -55003,7 +55263,7 @@
       <c r="K116" s="34"/>
       <c r="L116" s="34"/>
       <c r="M116" s="36" t="s">
-        <v>1584</v>
+        <v>1610</v>
       </c>
       <c r="N116" s="34"/>
       <c r="O116" s="34"/>
@@ -55036,14 +55296,14 @@
       <c r="X116" s="34"/>
       <c r="Y116" s="34"/>
       <c r="Z116" s="36" t="s">
-        <v>1584</v>
+        <v>1610</v>
       </c>
       <c r="AA116" s="36" t="s">
-        <v>1585</v>
+        <v>1611</v>
       </c>
       <c r="AB116" s="34"/>
       <c r="AC116" s="34" t="s">
-        <v>1586</v>
+        <v>1612</v>
       </c>
       <c r="AD116" s="34"/>
       <c r="AE116" s="34"/>
@@ -55065,7 +55325,7 @@
       <c r="AU116" s="34"/>
       <c r="AV116" s="37"/>
       <c r="AW116" s="37" t="s">
-        <v>1587</v>
+        <v>1613</v>
       </c>
       <c r="AX116" s="37"/>
       <c r="AY116" s="37"/>
@@ -55239,14 +55499,14 @@
       <c r="X117" s="34"/>
       <c r="Y117" s="34"/>
       <c r="Z117" s="36" t="s">
-        <v>1588</v>
+        <v>1614</v>
       </c>
       <c r="AA117" s="36" t="s">
-        <v>1589</v>
+        <v>1615</v>
       </c>
       <c r="AB117" s="34"/>
       <c r="AC117" s="34" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
       <c r="AD117" s="34"/>
       <c r="AE117" s="34"/>
@@ -55268,7 +55528,7 @@
       <c r="AU117" s="34"/>
       <c r="AV117" s="37"/>
       <c r="AW117" s="37" t="s">
-        <v>1587</v>
+        <v>1613</v>
       </c>
       <c r="AX117" s="37"/>
       <c r="AY117" s="37"/>
@@ -55397,13 +55657,13 @@
     </row>
     <row r="118" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A118" s="38" t="s">
-        <v>1590</v>
+        <v>1616</v>
       </c>
       <c r="B118" s="39" t="s">
-        <v>1591</v>
+        <v>1617</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>1592</v>
+        <v>1618</v>
       </c>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
@@ -55419,10 +55679,10 @@
       <c r="M118" s="39"/>
       <c r="N118" s="39"/>
       <c r="O118" s="38" t="s">
-        <v>1593</v>
+        <v>1619</v>
       </c>
       <c r="P118" s="38" t="s">
-        <v>1593</v>
+        <v>1619</v>
       </c>
       <c r="Q118" s="40" t="s">
         <v>93</v>
@@ -55460,12 +55720,12 @@
       <c r="AH118" s="39"/>
       <c r="AI118" s="39"/>
       <c r="AJ118" s="38" t="s">
-        <v>1594</v>
+        <v>1620</v>
       </c>
       <c r="AK118" s="38"/>
       <c r="AL118" s="38"/>
       <c r="AM118" s="38" t="s">
-        <v>1594</v>
+        <v>1620</v>
       </c>
       <c r="AN118" s="38"/>
       <c r="AO118" s="38" t="s">
@@ -55484,14 +55744,14 @@
         <v>129</v>
       </c>
       <c r="AT118" s="38" t="s">
-        <v>1590</v>
+        <v>1616</v>
       </c>
       <c r="AU118" s="39" t="s">
-        <v>1591</v>
+        <v>1617</v>
       </c>
       <c r="AV118" s="39"/>
       <c r="AW118" s="39" t="s">
-        <v>1595</v>
+        <v>1621</v>
       </c>
       <c r="AX118" s="39"/>
       <c r="AY118" s="39"/>
@@ -55620,13 +55880,13 @@
     </row>
     <row r="119" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A119" s="38" t="s">
-        <v>1596</v>
+        <v>1622</v>
       </c>
       <c r="B119" s="39" t="s">
-        <v>1597</v>
+        <v>1623</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>1598</v>
+        <v>1624</v>
       </c>
       <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
@@ -55642,10 +55902,10 @@
       <c r="M119" s="39"/>
       <c r="N119" s="39"/>
       <c r="O119" s="38" t="s">
-        <v>1593</v>
+        <v>1619</v>
       </c>
       <c r="P119" s="38" t="s">
-        <v>1593</v>
+        <v>1619</v>
       </c>
       <c r="Q119" s="40" t="s">
         <v>753</v>
@@ -55683,12 +55943,12 @@
       <c r="AH119" s="39"/>
       <c r="AI119" s="39"/>
       <c r="AJ119" s="38" t="s">
-        <v>1599</v>
+        <v>1625</v>
       </c>
       <c r="AK119" s="38"/>
       <c r="AL119" s="38"/>
       <c r="AM119" s="38" t="s">
-        <v>1599</v>
+        <v>1625</v>
       </c>
       <c r="AN119" s="38"/>
       <c r="AO119" s="38" t="s">
@@ -55707,14 +55967,14 @@
         <v>129</v>
       </c>
       <c r="AT119" s="38" t="s">
-        <v>1596</v>
+        <v>1622</v>
       </c>
       <c r="AU119" s="39" t="s">
-        <v>1597</v>
+        <v>1623</v>
       </c>
       <c r="AV119" s="39"/>
       <c r="AW119" s="39" t="s">
-        <v>1595</v>
+        <v>1621</v>
       </c>
       <c r="AX119" s="39"/>
       <c r="AY119" s="39"/>
@@ -55843,13 +56103,13 @@
     </row>
     <row r="120" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A120" s="38" t="s">
-        <v>1600</v>
+        <v>1626</v>
       </c>
       <c r="B120" s="39" t="s">
-        <v>1601</v>
+        <v>1627</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>1602</v>
+        <v>1628</v>
       </c>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
@@ -55865,10 +56125,10 @@
       <c r="M120" s="39"/>
       <c r="N120" s="39"/>
       <c r="O120" s="38" t="s">
-        <v>1593</v>
+        <v>1619</v>
       </c>
       <c r="P120" s="38" t="s">
-        <v>1593</v>
+        <v>1619</v>
       </c>
       <c r="Q120" s="40" t="s">
         <v>909</v>
@@ -55906,12 +56166,12 @@
       <c r="AH120" s="39"/>
       <c r="AI120" s="39"/>
       <c r="AJ120" s="38" t="s">
-        <v>1603</v>
+        <v>1629</v>
       </c>
       <c r="AK120" s="38"/>
       <c r="AL120" s="38"/>
       <c r="AM120" s="38" t="s">
-        <v>1603</v>
+        <v>1629</v>
       </c>
       <c r="AN120" s="38"/>
       <c r="AO120" s="38" t="s">
@@ -55930,14 +56190,14 @@
         <v>129</v>
       </c>
       <c r="AT120" s="38" t="s">
-        <v>1600</v>
+        <v>1626</v>
       </c>
       <c r="AU120" s="39" t="s">
-        <v>1601</v>
+        <v>1627</v>
       </c>
       <c r="AV120" s="39"/>
       <c r="AW120" s="39" t="s">
-        <v>1604</v>
+        <v>1630</v>
       </c>
       <c r="AX120" s="39"/>
       <c r="AY120" s="39"/>
@@ -56066,13 +56326,13 @@
     </row>
     <row r="121" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A121" s="38" t="s">
-        <v>1605</v>
+        <v>1631</v>
       </c>
       <c r="B121" s="39" t="s">
-        <v>1606</v>
+        <v>1632</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>1607</v>
+        <v>1633</v>
       </c>
       <c r="D121" s="38"/>
       <c r="E121" s="38" t="s">
@@ -56088,10 +56348,10 @@
       <c r="M121" s="39"/>
       <c r="N121" s="39"/>
       <c r="O121" s="38" t="s">
-        <v>1593</v>
+        <v>1619</v>
       </c>
       <c r="P121" s="38" t="s">
-        <v>1593</v>
+        <v>1619</v>
       </c>
       <c r="Q121" s="40" t="s">
         <v>106</v>
@@ -56129,12 +56389,12 @@
       <c r="AH121" s="39"/>
       <c r="AI121" s="39"/>
       <c r="AJ121" s="38" t="s">
-        <v>1608</v>
+        <v>1634</v>
       </c>
       <c r="AK121" s="38"/>
       <c r="AL121" s="38"/>
       <c r="AM121" s="38" t="s">
-        <v>1603</v>
+        <v>1629</v>
       </c>
       <c r="AN121" s="38"/>
       <c r="AO121" s="38" t="s">
@@ -56153,14 +56413,14 @@
         <v>129</v>
       </c>
       <c r="AT121" s="38" t="s">
-        <v>1605</v>
+        <v>1631</v>
       </c>
       <c r="AU121" s="39" t="s">
-        <v>1606</v>
+        <v>1632</v>
       </c>
       <c r="AV121" s="39"/>
       <c r="AW121" s="39" t="s">
-        <v>1595</v>
+        <v>1621</v>
       </c>
       <c r="AX121" s="39"/>
       <c r="AY121" s="39"/>
@@ -56289,13 +56549,13 @@
     </row>
     <row r="122" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A122" s="38" t="s">
-        <v>1596</v>
+        <v>1622</v>
       </c>
       <c r="B122" s="39" t="s">
-        <v>1597</v>
+        <v>1623</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>1609</v>
+        <v>1635</v>
       </c>
       <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
@@ -56311,10 +56571,10 @@
       <c r="M122" s="39"/>
       <c r="N122" s="39"/>
       <c r="O122" s="38" t="s">
-        <v>1596</v>
+        <v>1622</v>
       </c>
       <c r="P122" s="38" t="s">
-        <v>1596</v>
+        <v>1622</v>
       </c>
       <c r="Q122" s="40" t="s">
         <v>909</v>
@@ -56352,12 +56612,12 @@
       <c r="AH122" s="39"/>
       <c r="AI122" s="39"/>
       <c r="AJ122" s="38" t="s">
-        <v>1609</v>
+        <v>1635</v>
       </c>
       <c r="AK122" s="38"/>
       <c r="AL122" s="38"/>
       <c r="AM122" s="38" t="s">
-        <v>1609</v>
+        <v>1635</v>
       </c>
       <c r="AN122" s="38"/>
       <c r="AO122" s="38" t="s">
@@ -56376,14 +56636,14 @@
         <v>129</v>
       </c>
       <c r="AT122" s="38" t="s">
-        <v>1596</v>
+        <v>1622</v>
       </c>
       <c r="AU122" s="39" t="s">
-        <v>1597</v>
+        <v>1623</v>
       </c>
       <c r="AV122" s="39"/>
       <c r="AW122" s="39" t="s">
-        <v>1595</v>
+        <v>1621</v>
       </c>
       <c r="AX122" s="39"/>
       <c r="AY122" s="39"/>
@@ -56512,13 +56772,13 @@
     </row>
     <row r="123" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A123" s="32" t="s">
-        <v>1610</v>
+        <v>1636</v>
       </c>
       <c r="B123" s="42" t="s">
-        <v>1611</v>
+        <v>1637</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>1612</v>
+        <v>1638</v>
       </c>
       <c r="D123" s="32"/>
       <c r="E123" s="32" t="s">
@@ -56534,10 +56794,10 @@
       <c r="M123" s="42"/>
       <c r="N123" s="42"/>
       <c r="O123" s="32" t="s">
-        <v>1610</v>
+        <v>1636</v>
       </c>
       <c r="P123" s="32" t="s">
-        <v>1610</v>
+        <v>1636</v>
       </c>
       <c r="Q123" s="43" t="s">
         <v>93</v>
@@ -56575,12 +56835,12 @@
       <c r="AH123" s="42"/>
       <c r="AI123" s="42"/>
       <c r="AJ123" s="32" t="s">
-        <v>1612</v>
+        <v>1638</v>
       </c>
       <c r="AK123" s="32"/>
       <c r="AL123" s="32"/>
       <c r="AM123" s="32" t="s">
-        <v>1613</v>
+        <v>1639</v>
       </c>
       <c r="AN123" s="32"/>
       <c r="AO123" s="32" t="s">
@@ -56599,14 +56859,14 @@
         <v>129</v>
       </c>
       <c r="AT123" s="32" t="s">
-        <v>1610</v>
+        <v>1636</v>
       </c>
       <c r="AU123" s="42" t="s">
-        <v>1611</v>
+        <v>1637</v>
       </c>
       <c r="AV123" s="42"/>
       <c r="AW123" s="42" t="s">
-        <v>1614</v>
+        <v>1640</v>
       </c>
       <c r="AX123" s="42"/>
       <c r="AY123" s="42"/>
@@ -56735,13 +56995,13 @@
     </row>
     <row r="124" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A124" s="32" t="s">
-        <v>1615</v>
+        <v>1641</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>1616</v>
+        <v>1642</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>1617</v>
+        <v>1643</v>
       </c>
       <c r="D124" s="32"/>
       <c r="E124" s="32" t="s">
@@ -56757,10 +57017,10 @@
       <c r="M124" s="42"/>
       <c r="N124" s="42"/>
       <c r="O124" s="32" t="s">
-        <v>1615</v>
+        <v>1641</v>
       </c>
       <c r="P124" s="32" t="s">
-        <v>1615</v>
+        <v>1641</v>
       </c>
       <c r="Q124" s="43" t="s">
         <v>93</v>
@@ -56798,12 +57058,12 @@
       <c r="AH124" s="42"/>
       <c r="AI124" s="42"/>
       <c r="AJ124" s="32" t="s">
-        <v>1617</v>
+        <v>1643</v>
       </c>
       <c r="AK124" s="32"/>
       <c r="AL124" s="32"/>
       <c r="AM124" s="32" t="s">
-        <v>1617</v>
+        <v>1643</v>
       </c>
       <c r="AN124" s="32"/>
       <c r="AO124" s="32" t="s">
@@ -56822,14 +57082,14 @@
         <v>148</v>
       </c>
       <c r="AT124" s="32" t="s">
-        <v>1615</v>
+        <v>1641</v>
       </c>
       <c r="AU124" s="42" t="s">
-        <v>1616</v>
+        <v>1642</v>
       </c>
       <c r="AV124" s="42"/>
       <c r="AW124" s="42" t="s">
-        <v>1618</v>
+        <v>1644</v>
       </c>
       <c r="AX124" s="42"/>
       <c r="AY124" s="42"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EB8ABE8-117B-4FA6-94F6-89DF1605480E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D88942-E2EA-41B4-9131-B63BED18BA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -5324,7 +5324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5741,7 +5741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5917,20 +5917,19 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -6281,12 +6280,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E033465-2455-477E-A700-6BF7A0771C26}">
   <dimension ref="A1:FY211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S201" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W207" sqref="W207"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
@@ -6296,7 +6295,7 @@
     <col min="50" max="50" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:181" s="19" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:181" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -6585,7 +6584,7 @@
       <c r="FX1"/>
       <c r="FY1"/>
     </row>
-    <row r="2" spans="1:181" s="19" customFormat="1" ht="23.25" customHeight="1">
+    <row r="2" spans="1:181" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -6874,7 +6873,7 @@
       <c r="FX2"/>
       <c r="FY2"/>
     </row>
-    <row r="3" spans="1:181" s="19" customFormat="1" ht="23.25" customHeight="1">
+    <row r="3" spans="1:181" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="str">
         <f t="shared" ref="A3:AY3" si="0">_xlfn.TEXTJOIN(" ", TRUE, LOWER(A1), LOWER(A2))</f>
         <v>vjdbv0.3 field id</v>
@@ -7216,7 +7215,7 @@
       <c r="FX3"/>
       <c r="FY3"/>
     </row>
-    <row r="4" spans="1:181" s="19" customFormat="1" ht="23.25" customHeight="1">
+    <row r="4" spans="1:181" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="str">
         <f t="shared" ref="A4:AY4" si="2">SUBSTITUTE(A3, " ", "_")</f>
         <v>vjdbv0.3_field_id</v>
@@ -7558,7 +7557,7 @@
       <c r="FX4"/>
       <c r="FY4"/>
     </row>
-    <row r="5" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>57</v>
       </c>
@@ -7801,7 +7800,7 @@
       <c r="FX5"/>
       <c r="FY5"/>
     </row>
-    <row r="6" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>77</v>
       </c>
@@ -8048,7 +8047,7 @@
       <c r="FX6"/>
       <c r="FY6"/>
     </row>
-    <row r="7" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>89</v>
       </c>
@@ -8288,7 +8287,7 @@
       <c r="FX7"/>
       <c r="FY7"/>
     </row>
-    <row r="8" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>101</v>
       </c>
@@ -8532,7 +8531,7 @@
       <c r="FX8"/>
       <c r="FY8"/>
     </row>
-    <row r="9" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>113</v>
       </c>
@@ -8796,7 +8795,7 @@
       <c r="FX9"/>
       <c r="FY9"/>
     </row>
-    <row r="10" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>135</v>
       </c>
@@ -9060,7 +9059,7 @@
       <c r="FX10"/>
       <c r="FY10"/>
     </row>
-    <row r="11" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>155</v>
       </c>
@@ -9284,7 +9283,7 @@
       <c r="FX11"/>
       <c r="FY11"/>
     </row>
-    <row r="12" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>163</v>
       </c>
@@ -9297,8 +9296,8 @@
       <c r="D12" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="53" t="s">
-        <v>167</v>
+      <c r="E12" s="48" t="s">
+        <v>61</v>
       </c>
       <c r="F12" s="48" t="s">
         <v>163</v>
@@ -9508,7 +9507,7 @@
       <c r="FX12"/>
       <c r="FY12"/>
     </row>
-    <row r="13" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>175</v>
       </c>
@@ -9521,8 +9520,8 @@
       <c r="D13" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="53" t="s">
-        <v>167</v>
+      <c r="E13" s="48" t="s">
+        <v>61</v>
       </c>
       <c r="F13" s="48" t="s">
         <v>175</v>
@@ -9744,7 +9743,7 @@
       <c r="FX13"/>
       <c r="FY13"/>
     </row>
-    <row r="14" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>184</v>
       </c>
@@ -9982,7 +9981,7 @@
       <c r="FX14"/>
       <c r="FY14"/>
     </row>
-    <row r="15" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>196</v>
       </c>
@@ -10234,7 +10233,7 @@
       <c r="FX15"/>
       <c r="FY15"/>
     </row>
-    <row r="16" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="16" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>206</v>
       </c>
@@ -10492,7 +10491,7 @@
       <c r="FX16"/>
       <c r="FY16"/>
     </row>
-    <row r="17" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>220</v>
       </c>
@@ -10732,7 +10731,7 @@
       <c r="FX17"/>
       <c r="FY17"/>
     </row>
-    <row r="18" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="18" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>234</v>
       </c>
@@ -10968,7 +10967,7 @@
       <c r="FX18"/>
       <c r="FY18"/>
     </row>
-    <row r="19" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="19" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>247</v>
       </c>
@@ -11198,7 +11197,7 @@
       <c r="FX19"/>
       <c r="FY19"/>
     </row>
-    <row r="20" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="20" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>257</v>
       </c>
@@ -11403,7 +11402,7 @@
       <c r="FX20"/>
       <c r="FY20"/>
     </row>
-    <row r="21" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="21" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>262</v>
       </c>
@@ -11633,7 +11632,7 @@
       <c r="FX21"/>
       <c r="FY21"/>
     </row>
-    <row r="22" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="22" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>272</v>
       </c>
@@ -11866,7 +11865,7 @@
       <c r="FX22"/>
       <c r="FY22"/>
     </row>
-    <row r="23" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="23" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>283</v>
       </c>
@@ -12098,7 +12097,7 @@
       <c r="FX23"/>
       <c r="FY23"/>
     </row>
-    <row r="24" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="24" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>294</v>
       </c>
@@ -12330,7 +12329,7 @@
       <c r="FX24"/>
       <c r="FY24"/>
     </row>
-    <row r="25" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="25" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>302</v>
       </c>
@@ -12566,7 +12565,7 @@
       <c r="FX25"/>
       <c r="FY25"/>
     </row>
-    <row r="26" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="26" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>310</v>
       </c>
@@ -12797,7 +12796,7 @@
       <c r="FX26"/>
       <c r="FY26"/>
     </row>
-    <row r="27" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="27" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>317</v>
       </c>
@@ -13053,7 +13052,7 @@
       <c r="FX27"/>
       <c r="FY27"/>
     </row>
-    <row r="28" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="28" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>333</v>
       </c>
@@ -13283,7 +13282,7 @@
       <c r="FX28"/>
       <c r="FY28"/>
     </row>
-    <row r="29" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="29" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>344</v>
       </c>
@@ -13506,7 +13505,7 @@
       <c r="FX29"/>
       <c r="FY29"/>
     </row>
-    <row r="30" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="30" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>350</v>
       </c>
@@ -13736,7 +13735,7 @@
       <c r="FX30"/>
       <c r="FY30"/>
     </row>
-    <row r="31" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="31" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>358</v>
       </c>
@@ -13964,7 +13963,7 @@
       <c r="FX31"/>
       <c r="FY31"/>
     </row>
-    <row r="32" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="32" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>364</v>
       </c>
@@ -14210,7 +14209,7 @@
       <c r="FX32"/>
       <c r="FY32"/>
     </row>
-    <row r="33" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="33" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>376</v>
       </c>
@@ -14442,7 +14441,7 @@
       <c r="FX33"/>
       <c r="FY33"/>
     </row>
-    <row r="34" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="34" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>383</v>
       </c>
@@ -14674,7 +14673,7 @@
       <c r="FX34"/>
       <c r="FY34"/>
     </row>
-    <row r="35" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="35" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>392</v>
       </c>
@@ -14914,7 +14913,7 @@
       <c r="FX35"/>
       <c r="FY35"/>
     </row>
-    <row r="36" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="36" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>400</v>
       </c>
@@ -15158,7 +15157,7 @@
       <c r="FX36"/>
       <c r="FY36"/>
     </row>
-    <row r="37" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="37" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>408</v>
       </c>
@@ -15402,7 +15401,7 @@
       <c r="FX37"/>
       <c r="FY37"/>
     </row>
-    <row r="38" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="38" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>419</v>
       </c>
@@ -15646,7 +15645,7 @@
       <c r="FX38"/>
       <c r="FY38"/>
     </row>
-    <row r="39" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="39" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>338</v>
       </c>
@@ -15870,7 +15869,7 @@
       <c r="FX39"/>
       <c r="FY39"/>
     </row>
-    <row r="40" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="40" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>436</v>
       </c>
@@ -16112,7 +16111,7 @@
       <c r="FX40"/>
       <c r="FY40"/>
     </row>
-    <row r="41" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="41" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>444</v>
       </c>
@@ -16354,7 +16353,7 @@
       <c r="FX41"/>
       <c r="FY41"/>
     </row>
-    <row r="42" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="42" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
         <v>451</v>
       </c>
@@ -16592,7 +16591,7 @@
       <c r="FX42"/>
       <c r="FY42"/>
     </row>
-    <row r="43" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="43" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>458</v>
       </c>
@@ -16813,7 +16812,7 @@
       <c r="FX43"/>
       <c r="FY43"/>
     </row>
-    <row r="44" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="44" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>463</v>
       </c>
@@ -17057,7 +17056,7 @@
       <c r="FX44"/>
       <c r="FY44"/>
     </row>
-    <row r="45" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="45" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>470</v>
       </c>
@@ -17281,7 +17280,7 @@
       <c r="FX45"/>
       <c r="FY45"/>
     </row>
-    <row r="46" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="46" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>475</v>
       </c>
@@ -17525,7 +17524,7 @@
       <c r="FX46"/>
       <c r="FY46"/>
     </row>
-    <row r="47" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="47" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>482</v>
       </c>
@@ -17757,7 +17756,7 @@
       <c r="FX47"/>
       <c r="FY47"/>
     </row>
-    <row r="48" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="48" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
         <v>488</v>
       </c>
@@ -17989,7 +17988,7 @@
       <c r="FX48"/>
       <c r="FY48"/>
     </row>
-    <row r="49" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="49" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>494</v>
       </c>
@@ -18231,7 +18230,7 @@
       <c r="FX49"/>
       <c r="FY49"/>
     </row>
-    <row r="50" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="50" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>501</v>
       </c>
@@ -18458,7 +18457,7 @@
       <c r="FX50"/>
       <c r="FY50"/>
     </row>
-    <row r="51" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="51" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>509</v>
       </c>
@@ -18679,7 +18678,7 @@
       <c r="FX51"/>
       <c r="FY51"/>
     </row>
-    <row r="52" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="52" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>516</v>
       </c>
@@ -18906,7 +18905,7 @@
       <c r="FX52"/>
       <c r="FY52"/>
     </row>
-    <row r="53" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="53" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>520</v>
       </c>
@@ -19162,7 +19161,7 @@
       <c r="FX53"/>
       <c r="FY53"/>
     </row>
-    <row r="54" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="54" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
         <v>532</v>
       </c>
@@ -19400,7 +19399,7 @@
       <c r="FX54"/>
       <c r="FY54"/>
     </row>
-    <row r="55" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="55" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>541</v>
       </c>
@@ -19652,7 +19651,7 @@
       <c r="FX55"/>
       <c r="FY55"/>
     </row>
-    <row r="56" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="56" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>550</v>
       </c>
@@ -19891,7 +19890,7 @@
       <c r="FX56"/>
       <c r="FY56"/>
     </row>
-    <row r="57" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="57" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>557</v>
       </c>
@@ -20129,7 +20128,7 @@
       <c r="FX57"/>
       <c r="FY57"/>
     </row>
-    <row r="58" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="58" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>565</v>
       </c>
@@ -20367,7 +20366,7 @@
       <c r="FX58"/>
       <c r="FY58"/>
     </row>
-    <row r="59" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="59" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>573</v>
       </c>
@@ -20607,7 +20606,7 @@
       <c r="FX59"/>
       <c r="FY59"/>
     </row>
-    <row r="60" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="60" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>581</v>
       </c>
@@ -20823,7 +20822,7 @@
       <c r="FX60"/>
       <c r="FY60"/>
     </row>
-    <row r="61" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="61" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>586</v>
       </c>
@@ -21061,7 +21060,7 @@
       <c r="FX61"/>
       <c r="FY61"/>
     </row>
-    <row r="62" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="62" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>594</v>
       </c>
@@ -21299,7 +21298,7 @@
       <c r="FX62"/>
       <c r="FY62"/>
     </row>
-    <row r="63" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="63" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>602</v>
       </c>
@@ -21529,7 +21528,7 @@
       <c r="FX63"/>
       <c r="FY63"/>
     </row>
-    <row r="64" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="64" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
         <v>610</v>
       </c>
@@ -21751,7 +21750,7 @@
       <c r="FX64"/>
       <c r="FY64"/>
     </row>
-    <row r="65" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="65" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>615</v>
       </c>
@@ -21991,7 +21990,7 @@
       <c r="FX65"/>
       <c r="FY65"/>
     </row>
-    <row r="66" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="66" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>621</v>
       </c>
@@ -22212,7 +22211,7 @@
       <c r="FX66"/>
       <c r="FY66"/>
     </row>
-    <row r="67" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="67" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>626</v>
       </c>
@@ -22437,7 +22436,7 @@
       <c r="FX67"/>
       <c r="FY67"/>
     </row>
-    <row r="68" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="68" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>631</v>
       </c>
@@ -22695,7 +22694,7 @@
       <c r="FX68"/>
       <c r="FY68"/>
     </row>
-    <row r="69" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="69" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>647</v>
       </c>
@@ -22941,7 +22940,7 @@
       <c r="FX69"/>
       <c r="FY69"/>
     </row>
-    <row r="70" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="70" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
         <v>657</v>
       </c>
@@ -23180,7 +23179,7 @@
       <c r="FX70"/>
       <c r="FY70"/>
     </row>
-    <row r="71" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="71" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="49" t="s">
         <v>668</v>
       </c>
@@ -23373,7 +23372,7 @@
       <c r="FX71" s="61"/>
       <c r="FY71" s="61"/>
     </row>
-    <row r="72" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="72" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>675</v>
       </c>
@@ -23613,7 +23612,7 @@
       <c r="FX72"/>
       <c r="FY72"/>
     </row>
-    <row r="73" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="73" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>685</v>
       </c>
@@ -23847,7 +23846,7 @@
       <c r="FX73"/>
       <c r="FY73"/>
     </row>
-    <row r="74" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="74" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
         <v>692</v>
       </c>
@@ -24069,7 +24068,7 @@
       <c r="FX74"/>
       <c r="FY74"/>
     </row>
-    <row r="75" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="75" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>698</v>
       </c>
@@ -24305,7 +24304,7 @@
       <c r="FX75"/>
       <c r="FY75"/>
     </row>
-    <row r="76" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="76" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>708</v>
       </c>
@@ -24533,7 +24532,7 @@
       <c r="FX76"/>
       <c r="FY76"/>
     </row>
-    <row r="77" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="77" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>716</v>
       </c>
@@ -24758,7 +24757,7 @@
       <c r="FX77"/>
       <c r="FY77"/>
     </row>
-    <row r="78" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="78" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>724</v>
       </c>
@@ -24989,7 +24988,7 @@
       <c r="FX78"/>
       <c r="FY78"/>
     </row>
-    <row r="79" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="79" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>733</v>
       </c>
@@ -25225,7 +25224,7 @@
       <c r="FX79"/>
       <c r="FY79"/>
     </row>
-    <row r="80" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="80" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
         <v>743</v>
       </c>
@@ -25451,7 +25450,7 @@
       <c r="FX80"/>
       <c r="FY80"/>
     </row>
-    <row r="81" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="81" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="48" t="s">
         <v>749</v>
       </c>
@@ -25683,7 +25682,7 @@
       <c r="FX81"/>
       <c r="FY81"/>
     </row>
-    <row r="82" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="82" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>755</v>
       </c>
@@ -25921,7 +25920,7 @@
       <c r="FX82"/>
       <c r="FY82"/>
     </row>
-    <row r="83" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="83" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>765</v>
       </c>
@@ -26165,7 +26164,7 @@
       <c r="FX83"/>
       <c r="FY83"/>
     </row>
-    <row r="84" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="84" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>774</v>
       </c>
@@ -26405,7 +26404,7 @@
       <c r="FX84"/>
       <c r="FY84"/>
     </row>
-    <row r="85" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="85" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="48" t="s">
         <v>781</v>
       </c>
@@ -26645,7 +26644,7 @@
       <c r="FX85"/>
       <c r="FY85"/>
     </row>
-    <row r="86" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="86" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>788</v>
       </c>
@@ -26889,7 +26888,7 @@
       <c r="FX86"/>
       <c r="FY86"/>
     </row>
-    <row r="87" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="87" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
         <v>796</v>
       </c>
@@ -27131,7 +27130,7 @@
       <c r="FX87"/>
       <c r="FY87"/>
     </row>
-    <row r="88" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="88" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>803</v>
       </c>
@@ -27375,7 +27374,7 @@
       <c r="FX88"/>
       <c r="FY88"/>
     </row>
-    <row r="89" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="89" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
         <v>812</v>
       </c>
@@ -27617,7 +27616,7 @@
       <c r="FX89"/>
       <c r="FY89"/>
     </row>
-    <row r="90" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="90" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>820</v>
       </c>
@@ -27861,7 +27860,7 @@
       <c r="FX90"/>
       <c r="FY90"/>
     </row>
-    <row r="91" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="91" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
         <v>829</v>
       </c>
@@ -28115,7 +28114,7 @@
       <c r="FX91"/>
       <c r="FY91"/>
     </row>
-    <row r="92" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="92" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>839</v>
       </c>
@@ -28345,7 +28344,7 @@
       <c r="FX92"/>
       <c r="FY92"/>
     </row>
-    <row r="93" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="93" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>845</v>
       </c>
@@ -28567,7 +28566,7 @@
       <c r="FX93"/>
       <c r="FY93"/>
     </row>
-    <row r="94" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="94" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="48" t="s">
         <v>853</v>
       </c>
@@ -28793,7 +28792,7 @@
       <c r="FX94"/>
       <c r="FY94"/>
     </row>
-    <row r="95" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="95" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
         <v>858</v>
       </c>
@@ -29013,7 +29012,7 @@
       <c r="FX95"/>
       <c r="FY95"/>
     </row>
-    <row r="96" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="96" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
         <v>863</v>
       </c>
@@ -29239,7 +29238,7 @@
       <c r="FX96"/>
       <c r="FY96"/>
     </row>
-    <row r="97" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="97" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>870</v>
       </c>
@@ -29448,7 +29447,7 @@
       <c r="FX97"/>
       <c r="FY97"/>
     </row>
-    <row r="98" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="98" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="48" t="s">
         <v>874</v>
       </c>
@@ -29688,7 +29687,7 @@
       <c r="FX98"/>
       <c r="FY98"/>
     </row>
-    <row r="99" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="99" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="48" t="s">
         <v>882</v>
       </c>
@@ -29912,7 +29911,7 @@
       <c r="FX99"/>
       <c r="FY99"/>
     </row>
-    <row r="100" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="100" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
         <v>889</v>
       </c>
@@ -30136,7 +30135,7 @@
       <c r="FX100"/>
       <c r="FY100"/>
     </row>
-    <row r="101" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="101" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>897</v>
       </c>
@@ -30360,7 +30359,7 @@
       <c r="FX101"/>
       <c r="FY101"/>
     </row>
-    <row r="102" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="102" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>905</v>
       </c>
@@ -30584,7 +30583,7 @@
       <c r="FX102"/>
       <c r="FY102"/>
     </row>
-    <row r="103" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="103" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="48" t="s">
         <v>913</v>
       </c>
@@ -30810,7 +30809,7 @@
       <c r="FX103"/>
       <c r="FY103"/>
     </row>
-    <row r="104" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="104" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>921</v>
       </c>
@@ -31036,7 +31035,7 @@
       <c r="FX104"/>
       <c r="FY104"/>
     </row>
-    <row r="105" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="105" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>926</v>
       </c>
@@ -31266,7 +31265,7 @@
       <c r="FX105"/>
       <c r="FY105"/>
     </row>
-    <row r="106" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="106" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>933</v>
       </c>
@@ -31496,7 +31495,7 @@
       <c r="FX106"/>
       <c r="FY106"/>
     </row>
-    <row r="107" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="107" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>939</v>
       </c>
@@ -31724,7 +31723,7 @@
       <c r="FX107"/>
       <c r="FY107"/>
     </row>
-    <row r="108" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="108" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
         <v>946</v>
       </c>
@@ -31954,7 +31953,7 @@
       <c r="FX108"/>
       <c r="FY108"/>
     </row>
-    <row r="109" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="109" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="48" t="s">
         <v>953</v>
       </c>
@@ -32178,7 +32177,7 @@
       <c r="FX109"/>
       <c r="FY109"/>
     </row>
-    <row r="110" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="110" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
         <v>960</v>
       </c>
@@ -32408,7 +32407,7 @@
       <c r="FX110"/>
       <c r="FY110"/>
     </row>
-    <row r="111" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="111" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="48" t="s">
         <v>967</v>
       </c>
@@ -32632,7 +32631,7 @@
       <c r="FX111"/>
       <c r="FY111"/>
     </row>
-    <row r="112" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="112" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="48" t="s">
         <v>974</v>
       </c>
@@ -32831,7 +32830,7 @@
       <c r="FX112"/>
       <c r="FY112"/>
     </row>
-    <row r="113" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="113" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
         <v>981</v>
       </c>
@@ -33030,7 +33029,7 @@
       <c r="FX113"/>
       <c r="FY113"/>
     </row>
-    <row r="114" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="114" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="48" t="s">
         <v>988</v>
       </c>
@@ -33229,7 +33228,7 @@
       <c r="FX114"/>
       <c r="FY114"/>
     </row>
-    <row r="115" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="115" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>994</v>
       </c>
@@ -33426,7 +33425,7 @@
       <c r="FX115"/>
       <c r="FY115"/>
     </row>
-    <row r="116" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="116" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>1000</v>
       </c>
@@ -33623,7 +33622,7 @@
       <c r="FX116"/>
       <c r="FY116"/>
     </row>
-    <row r="117" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="117" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
         <v>1006</v>
       </c>
@@ -33820,7 +33819,7 @@
       <c r="FX117"/>
       <c r="FY117"/>
     </row>
-    <row r="118" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="118" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>1012</v>
       </c>
@@ -34017,7 +34016,7 @@
       <c r="FX118"/>
       <c r="FY118"/>
     </row>
-    <row r="119" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="119" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
         <v>1018</v>
       </c>
@@ -34214,7 +34213,7 @@
       <c r="FX119"/>
       <c r="FY119"/>
     </row>
-    <row r="120" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="120" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="48" t="s">
         <v>1024</v>
       </c>
@@ -34413,7 +34412,7 @@
       <c r="FX120"/>
       <c r="FY120"/>
     </row>
-    <row r="121" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="121" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="48" t="s">
         <v>1030</v>
       </c>
@@ -34618,7 +34617,7 @@
       <c r="FX121"/>
       <c r="FY121"/>
     </row>
-    <row r="122" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="122" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
         <v>1038</v>
       </c>
@@ -34823,7 +34822,7 @@
       <c r="FX122"/>
       <c r="FY122"/>
     </row>
-    <row r="123" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="123" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="48" t="s">
         <v>1044</v>
       </c>
@@ -35026,7 +35025,7 @@
       <c r="FX123"/>
       <c r="FY123"/>
     </row>
-    <row r="124" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="124" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="48" t="s">
         <v>1051</v>
       </c>
@@ -35229,7 +35228,7 @@
       <c r="FX124"/>
       <c r="FY124"/>
     </row>
-    <row r="125" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="125" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="48" t="s">
         <v>1056</v>
       </c>
@@ -35428,7 +35427,7 @@
       <c r="FX125"/>
       <c r="FY125"/>
     </row>
-    <row r="126" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="126" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
         <v>1063</v>
       </c>
@@ -35637,7 +35636,7 @@
       <c r="FX126"/>
       <c r="FY126"/>
     </row>
-    <row r="127" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="127" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
         <v>1068</v>
       </c>
@@ -35840,7 +35839,7 @@
       <c r="FX127"/>
       <c r="FY127"/>
     </row>
-    <row r="128" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="128" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="48" t="s">
         <v>1073</v>
       </c>
@@ -36045,7 +36044,7 @@
       <c r="FX128"/>
       <c r="FY128"/>
     </row>
-    <row r="129" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="129" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="48" t="s">
         <v>1080</v>
       </c>
@@ -36250,7 +36249,7 @@
       <c r="FX129"/>
       <c r="FY129"/>
     </row>
-    <row r="130" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="130" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
         <v>1089</v>
       </c>
@@ -36453,7 +36452,7 @@
       <c r="FX130"/>
       <c r="FY130"/>
     </row>
-    <row r="131" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="131" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
         <v>1095</v>
       </c>
@@ -36656,7 +36655,7 @@
       <c r="FX131"/>
       <c r="FY131"/>
     </row>
-    <row r="132" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="132" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
         <v>1101</v>
       </c>
@@ -36859,7 +36858,7 @@
       <c r="FX132"/>
       <c r="FY132"/>
     </row>
-    <row r="133" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="133" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
         <v>1106</v>
       </c>
@@ -37064,7 +37063,7 @@
       <c r="FX133"/>
       <c r="FY133"/>
     </row>
-    <row r="134" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="134" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="48" t="s">
         <v>1114</v>
       </c>
@@ -37272,7 +37271,7 @@
       <c r="FX134"/>
       <c r="FY134"/>
     </row>
-    <row r="135" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="135" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>1121</v>
       </c>
@@ -37469,7 +37468,7 @@
       <c r="FX135"/>
       <c r="FY135"/>
     </row>
-    <row r="136" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="136" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="48" t="s">
         <v>1127</v>
       </c>
@@ -37666,7 +37665,7 @@
       <c r="FX136"/>
       <c r="FY136"/>
     </row>
-    <row r="137" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="137" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="48" t="s">
         <v>1133</v>
       </c>
@@ -37865,7 +37864,7 @@
       <c r="FX137"/>
       <c r="FY137"/>
     </row>
-    <row r="138" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="138" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="53" t="s">
         <v>1140</v>
       </c>
@@ -38028,7 +38027,7 @@
       <c r="FX138"/>
       <c r="FY138"/>
     </row>
-    <row r="139" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="139" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="53" t="s">
         <v>1144</v>
       </c>
@@ -38191,7 +38190,7 @@
       <c r="FX139"/>
       <c r="FY139"/>
     </row>
-    <row r="140" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="140" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="53" t="s">
         <v>1149</v>
       </c>
@@ -38354,7 +38353,7 @@
       <c r="FX140"/>
       <c r="FY140"/>
     </row>
-    <row r="141" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="141" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="53" t="s">
         <v>1153</v>
       </c>
@@ -38517,7 +38516,7 @@
       <c r="FX141"/>
       <c r="FY141"/>
     </row>
-    <row r="142" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="142" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="53" t="s">
         <v>736</v>
       </c>
@@ -38676,7 +38675,7 @@
       <c r="FX142"/>
       <c r="FY142"/>
     </row>
-    <row r="143" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="143" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="53" t="s">
         <v>1159</v>
       </c>
@@ -38852,7 +38851,7 @@
       <c r="FX143"/>
       <c r="FY143"/>
     </row>
-    <row r="144" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="144" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="53" t="s">
         <v>1167</v>
       </c>
@@ -39028,7 +39027,7 @@
       <c r="FX144"/>
       <c r="FY144"/>
     </row>
-    <row r="145" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="145" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="53" t="s">
         <v>1172</v>
       </c>
@@ -39204,7 +39203,7 @@
       <c r="FX145"/>
       <c r="FY145"/>
     </row>
-    <row r="146" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="146" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="53" t="s">
         <v>1177</v>
       </c>
@@ -39380,7 +39379,7 @@
       <c r="FX146"/>
       <c r="FY146"/>
     </row>
-    <row r="147" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="147" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="53" t="s">
         <v>1182</v>
       </c>
@@ -39556,7 +39555,7 @@
       <c r="FX147"/>
       <c r="FY147"/>
     </row>
-    <row r="148" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="148" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="53" t="s">
         <v>1187</v>
       </c>
@@ -39732,7 +39731,7 @@
       <c r="FX148"/>
       <c r="FY148"/>
     </row>
-    <row r="149" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="149" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="53" t="s">
         <v>1192</v>
       </c>
@@ -39908,7 +39907,7 @@
       <c r="FX149"/>
       <c r="FY149"/>
     </row>
-    <row r="150" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="150" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="53" t="s">
         <v>1197</v>
       </c>
@@ -40084,7 +40083,7 @@
       <c r="FX150"/>
       <c r="FY150"/>
     </row>
-    <row r="151" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="151" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="53" t="s">
         <v>1202</v>
       </c>
@@ -40260,7 +40259,7 @@
       <c r="FX151"/>
       <c r="FY151"/>
     </row>
-    <row r="152" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="152" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="53" t="s">
         <v>1207</v>
       </c>
@@ -40436,7 +40435,7 @@
       <c r="FX152"/>
       <c r="FY152"/>
     </row>
-    <row r="153" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="153" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="53" t="s">
         <v>1212</v>
       </c>
@@ -40612,7 +40611,7 @@
       <c r="FX153"/>
       <c r="FY153"/>
     </row>
-    <row r="154" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="154" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="53" t="s">
         <v>1217</v>
       </c>
@@ -40788,7 +40787,7 @@
       <c r="FX154"/>
       <c r="FY154"/>
     </row>
-    <row r="155" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="155" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="53" t="s">
         <v>1222</v>
       </c>
@@ -40964,7 +40963,7 @@
       <c r="FX155"/>
       <c r="FY155"/>
     </row>
-    <row r="156" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="156" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="53" t="s">
         <v>1227</v>
       </c>
@@ -41140,7 +41139,7 @@
       <c r="FX156"/>
       <c r="FY156"/>
     </row>
-    <row r="157" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="157" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="53" t="s">
         <v>1232</v>
       </c>
@@ -41366,7 +41365,7 @@
       <c r="FX157"/>
       <c r="FY157"/>
     </row>
-    <row r="158" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="158" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="53" t="str">
         <f>SUBSTITUTE(A143,"ictv","ncbi")</f>
         <v>ncbi_realm</v>
@@ -41537,7 +41536,7 @@
       <c r="FX158"/>
       <c r="FY158"/>
     </row>
-    <row r="159" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="159" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="53" t="s">
         <v>1243</v>
       </c>
@@ -41707,7 +41706,7 @@
       <c r="FX159"/>
       <c r="FY159"/>
     </row>
-    <row r="160" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="160" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="53" t="s">
         <v>1247</v>
       </c>
@@ -41905,7 +41904,7 @@
       <c r="FX160"/>
       <c r="FY160"/>
     </row>
-    <row r="161" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="161" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="53" t="s">
         <v>1252</v>
       </c>
@@ -42075,7 +42074,7 @@
       <c r="FX161"/>
       <c r="FY161"/>
     </row>
-    <row r="162" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="162" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="53" t="s">
         <v>1256</v>
       </c>
@@ -42273,7 +42272,7 @@
       <c r="FX162"/>
       <c r="FY162"/>
     </row>
-    <row r="163" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="163" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="53" t="s">
         <v>1261</v>
       </c>
@@ -42443,7 +42442,7 @@
       <c r="FX163"/>
       <c r="FY163"/>
     </row>
-    <row r="164" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="164" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="53" t="s">
         <v>1265</v>
       </c>
@@ -42641,7 +42640,7 @@
       <c r="FX164"/>
       <c r="FY164"/>
     </row>
-    <row r="165" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="165" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="53" t="s">
         <v>1270</v>
       </c>
@@ -42811,7 +42810,7 @@
       <c r="FX165"/>
       <c r="FY165"/>
     </row>
-    <row r="166" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="166" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="53" t="s">
         <v>1274</v>
       </c>
@@ -43009,7 +43008,7 @@
       <c r="FX166"/>
       <c r="FY166"/>
     </row>
-    <row r="167" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="167" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="53" t="s">
         <v>1279</v>
       </c>
@@ -43179,7 +43178,7 @@
       <c r="FX167"/>
       <c r="FY167"/>
     </row>
-    <row r="168" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="168" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="53" t="s">
         <v>1283</v>
       </c>
@@ -43414,7 +43413,7 @@
       <c r="FX168"/>
       <c r="FY168"/>
     </row>
-    <row r="169" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="169" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="53" t="s">
         <v>1290</v>
       </c>
@@ -43584,7 +43583,7 @@
       <c r="FX169"/>
       <c r="FY169"/>
     </row>
-    <row r="170" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="170" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="53" t="s">
         <v>1294</v>
       </c>
@@ -43819,7 +43818,7 @@
       <c r="FX170"/>
       <c r="FY170"/>
     </row>
-    <row r="171" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="171" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="53" t="s">
         <v>1301</v>
       </c>
@@ -43989,7 +43988,7 @@
       <c r="FX171"/>
       <c r="FY171"/>
     </row>
-    <row r="172" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="172" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="53" t="s">
         <v>1305</v>
       </c>
@@ -44234,7 +44233,7 @@
       <c r="FX172"/>
       <c r="FY172"/>
     </row>
-    <row r="173" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="173" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="48" t="s">
         <v>1315</v>
       </c>
@@ -44462,7 +44461,7 @@
       <c r="FX173"/>
       <c r="FY173"/>
     </row>
-    <row r="174" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="174" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="48" t="s">
         <v>1322</v>
       </c>
@@ -44706,7 +44705,7 @@
       <c r="FX174"/>
       <c r="FY174"/>
     </row>
-    <row r="175" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="175" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="48" t="s">
         <v>1331</v>
       </c>
@@ -44878,7 +44877,7 @@
       <c r="FX175"/>
       <c r="FY175"/>
     </row>
-    <row r="176" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="176" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="48" t="s">
         <v>1336</v>
       </c>
@@ -45106,7 +45105,7 @@
       <c r="FX176"/>
       <c r="FY176"/>
     </row>
-    <row r="177" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="177" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="53" t="s">
         <v>1344</v>
       </c>
@@ -45272,7 +45271,7 @@
       <c r="FX177"/>
       <c r="FY177"/>
     </row>
-    <row r="178" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="178" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="53" t="s">
         <v>1349</v>
       </c>
@@ -45523,7 +45522,7 @@
       <c r="FX178"/>
       <c r="FY178"/>
     </row>
-    <row r="179" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="179" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="53" t="s">
         <v>1357</v>
       </c>
@@ -45692,7 +45691,7 @@
       <c r="FX179"/>
       <c r="FY179"/>
     </row>
-    <row r="180" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="180" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="48" t="s">
         <v>1361</v>
       </c>
@@ -45924,7 +45923,7 @@
       <c r="FX180"/>
       <c r="FY180"/>
     </row>
-    <row r="181" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="181" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="53" t="s">
         <v>1369</v>
       </c>
@@ -46118,7 +46117,7 @@
       <c r="FX181"/>
       <c r="FY181"/>
     </row>
-    <row r="182" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="182" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="53" t="s">
         <v>1375</v>
       </c>
@@ -46284,7 +46283,7 @@
       <c r="FX182"/>
       <c r="FY182"/>
     </row>
-    <row r="183" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1">
+    <row r="183" spans="1:181" s="53" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="53" t="s">
         <v>1379</v>
       </c>
@@ -46297,8 +46296,8 @@
       <c r="D183" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="E183" s="53" t="s">
-        <v>167</v>
+      <c r="E183" s="48" t="s">
+        <v>61</v>
       </c>
       <c r="V183" s="48" t="str">
         <f t="shared" si="6"/>
@@ -46450,7 +46449,7 @@
       <c r="FX183"/>
       <c r="FY183"/>
     </row>
-    <row r="184" spans="1:181" ht="23.25" customHeight="1">
+    <row r="184" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1383</v>
       </c>
@@ -46483,7 +46482,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="185" spans="1:181" ht="23.25" customHeight="1">
+    <row r="185" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1388</v>
       </c>
@@ -46526,7 +46525,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="186" spans="1:181" ht="23.25" customHeight="1">
+    <row r="186" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1393</v>
       </c>
@@ -46565,7 +46564,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="1:181" ht="23.25" customHeight="1">
+    <row r="187" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1398</v>
       </c>
@@ -46607,7 +46606,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="188" spans="1:181" ht="23.25" customHeight="1">
+    <row r="188" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1403</v>
       </c>
@@ -46664,7 +46663,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="189" spans="1:181" ht="23.25" customHeight="1">
+    <row r="189" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1407</v>
       </c>
@@ -46695,7 +46694,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="190" spans="1:181" ht="23.25" customHeight="1">
+    <row r="190" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1410</v>
       </c>
@@ -46728,7 +46727,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="191" spans="1:181" ht="23.25" customHeight="1">
+    <row r="191" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1414</v>
       </c>
@@ -46761,7 +46760,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="192" spans="1:181" ht="23.25" customHeight="1">
+    <row r="192" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1419</v>
       </c>
@@ -46794,7 +46793,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="193" spans="1:53" ht="23.25" customHeight="1">
+    <row r="193" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1423</v>
       </c>
@@ -46822,7 +46821,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="194" spans="1:53" ht="23.25" customHeight="1">
+    <row r="194" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1428</v>
       </c>
@@ -46850,7 +46849,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="195" spans="1:53" ht="23.25" customHeight="1">
+    <row r="195" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1431</v>
       </c>
@@ -46884,7 +46883,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="196" spans="1:53" ht="23.25" customHeight="1">
+    <row r="196" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1435</v>
       </c>
@@ -46915,7 +46914,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="197" spans="1:53" ht="23.25" customHeight="1">
+    <row r="197" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1439</v>
       </c>
@@ -46957,7 +46956,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="198" spans="1:53" ht="23.25" customHeight="1">
+    <row r="198" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1443</v>
       </c>
@@ -46987,7 +46986,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:53" ht="23.25" customHeight="1">
+    <row r="199" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1447</v>
       </c>
@@ -47020,8 +47019,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="200" spans="1:53" ht="23.25" customHeight="1">
-      <c r="A200" s="68" t="s">
+    <row r="200" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="67" t="s">
         <v>1453</v>
       </c>
       <c r="B200" s="49" t="s">
@@ -47069,8 +47068,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="201" spans="1:53" ht="23.25" customHeight="1">
-      <c r="A201" s="69" t="s">
+    <row r="201" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="68" t="s">
         <v>1458</v>
       </c>
       <c r="B201" s="62" t="s">
@@ -47112,8 +47111,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="202" spans="1:53" ht="23.25" customHeight="1">
-      <c r="A202" s="70" t="s">
+    <row r="202" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="69" t="s">
         <v>1462</v>
       </c>
       <c r="B202" s="49" t="s">
@@ -47153,8 +47152,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="203" spans="1:53" ht="23.25" customHeight="1">
-      <c r="A203" s="70" t="s">
+    <row r="203" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="69" t="s">
         <v>1466</v>
       </c>
       <c r="B203" s="49" t="s">
@@ -47197,8 +47196,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="204" spans="1:53" ht="23.25" customHeight="1">
-      <c r="A204" s="70" t="s">
+    <row r="204" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="69" t="s">
         <v>1470</v>
       </c>
       <c r="B204" s="49" t="s">
@@ -47243,8 +47242,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="205" spans="1:53" ht="23.25" customHeight="1">
-      <c r="A205" s="70" t="s">
+    <row r="205" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="69" t="s">
         <v>1474</v>
       </c>
       <c r="B205" s="49" t="s">
@@ -47289,8 +47288,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="206" spans="1:53" ht="23.25" customHeight="1">
-      <c r="A206" s="70" t="s">
+    <row r="206" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="69" t="s">
         <v>1478</v>
       </c>
       <c r="B206" s="65" t="s">
@@ -47325,8 +47324,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="207" spans="1:53" ht="23.25" customHeight="1">
-      <c r="A207" s="70" t="s">
+    <row r="207" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="69" t="s">
         <v>1482</v>
       </c>
       <c r="B207" s="64" t="s">
@@ -47357,15 +47356,15 @@
       <c r="W207" t="s">
         <v>1451</v>
       </c>
-      <c r="AW207" s="67" t="s">
+      <c r="AW207" t="s">
         <v>1485</v>
       </c>
       <c r="AY207" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="208" spans="1:53" ht="23.25" customHeight="1">
-      <c r="A208" s="70" t="s">
+    <row r="208" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="69" t="s">
         <v>1486</v>
       </c>
       <c r="B208" t="s">
@@ -47393,7 +47392,7 @@
       <c r="W208" t="s">
         <v>14</v>
       </c>
-      <c r="AW208" s="67" t="s">
+      <c r="AW208" t="s">
         <v>1457</v>
       </c>
       <c r="AY208" t="s">
@@ -47406,8 +47405,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="209" spans="1:51" ht="23.25" customHeight="1">
-      <c r="A209" s="70" t="s">
+    <row r="209" spans="1:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="69" t="s">
         <v>1489</v>
       </c>
       <c r="B209" s="65" t="s">
@@ -47429,15 +47428,15 @@
       <c r="W209" t="s">
         <v>14</v>
       </c>
-      <c r="AW209" s="67" t="s">
+      <c r="AW209" t="s">
         <v>1492</v>
       </c>
       <c r="AY209" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="210" spans="1:51" ht="23.25" customHeight="1">
-      <c r="A210" s="70" t="s">
+    <row r="210" spans="1:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="69" t="s">
         <v>1493</v>
       </c>
       <c r="B210" s="49" t="s">
@@ -47472,15 +47471,15 @@
       </c>
       <c r="AU210" s="49"/>
       <c r="AV210" s="49"/>
-      <c r="AW210" s="67" t="s">
+      <c r="AW210" t="s">
         <v>1496</v>
       </c>
       <c r="AY210" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="211" spans="1:51" ht="23.25" customHeight="1">
-      <c r="A211" s="70" t="s">
+    <row r="211" spans="1:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="69" t="s">
         <v>1497</v>
       </c>
       <c r="B211" s="49" t="s">
@@ -47511,7 +47510,7 @@
       <c r="AT211" s="48" t="s">
         <v>406</v>
       </c>
-      <c r="AW211" s="67" t="s">
+      <c r="AW211" t="s">
         <v>1500</v>
       </c>
       <c r="AY211" t="s">
@@ -47543,12 +47542,12 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="40" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:172" s="19" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:172" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -47808,7 +47807,7 @@
       <c r="FO1" s="29"/>
       <c r="FP1" s="29"/>
     </row>
-    <row r="2" spans="1:172" s="19" customFormat="1" ht="23.25" customHeight="1">
+    <row r="2" spans="1:172" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -48068,7 +48067,7 @@
       <c r="FO2" s="29"/>
       <c r="FP2" s="29"/>
     </row>
-    <row r="3" spans="1:172" s="19" customFormat="1" ht="23.25" customHeight="1">
+    <row r="3" spans="1:172" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="str">
         <f t="shared" ref="A3:AQ3" si="0">_xlfn.TEXTJOIN(" ", TRUE, LOWER(A1), LOWER(A2))</f>
         <v>vjdbv0.3 field id</v>
@@ -48371,7 +48370,7 @@
       <c r="FO3" s="29"/>
       <c r="FP3" s="29"/>
     </row>
-    <row r="4" spans="1:172" s="22" customFormat="1" ht="23.25" customHeight="1">
+    <row r="4" spans="1:172" s="22" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="str">
         <f t="shared" ref="A4:AQ4" si="1">SUBSTITUTE(A3, " ", "_")</f>
         <v>vjdbv0.3_field_id</v>
@@ -48674,7 +48673,7 @@
       <c r="FO4" s="29"/>
       <c r="FP4" s="29"/>
     </row>
-    <row r="5" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="5" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -48741,7 +48740,7 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="27"/>
     </row>
-    <row r="6" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="6" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -48812,7 +48811,7 @@
       <c r="AN6" s="13"/>
       <c r="AO6" s="28"/>
     </row>
-    <row r="7" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="7" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -48881,7 +48880,7 @@
       <c r="AN7" s="13"/>
       <c r="AO7" s="28"/>
     </row>
-    <row r="8" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="8" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -48948,7 +48947,7 @@
       <c r="AN8" s="13"/>
       <c r="AO8" s="28"/>
     </row>
-    <row r="9" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="9" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -49015,7 +49014,7 @@
       <c r="AN9" s="13"/>
       <c r="AO9" s="28"/>
     </row>
-    <row r="10" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="10" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -49086,7 +49085,7 @@
       <c r="AN10" s="13"/>
       <c r="AO10" s="28"/>
     </row>
-    <row r="11" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="11" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -49157,7 +49156,7 @@
       <c r="AN11" s="13"/>
       <c r="AO11" s="28"/>
     </row>
-    <row r="12" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="12" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -49224,7 +49223,7 @@
       <c r="AN12" s="13"/>
       <c r="AO12" s="28"/>
     </row>
-    <row r="13" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="13" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -49291,7 +49290,7 @@
       <c r="AN13" s="13"/>
       <c r="AO13" s="28"/>
     </row>
-    <row r="14" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="14" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -49364,7 +49363,7 @@
       <c r="AN14" s="13"/>
       <c r="AO14" s="28"/>
     </row>
-    <row r="15" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="15" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -49433,7 +49432,7 @@
       <c r="AN15" s="13"/>
       <c r="AO15" s="28"/>
     </row>
-    <row r="16" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="16" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -49500,7 +49499,7 @@
       <c r="AN16" s="13"/>
       <c r="AO16" s="28"/>
     </row>
-    <row r="17" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="17" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -49573,7 +49572,7 @@
       <c r="AN17" s="13"/>
       <c r="AO17" s="28"/>
     </row>
-    <row r="18" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="18" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -49646,7 +49645,7 @@
       <c r="AN18" s="13"/>
       <c r="AO18" s="28"/>
     </row>
-    <row r="19" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="19" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -49719,7 +49718,7 @@
       <c r="AN19" s="13"/>
       <c r="AO19" s="28"/>
     </row>
-    <row r="20" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="20" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -49790,7 +49789,7 @@
       <c r="AN20" s="13"/>
       <c r="AO20" s="28"/>
     </row>
-    <row r="21" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="21" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -49835,7 +49834,7 @@
       <c r="AN21" s="13"/>
       <c r="AO21" s="28"/>
     </row>
-    <row r="22" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="22" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -49908,7 +49907,7 @@
       <c r="AN22" s="13"/>
       <c r="AO22" s="28"/>
     </row>
-    <row r="23" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="23" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -49981,7 +49980,7 @@
       <c r="AN23" s="13"/>
       <c r="AO23" s="28"/>
     </row>
-    <row r="24" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="24" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -50052,7 +50051,7 @@
       <c r="AN24" s="13"/>
       <c r="AO24" s="28"/>
     </row>
-    <row r="25" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="25" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -50119,7 +50118,7 @@
       <c r="AN25" s="13"/>
       <c r="AO25" s="28"/>
     </row>
-    <row r="26" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="26" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -50190,7 +50189,7 @@
       <c r="AN26" s="13"/>
       <c r="AO26" s="28"/>
     </row>
-    <row r="27" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="27" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -50263,7 +50262,7 @@
       <c r="AN27" s="13"/>
       <c r="AO27" s="28"/>
     </row>
-    <row r="28" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="28" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -50336,7 +50335,7 @@
       <c r="AN28" s="13"/>
       <c r="AO28" s="28"/>
     </row>
-    <row r="29" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="29" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -50409,7 +50408,7 @@
       <c r="AN29" s="13"/>
       <c r="AO29" s="28"/>
     </row>
-    <row r="30" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="30" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -50478,7 +50477,7 @@
       <c r="AN30" s="13"/>
       <c r="AO30" s="28"/>
     </row>
-    <row r="31" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="31" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -50547,7 +50546,7 @@
       <c r="AN31" s="13"/>
       <c r="AO31" s="28"/>
     </row>
-    <row r="32" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="32" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -50618,7 +50617,7 @@
       <c r="AN32" s="13"/>
       <c r="AO32" s="28"/>
     </row>
-    <row r="33" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="33" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -50685,7 +50684,7 @@
       <c r="AN33" s="13"/>
       <c r="AO33" s="28"/>
     </row>
-    <row r="34" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="34" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -50756,7 +50755,7 @@
       <c r="AN34" s="13"/>
       <c r="AO34" s="28"/>
     </row>
-    <row r="35" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="35" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -50825,7 +50824,7 @@
       <c r="AN35" s="13"/>
       <c r="AO35" s="28"/>
     </row>
-    <row r="36" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="36" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -50892,7 +50891,7 @@
       <c r="AN36" s="13"/>
       <c r="AO36" s="28"/>
     </row>
-    <row r="37" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="37" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -50965,7 +50964,7 @@
       <c r="AN37" s="13"/>
       <c r="AO37" s="28"/>
     </row>
-    <row r="38" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="38" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -51038,7 +51037,7 @@
       <c r="AN38" s="13"/>
       <c r="AO38" s="28"/>
     </row>
-    <row r="39" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="39" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -51111,7 +51110,7 @@
       <c r="AN39" s="13"/>
       <c r="AO39" s="28"/>
     </row>
-    <row r="40" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="40" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -51182,7 +51181,7 @@
       <c r="AN40" s="13"/>
       <c r="AO40" s="28"/>
     </row>
-    <row r="41" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="41" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -51255,7 +51254,7 @@
       <c r="AN41" s="13"/>
       <c r="AO41" s="28"/>
     </row>
-    <row r="42" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="42" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -51322,7 +51321,7 @@
       <c r="AN42" s="13"/>
       <c r="AO42" s="28"/>
     </row>
-    <row r="43" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="43" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -51393,7 +51392,7 @@
       <c r="AN43" s="13"/>
       <c r="AO43" s="28"/>
     </row>
-    <row r="44" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="44" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -51464,7 +51463,7 @@
       <c r="AN44" s="13"/>
       <c r="AO44" s="28"/>
     </row>
-    <row r="45" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="45" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -51535,7 +51534,7 @@
       <c r="AN45" s="13"/>
       <c r="AO45" s="28"/>
     </row>
-    <row r="46" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="46" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -51602,7 +51601,7 @@
       <c r="AN46" s="13"/>
       <c r="AO46" s="28"/>
     </row>
-    <row r="47" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="47" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -51673,7 +51672,7 @@
       <c r="AN47" s="13"/>
       <c r="AO47" s="28"/>
     </row>
-    <row r="48" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="48" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -51740,7 +51739,7 @@
       <c r="AN48" s="13"/>
       <c r="AO48" s="28"/>
     </row>
-    <row r="49" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="49" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -51811,7 +51810,7 @@
       <c r="AN49" s="13"/>
       <c r="AO49" s="28"/>
     </row>
-    <row r="50" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="50" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -51878,7 +51877,7 @@
       <c r="AN50" s="13"/>
       <c r="AO50" s="28"/>
     </row>
-    <row r="51" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="51" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -51947,7 +51946,7 @@
       <c r="AN51" s="13"/>
       <c r="AO51" s="28"/>
     </row>
-    <row r="52" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="52" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -52016,7 +52015,7 @@
       <c r="AN52" s="13"/>
       <c r="AO52" s="28"/>
     </row>
-    <row r="53" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="53" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -52089,7 +52088,7 @@
       <c r="AN53" s="13"/>
       <c r="AO53" s="28"/>
     </row>
-    <row r="54" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="54" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -52158,7 +52157,7 @@
       <c r="AN54" s="13"/>
       <c r="AO54" s="28"/>
     </row>
-    <row r="55" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="55" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -52231,7 +52230,7 @@
       <c r="AN55" s="13"/>
       <c r="AO55" s="28"/>
     </row>
-    <row r="56" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="56" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -52255,7 +52254,7 @@
       <c r="AN56" s="13"/>
       <c r="AO56" s="28"/>
     </row>
-    <row r="57" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="57" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -52324,7 +52323,7 @@
       <c r="AN57" s="13"/>
       <c r="AO57" s="28"/>
     </row>
-    <row r="58" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="58" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -52393,7 +52392,7 @@
       <c r="AN58" s="13"/>
       <c r="AO58" s="28"/>
     </row>
-    <row r="59" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="59" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -52466,7 +52465,7 @@
       <c r="AN59" s="13"/>
       <c r="AO59" s="28"/>
     </row>
-    <row r="60" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="60" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -52535,7 +52534,7 @@
       <c r="AN60" s="13"/>
       <c r="AO60" s="28"/>
     </row>
-    <row r="61" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="61" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -52606,7 +52605,7 @@
       <c r="AN61" s="13"/>
       <c r="AO61" s="28"/>
     </row>
-    <row r="62" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="62" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -52673,7 +52672,7 @@
       <c r="AN62" s="13"/>
       <c r="AO62" s="28"/>
     </row>
-    <row r="63" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="63" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -52744,7 +52743,7 @@
       <c r="AN63" s="13"/>
       <c r="AO63" s="28"/>
     </row>
-    <row r="64" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="64" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -52811,7 +52810,7 @@
       <c r="AN64" s="13"/>
       <c r="AO64" s="28"/>
     </row>
-    <row r="65" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="65" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -52880,7 +52879,7 @@
       <c r="AN65" s="13"/>
       <c r="AO65" s="28"/>
     </row>
-    <row r="66" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="66" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -52947,7 +52946,7 @@
       <c r="AN66" s="13"/>
       <c r="AO66" s="28"/>
     </row>
-    <row r="67" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="67" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -52971,7 +52970,7 @@
       <c r="AN67" s="13"/>
       <c r="AO67" s="28"/>
     </row>
-    <row r="68" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="68" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -53038,7 +53037,7 @@
       <c r="AN68" s="13"/>
       <c r="AO68" s="28"/>
     </row>
-    <row r="69" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="69" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -53109,7 +53108,7 @@
       <c r="AN69" s="13"/>
       <c r="AO69" s="28"/>
     </row>
-    <row r="70" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="70" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -53182,7 +53181,7 @@
       <c r="AN70" s="13"/>
       <c r="AO70" s="28"/>
     </row>
-    <row r="71" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="71" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -53253,7 +53252,7 @@
       <c r="AN71" s="13"/>
       <c r="AO71" s="28"/>
     </row>
-    <row r="72" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="72" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -53324,7 +53323,7 @@
       <c r="AN72" s="13"/>
       <c r="AO72" s="28"/>
     </row>
-    <row r="73" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="73" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -53393,7 +53392,7 @@
       <c r="AN73" s="13"/>
       <c r="AO73" s="28"/>
     </row>
-    <row r="74" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="74" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -53466,7 +53465,7 @@
       <c r="AN74" s="13"/>
       <c r="AO74" s="28"/>
     </row>
-    <row r="75" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="75" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -53533,7 +53532,7 @@
       <c r="AN75" s="13"/>
       <c r="AO75" s="28"/>
     </row>
-    <row r="76" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="76" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -53600,7 +53599,7 @@
       <c r="AN76" s="13"/>
       <c r="AO76" s="28"/>
     </row>
-    <row r="77" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="77" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -53669,7 +53668,7 @@
       <c r="AN77" s="13"/>
       <c r="AO77" s="28"/>
     </row>
-    <row r="78" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="78" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -53738,7 +53737,7 @@
       <c r="AN78" s="13"/>
       <c r="AO78" s="28"/>
     </row>
-    <row r="79" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="79" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -53809,7 +53808,7 @@
       <c r="AN79" s="13"/>
       <c r="AO79" s="28"/>
     </row>
-    <row r="80" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="80" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -53880,7 +53879,7 @@
       <c r="AN80" s="13"/>
       <c r="AO80" s="28"/>
     </row>
-    <row r="81" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="81" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -53949,7 +53948,7 @@
       <c r="AN81" s="13"/>
       <c r="AO81" s="28"/>
     </row>
-    <row r="82" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="82" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -54020,7 +54019,7 @@
       <c r="AN82" s="13"/>
       <c r="AO82" s="28"/>
     </row>
-    <row r="83" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="83" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -54087,7 +54086,7 @@
       <c r="AN83" s="13"/>
       <c r="AO83" s="28"/>
     </row>
-    <row r="84" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="84" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -54132,7 +54131,7 @@
       <c r="AN84" s="13"/>
       <c r="AO84" s="28"/>
     </row>
-    <row r="85" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="85" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -54205,7 +54204,7 @@
       <c r="AN85" s="13"/>
       <c r="AO85" s="28"/>
     </row>
-    <row r="86" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="86" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -54274,7 +54273,7 @@
       <c r="AN86" s="13"/>
       <c r="AO86" s="28"/>
     </row>
-    <row r="87" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="87" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -54343,7 +54342,7 @@
       <c r="AN87" s="13"/>
       <c r="AO87" s="28"/>
     </row>
-    <row r="88" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="88" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -54416,7 +54415,7 @@
       <c r="AN88" s="13"/>
       <c r="AO88" s="28"/>
     </row>
-    <row r="89" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="89" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -54483,7 +54482,7 @@
       <c r="AN89" s="13"/>
       <c r="AO89" s="28"/>
     </row>
-    <row r="90" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="90" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -54550,7 +54549,7 @@
       <c r="AN90" s="13"/>
       <c r="AO90" s="28"/>
     </row>
-    <row r="91" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="91" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -54619,7 +54618,7 @@
       <c r="AN91" s="13"/>
       <c r="AO91" s="28"/>
     </row>
-    <row r="92" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="92" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -54686,7 +54685,7 @@
       <c r="AN92" s="13"/>
       <c r="AO92" s="28"/>
     </row>
-    <row r="93" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="93" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -54759,7 +54758,7 @@
       <c r="AN93" s="13"/>
       <c r="AO93" s="28"/>
     </row>
-    <row r="94" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="94" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -54826,7 +54825,7 @@
       <c r="AN94" s="13"/>
       <c r="AO94" s="28"/>
     </row>
-    <row r="95" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="95" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -54899,7 +54898,7 @@
       <c r="AN95" s="13"/>
       <c r="AO95" s="28"/>
     </row>
-    <row r="96" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="96" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -54970,7 +54969,7 @@
       <c r="AN96" s="13"/>
       <c r="AO96" s="28"/>
     </row>
-    <row r="97" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="97" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -55039,7 +55038,7 @@
       <c r="AN97" s="13"/>
       <c r="AO97" s="28"/>
     </row>
-    <row r="98" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="98" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -55110,7 +55109,7 @@
       <c r="AN98" s="13"/>
       <c r="AO98" s="28"/>
     </row>
-    <row r="99" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="99" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -55181,7 +55180,7 @@
       <c r="AN99" s="13"/>
       <c r="AO99" s="28"/>
     </row>
-    <row r="100" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="100" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -55248,7 +55247,7 @@
       <c r="AN100" s="13"/>
       <c r="AO100" s="28"/>
     </row>
-    <row r="101" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="101" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -55321,7 +55320,7 @@
       <c r="AN101" s="13"/>
       <c r="AO101" s="28"/>
     </row>
-    <row r="102" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="102" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -55392,7 +55391,7 @@
       <c r="AN102" s="13"/>
       <c r="AO102" s="28"/>
     </row>
-    <row r="103" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="103" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -55463,7 +55462,7 @@
       <c r="AN103" s="13"/>
       <c r="AO103" s="28"/>
     </row>
-    <row r="104" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="104" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -55534,7 +55533,7 @@
       <c r="AN104" s="13"/>
       <c r="AO104" s="28"/>
     </row>
-    <row r="105" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="105" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -55607,7 +55606,7 @@
       <c r="AN105" s="13"/>
       <c r="AO105" s="28"/>
     </row>
-    <row r="106" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="106" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -55635,7 +55634,7 @@
       <c r="AN106" s="13"/>
       <c r="AO106" s="28"/>
     </row>
-    <row r="107" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="107" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -55702,7 +55701,7 @@
       <c r="AN107" s="13"/>
       <c r="AO107" s="28"/>
     </row>
-    <row r="108" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="108" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -55769,7 +55768,7 @@
       <c r="AN108" s="13"/>
       <c r="AO108" s="28"/>
     </row>
-    <row r="109" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="109" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -55842,7 +55841,7 @@
       <c r="AN109" s="13"/>
       <c r="AO109" s="28"/>
     </row>
-    <row r="110" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="110" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -55913,7 +55912,7 @@
       <c r="AN110" s="13"/>
       <c r="AO110" s="28"/>
     </row>
-    <row r="111" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="111" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -55980,7 +55979,7 @@
       <c r="AN111" s="13"/>
       <c r="AO111" s="28"/>
     </row>
-    <row r="112" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="112" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -56049,7 +56048,7 @@
       <c r="AN112" s="13"/>
       <c r="AO112" s="28"/>
     </row>
-    <row r="113" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="113" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -56118,7 +56117,7 @@
       <c r="AN113" s="13"/>
       <c r="AO113" s="28"/>
     </row>
-    <row r="114" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="114" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -56185,7 +56184,7 @@
       <c r="AN114" s="13"/>
       <c r="AO114" s="28"/>
     </row>
-    <row r="115" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="115" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="34"/>
       <c r="B115" s="34"/>
       <c r="C115" s="34"/>
@@ -56384,7 +56383,7 @@
       <c r="FP115" s="37"/>
       <c r="FQ115" s="37"/>
     </row>
-    <row r="116" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="116" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="34"/>
       <c r="B116" s="34"/>
       <c r="C116" s="34"/>
@@ -56589,7 +56588,7 @@
       <c r="FP116" s="37"/>
       <c r="FQ116" s="37"/>
     </row>
-    <row r="117" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="117" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="34"/>
       <c r="B117" s="34"/>
       <c r="C117" s="34"/>
@@ -56792,7 +56791,7 @@
       <c r="FP117" s="37"/>
       <c r="FQ117" s="37"/>
     </row>
-    <row r="118" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="118" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="38" t="s">
         <v>1665</v>
       </c>
@@ -57015,7 +57014,7 @@
       <c r="FP118" s="39"/>
       <c r="FQ118" s="39"/>
     </row>
-    <row r="119" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="119" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="38" t="s">
         <v>1671</v>
       </c>
@@ -57238,7 +57237,7 @@
       <c r="FP119" s="39"/>
       <c r="FQ119" s="39"/>
     </row>
-    <row r="120" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="120" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="38" t="s">
         <v>1675</v>
       </c>
@@ -57461,7 +57460,7 @@
       <c r="FP120" s="39"/>
       <c r="FQ120" s="39"/>
     </row>
-    <row r="121" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="121" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="38" t="s">
         <v>1680</v>
       </c>
@@ -57684,7 +57683,7 @@
       <c r="FP121" s="39"/>
       <c r="FQ121" s="39"/>
     </row>
-    <row r="122" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="122" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="38" t="s">
         <v>1671</v>
       </c>
@@ -57907,7 +57906,7 @@
       <c r="FP122" s="39"/>
       <c r="FQ122" s="39"/>
     </row>
-    <row r="123" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="123" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="32" t="s">
         <v>1685</v>
       </c>
@@ -58130,7 +58129,7 @@
       <c r="FP123" s="42"/>
       <c r="FQ123" s="42"/>
     </row>
-    <row r="124" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="124" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="32" t="s">
         <v>1690</v>
       </c>
@@ -58353,7 +58352,7 @@
       <c r="FP124" s="42"/>
       <c r="FQ124" s="42"/>
     </row>
-    <row r="125" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="125" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -58407,7 +58406,7 @@
       <c r="AM125" s="13"/>
       <c r="AN125" s="28"/>
     </row>
-    <row r="126" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="126" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -58461,7 +58460,7 @@
       <c r="AM126" s="13"/>
       <c r="AN126" s="28"/>
     </row>
-    <row r="127" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="127" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -58515,7 +58514,7 @@
       <c r="AM127" s="13"/>
       <c r="AN127" s="28"/>
     </row>
-    <row r="128" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="128" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -58569,7 +58568,7 @@
       <c r="AM128" s="13"/>
       <c r="AN128" s="28"/>
     </row>
-    <row r="129" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="129" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -58623,7 +58622,7 @@
       <c r="AM129" s="13"/>
       <c r="AN129" s="28"/>
     </row>
-    <row r="130" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="130" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -58677,7 +58676,7 @@
       <c r="AM130" s="13"/>
       <c r="AN130" s="28"/>
     </row>
-    <row r="131" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="131" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -58731,7 +58730,7 @@
       <c r="AM131" s="13"/>
       <c r="AN131" s="28"/>
     </row>
-    <row r="132" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="132" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -58785,7 +58784,7 @@
       <c r="AM132" s="13"/>
       <c r="AN132" s="28"/>
     </row>
-    <row r="133" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="133" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -58839,7 +58838,7 @@
       <c r="AM133" s="13"/>
       <c r="AN133" s="28"/>
     </row>
-    <row r="134" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="134" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -58893,7 +58892,7 @@
       <c r="AM134" s="13"/>
       <c r="AN134" s="28"/>
     </row>
-    <row r="135" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="135" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -58947,7 +58946,7 @@
       <c r="AM135" s="13"/>
       <c r="AN135" s="28"/>
     </row>
-    <row r="136" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="136" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -59001,7 +59000,7 @@
       <c r="AM136" s="13"/>
       <c r="AN136" s="28"/>
     </row>
-    <row r="137" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="137" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -59055,7 +59054,7 @@
       <c r="AM137" s="13"/>
       <c r="AN137" s="28"/>
     </row>
-    <row r="138" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="138" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -59109,7 +59108,7 @@
       <c r="AM138" s="13"/>
       <c r="AN138" s="28"/>
     </row>
-    <row r="139" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="139" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -59163,7 +59162,7 @@
       <c r="AM139" s="13"/>
       <c r="AN139" s="28"/>
     </row>
-    <row r="140" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="140" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -59217,7 +59216,7 @@
       <c r="AM140" s="13"/>
       <c r="AN140" s="28"/>
     </row>
-    <row r="141" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="141" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -59271,7 +59270,7 @@
       <c r="AM141" s="13"/>
       <c r="AN141" s="28"/>
     </row>
-    <row r="142" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="142" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -59325,7 +59324,7 @@
       <c r="AM142" s="13"/>
       <c r="AN142" s="28"/>
     </row>
-    <row r="143" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="143" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -59379,7 +59378,7 @@
       <c r="AM143" s="13"/>
       <c r="AN143" s="28"/>
     </row>
-    <row r="144" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="144" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -59433,7 +59432,7 @@
       <c r="AM144" s="13"/>
       <c r="AN144" s="28"/>
     </row>
-    <row r="145" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="145" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -59487,7 +59486,7 @@
       <c r="AM145" s="13"/>
       <c r="AN145" s="28"/>
     </row>
-    <row r="146" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="146" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -59541,7 +59540,7 @@
       <c r="AM146" s="13"/>
       <c r="AN146" s="28"/>
     </row>
-    <row r="147" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="147" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -59595,7 +59594,7 @@
       <c r="AM147" s="13"/>
       <c r="AN147" s="28"/>
     </row>
-    <row r="148" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="148" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -59649,7 +59648,7 @@
       <c r="AM148" s="13"/>
       <c r="AN148" s="28"/>
     </row>
-    <row r="149" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="149" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -59703,7 +59702,7 @@
       <c r="AM149" s="13"/>
       <c r="AN149" s="28"/>
     </row>
-    <row r="150" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="150" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -59757,7 +59756,7 @@
       <c r="AM150" s="13"/>
       <c r="AN150" s="28"/>
     </row>
-    <row r="151" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="151" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -59811,7 +59810,7 @@
       <c r="AM151" s="13"/>
       <c r="AN151" s="28"/>
     </row>
-    <row r="152" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="152" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -59865,7 +59864,7 @@
       <c r="AM152" s="13"/>
       <c r="AN152" s="28"/>
     </row>
-    <row r="153" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="153" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -59919,7 +59918,7 @@
       <c r="AM153" s="13"/>
       <c r="AN153" s="28"/>
     </row>
-    <row r="154" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="154" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -59973,7 +59972,7 @@
       <c r="AM154" s="13"/>
       <c r="AN154" s="28"/>
     </row>
-    <row r="155" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="155" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -60027,7 +60026,7 @@
       <c r="AM155" s="13"/>
       <c r="AN155" s="28"/>
     </row>
-    <row r="156" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="156" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -60081,7 +60080,7 @@
       <c r="AM156" s="13"/>
       <c r="AN156" s="28"/>
     </row>
-    <row r="157" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="157" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -60135,7 +60134,7 @@
       <c r="AM157" s="13"/>
       <c r="AN157" s="28"/>
     </row>
-    <row r="158" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="158" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -60189,7 +60188,7 @@
       <c r="AM158" s="13"/>
       <c r="AN158" s="28"/>
     </row>
-    <row r="159" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="159" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -60243,7 +60242,7 @@
       <c r="AM159" s="13"/>
       <c r="AN159" s="28"/>
     </row>
-    <row r="160" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="160" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -60297,7 +60296,7 @@
       <c r="AM160" s="13"/>
       <c r="AN160" s="28"/>
     </row>
-    <row r="161" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="161" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -60351,7 +60350,7 @@
       <c r="AM161" s="13"/>
       <c r="AN161" s="28"/>
     </row>
-    <row r="162" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="162" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -60405,7 +60404,7 @@
       <c r="AM162" s="13"/>
       <c r="AN162" s="28"/>
     </row>
-    <row r="163" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="163" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -60459,7 +60458,7 @@
       <c r="AM163" s="13"/>
       <c r="AN163" s="28"/>
     </row>
-    <row r="164" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="164" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -60513,7 +60512,7 @@
       <c r="AM164" s="13"/>
       <c r="AN164" s="28"/>
     </row>
-    <row r="165" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="165" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -60567,7 +60566,7 @@
       <c r="AM165" s="13"/>
       <c r="AN165" s="28"/>
     </row>
-    <row r="166" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="166" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -60621,7 +60620,7 @@
       <c r="AM166" s="13"/>
       <c r="AN166" s="28"/>
     </row>
-    <row r="167" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="167" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -60675,7 +60674,7 @@
       <c r="AM167" s="13"/>
       <c r="AN167" s="28"/>
     </row>
-    <row r="168" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="168" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -60729,7 +60728,7 @@
       <c r="AM168" s="13"/>
       <c r="AN168" s="28"/>
     </row>
-    <row r="169" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="169" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -60783,7 +60782,7 @@
       <c r="AM169" s="13"/>
       <c r="AN169" s="28"/>
     </row>
-    <row r="170" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="170" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -60837,7 +60836,7 @@
       <c r="AM170" s="13"/>
       <c r="AN170" s="28"/>
     </row>
-    <row r="171" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="171" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -60891,7 +60890,7 @@
       <c r="AM171" s="13"/>
       <c r="AN171" s="28"/>
     </row>
-    <row r="172" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="172" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -60945,7 +60944,7 @@
       <c r="AM172" s="13"/>
       <c r="AN172" s="28"/>
     </row>
-    <row r="173" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="173" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -60999,7 +60998,7 @@
       <c r="AM173" s="13"/>
       <c r="AN173" s="28"/>
     </row>
-    <row r="174" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="174" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -61053,7 +61052,7 @@
       <c r="AM174" s="13"/>
       <c r="AN174" s="28"/>
     </row>
-    <row r="175" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="175" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -61107,7 +61106,7 @@
       <c r="AM175" s="13"/>
       <c r="AN175" s="28"/>
     </row>
-    <row r="176" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="176" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -61161,7 +61160,7 @@
       <c r="AM176" s="13"/>
       <c r="AN176" s="28"/>
     </row>
-    <row r="177" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="177" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -61215,7 +61214,7 @@
       <c r="AM177" s="13"/>
       <c r="AN177" s="28"/>
     </row>
-    <row r="178" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="178" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -61269,7 +61268,7 @@
       <c r="AM178" s="13"/>
       <c r="AN178" s="28"/>
     </row>
-    <row r="179" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="179" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -61323,7 +61322,7 @@
       <c r="AM179" s="13"/>
       <c r="AN179" s="28"/>
     </row>
-    <row r="180" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="180" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -61377,7 +61376,7 @@
       <c r="AM180" s="13"/>
       <c r="AN180" s="28"/>
     </row>
-    <row r="181" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="181" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -61431,7 +61430,7 @@
       <c r="AM181" s="13"/>
       <c r="AN181" s="28"/>
     </row>
-    <row r="182" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="182" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -61485,7 +61484,7 @@
       <c r="AM182" s="13"/>
       <c r="AN182" s="28"/>
     </row>
-    <row r="183" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="183" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -61539,7 +61538,7 @@
       <c r="AM183" s="13"/>
       <c r="AN183" s="28"/>
     </row>
-    <row r="184" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="184" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -61593,7 +61592,7 @@
       <c r="AM184" s="13"/>
       <c r="AN184" s="28"/>
     </row>
-    <row r="185" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="185" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -61647,7 +61646,7 @@
       <c r="AM185" s="13"/>
       <c r="AN185" s="28"/>
     </row>
-    <row r="186" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="186" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -61701,7 +61700,7 @@
       <c r="AM186" s="13"/>
       <c r="AN186" s="28"/>
     </row>
-    <row r="187" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="187" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -61755,7 +61754,7 @@
       <c r="AM187" s="13"/>
       <c r="AN187" s="28"/>
     </row>
-    <row r="188" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="188" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -61809,7 +61808,7 @@
       <c r="AM188" s="13"/>
       <c r="AN188" s="28"/>
     </row>
-    <row r="189" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="189" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -61863,7 +61862,7 @@
       <c r="AM189" s="13"/>
       <c r="AN189" s="28"/>
     </row>
-    <row r="190" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="190" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -61917,7 +61916,7 @@
       <c r="AM190" s="13"/>
       <c r="AN190" s="28"/>
     </row>
-    <row r="191" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="191" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -61971,7 +61970,7 @@
       <c r="AM191" s="13"/>
       <c r="AN191" s="28"/>
     </row>
-    <row r="192" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="192" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -62025,7 +62024,7 @@
       <c r="AM192" s="13"/>
       <c r="AN192" s="28"/>
     </row>
-    <row r="193" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="193" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -62079,7 +62078,7 @@
       <c r="AM193" s="13"/>
       <c r="AN193" s="28"/>
     </row>
-    <row r="194" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="194" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -62133,7 +62132,7 @@
       <c r="AM194" s="13"/>
       <c r="AN194" s="28"/>
     </row>
-    <row r="195" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="195" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -62187,7 +62186,7 @@
       <c r="AM195" s="13"/>
       <c r="AN195" s="28"/>
     </row>
-    <row r="196" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="196" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -62241,7 +62240,7 @@
       <c r="AM196" s="13"/>
       <c r="AN196" s="28"/>
     </row>
-    <row r="197" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="197" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -62295,7 +62294,7 @@
       <c r="AM197" s="13"/>
       <c r="AN197" s="28"/>
     </row>
-    <row r="198" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="198" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -62349,7 +62348,7 @@
       <c r="AM198" s="13"/>
       <c r="AN198" s="28"/>
     </row>
-    <row r="199" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="199" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -62403,7 +62402,7 @@
       <c r="AM199" s="13"/>
       <c r="AN199" s="28"/>
     </row>
-    <row r="200" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="200" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -62457,7 +62456,7 @@
       <c r="AM200" s="13"/>
       <c r="AN200" s="28"/>
     </row>
-    <row r="201" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="201" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -62511,7 +62510,7 @@
       <c r="AM201" s="13"/>
       <c r="AN201" s="28"/>
     </row>
-    <row r="202" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="202" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -62565,7 +62564,7 @@
       <c r="AM202" s="13"/>
       <c r="AN202" s="28"/>
     </row>
-    <row r="203" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="203" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -62619,7 +62618,7 @@
       <c r="AM203" s="13"/>
       <c r="AN203" s="28"/>
     </row>
-    <row r="204" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="204" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -62673,7 +62672,7 @@
       <c r="AM204" s="13"/>
       <c r="AN204" s="28"/>
     </row>
-    <row r="205" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="205" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -62727,7 +62726,7 @@
       <c r="AM205" s="13"/>
       <c r="AN205" s="28"/>
     </row>
-    <row r="206" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="206" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -62781,7 +62780,7 @@
       <c r="AM206" s="13"/>
       <c r="AN206" s="28"/>
     </row>
-    <row r="207" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="207" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -62835,7 +62834,7 @@
       <c r="AM207" s="13"/>
       <c r="AN207" s="28"/>
     </row>
-    <row r="208" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="208" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -62889,7 +62888,7 @@
       <c r="AM208" s="13"/>
       <c r="AN208" s="28"/>
     </row>
-    <row r="209" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="209" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -62943,7 +62942,7 @@
       <c r="AM209" s="13"/>
       <c r="AN209" s="28"/>
     </row>
-    <row r="210" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="210" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -62997,7 +62996,7 @@
       <c r="AM210" s="13"/>
       <c r="AN210" s="28"/>
     </row>
-    <row r="211" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="211" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -63051,7 +63050,7 @@
       <c r="AM211" s="13"/>
       <c r="AN211" s="28"/>
     </row>
-    <row r="212" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="212" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -63105,7 +63104,7 @@
       <c r="AM212" s="13"/>
       <c r="AN212" s="28"/>
     </row>
-    <row r="213" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="213" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -63159,7 +63158,7 @@
       <c r="AM213" s="13"/>
       <c r="AN213" s="28"/>
     </row>
-    <row r="214" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="214" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -63213,7 +63212,7 @@
       <c r="AM214" s="13"/>
       <c r="AN214" s="28"/>
     </row>
-    <row r="215" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="215" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -63267,7 +63266,7 @@
       <c r="AM215" s="13"/>
       <c r="AN215" s="28"/>
     </row>
-    <row r="216" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="216" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -63321,7 +63320,7 @@
       <c r="AM216" s="13"/>
       <c r="AN216" s="28"/>
     </row>
-    <row r="217" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="217" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -63375,7 +63374,7 @@
       <c r="AM217" s="13"/>
       <c r="AN217" s="28"/>
     </row>
-    <row r="218" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="218" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -63429,7 +63428,7 @@
       <c r="AM218" s="13"/>
       <c r="AN218" s="28"/>
     </row>
-    <row r="219" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="219" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -63483,7 +63482,7 @@
       <c r="AM219" s="13"/>
       <c r="AN219" s="28"/>
     </row>
-    <row r="220" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="220" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -63537,7 +63536,7 @@
       <c r="AM220" s="13"/>
       <c r="AN220" s="28"/>
     </row>
-    <row r="221" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="221" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -63591,7 +63590,7 @@
       <c r="AM221" s="13"/>
       <c r="AN221" s="28"/>
     </row>
-    <row r="222" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="222" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -63645,7 +63644,7 @@
       <c r="AM222" s="13"/>
       <c r="AN222" s="28"/>
     </row>
-    <row r="223" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="223" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -63699,7 +63698,7 @@
       <c r="AM223" s="13"/>
       <c r="AN223" s="28"/>
     </row>
-    <row r="224" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="224" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -63753,7 +63752,7 @@
       <c r="AM224" s="13"/>
       <c r="AN224" s="28"/>
     </row>
-    <row r="225" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="225" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -63807,7 +63806,7 @@
       <c r="AM225" s="13"/>
       <c r="AN225" s="28"/>
     </row>
-    <row r="226" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="226" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -63861,7 +63860,7 @@
       <c r="AM226" s="13"/>
       <c r="AN226" s="28"/>
     </row>
-    <row r="227" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="227" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -63915,7 +63914,7 @@
       <c r="AM227" s="13"/>
       <c r="AN227" s="28"/>
     </row>
-    <row r="228" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="228" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -63969,7 +63968,7 @@
       <c r="AM228" s="13"/>
       <c r="AN228" s="28"/>
     </row>
-    <row r="229" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="229" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -64023,7 +64022,7 @@
       <c r="AM229" s="13"/>
       <c r="AN229" s="28"/>
     </row>
-    <row r="230" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="230" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -64077,7 +64076,7 @@
       <c r="AM230" s="13"/>
       <c r="AN230" s="28"/>
     </row>
-    <row r="231" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="231" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -64131,7 +64130,7 @@
       <c r="AM231" s="13"/>
       <c r="AN231" s="28"/>
     </row>
-    <row r="232" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="232" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -64185,7 +64184,7 @@
       <c r="AM232" s="13"/>
       <c r="AN232" s="28"/>
     </row>
-    <row r="233" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="233" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -64239,7 +64238,7 @@
       <c r="AM233" s="13"/>
       <c r="AN233" s="28"/>
     </row>
-    <row r="234" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="234" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -64293,7 +64292,7 @@
       <c r="AM234" s="13"/>
       <c r="AN234" s="28"/>
     </row>
-    <row r="235" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="235" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -64347,7 +64346,7 @@
       <c r="AM235" s="13"/>
       <c r="AN235" s="28"/>
     </row>
-    <row r="236" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="236" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -64401,7 +64400,7 @@
       <c r="AM236" s="13"/>
       <c r="AN236" s="28"/>
     </row>
-    <row r="237" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="237" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -64455,7 +64454,7 @@
       <c r="AM237" s="13"/>
       <c r="AN237" s="28"/>
     </row>
-    <row r="238" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="238" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -64509,7 +64508,7 @@
       <c r="AM238" s="13"/>
       <c r="AN238" s="28"/>
     </row>
-    <row r="239" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="239" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -64563,7 +64562,7 @@
       <c r="AM239" s="13"/>
       <c r="AN239" s="28"/>
     </row>
-    <row r="240" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="240" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -64617,7 +64616,7 @@
       <c r="AM240" s="13"/>
       <c r="AN240" s="28"/>
     </row>
-    <row r="241" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="241" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -64671,7 +64670,7 @@
       <c r="AM241" s="13"/>
       <c r="AN241" s="28"/>
     </row>
-    <row r="242" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="242" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -64725,7 +64724,7 @@
       <c r="AM242" s="13"/>
       <c r="AN242" s="28"/>
     </row>
-    <row r="243" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="243" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -64779,7 +64778,7 @@
       <c r="AM243" s="13"/>
       <c r="AN243" s="28"/>
     </row>
-    <row r="244" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="244" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -64833,7 +64832,7 @@
       <c r="AM244" s="13"/>
       <c r="AN244" s="28"/>
     </row>
-    <row r="245" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="245" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -64887,7 +64886,7 @@
       <c r="AM245" s="13"/>
       <c r="AN245" s="28"/>
     </row>
-    <row r="246" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="246" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -64941,7 +64940,7 @@
       <c r="AM246" s="13"/>
       <c r="AN246" s="28"/>
     </row>
-    <row r="247" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="247" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -64995,7 +64994,7 @@
       <c r="AM247" s="13"/>
       <c r="AN247" s="28"/>
     </row>
-    <row r="248" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="248" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -65049,7 +65048,7 @@
       <c r="AM248" s="13"/>
       <c r="AN248" s="28"/>
     </row>
-    <row r="249" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="249" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -65103,7 +65102,7 @@
       <c r="AM249" s="13"/>
       <c r="AN249" s="28"/>
     </row>
-    <row r="250" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="250" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -65157,7 +65156,7 @@
       <c r="AM250" s="13"/>
       <c r="AN250" s="28"/>
     </row>
-    <row r="251" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="251" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -65211,7 +65210,7 @@
       <c r="AM251" s="13"/>
       <c r="AN251" s="28"/>
     </row>
-    <row r="252" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="252" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -65265,7 +65264,7 @@
       <c r="AM252" s="13"/>
       <c r="AN252" s="28"/>
     </row>
-    <row r="253" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="253" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -65319,7 +65318,7 @@
       <c r="AM253" s="13"/>
       <c r="AN253" s="28"/>
     </row>
-    <row r="254" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="254" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -65373,7 +65372,7 @@
       <c r="AM254" s="13"/>
       <c r="AN254" s="28"/>
     </row>
-    <row r="255" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="255" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -65427,7 +65426,7 @@
       <c r="AM255" s="13"/>
       <c r="AN255" s="28"/>
     </row>
-    <row r="256" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="256" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -65481,7 +65480,7 @@
       <c r="AM256" s="13"/>
       <c r="AN256" s="28"/>
     </row>
-    <row r="257" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="257" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -65535,7 +65534,7 @@
       <c r="AM257" s="13"/>
       <c r="AN257" s="28"/>
     </row>
-    <row r="258" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="258" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -65589,7 +65588,7 @@
       <c r="AM258" s="13"/>
       <c r="AN258" s="28"/>
     </row>
-    <row r="259" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="259" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -65643,7 +65642,7 @@
       <c r="AM259" s="13"/>
       <c r="AN259" s="28"/>
     </row>
-    <row r="260" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="260" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -65697,7 +65696,7 @@
       <c r="AM260" s="13"/>
       <c r="AN260" s="28"/>
     </row>
-    <row r="261" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="261" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -65751,7 +65750,7 @@
       <c r="AM261" s="13"/>
       <c r="AN261" s="28"/>
     </row>
-    <row r="262" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="262" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -65805,7 +65804,7 @@
       <c r="AM262" s="13"/>
       <c r="AN262" s="28"/>
     </row>
-    <row r="263" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="263" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -65859,7 +65858,7 @@
       <c r="AM263" s="13"/>
       <c r="AN263" s="28"/>
     </row>
-    <row r="264" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="264" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -65913,7 +65912,7 @@
       <c r="AM264" s="13"/>
       <c r="AN264" s="28"/>
     </row>
-    <row r="265" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="265" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -65967,7 +65966,7 @@
       <c r="AM265" s="13"/>
       <c r="AN265" s="28"/>
     </row>
-    <row r="266" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="266" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -66021,7 +66020,7 @@
       <c r="AM266" s="13"/>
       <c r="AN266" s="28"/>
     </row>
-    <row r="267" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="267" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -66075,7 +66074,7 @@
       <c r="AM267" s="13"/>
       <c r="AN267" s="28"/>
     </row>
-    <row r="268" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="268" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -66116,7 +66115,7 @@
       <c r="AM268" s="13"/>
       <c r="AN268" s="28"/>
     </row>
-    <row r="269" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="269" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -66157,7 +66156,7 @@
       <c r="AM269" s="13"/>
       <c r="AN269" s="28"/>
     </row>
-    <row r="270" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="270" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -66198,7 +66197,7 @@
       <c r="AM270" s="13"/>
       <c r="AN270" s="28"/>
     </row>
-    <row r="271" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="271" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -66239,7 +66238,7 @@
       <c r="AM271" s="13"/>
       <c r="AN271" s="28"/>
     </row>
-    <row r="272" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="272" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -66280,7 +66279,7 @@
       <c r="AM272" s="13"/>
       <c r="AN272" s="28"/>
     </row>
-    <row r="273" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="273" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -66321,7 +66320,7 @@
       <c r="AM273" s="13"/>
       <c r="AN273" s="28"/>
     </row>
-    <row r="274" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="274" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -66362,7 +66361,7 @@
       <c r="AM274" s="13"/>
       <c r="AN274" s="28"/>
     </row>
-    <row r="275" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="275" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -66403,7 +66402,7 @@
       <c r="AM275" s="13"/>
       <c r="AN275" s="28"/>
     </row>
-    <row r="276" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="276" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -66444,7 +66443,7 @@
       <c r="AM276" s="13"/>
       <c r="AN276" s="28"/>
     </row>
-    <row r="277" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="277" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -66485,7 +66484,7 @@
       <c r="AM277" s="13"/>
       <c r="AN277" s="28"/>
     </row>
-    <row r="278" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="278" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -66526,7 +66525,7 @@
       <c r="AM278" s="13"/>
       <c r="AN278" s="28"/>
     </row>
-    <row r="279" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="279" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -66567,7 +66566,7 @@
       <c r="AM279" s="13"/>
       <c r="AN279" s="28"/>
     </row>
-    <row r="280" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="280" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -66608,7 +66607,7 @@
       <c r="AM280" s="13"/>
       <c r="AN280" s="28"/>
     </row>
-    <row r="281" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="281" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -66649,7 +66648,7 @@
       <c r="AM281" s="13"/>
       <c r="AN281" s="28"/>
     </row>
-    <row r="282" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="282" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -66690,7 +66689,7 @@
       <c r="AM282" s="13"/>
       <c r="AN282" s="28"/>
     </row>
-    <row r="283" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="283" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -66731,7 +66730,7 @@
       <c r="AM283" s="13"/>
       <c r="AN283" s="28"/>
     </row>
-    <row r="284" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="284" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -66772,7 +66771,7 @@
       <c r="AM284" s="13"/>
       <c r="AN284" s="28"/>
     </row>
-    <row r="285" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="285" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -66813,7 +66812,7 @@
       <c r="AM285" s="13"/>
       <c r="AN285" s="28"/>
     </row>
-    <row r="286" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="286" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -66854,7 +66853,7 @@
       <c r="AM286" s="13"/>
       <c r="AN286" s="28"/>
     </row>
-    <row r="287" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="287" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -66895,7 +66894,7 @@
       <c r="AM287" s="13"/>
       <c r="AN287" s="28"/>
     </row>
-    <row r="288" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="288" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -66936,7 +66935,7 @@
       <c r="AM288" s="13"/>
       <c r="AN288" s="28"/>
     </row>
-    <row r="289" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="289" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -66977,7 +66976,7 @@
       <c r="AM289" s="13"/>
       <c r="AN289" s="28"/>
     </row>
-    <row r="290" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="290" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -67018,7 +67017,7 @@
       <c r="AM290" s="13"/>
       <c r="AN290" s="28"/>
     </row>
-    <row r="291" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="291" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -67059,7 +67058,7 @@
       <c r="AM291" s="13"/>
       <c r="AN291" s="28"/>
     </row>
-    <row r="292" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="292" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -67100,16 +67099,16 @@
       <c r="AM292" s="13"/>
       <c r="AN292" s="28"/>
     </row>
-    <row r="293" spans="1:40" ht="18.75">
+    <row r="293" spans="1:40" ht="18.75" x14ac:dyDescent="0.25">
       <c r="Q293" s="6"/>
     </row>
-    <row r="294" spans="1:40" ht="18.75">
+    <row r="294" spans="1:40" ht="18.75" x14ac:dyDescent="0.25">
       <c r="Q294" s="6"/>
     </row>
-    <row r="295" spans="1:40" ht="18.75">
+    <row r="295" spans="1:40" ht="18.75" x14ac:dyDescent="0.25">
       <c r="Q295" s="6"/>
     </row>
-    <row r="296" spans="1:40" ht="18.75">
+    <row r="296" spans="1:40" ht="18.75" x14ac:dyDescent="0.25">
       <c r="Q296" s="6"/>
     </row>
   </sheetData>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4D09CC7-E555-4BD3-9881-9CFB89B69D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C1B7AB-5093-40FE-AC06-7D3326EB837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5238" uniqueCount="1712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5235" uniqueCount="1711">
   <si>
     <t>VJDBv0.3</t>
   </si>
@@ -4609,9 +4609,6 @@
     <t>Host Assembly ID of the sequence (INSDC).</t>
   </si>
   <si>
-    <t>Identifier</t>
-  </si>
-  <si>
     <t>0ho</t>
   </si>
   <si>
@@ -4693,9 +4690,6 @@
     <t>Host IMGM Taxon OID</t>
   </si>
   <si>
-    <t>IMGVR</t>
-  </si>
-  <si>
     <t>0hu</t>
   </si>
   <si>
@@ -5372,13 +5366,16 @@
   </si>
   <si>
     <t>What is that? -&gt; remove, not visible in ENA Webin Portal Submision</t>
+  </si>
+  <si>
+    <t>IMG/VR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5914,8 +5911,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -6266,12 +6263,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E033465-2455-477E-A700-6BF7A0771C26}">
   <dimension ref="A1:FY216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U207" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V211" sqref="V211:V216"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T93" sqref="T93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
@@ -6281,7 +6278,7 @@
     <col min="50" max="50" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:181" s="19" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:181" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -6570,7 +6567,7 @@
       <c r="FX1"/>
       <c r="FY1"/>
     </row>
-    <row r="2" spans="1:181" s="19" customFormat="1" ht="23.25" customHeight="1">
+    <row r="2" spans="1:181" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -6859,7 +6856,7 @@
       <c r="FX2"/>
       <c r="FY2"/>
     </row>
-    <row r="3" spans="1:181" s="19" customFormat="1" ht="23.25" customHeight="1">
+    <row r="3" spans="1:181" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="str">
         <f t="shared" ref="A3:AY3" si="0">_xlfn.TEXTJOIN(" ", TRUE, LOWER(A1), LOWER(A2))</f>
         <v>vjdbv0.3 field id</v>
@@ -7201,7 +7198,7 @@
       <c r="FX3"/>
       <c r="FY3"/>
     </row>
-    <row r="4" spans="1:181" s="19" customFormat="1" ht="23.25" customHeight="1">
+    <row r="4" spans="1:181" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="str">
         <f t="shared" ref="A4:AY4" si="2">SUBSTITUTE(A3, " ", "_")</f>
         <v>vjdbv0.3_field_id</v>
@@ -7543,7 +7540,7 @@
       <c r="FX4"/>
       <c r="FY4"/>
     </row>
-    <row r="5" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="5" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>57</v>
       </c>
@@ -7786,7 +7783,7 @@
       <c r="FX5"/>
       <c r="FY5"/>
     </row>
-    <row r="6" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="6" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>77</v>
       </c>
@@ -8033,7 +8030,7 @@
       <c r="FX6"/>
       <c r="FY6"/>
     </row>
-    <row r="7" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="7" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>89</v>
       </c>
@@ -8273,7 +8270,7 @@
       <c r="FX7"/>
       <c r="FY7"/>
     </row>
-    <row r="8" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>101</v>
       </c>
@@ -8517,7 +8514,7 @@
       <c r="FX8"/>
       <c r="FY8"/>
     </row>
-    <row r="9" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="9" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>113</v>
       </c>
@@ -8781,7 +8778,7 @@
       <c r="FX9"/>
       <c r="FY9"/>
     </row>
-    <row r="10" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="10" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>135</v>
       </c>
@@ -9045,7 +9042,7 @@
       <c r="FX10"/>
       <c r="FY10"/>
     </row>
-    <row r="11" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="11" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>155</v>
       </c>
@@ -9269,7 +9266,7 @@
       <c r="FX11"/>
       <c r="FY11"/>
     </row>
-    <row r="12" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="12" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>163</v>
       </c>
@@ -9493,7 +9490,7 @@
       <c r="FX12"/>
       <c r="FY12"/>
     </row>
-    <row r="13" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="13" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>174</v>
       </c>
@@ -9729,7 +9726,7 @@
       <c r="FX13"/>
       <c r="FY13"/>
     </row>
-    <row r="14" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="14" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>183</v>
       </c>
@@ -9967,7 +9964,7 @@
       <c r="FX14"/>
       <c r="FY14"/>
     </row>
-    <row r="15" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="15" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>195</v>
       </c>
@@ -10219,7 +10216,7 @@
       <c r="FX15"/>
       <c r="FY15"/>
     </row>
-    <row r="16" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="16" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>205</v>
       </c>
@@ -10477,7 +10474,7 @@
       <c r="FX16"/>
       <c r="FY16"/>
     </row>
-    <row r="17" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="17" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
         <v>219</v>
       </c>
@@ -10717,7 +10714,7 @@
       <c r="FX17"/>
       <c r="FY17"/>
     </row>
-    <row r="18" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="18" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
         <v>233</v>
       </c>
@@ -10953,7 +10950,7 @@
       <c r="FX18"/>
       <c r="FY18"/>
     </row>
-    <row r="19" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="19" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>246</v>
       </c>
@@ -11183,7 +11180,7 @@
       <c r="FX19"/>
       <c r="FY19"/>
     </row>
-    <row r="20" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="20" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>256</v>
       </c>
@@ -11388,7 +11385,7 @@
       <c r="FX20"/>
       <c r="FY20"/>
     </row>
-    <row r="21" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="21" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
         <v>261</v>
       </c>
@@ -11618,7 +11615,7 @@
       <c r="FX21"/>
       <c r="FY21"/>
     </row>
-    <row r="22" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="22" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
         <v>271</v>
       </c>
@@ -11851,7 +11848,7 @@
       <c r="FX22"/>
       <c r="FY22"/>
     </row>
-    <row r="23" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="23" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
         <v>282</v>
       </c>
@@ -12083,7 +12080,7 @@
       <c r="FX23"/>
       <c r="FY23"/>
     </row>
-    <row r="24" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="24" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
         <v>293</v>
       </c>
@@ -12315,7 +12312,7 @@
       <c r="FX24"/>
       <c r="FY24"/>
     </row>
-    <row r="25" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="25" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
         <v>301</v>
       </c>
@@ -12551,7 +12548,7 @@
       <c r="FX25"/>
       <c r="FY25"/>
     </row>
-    <row r="26" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="26" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
         <v>309</v>
       </c>
@@ -12782,7 +12779,7 @@
       <c r="FX26"/>
       <c r="FY26"/>
     </row>
-    <row r="27" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="27" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
         <v>316</v>
       </c>
@@ -13038,7 +13035,7 @@
       <c r="FX27"/>
       <c r="FY27"/>
     </row>
-    <row r="28" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="28" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>332</v>
       </c>
@@ -13268,7 +13265,7 @@
       <c r="FX28"/>
       <c r="FY28"/>
     </row>
-    <row r="29" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="29" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
         <v>343</v>
       </c>
@@ -13491,7 +13488,7 @@
       <c r="FX29"/>
       <c r="FY29"/>
     </row>
-    <row r="30" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="30" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
         <v>349</v>
       </c>
@@ -13721,7 +13718,7 @@
       <c r="FX30"/>
       <c r="FY30"/>
     </row>
-    <row r="31" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="31" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
         <v>358</v>
       </c>
@@ -13949,7 +13946,7 @@
       <c r="FX31"/>
       <c r="FY31"/>
     </row>
-    <row r="32" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="32" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
         <v>364</v>
       </c>
@@ -14195,7 +14192,7 @@
       <c r="FX32"/>
       <c r="FY32"/>
     </row>
-    <row r="33" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="33" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
         <v>376</v>
       </c>
@@ -14427,7 +14424,7 @@
       <c r="FX33"/>
       <c r="FY33"/>
     </row>
-    <row r="34" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="34" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
         <v>383</v>
       </c>
@@ -14659,7 +14656,7 @@
       <c r="FX34"/>
       <c r="FY34"/>
     </row>
-    <row r="35" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="35" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
         <v>392</v>
       </c>
@@ -14899,7 +14896,7 @@
       <c r="FX35"/>
       <c r="FY35"/>
     </row>
-    <row r="36" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="36" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>400</v>
       </c>
@@ -15143,7 +15140,7 @@
       <c r="FX36"/>
       <c r="FY36"/>
     </row>
-    <row r="37" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="37" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
         <v>408</v>
       </c>
@@ -15387,7 +15384,7 @@
       <c r="FX37"/>
       <c r="FY37"/>
     </row>
-    <row r="38" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="38" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="57" t="s">
         <v>419</v>
       </c>
@@ -15631,7 +15628,7 @@
       <c r="FX38"/>
       <c r="FY38"/>
     </row>
-    <row r="39" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="39" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
         <v>337</v>
       </c>
@@ -15855,7 +15852,7 @@
       <c r="FX39"/>
       <c r="FY39"/>
     </row>
-    <row r="40" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="40" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="57" t="s">
         <v>436</v>
       </c>
@@ -16097,7 +16094,7 @@
       <c r="FX40"/>
       <c r="FY40"/>
     </row>
-    <row r="41" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="41" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
         <v>444</v>
       </c>
@@ -16339,7 +16336,7 @@
       <c r="FX41"/>
       <c r="FY41"/>
     </row>
-    <row r="42" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="42" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
         <v>451</v>
       </c>
@@ -16577,7 +16574,7 @@
       <c r="FX42"/>
       <c r="FY42"/>
     </row>
-    <row r="43" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="43" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="57" t="s">
         <v>458</v>
       </c>
@@ -16798,7 +16795,7 @@
       <c r="FX43"/>
       <c r="FY43"/>
     </row>
-    <row r="44" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="44" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
         <v>463</v>
       </c>
@@ -17042,7 +17039,7 @@
       <c r="FX44"/>
       <c r="FY44"/>
     </row>
-    <row r="45" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="45" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
         <v>470</v>
       </c>
@@ -17266,7 +17263,7 @@
       <c r="FX45"/>
       <c r="FY45"/>
     </row>
-    <row r="46" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="46" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
         <v>475</v>
       </c>
@@ -17510,7 +17507,7 @@
       <c r="FX46"/>
       <c r="FY46"/>
     </row>
-    <row r="47" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="47" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="57" t="s">
         <v>482</v>
       </c>
@@ -17742,7 +17739,7 @@
       <c r="FX47"/>
       <c r="FY47"/>
     </row>
-    <row r="48" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="48" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="57" t="s">
         <v>488</v>
       </c>
@@ -17974,7 +17971,7 @@
       <c r="FX48"/>
       <c r="FY48"/>
     </row>
-    <row r="49" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="49" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="57" t="s">
         <v>494</v>
       </c>
@@ -18216,7 +18213,7 @@
       <c r="FX49"/>
       <c r="FY49"/>
     </row>
-    <row r="50" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="50" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="57" t="s">
         <v>501</v>
       </c>
@@ -18443,7 +18440,7 @@
       <c r="FX50"/>
       <c r="FY50"/>
     </row>
-    <row r="51" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="51" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="57" t="s">
         <v>509</v>
       </c>
@@ -18664,7 +18661,7 @@
       <c r="FX51"/>
       <c r="FY51"/>
     </row>
-    <row r="52" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="52" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
         <v>516</v>
       </c>
@@ -18891,7 +18888,7 @@
       <c r="FX52"/>
       <c r="FY52"/>
     </row>
-    <row r="53" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="53" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="57" t="s">
         <v>520</v>
       </c>
@@ -19147,7 +19144,7 @@
       <c r="FX53"/>
       <c r="FY53"/>
     </row>
-    <row r="54" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="54" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="57" t="s">
         <v>532</v>
       </c>
@@ -19385,7 +19382,7 @@
       <c r="FX54"/>
       <c r="FY54"/>
     </row>
-    <row r="55" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="55" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="s">
         <v>541</v>
       </c>
@@ -19637,7 +19634,7 @@
       <c r="FX55"/>
       <c r="FY55"/>
     </row>
-    <row r="56" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="56" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
         <v>550</v>
       </c>
@@ -19876,7 +19873,7 @@
       <c r="FX56"/>
       <c r="FY56"/>
     </row>
-    <row r="57" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="57" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="s">
         <v>557</v>
       </c>
@@ -20114,7 +20111,7 @@
       <c r="FX57"/>
       <c r="FY57"/>
     </row>
-    <row r="58" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="58" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="57" t="s">
         <v>565</v>
       </c>
@@ -20352,7 +20349,7 @@
       <c r="FX58"/>
       <c r="FY58"/>
     </row>
-    <row r="59" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="59" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="57" t="s">
         <v>573</v>
       </c>
@@ -20592,7 +20589,7 @@
       <c r="FX59"/>
       <c r="FY59"/>
     </row>
-    <row r="60" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="60" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="57" t="s">
         <v>581</v>
       </c>
@@ -20808,7 +20805,7 @@
       <c r="FX60"/>
       <c r="FY60"/>
     </row>
-    <row r="61" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="61" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="57" t="s">
         <v>586</v>
       </c>
@@ -21046,7 +21043,7 @@
       <c r="FX61"/>
       <c r="FY61"/>
     </row>
-    <row r="62" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="62" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="s">
         <v>594</v>
       </c>
@@ -21284,7 +21281,7 @@
       <c r="FX62"/>
       <c r="FY62"/>
     </row>
-    <row r="63" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="63" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="57" t="s">
         <v>602</v>
       </c>
@@ -21514,7 +21511,7 @@
       <c r="FX63"/>
       <c r="FY63"/>
     </row>
-    <row r="64" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="64" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="57" t="s">
         <v>610</v>
       </c>
@@ -21736,7 +21733,7 @@
       <c r="FX64"/>
       <c r="FY64"/>
     </row>
-    <row r="65" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="65" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="57" t="s">
         <v>615</v>
       </c>
@@ -21976,7 +21973,7 @@
       <c r="FX65"/>
       <c r="FY65"/>
     </row>
-    <row r="66" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="66" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="s">
         <v>621</v>
       </c>
@@ -22197,7 +22194,7 @@
       <c r="FX66"/>
       <c r="FY66"/>
     </row>
-    <row r="67" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="67" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="s">
         <v>626</v>
       </c>
@@ -22422,7 +22419,7 @@
       <c r="FX67"/>
       <c r="FY67"/>
     </row>
-    <row r="68" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="68" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="57" t="s">
         <v>631</v>
       </c>
@@ -22680,7 +22677,7 @@
       <c r="FX68"/>
       <c r="FY68"/>
     </row>
-    <row r="69" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="69" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="57" t="s">
         <v>647</v>
       </c>
@@ -22926,7 +22923,7 @@
       <c r="FX69"/>
       <c r="FY69"/>
     </row>
-    <row r="70" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="70" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="57" t="s">
         <v>657</v>
       </c>
@@ -23165,7 +23162,7 @@
       <c r="FX70"/>
       <c r="FY70"/>
     </row>
-    <row r="71" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="71" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
         <v>669</v>
       </c>
@@ -23358,7 +23355,7 @@
       <c r="FX71" s="53"/>
       <c r="FY71" s="53"/>
     </row>
-    <row r="72" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="72" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="57" t="s">
         <v>676</v>
       </c>
@@ -23598,7 +23595,7 @@
       <c r="FX72"/>
       <c r="FY72"/>
     </row>
-    <row r="73" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="73" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="57" t="s">
         <v>686</v>
       </c>
@@ -23832,7 +23829,7 @@
       <c r="FX73"/>
       <c r="FY73"/>
     </row>
-    <row r="74" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="74" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="57" t="s">
         <v>693</v>
       </c>
@@ -24054,7 +24051,7 @@
       <c r="FX74"/>
       <c r="FY74"/>
     </row>
-    <row r="75" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="75" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="57" t="s">
         <v>699</v>
       </c>
@@ -24290,7 +24287,7 @@
       <c r="FX75"/>
       <c r="FY75"/>
     </row>
-    <row r="76" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="76" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="57" t="s">
         <v>709</v>
       </c>
@@ -24518,7 +24515,7 @@
       <c r="FX76"/>
       <c r="FY76"/>
     </row>
-    <row r="77" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="77" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="57" t="s">
         <v>717</v>
       </c>
@@ -24743,7 +24740,7 @@
       <c r="FX77"/>
       <c r="FY77"/>
     </row>
-    <row r="78" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="78" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="57" t="s">
         <v>725</v>
       </c>
@@ -24974,7 +24971,7 @@
       <c r="FX78"/>
       <c r="FY78"/>
     </row>
-    <row r="79" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="79" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="57" t="s">
         <v>734</v>
       </c>
@@ -25210,7 +25207,7 @@
       <c r="FX79"/>
       <c r="FY79"/>
     </row>
-    <row r="80" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="80" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="57" t="s">
         <v>744</v>
       </c>
@@ -25436,7 +25433,7 @@
       <c r="FX80"/>
       <c r="FY80"/>
     </row>
-    <row r="81" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="81" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="57" t="s">
         <v>750</v>
       </c>
@@ -25668,7 +25665,7 @@
       <c r="FX81"/>
       <c r="FY81"/>
     </row>
-    <row r="82" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="82" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="57" t="s">
         <v>756</v>
       </c>
@@ -25906,7 +25903,7 @@
       <c r="FX82"/>
       <c r="FY82"/>
     </row>
-    <row r="83" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="83" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="57" t="s">
         <v>766</v>
       </c>
@@ -26150,7 +26147,7 @@
       <c r="FX83"/>
       <c r="FY83"/>
     </row>
-    <row r="84" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="84" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="57" t="s">
         <v>775</v>
       </c>
@@ -26390,7 +26387,7 @@
       <c r="FX84"/>
       <c r="FY84"/>
     </row>
-    <row r="85" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="85" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="57" t="s">
         <v>782</v>
       </c>
@@ -26630,7 +26627,7 @@
       <c r="FX85"/>
       <c r="FY85"/>
     </row>
-    <row r="86" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="86" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="57" t="s">
         <v>789</v>
       </c>
@@ -26874,7 +26871,7 @@
       <c r="FX86"/>
       <c r="FY86"/>
     </row>
-    <row r="87" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="87" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="57" t="s">
         <v>797</v>
       </c>
@@ -27116,7 +27113,7 @@
       <c r="FX87"/>
       <c r="FY87"/>
     </row>
-    <row r="88" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="88" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="57" t="s">
         <v>804</v>
       </c>
@@ -27360,7 +27357,7 @@
       <c r="FX88"/>
       <c r="FY88"/>
     </row>
-    <row r="89" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="89" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="57" t="s">
         <v>813</v>
       </c>
@@ -27602,7 +27599,7 @@
       <c r="FX89"/>
       <c r="FY89"/>
     </row>
-    <row r="90" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="90" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="57" t="s">
         <v>821</v>
       </c>
@@ -27846,7 +27843,7 @@
       <c r="FX90"/>
       <c r="FY90"/>
     </row>
-    <row r="91" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="91" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="57" t="s">
         <v>830</v>
       </c>
@@ -28100,7 +28097,7 @@
       <c r="FX91"/>
       <c r="FY91"/>
     </row>
-    <row r="92" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="92" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="57" t="s">
         <v>840</v>
       </c>
@@ -28330,7 +28327,7 @@
       <c r="FX92"/>
       <c r="FY92"/>
     </row>
-    <row r="93" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="93" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="57" t="s">
         <v>846</v>
       </c>
@@ -28552,7 +28549,7 @@
       <c r="FX93"/>
       <c r="FY93"/>
     </row>
-    <row r="94" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="94" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="57" t="s">
         <v>854</v>
       </c>
@@ -28778,7 +28775,7 @@
       <c r="FX94"/>
       <c r="FY94"/>
     </row>
-    <row r="95" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="95" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="57" t="s">
         <v>859</v>
       </c>
@@ -28998,7 +28995,7 @@
       <c r="FX95"/>
       <c r="FY95"/>
     </row>
-    <row r="96" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="96" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="57" t="s">
         <v>864</v>
       </c>
@@ -29224,7 +29221,7 @@
       <c r="FX96"/>
       <c r="FY96"/>
     </row>
-    <row r="97" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="97" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="57" t="s">
         <v>871</v>
       </c>
@@ -29433,7 +29430,7 @@
       <c r="FX97"/>
       <c r="FY97"/>
     </row>
-    <row r="98" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="98" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="57" t="s">
         <v>875</v>
       </c>
@@ -29673,7 +29670,7 @@
       <c r="FX98"/>
       <c r="FY98"/>
     </row>
-    <row r="99" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="99" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="57" t="s">
         <v>883</v>
       </c>
@@ -29897,7 +29894,7 @@
       <c r="FX99"/>
       <c r="FY99"/>
     </row>
-    <row r="100" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="100" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="57" t="s">
         <v>890</v>
       </c>
@@ -30121,7 +30118,7 @@
       <c r="FX100"/>
       <c r="FY100"/>
     </row>
-    <row r="101" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="101" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="57" t="s">
         <v>898</v>
       </c>
@@ -30345,7 +30342,7 @@
       <c r="FX101"/>
       <c r="FY101"/>
     </row>
-    <row r="102" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="102" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="57" t="s">
         <v>906</v>
       </c>
@@ -30569,7 +30566,7 @@
       <c r="FX102"/>
       <c r="FY102"/>
     </row>
-    <row r="103" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="103" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="57" t="s">
         <v>914</v>
       </c>
@@ -30795,7 +30792,7 @@
       <c r="FX103"/>
       <c r="FY103"/>
     </row>
-    <row r="104" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="104" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="57" t="s">
         <v>922</v>
       </c>
@@ -31021,7 +31018,7 @@
       <c r="FX104"/>
       <c r="FY104"/>
     </row>
-    <row r="105" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="105" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="57" t="s">
         <v>927</v>
       </c>
@@ -31251,7 +31248,7 @@
       <c r="FX105"/>
       <c r="FY105"/>
     </row>
-    <row r="106" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="106" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="57" t="s">
         <v>934</v>
       </c>
@@ -31481,7 +31478,7 @@
       <c r="FX106"/>
       <c r="FY106"/>
     </row>
-    <row r="107" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="107" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="57" t="s">
         <v>940</v>
       </c>
@@ -31709,7 +31706,7 @@
       <c r="FX107"/>
       <c r="FY107"/>
     </row>
-    <row r="108" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="108" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="57" t="s">
         <v>947</v>
       </c>
@@ -31939,7 +31936,7 @@
       <c r="FX108"/>
       <c r="FY108"/>
     </row>
-    <row r="109" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="109" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="57" t="s">
         <v>954</v>
       </c>
@@ -32163,7 +32160,7 @@
       <c r="FX109"/>
       <c r="FY109"/>
     </row>
-    <row r="110" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="110" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="57" t="s">
         <v>961</v>
       </c>
@@ -32393,7 +32390,7 @@
       <c r="FX110"/>
       <c r="FY110"/>
     </row>
-    <row r="111" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1">
+    <row r="111" spans="1:181" s="48" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="57" t="s">
         <v>968</v>
       </c>
@@ -32617,7 +32614,7 @@
       <c r="FX111"/>
       <c r="FY111"/>
     </row>
-    <row r="112" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="112" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="57" t="s">
         <v>975</v>
       </c>
@@ -32841,7 +32838,7 @@
       <c r="FX112"/>
       <c r="FY112"/>
     </row>
-    <row r="113" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="113" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="57" t="s">
         <v>982</v>
       </c>
@@ -33065,7 +33062,7 @@
       <c r="FX113"/>
       <c r="FY113"/>
     </row>
-    <row r="114" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="114" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="57" t="s">
         <v>989</v>
       </c>
@@ -33289,7 +33286,7 @@
       <c r="FX114"/>
       <c r="FY114"/>
     </row>
-    <row r="115" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="115" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="57" t="s">
         <v>995</v>
       </c>
@@ -33511,7 +33508,7 @@
       <c r="FX115"/>
       <c r="FY115"/>
     </row>
-    <row r="116" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="116" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="57" t="s">
         <v>1001</v>
       </c>
@@ -33733,7 +33730,7 @@
       <c r="FX116"/>
       <c r="FY116"/>
     </row>
-    <row r="117" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="117" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="57" t="s">
         <v>1007</v>
       </c>
@@ -33955,7 +33952,7 @@
       <c r="FX117"/>
       <c r="FY117"/>
     </row>
-    <row r="118" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="118" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="57" t="s">
         <v>1013</v>
       </c>
@@ -34177,7 +34174,7 @@
       <c r="FX118"/>
       <c r="FY118"/>
     </row>
-    <row r="119" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="119" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="57" t="s">
         <v>1019</v>
       </c>
@@ -34399,7 +34396,7 @@
       <c r="FX119"/>
       <c r="FY119"/>
     </row>
-    <row r="120" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="120" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="57" t="s">
         <v>1025</v>
       </c>
@@ -34623,7 +34620,7 @@
       <c r="FX120"/>
       <c r="FY120"/>
     </row>
-    <row r="121" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="121" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="57" t="s">
         <v>1031</v>
       </c>
@@ -34853,7 +34850,7 @@
       <c r="FX121"/>
       <c r="FY121"/>
     </row>
-    <row r="122" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="122" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="57" t="s">
         <v>1039</v>
       </c>
@@ -35083,7 +35080,7 @@
       <c r="FX122"/>
       <c r="FY122"/>
     </row>
-    <row r="123" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="123" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="57" t="s">
         <v>1045</v>
       </c>
@@ -35311,7 +35308,7 @@
       <c r="FX123"/>
       <c r="FY123"/>
     </row>
-    <row r="124" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="124" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="57" t="s">
         <v>1052</v>
       </c>
@@ -35539,7 +35536,7 @@
       <c r="FX124"/>
       <c r="FY124"/>
     </row>
-    <row r="125" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="125" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="57" t="s">
         <v>1057</v>
       </c>
@@ -35763,7 +35760,7 @@
       <c r="FX125"/>
       <c r="FY125"/>
     </row>
-    <row r="126" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="126" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="57" t="s">
         <v>1064</v>
       </c>
@@ -35802,12 +35799,14 @@
       <c r="R126" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="S126" s="61"/>
+      <c r="S126" s="61" t="s">
+        <v>238</v>
+      </c>
       <c r="T126" s="61"/>
       <c r="U126" s="61"/>
       <c r="V126" s="57" t="str">
         <f t="shared" si="5"/>
-        <v>["BV-BRC", "ENA ERC32", "ENA ERC33", "ENA Sample", "VJDB Sample"]</v>
+        <v>["BV-BRC", "ENA ERC32", "ENA ERC33", "Virus", "ENA Sample", "VJDB Sample"]</v>
       </c>
       <c r="W126" s="61"/>
       <c r="X126" s="61" t="s">
@@ -35995,7 +35994,7 @@
       <c r="FX126"/>
       <c r="FY126"/>
     </row>
-    <row r="127" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="127" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="57" t="s">
         <v>1069</v>
       </c>
@@ -36223,7 +36222,7 @@
       <c r="FX127"/>
       <c r="FY127"/>
     </row>
-    <row r="128" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="128" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="57" t="s">
         <v>1074</v>
       </c>
@@ -36453,7 +36452,7 @@
       <c r="FX128"/>
       <c r="FY128"/>
     </row>
-    <row r="129" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="129" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="57" t="s">
         <v>1081</v>
       </c>
@@ -36683,7 +36682,7 @@
       <c r="FX129"/>
       <c r="FY129"/>
     </row>
-    <row r="130" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="130" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="57" t="s">
         <v>1090</v>
       </c>
@@ -36911,7 +36910,7 @@
       <c r="FX130"/>
       <c r="FY130"/>
     </row>
-    <row r="131" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="131" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="57" t="s">
         <v>1096</v>
       </c>
@@ -37139,7 +37138,7 @@
       <c r="FX131"/>
       <c r="FY131"/>
     </row>
-    <row r="132" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="132" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="57" t="s">
         <v>1102</v>
       </c>
@@ -37367,7 +37366,7 @@
       <c r="FX132"/>
       <c r="FY132"/>
     </row>
-    <row r="133" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="133" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="57" t="s">
         <v>1107</v>
       </c>
@@ -37597,7 +37596,7 @@
       <c r="FX133"/>
       <c r="FY133"/>
     </row>
-    <row r="134" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="134" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="57" t="s">
         <v>1115</v>
       </c>
@@ -37830,7 +37829,7 @@
       <c r="FX134"/>
       <c r="FY134"/>
     </row>
-    <row r="135" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="135" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="57" t="s">
         <v>1122</v>
       </c>
@@ -38052,7 +38051,7 @@
       <c r="FX135"/>
       <c r="FY135"/>
     </row>
-    <row r="136" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="136" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="57" t="s">
         <v>1128</v>
       </c>
@@ -38274,7 +38273,7 @@
       <c r="FX136"/>
       <c r="FY136"/>
     </row>
-    <row r="137" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="137" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="57" t="s">
         <v>1134</v>
       </c>
@@ -38498,7 +38497,7 @@
       <c r="FX137"/>
       <c r="FY137"/>
     </row>
-    <row r="138" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="138" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="61" t="s">
         <v>1141</v>
       </c>
@@ -38702,7 +38701,7 @@
       <c r="FX138"/>
       <c r="FY138"/>
     </row>
-    <row r="139" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="139" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="61" t="s">
         <v>1145</v>
       </c>
@@ -38906,7 +38905,7 @@
       <c r="FX139"/>
       <c r="FY139"/>
     </row>
-    <row r="140" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="140" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="61" t="s">
         <v>1150</v>
       </c>
@@ -39110,7 +39109,7 @@
       <c r="FX140"/>
       <c r="FY140"/>
     </row>
-    <row r="141" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="141" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="61" t="s">
         <v>1154</v>
       </c>
@@ -39314,7 +39313,7 @@
       <c r="FX141"/>
       <c r="FY141"/>
     </row>
-    <row r="142" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="142" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="61" t="s">
         <v>737</v>
       </c>
@@ -39516,7 +39515,7 @@
       <c r="FX142"/>
       <c r="FY142"/>
     </row>
-    <row r="143" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="143" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="61" t="s">
         <v>1160</v>
       </c>
@@ -39728,7 +39727,7 @@
       <c r="FX143"/>
       <c r="FY143"/>
     </row>
-    <row r="144" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="144" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="61" t="s">
         <v>1168</v>
       </c>
@@ -39940,7 +39939,7 @@
       <c r="FX144"/>
       <c r="FY144"/>
     </row>
-    <row r="145" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="145" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="61" t="s">
         <v>1173</v>
       </c>
@@ -40152,7 +40151,7 @@
       <c r="FX145"/>
       <c r="FY145"/>
     </row>
-    <row r="146" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="146" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="61" t="s">
         <v>1178</v>
       </c>
@@ -40364,7 +40363,7 @@
       <c r="FX146"/>
       <c r="FY146"/>
     </row>
-    <row r="147" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="147" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="61" t="s">
         <v>1183</v>
       </c>
@@ -40576,7 +40575,7 @@
       <c r="FX147"/>
       <c r="FY147"/>
     </row>
-    <row r="148" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="148" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="61" t="s">
         <v>1188</v>
       </c>
@@ -40788,7 +40787,7 @@
       <c r="FX148"/>
       <c r="FY148"/>
     </row>
-    <row r="149" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="149" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="61" t="s">
         <v>1193</v>
       </c>
@@ -41000,7 +40999,7 @@
       <c r="FX149"/>
       <c r="FY149"/>
     </row>
-    <row r="150" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="150" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="61" t="s">
         <v>1198</v>
       </c>
@@ -41212,7 +41211,7 @@
       <c r="FX150"/>
       <c r="FY150"/>
     </row>
-    <row r="151" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="151" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="61" t="s">
         <v>1203</v>
       </c>
@@ -41424,7 +41423,7 @@
       <c r="FX151"/>
       <c r="FY151"/>
     </row>
-    <row r="152" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="152" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="61" t="s">
         <v>1208</v>
       </c>
@@ -41636,7 +41635,7 @@
       <c r="FX152"/>
       <c r="FY152"/>
     </row>
-    <row r="153" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="153" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="61" t="s">
         <v>1213</v>
       </c>
@@ -41848,7 +41847,7 @@
       <c r="FX153"/>
       <c r="FY153"/>
     </row>
-    <row r="154" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="154" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="61" t="s">
         <v>1218</v>
       </c>
@@ -42060,7 +42059,7 @@
       <c r="FX154"/>
       <c r="FY154"/>
     </row>
-    <row r="155" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="155" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="61" t="s">
         <v>1223</v>
       </c>
@@ -42272,7 +42271,7 @@
       <c r="FX155"/>
       <c r="FY155"/>
     </row>
-    <row r="156" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="156" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="61" t="s">
         <v>1228</v>
       </c>
@@ -42484,7 +42483,7 @@
       <c r="FX156"/>
       <c r="FY156"/>
     </row>
-    <row r="157" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="157" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="61" t="s">
         <v>1233</v>
       </c>
@@ -42710,7 +42709,7 @@
       <c r="FX157"/>
       <c r="FY157"/>
     </row>
-    <row r="158" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="158" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="61" t="str">
         <f>SUBSTITUTE(A143,"ictv","ncbi")</f>
         <v>ncbi_realm</v>
@@ -42919,7 +42918,7 @@
       <c r="FX158"/>
       <c r="FY158"/>
     </row>
-    <row r="159" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="159" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="61" t="s">
         <v>1244</v>
       </c>
@@ -43127,7 +43126,7 @@
       <c r="FX159"/>
       <c r="FY159"/>
     </row>
-    <row r="160" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="160" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="61" t="s">
         <v>1248</v>
       </c>
@@ -43347,7 +43346,7 @@
       <c r="FX160"/>
       <c r="FY160"/>
     </row>
-    <row r="161" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="161" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="61" t="s">
         <v>1253</v>
       </c>
@@ -43555,7 +43554,7 @@
       <c r="FX161"/>
       <c r="FY161"/>
     </row>
-    <row r="162" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="162" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="61" t="s">
         <v>1257</v>
       </c>
@@ -43775,7 +43774,7 @@
       <c r="FX162"/>
       <c r="FY162"/>
     </row>
-    <row r="163" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="163" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="61" t="s">
         <v>1262</v>
       </c>
@@ -43983,7 +43982,7 @@
       <c r="FX163"/>
       <c r="FY163"/>
     </row>
-    <row r="164" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="164" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="61" t="s">
         <v>1266</v>
       </c>
@@ -44203,7 +44202,7 @@
       <c r="FX164"/>
       <c r="FY164"/>
     </row>
-    <row r="165" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="165" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="61" t="s">
         <v>1271</v>
       </c>
@@ -44411,7 +44410,7 @@
       <c r="FX165"/>
       <c r="FY165"/>
     </row>
-    <row r="166" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="166" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="61" t="s">
         <v>1275</v>
       </c>
@@ -44631,7 +44630,7 @@
       <c r="FX166"/>
       <c r="FY166"/>
     </row>
-    <row r="167" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="167" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="61" t="s">
         <v>1280</v>
       </c>
@@ -44839,7 +44838,7 @@
       <c r="FX167"/>
       <c r="FY167"/>
     </row>
-    <row r="168" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="168" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="61" t="s">
         <v>1284</v>
       </c>
@@ -45075,7 +45074,7 @@
       <c r="FX168"/>
       <c r="FY168"/>
     </row>
-    <row r="169" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="169" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="61" t="s">
         <v>1291</v>
       </c>
@@ -45283,7 +45282,7 @@
       <c r="FX169"/>
       <c r="FY169"/>
     </row>
-    <row r="170" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="170" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="61" t="s">
         <v>1295</v>
       </c>
@@ -45519,7 +45518,7 @@
       <c r="FX170"/>
       <c r="FY170"/>
     </row>
-    <row r="171" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="171" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="61" t="s">
         <v>1302</v>
       </c>
@@ -45727,7 +45726,7 @@
       <c r="FX171"/>
       <c r="FY171"/>
     </row>
-    <row r="172" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="172" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="61" t="s">
         <v>1306</v>
       </c>
@@ -45973,7 +45972,7 @@
       <c r="FX172"/>
       <c r="FY172"/>
     </row>
-    <row r="173" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="173" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="57" t="s">
         <v>1316</v>
       </c>
@@ -46201,7 +46200,7 @@
       <c r="FX173"/>
       <c r="FY173"/>
     </row>
-    <row r="174" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="174" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="57" t="s">
         <v>1323</v>
       </c>
@@ -46445,7 +46444,7 @@
       <c r="FX174"/>
       <c r="FY174"/>
     </row>
-    <row r="175" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="175" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="57" t="s">
         <v>1332</v>
       </c>
@@ -46655,7 +46654,7 @@
       <c r="FX175"/>
       <c r="FY175"/>
     </row>
-    <row r="176" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="176" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="57" t="s">
         <v>1337</v>
       </c>
@@ -46883,7 +46882,7 @@
       <c r="FX176"/>
       <c r="FY176"/>
     </row>
-    <row r="177" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="177" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="61" t="s">
         <v>1345</v>
       </c>
@@ -47089,7 +47088,7 @@
       <c r="FX177"/>
       <c r="FY177"/>
     </row>
-    <row r="178" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="178" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="61" t="s">
         <v>1350</v>
       </c>
@@ -47341,7 +47340,7 @@
       <c r="FX178"/>
       <c r="FY178"/>
     </row>
-    <row r="179" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="179" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="61" t="s">
         <v>1358</v>
       </c>
@@ -47549,7 +47548,7 @@
       <c r="FX179"/>
       <c r="FY179"/>
     </row>
-    <row r="180" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="180" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="57" t="s">
         <v>1362</v>
       </c>
@@ -47781,7 +47780,7 @@
       <c r="FX180"/>
       <c r="FY180"/>
     </row>
-    <row r="181" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="181" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="61" t="s">
         <v>1370</v>
       </c>
@@ -47999,7 +47998,7 @@
       <c r="FX181"/>
       <c r="FY181"/>
     </row>
-    <row r="182" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="182" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="61" t="s">
         <v>1376</v>
       </c>
@@ -48205,7 +48204,7 @@
       <c r="FX182"/>
       <c r="FY182"/>
     </row>
-    <row r="183" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1">
+    <row r="183" spans="1:181" s="49" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="61" t="s">
         <v>1380</v>
       </c>
@@ -48411,7 +48410,7 @@
       <c r="FX183"/>
       <c r="FY183"/>
     </row>
-    <row r="184" spans="1:181" ht="23.25" customHeight="1">
+    <row r="184" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1384</v>
       </c>
@@ -48444,7 +48443,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="185" spans="1:181" ht="23.25" customHeight="1">
+    <row r="185" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1389</v>
       </c>
@@ -48487,7 +48486,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="186" spans="1:181" ht="23.25" customHeight="1">
+    <row r="186" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1394</v>
       </c>
@@ -48526,7 +48525,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="1:181" ht="23.25" customHeight="1">
+    <row r="187" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1399</v>
       </c>
@@ -48568,7 +48567,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="188" spans="1:181" ht="23.25" customHeight="1">
+    <row r="188" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1404</v>
       </c>
@@ -48625,7 +48624,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="189" spans="1:181" ht="23.25" customHeight="1">
+    <row r="189" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1408</v>
       </c>
@@ -48656,7 +48655,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="190" spans="1:181" ht="23.25" customHeight="1">
+    <row r="190" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1411</v>
       </c>
@@ -48689,7 +48688,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="191" spans="1:181" ht="23.25" customHeight="1">
+    <row r="191" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1415</v>
       </c>
@@ -48722,7 +48721,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="192" spans="1:181" ht="23.25" customHeight="1">
+    <row r="192" spans="1:181" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1420</v>
       </c>
@@ -48755,7 +48754,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="193" spans="1:53" ht="23.25" customHeight="1">
+    <row r="193" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1424</v>
       </c>
@@ -48783,7 +48782,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="194" spans="1:53" ht="23.25" customHeight="1">
+    <row r="194" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1429</v>
       </c>
@@ -48811,7 +48810,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="195" spans="1:53" ht="23.25" customHeight="1">
+    <row r="195" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1432</v>
       </c>
@@ -48845,7 +48844,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="196" spans="1:53" ht="23.25" customHeight="1">
+    <row r="196" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1436</v>
       </c>
@@ -48876,7 +48875,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="197" spans="1:53" ht="23.25" customHeight="1">
+    <row r="197" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1440</v>
       </c>
@@ -48918,7 +48917,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="198" spans="1:53" ht="23.25" customHeight="1">
+    <row r="198" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1444</v>
       </c>
@@ -48948,7 +48947,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:53" ht="23.25" customHeight="1">
+    <row r="199" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1448</v>
       </c>
@@ -48981,7 +48980,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="200" spans="1:53" ht="23.25" customHeight="1">
+    <row r="200" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1454</v>
       </c>
@@ -48999,11 +48998,8 @@
       </c>
       <c r="Q200" s="58"/>
       <c r="R200" s="58"/>
-      <c r="S200" t="s">
-        <v>1457</v>
-      </c>
-      <c r="T200" t="s">
-        <v>209</v>
+      <c r="S200" s="57" t="s">
+        <v>65</v>
       </c>
       <c r="V200" s="57" t="str">
         <f t="shared" ref="V200:V216" si="8">"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
@@ -49016,7 +49012,7 @@
     IF(T200&lt;&gt;"", """" &amp; T200 &amp; """", ""),
     IF(U200&lt;&gt;"", """" &amp; U200 &amp; """", "")
 ) &amp; "]"</f>
-        <v>["Identifier", "Host"]</v>
+        <v>["Identifiers"]</v>
       </c>
       <c r="W200" t="s">
         <v>1452</v>
@@ -49024,21 +49020,21 @@
       <c r="AU200" s="48"/>
       <c r="AV200" s="48"/>
       <c r="AW200" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="AY200" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="201" spans="1:53" ht="23.25" customHeight="1">
+    <row r="201" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B201" t="s">
         <v>1459</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" s="57" t="s">
         <v>1460</v>
-      </c>
-      <c r="C201" s="57" t="s">
-        <v>1461</v>
       </c>
       <c r="D201" s="57" t="s">
         <v>60</v>
@@ -49067,21 +49063,21 @@
       <c r="AU201" s="48"/>
       <c r="AV201" s="48"/>
       <c r="AW201" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="AY201" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="202" spans="1:53" ht="23.25" customHeight="1">
+    <row r="202" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B202" t="s">
         <v>1463</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" s="57" t="s">
         <v>1464</v>
-      </c>
-      <c r="C202" s="57" t="s">
-        <v>1465</v>
       </c>
       <c r="D202" s="57" t="s">
         <v>60</v>
@@ -49090,15 +49086,12 @@
         <v>61</v>
       </c>
       <c r="Q202" s="58"/>
-      <c r="S202" t="s">
-        <v>1457</v>
-      </c>
-      <c r="T202" t="s">
-        <v>209</v>
+      <c r="S202" s="57" t="s">
+        <v>65</v>
       </c>
       <c r="V202" s="57" t="str">
         <f t="shared" si="8"/>
-        <v>["Identifier", "Host"]</v>
+        <v>["Identifiers"]</v>
       </c>
       <c r="W202" t="s">
         <v>1452</v>
@@ -49108,21 +49101,21 @@
       <c r="AU202" s="48"/>
       <c r="AV202" s="48"/>
       <c r="AW202" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="AY202" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="203" spans="1:53" ht="23.25" customHeight="1">
+    <row r="203" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B203" t="s">
         <v>1467</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" s="57" t="s">
         <v>1468</v>
-      </c>
-      <c r="C203" s="57" t="s">
-        <v>1469</v>
       </c>
       <c r="D203" s="57" t="s">
         <v>60</v>
@@ -49132,15 +49125,12 @@
       </c>
       <c r="Q203" s="58"/>
       <c r="R203" s="58"/>
-      <c r="S203" t="s">
-        <v>1457</v>
-      </c>
-      <c r="T203" t="s">
-        <v>209</v>
+      <c r="S203" s="57" t="s">
+        <v>65</v>
       </c>
       <c r="V203" s="57" t="str">
         <f t="shared" si="8"/>
-        <v>["Identifier", "Host"]</v>
+        <v>["Identifiers"]</v>
       </c>
       <c r="W203" t="s">
         <v>1452</v>
@@ -49152,21 +49142,21 @@
       <c r="AU203" s="48"/>
       <c r="AV203" s="48"/>
       <c r="AW203" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="AY203" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="204" spans="1:53" ht="23.25" customHeight="1">
+    <row r="204" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B204" t="s">
         <v>1471</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" s="57" t="s">
         <v>1472</v>
-      </c>
-      <c r="C204" s="57" t="s">
-        <v>1473</v>
       </c>
       <c r="D204" s="57" t="s">
         <v>60</v>
@@ -49198,21 +49188,21 @@
       <c r="AU204" s="48"/>
       <c r="AV204" s="48"/>
       <c r="AW204" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="AY204" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="205" spans="1:53" ht="23.25" customHeight="1">
+    <row r="205" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B205" t="s">
         <v>1475</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" s="57" t="s">
         <v>1476</v>
-      </c>
-      <c r="C205" s="57" t="s">
-        <v>1477</v>
       </c>
       <c r="D205" s="57" t="s">
         <v>116</v>
@@ -49244,21 +49234,21 @@
       <c r="AU205" s="48"/>
       <c r="AV205" s="48"/>
       <c r="AW205" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="AY205" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="206" spans="1:53" ht="23.25" customHeight="1">
+    <row r="206" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B206" t="s">
         <v>1479</v>
       </c>
-      <c r="B206" t="s">
-        <v>1480</v>
-      </c>
       <c r="C206" s="56" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D206" t="s">
         <v>60</v>
@@ -49270,7 +49260,7 @@
         <v>209</v>
       </c>
       <c r="T206" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="V206" s="57" t="str">
         <f t="shared" si="8"/>
@@ -49280,21 +49270,21 @@
         <v>1452</v>
       </c>
       <c r="AW206" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="AY206" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="207" spans="1:53" ht="23.25" customHeight="1">
+    <row r="207" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B207" t="s">
         <v>1483</v>
       </c>
-      <c r="B207" t="s">
-        <v>1484</v>
-      </c>
       <c r="C207" s="55" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D207" t="s">
         <v>60</v>
@@ -49302,38 +49292,38 @@
       <c r="E207" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="S207" t="s">
-        <v>1457</v>
+      <c r="S207" s="57" t="s">
+        <v>65</v>
       </c>
       <c r="T207" t="s">
         <v>209</v>
       </c>
       <c r="U207" t="s">
-        <v>1485</v>
+        <v>1710</v>
       </c>
       <c r="V207" s="57" t="str">
         <f t="shared" si="8"/>
-        <v>["Identifier", "Host", "IMGVR"]</v>
+        <v>["Identifiers", "Host", "IMG/VR"]</v>
       </c>
       <c r="W207" t="s">
         <v>1452</v>
       </c>
       <c r="AW207" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="AY207" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="208" spans="1:53" ht="23.25" customHeight="1">
+    <row r="208" spans="1:53" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C208" t="s">
         <v>1487</v>
-      </c>
-      <c r="B208" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C208" t="s">
-        <v>1489</v>
       </c>
       <c r="D208" t="s">
         <v>60</v>
@@ -49341,21 +49331,18 @@
       <c r="E208" t="s">
         <v>61</v>
       </c>
-      <c r="S208" t="s">
-        <v>1457</v>
-      </c>
-      <c r="T208" t="s">
-        <v>209</v>
+      <c r="S208" s="57" t="s">
+        <v>65</v>
       </c>
       <c r="V208" s="57" t="str">
         <f t="shared" si="8"/>
-        <v>["Identifier", "Host"]</v>
+        <v>["Identifiers"]</v>
       </c>
       <c r="W208" t="s">
         <v>14</v>
       </c>
       <c r="AW208" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="AY208" t="s">
         <v>88</v>
@@ -49367,15 +49354,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="209" spans="1:51" ht="23.25" customHeight="1">
+    <row r="209" spans="1:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C209" t="s">
         <v>1490</v>
-      </c>
-      <c r="B209" t="s">
-        <v>1491</v>
-      </c>
-      <c r="C209" t="s">
-        <v>1492</v>
       </c>
       <c r="D209" t="s">
         <v>60</v>
@@ -49391,21 +49378,21 @@
         <v>14</v>
       </c>
       <c r="AW209" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="AY209" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="210" spans="1:51" ht="23.25" customHeight="1">
+    <row r="210" spans="1:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C210" s="57" t="s">
         <v>1494</v>
-      </c>
-      <c r="B210" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C210" s="57" t="s">
-        <v>1496</v>
       </c>
       <c r="D210" s="57" t="s">
         <v>259</v>
@@ -49434,21 +49421,21 @@
       <c r="AU210" s="48"/>
       <c r="AV210" s="48"/>
       <c r="AW210" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="AY210" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="211" spans="1:51" ht="23.25" customHeight="1">
+    <row r="211" spans="1:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C211" s="57" t="s">
         <v>1498</v>
-      </c>
-      <c r="B211" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C211" s="57" t="s">
-        <v>1500</v>
       </c>
       <c r="D211" s="57" t="s">
         <v>60</v>
@@ -49473,21 +49460,21 @@
         <v>406</v>
       </c>
       <c r="AW211" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="AY211" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="212" spans="1:51" ht="23.25" customHeight="1">
+    <row r="212" spans="1:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C212" t="s">
         <v>1502</v>
-      </c>
-      <c r="B212" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C212" t="s">
-        <v>1504</v>
       </c>
       <c r="D212" s="57" t="s">
         <v>60</v>
@@ -49500,21 +49487,21 @@
         <v>[]</v>
       </c>
       <c r="AW212" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="AY212" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="213" spans="1:51" ht="23.25" customHeight="1">
+    <row r="213" spans="1:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C213" t="s">
         <v>1506</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C213" t="s">
-        <v>1508</v>
       </c>
       <c r="D213" s="57" t="s">
         <v>60</v>
@@ -49527,21 +49514,21 @@
         <v>[]</v>
       </c>
       <c r="AW213" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="AY213" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="214" spans="1:51" ht="23.25" customHeight="1">
+    <row r="214" spans="1:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C214" t="s">
         <v>1510</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C214" t="s">
-        <v>1512</v>
       </c>
       <c r="D214" s="57" t="s">
         <v>60</v>
@@ -49554,21 +49541,21 @@
         <v>[]</v>
       </c>
       <c r="AW214" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="AY214" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="215" spans="1:51" ht="23.25" customHeight="1">
+    <row r="215" spans="1:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="B215" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C215" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="D215" s="57" t="s">
         <v>60</v>
@@ -49581,21 +49568,21 @@
         <v>[]</v>
       </c>
       <c r="AW215" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="AY215" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="216" spans="1:51" ht="23.25" customHeight="1">
+    <row r="216" spans="1:51" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B216" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C216" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="D216" s="57" t="s">
         <v>60</v>
@@ -49608,7 +49595,7 @@
         <v>[]</v>
       </c>
       <c r="AW216" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="AY216" t="s">
         <v>1166</v>
@@ -49639,12 +49626,12 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="40" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:172" s="19" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:172" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -49904,7 +49891,7 @@
       <c r="FO1" s="29"/>
       <c r="FP1" s="29"/>
     </row>
-    <row r="2" spans="1:172" s="19" customFormat="1" ht="23.25" customHeight="1">
+    <row r="2" spans="1:172" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -50164,7 +50151,7 @@
       <c r="FO2" s="29"/>
       <c r="FP2" s="29"/>
     </row>
-    <row r="3" spans="1:172" s="19" customFormat="1" ht="23.25" customHeight="1">
+    <row r="3" spans="1:172" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="str">
         <f t="shared" ref="A3:AQ3" si="0">_xlfn.TEXTJOIN(" ", TRUE, LOWER(A1), LOWER(A2))</f>
         <v>vjdbv0.3 field id</v>
@@ -50467,7 +50454,7 @@
       <c r="FO3" s="29"/>
       <c r="FP3" s="29"/>
     </row>
-    <row r="4" spans="1:172" s="22" customFormat="1" ht="23.25" customHeight="1">
+    <row r="4" spans="1:172" s="22" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="str">
         <f t="shared" ref="A4:AQ4" si="1">SUBSTITUTE(A3, " ", "_")</f>
         <v>vjdbv0.3_field_id</v>
@@ -50770,7 +50757,7 @@
       <c r="FO4" s="29"/>
       <c r="FP4" s="29"/>
     </row>
-    <row r="5" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="5" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -50810,7 +50797,7 @@
         <v>371</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
@@ -50820,14 +50807,14 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="2" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AH5" s="9" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -50837,7 +50824,7 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="27"/>
     </row>
-    <row r="6" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="6" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -50854,7 +50841,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -50879,7 +50866,7 @@
         <v>371</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
@@ -50891,14 +50878,14 @@
       </c>
       <c r="AD6" s="13"/>
       <c r="AE6" s="1" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG6" s="13"/>
       <c r="AH6" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
@@ -50908,7 +50895,7 @@
       <c r="AN6" s="13"/>
       <c r="AO6" s="28"/>
     </row>
-    <row r="7" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="7" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -50948,7 +50935,7 @@
         <v>371</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
@@ -50960,14 +50947,14 @@
         <v>127</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG7" s="13"/>
       <c r="AH7" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
@@ -50977,7 +50964,7 @@
       <c r="AN7" s="13"/>
       <c r="AO7" s="28"/>
     </row>
-    <row r="8" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="8" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -51017,7 +51004,7 @@
         <v>371</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
@@ -51027,14 +51014,14 @@
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
       <c r="AE8" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG8" s="13"/>
       <c r="AH8" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
@@ -51044,7 +51031,7 @@
       <c r="AN8" s="13"/>
       <c r="AO8" s="28"/>
     </row>
-    <row r="9" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="9" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -51084,7 +51071,7 @@
         <v>371</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
@@ -51094,14 +51081,14 @@
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="1" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG9" s="13"/>
       <c r="AH9" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
@@ -51111,7 +51098,7 @@
       <c r="AN9" s="13"/>
       <c r="AO9" s="28"/>
     </row>
-    <row r="10" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="10" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -51128,7 +51115,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -51153,7 +51140,7 @@
         <v>371</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
@@ -51165,14 +51152,14 @@
       </c>
       <c r="AD10" s="13"/>
       <c r="AE10" s="1" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG10" s="13"/>
       <c r="AH10" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
@@ -51182,7 +51169,7 @@
       <c r="AN10" s="13"/>
       <c r="AO10" s="28"/>
     </row>
-    <row r="11" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="11" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -51199,7 +51186,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -51224,7 +51211,7 @@
         <v>371</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
@@ -51236,14 +51223,14 @@
       </c>
       <c r="AD11" s="13"/>
       <c r="AE11" s="1" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG11" s="13"/>
       <c r="AH11" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
@@ -51253,7 +51240,7 @@
       <c r="AN11" s="13"/>
       <c r="AO11" s="28"/>
     </row>
-    <row r="12" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="12" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -51293,7 +51280,7 @@
         <v>371</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
@@ -51303,14 +51290,14 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="1" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG12" s="13"/>
       <c r="AH12" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
@@ -51320,7 +51307,7 @@
       <c r="AN12" s="13"/>
       <c r="AO12" s="28"/>
     </row>
-    <row r="13" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="13" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -51360,7 +51347,7 @@
         <v>371</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
@@ -51370,14 +51357,14 @@
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="1" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG13" s="13"/>
       <c r="AH13" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
@@ -51387,7 +51374,7 @@
       <c r="AN13" s="13"/>
       <c r="AO13" s="28"/>
     </row>
-    <row r="14" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="14" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -51404,7 +51391,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -51429,7 +51416,7 @@
         <v>371</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
@@ -51437,20 +51424,20 @@
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG14" s="13"/>
       <c r="AH14" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
@@ -51460,7 +51447,7 @@
       <c r="AN14" s="13"/>
       <c r="AO14" s="28"/>
     </row>
-    <row r="15" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="15" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -51500,7 +51487,7 @@
         <v>371</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
@@ -51509,17 +51496,17 @@
       <c r="AB15" s="13"/>
       <c r="AC15" s="13"/>
       <c r="AD15" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AE15" s="1" t="s">
         <v>1534</v>
-      </c>
-      <c r="AE15" s="1" t="s">
-        <v>1536</v>
       </c>
       <c r="AF15" s="1" t="s">
         <v>259</v>
       </c>
       <c r="AG15" s="13"/>
       <c r="AH15" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
@@ -51529,7 +51516,7 @@
       <c r="AN15" s="13"/>
       <c r="AO15" s="28"/>
     </row>
-    <row r="16" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="16" spans="1:172" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -51569,7 +51556,7 @@
         <v>371</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
@@ -51579,14 +51566,14 @@
       <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
       <c r="AE16" s="1" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG16" s="13"/>
       <c r="AH16" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="13"/>
@@ -51596,7 +51583,7 @@
       <c r="AN16" s="13"/>
       <c r="AO16" s="28"/>
     </row>
-    <row r="17" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="17" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -51613,7 +51600,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -51638,7 +51625,7 @@
         <v>371</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -51646,20 +51633,20 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AE17" s="1" t="s">
         <v>1539</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>1540</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>1541</v>
       </c>
       <c r="AF17" s="1" t="s">
         <v>259</v>
       </c>
       <c r="AG17" s="13"/>
       <c r="AH17" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="13"/>
@@ -51669,7 +51656,7 @@
       <c r="AN17" s="13"/>
       <c r="AO17" s="28"/>
     </row>
-    <row r="18" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="18" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -51686,7 +51673,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -51711,7 +51698,7 @@
         <v>371</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
@@ -51719,20 +51706,20 @@
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
       <c r="AC18" s="1" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="AF18" s="1" t="s">
         <v>259</v>
       </c>
       <c r="AG18" s="13"/>
       <c r="AH18" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI18" s="13"/>
       <c r="AJ18" s="13"/>
@@ -51742,7 +51729,7 @@
       <c r="AN18" s="13"/>
       <c r="AO18" s="28"/>
     </row>
-    <row r="19" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="19" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -51759,7 +51746,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -51784,7 +51771,7 @@
         <v>371</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -51798,14 +51785,14 @@
         <v>227</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG19" s="13"/>
       <c r="AH19" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI19" s="13"/>
       <c r="AJ19" s="13"/>
@@ -51815,7 +51802,7 @@
       <c r="AN19" s="13"/>
       <c r="AO19" s="28"/>
     </row>
-    <row r="20" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="20" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -51832,7 +51819,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -51857,7 +51844,7 @@
         <v>371</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
@@ -51869,14 +51856,14 @@
       </c>
       <c r="AD20" s="13"/>
       <c r="AE20" s="1" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="AF20" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG20" s="13"/>
       <c r="AH20" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI20" s="13"/>
       <c r="AJ20" s="13"/>
@@ -51886,7 +51873,7 @@
       <c r="AN20" s="13"/>
       <c r="AO20" s="28"/>
     </row>
-    <row r="21" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="21" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -51931,7 +51918,7 @@
       <c r="AN21" s="13"/>
       <c r="AO21" s="28"/>
     </row>
-    <row r="22" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="22" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -51948,7 +51935,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -51973,7 +51960,7 @@
         <v>371</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
@@ -51981,20 +51968,20 @@
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
       <c r="AC22" s="1" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="AF22" s="1" t="s">
         <v>259</v>
       </c>
       <c r="AG22" s="13"/>
       <c r="AH22" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI22" s="13"/>
       <c r="AJ22" s="13"/>
@@ -52004,7 +51991,7 @@
       <c r="AN22" s="13"/>
       <c r="AO22" s="28"/>
     </row>
-    <row r="23" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="23" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -52021,7 +52008,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -52046,7 +52033,7 @@
         <v>371</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
@@ -52060,14 +52047,14 @@
         <v>127</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="AF23" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG23" s="13"/>
       <c r="AH23" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI23" s="13"/>
       <c r="AJ23" s="13"/>
@@ -52077,7 +52064,7 @@
       <c r="AN23" s="13"/>
       <c r="AO23" s="28"/>
     </row>
-    <row r="24" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="24" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -52094,7 +52081,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -52119,7 +52106,7 @@
         <v>371</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
@@ -52131,14 +52118,14 @@
       </c>
       <c r="AD24" s="13"/>
       <c r="AE24" s="1" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="AF24" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG24" s="13"/>
       <c r="AH24" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI24" s="13"/>
       <c r="AJ24" s="13"/>
@@ -52148,7 +52135,7 @@
       <c r="AN24" s="13"/>
       <c r="AO24" s="28"/>
     </row>
-    <row r="25" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="25" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -52188,7 +52175,7 @@
         <v>371</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
@@ -52198,14 +52185,14 @@
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="1" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="AF25" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG25" s="13"/>
       <c r="AH25" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI25" s="13"/>
       <c r="AJ25" s="13"/>
@@ -52215,7 +52202,7 @@
       <c r="AN25" s="13"/>
       <c r="AO25" s="28"/>
     </row>
-    <row r="26" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="26" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -52232,7 +52219,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -52257,7 +52244,7 @@
         <v>371</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
@@ -52269,14 +52256,14 @@
       </c>
       <c r="AD26" s="13"/>
       <c r="AE26" s="1" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="AF26" s="1" t="s">
         <v>742</v>
       </c>
       <c r="AG26" s="13"/>
       <c r="AH26" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="13"/>
@@ -52286,7 +52273,7 @@
       <c r="AN26" s="13"/>
       <c r="AO26" s="28"/>
     </row>
-    <row r="27" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="27" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -52303,7 +52290,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -52328,7 +52315,7 @@
         <v>371</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
@@ -52342,14 +52329,14 @@
         <v>227</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="AF27" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG27" s="13"/>
       <c r="AH27" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="13"/>
@@ -52359,7 +52346,7 @@
       <c r="AN27" s="13"/>
       <c r="AO27" s="28"/>
     </row>
-    <row r="28" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="28" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -52376,7 +52363,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -52401,7 +52388,7 @@
         <v>371</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
@@ -52415,14 +52402,14 @@
         <v>227</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="AF28" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG28" s="13"/>
       <c r="AH28" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="13"/>
@@ -52432,7 +52419,7 @@
       <c r="AN28" s="13"/>
       <c r="AO28" s="28"/>
     </row>
-    <row r="29" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="29" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -52449,7 +52436,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -52474,7 +52461,7 @@
         <v>371</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
@@ -52488,14 +52475,14 @@
         <v>227</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="AF29" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG29" s="13"/>
       <c r="AH29" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
@@ -52505,7 +52492,7 @@
       <c r="AN29" s="13"/>
       <c r="AO29" s="28"/>
     </row>
-    <row r="30" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="30" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -52545,7 +52532,7 @@
         <v>371</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
@@ -52554,17 +52541,17 @@
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
       <c r="AD30" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="AF30" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG30" s="13"/>
       <c r="AH30" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="13"/>
@@ -52574,7 +52561,7 @@
       <c r="AN30" s="13"/>
       <c r="AO30" s="28"/>
     </row>
-    <row r="31" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="31" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -52614,7 +52601,7 @@
         <v>371</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
@@ -52623,17 +52610,17 @@
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
       <c r="AD31" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="AF31" s="1" t="s">
         <v>259</v>
       </c>
       <c r="AG31" s="13"/>
       <c r="AH31" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="13"/>
@@ -52643,7 +52630,7 @@
       <c r="AN31" s="13"/>
       <c r="AO31" s="28"/>
     </row>
-    <row r="32" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="32" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -52660,7 +52647,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -52685,7 +52672,7 @@
         <v>371</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
@@ -52697,14 +52684,14 @@
       </c>
       <c r="AD32" s="13"/>
       <c r="AE32" s="1" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="AF32" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG32" s="13"/>
       <c r="AH32" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="13"/>
@@ -52714,7 +52701,7 @@
       <c r="AN32" s="13"/>
       <c r="AO32" s="28"/>
     </row>
-    <row r="33" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="33" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -52754,7 +52741,7 @@
         <v>371</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
@@ -52764,14 +52751,14 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
       <c r="AE33" s="1" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="AF33" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG33" s="13"/>
       <c r="AH33" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="13"/>
@@ -52781,7 +52768,7 @@
       <c r="AN33" s="13"/>
       <c r="AO33" s="28"/>
     </row>
-    <row r="34" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="34" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -52798,7 +52785,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -52823,7 +52810,7 @@
         <v>371</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
@@ -52835,14 +52822,14 @@
       </c>
       <c r="AD34" s="13"/>
       <c r="AE34" s="1" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="AF34" s="1" t="s">
         <v>742</v>
       </c>
       <c r="AG34" s="13"/>
       <c r="AH34" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="13"/>
@@ -52852,7 +52839,7 @@
       <c r="AN34" s="13"/>
       <c r="AO34" s="28"/>
     </row>
-    <row r="35" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="35" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -52892,7 +52879,7 @@
         <v>371</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
@@ -52904,14 +52891,14 @@
         <v>127</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="AF35" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG35" s="13"/>
       <c r="AH35" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="13"/>
@@ -52921,7 +52908,7 @@
       <c r="AN35" s="13"/>
       <c r="AO35" s="28"/>
     </row>
-    <row r="36" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="36" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -52961,7 +52948,7 @@
         <v>371</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
@@ -52978,7 +52965,7 @@
       </c>
       <c r="AG36" s="13"/>
       <c r="AH36" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI36" s="13"/>
       <c r="AJ36" s="13"/>
@@ -52988,7 +52975,7 @@
       <c r="AN36" s="13"/>
       <c r="AO36" s="28"/>
     </row>
-    <row r="37" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="37" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -53005,7 +52992,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -53030,7 +53017,7 @@
         <v>371</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
@@ -53038,20 +53025,20 @@
       <c r="AA37" s="13"/>
       <c r="AB37" s="13"/>
       <c r="AC37" s="1" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>259</v>
       </c>
       <c r="AG37" s="13"/>
       <c r="AH37" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI37" s="13"/>
       <c r="AJ37" s="13"/>
@@ -53061,7 +53048,7 @@
       <c r="AN37" s="13"/>
       <c r="AO37" s="28"/>
     </row>
-    <row r="38" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="38" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -53078,7 +53065,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -53103,7 +53090,7 @@
         <v>371</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
@@ -53111,20 +53098,20 @@
       <c r="AA38" s="13"/>
       <c r="AB38" s="13"/>
       <c r="AC38" s="1" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="AF38" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG38" s="13"/>
       <c r="AH38" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI38" s="13"/>
       <c r="AJ38" s="13"/>
@@ -53134,7 +53121,7 @@
       <c r="AN38" s="13"/>
       <c r="AO38" s="28"/>
     </row>
-    <row r="39" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="39" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -53151,7 +53138,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -53176,7 +53163,7 @@
         <v>371</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
@@ -53184,20 +53171,20 @@
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
       <c r="AC39" s="1" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="AF39" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG39" s="13"/>
       <c r="AH39" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI39" s="13"/>
       <c r="AJ39" s="13"/>
@@ -53207,7 +53194,7 @@
       <c r="AN39" s="13"/>
       <c r="AO39" s="28"/>
     </row>
-    <row r="40" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="40" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -53224,7 +53211,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -53249,7 +53236,7 @@
         <v>371</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
@@ -53257,18 +53244,18 @@
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
       <c r="AC40" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="AD40" s="13"/>
       <c r="AE40" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="AF40" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG40" s="13"/>
       <c r="AH40" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI40" s="13"/>
       <c r="AJ40" s="13"/>
@@ -53278,7 +53265,7 @@
       <c r="AN40" s="13"/>
       <c r="AO40" s="28"/>
     </row>
-    <row r="41" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="41" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -53295,7 +53282,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -53320,7 +53307,7 @@
         <v>371</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
@@ -53334,14 +53321,14 @@
         <v>127</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="AF41" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG41" s="13"/>
       <c r="AH41" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI41" s="13"/>
       <c r="AJ41" s="13"/>
@@ -53351,7 +53338,7 @@
       <c r="AN41" s="13"/>
       <c r="AO41" s="28"/>
     </row>
-    <row r="42" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="42" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -53391,7 +53378,7 @@
         <v>371</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
@@ -53401,14 +53388,14 @@
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
       <c r="AE42" s="1" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="AF42" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG42" s="13"/>
       <c r="AH42" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI42" s="13"/>
       <c r="AJ42" s="13"/>
@@ -53418,7 +53405,7 @@
       <c r="AN42" s="13"/>
       <c r="AO42" s="28"/>
     </row>
-    <row r="43" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="43" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -53435,7 +53422,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -53460,7 +53447,7 @@
         <v>371</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
@@ -53472,14 +53459,14 @@
       </c>
       <c r="AD43" s="13"/>
       <c r="AE43" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="AF43" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG43" s="13"/>
       <c r="AH43" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI43" s="13"/>
       <c r="AJ43" s="13"/>
@@ -53489,7 +53476,7 @@
       <c r="AN43" s="13"/>
       <c r="AO43" s="28"/>
     </row>
-    <row r="44" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="44" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -53506,7 +53493,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -53531,7 +53518,7 @@
         <v>371</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
@@ -53543,14 +53530,14 @@
       </c>
       <c r="AD44" s="13"/>
       <c r="AE44" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="AF44" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG44" s="13"/>
       <c r="AH44" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI44" s="13"/>
       <c r="AJ44" s="13"/>
@@ -53560,7 +53547,7 @@
       <c r="AN44" s="13"/>
       <c r="AO44" s="28"/>
     </row>
-    <row r="45" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="45" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -53577,7 +53564,7 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -53602,7 +53589,7 @@
         <v>371</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
@@ -53614,14 +53601,14 @@
       </c>
       <c r="AD45" s="13"/>
       <c r="AE45" s="1" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="AF45" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG45" s="13"/>
       <c r="AH45" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI45" s="13"/>
       <c r="AJ45" s="13"/>
@@ -53631,7 +53618,7 @@
       <c r="AN45" s="13"/>
       <c r="AO45" s="28"/>
     </row>
-    <row r="46" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="46" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -53671,7 +53658,7 @@
         <v>371</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
@@ -53681,14 +53668,14 @@
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="1" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="AF46" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG46" s="13"/>
       <c r="AH46" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="13"/>
@@ -53698,7 +53685,7 @@
       <c r="AN46" s="13"/>
       <c r="AO46" s="28"/>
     </row>
-    <row r="47" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="47" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -53715,7 +53702,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -53740,7 +53727,7 @@
         <v>371</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
@@ -53752,14 +53739,14 @@
       </c>
       <c r="AD47" s="13"/>
       <c r="AE47" s="1" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="AF47" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG47" s="13"/>
       <c r="AH47" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI47" s="13"/>
       <c r="AJ47" s="13"/>
@@ -53769,7 +53756,7 @@
       <c r="AN47" s="13"/>
       <c r="AO47" s="28"/>
     </row>
-    <row r="48" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="48" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -53809,7 +53796,7 @@
         <v>371</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
@@ -53819,14 +53806,14 @@
       <c r="AC48" s="13"/>
       <c r="AD48" s="13"/>
       <c r="AE48" s="1" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="AF48" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG48" s="13"/>
       <c r="AH48" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI48" s="13"/>
       <c r="AJ48" s="13"/>
@@ -53836,7 +53823,7 @@
       <c r="AN48" s="13"/>
       <c r="AO48" s="28"/>
     </row>
-    <row r="49" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="49" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -53853,7 +53840,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -53878,7 +53865,7 @@
         <v>371</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
@@ -53890,14 +53877,14 @@
       </c>
       <c r="AD49" s="13"/>
       <c r="AE49" s="1" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="AF49" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG49" s="13"/>
       <c r="AH49" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI49" s="13"/>
       <c r="AJ49" s="13"/>
@@ -53907,7 +53894,7 @@
       <c r="AN49" s="13"/>
       <c r="AO49" s="28"/>
     </row>
-    <row r="50" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="50" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -53947,7 +53934,7 @@
         <v>371</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
@@ -53957,14 +53944,14 @@
       <c r="AC50" s="13"/>
       <c r="AD50" s="13"/>
       <c r="AE50" s="1" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="AF50" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG50" s="13"/>
       <c r="AH50" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI50" s="13"/>
       <c r="AJ50" s="13"/>
@@ -53974,7 +53961,7 @@
       <c r="AN50" s="13"/>
       <c r="AO50" s="28"/>
     </row>
-    <row r="51" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="51" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -54014,7 +54001,7 @@
         <v>371</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X51" s="13"/>
       <c r="Y51" s="13"/>
@@ -54023,17 +54010,17 @@
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
       <c r="AD51" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="AF51" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG51" s="13"/>
       <c r="AH51" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI51" s="13"/>
       <c r="AJ51" s="13"/>
@@ -54043,7 +54030,7 @@
       <c r="AN51" s="13"/>
       <c r="AO51" s="28"/>
     </row>
-    <row r="52" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="52" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -54083,7 +54070,7 @@
         <v>371</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
@@ -54092,17 +54079,17 @@
       <c r="AB52" s="13"/>
       <c r="AC52" s="13"/>
       <c r="AD52" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="AF52" s="1" t="s">
         <v>259</v>
       </c>
       <c r="AG52" s="13"/>
       <c r="AH52" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI52" s="13"/>
       <c r="AJ52" s="13"/>
@@ -54112,7 +54099,7 @@
       <c r="AN52" s="13"/>
       <c r="AO52" s="28"/>
     </row>
-    <row r="53" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="53" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -54129,7 +54116,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
@@ -54154,7 +54141,7 @@
         <v>371</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
@@ -54168,14 +54155,14 @@
         <v>127</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="AF53" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG53" s="13"/>
       <c r="AH53" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI53" s="13"/>
       <c r="AJ53" s="13"/>
@@ -54185,7 +54172,7 @@
       <c r="AN53" s="13"/>
       <c r="AO53" s="28"/>
     </row>
-    <row r="54" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="54" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -54225,7 +54212,7 @@
         <v>371</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X54" s="13"/>
       <c r="Y54" s="13"/>
@@ -54237,14 +54224,14 @@
         <v>127</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="AF54" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG54" s="13"/>
       <c r="AH54" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI54" s="13"/>
       <c r="AJ54" s="13"/>
@@ -54254,7 +54241,7 @@
       <c r="AN54" s="13"/>
       <c r="AO54" s="28"/>
     </row>
-    <row r="55" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="55" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -54271,7 +54258,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -54296,7 +54283,7 @@
         <v>371</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
@@ -54310,14 +54297,14 @@
         <v>127</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="AF55" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG55" s="13"/>
       <c r="AH55" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI55" s="13"/>
       <c r="AJ55" s="13"/>
@@ -54327,7 +54314,7 @@
       <c r="AN55" s="13"/>
       <c r="AO55" s="28"/>
     </row>
-    <row r="56" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="56" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -54351,7 +54338,7 @@
       <c r="AN56" s="13"/>
       <c r="AO56" s="28"/>
     </row>
-    <row r="57" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="57" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -54391,7 +54378,7 @@
         <v>371</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
@@ -54403,14 +54390,14 @@
         <v>127</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="AF57" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG57" s="13"/>
       <c r="AH57" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI57" s="13"/>
       <c r="AJ57" s="13"/>
@@ -54420,7 +54407,7 @@
       <c r="AN57" s="13"/>
       <c r="AO57" s="28"/>
     </row>
-    <row r="58" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="58" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -54460,7 +54447,7 @@
         <v>371</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
@@ -54472,14 +54459,14 @@
         <v>127</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="AF58" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI58" s="13"/>
       <c r="AJ58" s="13"/>
@@ -54489,7 +54476,7 @@
       <c r="AN58" s="13"/>
       <c r="AO58" s="28"/>
     </row>
-    <row r="59" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="59" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -54506,7 +54493,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
@@ -54531,7 +54518,7 @@
         <v>371</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
@@ -54539,20 +54526,20 @@
       <c r="AA59" s="13"/>
       <c r="AB59" s="13"/>
       <c r="AC59" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="AF59" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG59" s="13"/>
       <c r="AH59" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI59" s="13"/>
       <c r="AJ59" s="13"/>
@@ -54562,7 +54549,7 @@
       <c r="AN59" s="13"/>
       <c r="AO59" s="28"/>
     </row>
-    <row r="60" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="60" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -54602,7 +54589,7 @@
         <v>371</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
@@ -54611,17 +54598,17 @@
       <c r="AB60" s="13"/>
       <c r="AC60" s="13"/>
       <c r="AD60" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="AF60" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG60" s="13"/>
       <c r="AH60" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI60" s="13"/>
       <c r="AJ60" s="13"/>
@@ -54631,7 +54618,7 @@
       <c r="AN60" s="13"/>
       <c r="AO60" s="28"/>
     </row>
-    <row r="61" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="61" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -54648,7 +54635,7 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
@@ -54673,7 +54660,7 @@
         <v>371</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
@@ -54685,14 +54672,14 @@
       </c>
       <c r="AD61" s="13"/>
       <c r="AE61" s="1" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="AF61" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG61" s="13"/>
       <c r="AH61" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI61" s="13"/>
       <c r="AJ61" s="13"/>
@@ -54702,7 +54689,7 @@
       <c r="AN61" s="13"/>
       <c r="AO61" s="28"/>
     </row>
-    <row r="62" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="62" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -54742,7 +54729,7 @@
         <v>371</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
@@ -54752,14 +54739,14 @@
       <c r="AC62" s="13"/>
       <c r="AD62" s="13"/>
       <c r="AE62" s="1" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="AF62" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG62" s="13"/>
       <c r="AH62" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI62" s="13"/>
       <c r="AJ62" s="13"/>
@@ -54769,7 +54756,7 @@
       <c r="AN62" s="13"/>
       <c r="AO62" s="28"/>
     </row>
-    <row r="63" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="63" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -54786,7 +54773,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
@@ -54811,7 +54798,7 @@
         <v>371</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
@@ -54823,14 +54810,14 @@
       </c>
       <c r="AD63" s="13"/>
       <c r="AE63" s="1" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="AF63" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG63" s="13"/>
       <c r="AH63" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI63" s="13"/>
       <c r="AJ63" s="13"/>
@@ -54840,7 +54827,7 @@
       <c r="AN63" s="13"/>
       <c r="AO63" s="28"/>
     </row>
-    <row r="64" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="64" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -54880,7 +54867,7 @@
         <v>371</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
@@ -54890,14 +54877,14 @@
       <c r="AC64" s="13"/>
       <c r="AD64" s="13"/>
       <c r="AE64" s="1" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="AF64" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG64" s="13"/>
       <c r="AH64" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI64" s="13"/>
       <c r="AJ64" s="13"/>
@@ -54907,7 +54894,7 @@
       <c r="AN64" s="13"/>
       <c r="AO64" s="28"/>
     </row>
-    <row r="65" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="65" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -54947,7 +54934,7 @@
         <v>371</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X65" s="13"/>
       <c r="Y65" s="13"/>
@@ -54956,17 +54943,17 @@
       <c r="AB65" s="13"/>
       <c r="AC65" s="13"/>
       <c r="AD65" s="1" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="AF65" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG65" s="13"/>
       <c r="AH65" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI65" s="13"/>
       <c r="AJ65" s="13"/>
@@ -54976,7 +54963,7 @@
       <c r="AN65" s="13"/>
       <c r="AO65" s="28"/>
     </row>
-    <row r="66" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="66" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -55016,7 +55003,7 @@
         <v>371</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
@@ -55026,14 +55013,14 @@
       <c r="AC66" s="13"/>
       <c r="AD66" s="13"/>
       <c r="AE66" s="1" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="AF66" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG66" s="13"/>
       <c r="AH66" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI66" s="13"/>
       <c r="AJ66" s="13"/>
@@ -55043,7 +55030,7 @@
       <c r="AN66" s="13"/>
       <c r="AO66" s="28"/>
     </row>
-    <row r="67" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="67" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -55067,7 +55054,7 @@
       <c r="AN67" s="13"/>
       <c r="AO67" s="28"/>
     </row>
-    <row r="68" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="68" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -55107,7 +55094,7 @@
         <v>371</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X68" s="13"/>
       <c r="Y68" s="13"/>
@@ -55124,7 +55111,7 @@
       </c>
       <c r="AG68" s="13"/>
       <c r="AH68" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI68" s="13"/>
       <c r="AJ68" s="13"/>
@@ -55134,7 +55121,7 @@
       <c r="AN68" s="13"/>
       <c r="AO68" s="28"/>
     </row>
-    <row r="69" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="69" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -55151,7 +55138,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
@@ -55176,7 +55163,7 @@
         <v>371</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X69" s="13"/>
       <c r="Y69" s="13"/>
@@ -55188,14 +55175,14 @@
       </c>
       <c r="AD69" s="13"/>
       <c r="AE69" s="1" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="AF69" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG69" s="13"/>
       <c r="AH69" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI69" s="13"/>
       <c r="AJ69" s="13"/>
@@ -55205,7 +55192,7 @@
       <c r="AN69" s="13"/>
       <c r="AO69" s="28"/>
     </row>
-    <row r="70" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="70" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -55222,7 +55209,7 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
@@ -55247,7 +55234,7 @@
         <v>371</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X70" s="13"/>
       <c r="Y70" s="13"/>
@@ -55261,14 +55248,14 @@
         <v>127</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="AF70" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG70" s="13"/>
       <c r="AH70" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI70" s="13"/>
       <c r="AJ70" s="13"/>
@@ -55278,7 +55265,7 @@
       <c r="AN70" s="13"/>
       <c r="AO70" s="28"/>
     </row>
-    <row r="71" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="71" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -55295,7 +55282,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
@@ -55320,7 +55307,7 @@
         <v>371</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X71" s="13"/>
       <c r="Y71" s="13"/>
@@ -55332,14 +55319,14 @@
       </c>
       <c r="AD71" s="13"/>
       <c r="AE71" s="1" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="AF71" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG71" s="13"/>
       <c r="AH71" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI71" s="13"/>
       <c r="AJ71" s="13"/>
@@ -55349,7 +55336,7 @@
       <c r="AN71" s="13"/>
       <c r="AO71" s="28"/>
     </row>
-    <row r="72" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="72" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -55366,7 +55353,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
@@ -55391,7 +55378,7 @@
         <v>371</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X72" s="13"/>
       <c r="Y72" s="13"/>
@@ -55403,14 +55390,14 @@
       </c>
       <c r="AD72" s="13"/>
       <c r="AE72" s="1" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="AF72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG72" s="13"/>
       <c r="AH72" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI72" s="13"/>
       <c r="AJ72" s="13"/>
@@ -55420,7 +55407,7 @@
       <c r="AN72" s="13"/>
       <c r="AO72" s="28"/>
     </row>
-    <row r="73" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="73" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -55460,7 +55447,7 @@
         <v>371</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X73" s="13"/>
       <c r="Y73" s="13"/>
@@ -55469,17 +55456,17 @@
       <c r="AB73" s="13"/>
       <c r="AC73" s="13"/>
       <c r="AD73" s="1" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="AF73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG73" s="13"/>
       <c r="AH73" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI73" s="13"/>
       <c r="AJ73" s="13"/>
@@ -55489,7 +55476,7 @@
       <c r="AN73" s="13"/>
       <c r="AO73" s="28"/>
     </row>
-    <row r="74" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="74" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -55506,7 +55493,7 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -55531,7 +55518,7 @@
         <v>371</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X74" s="13"/>
       <c r="Y74" s="13"/>
@@ -55542,17 +55529,17 @@
         <v>740</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="AE74" s="1" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="AF74" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG74" s="13"/>
       <c r="AH74" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI74" s="13"/>
       <c r="AJ74" s="13"/>
@@ -55562,7 +55549,7 @@
       <c r="AN74" s="13"/>
       <c r="AO74" s="28"/>
     </row>
-    <row r="75" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="75" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -55602,7 +55589,7 @@
         <v>371</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
@@ -55612,14 +55599,14 @@
       <c r="AC75" s="13"/>
       <c r="AD75" s="13"/>
       <c r="AE75" s="1" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="AF75" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG75" s="13"/>
       <c r="AH75" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI75" s="13"/>
       <c r="AJ75" s="13"/>
@@ -55629,7 +55616,7 @@
       <c r="AN75" s="13"/>
       <c r="AO75" s="28"/>
     </row>
-    <row r="76" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="76" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -55669,7 +55656,7 @@
         <v>371</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X76" s="13"/>
       <c r="Y76" s="13"/>
@@ -55679,14 +55666,14 @@
       <c r="AC76" s="13"/>
       <c r="AD76" s="13"/>
       <c r="AE76" s="1" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="AF76" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG76" s="13"/>
       <c r="AH76" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI76" s="13"/>
       <c r="AJ76" s="13"/>
@@ -55696,7 +55683,7 @@
       <c r="AN76" s="13"/>
       <c r="AO76" s="28"/>
     </row>
-    <row r="77" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="77" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -55736,7 +55723,7 @@
         <v>371</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X77" s="13"/>
       <c r="Y77" s="13"/>
@@ -55745,17 +55732,17 @@
       <c r="AB77" s="13"/>
       <c r="AC77" s="13"/>
       <c r="AD77" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="AF77" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG77" s="13"/>
       <c r="AH77" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI77" s="13"/>
       <c r="AJ77" s="13"/>
@@ -55765,7 +55752,7 @@
       <c r="AN77" s="13"/>
       <c r="AO77" s="28"/>
     </row>
-    <row r="78" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="78" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -55805,7 +55792,7 @@
         <v>371</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X78" s="13"/>
       <c r="Y78" s="13"/>
@@ -55814,17 +55801,17 @@
       <c r="AB78" s="13"/>
       <c r="AC78" s="13"/>
       <c r="AD78" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="AF78" s="1" t="s">
         <v>259</v>
       </c>
       <c r="AG78" s="13"/>
       <c r="AH78" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI78" s="13"/>
       <c r="AJ78" s="13"/>
@@ -55834,7 +55821,7 @@
       <c r="AN78" s="13"/>
       <c r="AO78" s="28"/>
     </row>
-    <row r="79" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="79" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -55851,7 +55838,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
@@ -55876,7 +55863,7 @@
         <v>371</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X79" s="13"/>
       <c r="Y79" s="13"/>
@@ -55888,14 +55875,14 @@
       </c>
       <c r="AD79" s="13"/>
       <c r="AE79" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="AF79" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG79" s="13"/>
       <c r="AH79" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI79" s="13"/>
       <c r="AJ79" s="13"/>
@@ -55905,7 +55892,7 @@
       <c r="AN79" s="13"/>
       <c r="AO79" s="28"/>
     </row>
-    <row r="80" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="80" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -55922,7 +55909,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -55947,7 +55934,7 @@
         <v>371</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X80" s="13"/>
       <c r="Y80" s="13"/>
@@ -55959,14 +55946,14 @@
       </c>
       <c r="AD80" s="13"/>
       <c r="AE80" s="1" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="AF80" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG80" s="13"/>
       <c r="AH80" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI80" s="13"/>
       <c r="AJ80" s="13"/>
@@ -55976,7 +55963,7 @@
       <c r="AN80" s="13"/>
       <c r="AO80" s="28"/>
     </row>
-    <row r="81" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="81" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -56016,7 +56003,7 @@
         <v>371</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
@@ -56025,17 +56012,17 @@
       <c r="AB81" s="13"/>
       <c r="AC81" s="13"/>
       <c r="AD81" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="AF81" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG81" s="13"/>
       <c r="AH81" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI81" s="13"/>
       <c r="AJ81" s="13"/>
@@ -56045,7 +56032,7 @@
       <c r="AN81" s="13"/>
       <c r="AO81" s="28"/>
     </row>
-    <row r="82" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="82" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -56062,7 +56049,7 @@
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -56087,7 +56074,7 @@
         <v>371</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X82" s="13"/>
       <c r="Y82" s="13"/>
@@ -56099,14 +56086,14 @@
       </c>
       <c r="AD82" s="13"/>
       <c r="AE82" s="1" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="AF82" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG82" s="13"/>
       <c r="AH82" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI82" s="13"/>
       <c r="AJ82" s="13"/>
@@ -56116,7 +56103,7 @@
       <c r="AN82" s="13"/>
       <c r="AO82" s="28"/>
     </row>
-    <row r="83" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="83" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -56156,7 +56143,7 @@
         <v>371</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
@@ -56166,14 +56153,14 @@
       <c r="AC83" s="13"/>
       <c r="AD83" s="13"/>
       <c r="AE83" s="1" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="AF83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG83" s="13"/>
       <c r="AH83" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI83" s="13"/>
       <c r="AJ83" s="13"/>
@@ -56183,7 +56170,7 @@
       <c r="AN83" s="13"/>
       <c r="AO83" s="28"/>
     </row>
-    <row r="84" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="84" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -56228,7 +56215,7 @@
       <c r="AN84" s="13"/>
       <c r="AO84" s="28"/>
     </row>
-    <row r="85" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="85" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -56245,7 +56232,7 @@
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
@@ -56270,7 +56257,7 @@
         <v>371</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X85" s="13"/>
       <c r="Y85" s="13"/>
@@ -56284,14 +56271,14 @@
         <v>227</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="AF85" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG85" s="13"/>
       <c r="AH85" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI85" s="13"/>
       <c r="AJ85" s="13"/>
@@ -56301,7 +56288,7 @@
       <c r="AN85" s="13"/>
       <c r="AO85" s="28"/>
     </row>
-    <row r="86" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="86" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -56341,7 +56328,7 @@
         <v>371</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X86" s="13"/>
       <c r="Y86" s="13"/>
@@ -56350,17 +56337,17 @@
       <c r="AB86" s="13"/>
       <c r="AC86" s="13"/>
       <c r="AD86" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="AF86" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG86" s="13"/>
       <c r="AH86" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI86" s="13"/>
       <c r="AJ86" s="13"/>
@@ -56370,7 +56357,7 @@
       <c r="AN86" s="13"/>
       <c r="AO86" s="28"/>
     </row>
-    <row r="87" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="87" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -56410,7 +56397,7 @@
         <v>371</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X87" s="13"/>
       <c r="Y87" s="13"/>
@@ -56419,17 +56406,17 @@
       <c r="AB87" s="13"/>
       <c r="AC87" s="13"/>
       <c r="AD87" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE87" s="1" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="AF87" s="1" t="s">
         <v>259</v>
       </c>
       <c r="AG87" s="13"/>
       <c r="AH87" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI87" s="13"/>
       <c r="AJ87" s="13"/>
@@ -56439,7 +56426,7 @@
       <c r="AN87" s="13"/>
       <c r="AO87" s="28"/>
     </row>
-    <row r="88" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="88" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -56456,7 +56443,7 @@
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
@@ -56481,7 +56468,7 @@
         <v>371</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X88" s="13"/>
       <c r="Y88" s="13"/>
@@ -56492,7 +56479,7 @@
         <v>740</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="AE88" s="1" t="s">
         <v>61</v>
@@ -56502,7 +56489,7 @@
       </c>
       <c r="AG88" s="13"/>
       <c r="AH88" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI88" s="13"/>
       <c r="AJ88" s="13"/>
@@ -56512,7 +56499,7 @@
       <c r="AN88" s="13"/>
       <c r="AO88" s="28"/>
     </row>
-    <row r="89" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="89" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -56552,7 +56539,7 @@
         <v>371</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
@@ -56569,7 +56556,7 @@
       </c>
       <c r="AG89" s="13"/>
       <c r="AH89" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI89" s="13"/>
       <c r="AJ89" s="13"/>
@@ -56579,7 +56566,7 @@
       <c r="AN89" s="13"/>
       <c r="AO89" s="28"/>
     </row>
-    <row r="90" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="90" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -56619,7 +56606,7 @@
         <v>371</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X90" s="13"/>
       <c r="Y90" s="13"/>
@@ -56629,14 +56616,14 @@
       <c r="AC90" s="13"/>
       <c r="AD90" s="13"/>
       <c r="AE90" s="1" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="AF90" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG90" s="13"/>
       <c r="AH90" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI90" s="13"/>
       <c r="AJ90" s="13"/>
@@ -56646,7 +56633,7 @@
       <c r="AN90" s="13"/>
       <c r="AO90" s="28"/>
     </row>
-    <row r="91" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="91" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -56686,7 +56673,7 @@
         <v>371</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X91" s="13"/>
       <c r="Y91" s="13"/>
@@ -56695,17 +56682,17 @@
       <c r="AB91" s="13"/>
       <c r="AC91" s="13"/>
       <c r="AD91" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="AF91" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG91" s="13"/>
       <c r="AH91" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI91" s="13"/>
       <c r="AJ91" s="13"/>
@@ -56715,7 +56702,7 @@
       <c r="AN91" s="13"/>
       <c r="AO91" s="28"/>
     </row>
-    <row r="92" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="92" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -56755,7 +56742,7 @@
         <v>371</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X92" s="13"/>
       <c r="Y92" s="13"/>
@@ -56765,14 +56752,14 @@
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
       <c r="AE92" s="1" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="AF92" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG92" s="13"/>
       <c r="AH92" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI92" s="13"/>
       <c r="AJ92" s="13"/>
@@ -56782,7 +56769,7 @@
       <c r="AN92" s="13"/>
       <c r="AO92" s="28"/>
     </row>
-    <row r="93" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="93" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -56799,7 +56786,7 @@
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
@@ -56824,7 +56811,7 @@
         <v>371</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X93" s="13"/>
       <c r="Y93" s="13"/>
@@ -56832,20 +56819,20 @@
       <c r="AA93" s="13"/>
       <c r="AB93" s="13"/>
       <c r="AC93" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="AF93" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG93" s="13"/>
       <c r="AH93" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI93" s="13"/>
       <c r="AJ93" s="13"/>
@@ -56855,7 +56842,7 @@
       <c r="AN93" s="13"/>
       <c r="AO93" s="28"/>
     </row>
-    <row r="94" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="94" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -56895,7 +56882,7 @@
         <v>371</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X94" s="13"/>
       <c r="Y94" s="13"/>
@@ -56905,14 +56892,14 @@
       <c r="AC94" s="13"/>
       <c r="AD94" s="13"/>
       <c r="AE94" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="AF94" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG94" s="13"/>
       <c r="AH94" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI94" s="13"/>
       <c r="AJ94" s="13"/>
@@ -56922,7 +56909,7 @@
       <c r="AN94" s="13"/>
       <c r="AO94" s="28"/>
     </row>
-    <row r="95" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="95" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -56939,7 +56926,7 @@
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
@@ -56964,7 +56951,7 @@
         <v>371</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X95" s="13"/>
       <c r="Y95" s="13"/>
@@ -56978,14 +56965,14 @@
         <v>127</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="AF95" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG95" s="13"/>
       <c r="AH95" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI95" s="13"/>
       <c r="AJ95" s="13"/>
@@ -56995,7 +56982,7 @@
       <c r="AN95" s="13"/>
       <c r="AO95" s="28"/>
     </row>
-    <row r="96" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="96" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -57037,7 +57024,7 @@
         <v>371</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X96" s="13"/>
       <c r="Y96" s="13"/>
@@ -57049,14 +57036,14 @@
       </c>
       <c r="AD96" s="13"/>
       <c r="AE96" s="1" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="AF96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG96" s="13"/>
       <c r="AH96" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI96" s="13"/>
       <c r="AJ96" s="13"/>
@@ -57066,7 +57053,7 @@
       <c r="AN96" s="13"/>
       <c r="AO96" s="28"/>
     </row>
-    <row r="97" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="97" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -57106,7 +57093,7 @@
         <v>371</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X97" s="13"/>
       <c r="Y97" s="13"/>
@@ -57118,14 +57105,14 @@
         <v>227</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="AF97" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG97" s="13"/>
       <c r="AH97" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI97" s="13"/>
       <c r="AJ97" s="13"/>
@@ -57135,7 +57122,7 @@
       <c r="AN97" s="13"/>
       <c r="AO97" s="28"/>
     </row>
-    <row r="98" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="98" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -57152,7 +57139,7 @@
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
@@ -57177,7 +57164,7 @@
         <v>371</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X98" s="13"/>
       <c r="Y98" s="13"/>
@@ -57189,14 +57176,14 @@
       </c>
       <c r="AD98" s="13"/>
       <c r="AE98" s="1" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="AF98" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG98" s="13"/>
       <c r="AH98" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI98" s="13"/>
       <c r="AJ98" s="13"/>
@@ -57206,7 +57193,7 @@
       <c r="AN98" s="13"/>
       <c r="AO98" s="28"/>
     </row>
-    <row r="99" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="99" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -57223,7 +57210,7 @@
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -57248,7 +57235,7 @@
         <v>371</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X99" s="13"/>
       <c r="Y99" s="13"/>
@@ -57260,14 +57247,14 @@
       </c>
       <c r="AD99" s="13"/>
       <c r="AE99" s="1" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="AF99" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG99" s="13"/>
       <c r="AH99" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI99" s="13"/>
       <c r="AJ99" s="13"/>
@@ -57277,7 +57264,7 @@
       <c r="AN99" s="13"/>
       <c r="AO99" s="28"/>
     </row>
-    <row r="100" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="100" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -57317,7 +57304,7 @@
         <v>371</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X100" s="13"/>
       <c r="Y100" s="13"/>
@@ -57327,14 +57314,14 @@
       <c r="AC100" s="13"/>
       <c r="AD100" s="13"/>
       <c r="AE100" s="1" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="AF100" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG100" s="13"/>
       <c r="AH100" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI100" s="13"/>
       <c r="AJ100" s="13"/>
@@ -57344,7 +57331,7 @@
       <c r="AN100" s="13"/>
       <c r="AO100" s="28"/>
     </row>
-    <row r="101" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="101" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -57361,7 +57348,7 @@
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
@@ -57386,7 +57373,7 @@
         <v>371</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X101" s="13"/>
       <c r="Y101" s="13"/>
@@ -57400,14 +57387,14 @@
         <v>127</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="AF101" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG101" s="13"/>
       <c r="AH101" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI101" s="13"/>
       <c r="AJ101" s="13"/>
@@ -57417,7 +57404,7 @@
       <c r="AN101" s="13"/>
       <c r="AO101" s="28"/>
     </row>
-    <row r="102" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="102" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -57459,7 +57446,7 @@
         <v>371</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X102" s="13"/>
       <c r="Y102" s="13"/>
@@ -57478,7 +57465,7 @@
       </c>
       <c r="AG102" s="13"/>
       <c r="AH102" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI102" s="13"/>
       <c r="AJ102" s="13"/>
@@ -57488,7 +57475,7 @@
       <c r="AN102" s="13"/>
       <c r="AO102" s="28"/>
     </row>
-    <row r="103" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="103" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -57505,7 +57492,7 @@
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
@@ -57530,7 +57517,7 @@
         <v>371</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X103" s="13"/>
       <c r="Y103" s="13"/>
@@ -57542,14 +57529,14 @@
       </c>
       <c r="AD103" s="13"/>
       <c r="AE103" s="1" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="AF103" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG103" s="13"/>
       <c r="AH103" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI103" s="13"/>
       <c r="AJ103" s="13"/>
@@ -57559,7 +57546,7 @@
       <c r="AN103" s="13"/>
       <c r="AO103" s="28"/>
     </row>
-    <row r="104" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="104" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -57576,7 +57563,7 @@
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
@@ -57601,7 +57588,7 @@
         <v>371</v>
       </c>
       <c r="W104" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X104" s="13"/>
       <c r="Y104" s="13"/>
@@ -57613,14 +57600,14 @@
       </c>
       <c r="AD104" s="13"/>
       <c r="AE104" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="AF104" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG104" s="13"/>
       <c r="AH104" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI104" s="13"/>
       <c r="AJ104" s="13"/>
@@ -57630,7 +57617,7 @@
       <c r="AN104" s="13"/>
       <c r="AO104" s="28"/>
     </row>
-    <row r="105" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="105" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -57647,7 +57634,7 @@
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
@@ -57672,7 +57659,7 @@
         <v>371</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X105" s="13"/>
       <c r="Y105" s="13"/>
@@ -57686,14 +57673,14 @@
         <v>643</v>
       </c>
       <c r="AE105" s="1" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="AF105" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG105" s="13"/>
       <c r="AH105" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI105" s="13"/>
       <c r="AJ105" s="13"/>
@@ -57703,7 +57690,7 @@
       <c r="AN105" s="13"/>
       <c r="AO105" s="28"/>
     </row>
-    <row r="106" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="106" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -57721,7 +57708,7 @@
       <c r="M106" s="4"/>
       <c r="AG106" s="13"/>
       <c r="AH106" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI106" s="13"/>
       <c r="AJ106" s="13"/>
@@ -57731,7 +57718,7 @@
       <c r="AN106" s="13"/>
       <c r="AO106" s="28"/>
     </row>
-    <row r="107" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="107" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -57771,7 +57758,7 @@
         <v>371</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
@@ -57781,14 +57768,14 @@
       <c r="AC107" s="13"/>
       <c r="AD107" s="13"/>
       <c r="AE107" s="1" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="AF107" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG107" s="13"/>
       <c r="AH107" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI107" s="13"/>
       <c r="AJ107" s="13"/>
@@ -57798,7 +57785,7 @@
       <c r="AN107" s="13"/>
       <c r="AO107" s="28"/>
     </row>
-    <row r="108" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="108" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -57838,7 +57825,7 @@
         <v>371</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X108" s="13"/>
       <c r="Y108" s="13"/>
@@ -57851,11 +57838,11 @@
         <v>72</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="AG108" s="13"/>
       <c r="AH108" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI108" s="13"/>
       <c r="AJ108" s="13"/>
@@ -57865,7 +57852,7 @@
       <c r="AN108" s="13"/>
       <c r="AO108" s="28"/>
     </row>
-    <row r="109" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="109" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -57882,7 +57869,7 @@
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
@@ -57907,7 +57894,7 @@
         <v>371</v>
       </c>
       <c r="W109" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X109" s="13"/>
       <c r="Y109" s="13"/>
@@ -57915,20 +57902,20 @@
       <c r="AA109" s="13"/>
       <c r="AB109" s="13"/>
       <c r="AC109" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AD109" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="AE109" s="1" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="AF109" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AG109" s="13"/>
       <c r="AH109" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI109" s="13"/>
       <c r="AJ109" s="13"/>
@@ -57938,7 +57925,7 @@
       <c r="AN109" s="13"/>
       <c r="AO109" s="28"/>
     </row>
-    <row r="110" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="110" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -57955,7 +57942,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
@@ -57980,7 +57967,7 @@
         <v>371</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X110" s="13"/>
       <c r="Y110" s="13"/>
@@ -57992,14 +57979,14 @@
       </c>
       <c r="AD110" s="13"/>
       <c r="AE110" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="AF110" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG110" s="13"/>
       <c r="AH110" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI110" s="13"/>
       <c r="AJ110" s="13"/>
@@ -58009,7 +57996,7 @@
       <c r="AN110" s="13"/>
       <c r="AO110" s="28"/>
     </row>
-    <row r="111" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="111" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -58049,7 +58036,7 @@
         <v>371</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X111" s="13"/>
       <c r="Y111" s="13"/>
@@ -58059,14 +58046,14 @@
       <c r="AC111" s="13"/>
       <c r="AD111" s="13"/>
       <c r="AE111" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="AF111" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AG111" s="13"/>
       <c r="AH111" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI111" s="13"/>
       <c r="AJ111" s="13"/>
@@ -58076,7 +58063,7 @@
       <c r="AN111" s="13"/>
       <c r="AO111" s="28"/>
     </row>
-    <row r="112" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="112" spans="1:41" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -58116,7 +58103,7 @@
         <v>371</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X112" s="13"/>
       <c r="Y112" s="13"/>
@@ -58125,17 +58112,17 @@
       <c r="AB112" s="13"/>
       <c r="AC112" s="13"/>
       <c r="AD112" s="1" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="AE112" s="1" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="AF112" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG112" s="13"/>
       <c r="AH112" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI112" s="13"/>
       <c r="AJ112" s="13"/>
@@ -58145,7 +58132,7 @@
       <c r="AN112" s="13"/>
       <c r="AO112" s="28"/>
     </row>
-    <row r="113" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="113" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -58185,7 +58172,7 @@
         <v>371</v>
       </c>
       <c r="W113" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X113" s="13"/>
       <c r="Y113" s="13"/>
@@ -58194,17 +58181,17 @@
       <c r="AB113" s="13"/>
       <c r="AC113" s="13"/>
       <c r="AD113" s="1" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="AE113" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="AF113" s="1" t="s">
         <v>85</v>
       </c>
       <c r="AG113" s="13"/>
       <c r="AH113" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI113" s="13"/>
       <c r="AJ113" s="13"/>
@@ -58214,7 +58201,7 @@
       <c r="AN113" s="13"/>
       <c r="AO113" s="28"/>
     </row>
-    <row r="114" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="114" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -58231,7 +58218,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
@@ -58256,7 +58243,7 @@
         <v>371</v>
       </c>
       <c r="W114" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
@@ -58271,7 +58258,7 @@
       <c r="AF114" s="13"/>
       <c r="AG114" s="13"/>
       <c r="AH114" s="14" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AI114" s="13"/>
       <c r="AJ114" s="13"/>
@@ -58281,7 +58268,7 @@
       <c r="AN114" s="13"/>
       <c r="AO114" s="28"/>
     </row>
-    <row r="115" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="115" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="34"/>
       <c r="B115" s="34"/>
       <c r="C115" s="34"/>
@@ -58326,14 +58313,14 @@
       <c r="X115" s="34"/>
       <c r="Y115" s="34"/>
       <c r="Z115" s="36" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="AA115" s="36" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="AB115" s="34"/>
       <c r="AC115" s="34" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AD115" s="34"/>
       <c r="AE115" s="34"/>
@@ -58480,7 +58467,7 @@
       <c r="FP115" s="37"/>
       <c r="FQ115" s="37"/>
     </row>
-    <row r="116" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="116" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="34"/>
       <c r="B116" s="34"/>
       <c r="C116" s="34"/>
@@ -58496,7 +58483,7 @@
       <c r="K116" s="34"/>
       <c r="L116" s="34"/>
       <c r="M116" s="36" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="N116" s="34"/>
       <c r="O116" s="34"/>
@@ -58529,14 +58516,14 @@
       <c r="X116" s="34"/>
       <c r="Y116" s="34"/>
       <c r="Z116" s="36" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="AA116" s="36" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="AB116" s="34"/>
       <c r="AC116" s="34" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="AD116" s="34"/>
       <c r="AE116" s="34"/>
@@ -58558,7 +58545,7 @@
       <c r="AU116" s="34"/>
       <c r="AV116" s="37"/>
       <c r="AW116" s="37" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="AX116" s="37"/>
       <c r="AY116" s="37"/>
@@ -58685,7 +58672,7 @@
       <c r="FP116" s="37"/>
       <c r="FQ116" s="37"/>
     </row>
-    <row r="117" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="117" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="34"/>
       <c r="B117" s="34"/>
       <c r="C117" s="34"/>
@@ -58732,14 +58719,14 @@
       <c r="X117" s="34"/>
       <c r="Y117" s="34"/>
       <c r="Z117" s="36" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="AA117" s="36" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="AB117" s="34"/>
       <c r="AC117" s="34" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AD117" s="34"/>
       <c r="AE117" s="34"/>
@@ -58761,7 +58748,7 @@
       <c r="AU117" s="34"/>
       <c r="AV117" s="37"/>
       <c r="AW117" s="37" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="AX117" s="37"/>
       <c r="AY117" s="37"/>
@@ -58888,15 +58875,15 @@
       <c r="FP117" s="37"/>
       <c r="FQ117" s="37"/>
     </row>
-    <row r="118" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="118" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="38" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B118" s="39" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C118" s="38" t="s">
         <v>1683</v>
-      </c>
-      <c r="B118" s="39" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C118" s="38" t="s">
-        <v>1685</v>
       </c>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
@@ -58912,10 +58899,10 @@
       <c r="M118" s="39"/>
       <c r="N118" s="39"/>
       <c r="O118" s="38" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="P118" s="38" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="Q118" s="40" t="s">
         <v>96</v>
@@ -58953,12 +58940,12 @@
       <c r="AH118" s="39"/>
       <c r="AI118" s="39"/>
       <c r="AJ118" s="38" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="AK118" s="38"/>
       <c r="AL118" s="38"/>
       <c r="AM118" s="38" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="AN118" s="38"/>
       <c r="AO118" s="38" t="s">
@@ -58977,14 +58964,14 @@
         <v>132</v>
       </c>
       <c r="AT118" s="38" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="AU118" s="39" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="AV118" s="39"/>
       <c r="AW118" s="39" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="AX118" s="39"/>
       <c r="AY118" s="39"/>
@@ -59111,15 +59098,15 @@
       <c r="FP118" s="39"/>
       <c r="FQ118" s="39"/>
     </row>
-    <row r="119" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="119" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="38" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B119" s="39" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C119" s="38" t="s">
         <v>1689</v>
-      </c>
-      <c r="B119" s="39" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C119" s="38" t="s">
-        <v>1691</v>
       </c>
       <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
@@ -59135,10 +59122,10 @@
       <c r="M119" s="39"/>
       <c r="N119" s="39"/>
       <c r="O119" s="38" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="P119" s="38" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="Q119" s="40" t="s">
         <v>761</v>
@@ -59176,12 +59163,12 @@
       <c r="AH119" s="39"/>
       <c r="AI119" s="39"/>
       <c r="AJ119" s="38" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="AK119" s="38"/>
       <c r="AL119" s="38"/>
       <c r="AM119" s="38" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="AN119" s="38"/>
       <c r="AO119" s="38" t="s">
@@ -59200,14 +59187,14 @@
         <v>132</v>
       </c>
       <c r="AT119" s="38" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="AU119" s="39" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="AV119" s="39"/>
       <c r="AW119" s="39" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="AX119" s="39"/>
       <c r="AY119" s="39"/>
@@ -59334,15 +59321,15 @@
       <c r="FP119" s="39"/>
       <c r="FQ119" s="39"/>
     </row>
-    <row r="120" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="120" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="38" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B120" s="39" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C120" s="38" t="s">
         <v>1693</v>
-      </c>
-      <c r="B120" s="39" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C120" s="38" t="s">
-        <v>1695</v>
       </c>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
@@ -59358,10 +59345,10 @@
       <c r="M120" s="39"/>
       <c r="N120" s="39"/>
       <c r="O120" s="38" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="P120" s="38" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="Q120" s="40" t="s">
         <v>917</v>
@@ -59399,12 +59386,12 @@
       <c r="AH120" s="39"/>
       <c r="AI120" s="39"/>
       <c r="AJ120" s="38" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="AK120" s="38"/>
       <c r="AL120" s="38"/>
       <c r="AM120" s="38" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="AN120" s="38"/>
       <c r="AO120" s="38" t="s">
@@ -59423,14 +59410,14 @@
         <v>132</v>
       </c>
       <c r="AT120" s="38" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="AU120" s="39" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="AV120" s="39"/>
       <c r="AW120" s="39" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="AX120" s="39"/>
       <c r="AY120" s="39"/>
@@ -59557,15 +59544,15 @@
       <c r="FP120" s="39"/>
       <c r="FQ120" s="39"/>
     </row>
-    <row r="121" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="121" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="38" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B121" s="39" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C121" s="38" t="s">
         <v>1698</v>
-      </c>
-      <c r="B121" s="39" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C121" s="38" t="s">
-        <v>1700</v>
       </c>
       <c r="D121" s="38"/>
       <c r="E121" s="38" t="s">
@@ -59581,10 +59568,10 @@
       <c r="M121" s="39"/>
       <c r="N121" s="39"/>
       <c r="O121" s="38" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="P121" s="38" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="Q121" s="40" t="s">
         <v>109</v>
@@ -59622,12 +59609,12 @@
       <c r="AH121" s="39"/>
       <c r="AI121" s="39"/>
       <c r="AJ121" s="38" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="AK121" s="38"/>
       <c r="AL121" s="38"/>
       <c r="AM121" s="38" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="AN121" s="38"/>
       <c r="AO121" s="38" t="s">
@@ -59646,14 +59633,14 @@
         <v>132</v>
       </c>
       <c r="AT121" s="38" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AU121" s="39" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="AV121" s="39"/>
       <c r="AW121" s="39" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="AX121" s="39"/>
       <c r="AY121" s="39"/>
@@ -59780,15 +59767,15 @@
       <c r="FP121" s="39"/>
       <c r="FQ121" s="39"/>
     </row>
-    <row r="122" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="122" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="38" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B122" s="39" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
@@ -59804,10 +59791,10 @@
       <c r="M122" s="39"/>
       <c r="N122" s="39"/>
       <c r="O122" s="38" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="P122" s="38" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="Q122" s="40" t="s">
         <v>917</v>
@@ -59845,12 +59832,12 @@
       <c r="AH122" s="39"/>
       <c r="AI122" s="39"/>
       <c r="AJ122" s="38" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="AK122" s="38"/>
       <c r="AL122" s="38"/>
       <c r="AM122" s="38" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="AN122" s="38"/>
       <c r="AO122" s="38" t="s">
@@ -59869,14 +59856,14 @@
         <v>132</v>
       </c>
       <c r="AT122" s="38" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="AU122" s="39" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="AV122" s="39"/>
       <c r="AW122" s="39" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="AX122" s="39"/>
       <c r="AY122" s="39"/>
@@ -60003,15 +59990,15 @@
       <c r="FP122" s="39"/>
       <c r="FQ122" s="39"/>
     </row>
-    <row r="123" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="123" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="32" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B123" s="42" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C123" s="32" t="s">
         <v>1703</v>
-      </c>
-      <c r="B123" s="42" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C123" s="32" t="s">
-        <v>1705</v>
       </c>
       <c r="D123" s="32"/>
       <c r="E123" s="32" t="s">
@@ -60027,10 +60014,10 @@
       <c r="M123" s="42"/>
       <c r="N123" s="42"/>
       <c r="O123" s="32" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="P123" s="32" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="Q123" s="43" t="s">
         <v>96</v>
@@ -60068,12 +60055,12 @@
       <c r="AH123" s="42"/>
       <c r="AI123" s="42"/>
       <c r="AJ123" s="32" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AK123" s="32"/>
       <c r="AL123" s="32"/>
       <c r="AM123" s="32" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="AN123" s="32"/>
       <c r="AO123" s="32" t="s">
@@ -60092,14 +60079,14 @@
         <v>132</v>
       </c>
       <c r="AT123" s="32" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="AU123" s="42" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="AV123" s="42"/>
       <c r="AW123" s="42" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="AX123" s="42"/>
       <c r="AY123" s="42"/>
@@ -60226,15 +60213,15 @@
       <c r="FP123" s="42"/>
       <c r="FQ123" s="42"/>
     </row>
-    <row r="124" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="124" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="32" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B124" s="42" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C124" s="32" t="s">
         <v>1708</v>
-      </c>
-      <c r="B124" s="42" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C124" s="32" t="s">
-        <v>1710</v>
       </c>
       <c r="D124" s="32"/>
       <c r="E124" s="32" t="s">
@@ -60250,10 +60237,10 @@
       <c r="M124" s="42"/>
       <c r="N124" s="42"/>
       <c r="O124" s="32" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="P124" s="32" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="Q124" s="43" t="s">
         <v>96</v>
@@ -60291,12 +60278,12 @@
       <c r="AH124" s="42"/>
       <c r="AI124" s="42"/>
       <c r="AJ124" s="32" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="AK124" s="32"/>
       <c r="AL124" s="32"/>
       <c r="AM124" s="32" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="AN124" s="32"/>
       <c r="AO124" s="32" t="s">
@@ -60315,14 +60302,14 @@
         <v>152</v>
       </c>
       <c r="AT124" s="32" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="AU124" s="42" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="AV124" s="42"/>
       <c r="AW124" s="42" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="AX124" s="42"/>
       <c r="AY124" s="42"/>
@@ -60449,7 +60436,7 @@
       <c r="FP124" s="42"/>
       <c r="FQ124" s="42"/>
     </row>
-    <row r="125" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="125" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -60503,7 +60490,7 @@
       <c r="AM125" s="13"/>
       <c r="AN125" s="28"/>
     </row>
-    <row r="126" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="126" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -60557,7 +60544,7 @@
       <c r="AM126" s="13"/>
       <c r="AN126" s="28"/>
     </row>
-    <row r="127" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="127" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -60611,7 +60598,7 @@
       <c r="AM127" s="13"/>
       <c r="AN127" s="28"/>
     </row>
-    <row r="128" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="128" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -60665,7 +60652,7 @@
       <c r="AM128" s="13"/>
       <c r="AN128" s="28"/>
     </row>
-    <row r="129" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="129" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -60719,7 +60706,7 @@
       <c r="AM129" s="13"/>
       <c r="AN129" s="28"/>
     </row>
-    <row r="130" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="130" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -60773,7 +60760,7 @@
       <c r="AM130" s="13"/>
       <c r="AN130" s="28"/>
     </row>
-    <row r="131" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="131" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -60827,7 +60814,7 @@
       <c r="AM131" s="13"/>
       <c r="AN131" s="28"/>
     </row>
-    <row r="132" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="132" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -60881,7 +60868,7 @@
       <c r="AM132" s="13"/>
       <c r="AN132" s="28"/>
     </row>
-    <row r="133" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="133" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -60935,7 +60922,7 @@
       <c r="AM133" s="13"/>
       <c r="AN133" s="28"/>
     </row>
-    <row r="134" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="134" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -60989,7 +60976,7 @@
       <c r="AM134" s="13"/>
       <c r="AN134" s="28"/>
     </row>
-    <row r="135" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="135" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -61043,7 +61030,7 @@
       <c r="AM135" s="13"/>
       <c r="AN135" s="28"/>
     </row>
-    <row r="136" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="136" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -61097,7 +61084,7 @@
       <c r="AM136" s="13"/>
       <c r="AN136" s="28"/>
     </row>
-    <row r="137" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="137" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -61151,7 +61138,7 @@
       <c r="AM137" s="13"/>
       <c r="AN137" s="28"/>
     </row>
-    <row r="138" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="138" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -61205,7 +61192,7 @@
       <c r="AM138" s="13"/>
       <c r="AN138" s="28"/>
     </row>
-    <row r="139" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="139" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -61259,7 +61246,7 @@
       <c r="AM139" s="13"/>
       <c r="AN139" s="28"/>
     </row>
-    <row r="140" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="140" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -61313,7 +61300,7 @@
       <c r="AM140" s="13"/>
       <c r="AN140" s="28"/>
     </row>
-    <row r="141" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="141" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -61367,7 +61354,7 @@
       <c r="AM141" s="13"/>
       <c r="AN141" s="28"/>
     </row>
-    <row r="142" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="142" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -61421,7 +61408,7 @@
       <c r="AM142" s="13"/>
       <c r="AN142" s="28"/>
     </row>
-    <row r="143" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="143" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -61475,7 +61462,7 @@
       <c r="AM143" s="13"/>
       <c r="AN143" s="28"/>
     </row>
-    <row r="144" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="144" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -61529,7 +61516,7 @@
       <c r="AM144" s="13"/>
       <c r="AN144" s="28"/>
     </row>
-    <row r="145" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="145" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -61583,7 +61570,7 @@
       <c r="AM145" s="13"/>
       <c r="AN145" s="28"/>
     </row>
-    <row r="146" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="146" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -61637,7 +61624,7 @@
       <c r="AM146" s="13"/>
       <c r="AN146" s="28"/>
     </row>
-    <row r="147" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="147" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -61691,7 +61678,7 @@
       <c r="AM147" s="13"/>
       <c r="AN147" s="28"/>
     </row>
-    <row r="148" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="148" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -61745,7 +61732,7 @@
       <c r="AM148" s="13"/>
       <c r="AN148" s="28"/>
     </row>
-    <row r="149" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="149" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -61799,7 +61786,7 @@
       <c r="AM149" s="13"/>
       <c r="AN149" s="28"/>
     </row>
-    <row r="150" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="150" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -61853,7 +61840,7 @@
       <c r="AM150" s="13"/>
       <c r="AN150" s="28"/>
     </row>
-    <row r="151" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="151" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -61907,7 +61894,7 @@
       <c r="AM151" s="13"/>
       <c r="AN151" s="28"/>
     </row>
-    <row r="152" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="152" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -61961,7 +61948,7 @@
       <c r="AM152" s="13"/>
       <c r="AN152" s="28"/>
     </row>
-    <row r="153" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="153" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -62015,7 +62002,7 @@
       <c r="AM153" s="13"/>
       <c r="AN153" s="28"/>
     </row>
-    <row r="154" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="154" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -62069,7 +62056,7 @@
       <c r="AM154" s="13"/>
       <c r="AN154" s="28"/>
     </row>
-    <row r="155" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="155" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -62123,7 +62110,7 @@
       <c r="AM155" s="13"/>
       <c r="AN155" s="28"/>
     </row>
-    <row r="156" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="156" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -62177,7 +62164,7 @@
       <c r="AM156" s="13"/>
       <c r="AN156" s="28"/>
     </row>
-    <row r="157" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="157" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -62231,7 +62218,7 @@
       <c r="AM157" s="13"/>
       <c r="AN157" s="28"/>
     </row>
-    <row r="158" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="158" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -62285,7 +62272,7 @@
       <c r="AM158" s="13"/>
       <c r="AN158" s="28"/>
     </row>
-    <row r="159" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="159" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -62339,7 +62326,7 @@
       <c r="AM159" s="13"/>
       <c r="AN159" s="28"/>
     </row>
-    <row r="160" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="160" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -62393,7 +62380,7 @@
       <c r="AM160" s="13"/>
       <c r="AN160" s="28"/>
     </row>
-    <row r="161" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="161" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -62447,7 +62434,7 @@
       <c r="AM161" s="13"/>
       <c r="AN161" s="28"/>
     </row>
-    <row r="162" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="162" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -62501,7 +62488,7 @@
       <c r="AM162" s="13"/>
       <c r="AN162" s="28"/>
     </row>
-    <row r="163" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="163" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -62555,7 +62542,7 @@
       <c r="AM163" s="13"/>
       <c r="AN163" s="28"/>
     </row>
-    <row r="164" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="164" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -62609,7 +62596,7 @@
       <c r="AM164" s="13"/>
       <c r="AN164" s="28"/>
     </row>
-    <row r="165" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="165" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -62663,7 +62650,7 @@
       <c r="AM165" s="13"/>
       <c r="AN165" s="28"/>
     </row>
-    <row r="166" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="166" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -62717,7 +62704,7 @@
       <c r="AM166" s="13"/>
       <c r="AN166" s="28"/>
     </row>
-    <row r="167" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="167" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -62771,7 +62758,7 @@
       <c r="AM167" s="13"/>
       <c r="AN167" s="28"/>
     </row>
-    <row r="168" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="168" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -62825,7 +62812,7 @@
       <c r="AM168" s="13"/>
       <c r="AN168" s="28"/>
     </row>
-    <row r="169" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="169" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -62879,7 +62866,7 @@
       <c r="AM169" s="13"/>
       <c r="AN169" s="28"/>
     </row>
-    <row r="170" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="170" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -62933,7 +62920,7 @@
       <c r="AM170" s="13"/>
       <c r="AN170" s="28"/>
     </row>
-    <row r="171" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="171" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -62987,7 +62974,7 @@
       <c r="AM171" s="13"/>
       <c r="AN171" s="28"/>
     </row>
-    <row r="172" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="172" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -63041,7 +63028,7 @@
       <c r="AM172" s="13"/>
       <c r="AN172" s="28"/>
     </row>
-    <row r="173" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="173" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -63095,7 +63082,7 @@
       <c r="AM173" s="13"/>
       <c r="AN173" s="28"/>
     </row>
-    <row r="174" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="174" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -63149,7 +63136,7 @@
       <c r="AM174" s="13"/>
       <c r="AN174" s="28"/>
     </row>
-    <row r="175" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="175" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -63203,7 +63190,7 @@
       <c r="AM175" s="13"/>
       <c r="AN175" s="28"/>
     </row>
-    <row r="176" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="176" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -63257,7 +63244,7 @@
       <c r="AM176" s="13"/>
       <c r="AN176" s="28"/>
     </row>
-    <row r="177" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="177" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -63311,7 +63298,7 @@
       <c r="AM177" s="13"/>
       <c r="AN177" s="28"/>
     </row>
-    <row r="178" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="178" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -63365,7 +63352,7 @@
       <c r="AM178" s="13"/>
       <c r="AN178" s="28"/>
     </row>
-    <row r="179" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="179" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -63419,7 +63406,7 @@
       <c r="AM179" s="13"/>
       <c r="AN179" s="28"/>
     </row>
-    <row r="180" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="180" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -63473,7 +63460,7 @@
       <c r="AM180" s="13"/>
       <c r="AN180" s="28"/>
     </row>
-    <row r="181" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="181" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -63527,7 +63514,7 @@
       <c r="AM181" s="13"/>
       <c r="AN181" s="28"/>
     </row>
-    <row r="182" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="182" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -63581,7 +63568,7 @@
       <c r="AM182" s="13"/>
       <c r="AN182" s="28"/>
     </row>
-    <row r="183" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="183" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -63635,7 +63622,7 @@
       <c r="AM183" s="13"/>
       <c r="AN183" s="28"/>
     </row>
-    <row r="184" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="184" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -63689,7 +63676,7 @@
       <c r="AM184" s="13"/>
       <c r="AN184" s="28"/>
     </row>
-    <row r="185" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="185" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -63743,7 +63730,7 @@
       <c r="AM185" s="13"/>
       <c r="AN185" s="28"/>
     </row>
-    <row r="186" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="186" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -63797,7 +63784,7 @@
       <c r="AM186" s="13"/>
       <c r="AN186" s="28"/>
     </row>
-    <row r="187" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="187" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -63851,7 +63838,7 @@
       <c r="AM187" s="13"/>
       <c r="AN187" s="28"/>
     </row>
-    <row r="188" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="188" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -63905,7 +63892,7 @@
       <c r="AM188" s="13"/>
       <c r="AN188" s="28"/>
     </row>
-    <row r="189" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="189" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -63959,7 +63946,7 @@
       <c r="AM189" s="13"/>
       <c r="AN189" s="28"/>
     </row>
-    <row r="190" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="190" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -64013,7 +64000,7 @@
       <c r="AM190" s="13"/>
       <c r="AN190" s="28"/>
     </row>
-    <row r="191" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="191" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -64067,7 +64054,7 @@
       <c r="AM191" s="13"/>
       <c r="AN191" s="28"/>
     </row>
-    <row r="192" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="192" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -64121,7 +64108,7 @@
       <c r="AM192" s="13"/>
       <c r="AN192" s="28"/>
     </row>
-    <row r="193" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="193" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -64175,7 +64162,7 @@
       <c r="AM193" s="13"/>
       <c r="AN193" s="28"/>
     </row>
-    <row r="194" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="194" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -64229,7 +64216,7 @@
       <c r="AM194" s="13"/>
       <c r="AN194" s="28"/>
     </row>
-    <row r="195" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="195" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -64283,7 +64270,7 @@
       <c r="AM195" s="13"/>
       <c r="AN195" s="28"/>
     </row>
-    <row r="196" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="196" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -64337,7 +64324,7 @@
       <c r="AM196" s="13"/>
       <c r="AN196" s="28"/>
     </row>
-    <row r="197" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="197" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -64391,7 +64378,7 @@
       <c r="AM197" s="13"/>
       <c r="AN197" s="28"/>
     </row>
-    <row r="198" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="198" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -64445,7 +64432,7 @@
       <c r="AM198" s="13"/>
       <c r="AN198" s="28"/>
     </row>
-    <row r="199" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="199" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -64499,7 +64486,7 @@
       <c r="AM199" s="13"/>
       <c r="AN199" s="28"/>
     </row>
-    <row r="200" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="200" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -64553,7 +64540,7 @@
       <c r="AM200" s="13"/>
       <c r="AN200" s="28"/>
     </row>
-    <row r="201" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="201" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -64607,7 +64594,7 @@
       <c r="AM201" s="13"/>
       <c r="AN201" s="28"/>
     </row>
-    <row r="202" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="202" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -64661,7 +64648,7 @@
       <c r="AM202" s="13"/>
       <c r="AN202" s="28"/>
     </row>
-    <row r="203" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="203" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -64715,7 +64702,7 @@
       <c r="AM203" s="13"/>
       <c r="AN203" s="28"/>
     </row>
-    <row r="204" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="204" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -64769,7 +64756,7 @@
       <c r="AM204" s="13"/>
       <c r="AN204" s="28"/>
     </row>
-    <row r="205" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="205" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -64823,7 +64810,7 @@
       <c r="AM205" s="13"/>
       <c r="AN205" s="28"/>
     </row>
-    <row r="206" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="206" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -64877,7 +64864,7 @@
       <c r="AM206" s="13"/>
       <c r="AN206" s="28"/>
     </row>
-    <row r="207" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="207" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -64931,7 +64918,7 @@
       <c r="AM207" s="13"/>
       <c r="AN207" s="28"/>
     </row>
-    <row r="208" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="208" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -64985,7 +64972,7 @@
       <c r="AM208" s="13"/>
       <c r="AN208" s="28"/>
     </row>
-    <row r="209" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="209" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -65039,7 +65026,7 @@
       <c r="AM209" s="13"/>
       <c r="AN209" s="28"/>
     </row>
-    <row r="210" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="210" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -65093,7 +65080,7 @@
       <c r="AM210" s="13"/>
       <c r="AN210" s="28"/>
     </row>
-    <row r="211" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="211" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -65147,7 +65134,7 @@
       <c r="AM211" s="13"/>
       <c r="AN211" s="28"/>
     </row>
-    <row r="212" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="212" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -65201,7 +65188,7 @@
       <c r="AM212" s="13"/>
       <c r="AN212" s="28"/>
     </row>
-    <row r="213" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="213" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -65255,7 +65242,7 @@
       <c r="AM213" s="13"/>
       <c r="AN213" s="28"/>
     </row>
-    <row r="214" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="214" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -65309,7 +65296,7 @@
       <c r="AM214" s="13"/>
       <c r="AN214" s="28"/>
     </row>
-    <row r="215" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="215" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -65363,7 +65350,7 @@
       <c r="AM215" s="13"/>
       <c r="AN215" s="28"/>
     </row>
-    <row r="216" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="216" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -65417,7 +65404,7 @@
       <c r="AM216" s="13"/>
       <c r="AN216" s="28"/>
     </row>
-    <row r="217" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="217" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -65471,7 +65458,7 @@
       <c r="AM217" s="13"/>
       <c r="AN217" s="28"/>
     </row>
-    <row r="218" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="218" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -65525,7 +65512,7 @@
       <c r="AM218" s="13"/>
       <c r="AN218" s="28"/>
     </row>
-    <row r="219" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="219" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -65579,7 +65566,7 @@
       <c r="AM219" s="13"/>
       <c r="AN219" s="28"/>
     </row>
-    <row r="220" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="220" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -65633,7 +65620,7 @@
       <c r="AM220" s="13"/>
       <c r="AN220" s="28"/>
     </row>
-    <row r="221" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="221" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -65687,7 +65674,7 @@
       <c r="AM221" s="13"/>
       <c r="AN221" s="28"/>
     </row>
-    <row r="222" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="222" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -65741,7 +65728,7 @@
       <c r="AM222" s="13"/>
       <c r="AN222" s="28"/>
     </row>
-    <row r="223" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="223" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -65795,7 +65782,7 @@
       <c r="AM223" s="13"/>
       <c r="AN223" s="28"/>
     </row>
-    <row r="224" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="224" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -65849,7 +65836,7 @@
       <c r="AM224" s="13"/>
       <c r="AN224" s="28"/>
     </row>
-    <row r="225" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="225" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -65903,7 +65890,7 @@
       <c r="AM225" s="13"/>
       <c r="AN225" s="28"/>
     </row>
-    <row r="226" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="226" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -65957,7 +65944,7 @@
       <c r="AM226" s="13"/>
       <c r="AN226" s="28"/>
     </row>
-    <row r="227" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="227" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -66011,7 +65998,7 @@
       <c r="AM227" s="13"/>
       <c r="AN227" s="28"/>
     </row>
-    <row r="228" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="228" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -66065,7 +66052,7 @@
       <c r="AM228" s="13"/>
       <c r="AN228" s="28"/>
     </row>
-    <row r="229" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="229" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -66119,7 +66106,7 @@
       <c r="AM229" s="13"/>
       <c r="AN229" s="28"/>
     </row>
-    <row r="230" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="230" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -66173,7 +66160,7 @@
       <c r="AM230" s="13"/>
       <c r="AN230" s="28"/>
     </row>
-    <row r="231" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="231" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -66227,7 +66214,7 @@
       <c r="AM231" s="13"/>
       <c r="AN231" s="28"/>
     </row>
-    <row r="232" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="232" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -66281,7 +66268,7 @@
       <c r="AM232" s="13"/>
       <c r="AN232" s="28"/>
     </row>
-    <row r="233" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="233" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -66335,7 +66322,7 @@
       <c r="AM233" s="13"/>
       <c r="AN233" s="28"/>
     </row>
-    <row r="234" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="234" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -66389,7 +66376,7 @@
       <c r="AM234" s="13"/>
       <c r="AN234" s="28"/>
     </row>
-    <row r="235" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="235" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -66443,7 +66430,7 @@
       <c r="AM235" s="13"/>
       <c r="AN235" s="28"/>
     </row>
-    <row r="236" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="236" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -66497,7 +66484,7 @@
       <c r="AM236" s="13"/>
       <c r="AN236" s="28"/>
     </row>
-    <row r="237" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="237" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -66551,7 +66538,7 @@
       <c r="AM237" s="13"/>
       <c r="AN237" s="28"/>
     </row>
-    <row r="238" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="238" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -66605,7 +66592,7 @@
       <c r="AM238" s="13"/>
       <c r="AN238" s="28"/>
     </row>
-    <row r="239" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="239" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -66659,7 +66646,7 @@
       <c r="AM239" s="13"/>
       <c r="AN239" s="28"/>
     </row>
-    <row r="240" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="240" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -66713,7 +66700,7 @@
       <c r="AM240" s="13"/>
       <c r="AN240" s="28"/>
     </row>
-    <row r="241" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="241" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -66767,7 +66754,7 @@
       <c r="AM241" s="13"/>
       <c r="AN241" s="28"/>
     </row>
-    <row r="242" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="242" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -66821,7 +66808,7 @@
       <c r="AM242" s="13"/>
       <c r="AN242" s="28"/>
     </row>
-    <row r="243" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="243" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -66875,7 +66862,7 @@
       <c r="AM243" s="13"/>
       <c r="AN243" s="28"/>
     </row>
-    <row r="244" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="244" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -66929,7 +66916,7 @@
       <c r="AM244" s="13"/>
       <c r="AN244" s="28"/>
     </row>
-    <row r="245" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="245" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -66983,7 +66970,7 @@
       <c r="AM245" s="13"/>
       <c r="AN245" s="28"/>
     </row>
-    <row r="246" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="246" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -67037,7 +67024,7 @@
       <c r="AM246" s="13"/>
       <c r="AN246" s="28"/>
     </row>
-    <row r="247" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="247" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -67091,7 +67078,7 @@
       <c r="AM247" s="13"/>
       <c r="AN247" s="28"/>
     </row>
-    <row r="248" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="248" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -67145,7 +67132,7 @@
       <c r="AM248" s="13"/>
       <c r="AN248" s="28"/>
     </row>
-    <row r="249" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="249" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -67199,7 +67186,7 @@
       <c r="AM249" s="13"/>
       <c r="AN249" s="28"/>
     </row>
-    <row r="250" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="250" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -67253,7 +67240,7 @@
       <c r="AM250" s="13"/>
       <c r="AN250" s="28"/>
     </row>
-    <row r="251" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="251" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -67307,7 +67294,7 @@
       <c r="AM251" s="13"/>
       <c r="AN251" s="28"/>
     </row>
-    <row r="252" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="252" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -67361,7 +67348,7 @@
       <c r="AM252" s="13"/>
       <c r="AN252" s="28"/>
     </row>
-    <row r="253" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="253" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -67415,7 +67402,7 @@
       <c r="AM253" s="13"/>
       <c r="AN253" s="28"/>
     </row>
-    <row r="254" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="254" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -67469,7 +67456,7 @@
       <c r="AM254" s="13"/>
       <c r="AN254" s="28"/>
     </row>
-    <row r="255" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="255" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -67523,7 +67510,7 @@
       <c r="AM255" s="13"/>
       <c r="AN255" s="28"/>
     </row>
-    <row r="256" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="256" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -67577,7 +67564,7 @@
       <c r="AM256" s="13"/>
       <c r="AN256" s="28"/>
     </row>
-    <row r="257" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="257" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -67631,7 +67618,7 @@
       <c r="AM257" s="13"/>
       <c r="AN257" s="28"/>
     </row>
-    <row r="258" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="258" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -67685,7 +67672,7 @@
       <c r="AM258" s="13"/>
       <c r="AN258" s="28"/>
     </row>
-    <row r="259" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="259" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -67739,7 +67726,7 @@
       <c r="AM259" s="13"/>
       <c r="AN259" s="28"/>
     </row>
-    <row r="260" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="260" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -67793,7 +67780,7 @@
       <c r="AM260" s="13"/>
       <c r="AN260" s="28"/>
     </row>
-    <row r="261" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="261" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -67847,7 +67834,7 @@
       <c r="AM261" s="13"/>
       <c r="AN261" s="28"/>
     </row>
-    <row r="262" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="262" spans="1:40" s="10" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -67901,7 +67888,7 @@
       <c r="AM262" s="13"/>
       <c r="AN262" s="28"/>
     </row>
-    <row r="263" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="263" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -67955,7 +67942,7 @@
       <c r="AM263" s="13"/>
       <c r="AN263" s="28"/>
     </row>
-    <row r="264" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="264" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -68009,7 +67996,7 @@
       <c r="AM264" s="13"/>
       <c r="AN264" s="28"/>
     </row>
-    <row r="265" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="265" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -68063,7 +68050,7 @@
       <c r="AM265" s="13"/>
       <c r="AN265" s="28"/>
     </row>
-    <row r="266" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="266" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -68117,7 +68104,7 @@
       <c r="AM266" s="13"/>
       <c r="AN266" s="28"/>
     </row>
-    <row r="267" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="267" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -68171,7 +68158,7 @@
       <c r="AM267" s="13"/>
       <c r="AN267" s="28"/>
     </row>
-    <row r="268" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="268" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -68212,7 +68199,7 @@
       <c r="AM268" s="13"/>
       <c r="AN268" s="28"/>
     </row>
-    <row r="269" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="269" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -68253,7 +68240,7 @@
       <c r="AM269" s="13"/>
       <c r="AN269" s="28"/>
     </row>
-    <row r="270" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="270" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -68294,7 +68281,7 @@
       <c r="AM270" s="13"/>
       <c r="AN270" s="28"/>
     </row>
-    <row r="271" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="271" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -68335,7 +68322,7 @@
       <c r="AM271" s="13"/>
       <c r="AN271" s="28"/>
     </row>
-    <row r="272" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="272" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -68376,7 +68363,7 @@
       <c r="AM272" s="13"/>
       <c r="AN272" s="28"/>
     </row>
-    <row r="273" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="273" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -68417,7 +68404,7 @@
       <c r="AM273" s="13"/>
       <c r="AN273" s="28"/>
     </row>
-    <row r="274" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="274" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -68458,7 +68445,7 @@
       <c r="AM274" s="13"/>
       <c r="AN274" s="28"/>
     </row>
-    <row r="275" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="275" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -68499,7 +68486,7 @@
       <c r="AM275" s="13"/>
       <c r="AN275" s="28"/>
     </row>
-    <row r="276" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="276" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -68540,7 +68527,7 @@
       <c r="AM276" s="13"/>
       <c r="AN276" s="28"/>
     </row>
-    <row r="277" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="277" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -68581,7 +68568,7 @@
       <c r="AM277" s="13"/>
       <c r="AN277" s="28"/>
     </row>
-    <row r="278" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="278" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -68622,7 +68609,7 @@
       <c r="AM278" s="13"/>
       <c r="AN278" s="28"/>
     </row>
-    <row r="279" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="279" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -68663,7 +68650,7 @@
       <c r="AM279" s="13"/>
       <c r="AN279" s="28"/>
     </row>
-    <row r="280" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="280" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -68704,7 +68691,7 @@
       <c r="AM280" s="13"/>
       <c r="AN280" s="28"/>
     </row>
-    <row r="281" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="281" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -68745,7 +68732,7 @@
       <c r="AM281" s="13"/>
       <c r="AN281" s="28"/>
     </row>
-    <row r="282" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="282" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -68786,7 +68773,7 @@
       <c r="AM282" s="13"/>
       <c r="AN282" s="28"/>
     </row>
-    <row r="283" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="283" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -68827,7 +68814,7 @@
       <c r="AM283" s="13"/>
       <c r="AN283" s="28"/>
     </row>
-    <row r="284" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="284" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -68868,7 +68855,7 @@
       <c r="AM284" s="13"/>
       <c r="AN284" s="28"/>
     </row>
-    <row r="285" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="285" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -68909,7 +68896,7 @@
       <c r="AM285" s="13"/>
       <c r="AN285" s="28"/>
     </row>
-    <row r="286" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="286" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -68950,7 +68937,7 @@
       <c r="AM286" s="13"/>
       <c r="AN286" s="28"/>
     </row>
-    <row r="287" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="287" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -68991,7 +68978,7 @@
       <c r="AM287" s="13"/>
       <c r="AN287" s="28"/>
     </row>
-    <row r="288" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="288" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -69032,7 +69019,7 @@
       <c r="AM288" s="13"/>
       <c r="AN288" s="28"/>
     </row>
-    <row r="289" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="289" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -69073,7 +69060,7 @@
       <c r="AM289" s="13"/>
       <c r="AN289" s="28"/>
     </row>
-    <row r="290" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="290" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -69114,7 +69101,7 @@
       <c r="AM290" s="13"/>
       <c r="AN290" s="28"/>
     </row>
-    <row r="291" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="291" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -69155,7 +69142,7 @@
       <c r="AM291" s="13"/>
       <c r="AN291" s="28"/>
     </row>
-    <row r="292" spans="1:40" ht="23.25" customHeight="1" thickBot="1">
+    <row r="292" spans="1:40" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -69196,16 +69183,16 @@
       <c r="AM292" s="13"/>
       <c r="AN292" s="28"/>
     </row>
-    <row r="293" spans="1:40" ht="18.75">
+    <row r="293" spans="1:40" ht="18.75" x14ac:dyDescent="0.25">
       <c r="Q293" s="6"/>
     </row>
-    <row r="294" spans="1:40" ht="18.75">
+    <row r="294" spans="1:40" ht="18.75" x14ac:dyDescent="0.25">
       <c r="Q294" s="6"/>
     </row>
-    <row r="295" spans="1:40" ht="18.75">
+    <row r="295" spans="1:40" ht="18.75" x14ac:dyDescent="0.25">
       <c r="Q295" s="6"/>
     </row>
-    <row r="296" spans="1:40" ht="18.75">
+    <row r="296" spans="1:40" ht="18.75" x14ac:dyDescent="0.25">
       <c r="Q296" s="6"/>
     </row>
   </sheetData>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DDDDE69-EE70-4020-A4DA-15C23689EF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{603BC5B0-F863-4BE1-805B-018544273CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5401" uniqueCount="1714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5417" uniqueCount="1714">
   <si>
     <t>VJDBv0.3</t>
   </si>
@@ -5771,7 +5771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5913,10 +5913,10 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -5944,9 +5944,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6319,8 +6316,8 @@
   <dimension ref="A1:FY216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q178" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T183" sqref="T183:T193"/>
+      <pane xSplit="1" topLeftCell="AV104" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AZ109" sqref="AZ109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
@@ -18101,10 +18098,10 @@
         <v>438</v>
       </c>
       <c r="P48" s="63"/>
-      <c r="Q48" s="68" t="s">
+      <c r="Q48" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R48" s="68" t="s">
+      <c r="R48" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S48" s="67" t="s">
@@ -18338,10 +18335,10 @@
         <v>445</v>
       </c>
       <c r="P49" s="63"/>
-      <c r="Q49" s="68" t="s">
+      <c r="Q49" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R49" s="68" t="s">
+      <c r="R49" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S49" s="67" t="s">
@@ -18575,10 +18572,10 @@
         <v>453</v>
       </c>
       <c r="P50" s="63"/>
-      <c r="Q50" s="68" t="s">
+      <c r="Q50" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R50" s="68" t="s">
+      <c r="R50" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S50" s="67" t="s">
@@ -18812,10 +18809,10 @@
         <v>461</v>
       </c>
       <c r="P51" s="63"/>
-      <c r="Q51" s="68" t="s">
+      <c r="Q51" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R51" s="68" t="s">
+      <c r="R51" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S51" s="67" t="s">
@@ -19051,10 +19048,10 @@
       <c r="P52" s="63" t="s">
         <v>466</v>
       </c>
-      <c r="Q52" s="68" t="s">
+      <c r="Q52" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R52" s="68" t="s">
+      <c r="R52" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S52" s="67" t="s">
@@ -19294,10 +19291,10 @@
       <c r="P53" s="63" t="s">
         <v>474</v>
       </c>
-      <c r="Q53" s="68" t="s">
+      <c r="Q53" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R53" s="68" t="s">
+      <c r="R53" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S53" s="67" t="s">
@@ -19537,10 +19534,10 @@
       <c r="P54" s="63" t="s">
         <v>483</v>
       </c>
-      <c r="Q54" s="68" t="s">
+      <c r="Q54" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R54" s="68" t="s">
+      <c r="R54" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S54" s="67" t="s">
@@ -19778,10 +19775,10 @@
       <c r="P55" s="63" t="s">
         <v>490</v>
       </c>
-      <c r="Q55" s="68" t="s">
+      <c r="Q55" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R55" s="68" t="s">
+      <c r="R55" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S55" s="67" t="s">
@@ -20019,10 +20016,10 @@
         <v>498</v>
       </c>
       <c r="P56" s="63"/>
-      <c r="Q56" s="68" t="s">
+      <c r="Q56" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R56" s="68" t="s">
+      <c r="R56" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S56" s="67" t="s">
@@ -20258,10 +20255,10 @@
       <c r="P57" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="Q57" s="68" t="s">
+      <c r="Q57" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R57" s="68" t="s">
+      <c r="R57" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S57" s="67" t="s">
@@ -20499,10 +20496,10 @@
         <v>512</v>
       </c>
       <c r="P58" s="63"/>
-      <c r="Q58" s="68" t="s">
+      <c r="Q58" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R58" s="68" t="s">
+      <c r="R58" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S58" s="67" t="s">
@@ -20736,10 +20733,10 @@
         <v>519</v>
       </c>
       <c r="P59" s="63"/>
-      <c r="Q59" s="68" t="s">
+      <c r="Q59" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R59" s="68" t="s">
+      <c r="R59" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S59" s="67" t="s">
@@ -20973,10 +20970,10 @@
         <v>526</v>
       </c>
       <c r="P60" s="63"/>
-      <c r="Q60" s="68" t="s">
+      <c r="Q60" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R60" s="68" t="s">
+      <c r="R60" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S60" s="67" t="s">
@@ -21210,10 +21207,10 @@
         <v>533</v>
       </c>
       <c r="P61" s="63"/>
-      <c r="Q61" s="68" t="s">
+      <c r="Q61" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R61" s="68" t="s">
+      <c r="R61" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S61" s="67" t="s">
@@ -21447,10 +21444,10 @@
         <v>539</v>
       </c>
       <c r="P62" s="63"/>
-      <c r="Q62" s="68" t="s">
+      <c r="Q62" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R62" s="68" t="s">
+      <c r="R62" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S62" s="67" t="s">
@@ -21682,10 +21679,10 @@
         <v>545</v>
       </c>
       <c r="P63" s="63"/>
-      <c r="Q63" s="68" t="s">
+      <c r="Q63" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R63" s="68" t="s">
+      <c r="R63" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S63" s="67" t="s">
@@ -21917,10 +21914,10 @@
         <v>551</v>
       </c>
       <c r="P64" s="63"/>
-      <c r="Q64" s="68" t="s">
+      <c r="Q64" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R64" s="68" t="s">
+      <c r="R64" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S64" s="67" t="s">
@@ -22152,10 +22149,10 @@
         <v>557</v>
       </c>
       <c r="P65" s="63"/>
-      <c r="Q65" s="68" t="s">
+      <c r="Q65" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R65" s="68" t="s">
+      <c r="R65" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S65" s="67" t="s">
@@ -22387,10 +22384,10 @@
         <v>563</v>
       </c>
       <c r="P66" s="63"/>
-      <c r="Q66" s="68" t="s">
+      <c r="Q66" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R66" s="68" t="s">
+      <c r="R66" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S66" s="67" t="s">
@@ -22622,10 +22619,10 @@
         <v>569</v>
       </c>
       <c r="P67" s="63"/>
-      <c r="Q67" s="68" t="s">
+      <c r="Q67" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R67" s="68" t="s">
+      <c r="R67" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S67" s="67" t="s">
@@ -22861,10 +22858,10 @@
       <c r="P68" s="63" t="s">
         <v>575</v>
       </c>
-      <c r="Q68" s="68" t="s">
+      <c r="Q68" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R68" s="68" t="s">
+      <c r="R68" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S68" s="67" t="s">
@@ -23104,10 +23101,10 @@
       <c r="P69" s="63" t="s">
         <v>583</v>
       </c>
-      <c r="Q69" s="68" t="s">
+      <c r="Q69" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R69" s="68" t="s">
+      <c r="R69" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S69" s="67" t="s">
@@ -23347,10 +23344,10 @@
       <c r="P70" s="63" t="s">
         <v>590</v>
       </c>
-      <c r="Q70" s="68" t="s">
+      <c r="Q70" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R70" s="68" t="s">
+      <c r="R70" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S70" s="67" t="s">
@@ -23588,10 +23585,10 @@
       <c r="P71" s="63" t="s">
         <v>594</v>
       </c>
-      <c r="Q71" s="68" t="s">
+      <c r="Q71" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R71" s="68" t="s">
+      <c r="R71" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S71" s="67" t="s">
@@ -23827,10 +23824,10 @@
         <v>602</v>
       </c>
       <c r="P72" s="63"/>
-      <c r="Q72" s="68" t="s">
+      <c r="Q72" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R72" s="68" t="s">
+      <c r="R72" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S72" s="67" t="s">
@@ -24066,10 +24063,10 @@
       <c r="P73" s="63" t="s">
         <v>606</v>
       </c>
-      <c r="Q73" s="68" t="s">
+      <c r="Q73" s="64" t="s">
         <v>609</v>
       </c>
-      <c r="R73" s="68" t="s">
+      <c r="R73" s="64" t="s">
         <v>610</v>
       </c>
       <c r="S73" s="67" t="s">
@@ -24307,10 +24304,10 @@
       <c r="P74" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="Q74" s="68" t="s">
+      <c r="Q74" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R74" s="68" t="s">
+      <c r="R74" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S74" s="67" t="s">
@@ -24550,10 +24547,10 @@
       <c r="P75" s="63" t="s">
         <v>624</v>
       </c>
-      <c r="Q75" s="68" t="s">
+      <c r="Q75" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R75" s="68" t="s">
+      <c r="R75" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S75" s="67" t="s">
@@ -24793,10 +24790,10 @@
       <c r="P76" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="Q76" s="68" t="s">
+      <c r="Q76" s="64" t="s">
         <v>609</v>
       </c>
-      <c r="R76" s="68" t="s">
+      <c r="R76" s="64" t="s">
         <v>610</v>
       </c>
       <c r="S76" s="67" t="s">
@@ -25034,10 +25031,10 @@
       <c r="P77" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="Q77" s="68" t="s">
+      <c r="Q77" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="R77" s="68" t="s">
+      <c r="R77" s="64" t="s">
         <v>360</v>
       </c>
       <c r="S77" s="67" t="s">
@@ -25275,10 +25272,10 @@
       <c r="P78" s="63" t="s">
         <v>633</v>
       </c>
-      <c r="Q78" s="68" t="s">
+      <c r="Q78" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R78" s="68" t="s">
+      <c r="R78" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S78" s="67" t="s">
@@ -25516,10 +25513,10 @@
       <c r="P79" s="63" t="s">
         <v>650</v>
       </c>
-      <c r="Q79" s="68" t="s">
+      <c r="Q79" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R79" s="68" t="s">
+      <c r="R79" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S79" s="67" t="s">
@@ -25757,10 +25754,10 @@
         <v>658</v>
       </c>
       <c r="P80" s="63"/>
-      <c r="Q80" s="68" t="s">
+      <c r="Q80" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R80" s="68" t="s">
+      <c r="R80" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S80" s="67" t="s">
@@ -25989,10 +25986,10 @@
         <v>665</v>
       </c>
       <c r="P81" s="63"/>
-      <c r="Q81" s="68" t="s">
+      <c r="Q81" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R81" s="68" t="s">
+      <c r="R81" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S81" s="67" t="s">
@@ -26219,10 +26216,10 @@
         <v>671</v>
       </c>
       <c r="P82" s="63"/>
-      <c r="Q82" s="68" t="s">
+      <c r="Q82" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R82" s="68" t="s">
+      <c r="R82" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S82" s="67" t="s">
@@ -26449,10 +26446,10 @@
         <v>677</v>
       </c>
       <c r="P83" s="63"/>
-      <c r="Q83" s="68" t="s">
+      <c r="Q83" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R83" s="68" t="s">
+      <c r="R83" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S83" s="67" t="s">
@@ -26725,7 +26722,7 @@
       <c r="AP84" s="67"/>
       <c r="AQ84" s="67"/>
       <c r="AR84" s="67"/>
-      <c r="AS84" s="69"/>
+      <c r="AS84" s="68"/>
       <c r="AT84" s="67"/>
       <c r="AU84" s="67"/>
       <c r="AV84" s="67"/>
@@ -26942,7 +26939,7 @@
       <c r="AP85" s="67"/>
       <c r="AQ85" s="67"/>
       <c r="AR85" s="67"/>
-      <c r="AS85" s="69"/>
+      <c r="AS85" s="68"/>
       <c r="AT85" s="67"/>
       <c r="AU85" s="67"/>
       <c r="AV85" s="67"/>
@@ -27159,7 +27156,7 @@
       <c r="AP86" s="67"/>
       <c r="AQ86" s="67"/>
       <c r="AR86" s="67"/>
-      <c r="AS86" s="69"/>
+      <c r="AS86" s="68"/>
       <c r="AT86" s="67"/>
       <c r="AU86" s="67"/>
       <c r="AV86" s="67"/>
@@ -27376,7 +27373,7 @@
       <c r="AP87" s="67"/>
       <c r="AQ87" s="67"/>
       <c r="AR87" s="67"/>
-      <c r="AS87" s="69"/>
+      <c r="AS87" s="68"/>
       <c r="AT87" s="67"/>
       <c r="AU87" s="67"/>
       <c r="AV87" s="67"/>
@@ -27812,7 +27809,7 @@
       <c r="AP89" s="67"/>
       <c r="AQ89" s="67"/>
       <c r="AR89" s="67"/>
-      <c r="AS89" s="69"/>
+      <c r="AS89" s="68"/>
       <c r="AT89" s="67"/>
       <c r="AU89" s="67"/>
       <c r="AV89" s="67"/>
@@ -28034,7 +28031,7 @@
       <c r="AP90" s="67"/>
       <c r="AQ90" s="67"/>
       <c r="AR90" s="67"/>
-      <c r="AS90" s="69"/>
+      <c r="AS90" s="68"/>
       <c r="AT90" s="67"/>
       <c r="AU90" s="67"/>
       <c r="AV90" s="67"/>
@@ -28256,7 +28253,7 @@
       <c r="AP91" s="67"/>
       <c r="AQ91" s="67"/>
       <c r="AR91" s="67"/>
-      <c r="AS91" s="69"/>
+      <c r="AS91" s="68"/>
       <c r="AT91" s="67"/>
       <c r="AU91" s="67"/>
       <c r="AV91" s="67"/>
@@ -28476,7 +28473,7 @@
       <c r="AP92" s="67"/>
       <c r="AQ92" s="67"/>
       <c r="AR92" s="67"/>
-      <c r="AS92" s="69"/>
+      <c r="AS92" s="68"/>
       <c r="AT92" s="67"/>
       <c r="AU92" s="67"/>
       <c r="AV92" s="67"/>
@@ -28694,7 +28691,7 @@
       <c r="AP93" s="67"/>
       <c r="AQ93" s="67"/>
       <c r="AR93" s="67"/>
-      <c r="AS93" s="69"/>
+      <c r="AS93" s="68"/>
       <c r="AT93" s="67"/>
       <c r="AU93" s="67"/>
       <c r="AV93" s="67"/>
@@ -28912,7 +28909,7 @@
       <c r="AP94" s="67"/>
       <c r="AQ94" s="67"/>
       <c r="AR94" s="67"/>
-      <c r="AS94" s="69"/>
+      <c r="AS94" s="68"/>
       <c r="AT94" s="67"/>
       <c r="AU94" s="67"/>
       <c r="AV94" s="67"/>
@@ -29130,7 +29127,7 @@
       <c r="AP95" s="67"/>
       <c r="AQ95" s="67"/>
       <c r="AR95" s="67"/>
-      <c r="AS95" s="69"/>
+      <c r="AS95" s="68"/>
       <c r="AT95" s="67"/>
       <c r="AU95" s="67"/>
       <c r="AV95" s="67"/>
@@ -29349,7 +29346,7 @@
       <c r="AP96" s="67"/>
       <c r="AQ96" s="67"/>
       <c r="AR96" s="67"/>
-      <c r="AS96" s="69"/>
+      <c r="AS96" s="68"/>
       <c r="AT96" s="67"/>
       <c r="AU96" s="67"/>
       <c r="AV96" s="67"/>
@@ -31471,8 +31468,8 @@
       <c r="N106"/>
       <c r="O106"/>
       <c r="P106"/>
-      <c r="Q106" s="70"/>
-      <c r="R106" s="70"/>
+      <c r="Q106" s="69"/>
+      <c r="R106" s="69"/>
       <c r="S106" t="s">
         <v>113</v>
       </c>
@@ -31528,7 +31525,9 @@
       <c r="AY106" t="s">
         <v>71</v>
       </c>
-      <c r="AZ106"/>
+      <c r="AZ106" t="s">
+        <v>94</v>
+      </c>
       <c r="BA106"/>
       <c r="BB106"/>
       <c r="BC106"/>
@@ -31743,7 +31742,9 @@
       <c r="AY107" t="s">
         <v>71</v>
       </c>
-      <c r="AZ107"/>
+      <c r="AZ107" t="s">
+        <v>94</v>
+      </c>
       <c r="BA107"/>
       <c r="BB107"/>
       <c r="BC107"/>
@@ -31956,7 +31957,9 @@
       <c r="AY108" t="s">
         <v>710</v>
       </c>
-      <c r="AZ108"/>
+      <c r="AZ108" t="s">
+        <v>94</v>
+      </c>
       <c r="BA108"/>
       <c r="BB108"/>
       <c r="BC108"/>
@@ -32169,7 +32172,9 @@
       <c r="AY109" t="s">
         <v>710</v>
       </c>
-      <c r="AZ109"/>
+      <c r="AZ109" t="s">
+        <v>94</v>
+      </c>
       <c r="BA109"/>
       <c r="BB109"/>
       <c r="BC109"/>
@@ -32382,7 +32387,9 @@
       <c r="AY110" t="s">
         <v>710</v>
       </c>
-      <c r="AZ110"/>
+      <c r="AZ110" t="s">
+        <v>94</v>
+      </c>
       <c r="BA110"/>
       <c r="BB110"/>
       <c r="BC110"/>
@@ -32595,7 +32602,9 @@
       <c r="AY111" t="s">
         <v>710</v>
       </c>
-      <c r="AZ111"/>
+      <c r="AZ111" t="s">
+        <v>94</v>
+      </c>
       <c r="BA111"/>
       <c r="BB111"/>
       <c r="BC111"/>
@@ -32808,7 +32817,9 @@
       <c r="AY112" t="s">
         <v>710</v>
       </c>
-      <c r="AZ112"/>
+      <c r="AZ112" t="s">
+        <v>94</v>
+      </c>
       <c r="BA112"/>
       <c r="BB112"/>
       <c r="BC112"/>
@@ -32970,8 +32981,8 @@
       <c r="N113" s="63"/>
       <c r="O113" s="63"/>
       <c r="P113" s="63"/>
-      <c r="Q113" s="70"/>
-      <c r="R113" s="70" t="s">
+      <c r="Q113" s="69"/>
+      <c r="R113" s="69" t="s">
         <v>63</v>
       </c>
       <c r="S113" s="67" t="s">
@@ -33211,8 +33222,8 @@
       <c r="N114" s="63"/>
       <c r="O114" s="63"/>
       <c r="P114" s="63"/>
-      <c r="Q114" s="70"/>
-      <c r="R114" s="70" t="s">
+      <c r="Q114" s="69"/>
+      <c r="R114" s="69" t="s">
         <v>63</v>
       </c>
       <c r="S114" s="67" t="s">
@@ -33444,8 +33455,8 @@
       <c r="N115" s="63"/>
       <c r="O115" s="63"/>
       <c r="P115" s="63"/>
-      <c r="Q115" s="70"/>
-      <c r="R115" s="70" t="s">
+      <c r="Q115" s="69"/>
+      <c r="R115" s="69" t="s">
         <v>63</v>
       </c>
       <c r="S115" s="67" t="s">
@@ -33681,8 +33692,8 @@
       <c r="N116" s="63"/>
       <c r="O116" s="63"/>
       <c r="P116" s="63"/>
-      <c r="Q116" s="70"/>
-      <c r="R116" s="70" t="s">
+      <c r="Q116" s="69"/>
+      <c r="R116" s="69" t="s">
         <v>63</v>
       </c>
       <c r="S116" s="67" t="s">
@@ -33916,8 +33927,8 @@
       <c r="N117" s="63"/>
       <c r="O117" s="63"/>
       <c r="P117" s="63"/>
-      <c r="Q117" s="70"/>
-      <c r="R117" s="70" t="s">
+      <c r="Q117" s="69"/>
+      <c r="R117" s="69" t="s">
         <v>63</v>
       </c>
       <c r="S117" s="67" t="s">
@@ -34155,10 +34166,10 @@
       <c r="N118" s="63"/>
       <c r="O118" s="63"/>
       <c r="P118" s="63"/>
-      <c r="Q118" s="70" t="s">
+      <c r="Q118" s="69" t="s">
         <v>852</v>
       </c>
-      <c r="R118" s="70" t="s">
+      <c r="R118" s="69" t="s">
         <v>853</v>
       </c>
       <c r="S118" s="67" t="s">
@@ -34392,10 +34403,10 @@
       <c r="N119" s="63"/>
       <c r="O119" s="63"/>
       <c r="P119" s="63"/>
-      <c r="Q119" s="70" t="s">
+      <c r="Q119" s="69" t="s">
         <v>852</v>
       </c>
-      <c r="R119" s="70" t="s">
+      <c r="R119" s="69" t="s">
         <v>853</v>
       </c>
       <c r="S119" s="67" t="s">
@@ -34635,10 +34646,10 @@
       </c>
       <c r="O120" s="63"/>
       <c r="P120" s="63"/>
-      <c r="Q120" s="70" t="s">
+      <c r="Q120" s="69" t="s">
         <v>852</v>
       </c>
-      <c r="R120" s="70" t="s">
+      <c r="R120" s="69" t="s">
         <v>853</v>
       </c>
       <c r="S120" s="67" t="s">
@@ -34884,10 +34895,10 @@
       <c r="N121" s="63"/>
       <c r="O121" s="63"/>
       <c r="P121" s="63"/>
-      <c r="Q121" s="70" t="s">
+      <c r="Q121" s="69" t="s">
         <v>852</v>
       </c>
-      <c r="R121" s="70" t="s">
+      <c r="R121" s="69" t="s">
         <v>853</v>
       </c>
       <c r="S121" s="67" t="s">
@@ -35123,8 +35134,8 @@
       </c>
       <c r="O122" s="63"/>
       <c r="P122" s="63"/>
-      <c r="Q122" s="70"/>
-      <c r="R122" s="70" t="s">
+      <c r="Q122" s="69"/>
+      <c r="R122" s="69" t="s">
         <v>63</v>
       </c>
       <c r="S122" s="63" t="s">
@@ -35362,8 +35373,8 @@
       <c r="N123" s="63"/>
       <c r="O123" s="63"/>
       <c r="P123" s="63"/>
-      <c r="Q123" s="70"/>
-      <c r="R123" s="70" t="s">
+      <c r="Q123" s="69"/>
+      <c r="R123" s="69" t="s">
         <v>63</v>
       </c>
       <c r="S123" s="63" t="s">
@@ -35595,8 +35606,8 @@
       <c r="N124" s="63"/>
       <c r="O124" s="63"/>
       <c r="P124" s="63"/>
-      <c r="Q124" s="70"/>
-      <c r="R124" s="70" t="s">
+      <c r="Q124" s="69"/>
+      <c r="R124" s="69" t="s">
         <v>63</v>
       </c>
       <c r="S124" s="63" t="s">
@@ -35826,8 +35837,8 @@
       <c r="N125" s="63"/>
       <c r="O125" s="63"/>
       <c r="P125" s="63"/>
-      <c r="Q125" s="70"/>
-      <c r="R125" s="70" t="s">
+      <c r="Q125" s="69"/>
+      <c r="R125" s="69" t="s">
         <v>63</v>
       </c>
       <c r="S125" s="63" t="s">
@@ -36057,10 +36068,10 @@
       <c r="P126" s="63" t="s">
         <v>906</v>
       </c>
-      <c r="Q126" s="70" t="s">
+      <c r="Q126" s="69" t="s">
         <v>909</v>
       </c>
-      <c r="R126" s="70" t="s">
+      <c r="R126" s="69" t="s">
         <v>910</v>
       </c>
       <c r="S126" s="67" t="s">
@@ -36296,10 +36307,10 @@
       <c r="P127" s="63" t="s">
         <v>913</v>
       </c>
-      <c r="Q127" s="70" t="s">
+      <c r="Q127" s="69" t="s">
         <v>909</v>
       </c>
-      <c r="R127" s="70" t="s">
+      <c r="R127" s="69" t="s">
         <v>910</v>
       </c>
       <c r="S127" s="67" t="s">
@@ -36531,8 +36542,8 @@
       <c r="N128" s="67"/>
       <c r="O128" s="67"/>
       <c r="P128" s="67"/>
-      <c r="Q128" s="71"/>
-      <c r="R128" s="71"/>
+      <c r="Q128" s="70"/>
+      <c r="R128" s="70"/>
       <c r="S128" s="67" t="s">
         <v>689</v>
       </c>
@@ -36579,7 +36590,7 @@
       <c r="AP128" s="67"/>
       <c r="AQ128" s="67"/>
       <c r="AR128" s="67"/>
-      <c r="AS128" s="69" t="s">
+      <c r="AS128" s="68" t="s">
         <v>921</v>
       </c>
       <c r="AT128" s="67" t="s">
@@ -36758,8 +36769,8 @@
       <c r="N129" s="63"/>
       <c r="O129" s="63"/>
       <c r="P129" s="63"/>
-      <c r="Q129" s="70"/>
-      <c r="R129" s="70" t="s">
+      <c r="Q129" s="69"/>
+      <c r="R129" s="69" t="s">
         <v>63</v>
       </c>
       <c r="S129" s="63" t="s">
@@ -37214,8 +37225,8 @@
       </c>
       <c r="O131" s="63"/>
       <c r="P131" s="63"/>
-      <c r="Q131" s="70"/>
-      <c r="R131" s="70"/>
+      <c r="Q131" s="69"/>
+      <c r="R131" s="69"/>
       <c r="S131" s="63" t="s">
         <v>182</v>
       </c>
@@ -37457,10 +37468,10 @@
       </c>
       <c r="O132" s="63"/>
       <c r="P132" s="63"/>
-      <c r="Q132" s="70" t="s">
+      <c r="Q132" s="69" t="s">
         <v>852</v>
       </c>
-      <c r="R132" s="70" t="s">
+      <c r="R132" s="69" t="s">
         <v>853</v>
       </c>
       <c r="S132" s="63" t="s">
@@ -37706,10 +37717,10 @@
       </c>
       <c r="O133" s="63"/>
       <c r="P133" s="63"/>
-      <c r="Q133" s="70" t="s">
+      <c r="Q133" s="69" t="s">
         <v>609</v>
       </c>
-      <c r="R133" s="70"/>
+      <c r="R133" s="69"/>
       <c r="S133" s="63" t="s">
         <v>182</v>
       </c>
@@ -37957,10 +37968,10 @@
       </c>
       <c r="O134" s="63"/>
       <c r="P134" s="63"/>
-      <c r="Q134" s="70" t="s">
+      <c r="Q134" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="R134" s="70" t="s">
+      <c r="R134" s="69" t="s">
         <v>100</v>
       </c>
       <c r="S134" s="63" t="s">
@@ -38216,10 +38227,10 @@
       <c r="P135" s="63" t="s">
         <v>977</v>
       </c>
-      <c r="Q135" s="70" t="s">
+      <c r="Q135" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="R135" s="70" t="s">
+      <c r="R135" s="69" t="s">
         <v>100</v>
       </c>
       <c r="S135" s="63" t="s">
@@ -38487,10 +38498,10 @@
       <c r="P136" s="63" t="s">
         <v>994</v>
       </c>
-      <c r="Q136" s="70" t="s">
+      <c r="Q136" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="R136" s="70" t="s">
+      <c r="R136" s="69" t="s">
         <v>100</v>
       </c>
       <c r="S136" s="63" t="s">
@@ -38748,8 +38759,8 @@
       <c r="N137" s="63"/>
       <c r="O137" s="63"/>
       <c r="P137" s="63"/>
-      <c r="Q137" s="70"/>
-      <c r="R137" s="70" t="s">
+      <c r="Q137" s="69"/>
+      <c r="R137" s="69" t="s">
         <v>63</v>
       </c>
       <c r="S137" s="63" t="s">
@@ -40336,7 +40347,7 @@
         <v>71</v>
       </c>
       <c r="AZ143" t="s">
-        <v>322</v>
+        <v>94</v>
       </c>
       <c r="BA143"/>
       <c r="BB143"/>
@@ -46594,10 +46605,10 @@
       <c r="P169" s="63" t="s">
         <v>1280</v>
       </c>
-      <c r="Q169" s="68" t="s">
+      <c r="Q169" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R169" s="68" t="s">
+      <c r="R169" s="64" t="s">
         <v>100</v>
       </c>
       <c r="S169" s="67" t="s">
@@ -46883,7 +46894,7 @@
       <c r="AP170" s="67"/>
       <c r="AQ170" s="67"/>
       <c r="AR170" s="67"/>
-      <c r="AS170" s="69"/>
+      <c r="AS170" s="68"/>
       <c r="AT170" s="67"/>
       <c r="AU170" s="67"/>
       <c r="AV170" s="67"/>
@@ -47106,7 +47117,7 @@
       <c r="AP171" s="67"/>
       <c r="AQ171" s="67"/>
       <c r="AR171" s="67"/>
-      <c r="AS171" s="69"/>
+      <c r="AS171" s="68"/>
       <c r="AT171" s="67"/>
       <c r="AU171" s="67"/>
       <c r="AV171" s="67"/>
@@ -47329,7 +47340,7 @@
       <c r="AP172" s="67"/>
       <c r="AQ172" s="67"/>
       <c r="AR172" s="67"/>
-      <c r="AS172" s="69"/>
+      <c r="AS172" s="68"/>
       <c r="AT172" s="67"/>
       <c r="AU172" s="67"/>
       <c r="AV172" s="67"/>
@@ -47552,7 +47563,7 @@
       <c r="AP173" s="67"/>
       <c r="AQ173" s="67"/>
       <c r="AR173" s="67"/>
-      <c r="AS173" s="69"/>
+      <c r="AS173" s="68"/>
       <c r="AT173" s="67"/>
       <c r="AU173" s="67"/>
       <c r="AV173" s="67"/>
@@ -47775,7 +47786,7 @@
       <c r="AP174" s="67"/>
       <c r="AQ174" s="67"/>
       <c r="AR174" s="67"/>
-      <c r="AS174" s="69"/>
+      <c r="AS174" s="68"/>
       <c r="AT174" s="67"/>
       <c r="AU174" s="67"/>
       <c r="AV174" s="67"/>
@@ -47998,7 +48009,7 @@
       <c r="AP175" s="67"/>
       <c r="AQ175" s="67"/>
       <c r="AR175" s="67"/>
-      <c r="AS175" s="69"/>
+      <c r="AS175" s="68"/>
       <c r="AT175" s="67"/>
       <c r="AU175" s="67"/>
       <c r="AV175" s="67"/>
@@ -48221,7 +48232,7 @@
       <c r="AP176" s="67"/>
       <c r="AQ176" s="67"/>
       <c r="AR176" s="67"/>
-      <c r="AS176" s="69"/>
+      <c r="AS176" s="68"/>
       <c r="AT176" s="67"/>
       <c r="AU176" s="67"/>
       <c r="AV176" s="67"/>
@@ -48444,7 +48455,7 @@
       <c r="AP177" s="67"/>
       <c r="AQ177" s="67"/>
       <c r="AR177" s="67"/>
-      <c r="AS177" s="69"/>
+      <c r="AS177" s="68"/>
       <c r="AT177" s="67"/>
       <c r="AU177" s="67"/>
       <c r="AV177" s="67"/>
@@ -48667,7 +48678,7 @@
       <c r="AP178" s="67"/>
       <c r="AQ178" s="67"/>
       <c r="AR178" s="67"/>
-      <c r="AS178" s="69"/>
+      <c r="AS178" s="68"/>
       <c r="AT178" s="67"/>
       <c r="AU178" s="67"/>
       <c r="AV178" s="67"/>
@@ -48890,7 +48901,7 @@
       <c r="AP179" s="67"/>
       <c r="AQ179" s="67"/>
       <c r="AR179" s="67"/>
-      <c r="AS179" s="69"/>
+      <c r="AS179" s="68"/>
       <c r="AT179" s="67"/>
       <c r="AU179" s="67"/>
       <c r="AV179" s="67"/>
@@ -49113,7 +49124,7 @@
       <c r="AP180" s="67"/>
       <c r="AQ180" s="67"/>
       <c r="AR180" s="67"/>
-      <c r="AS180" s="69"/>
+      <c r="AS180" s="68"/>
       <c r="AT180" s="67"/>
       <c r="AU180" s="67"/>
       <c r="AV180" s="67"/>
@@ -49570,7 +49581,7 @@
       <c r="AP182" s="67"/>
       <c r="AQ182" s="67"/>
       <c r="AR182" s="67"/>
-      <c r="AS182" s="69"/>
+      <c r="AS182" s="68"/>
       <c r="AT182" s="67"/>
       <c r="AU182" s="67"/>
       <c r="AV182" s="67"/>
@@ -49738,12 +49749,12 @@
       <c r="K183" s="67"/>
       <c r="L183" s="67"/>
       <c r="M183" s="67"/>
-      <c r="N183" s="72" t="s">
+      <c r="N183" s="71" t="s">
         <v>1294</v>
       </c>
-      <c r="O183" s="72"/>
-      <c r="P183" s="72"/>
-      <c r="Q183" s="72"/>
+      <c r="O183" s="71"/>
+      <c r="P183" s="71"/>
+      <c r="Q183" s="71"/>
       <c r="R183" s="67"/>
       <c r="S183" s="63" t="s">
         <v>704</v>
@@ -49770,27 +49781,27 @@
       <c r="W183" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="X183" s="73" t="s">
+      <c r="X183" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="Y183" s="73"/>
-      <c r="Z183" s="73"/>
-      <c r="AA183" s="73"/>
-      <c r="AB183" s="73"/>
-      <c r="AC183" s="73"/>
-      <c r="AD183" s="73" t="s">
+      <c r="Y183" s="72"/>
+      <c r="Z183" s="72"/>
+      <c r="AA183" s="72"/>
+      <c r="AB183" s="72"/>
+      <c r="AC183" s="72"/>
+      <c r="AD183" s="72" t="s">
         <v>1216</v>
       </c>
-      <c r="AE183" s="73" t="s">
+      <c r="AE183" s="72" t="s">
         <v>704</v>
       </c>
-      <c r="AF183" s="73" t="s">
+      <c r="AF183" s="72" t="s">
         <v>1354</v>
       </c>
-      <c r="AG183" s="73" t="s">
+      <c r="AG183" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="AH183" s="73"/>
+      <c r="AH183" s="72"/>
       <c r="AI183" s="50"/>
       <c r="AJ183" s="67"/>
       <c r="AK183" s="67"/>
@@ -49801,7 +49812,7 @@
       <c r="AP183" s="67"/>
       <c r="AQ183" s="67"/>
       <c r="AR183" s="67"/>
-      <c r="AS183" s="69"/>
+      <c r="AS183" s="68"/>
       <c r="AT183" s="67"/>
       <c r="AU183" s="67"/>
       <c r="AV183" s="67"/>
@@ -49969,12 +49980,12 @@
       <c r="K184" s="67"/>
       <c r="L184" s="67"/>
       <c r="M184" s="67"/>
-      <c r="N184" s="72" t="s">
+      <c r="N184" s="71" t="s">
         <v>1299</v>
       </c>
-      <c r="O184" s="72"/>
-      <c r="P184" s="72"/>
-      <c r="Q184" s="72"/>
+      <c r="O184" s="71"/>
+      <c r="P184" s="71"/>
+      <c r="Q184" s="71"/>
       <c r="R184" s="67"/>
       <c r="S184" s="63" t="s">
         <v>704</v>
@@ -50001,27 +50012,27 @@
       <c r="W184" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="X184" s="73" t="s">
+      <c r="X184" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="Y184" s="73"/>
-      <c r="Z184" s="73"/>
-      <c r="AA184" s="73"/>
-      <c r="AB184" s="73"/>
-      <c r="AC184" s="73"/>
-      <c r="AD184" s="73" t="s">
+      <c r="Y184" s="72"/>
+      <c r="Z184" s="72"/>
+      <c r="AA184" s="72"/>
+      <c r="AB184" s="72"/>
+      <c r="AC184" s="72"/>
+      <c r="AD184" s="72" t="s">
         <v>1216</v>
       </c>
-      <c r="AE184" s="73" t="s">
+      <c r="AE184" s="72" t="s">
         <v>704</v>
       </c>
-      <c r="AF184" s="73" t="s">
+      <c r="AF184" s="72" t="s">
         <v>1359</v>
       </c>
-      <c r="AG184" s="73" t="s">
+      <c r="AG184" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="AH184" s="73"/>
+      <c r="AH184" s="72"/>
       <c r="AI184" s="50"/>
       <c r="AJ184" s="67"/>
       <c r="AK184" s="67"/>
@@ -50032,7 +50043,7 @@
       <c r="AP184" s="67"/>
       <c r="AQ184" s="67"/>
       <c r="AR184" s="67"/>
-      <c r="AS184" s="69"/>
+      <c r="AS184" s="68"/>
       <c r="AT184" s="67"/>
       <c r="AU184" s="67"/>
       <c r="AV184" s="67"/>
@@ -50123,7 +50134,7 @@
       <c r="AP185" s="67"/>
       <c r="AQ185" s="67"/>
       <c r="AR185" s="67"/>
-      <c r="AS185" s="69"/>
+      <c r="AS185" s="68"/>
       <c r="AT185" s="67"/>
       <c r="AU185" s="67"/>
       <c r="AV185" s="67"/>
@@ -50163,12 +50174,12 @@
       <c r="K186" s="67"/>
       <c r="L186" s="67"/>
       <c r="M186" s="67"/>
-      <c r="N186" s="72" t="s">
+      <c r="N186" s="71" t="s">
         <v>1309</v>
       </c>
-      <c r="O186" s="72"/>
-      <c r="P186" s="72"/>
-      <c r="Q186" s="72"/>
+      <c r="O186" s="71"/>
+      <c r="P186" s="71"/>
+      <c r="Q186" s="71"/>
       <c r="R186" s="67"/>
       <c r="S186" s="63" t="s">
         <v>704</v>
@@ -50195,27 +50206,27 @@
       <c r="W186" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="X186" s="73" t="s">
+      <c r="X186" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="Y186" s="73"/>
-      <c r="Z186" s="73"/>
-      <c r="AA186" s="73"/>
-      <c r="AB186" s="73"/>
-      <c r="AC186" s="73"/>
-      <c r="AD186" s="73" t="s">
+      <c r="Y186" s="72"/>
+      <c r="Z186" s="72"/>
+      <c r="AA186" s="72"/>
+      <c r="AB186" s="72"/>
+      <c r="AC186" s="72"/>
+      <c r="AD186" s="72" t="s">
         <v>1216</v>
       </c>
-      <c r="AE186" s="73" t="s">
+      <c r="AE186" s="72" t="s">
         <v>704</v>
       </c>
-      <c r="AF186" s="73" t="s">
+      <c r="AF186" s="72" t="s">
         <v>1368</v>
       </c>
-      <c r="AG186" s="73" t="s">
+      <c r="AG186" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="AH186" s="73"/>
+      <c r="AH186" s="72"/>
       <c r="AI186" s="50"/>
       <c r="AJ186" s="67"/>
       <c r="AK186" s="67"/>
@@ -50226,7 +50237,7 @@
       <c r="AP186" s="67"/>
       <c r="AQ186" s="67"/>
       <c r="AR186" s="67"/>
-      <c r="AS186" s="69"/>
+      <c r="AS186" s="68"/>
       <c r="AT186" s="67"/>
       <c r="AU186" s="67"/>
       <c r="AV186" s="67"/>
@@ -50266,12 +50277,12 @@
       <c r="K187" s="67"/>
       <c r="L187" s="67"/>
       <c r="M187" s="67"/>
-      <c r="N187" s="72" t="s">
+      <c r="N187" s="71" t="s">
         <v>1314</v>
       </c>
-      <c r="O187" s="72"/>
-      <c r="P187" s="72"/>
-      <c r="Q187" s="72"/>
+      <c r="O187" s="71"/>
+      <c r="P187" s="71"/>
+      <c r="Q187" s="71"/>
       <c r="R187" s="67"/>
       <c r="S187" s="63" t="s">
         <v>704</v>
@@ -50298,27 +50309,27 @@
       <c r="W187" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="X187" s="73" t="s">
+      <c r="X187" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="Y187" s="73"/>
-      <c r="Z187" s="73"/>
-      <c r="AA187" s="73"/>
-      <c r="AB187" s="73"/>
-      <c r="AC187" s="73"/>
-      <c r="AD187" s="73" t="s">
+      <c r="Y187" s="72"/>
+      <c r="Z187" s="72"/>
+      <c r="AA187" s="72"/>
+      <c r="AB187" s="72"/>
+      <c r="AC187" s="72"/>
+      <c r="AD187" s="72" t="s">
         <v>1216</v>
       </c>
-      <c r="AE187" s="73" t="s">
+      <c r="AE187" s="72" t="s">
         <v>704</v>
       </c>
-      <c r="AF187" s="73" t="s">
+      <c r="AF187" s="72" t="s">
         <v>1373</v>
       </c>
-      <c r="AG187" s="73" t="s">
+      <c r="AG187" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="AH187" s="73"/>
+      <c r="AH187" s="72"/>
       <c r="AI187" s="50"/>
       <c r="AJ187" s="67"/>
       <c r="AK187" s="67"/>
@@ -50329,7 +50340,7 @@
       <c r="AP187" s="67"/>
       <c r="AQ187" s="67"/>
       <c r="AR187" s="67"/>
-      <c r="AS187" s="69"/>
+      <c r="AS187" s="68"/>
       <c r="AT187" s="67"/>
       <c r="AU187" s="67"/>
       <c r="AV187" s="67"/>
@@ -50420,7 +50431,7 @@
       <c r="AP188" s="67"/>
       <c r="AQ188" s="67"/>
       <c r="AR188" s="67"/>
-      <c r="AS188" s="69"/>
+      <c r="AS188" s="68"/>
       <c r="AT188" s="67"/>
       <c r="AU188" s="67"/>
       <c r="AV188" s="67"/>
@@ -50630,7 +50641,7 @@
       <c r="AP190" s="67"/>
       <c r="AQ190" s="67"/>
       <c r="AR190" s="67"/>
-      <c r="AS190" s="69"/>
+      <c r="AS190" s="68"/>
       <c r="AT190" s="67"/>
       <c r="AU190" s="67"/>
       <c r="AV190" s="67"/>
@@ -50840,7 +50851,7 @@
       <c r="AP192" s="67"/>
       <c r="AQ192" s="67"/>
       <c r="AR192" s="67"/>
-      <c r="AS192" s="69"/>
+      <c r="AS192" s="68"/>
       <c r="AT192" s="67"/>
       <c r="AU192" s="67"/>
       <c r="AV192" s="67"/>
@@ -51484,12 +51495,12 @@
       <c r="K198" s="67"/>
       <c r="L198" s="67"/>
       <c r="M198" s="67"/>
-      <c r="N198" s="72" t="s">
+      <c r="N198" s="71" t="s">
         <v>1446</v>
       </c>
-      <c r="O198" s="72"/>
-      <c r="P198" s="72"/>
-      <c r="Q198" s="72"/>
+      <c r="O198" s="71"/>
+      <c r="P198" s="71"/>
+      <c r="Q198" s="71"/>
       <c r="R198" s="67"/>
       <c r="S198" s="63" t="s">
         <v>704</v>
@@ -51516,24 +51527,24 @@
       <c r="W198" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="X198" s="73" t="s">
+      <c r="X198" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="Y198" s="73"/>
-      <c r="Z198" s="73"/>
-      <c r="AA198" s="73"/>
-      <c r="AB198" s="73"/>
-      <c r="AC198" s="73"/>
-      <c r="AD198" s="73" t="s">
+      <c r="Y198" s="72"/>
+      <c r="Z198" s="72"/>
+      <c r="AA198" s="72"/>
+      <c r="AB198" s="72"/>
+      <c r="AC198" s="72"/>
+      <c r="AD198" s="72" t="s">
         <v>1216</v>
       </c>
-      <c r="AE198" s="73" t="s">
+      <c r="AE198" s="72" t="s">
         <v>704</v>
       </c>
-      <c r="AF198" s="73" t="s">
+      <c r="AF198" s="72" t="s">
         <v>1447</v>
       </c>
-      <c r="AG198" s="73" t="s">
+      <c r="AG198" s="72" t="s">
         <v>340</v>
       </c>
       <c r="AH198" s="67"/>
@@ -51547,7 +51558,7 @@
       <c r="AP198" s="67"/>
       <c r="AQ198" s="67"/>
       <c r="AR198" s="67"/>
-      <c r="AS198" s="69"/>
+      <c r="AS198" s="68"/>
       <c r="AT198" s="67"/>
       <c r="AU198" s="67"/>
       <c r="AV198" s="67"/>
@@ -51637,7 +51648,7 @@
       <c r="AP199" s="67"/>
       <c r="AQ199" s="67"/>
       <c r="AR199" s="67"/>
-      <c r="AS199" s="69"/>
+      <c r="AS199" s="68"/>
       <c r="AT199" s="67"/>
       <c r="AU199" s="67"/>
       <c r="AV199" s="67"/>
@@ -51727,7 +51738,7 @@
       <c r="AP200" s="67"/>
       <c r="AQ200" s="67"/>
       <c r="AR200" s="67"/>
-      <c r="AS200" s="69"/>
+      <c r="AS200" s="68"/>
       <c r="AT200" s="67"/>
       <c r="AU200" s="67"/>
       <c r="AV200" s="67"/>
@@ -52057,13 +52068,13 @@
       <c r="B207" t="s">
         <v>1484</v>
       </c>
-      <c r="C207" s="74" t="s">
+      <c r="C207" s="73" t="s">
         <v>1485</v>
       </c>
       <c r="D207" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="E207" s="75" t="s">
+      <c r="E207" s="74" t="s">
         <v>938</v>
       </c>
       <c r="Q207" s="64"/>
@@ -52098,6 +52109,9 @@
       <c r="AY207" t="s">
         <v>71</v>
       </c>
+      <c r="AZ207" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="208" spans="1:53" ht="23.25" customHeight="1">
       <c r="A208" t="s">
@@ -52148,6 +52162,9 @@
       <c r="AY208" t="s">
         <v>71</v>
       </c>
+      <c r="AZ208" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="209" spans="1:53" ht="23.25" customHeight="1">
       <c r="A209" t="s">
@@ -52162,7 +52179,7 @@
       <c r="D209" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="E209" s="75" t="s">
+      <c r="E209" s="74" t="s">
         <v>938</v>
       </c>
       <c r="Q209" s="64"/>
@@ -52201,6 +52218,9 @@
       <c r="AY209" t="s">
         <v>71</v>
       </c>
+      <c r="AZ209" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="210" spans="1:53" ht="23.25" customHeight="1">
       <c r="A210" t="s">
@@ -52258,6 +52278,9 @@
       <c r="AY210" t="s">
         <v>71</v>
       </c>
+      <c r="AZ210" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="211" spans="1:53" ht="23.25" customHeight="1">
       <c r="A211" t="s">
@@ -52315,6 +52338,9 @@
       <c r="AY211" t="s">
         <v>71</v>
       </c>
+      <c r="AZ211" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="212" spans="1:53" ht="23.25" customHeight="1">
       <c r="A212" t="s">
@@ -52363,6 +52389,9 @@
       <c r="AY212" t="s">
         <v>71</v>
       </c>
+      <c r="AZ212" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="213" spans="1:53" ht="23.25" customHeight="1">
       <c r="A213" t="s">
@@ -52408,6 +52437,9 @@
       <c r="AY213" t="s">
         <v>71</v>
       </c>
+      <c r="AZ213" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="214" spans="1:53" ht="23.25" customHeight="1">
       <c r="A214" t="s">
@@ -52514,6 +52546,9 @@
       <c r="AY215" t="s">
         <v>71</v>
       </c>
+      <c r="AZ215" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="216" spans="1:53" ht="23.25" customHeight="1">
       <c r="A216" t="s">
@@ -52564,6 +52599,9 @@
       </c>
       <c r="AY216" t="s">
         <v>71</v>
+      </c>
+      <c r="AZ216" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{603BC5B0-F863-4BE1-805B-018544273CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CEC721A-0A39-44A4-9A4E-FF0682C54A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="AdditionalMetadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VJDBCore!$A$1:$A$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VJDBCore!$AZ$1:$AZ$216</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -6316,8 +6316,8 @@
   <dimension ref="A1:FY216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AV104" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ109" sqref="AZ109"/>
+      <pane xSplit="1" topLeftCell="AX204" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AZ211" sqref="AZ211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
@@ -52339,7 +52339,7 @@
         <v>71</v>
       </c>
       <c r="AZ211" t="s">
-        <v>274</v>
+        <v>79</v>
       </c>
     </row>
     <row r="212" spans="1:53" ht="23.25" customHeight="1">

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29203"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CEC721A-0A39-44A4-9A4E-FF0682C54A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F428A2D2-3E89-40F5-8D1F-698D49466DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5417" uniqueCount="1714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5433" uniqueCount="1720">
   <si>
     <t>VJDBv0.3</t>
   </si>
@@ -4799,6 +4799,24 @@
   </si>
   <si>
     <t>0hx</t>
+  </si>
+  <si>
+    <t>imgvr_uvig_id</t>
+  </si>
+  <si>
+    <t>IMGVR UVIG ID</t>
+  </si>
+  <si>
+    <t>0id</t>
+  </si>
+  <si>
+    <t>host_imgm_genome_id</t>
+  </si>
+  <si>
+    <t>Host  IMGM Genome ID</t>
+  </si>
+  <si>
+    <t>0ie</t>
   </si>
   <si>
     <t>do not add</t>
@@ -6313,11 +6331,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E033465-2455-477E-A700-6BF7A0771C26}">
-  <dimension ref="A1:FY216"/>
+  <dimension ref="A1:FY218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AX204" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ211" sqref="AZ211"/>
+      <pane xSplit="1" topLeftCell="B209" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
@@ -52602,6 +52620,84 @@
       </c>
       <c r="AZ216" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="217" spans="1:53" ht="23.25" customHeight="1">
+      <c r="A217" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D217" t="s">
+        <v>60</v>
+      </c>
+      <c r="E217" s="56" t="s">
+        <v>938</v>
+      </c>
+      <c r="S217" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="T217" t="s">
+        <v>183</v>
+      </c>
+      <c r="V217" s="63" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+    IF(H217&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
+    IF(I217&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
+    IF(J217&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
+    IF(K217&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
+    IF(L217&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M217&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N217&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O217&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P217&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
+    IF(S217&lt;&gt;"", """" &amp; S217 &amp; """", ""), IF(Q217&lt;&gt;"", """" &amp; Q217 &amp; """", ""), IF(R217&lt;&gt;"", """" &amp; R217 &amp; """", ""),
+    IF(T217&lt;&gt;"", """" &amp; T217 &amp; """", ""),
+    IF(U217&lt;&gt;"", """" &amp; U217 &amp; """", "")
+) &amp; "]"</f>
+        <v>["Host", "Identifiers"]</v>
+      </c>
+      <c r="W217" t="s">
+        <v>789</v>
+      </c>
+      <c r="AW217" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="218" spans="1:53" ht="23.25" customHeight="1">
+      <c r="A218" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D218" t="s">
+        <v>60</v>
+      </c>
+      <c r="E218" s="56" t="s">
+        <v>938</v>
+      </c>
+      <c r="S218" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="T218" t="s">
+        <v>183</v>
+      </c>
+      <c r="V218" s="63" t="str">
+        <f>"[" &amp; _xlfn.TEXTJOIN(", ", TRUE,
+    IF(H218&lt;&gt;"", """" &amp; H$1 &amp; """", ""),
+    IF(I218&lt;&gt;"", """" &amp; I$1 &amp; """", ""),
+    IF(J218&lt;&gt;"", """" &amp; J$1 &amp; """", ""),
+    IF(K218&lt;&gt;"", """" &amp; K$1 &amp; """", ""),
+    IF(L218&lt;&gt;"", """" &amp; L$1 &amp; """", ""),    IF(M218&lt;&gt;"", """" &amp; M$1 &amp; """", ""),    IF(N218&lt;&gt;"", """" &amp; N$1 &amp; """", ""),     IF(O218&lt;&gt;"", """" &amp; O$1 &amp; """", ""),     IF(P218&lt;&gt;"", """" &amp; P$1 &amp; """", ""),
+    IF(S218&lt;&gt;"", """" &amp; S218 &amp; """", ""), IF(Q218&lt;&gt;"", """" &amp; Q218 &amp; """", ""), IF(R218&lt;&gt;"", """" &amp; R218 &amp; """", ""),
+    IF(T218&lt;&gt;"", """" &amp; T218 &amp; """", ""),
+    IF(U218&lt;&gt;"", """" &amp; U218 &amp; """", "")
+) &amp; "]"</f>
+        <v>["Host", "Identifiers"]</v>
+      </c>
+      <c r="W218" t="s">
+        <v>789</v>
+      </c>
+      <c r="AW218" t="s">
+        <v>1526</v>
       </c>
     </row>
   </sheetData>
@@ -53803,7 +53899,7 @@
         <v>315</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
@@ -53813,14 +53909,14 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="2" t="s">
-        <v>1522</v>
+        <v>1528</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>1523</v>
+        <v>1529</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AH5" s="9" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -53847,7 +53943,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>1524</v>
+        <v>1530</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -53872,7 +53968,7 @@
         <v>315</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
@@ -53884,14 +53980,14 @@
       </c>
       <c r="AD6" s="13"/>
       <c r="AE6" s="1" t="s">
-        <v>1525</v>
+        <v>1531</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG6" s="13"/>
       <c r="AH6" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
@@ -53941,7 +54037,7 @@
         <v>315</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
@@ -53953,14 +54049,14 @@
         <v>985</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>1526</v>
+        <v>1532</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG7" s="13"/>
       <c r="AH7" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
@@ -54010,7 +54106,7 @@
         <v>315</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
@@ -54020,14 +54116,14 @@
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
       <c r="AE8" s="1" t="s">
-        <v>1527</v>
+        <v>1533</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG8" s="13"/>
       <c r="AH8" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
@@ -54077,7 +54173,7 @@
         <v>315</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
@@ -54087,14 +54183,14 @@
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="1" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG9" s="13"/>
       <c r="AH9" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
@@ -54121,7 +54217,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>1529</v>
+        <v>1535</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -54146,7 +54242,7 @@
         <v>315</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
@@ -54158,14 +54254,14 @@
       </c>
       <c r="AD10" s="13"/>
       <c r="AE10" s="1" t="s">
-        <v>1530</v>
+        <v>1536</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG10" s="13"/>
       <c r="AH10" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
@@ -54192,7 +54288,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -54217,7 +54313,7 @@
         <v>315</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
@@ -54229,14 +54325,14 @@
       </c>
       <c r="AD11" s="13"/>
       <c r="AE11" s="1" t="s">
-        <v>1532</v>
+        <v>1538</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG11" s="13"/>
       <c r="AH11" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
@@ -54286,7 +54382,7 @@
         <v>315</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
@@ -54296,14 +54392,14 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="1" t="s">
-        <v>1533</v>
+        <v>1539</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG12" s="13"/>
       <c r="AH12" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
@@ -54353,7 +54449,7 @@
         <v>315</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
@@ -54363,14 +54459,14 @@
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="1" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG13" s="13"/>
       <c r="AH13" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
@@ -54397,7 +54493,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -54422,7 +54518,7 @@
         <v>315</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
@@ -54430,20 +54526,20 @@
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG14" s="13"/>
       <c r="AH14" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
@@ -54493,7 +54589,7 @@
         <v>315</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
@@ -54502,17 +54598,17 @@
       <c r="AB15" s="13"/>
       <c r="AC15" s="13"/>
       <c r="AD15" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>1538</v>
+        <v>1544</v>
       </c>
       <c r="AF15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG15" s="13"/>
       <c r="AH15" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
@@ -54562,7 +54658,7 @@
         <v>315</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
@@ -54572,14 +54668,14 @@
       <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
       <c r="AE16" s="1" t="s">
-        <v>1539</v>
+        <v>1545</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG16" s="13"/>
       <c r="AH16" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="13"/>
@@ -54606,7 +54702,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>1540</v>
+        <v>1546</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -54631,7 +54727,7 @@
         <v>315</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -54639,20 +54735,20 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="1" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
       <c r="AF17" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG17" s="13"/>
       <c r="AH17" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="13"/>
@@ -54679,7 +54775,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -54704,7 +54800,7 @@
         <v>315</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
@@ -54712,20 +54808,20 @@
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
       <c r="AC18" s="1" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
       <c r="AF18" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG18" s="13"/>
       <c r="AH18" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI18" s="13"/>
       <c r="AJ18" s="13"/>
@@ -54752,7 +54848,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>1546</v>
+        <v>1552</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -54777,7 +54873,7 @@
         <v>315</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -54791,14 +54887,14 @@
         <v>1059</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG19" s="13"/>
       <c r="AH19" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI19" s="13"/>
       <c r="AJ19" s="13"/>
@@ -54825,7 +54921,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>1548</v>
+        <v>1554</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -54850,7 +54946,7 @@
         <v>315</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
@@ -54862,14 +54958,14 @@
       </c>
       <c r="AD20" s="13"/>
       <c r="AE20" s="1" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
       <c r="AF20" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG20" s="13"/>
       <c r="AH20" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI20" s="13"/>
       <c r="AJ20" s="13"/>
@@ -54941,7 +55037,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -54966,7 +55062,7 @@
         <v>315</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
@@ -54974,20 +55070,20 @@
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
       <c r="AC22" s="1" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
       <c r="AF22" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG22" s="13"/>
       <c r="AH22" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI22" s="13"/>
       <c r="AJ22" s="13"/>
@@ -55014,7 +55110,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -55039,7 +55135,7 @@
         <v>315</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
@@ -55053,14 +55149,14 @@
         <v>985</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
       <c r="AF23" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG23" s="13"/>
       <c r="AH23" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI23" s="13"/>
       <c r="AJ23" s="13"/>
@@ -55087,7 +55183,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>1554</v>
+        <v>1560</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -55112,7 +55208,7 @@
         <v>315</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
@@ -55124,14 +55220,14 @@
       </c>
       <c r="AD24" s="13"/>
       <c r="AE24" s="1" t="s">
-        <v>1555</v>
+        <v>1561</v>
       </c>
       <c r="AF24" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG24" s="13"/>
       <c r="AH24" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI24" s="13"/>
       <c r="AJ24" s="13"/>
@@ -55181,7 +55277,7 @@
         <v>315</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
@@ -55191,14 +55287,14 @@
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="1" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
       <c r="AF25" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG25" s="13"/>
       <c r="AH25" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI25" s="13"/>
       <c r="AJ25" s="13"/>
@@ -55225,7 +55321,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
-        <v>1557</v>
+        <v>1563</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -55250,7 +55346,7 @@
         <v>315</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
@@ -55262,14 +55358,14 @@
       </c>
       <c r="AD26" s="13"/>
       <c r="AE26" s="1" t="s">
-        <v>1558</v>
+        <v>1564</v>
       </c>
       <c r="AF26" s="1" t="s">
         <v>351</v>
       </c>
       <c r="AG26" s="13"/>
       <c r="AH26" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="13"/>
@@ -55296,7 +55392,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -55321,7 +55417,7 @@
         <v>315</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
@@ -55335,14 +55431,14 @@
         <v>1059</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>1560</v>
+        <v>1566</v>
       </c>
       <c r="AF27" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG27" s="13"/>
       <c r="AH27" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="13"/>
@@ -55369,7 +55465,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>1561</v>
+        <v>1567</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -55394,7 +55490,7 @@
         <v>315</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
@@ -55408,14 +55504,14 @@
         <v>1059</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
       <c r="AF28" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG28" s="13"/>
       <c r="AH28" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="13"/>
@@ -55442,7 +55538,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>1563</v>
+        <v>1569</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -55467,7 +55563,7 @@
         <v>315</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
@@ -55481,14 +55577,14 @@
         <v>1059</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>1564</v>
+        <v>1570</v>
       </c>
       <c r="AF29" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG29" s="13"/>
       <c r="AH29" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
@@ -55538,7 +55634,7 @@
         <v>315</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
@@ -55547,17 +55643,17 @@
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
       <c r="AD30" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
       <c r="AF30" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG30" s="13"/>
       <c r="AH30" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="13"/>
@@ -55607,7 +55703,7 @@
         <v>315</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
@@ -55616,17 +55712,17 @@
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
       <c r="AD31" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>1566</v>
+        <v>1572</v>
       </c>
       <c r="AF31" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG31" s="13"/>
       <c r="AH31" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="13"/>
@@ -55653,7 +55749,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>1567</v>
+        <v>1573</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -55678,7 +55774,7 @@
         <v>315</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
@@ -55690,14 +55786,14 @@
       </c>
       <c r="AD32" s="13"/>
       <c r="AE32" s="1" t="s">
-        <v>1568</v>
+        <v>1574</v>
       </c>
       <c r="AF32" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG32" s="13"/>
       <c r="AH32" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="13"/>
@@ -55747,7 +55843,7 @@
         <v>315</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
@@ -55757,14 +55853,14 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
       <c r="AE33" s="1" t="s">
-        <v>1568</v>
+        <v>1574</v>
       </c>
       <c r="AF33" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG33" s="13"/>
       <c r="AH33" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="13"/>
@@ -55791,7 +55887,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>1569</v>
+        <v>1575</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -55816,7 +55912,7 @@
         <v>315</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
@@ -55828,14 +55924,14 @@
       </c>
       <c r="AD34" s="13"/>
       <c r="AE34" s="1" t="s">
-        <v>1570</v>
+        <v>1576</v>
       </c>
       <c r="AF34" s="1" t="s">
         <v>351</v>
       </c>
       <c r="AG34" s="13"/>
       <c r="AH34" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="13"/>
@@ -55885,7 +55981,7 @@
         <v>315</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
@@ -55897,14 +55993,14 @@
         <v>985</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>1571</v>
+        <v>1577</v>
       </c>
       <c r="AF35" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG35" s="13"/>
       <c r="AH35" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="13"/>
@@ -55954,7 +56050,7 @@
         <v>315</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
@@ -55971,7 +56067,7 @@
       </c>
       <c r="AG36" s="13"/>
       <c r="AH36" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI36" s="13"/>
       <c r="AJ36" s="13"/>
@@ -55998,7 +56094,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>1572</v>
+        <v>1578</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -56023,7 +56119,7 @@
         <v>315</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
@@ -56031,20 +56127,20 @@
       <c r="AA37" s="13"/>
       <c r="AB37" s="13"/>
       <c r="AC37" s="1" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>1573</v>
+        <v>1579</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG37" s="13"/>
       <c r="AH37" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI37" s="13"/>
       <c r="AJ37" s="13"/>
@@ -56071,7 +56167,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -56096,7 +56192,7 @@
         <v>315</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
@@ -56104,20 +56200,20 @@
       <c r="AA38" s="13"/>
       <c r="AB38" s="13"/>
       <c r="AC38" s="1" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>1574</v>
+        <v>1580</v>
       </c>
       <c r="AF38" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG38" s="13"/>
       <c r="AH38" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI38" s="13"/>
       <c r="AJ38" s="13"/>
@@ -56144,7 +56240,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>1575</v>
+        <v>1581</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -56169,7 +56265,7 @@
         <v>315</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
@@ -56177,20 +56273,20 @@
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
       <c r="AC39" s="1" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>1576</v>
+        <v>1582</v>
       </c>
       <c r="AF39" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG39" s="13"/>
       <c r="AH39" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI39" s="13"/>
       <c r="AJ39" s="13"/>
@@ -56217,7 +56313,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -56242,7 +56338,7 @@
         <v>315</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
@@ -56250,18 +56346,18 @@
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
       <c r="AC40" s="1" t="s">
-        <v>1578</v>
+        <v>1584</v>
       </c>
       <c r="AD40" s="13"/>
       <c r="AE40" s="1" t="s">
-        <v>1579</v>
+        <v>1585</v>
       </c>
       <c r="AF40" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG40" s="13"/>
       <c r="AH40" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI40" s="13"/>
       <c r="AJ40" s="13"/>
@@ -56288,7 +56384,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4" t="s">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -56313,7 +56409,7 @@
         <v>315</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
@@ -56327,14 +56423,14 @@
         <v>985</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>1581</v>
+        <v>1587</v>
       </c>
       <c r="AF41" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG41" s="13"/>
       <c r="AH41" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI41" s="13"/>
       <c r="AJ41" s="13"/>
@@ -56384,7 +56480,7 @@
         <v>315</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
@@ -56394,14 +56490,14 @@
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
       <c r="AE42" s="1" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="AF42" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG42" s="13"/>
       <c r="AH42" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI42" s="13"/>
       <c r="AJ42" s="13"/>
@@ -56428,7 +56524,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4" t="s">
-        <v>1583</v>
+        <v>1589</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -56453,7 +56549,7 @@
         <v>315</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
@@ -56465,14 +56561,14 @@
       </c>
       <c r="AD43" s="13"/>
       <c r="AE43" s="1" t="s">
-        <v>1584</v>
+        <v>1590</v>
       </c>
       <c r="AF43" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG43" s="13"/>
       <c r="AH43" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI43" s="13"/>
       <c r="AJ43" s="13"/>
@@ -56499,7 +56595,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4" t="s">
-        <v>1585</v>
+        <v>1591</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -56524,7 +56620,7 @@
         <v>315</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
@@ -56536,14 +56632,14 @@
       </c>
       <c r="AD44" s="13"/>
       <c r="AE44" s="1" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="AF44" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG44" s="13"/>
       <c r="AH44" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI44" s="13"/>
       <c r="AJ44" s="13"/>
@@ -56570,7 +56666,7 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4" t="s">
-        <v>1587</v>
+        <v>1593</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -56595,7 +56691,7 @@
         <v>315</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
@@ -56607,14 +56703,14 @@
       </c>
       <c r="AD45" s="13"/>
       <c r="AE45" s="1" t="s">
-        <v>1588</v>
+        <v>1594</v>
       </c>
       <c r="AF45" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG45" s="13"/>
       <c r="AH45" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI45" s="13"/>
       <c r="AJ45" s="13"/>
@@ -56664,7 +56760,7 @@
         <v>315</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
@@ -56674,14 +56770,14 @@
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="1" t="s">
-        <v>1589</v>
+        <v>1595</v>
       </c>
       <c r="AF46" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG46" s="13"/>
       <c r="AH46" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="13"/>
@@ -56708,7 +56804,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4" t="s">
-        <v>1590</v>
+        <v>1596</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -56733,7 +56829,7 @@
         <v>315</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
@@ -56745,14 +56841,14 @@
       </c>
       <c r="AD47" s="13"/>
       <c r="AE47" s="1" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
       <c r="AF47" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG47" s="13"/>
       <c r="AH47" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI47" s="13"/>
       <c r="AJ47" s="13"/>
@@ -56802,7 +56898,7 @@
         <v>315</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
@@ -56812,14 +56908,14 @@
       <c r="AC48" s="13"/>
       <c r="AD48" s="13"/>
       <c r="AE48" s="1" t="s">
-        <v>1592</v>
+        <v>1598</v>
       </c>
       <c r="AF48" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG48" s="13"/>
       <c r="AH48" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI48" s="13"/>
       <c r="AJ48" s="13"/>
@@ -56846,7 +56942,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4" t="s">
-        <v>1593</v>
+        <v>1599</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -56871,7 +56967,7 @@
         <v>315</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
@@ -56883,14 +56979,14 @@
       </c>
       <c r="AD49" s="13"/>
       <c r="AE49" s="1" t="s">
-        <v>1594</v>
+        <v>1600</v>
       </c>
       <c r="AF49" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG49" s="13"/>
       <c r="AH49" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI49" s="13"/>
       <c r="AJ49" s="13"/>
@@ -56940,7 +57036,7 @@
         <v>315</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
@@ -56950,14 +57046,14 @@
       <c r="AC50" s="13"/>
       <c r="AD50" s="13"/>
       <c r="AE50" s="1" t="s">
-        <v>1595</v>
+        <v>1601</v>
       </c>
       <c r="AF50" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG50" s="13"/>
       <c r="AH50" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI50" s="13"/>
       <c r="AJ50" s="13"/>
@@ -57007,7 +57103,7 @@
         <v>315</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X51" s="13"/>
       <c r="Y51" s="13"/>
@@ -57016,17 +57112,17 @@
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
       <c r="AD51" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>1596</v>
+        <v>1602</v>
       </c>
       <c r="AF51" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG51" s="13"/>
       <c r="AH51" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI51" s="13"/>
       <c r="AJ51" s="13"/>
@@ -57076,7 +57172,7 @@
         <v>315</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
@@ -57085,17 +57181,17 @@
       <c r="AB52" s="13"/>
       <c r="AC52" s="13"/>
       <c r="AD52" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="AF52" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG52" s="13"/>
       <c r="AH52" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI52" s="13"/>
       <c r="AJ52" s="13"/>
@@ -57122,7 +57218,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4" t="s">
-        <v>1598</v>
+        <v>1604</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
@@ -57147,7 +57243,7 @@
         <v>315</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
@@ -57161,14 +57257,14 @@
         <v>985</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>1599</v>
+        <v>1605</v>
       </c>
       <c r="AF53" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG53" s="13"/>
       <c r="AH53" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI53" s="13"/>
       <c r="AJ53" s="13"/>
@@ -57218,7 +57314,7 @@
         <v>315</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X54" s="13"/>
       <c r="Y54" s="13"/>
@@ -57230,14 +57326,14 @@
         <v>985</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="AF54" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG54" s="13"/>
       <c r="AH54" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI54" s="13"/>
       <c r="AJ54" s="13"/>
@@ -57264,7 +57360,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -57289,7 +57385,7 @@
         <v>315</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
@@ -57303,14 +57399,14 @@
         <v>985</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>1602</v>
+        <v>1608</v>
       </c>
       <c r="AF55" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG55" s="13"/>
       <c r="AH55" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI55" s="13"/>
       <c r="AJ55" s="13"/>
@@ -57384,7 +57480,7 @@
         <v>315</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
@@ -57396,14 +57492,14 @@
         <v>985</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>1603</v>
+        <v>1609</v>
       </c>
       <c r="AF57" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG57" s="13"/>
       <c r="AH57" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI57" s="13"/>
       <c r="AJ57" s="13"/>
@@ -57453,7 +57549,7 @@
         <v>315</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
@@ -57465,14 +57561,14 @@
         <v>985</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>1604</v>
+        <v>1610</v>
       </c>
       <c r="AF58" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI58" s="13"/>
       <c r="AJ58" s="13"/>
@@ -57499,7 +57595,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4" t="s">
-        <v>1605</v>
+        <v>1611</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
@@ -57524,7 +57620,7 @@
         <v>315</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
@@ -57532,20 +57628,20 @@
       <c r="AA59" s="13"/>
       <c r="AB59" s="13"/>
       <c r="AC59" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>1606</v>
+        <v>1612</v>
       </c>
       <c r="AF59" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG59" s="13"/>
       <c r="AH59" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI59" s="13"/>
       <c r="AJ59" s="13"/>
@@ -57595,7 +57691,7 @@
         <v>315</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
@@ -57604,17 +57700,17 @@
       <c r="AB60" s="13"/>
       <c r="AC60" s="13"/>
       <c r="AD60" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>1607</v>
+        <v>1613</v>
       </c>
       <c r="AF60" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG60" s="13"/>
       <c r="AH60" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI60" s="13"/>
       <c r="AJ60" s="13"/>
@@ -57641,7 +57737,7 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4" t="s">
-        <v>1608</v>
+        <v>1614</v>
       </c>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
@@ -57666,7 +57762,7 @@
         <v>315</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
@@ -57678,14 +57774,14 @@
       </c>
       <c r="AD61" s="13"/>
       <c r="AE61" s="1" t="s">
-        <v>1609</v>
+        <v>1615</v>
       </c>
       <c r="AF61" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG61" s="13"/>
       <c r="AH61" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI61" s="13"/>
       <c r="AJ61" s="13"/>
@@ -57735,7 +57831,7 @@
         <v>315</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
@@ -57745,14 +57841,14 @@
       <c r="AC62" s="13"/>
       <c r="AD62" s="13"/>
       <c r="AE62" s="1" t="s">
-        <v>1610</v>
+        <v>1616</v>
       </c>
       <c r="AF62" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG62" s="13"/>
       <c r="AH62" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI62" s="13"/>
       <c r="AJ62" s="13"/>
@@ -57779,7 +57875,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4" t="s">
-        <v>1611</v>
+        <v>1617</v>
       </c>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
@@ -57804,7 +57900,7 @@
         <v>315</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
@@ -57816,14 +57912,14 @@
       </c>
       <c r="AD63" s="13"/>
       <c r="AE63" s="1" t="s">
-        <v>1612</v>
+        <v>1618</v>
       </c>
       <c r="AF63" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG63" s="13"/>
       <c r="AH63" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI63" s="13"/>
       <c r="AJ63" s="13"/>
@@ -57873,7 +57969,7 @@
         <v>315</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
@@ -57883,14 +57979,14 @@
       <c r="AC64" s="13"/>
       <c r="AD64" s="13"/>
       <c r="AE64" s="1" t="s">
-        <v>1613</v>
+        <v>1619</v>
       </c>
       <c r="AF64" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG64" s="13"/>
       <c r="AH64" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI64" s="13"/>
       <c r="AJ64" s="13"/>
@@ -57940,7 +58036,7 @@
         <v>315</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X65" s="13"/>
       <c r="Y65" s="13"/>
@@ -57949,17 +58045,17 @@
       <c r="AB65" s="13"/>
       <c r="AC65" s="13"/>
       <c r="AD65" s="1" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>1614</v>
+        <v>1620</v>
       </c>
       <c r="AF65" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG65" s="13"/>
       <c r="AH65" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI65" s="13"/>
       <c r="AJ65" s="13"/>
@@ -58009,7 +58105,7 @@
         <v>315</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
@@ -58019,14 +58115,14 @@
       <c r="AC66" s="13"/>
       <c r="AD66" s="13"/>
       <c r="AE66" s="1" t="s">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="AF66" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG66" s="13"/>
       <c r="AH66" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI66" s="13"/>
       <c r="AJ66" s="13"/>
@@ -58100,7 +58196,7 @@
         <v>315</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X68" s="13"/>
       <c r="Y68" s="13"/>
@@ -58117,7 +58213,7 @@
       </c>
       <c r="AG68" s="13"/>
       <c r="AH68" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI68" s="13"/>
       <c r="AJ68" s="13"/>
@@ -58144,7 +58240,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4" t="s">
-        <v>1616</v>
+        <v>1622</v>
       </c>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
@@ -58169,7 +58265,7 @@
         <v>315</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X69" s="13"/>
       <c r="Y69" s="13"/>
@@ -58181,14 +58277,14 @@
       </c>
       <c r="AD69" s="13"/>
       <c r="AE69" s="1" t="s">
-        <v>1617</v>
+        <v>1623</v>
       </c>
       <c r="AF69" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG69" s="13"/>
       <c r="AH69" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI69" s="13"/>
       <c r="AJ69" s="13"/>
@@ -58215,7 +58311,7 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4" t="s">
-        <v>1618</v>
+        <v>1624</v>
       </c>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
@@ -58240,7 +58336,7 @@
         <v>315</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X70" s="13"/>
       <c r="Y70" s="13"/>
@@ -58254,14 +58350,14 @@
         <v>985</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>1619</v>
+        <v>1625</v>
       </c>
       <c r="AF70" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG70" s="13"/>
       <c r="AH70" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI70" s="13"/>
       <c r="AJ70" s="13"/>
@@ -58288,7 +58384,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4" t="s">
-        <v>1620</v>
+        <v>1626</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
@@ -58313,7 +58409,7 @@
         <v>315</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X71" s="13"/>
       <c r="Y71" s="13"/>
@@ -58325,14 +58421,14 @@
       </c>
       <c r="AD71" s="13"/>
       <c r="AE71" s="1" t="s">
-        <v>1621</v>
+        <v>1627</v>
       </c>
       <c r="AF71" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG71" s="13"/>
       <c r="AH71" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI71" s="13"/>
       <c r="AJ71" s="13"/>
@@ -58359,7 +58455,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4" t="s">
-        <v>1622</v>
+        <v>1628</v>
       </c>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
@@ -58384,7 +58480,7 @@
         <v>315</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X72" s="13"/>
       <c r="Y72" s="13"/>
@@ -58396,14 +58492,14 @@
       </c>
       <c r="AD72" s="13"/>
       <c r="AE72" s="1" t="s">
-        <v>1623</v>
+        <v>1629</v>
       </c>
       <c r="AF72" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG72" s="13"/>
       <c r="AH72" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI72" s="13"/>
       <c r="AJ72" s="13"/>
@@ -58453,7 +58549,7 @@
         <v>315</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X73" s="13"/>
       <c r="Y73" s="13"/>
@@ -58462,17 +58558,17 @@
       <c r="AB73" s="13"/>
       <c r="AC73" s="13"/>
       <c r="AD73" s="1" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>1624</v>
+        <v>1630</v>
       </c>
       <c r="AF73" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG73" s="13"/>
       <c r="AH73" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI73" s="13"/>
       <c r="AJ73" s="13"/>
@@ -58499,7 +58595,7 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4" t="s">
-        <v>1625</v>
+        <v>1631</v>
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -58524,7 +58620,7 @@
         <v>315</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X74" s="13"/>
       <c r="Y74" s="13"/>
@@ -58535,17 +58631,17 @@
         <v>349</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>1626</v>
+        <v>1632</v>
       </c>
       <c r="AE74" s="1" t="s">
-        <v>1627</v>
+        <v>1633</v>
       </c>
       <c r="AF74" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG74" s="13"/>
       <c r="AH74" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI74" s="13"/>
       <c r="AJ74" s="13"/>
@@ -58595,7 +58691,7 @@
         <v>315</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
@@ -58605,14 +58701,14 @@
       <c r="AC75" s="13"/>
       <c r="AD75" s="13"/>
       <c r="AE75" s="1" t="s">
-        <v>1628</v>
+        <v>1634</v>
       </c>
       <c r="AF75" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG75" s="13"/>
       <c r="AH75" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI75" s="13"/>
       <c r="AJ75" s="13"/>
@@ -58662,7 +58758,7 @@
         <v>315</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X76" s="13"/>
       <c r="Y76" s="13"/>
@@ -58672,14 +58768,14 @@
       <c r="AC76" s="13"/>
       <c r="AD76" s="13"/>
       <c r="AE76" s="1" t="s">
-        <v>1629</v>
+        <v>1635</v>
       </c>
       <c r="AF76" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG76" s="13"/>
       <c r="AH76" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI76" s="13"/>
       <c r="AJ76" s="13"/>
@@ -58729,7 +58825,7 @@
         <v>315</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X77" s="13"/>
       <c r="Y77" s="13"/>
@@ -58738,17 +58834,17 @@
       <c r="AB77" s="13"/>
       <c r="AC77" s="13"/>
       <c r="AD77" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="AF77" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG77" s="13"/>
       <c r="AH77" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI77" s="13"/>
       <c r="AJ77" s="13"/>
@@ -58798,7 +58894,7 @@
         <v>315</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X78" s="13"/>
       <c r="Y78" s="13"/>
@@ -58807,17 +58903,17 @@
       <c r="AB78" s="13"/>
       <c r="AC78" s="13"/>
       <c r="AD78" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>1631</v>
+        <v>1637</v>
       </c>
       <c r="AF78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG78" s="13"/>
       <c r="AH78" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI78" s="13"/>
       <c r="AJ78" s="13"/>
@@ -58844,7 +58940,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4" t="s">
-        <v>1632</v>
+        <v>1638</v>
       </c>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
@@ -58869,7 +58965,7 @@
         <v>315</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X79" s="13"/>
       <c r="Y79" s="13"/>
@@ -58881,14 +58977,14 @@
       </c>
       <c r="AD79" s="13"/>
       <c r="AE79" s="1" t="s">
-        <v>1633</v>
+        <v>1639</v>
       </c>
       <c r="AF79" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG79" s="13"/>
       <c r="AH79" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI79" s="13"/>
       <c r="AJ79" s="13"/>
@@ -58915,7 +59011,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
-        <v>1634</v>
+        <v>1640</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -58940,7 +59036,7 @@
         <v>315</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X80" s="13"/>
       <c r="Y80" s="13"/>
@@ -58952,14 +59048,14 @@
       </c>
       <c r="AD80" s="13"/>
       <c r="AE80" s="1" t="s">
-        <v>1635</v>
+        <v>1641</v>
       </c>
       <c r="AF80" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG80" s="13"/>
       <c r="AH80" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI80" s="13"/>
       <c r="AJ80" s="13"/>
@@ -59009,7 +59105,7 @@
         <v>315</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
@@ -59018,17 +59114,17 @@
       <c r="AB81" s="13"/>
       <c r="AC81" s="13"/>
       <c r="AD81" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>1636</v>
+        <v>1642</v>
       </c>
       <c r="AF81" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG81" s="13"/>
       <c r="AH81" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI81" s="13"/>
       <c r="AJ81" s="13"/>
@@ -59055,7 +59151,7 @@
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4" t="s">
-        <v>1637</v>
+        <v>1643</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -59080,7 +59176,7 @@
         <v>315</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X82" s="13"/>
       <c r="Y82" s="13"/>
@@ -59092,14 +59188,14 @@
       </c>
       <c r="AD82" s="13"/>
       <c r="AE82" s="1" t="s">
-        <v>1638</v>
+        <v>1644</v>
       </c>
       <c r="AF82" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG82" s="13"/>
       <c r="AH82" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI82" s="13"/>
       <c r="AJ82" s="13"/>
@@ -59149,7 +59245,7 @@
         <v>315</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
@@ -59159,14 +59255,14 @@
       <c r="AC83" s="13"/>
       <c r="AD83" s="13"/>
       <c r="AE83" s="1" t="s">
-        <v>1639</v>
+        <v>1645</v>
       </c>
       <c r="AF83" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG83" s="13"/>
       <c r="AH83" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI83" s="13"/>
       <c r="AJ83" s="13"/>
@@ -59238,7 +59334,7 @@
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4" t="s">
-        <v>1640</v>
+        <v>1646</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
@@ -59263,7 +59359,7 @@
         <v>315</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X85" s="13"/>
       <c r="Y85" s="13"/>
@@ -59277,14 +59373,14 @@
         <v>1059</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>1641</v>
+        <v>1647</v>
       </c>
       <c r="AF85" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG85" s="13"/>
       <c r="AH85" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI85" s="13"/>
       <c r="AJ85" s="13"/>
@@ -59334,7 +59430,7 @@
         <v>315</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X86" s="13"/>
       <c r="Y86" s="13"/>
@@ -59343,17 +59439,17 @@
       <c r="AB86" s="13"/>
       <c r="AC86" s="13"/>
       <c r="AD86" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="AF86" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG86" s="13"/>
       <c r="AH86" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI86" s="13"/>
       <c r="AJ86" s="13"/>
@@ -59403,7 +59499,7 @@
         <v>315</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X87" s="13"/>
       <c r="Y87" s="13"/>
@@ -59412,17 +59508,17 @@
       <c r="AB87" s="13"/>
       <c r="AC87" s="13"/>
       <c r="AD87" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AE87" s="1" t="s">
-        <v>1643</v>
+        <v>1649</v>
       </c>
       <c r="AF87" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG87" s="13"/>
       <c r="AH87" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI87" s="13"/>
       <c r="AJ87" s="13"/>
@@ -59449,7 +59545,7 @@
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4" t="s">
-        <v>1644</v>
+        <v>1650</v>
       </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
@@ -59474,7 +59570,7 @@
         <v>315</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X88" s="13"/>
       <c r="Y88" s="13"/>
@@ -59485,7 +59581,7 @@
         <v>349</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>1626</v>
+        <v>1632</v>
       </c>
       <c r="AE88" s="1" t="s">
         <v>938</v>
@@ -59495,7 +59591,7 @@
       </c>
       <c r="AG88" s="13"/>
       <c r="AH88" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI88" s="13"/>
       <c r="AJ88" s="13"/>
@@ -59545,7 +59641,7 @@
         <v>315</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
@@ -59562,7 +59658,7 @@
       </c>
       <c r="AG89" s="13"/>
       <c r="AH89" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI89" s="13"/>
       <c r="AJ89" s="13"/>
@@ -59612,7 +59708,7 @@
         <v>315</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X90" s="13"/>
       <c r="Y90" s="13"/>
@@ -59622,14 +59718,14 @@
       <c r="AC90" s="13"/>
       <c r="AD90" s="13"/>
       <c r="AE90" s="1" t="s">
-        <v>1645</v>
+        <v>1651</v>
       </c>
       <c r="AF90" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG90" s="13"/>
       <c r="AH90" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI90" s="13"/>
       <c r="AJ90" s="13"/>
@@ -59679,7 +59775,7 @@
         <v>315</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X91" s="13"/>
       <c r="Y91" s="13"/>
@@ -59688,17 +59784,17 @@
       <c r="AB91" s="13"/>
       <c r="AC91" s="13"/>
       <c r="AD91" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>1646</v>
+        <v>1652</v>
       </c>
       <c r="AF91" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG91" s="13"/>
       <c r="AH91" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI91" s="13"/>
       <c r="AJ91" s="13"/>
@@ -59748,7 +59844,7 @@
         <v>315</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X92" s="13"/>
       <c r="Y92" s="13"/>
@@ -59758,14 +59854,14 @@
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
       <c r="AE92" s="1" t="s">
-        <v>1647</v>
+        <v>1653</v>
       </c>
       <c r="AF92" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG92" s="13"/>
       <c r="AH92" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI92" s="13"/>
       <c r="AJ92" s="13"/>
@@ -59792,7 +59888,7 @@
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4" t="s">
-        <v>1648</v>
+        <v>1654</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
@@ -59817,7 +59913,7 @@
         <v>315</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X93" s="13"/>
       <c r="Y93" s="13"/>
@@ -59825,20 +59921,20 @@
       <c r="AA93" s="13"/>
       <c r="AB93" s="13"/>
       <c r="AC93" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>1649</v>
+        <v>1655</v>
       </c>
       <c r="AF93" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG93" s="13"/>
       <c r="AH93" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI93" s="13"/>
       <c r="AJ93" s="13"/>
@@ -59888,7 +59984,7 @@
         <v>315</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X94" s="13"/>
       <c r="Y94" s="13"/>
@@ -59898,14 +59994,14 @@
       <c r="AC94" s="13"/>
       <c r="AD94" s="13"/>
       <c r="AE94" s="1" t="s">
-        <v>1650</v>
+        <v>1656</v>
       </c>
       <c r="AF94" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG94" s="13"/>
       <c r="AH94" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI94" s="13"/>
       <c r="AJ94" s="13"/>
@@ -59932,7 +60028,7 @@
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4" t="s">
-        <v>1651</v>
+        <v>1657</v>
       </c>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
@@ -59957,7 +60053,7 @@
         <v>315</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X95" s="13"/>
       <c r="Y95" s="13"/>
@@ -59971,14 +60067,14 @@
         <v>985</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>1652</v>
+        <v>1658</v>
       </c>
       <c r="AF95" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG95" s="13"/>
       <c r="AH95" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI95" s="13"/>
       <c r="AJ95" s="13"/>
@@ -60030,7 +60126,7 @@
         <v>315</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X96" s="13"/>
       <c r="Y96" s="13"/>
@@ -60042,14 +60138,14 @@
       </c>
       <c r="AD96" s="13"/>
       <c r="AE96" s="1" t="s">
-        <v>1653</v>
+        <v>1659</v>
       </c>
       <c r="AF96" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG96" s="13"/>
       <c r="AH96" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI96" s="13"/>
       <c r="AJ96" s="13"/>
@@ -60099,7 +60195,7 @@
         <v>315</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X97" s="13"/>
       <c r="Y97" s="13"/>
@@ -60111,14 +60207,14 @@
         <v>1059</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="AF97" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG97" s="13"/>
       <c r="AH97" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI97" s="13"/>
       <c r="AJ97" s="13"/>
@@ -60145,7 +60241,7 @@
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4" t="s">
-        <v>1655</v>
+        <v>1661</v>
       </c>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
@@ -60170,7 +60266,7 @@
         <v>315</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X98" s="13"/>
       <c r="Y98" s="13"/>
@@ -60182,14 +60278,14 @@
       </c>
       <c r="AD98" s="13"/>
       <c r="AE98" s="1" t="s">
-        <v>1656</v>
+        <v>1662</v>
       </c>
       <c r="AF98" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG98" s="13"/>
       <c r="AH98" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI98" s="13"/>
       <c r="AJ98" s="13"/>
@@ -60216,7 +60312,7 @@
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4" t="s">
-        <v>1657</v>
+        <v>1663</v>
       </c>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -60241,7 +60337,7 @@
         <v>315</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X99" s="13"/>
       <c r="Y99" s="13"/>
@@ -60253,14 +60349,14 @@
       </c>
       <c r="AD99" s="13"/>
       <c r="AE99" s="1" t="s">
-        <v>1658</v>
+        <v>1664</v>
       </c>
       <c r="AF99" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG99" s="13"/>
       <c r="AH99" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI99" s="13"/>
       <c r="AJ99" s="13"/>
@@ -60310,7 +60406,7 @@
         <v>315</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X100" s="13"/>
       <c r="Y100" s="13"/>
@@ -60320,14 +60416,14 @@
       <c r="AC100" s="13"/>
       <c r="AD100" s="13"/>
       <c r="AE100" s="1" t="s">
-        <v>1659</v>
+        <v>1665</v>
       </c>
       <c r="AF100" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG100" s="13"/>
       <c r="AH100" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI100" s="13"/>
       <c r="AJ100" s="13"/>
@@ -60354,7 +60450,7 @@
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4" t="s">
-        <v>1660</v>
+        <v>1666</v>
       </c>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
@@ -60379,7 +60475,7 @@
         <v>315</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X101" s="13"/>
       <c r="Y101" s="13"/>
@@ -60393,14 +60489,14 @@
         <v>985</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>1661</v>
+        <v>1667</v>
       </c>
       <c r="AF101" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG101" s="13"/>
       <c r="AH101" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI101" s="13"/>
       <c r="AJ101" s="13"/>
@@ -60452,7 +60548,7 @@
         <v>315</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X102" s="13"/>
       <c r="Y102" s="13"/>
@@ -60471,7 +60567,7 @@
       </c>
       <c r="AG102" s="13"/>
       <c r="AH102" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI102" s="13"/>
       <c r="AJ102" s="13"/>
@@ -60498,7 +60594,7 @@
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4" t="s">
-        <v>1662</v>
+        <v>1668</v>
       </c>
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
@@ -60523,7 +60619,7 @@
         <v>315</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X103" s="13"/>
       <c r="Y103" s="13"/>
@@ -60535,14 +60631,14 @@
       </c>
       <c r="AD103" s="13"/>
       <c r="AE103" s="1" t="s">
-        <v>1663</v>
+        <v>1669</v>
       </c>
       <c r="AF103" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG103" s="13"/>
       <c r="AH103" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI103" s="13"/>
       <c r="AJ103" s="13"/>
@@ -60569,7 +60665,7 @@
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4" t="s">
-        <v>1664</v>
+        <v>1670</v>
       </c>
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
@@ -60594,7 +60690,7 @@
         <v>315</v>
       </c>
       <c r="W104" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X104" s="13"/>
       <c r="Y104" s="13"/>
@@ -60606,14 +60702,14 @@
       </c>
       <c r="AD104" s="13"/>
       <c r="AE104" s="1" t="s">
-        <v>1665</v>
+        <v>1671</v>
       </c>
       <c r="AF104" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG104" s="13"/>
       <c r="AH104" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI104" s="13"/>
       <c r="AJ104" s="13"/>
@@ -60640,7 +60736,7 @@
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4" t="s">
-        <v>1666</v>
+        <v>1672</v>
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
@@ -60665,7 +60761,7 @@
         <v>315</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X105" s="13"/>
       <c r="Y105" s="13"/>
@@ -60679,14 +60775,14 @@
         <v>704</v>
       </c>
       <c r="AE105" s="1" t="s">
-        <v>1667</v>
+        <v>1673</v>
       </c>
       <c r="AF105" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG105" s="13"/>
       <c r="AH105" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI105" s="13"/>
       <c r="AJ105" s="13"/>
@@ -60714,7 +60810,7 @@
       <c r="M106" s="4"/>
       <c r="AG106" s="13"/>
       <c r="AH106" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI106" s="13"/>
       <c r="AJ106" s="13"/>
@@ -60764,7 +60860,7 @@
         <v>315</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
@@ -60774,14 +60870,14 @@
       <c r="AC107" s="13"/>
       <c r="AD107" s="13"/>
       <c r="AE107" s="1" t="s">
-        <v>1668</v>
+        <v>1674</v>
       </c>
       <c r="AF107" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG107" s="13"/>
       <c r="AH107" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI107" s="13"/>
       <c r="AJ107" s="13"/>
@@ -60831,7 +60927,7 @@
         <v>315</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X108" s="13"/>
       <c r="Y108" s="13"/>
@@ -60844,11 +60940,11 @@
         <v>68</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>1669</v>
+        <v>1675</v>
       </c>
       <c r="AG108" s="13"/>
       <c r="AH108" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI108" s="13"/>
       <c r="AJ108" s="13"/>
@@ -60875,7 +60971,7 @@
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4" t="s">
-        <v>1670</v>
+        <v>1676</v>
       </c>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
@@ -60900,7 +60996,7 @@
         <v>315</v>
       </c>
       <c r="W109" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X109" s="13"/>
       <c r="Y109" s="13"/>
@@ -60908,20 +61004,20 @@
       <c r="AA109" s="13"/>
       <c r="AB109" s="13"/>
       <c r="AC109" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AD109" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="AE109" s="1" t="s">
-        <v>1671</v>
+        <v>1677</v>
       </c>
       <c r="AF109" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG109" s="13"/>
       <c r="AH109" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI109" s="13"/>
       <c r="AJ109" s="13"/>
@@ -60948,7 +61044,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4" t="s">
-        <v>1672</v>
+        <v>1678</v>
       </c>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
@@ -60973,7 +61069,7 @@
         <v>315</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X110" s="13"/>
       <c r="Y110" s="13"/>
@@ -60985,14 +61081,14 @@
       </c>
       <c r="AD110" s="13"/>
       <c r="AE110" s="1" t="s">
-        <v>1673</v>
+        <v>1679</v>
       </c>
       <c r="AF110" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG110" s="13"/>
       <c r="AH110" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI110" s="13"/>
       <c r="AJ110" s="13"/>
@@ -61042,7 +61138,7 @@
         <v>315</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X111" s="13"/>
       <c r="Y111" s="13"/>
@@ -61052,14 +61148,14 @@
       <c r="AC111" s="13"/>
       <c r="AD111" s="13"/>
       <c r="AE111" s="1" t="s">
-        <v>1673</v>
+        <v>1679</v>
       </c>
       <c r="AF111" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG111" s="13"/>
       <c r="AH111" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI111" s="13"/>
       <c r="AJ111" s="13"/>
@@ -61109,7 +61205,7 @@
         <v>315</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X112" s="13"/>
       <c r="Y112" s="13"/>
@@ -61118,17 +61214,17 @@
       <c r="AB112" s="13"/>
       <c r="AC112" s="13"/>
       <c r="AD112" s="1" t="s">
-        <v>1626</v>
+        <v>1632</v>
       </c>
       <c r="AE112" s="1" t="s">
-        <v>1674</v>
+        <v>1680</v>
       </c>
       <c r="AF112" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG112" s="13"/>
       <c r="AH112" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI112" s="13"/>
       <c r="AJ112" s="13"/>
@@ -61178,7 +61274,7 @@
         <v>315</v>
       </c>
       <c r="W113" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X113" s="13"/>
       <c r="Y113" s="13"/>
@@ -61187,17 +61283,17 @@
       <c r="AB113" s="13"/>
       <c r="AC113" s="13"/>
       <c r="AD113" s="1" t="s">
-        <v>1626</v>
+        <v>1632</v>
       </c>
       <c r="AE113" s="1" t="s">
-        <v>1675</v>
+        <v>1681</v>
       </c>
       <c r="AF113" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG113" s="13"/>
       <c r="AH113" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI113" s="13"/>
       <c r="AJ113" s="13"/>
@@ -61224,7 +61320,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4" t="s">
-        <v>1676</v>
+        <v>1682</v>
       </c>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
@@ -61249,7 +61345,7 @@
         <v>315</v>
       </c>
       <c r="W114" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
@@ -61264,7 +61360,7 @@
       <c r="AF114" s="13"/>
       <c r="AG114" s="13"/>
       <c r="AH114" s="14" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AI114" s="13"/>
       <c r="AJ114" s="13"/>
@@ -61319,14 +61415,14 @@
       <c r="X115" s="34"/>
       <c r="Y115" s="34"/>
       <c r="Z115" s="36" t="s">
-        <v>1677</v>
+        <v>1683</v>
       </c>
       <c r="AA115" s="36" t="s">
-        <v>1678</v>
+        <v>1684</v>
       </c>
       <c r="AB115" s="34"/>
       <c r="AC115" s="34" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AD115" s="34"/>
       <c r="AE115" s="34"/>
@@ -61489,7 +61585,7 @@
       <c r="K116" s="34"/>
       <c r="L116" s="34"/>
       <c r="M116" s="36" t="s">
-        <v>1679</v>
+        <v>1685</v>
       </c>
       <c r="N116" s="34"/>
       <c r="O116" s="34"/>
@@ -61522,14 +61618,14 @@
       <c r="X116" s="34"/>
       <c r="Y116" s="34"/>
       <c r="Z116" s="36" t="s">
-        <v>1679</v>
+        <v>1685</v>
       </c>
       <c r="AA116" s="36" t="s">
-        <v>1680</v>
+        <v>1686</v>
       </c>
       <c r="AB116" s="34"/>
       <c r="AC116" s="34" t="s">
-        <v>1681</v>
+        <v>1687</v>
       </c>
       <c r="AD116" s="34"/>
       <c r="AE116" s="34"/>
@@ -61551,7 +61647,7 @@
       <c r="AU116" s="34"/>
       <c r="AV116" s="37"/>
       <c r="AW116" s="37" t="s">
-        <v>1682</v>
+        <v>1688</v>
       </c>
       <c r="AX116" s="37"/>
       <c r="AY116" s="37"/>
@@ -61725,14 +61821,14 @@
       <c r="X117" s="34"/>
       <c r="Y117" s="34"/>
       <c r="Z117" s="36" t="s">
-        <v>1683</v>
+        <v>1689</v>
       </c>
       <c r="AA117" s="36" t="s">
-        <v>1684</v>
+        <v>1690</v>
       </c>
       <c r="AB117" s="34"/>
       <c r="AC117" s="34" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="AD117" s="34"/>
       <c r="AE117" s="34"/>
@@ -61754,7 +61850,7 @@
       <c r="AU117" s="34"/>
       <c r="AV117" s="37"/>
       <c r="AW117" s="37" t="s">
-        <v>1682</v>
+        <v>1688</v>
       </c>
       <c r="AX117" s="37"/>
       <c r="AY117" s="37"/>
@@ -61883,13 +61979,13 @@
     </row>
     <row r="118" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A118" s="38" t="s">
-        <v>1685</v>
+        <v>1691</v>
       </c>
       <c r="B118" s="39" t="s">
-        <v>1686</v>
+        <v>1692</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>1687</v>
+        <v>1693</v>
       </c>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
@@ -61905,10 +62001,10 @@
       <c r="M118" s="39"/>
       <c r="N118" s="39"/>
       <c r="O118" s="38" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="P118" s="38" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="Q118" s="40" t="s">
         <v>609</v>
@@ -61946,12 +62042,12 @@
       <c r="AH118" s="39"/>
       <c r="AI118" s="39"/>
       <c r="AJ118" s="38" t="s">
-        <v>1689</v>
+        <v>1695</v>
       </c>
       <c r="AK118" s="38"/>
       <c r="AL118" s="38"/>
       <c r="AM118" s="38" t="s">
-        <v>1689</v>
+        <v>1695</v>
       </c>
       <c r="AN118" s="38"/>
       <c r="AO118" s="38" t="s">
@@ -61970,14 +62066,14 @@
         <v>69</v>
       </c>
       <c r="AT118" s="38" t="s">
-        <v>1685</v>
+        <v>1691</v>
       </c>
       <c r="AU118" s="39" t="s">
-        <v>1686</v>
+        <v>1692</v>
       </c>
       <c r="AV118" s="39"/>
       <c r="AW118" s="39" t="s">
-        <v>1690</v>
+        <v>1696</v>
       </c>
       <c r="AX118" s="39"/>
       <c r="AY118" s="39"/>
@@ -62106,13 +62202,13 @@
     </row>
     <row r="119" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A119" s="38" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="B119" s="39" t="s">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>1693</v>
+        <v>1699</v>
       </c>
       <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
@@ -62128,10 +62224,10 @@
       <c r="M119" s="39"/>
       <c r="N119" s="39"/>
       <c r="O119" s="38" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="P119" s="38" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="Q119" s="40" t="s">
         <v>359</v>
@@ -62169,12 +62265,12 @@
       <c r="AH119" s="39"/>
       <c r="AI119" s="39"/>
       <c r="AJ119" s="38" t="s">
-        <v>1694</v>
+        <v>1700</v>
       </c>
       <c r="AK119" s="38"/>
       <c r="AL119" s="38"/>
       <c r="AM119" s="38" t="s">
-        <v>1694</v>
+        <v>1700</v>
       </c>
       <c r="AN119" s="38"/>
       <c r="AO119" s="38" t="s">
@@ -62193,14 +62289,14 @@
         <v>69</v>
       </c>
       <c r="AT119" s="38" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="AU119" s="39" t="s">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="AV119" s="39"/>
       <c r="AW119" s="39" t="s">
-        <v>1690</v>
+        <v>1696</v>
       </c>
       <c r="AX119" s="39"/>
       <c r="AY119" s="39"/>
@@ -62329,13 +62425,13 @@
     </row>
     <row r="120" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A120" s="38" t="s">
-        <v>1695</v>
+        <v>1701</v>
       </c>
       <c r="B120" s="39" t="s">
-        <v>1696</v>
+        <v>1702</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>1697</v>
+        <v>1703</v>
       </c>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
@@ -62351,10 +62447,10 @@
       <c r="M120" s="39"/>
       <c r="N120" s="39"/>
       <c r="O120" s="38" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="P120" s="38" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="Q120" s="40" t="s">
         <v>909</v>
@@ -62392,12 +62488,12 @@
       <c r="AH120" s="39"/>
       <c r="AI120" s="39"/>
       <c r="AJ120" s="38" t="s">
-        <v>1698</v>
+        <v>1704</v>
       </c>
       <c r="AK120" s="38"/>
       <c r="AL120" s="38"/>
       <c r="AM120" s="38" t="s">
-        <v>1698</v>
+        <v>1704</v>
       </c>
       <c r="AN120" s="38"/>
       <c r="AO120" s="38" t="s">
@@ -62416,14 +62512,14 @@
         <v>69</v>
       </c>
       <c r="AT120" s="38" t="s">
-        <v>1695</v>
+        <v>1701</v>
       </c>
       <c r="AU120" s="39" t="s">
-        <v>1696</v>
+        <v>1702</v>
       </c>
       <c r="AV120" s="39"/>
       <c r="AW120" s="39" t="s">
-        <v>1699</v>
+        <v>1705</v>
       </c>
       <c r="AX120" s="39"/>
       <c r="AY120" s="39"/>
@@ -62552,13 +62648,13 @@
     </row>
     <row r="121" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A121" s="38" t="s">
-        <v>1700</v>
+        <v>1706</v>
       </c>
       <c r="B121" s="39" t="s">
-        <v>1701</v>
+        <v>1707</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>1702</v>
+        <v>1708</v>
       </c>
       <c r="D121" s="38"/>
       <c r="E121" s="38" t="s">
@@ -62574,10 +62670,10 @@
       <c r="M121" s="39"/>
       <c r="N121" s="39"/>
       <c r="O121" s="38" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="P121" s="38" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
       <c r="Q121" s="40" t="s">
         <v>99</v>
@@ -62615,12 +62711,12 @@
       <c r="AH121" s="39"/>
       <c r="AI121" s="39"/>
       <c r="AJ121" s="38" t="s">
-        <v>1703</v>
+        <v>1709</v>
       </c>
       <c r="AK121" s="38"/>
       <c r="AL121" s="38"/>
       <c r="AM121" s="38" t="s">
-        <v>1698</v>
+        <v>1704</v>
       </c>
       <c r="AN121" s="38"/>
       <c r="AO121" s="38" t="s">
@@ -62639,14 +62735,14 @@
         <v>69</v>
       </c>
       <c r="AT121" s="38" t="s">
-        <v>1700</v>
+        <v>1706</v>
       </c>
       <c r="AU121" s="39" t="s">
-        <v>1701</v>
+        <v>1707</v>
       </c>
       <c r="AV121" s="39"/>
       <c r="AW121" s="39" t="s">
-        <v>1690</v>
+        <v>1696</v>
       </c>
       <c r="AX121" s="39"/>
       <c r="AY121" s="39"/>
@@ -62775,13 +62871,13 @@
     </row>
     <row r="122" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A122" s="38" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="B122" s="39" t="s">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>1704</v>
+        <v>1710</v>
       </c>
       <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
@@ -62797,10 +62893,10 @@
       <c r="M122" s="39"/>
       <c r="N122" s="39"/>
       <c r="O122" s="38" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="P122" s="38" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="Q122" s="40" t="s">
         <v>909</v>
@@ -62838,12 +62934,12 @@
       <c r="AH122" s="39"/>
       <c r="AI122" s="39"/>
       <c r="AJ122" s="38" t="s">
-        <v>1704</v>
+        <v>1710</v>
       </c>
       <c r="AK122" s="38"/>
       <c r="AL122" s="38"/>
       <c r="AM122" s="38" t="s">
-        <v>1704</v>
+        <v>1710</v>
       </c>
       <c r="AN122" s="38"/>
       <c r="AO122" s="38" t="s">
@@ -62862,14 +62958,14 @@
         <v>69</v>
       </c>
       <c r="AT122" s="38" t="s">
-        <v>1691</v>
+        <v>1697</v>
       </c>
       <c r="AU122" s="39" t="s">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="AV122" s="39"/>
       <c r="AW122" s="39" t="s">
-        <v>1690</v>
+        <v>1696</v>
       </c>
       <c r="AX122" s="39"/>
       <c r="AY122" s="39"/>
@@ -62998,13 +63094,13 @@
     </row>
     <row r="123" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A123" s="32" t="s">
-        <v>1705</v>
+        <v>1711</v>
       </c>
       <c r="B123" s="42" t="s">
-        <v>1706</v>
+        <v>1712</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>1707</v>
+        <v>1713</v>
       </c>
       <c r="D123" s="32"/>
       <c r="E123" s="32" t="s">
@@ -63020,10 +63116,10 @@
       <c r="M123" s="42"/>
       <c r="N123" s="42"/>
       <c r="O123" s="32" t="s">
-        <v>1705</v>
+        <v>1711</v>
       </c>
       <c r="P123" s="32" t="s">
-        <v>1705</v>
+        <v>1711</v>
       </c>
       <c r="Q123" s="43" t="s">
         <v>609</v>
@@ -63061,12 +63157,12 @@
       <c r="AH123" s="42"/>
       <c r="AI123" s="42"/>
       <c r="AJ123" s="32" t="s">
-        <v>1707</v>
+        <v>1713</v>
       </c>
       <c r="AK123" s="32"/>
       <c r="AL123" s="32"/>
       <c r="AM123" s="32" t="s">
-        <v>1708</v>
+        <v>1714</v>
       </c>
       <c r="AN123" s="32"/>
       <c r="AO123" s="32" t="s">
@@ -63085,14 +63181,14 @@
         <v>69</v>
       </c>
       <c r="AT123" s="32" t="s">
-        <v>1705</v>
+        <v>1711</v>
       </c>
       <c r="AU123" s="42" t="s">
-        <v>1706</v>
+        <v>1712</v>
       </c>
       <c r="AV123" s="42"/>
       <c r="AW123" s="42" t="s">
-        <v>1709</v>
+        <v>1715</v>
       </c>
       <c r="AX123" s="42"/>
       <c r="AY123" s="42"/>
@@ -63221,13 +63317,13 @@
     </row>
     <row r="124" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A124" s="32" t="s">
-        <v>1710</v>
+        <v>1716</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>1711</v>
+        <v>1717</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>1712</v>
+        <v>1718</v>
       </c>
       <c r="D124" s="32"/>
       <c r="E124" s="32" t="s">
@@ -63243,10 +63339,10 @@
       <c r="M124" s="42"/>
       <c r="N124" s="42"/>
       <c r="O124" s="32" t="s">
-        <v>1710</v>
+        <v>1716</v>
       </c>
       <c r="P124" s="32" t="s">
-        <v>1710</v>
+        <v>1716</v>
       </c>
       <c r="Q124" s="43" t="s">
         <v>609</v>
@@ -63284,12 +63380,12 @@
       <c r="AH124" s="42"/>
       <c r="AI124" s="42"/>
       <c r="AJ124" s="32" t="s">
-        <v>1712</v>
+        <v>1718</v>
       </c>
       <c r="AK124" s="32"/>
       <c r="AL124" s="32"/>
       <c r="AM124" s="32" t="s">
-        <v>1712</v>
+        <v>1718</v>
       </c>
       <c r="AN124" s="32"/>
       <c r="AO124" s="32" t="s">
@@ -63308,14 +63404,14 @@
         <v>92</v>
       </c>
       <c r="AT124" s="32" t="s">
-        <v>1710</v>
+        <v>1716</v>
       </c>
       <c r="AU124" s="42" t="s">
-        <v>1711</v>
+        <v>1717</v>
       </c>
       <c r="AV124" s="42"/>
       <c r="AW124" s="42" t="s">
-        <v>1713</v>
+        <v>1719</v>
       </c>
       <c r="AX124" s="42"/>
       <c r="AY124" s="42"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F428A2D2-3E89-40F5-8D1F-698D49466DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{481EBF3F-8C52-4821-9002-B464E948C944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5433" uniqueCount="1720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5437" uniqueCount="1721">
   <si>
     <t>VJDBv0.3</t>
   </si>
@@ -4808,6 +4808,9 @@
   </si>
   <si>
     <t>0id</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>host_imgm_genome_id</t>
@@ -6334,8 +6337,8 @@
   <dimension ref="A1:FY218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B209" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A217" sqref="A217"/>
+      <pane xSplit="1" topLeftCell="AV214" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY216" sqref="AY216:AY218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
@@ -52633,7 +52636,7 @@
         <v>60</v>
       </c>
       <c r="E217" s="56" t="s">
-        <v>938</v>
+        <v>61</v>
       </c>
       <c r="S217" s="63" t="s">
         <v>113</v>
@@ -52660,19 +52663,25 @@
       <c r="AW217" t="s">
         <v>1523</v>
       </c>
+      <c r="AY217" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ217" t="s">
+        <v>1524</v>
+      </c>
     </row>
     <row r="218" spans="1:53" ht="23.25" customHeight="1">
       <c r="A218" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B218" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D218" t="s">
         <v>60</v>
       </c>
       <c r="E218" s="56" t="s">
-        <v>938</v>
+        <v>61</v>
       </c>
       <c r="S218" s="63" t="s">
         <v>113</v>
@@ -52697,7 +52706,13 @@
         <v>789</v>
       </c>
       <c r="AW218" t="s">
-        <v>1526</v>
+        <v>1527</v>
+      </c>
+      <c r="AY218" t="s">
+        <v>71</v>
+      </c>
+      <c r="AZ218" t="s">
+        <v>1524</v>
       </c>
     </row>
   </sheetData>
@@ -53899,7 +53914,7 @@
         <v>315</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
@@ -53909,14 +53924,14 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AH5" s="9" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -53943,7 +53958,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -53968,7 +53983,7 @@
         <v>315</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
@@ -53980,14 +53995,14 @@
       </c>
       <c r="AD6" s="13"/>
       <c r="AE6" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG6" s="13"/>
       <c r="AH6" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
@@ -54037,7 +54052,7 @@
         <v>315</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
@@ -54049,14 +54064,14 @@
         <v>985</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG7" s="13"/>
       <c r="AH7" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
@@ -54106,7 +54121,7 @@
         <v>315</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
@@ -54116,14 +54131,14 @@
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
       <c r="AE8" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG8" s="13"/>
       <c r="AH8" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
@@ -54173,7 +54188,7 @@
         <v>315</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
@@ -54183,14 +54198,14 @@
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG9" s="13"/>
       <c r="AH9" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
@@ -54217,7 +54232,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -54242,7 +54257,7 @@
         <v>315</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
@@ -54254,14 +54269,14 @@
       </c>
       <c r="AD10" s="13"/>
       <c r="AE10" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG10" s="13"/>
       <c r="AH10" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
@@ -54288,7 +54303,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -54313,7 +54328,7 @@
         <v>315</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
@@ -54325,14 +54340,14 @@
       </c>
       <c r="AD11" s="13"/>
       <c r="AE11" s="1" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG11" s="13"/>
       <c r="AH11" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
@@ -54382,7 +54397,7 @@
         <v>315</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
@@ -54392,14 +54407,14 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG12" s="13"/>
       <c r="AH12" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
@@ -54449,7 +54464,7 @@
         <v>315</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
@@ -54459,14 +54474,14 @@
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG13" s="13"/>
       <c r="AH13" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
@@ -54493,7 +54508,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -54518,7 +54533,7 @@
         <v>315</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
@@ -54526,20 +54541,20 @@
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG14" s="13"/>
       <c r="AH14" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
@@ -54589,7 +54604,7 @@
         <v>315</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
@@ -54598,17 +54613,17 @@
       <c r="AB15" s="13"/>
       <c r="AC15" s="13"/>
       <c r="AD15" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="AF15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG15" s="13"/>
       <c r="AH15" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
@@ -54658,7 +54673,7 @@
         <v>315</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
@@ -54668,14 +54683,14 @@
       <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
       <c r="AE16" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG16" s="13"/>
       <c r="AH16" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="13"/>
@@ -54702,7 +54717,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -54727,7 +54742,7 @@
         <v>315</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -54735,20 +54750,20 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="AF17" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG17" s="13"/>
       <c r="AH17" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="13"/>
@@ -54775,7 +54790,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -54800,7 +54815,7 @@
         <v>315</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
@@ -54808,20 +54823,20 @@
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
       <c r="AC18" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="AF18" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG18" s="13"/>
       <c r="AH18" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI18" s="13"/>
       <c r="AJ18" s="13"/>
@@ -54848,7 +54863,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -54873,7 +54888,7 @@
         <v>315</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -54887,14 +54902,14 @@
         <v>1059</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG19" s="13"/>
       <c r="AH19" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI19" s="13"/>
       <c r="AJ19" s="13"/>
@@ -54921,7 +54936,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -54946,7 +54961,7 @@
         <v>315</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
@@ -54958,14 +54973,14 @@
       </c>
       <c r="AD20" s="13"/>
       <c r="AE20" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="AF20" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG20" s="13"/>
       <c r="AH20" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI20" s="13"/>
       <c r="AJ20" s="13"/>
@@ -55037,7 +55052,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -55062,7 +55077,7 @@
         <v>315</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
@@ -55070,20 +55085,20 @@
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
       <c r="AC22" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="AF22" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG22" s="13"/>
       <c r="AH22" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI22" s="13"/>
       <c r="AJ22" s="13"/>
@@ -55110,7 +55125,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -55135,7 +55150,7 @@
         <v>315</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
@@ -55149,14 +55164,14 @@
         <v>985</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="AF23" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG23" s="13"/>
       <c r="AH23" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI23" s="13"/>
       <c r="AJ23" s="13"/>
@@ -55183,7 +55198,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -55208,7 +55223,7 @@
         <v>315</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
@@ -55220,14 +55235,14 @@
       </c>
       <c r="AD24" s="13"/>
       <c r="AE24" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="AF24" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG24" s="13"/>
       <c r="AH24" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI24" s="13"/>
       <c r="AJ24" s="13"/>
@@ -55277,7 +55292,7 @@
         <v>315</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
@@ -55287,14 +55302,14 @@
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="AF25" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG25" s="13"/>
       <c r="AH25" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI25" s="13"/>
       <c r="AJ25" s="13"/>
@@ -55321,7 +55336,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -55346,7 +55361,7 @@
         <v>315</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
@@ -55358,14 +55373,14 @@
       </c>
       <c r="AD26" s="13"/>
       <c r="AE26" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="AF26" s="1" t="s">
         <v>351</v>
       </c>
       <c r="AG26" s="13"/>
       <c r="AH26" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="13"/>
@@ -55392,7 +55407,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -55417,7 +55432,7 @@
         <v>315</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
@@ -55431,14 +55446,14 @@
         <v>1059</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="AF27" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG27" s="13"/>
       <c r="AH27" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="13"/>
@@ -55465,7 +55480,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -55490,7 +55505,7 @@
         <v>315</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
@@ -55504,14 +55519,14 @@
         <v>1059</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="AF28" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG28" s="13"/>
       <c r="AH28" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="13"/>
@@ -55538,7 +55553,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -55563,7 +55578,7 @@
         <v>315</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
@@ -55577,14 +55592,14 @@
         <v>1059</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="AF29" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG29" s="13"/>
       <c r="AH29" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
@@ -55634,7 +55649,7 @@
         <v>315</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
@@ -55643,17 +55658,17 @@
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
       <c r="AD30" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="AF30" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG30" s="13"/>
       <c r="AH30" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="13"/>
@@ -55703,7 +55718,7 @@
         <v>315</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
@@ -55712,17 +55727,17 @@
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
       <c r="AD31" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="AF31" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG31" s="13"/>
       <c r="AH31" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="13"/>
@@ -55749,7 +55764,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -55774,7 +55789,7 @@
         <v>315</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
@@ -55786,14 +55801,14 @@
       </c>
       <c r="AD32" s="13"/>
       <c r="AE32" s="1" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="AF32" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG32" s="13"/>
       <c r="AH32" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="13"/>
@@ -55843,7 +55858,7 @@
         <v>315</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
@@ -55853,14 +55868,14 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
       <c r="AE33" s="1" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="AF33" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG33" s="13"/>
       <c r="AH33" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="13"/>
@@ -55887,7 +55902,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -55912,7 +55927,7 @@
         <v>315</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
@@ -55924,14 +55939,14 @@
       </c>
       <c r="AD34" s="13"/>
       <c r="AE34" s="1" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="AF34" s="1" t="s">
         <v>351</v>
       </c>
       <c r="AG34" s="13"/>
       <c r="AH34" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="13"/>
@@ -55981,7 +55996,7 @@
         <v>315</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
@@ -55993,14 +56008,14 @@
         <v>985</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="AF35" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG35" s="13"/>
       <c r="AH35" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="13"/>
@@ -56050,7 +56065,7 @@
         <v>315</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
@@ -56067,7 +56082,7 @@
       </c>
       <c r="AG36" s="13"/>
       <c r="AH36" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI36" s="13"/>
       <c r="AJ36" s="13"/>
@@ -56094,7 +56109,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -56119,7 +56134,7 @@
         <v>315</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
@@ -56127,20 +56142,20 @@
       <c r="AA37" s="13"/>
       <c r="AB37" s="13"/>
       <c r="AC37" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG37" s="13"/>
       <c r="AH37" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI37" s="13"/>
       <c r="AJ37" s="13"/>
@@ -56167,7 +56182,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -56192,7 +56207,7 @@
         <v>315</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
@@ -56200,20 +56215,20 @@
       <c r="AA38" s="13"/>
       <c r="AB38" s="13"/>
       <c r="AC38" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="AF38" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG38" s="13"/>
       <c r="AH38" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI38" s="13"/>
       <c r="AJ38" s="13"/>
@@ -56240,7 +56255,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -56265,7 +56280,7 @@
         <v>315</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
@@ -56273,20 +56288,20 @@
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
       <c r="AC39" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="AF39" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG39" s="13"/>
       <c r="AH39" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI39" s="13"/>
       <c r="AJ39" s="13"/>
@@ -56313,7 +56328,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -56338,7 +56353,7 @@
         <v>315</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
@@ -56346,18 +56361,18 @@
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
       <c r="AC40" s="1" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="AD40" s="13"/>
       <c r="AE40" s="1" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="AF40" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG40" s="13"/>
       <c r="AH40" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI40" s="13"/>
       <c r="AJ40" s="13"/>
@@ -56384,7 +56399,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -56409,7 +56424,7 @@
         <v>315</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
@@ -56423,14 +56438,14 @@
         <v>985</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="AF41" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG41" s="13"/>
       <c r="AH41" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI41" s="13"/>
       <c r="AJ41" s="13"/>
@@ -56480,7 +56495,7 @@
         <v>315</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
@@ -56490,14 +56505,14 @@
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
       <c r="AE42" s="1" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="AF42" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG42" s="13"/>
       <c r="AH42" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI42" s="13"/>
       <c r="AJ42" s="13"/>
@@ -56524,7 +56539,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -56549,7 +56564,7 @@
         <v>315</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
@@ -56561,14 +56576,14 @@
       </c>
       <c r="AD43" s="13"/>
       <c r="AE43" s="1" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="AF43" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG43" s="13"/>
       <c r="AH43" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI43" s="13"/>
       <c r="AJ43" s="13"/>
@@ -56595,7 +56610,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -56620,7 +56635,7 @@
         <v>315</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
@@ -56632,14 +56647,14 @@
       </c>
       <c r="AD44" s="13"/>
       <c r="AE44" s="1" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="AF44" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG44" s="13"/>
       <c r="AH44" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI44" s="13"/>
       <c r="AJ44" s="13"/>
@@ -56666,7 +56681,7 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -56691,7 +56706,7 @@
         <v>315</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
@@ -56703,14 +56718,14 @@
       </c>
       <c r="AD45" s="13"/>
       <c r="AE45" s="1" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="AF45" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG45" s="13"/>
       <c r="AH45" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI45" s="13"/>
       <c r="AJ45" s="13"/>
@@ -56760,7 +56775,7 @@
         <v>315</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
@@ -56770,14 +56785,14 @@
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="1" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="AF46" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG46" s="13"/>
       <c r="AH46" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="13"/>
@@ -56804,7 +56819,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -56829,7 +56844,7 @@
         <v>315</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
@@ -56841,14 +56856,14 @@
       </c>
       <c r="AD47" s="13"/>
       <c r="AE47" s="1" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="AF47" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG47" s="13"/>
       <c r="AH47" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI47" s="13"/>
       <c r="AJ47" s="13"/>
@@ -56898,7 +56913,7 @@
         <v>315</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
@@ -56908,14 +56923,14 @@
       <c r="AC48" s="13"/>
       <c r="AD48" s="13"/>
       <c r="AE48" s="1" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="AF48" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG48" s="13"/>
       <c r="AH48" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI48" s="13"/>
       <c r="AJ48" s="13"/>
@@ -56942,7 +56957,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -56967,7 +56982,7 @@
         <v>315</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
@@ -56979,14 +56994,14 @@
       </c>
       <c r="AD49" s="13"/>
       <c r="AE49" s="1" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="AF49" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG49" s="13"/>
       <c r="AH49" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI49" s="13"/>
       <c r="AJ49" s="13"/>
@@ -57036,7 +57051,7 @@
         <v>315</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
@@ -57046,14 +57061,14 @@
       <c r="AC50" s="13"/>
       <c r="AD50" s="13"/>
       <c r="AE50" s="1" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="AF50" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG50" s="13"/>
       <c r="AH50" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI50" s="13"/>
       <c r="AJ50" s="13"/>
@@ -57103,7 +57118,7 @@
         <v>315</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X51" s="13"/>
       <c r="Y51" s="13"/>
@@ -57112,17 +57127,17 @@
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
       <c r="AD51" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="AF51" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG51" s="13"/>
       <c r="AH51" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI51" s="13"/>
       <c r="AJ51" s="13"/>
@@ -57172,7 +57187,7 @@
         <v>315</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
@@ -57181,17 +57196,17 @@
       <c r="AB52" s="13"/>
       <c r="AC52" s="13"/>
       <c r="AD52" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="AF52" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG52" s="13"/>
       <c r="AH52" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI52" s="13"/>
       <c r="AJ52" s="13"/>
@@ -57218,7 +57233,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
@@ -57243,7 +57258,7 @@
         <v>315</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
@@ -57257,14 +57272,14 @@
         <v>985</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="AF53" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG53" s="13"/>
       <c r="AH53" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI53" s="13"/>
       <c r="AJ53" s="13"/>
@@ -57314,7 +57329,7 @@
         <v>315</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X54" s="13"/>
       <c r="Y54" s="13"/>
@@ -57326,14 +57341,14 @@
         <v>985</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="AF54" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG54" s="13"/>
       <c r="AH54" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI54" s="13"/>
       <c r="AJ54" s="13"/>
@@ -57360,7 +57375,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -57385,7 +57400,7 @@
         <v>315</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
@@ -57399,14 +57414,14 @@
         <v>985</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="AF55" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG55" s="13"/>
       <c r="AH55" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI55" s="13"/>
       <c r="AJ55" s="13"/>
@@ -57480,7 +57495,7 @@
         <v>315</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
@@ -57492,14 +57507,14 @@
         <v>985</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="AF57" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG57" s="13"/>
       <c r="AH57" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI57" s="13"/>
       <c r="AJ57" s="13"/>
@@ -57549,7 +57564,7 @@
         <v>315</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
@@ -57561,14 +57576,14 @@
         <v>985</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="AF58" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI58" s="13"/>
       <c r="AJ58" s="13"/>
@@ -57595,7 +57610,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
@@ -57620,7 +57635,7 @@
         <v>315</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
@@ -57628,20 +57643,20 @@
       <c r="AA59" s="13"/>
       <c r="AB59" s="13"/>
       <c r="AC59" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="AF59" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG59" s="13"/>
       <c r="AH59" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI59" s="13"/>
       <c r="AJ59" s="13"/>
@@ -57691,7 +57706,7 @@
         <v>315</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
@@ -57700,17 +57715,17 @@
       <c r="AB60" s="13"/>
       <c r="AC60" s="13"/>
       <c r="AD60" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="AF60" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG60" s="13"/>
       <c r="AH60" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI60" s="13"/>
       <c r="AJ60" s="13"/>
@@ -57737,7 +57752,7 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
@@ -57762,7 +57777,7 @@
         <v>315</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
@@ -57774,14 +57789,14 @@
       </c>
       <c r="AD61" s="13"/>
       <c r="AE61" s="1" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="AF61" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG61" s="13"/>
       <c r="AH61" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI61" s="13"/>
       <c r="AJ61" s="13"/>
@@ -57831,7 +57846,7 @@
         <v>315</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
@@ -57841,14 +57856,14 @@
       <c r="AC62" s="13"/>
       <c r="AD62" s="13"/>
       <c r="AE62" s="1" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="AF62" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG62" s="13"/>
       <c r="AH62" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI62" s="13"/>
       <c r="AJ62" s="13"/>
@@ -57875,7 +57890,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
@@ -57900,7 +57915,7 @@
         <v>315</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
@@ -57912,14 +57927,14 @@
       </c>
       <c r="AD63" s="13"/>
       <c r="AE63" s="1" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="AF63" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG63" s="13"/>
       <c r="AH63" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI63" s="13"/>
       <c r="AJ63" s="13"/>
@@ -57969,7 +57984,7 @@
         <v>315</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
@@ -57979,14 +57994,14 @@
       <c r="AC64" s="13"/>
       <c r="AD64" s="13"/>
       <c r="AE64" s="1" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="AF64" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG64" s="13"/>
       <c r="AH64" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI64" s="13"/>
       <c r="AJ64" s="13"/>
@@ -58036,7 +58051,7 @@
         <v>315</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X65" s="13"/>
       <c r="Y65" s="13"/>
@@ -58045,17 +58060,17 @@
       <c r="AB65" s="13"/>
       <c r="AC65" s="13"/>
       <c r="AD65" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="AF65" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG65" s="13"/>
       <c r="AH65" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI65" s="13"/>
       <c r="AJ65" s="13"/>
@@ -58105,7 +58120,7 @@
         <v>315</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
@@ -58115,14 +58130,14 @@
       <c r="AC66" s="13"/>
       <c r="AD66" s="13"/>
       <c r="AE66" s="1" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="AF66" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG66" s="13"/>
       <c r="AH66" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI66" s="13"/>
       <c r="AJ66" s="13"/>
@@ -58196,7 +58211,7 @@
         <v>315</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X68" s="13"/>
       <c r="Y68" s="13"/>
@@ -58213,7 +58228,7 @@
       </c>
       <c r="AG68" s="13"/>
       <c r="AH68" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI68" s="13"/>
       <c r="AJ68" s="13"/>
@@ -58240,7 +58255,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
@@ -58265,7 +58280,7 @@
         <v>315</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X69" s="13"/>
       <c r="Y69" s="13"/>
@@ -58277,14 +58292,14 @@
       </c>
       <c r="AD69" s="13"/>
       <c r="AE69" s="1" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="AF69" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG69" s="13"/>
       <c r="AH69" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI69" s="13"/>
       <c r="AJ69" s="13"/>
@@ -58311,7 +58326,7 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
@@ -58336,7 +58351,7 @@
         <v>315</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X70" s="13"/>
       <c r="Y70" s="13"/>
@@ -58350,14 +58365,14 @@
         <v>985</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="AF70" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG70" s="13"/>
       <c r="AH70" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI70" s="13"/>
       <c r="AJ70" s="13"/>
@@ -58384,7 +58399,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
@@ -58409,7 +58424,7 @@
         <v>315</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X71" s="13"/>
       <c r="Y71" s="13"/>
@@ -58421,14 +58436,14 @@
       </c>
       <c r="AD71" s="13"/>
       <c r="AE71" s="1" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="AF71" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG71" s="13"/>
       <c r="AH71" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI71" s="13"/>
       <c r="AJ71" s="13"/>
@@ -58455,7 +58470,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
@@ -58480,7 +58495,7 @@
         <v>315</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X72" s="13"/>
       <c r="Y72" s="13"/>
@@ -58492,14 +58507,14 @@
       </c>
       <c r="AD72" s="13"/>
       <c r="AE72" s="1" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="AF72" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG72" s="13"/>
       <c r="AH72" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI72" s="13"/>
       <c r="AJ72" s="13"/>
@@ -58549,7 +58564,7 @@
         <v>315</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X73" s="13"/>
       <c r="Y73" s="13"/>
@@ -58558,17 +58573,17 @@
       <c r="AB73" s="13"/>
       <c r="AC73" s="13"/>
       <c r="AD73" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="AF73" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG73" s="13"/>
       <c r="AH73" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI73" s="13"/>
       <c r="AJ73" s="13"/>
@@ -58595,7 +58610,7 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -58620,7 +58635,7 @@
         <v>315</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X74" s="13"/>
       <c r="Y74" s="13"/>
@@ -58631,17 +58646,17 @@
         <v>349</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="AE74" s="1" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="AF74" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG74" s="13"/>
       <c r="AH74" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI74" s="13"/>
       <c r="AJ74" s="13"/>
@@ -58691,7 +58706,7 @@
         <v>315</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
@@ -58701,14 +58716,14 @@
       <c r="AC75" s="13"/>
       <c r="AD75" s="13"/>
       <c r="AE75" s="1" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="AF75" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG75" s="13"/>
       <c r="AH75" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI75" s="13"/>
       <c r="AJ75" s="13"/>
@@ -58758,7 +58773,7 @@
         <v>315</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X76" s="13"/>
       <c r="Y76" s="13"/>
@@ -58768,14 +58783,14 @@
       <c r="AC76" s="13"/>
       <c r="AD76" s="13"/>
       <c r="AE76" s="1" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="AF76" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG76" s="13"/>
       <c r="AH76" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI76" s="13"/>
       <c r="AJ76" s="13"/>
@@ -58825,7 +58840,7 @@
         <v>315</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X77" s="13"/>
       <c r="Y77" s="13"/>
@@ -58834,17 +58849,17 @@
       <c r="AB77" s="13"/>
       <c r="AC77" s="13"/>
       <c r="AD77" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="AF77" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG77" s="13"/>
       <c r="AH77" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI77" s="13"/>
       <c r="AJ77" s="13"/>
@@ -58894,7 +58909,7 @@
         <v>315</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X78" s="13"/>
       <c r="Y78" s="13"/>
@@ -58903,17 +58918,17 @@
       <c r="AB78" s="13"/>
       <c r="AC78" s="13"/>
       <c r="AD78" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="AF78" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG78" s="13"/>
       <c r="AH78" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI78" s="13"/>
       <c r="AJ78" s="13"/>
@@ -58940,7 +58955,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
@@ -58965,7 +58980,7 @@
         <v>315</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X79" s="13"/>
       <c r="Y79" s="13"/>
@@ -58977,14 +58992,14 @@
       </c>
       <c r="AD79" s="13"/>
       <c r="AE79" s="1" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="AF79" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG79" s="13"/>
       <c r="AH79" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI79" s="13"/>
       <c r="AJ79" s="13"/>
@@ -59011,7 +59026,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -59036,7 +59051,7 @@
         <v>315</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X80" s="13"/>
       <c r="Y80" s="13"/>
@@ -59048,14 +59063,14 @@
       </c>
       <c r="AD80" s="13"/>
       <c r="AE80" s="1" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="AF80" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG80" s="13"/>
       <c r="AH80" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI80" s="13"/>
       <c r="AJ80" s="13"/>
@@ -59105,7 +59120,7 @@
         <v>315</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
@@ -59114,17 +59129,17 @@
       <c r="AB81" s="13"/>
       <c r="AC81" s="13"/>
       <c r="AD81" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="AF81" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG81" s="13"/>
       <c r="AH81" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI81" s="13"/>
       <c r="AJ81" s="13"/>
@@ -59151,7 +59166,7 @@
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -59176,7 +59191,7 @@
         <v>315</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X82" s="13"/>
       <c r="Y82" s="13"/>
@@ -59188,14 +59203,14 @@
       </c>
       <c r="AD82" s="13"/>
       <c r="AE82" s="1" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="AF82" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG82" s="13"/>
       <c r="AH82" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI82" s="13"/>
       <c r="AJ82" s="13"/>
@@ -59245,7 +59260,7 @@
         <v>315</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
@@ -59255,14 +59270,14 @@
       <c r="AC83" s="13"/>
       <c r="AD83" s="13"/>
       <c r="AE83" s="1" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="AF83" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG83" s="13"/>
       <c r="AH83" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI83" s="13"/>
       <c r="AJ83" s="13"/>
@@ -59334,7 +59349,7 @@
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
@@ -59359,7 +59374,7 @@
         <v>315</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X85" s="13"/>
       <c r="Y85" s="13"/>
@@ -59373,14 +59388,14 @@
         <v>1059</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="AF85" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG85" s="13"/>
       <c r="AH85" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI85" s="13"/>
       <c r="AJ85" s="13"/>
@@ -59430,7 +59445,7 @@
         <v>315</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X86" s="13"/>
       <c r="Y86" s="13"/>
@@ -59439,17 +59454,17 @@
       <c r="AB86" s="13"/>
       <c r="AC86" s="13"/>
       <c r="AD86" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="AF86" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG86" s="13"/>
       <c r="AH86" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI86" s="13"/>
       <c r="AJ86" s="13"/>
@@ -59499,7 +59514,7 @@
         <v>315</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X87" s="13"/>
       <c r="Y87" s="13"/>
@@ -59508,17 +59523,17 @@
       <c r="AB87" s="13"/>
       <c r="AC87" s="13"/>
       <c r="AD87" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AE87" s="1" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="AF87" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AG87" s="13"/>
       <c r="AH87" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI87" s="13"/>
       <c r="AJ87" s="13"/>
@@ -59545,7 +59560,7 @@
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
@@ -59570,7 +59585,7 @@
         <v>315</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X88" s="13"/>
       <c r="Y88" s="13"/>
@@ -59581,7 +59596,7 @@
         <v>349</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="AE88" s="1" t="s">
         <v>938</v>
@@ -59591,7 +59606,7 @@
       </c>
       <c r="AG88" s="13"/>
       <c r="AH88" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI88" s="13"/>
       <c r="AJ88" s="13"/>
@@ -59641,7 +59656,7 @@
         <v>315</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
@@ -59658,7 +59673,7 @@
       </c>
       <c r="AG89" s="13"/>
       <c r="AH89" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI89" s="13"/>
       <c r="AJ89" s="13"/>
@@ -59708,7 +59723,7 @@
         <v>315</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X90" s="13"/>
       <c r="Y90" s="13"/>
@@ -59718,14 +59733,14 @@
       <c r="AC90" s="13"/>
       <c r="AD90" s="13"/>
       <c r="AE90" s="1" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="AF90" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG90" s="13"/>
       <c r="AH90" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI90" s="13"/>
       <c r="AJ90" s="13"/>
@@ -59775,7 +59790,7 @@
         <v>315</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X91" s="13"/>
       <c r="Y91" s="13"/>
@@ -59784,17 +59799,17 @@
       <c r="AB91" s="13"/>
       <c r="AC91" s="13"/>
       <c r="AD91" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="AF91" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG91" s="13"/>
       <c r="AH91" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI91" s="13"/>
       <c r="AJ91" s="13"/>
@@ -59844,7 +59859,7 @@
         <v>315</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X92" s="13"/>
       <c r="Y92" s="13"/>
@@ -59854,14 +59869,14 @@
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
       <c r="AE92" s="1" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="AF92" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG92" s="13"/>
       <c r="AH92" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI92" s="13"/>
       <c r="AJ92" s="13"/>
@@ -59888,7 +59903,7 @@
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
@@ -59913,7 +59928,7 @@
         <v>315</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X93" s="13"/>
       <c r="Y93" s="13"/>
@@ -59921,20 +59936,20 @@
       <c r="AA93" s="13"/>
       <c r="AB93" s="13"/>
       <c r="AC93" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="AF93" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG93" s="13"/>
       <c r="AH93" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI93" s="13"/>
       <c r="AJ93" s="13"/>
@@ -59984,7 +59999,7 @@
         <v>315</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X94" s="13"/>
       <c r="Y94" s="13"/>
@@ -59994,14 +60009,14 @@
       <c r="AC94" s="13"/>
       <c r="AD94" s="13"/>
       <c r="AE94" s="1" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="AF94" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG94" s="13"/>
       <c r="AH94" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI94" s="13"/>
       <c r="AJ94" s="13"/>
@@ -60028,7 +60043,7 @@
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
@@ -60053,7 +60068,7 @@
         <v>315</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X95" s="13"/>
       <c r="Y95" s="13"/>
@@ -60067,14 +60082,14 @@
         <v>985</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="AF95" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG95" s="13"/>
       <c r="AH95" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI95" s="13"/>
       <c r="AJ95" s="13"/>
@@ -60126,7 +60141,7 @@
         <v>315</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X96" s="13"/>
       <c r="Y96" s="13"/>
@@ -60138,14 +60153,14 @@
       </c>
       <c r="AD96" s="13"/>
       <c r="AE96" s="1" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="AF96" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG96" s="13"/>
       <c r="AH96" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI96" s="13"/>
       <c r="AJ96" s="13"/>
@@ -60195,7 +60210,7 @@
         <v>315</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X97" s="13"/>
       <c r="Y97" s="13"/>
@@ -60207,14 +60222,14 @@
         <v>1059</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="AF97" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG97" s="13"/>
       <c r="AH97" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI97" s="13"/>
       <c r="AJ97" s="13"/>
@@ -60241,7 +60256,7 @@
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
@@ -60266,7 +60281,7 @@
         <v>315</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X98" s="13"/>
       <c r="Y98" s="13"/>
@@ -60278,14 +60293,14 @@
       </c>
       <c r="AD98" s="13"/>
       <c r="AE98" s="1" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="AF98" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG98" s="13"/>
       <c r="AH98" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI98" s="13"/>
       <c r="AJ98" s="13"/>
@@ -60312,7 +60327,7 @@
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -60337,7 +60352,7 @@
         <v>315</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X99" s="13"/>
       <c r="Y99" s="13"/>
@@ -60349,14 +60364,14 @@
       </c>
       <c r="AD99" s="13"/>
       <c r="AE99" s="1" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="AF99" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG99" s="13"/>
       <c r="AH99" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI99" s="13"/>
       <c r="AJ99" s="13"/>
@@ -60406,7 +60421,7 @@
         <v>315</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X100" s="13"/>
       <c r="Y100" s="13"/>
@@ -60416,14 +60431,14 @@
       <c r="AC100" s="13"/>
       <c r="AD100" s="13"/>
       <c r="AE100" s="1" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="AF100" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG100" s="13"/>
       <c r="AH100" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI100" s="13"/>
       <c r="AJ100" s="13"/>
@@ -60450,7 +60465,7 @@
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
@@ -60475,7 +60490,7 @@
         <v>315</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X101" s="13"/>
       <c r="Y101" s="13"/>
@@ -60489,14 +60504,14 @@
         <v>985</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="AF101" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG101" s="13"/>
       <c r="AH101" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI101" s="13"/>
       <c r="AJ101" s="13"/>
@@ -60548,7 +60563,7 @@
         <v>315</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X102" s="13"/>
       <c r="Y102" s="13"/>
@@ -60567,7 +60582,7 @@
       </c>
       <c r="AG102" s="13"/>
       <c r="AH102" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI102" s="13"/>
       <c r="AJ102" s="13"/>
@@ -60594,7 +60609,7 @@
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
@@ -60619,7 +60634,7 @@
         <v>315</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X103" s="13"/>
       <c r="Y103" s="13"/>
@@ -60631,14 +60646,14 @@
       </c>
       <c r="AD103" s="13"/>
       <c r="AE103" s="1" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="AF103" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG103" s="13"/>
       <c r="AH103" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI103" s="13"/>
       <c r="AJ103" s="13"/>
@@ -60665,7 +60680,7 @@
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
@@ -60690,7 +60705,7 @@
         <v>315</v>
       </c>
       <c r="W104" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X104" s="13"/>
       <c r="Y104" s="13"/>
@@ -60702,14 +60717,14 @@
       </c>
       <c r="AD104" s="13"/>
       <c r="AE104" s="1" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="AF104" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG104" s="13"/>
       <c r="AH104" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI104" s="13"/>
       <c r="AJ104" s="13"/>
@@ -60736,7 +60751,7 @@
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
@@ -60761,7 +60776,7 @@
         <v>315</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X105" s="13"/>
       <c r="Y105" s="13"/>
@@ -60775,14 +60790,14 @@
         <v>704</v>
       </c>
       <c r="AE105" s="1" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="AF105" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG105" s="13"/>
       <c r="AH105" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI105" s="13"/>
       <c r="AJ105" s="13"/>
@@ -60810,7 +60825,7 @@
       <c r="M106" s="4"/>
       <c r="AG106" s="13"/>
       <c r="AH106" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI106" s="13"/>
       <c r="AJ106" s="13"/>
@@ -60860,7 +60875,7 @@
         <v>315</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
@@ -60870,14 +60885,14 @@
       <c r="AC107" s="13"/>
       <c r="AD107" s="13"/>
       <c r="AE107" s="1" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="AF107" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG107" s="13"/>
       <c r="AH107" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI107" s="13"/>
       <c r="AJ107" s="13"/>
@@ -60927,7 +60942,7 @@
         <v>315</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X108" s="13"/>
       <c r="Y108" s="13"/>
@@ -60940,11 +60955,11 @@
         <v>68</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="AG108" s="13"/>
       <c r="AH108" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI108" s="13"/>
       <c r="AJ108" s="13"/>
@@ -60971,7 +60986,7 @@
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
@@ -60996,7 +61011,7 @@
         <v>315</v>
       </c>
       <c r="W109" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X109" s="13"/>
       <c r="Y109" s="13"/>
@@ -61004,20 +61019,20 @@
       <c r="AA109" s="13"/>
       <c r="AB109" s="13"/>
       <c r="AC109" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AD109" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AE109" s="1" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="AF109" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="AG109" s="13"/>
       <c r="AH109" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI109" s="13"/>
       <c r="AJ109" s="13"/>
@@ -61044,7 +61059,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
@@ -61069,7 +61084,7 @@
         <v>315</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X110" s="13"/>
       <c r="Y110" s="13"/>
@@ -61081,14 +61096,14 @@
       </c>
       <c r="AD110" s="13"/>
       <c r="AE110" s="1" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="AF110" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG110" s="13"/>
       <c r="AH110" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI110" s="13"/>
       <c r="AJ110" s="13"/>
@@ -61138,7 +61153,7 @@
         <v>315</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X111" s="13"/>
       <c r="Y111" s="13"/>
@@ -61148,14 +61163,14 @@
       <c r="AC111" s="13"/>
       <c r="AD111" s="13"/>
       <c r="AE111" s="1" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="AF111" s="1" t="s">
         <v>319</v>
       </c>
       <c r="AG111" s="13"/>
       <c r="AH111" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI111" s="13"/>
       <c r="AJ111" s="13"/>
@@ -61205,7 +61220,7 @@
         <v>315</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X112" s="13"/>
       <c r="Y112" s="13"/>
@@ -61214,17 +61229,17 @@
       <c r="AB112" s="13"/>
       <c r="AC112" s="13"/>
       <c r="AD112" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="AE112" s="1" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="AF112" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG112" s="13"/>
       <c r="AH112" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI112" s="13"/>
       <c r="AJ112" s="13"/>
@@ -61274,7 +61289,7 @@
         <v>315</v>
       </c>
       <c r="W113" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X113" s="13"/>
       <c r="Y113" s="13"/>
@@ -61283,17 +61298,17 @@
       <c r="AB113" s="13"/>
       <c r="AC113" s="13"/>
       <c r="AD113" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="AE113" s="1" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="AF113" s="1" t="s">
         <v>340</v>
       </c>
       <c r="AG113" s="13"/>
       <c r="AH113" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI113" s="13"/>
       <c r="AJ113" s="13"/>
@@ -61320,7 +61335,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
@@ -61345,7 +61360,7 @@
         <v>315</v>
       </c>
       <c r="W114" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
@@ -61360,7 +61375,7 @@
       <c r="AF114" s="13"/>
       <c r="AG114" s="13"/>
       <c r="AH114" s="14" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AI114" s="13"/>
       <c r="AJ114" s="13"/>
@@ -61415,14 +61430,14 @@
       <c r="X115" s="34"/>
       <c r="Y115" s="34"/>
       <c r="Z115" s="36" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="AA115" s="36" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="AB115" s="34"/>
       <c r="AC115" s="34" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AD115" s="34"/>
       <c r="AE115" s="34"/>
@@ -61585,7 +61600,7 @@
       <c r="K116" s="34"/>
       <c r="L116" s="34"/>
       <c r="M116" s="36" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="N116" s="34"/>
       <c r="O116" s="34"/>
@@ -61618,14 +61633,14 @@
       <c r="X116" s="34"/>
       <c r="Y116" s="34"/>
       <c r="Z116" s="36" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="AA116" s="36" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="AB116" s="34"/>
       <c r="AC116" s="34" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="AD116" s="34"/>
       <c r="AE116" s="34"/>
@@ -61647,7 +61662,7 @@
       <c r="AU116" s="34"/>
       <c r="AV116" s="37"/>
       <c r="AW116" s="37" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AX116" s="37"/>
       <c r="AY116" s="37"/>
@@ -61821,14 +61836,14 @@
       <c r="X117" s="34"/>
       <c r="Y117" s="34"/>
       <c r="Z117" s="36" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="AA117" s="36" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="AB117" s="34"/>
       <c r="AC117" s="34" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="AD117" s="34"/>
       <c r="AE117" s="34"/>
@@ -61850,7 +61865,7 @@
       <c r="AU117" s="34"/>
       <c r="AV117" s="37"/>
       <c r="AW117" s="37" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AX117" s="37"/>
       <c r="AY117" s="37"/>
@@ -61979,13 +61994,13 @@
     </row>
     <row r="118" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A118" s="38" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B118" s="39" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
@@ -62001,10 +62016,10 @@
       <c r="M118" s="39"/>
       <c r="N118" s="39"/>
       <c r="O118" s="38" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="P118" s="38" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="Q118" s="40" t="s">
         <v>609</v>
@@ -62042,12 +62057,12 @@
       <c r="AH118" s="39"/>
       <c r="AI118" s="39"/>
       <c r="AJ118" s="38" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="AK118" s="38"/>
       <c r="AL118" s="38"/>
       <c r="AM118" s="38" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="AN118" s="38"/>
       <c r="AO118" s="38" t="s">
@@ -62066,14 +62081,14 @@
         <v>69</v>
       </c>
       <c r="AT118" s="38" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="AU118" s="39" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="AV118" s="39"/>
       <c r="AW118" s="39" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="AX118" s="39"/>
       <c r="AY118" s="39"/>
@@ -62202,13 +62217,13 @@
     </row>
     <row r="119" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A119" s="38" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B119" s="39" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
@@ -62224,10 +62239,10 @@
       <c r="M119" s="39"/>
       <c r="N119" s="39"/>
       <c r="O119" s="38" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="P119" s="38" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="Q119" s="40" t="s">
         <v>359</v>
@@ -62265,12 +62280,12 @@
       <c r="AH119" s="39"/>
       <c r="AI119" s="39"/>
       <c r="AJ119" s="38" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="AK119" s="38"/>
       <c r="AL119" s="38"/>
       <c r="AM119" s="38" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="AN119" s="38"/>
       <c r="AO119" s="38" t="s">
@@ -62289,14 +62304,14 @@
         <v>69</v>
       </c>
       <c r="AT119" s="38" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="AU119" s="39" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="AV119" s="39"/>
       <c r="AW119" s="39" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="AX119" s="39"/>
       <c r="AY119" s="39"/>
@@ -62425,13 +62440,13 @@
     </row>
     <row r="120" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A120" s="38" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B120" s="39" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
@@ -62447,10 +62462,10 @@
       <c r="M120" s="39"/>
       <c r="N120" s="39"/>
       <c r="O120" s="38" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="P120" s="38" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="Q120" s="40" t="s">
         <v>909</v>
@@ -62488,12 +62503,12 @@
       <c r="AH120" s="39"/>
       <c r="AI120" s="39"/>
       <c r="AJ120" s="38" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="AK120" s="38"/>
       <c r="AL120" s="38"/>
       <c r="AM120" s="38" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="AN120" s="38"/>
       <c r="AO120" s="38" t="s">
@@ -62512,14 +62527,14 @@
         <v>69</v>
       </c>
       <c r="AT120" s="38" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="AU120" s="39" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="AV120" s="39"/>
       <c r="AW120" s="39" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="AX120" s="39"/>
       <c r="AY120" s="39"/>
@@ -62648,13 +62663,13 @@
     </row>
     <row r="121" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A121" s="38" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B121" s="39" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="D121" s="38"/>
       <c r="E121" s="38" t="s">
@@ -62670,10 +62685,10 @@
       <c r="M121" s="39"/>
       <c r="N121" s="39"/>
       <c r="O121" s="38" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="P121" s="38" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="Q121" s="40" t="s">
         <v>99</v>
@@ -62711,12 +62726,12 @@
       <c r="AH121" s="39"/>
       <c r="AI121" s="39"/>
       <c r="AJ121" s="38" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="AK121" s="38"/>
       <c r="AL121" s="38"/>
       <c r="AM121" s="38" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="AN121" s="38"/>
       <c r="AO121" s="38" t="s">
@@ -62735,14 +62750,14 @@
         <v>69</v>
       </c>
       <c r="AT121" s="38" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="AU121" s="39" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="AV121" s="39"/>
       <c r="AW121" s="39" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="AX121" s="39"/>
       <c r="AY121" s="39"/>
@@ -62871,13 +62886,13 @@
     </row>
     <row r="122" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A122" s="38" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B122" s="39" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
@@ -62893,10 +62908,10 @@
       <c r="M122" s="39"/>
       <c r="N122" s="39"/>
       <c r="O122" s="38" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="P122" s="38" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="Q122" s="40" t="s">
         <v>909</v>
@@ -62934,12 +62949,12 @@
       <c r="AH122" s="39"/>
       <c r="AI122" s="39"/>
       <c r="AJ122" s="38" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="AK122" s="38"/>
       <c r="AL122" s="38"/>
       <c r="AM122" s="38" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="AN122" s="38"/>
       <c r="AO122" s="38" t="s">
@@ -62958,14 +62973,14 @@
         <v>69</v>
       </c>
       <c r="AT122" s="38" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="AU122" s="39" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="AV122" s="39"/>
       <c r="AW122" s="39" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="AX122" s="39"/>
       <c r="AY122" s="39"/>
@@ -63094,13 +63109,13 @@
     </row>
     <row r="123" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A123" s="32" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B123" s="42" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="D123" s="32"/>
       <c r="E123" s="32" t="s">
@@ -63116,10 +63131,10 @@
       <c r="M123" s="42"/>
       <c r="N123" s="42"/>
       <c r="O123" s="32" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="P123" s="32" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="Q123" s="43" t="s">
         <v>609</v>
@@ -63157,12 +63172,12 @@
       <c r="AH123" s="42"/>
       <c r="AI123" s="42"/>
       <c r="AJ123" s="32" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="AK123" s="32"/>
       <c r="AL123" s="32"/>
       <c r="AM123" s="32" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="AN123" s="32"/>
       <c r="AO123" s="32" t="s">
@@ -63181,14 +63196,14 @@
         <v>69</v>
       </c>
       <c r="AT123" s="32" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="AU123" s="42" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="AV123" s="42"/>
       <c r="AW123" s="42" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="AX123" s="42"/>
       <c r="AY123" s="42"/>
@@ -63317,13 +63332,13 @@
     </row>
     <row r="124" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A124" s="32" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="D124" s="32"/>
       <c r="E124" s="32" t="s">
@@ -63339,10 +63354,10 @@
       <c r="M124" s="42"/>
       <c r="N124" s="42"/>
       <c r="O124" s="32" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="P124" s="32" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="Q124" s="43" t="s">
         <v>609</v>
@@ -63380,12 +63395,12 @@
       <c r="AH124" s="42"/>
       <c r="AI124" s="42"/>
       <c r="AJ124" s="32" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="AK124" s="32"/>
       <c r="AL124" s="32"/>
       <c r="AM124" s="32" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="AN124" s="32"/>
       <c r="AO124" s="32" t="s">
@@ -63404,14 +63419,14 @@
         <v>92</v>
       </c>
       <c r="AT124" s="32" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="AU124" s="42" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="AV124" s="42"/>
       <c r="AW124" s="42" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="AX124" s="42"/>
       <c r="AY124" s="42"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAEA4FB9-942E-4BF0-AECF-498DBBDD9C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8884B46-FB28-4068-97DD-0AB4A44EF876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5548" uniqueCount="1734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5548" uniqueCount="1735">
   <si>
     <t>VJDBv0.3</t>
   </si>
@@ -636,7 +636,7 @@
     <t>TEXT_FIELD</t>
   </si>
   <si>
-    <t>2023-05-23</t>
+    <t>2023-05-24</t>
   </si>
   <si>
     <t>YYYY-MM-DD; Some browsers can display dates in a different format, but it is still correct</t>
@@ -4733,6 +4733,9 @@
   </si>
   <si>
     <t>Date when the sample the host sequence originates from was collected or sampled.</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
   </si>
   <si>
     <t>0ht</t>
@@ -6479,8 +6482,8 @@
   <dimension ref="A1:GC277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K128" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q5" sqref="Q5:T277"/>
+      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW9" sqref="AW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
@@ -50935,7 +50938,7 @@
       <c r="AU207" s="59"/>
       <c r="AV207" s="59"/>
       <c r="AW207" s="61" t="s">
-        <v>134</v>
+        <v>1499</v>
       </c>
       <c r="AX207" s="59" t="s">
         <v>135</v>
@@ -50943,7 +50946,7 @@
       <c r="AY207" s="48"/>
       <c r="AZ207" s="48"/>
       <c r="BA207" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="BC207" t="s">
         <v>92</v>
@@ -50954,13 +50957,13 @@
     </row>
     <row r="208" spans="1:57" ht="26.25" customHeight="1">
       <c r="A208" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B208" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C208" s="88" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D208" t="s">
         <v>64</v>
@@ -50969,7 +50972,7 @@
         <v>65</v>
       </c>
       <c r="Q208" s="99" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="R208" s="80"/>
       <c r="S208" s="80"/>
@@ -50988,7 +50991,7 @@
         <v>1442</v>
       </c>
       <c r="BA208" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="BC208" t="s">
         <v>92</v>
@@ -50999,13 +51002,13 @@
     </row>
     <row r="209" spans="1:61" ht="26.25" customHeight="1">
       <c r="A209" s="69" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B209" s="69" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C209" s="77" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="D209" s="69" t="s">
         <v>64</v>
@@ -51025,13 +51028,13 @@
       <c r="O209" s="69"/>
       <c r="P209" s="69"/>
       <c r="Q209" s="89" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="R209" s="89" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="S209" s="89" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="T209" s="98"/>
       <c r="U209" s="98"/>
@@ -51051,7 +51054,7 @@
         <v>18</v>
       </c>
       <c r="AB209" s="69" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="AC209" s="69"/>
       <c r="AD209" s="69"/>
@@ -51078,7 +51081,7 @@
       <c r="AY209" s="69"/>
       <c r="AZ209" s="69"/>
       <c r="BA209" s="69" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="BB209" s="69"/>
       <c r="BC209" s="69" t="s">
@@ -51095,13 +51098,13 @@
     </row>
     <row r="210" spans="1:61" ht="26.25" customHeight="1">
       <c r="A210" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B210" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C210" s="62" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D210" s="59" t="s">
         <v>266</v>
@@ -51110,11 +51113,11 @@
         <v>65</v>
       </c>
       <c r="Q210" s="89" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="R210" s="89"/>
       <c r="S210" s="89" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="T210" s="80"/>
       <c r="W210" t="s">
@@ -51141,7 +51144,7 @@
       <c r="AY210" s="48"/>
       <c r="AZ210" s="48"/>
       <c r="BA210" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="BC210" t="s">
         <v>92</v>
@@ -51152,13 +51155,13 @@
     </row>
     <row r="211" spans="1:61" ht="26.25" customHeight="1">
       <c r="A211" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B211" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C211" s="62" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D211" s="59" t="s">
         <v>64</v>
@@ -51167,11 +51170,11 @@
         <v>65</v>
       </c>
       <c r="Q211" s="89" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="R211" s="89"/>
       <c r="S211" s="89" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="T211" s="80"/>
       <c r="W211" t="s">
@@ -51194,7 +51197,7 @@
         <v>413</v>
       </c>
       <c r="BA211" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="BC211" t="s">
         <v>92</v>
@@ -51205,13 +51208,13 @@
     </row>
     <row r="212" spans="1:61" ht="26.25" customHeight="1">
       <c r="A212" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B212" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C212" s="76" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D212" s="59" t="s">
         <v>64</v>
@@ -51237,7 +51240,7 @@
         <v>["Internal", "Workflows"]</v>
       </c>
       <c r="BA212" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="BC212" t="s">
         <v>1176</v>
@@ -51248,13 +51251,13 @@
     </row>
     <row r="213" spans="1:61" ht="26.25" customHeight="1">
       <c r="A213" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B213" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C213" s="76" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="D213" s="59" t="s">
         <v>64</v>
@@ -51280,7 +51283,7 @@
         <v>["Internal", "Workflows"]</v>
       </c>
       <c r="BA213" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="BC213" t="s">
         <v>1176</v>
@@ -51291,13 +51294,13 @@
     </row>
     <row r="214" spans="1:61" ht="26.25" customHeight="1">
       <c r="A214" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B214" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C214" s="76" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D214" s="59" t="s">
         <v>64</v>
@@ -51323,7 +51326,7 @@
         <v>["Internal", "Workflows"]</v>
       </c>
       <c r="BA214" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="BC214" t="s">
         <v>1176</v>
@@ -51334,13 +51337,13 @@
     </row>
     <row r="215" spans="1:61" ht="26.25" customHeight="1">
       <c r="A215" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B215" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C215" s="76" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D215" s="59" t="s">
         <v>64</v>
@@ -51366,7 +51369,7 @@
         <v>["Internal", "Workflows"]</v>
       </c>
       <c r="BA215" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="BC215" t="s">
         <v>1176</v>
@@ -51377,13 +51380,13 @@
     </row>
     <row r="216" spans="1:61" ht="26.25" customHeight="1">
       <c r="A216" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B216" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C216" s="76" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D216" s="59" t="s">
         <v>64</v>
@@ -51409,7 +51412,7 @@
         <v>["Internal", "Workflows"]</v>
       </c>
       <c r="BA216" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="BC216" t="s">
         <v>1176</v>
@@ -51420,10 +51423,10 @@
     </row>
     <row r="217" spans="1:61" ht="26.25" customHeight="1">
       <c r="A217" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B217" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D217" t="s">
         <v>64</v>
@@ -51432,7 +51435,7 @@
         <v>162</v>
       </c>
       <c r="Q217" s="99" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="R217" s="80"/>
       <c r="S217" s="80"/>
@@ -51453,21 +51456,21 @@
         <v>1442</v>
       </c>
       <c r="BA217" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="BC217" t="s">
         <v>92</v>
       </c>
       <c r="BD217" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="218" spans="1:61" ht="26.25" customHeight="1">
       <c r="A218" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B218" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D218" t="s">
         <v>64</v>
@@ -51495,13 +51498,13 @@
         <v>1442</v>
       </c>
       <c r="BA218" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="BC218" t="s">
         <v>92</v>
       </c>
       <c r="BD218" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="219" spans="1:61" ht="23.25" customHeight="1">
@@ -53057,7 +53060,7 @@
         <v>378</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
@@ -53067,14 +53070,14 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="2" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AH5" s="9" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -53101,7 +53104,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -53126,7 +53129,7 @@
         <v>378</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
@@ -53138,14 +53141,14 @@
       </c>
       <c r="AD6" s="13"/>
       <c r="AE6" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG6" s="13"/>
       <c r="AH6" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
@@ -53195,7 +53198,7 @@
         <v>378</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
@@ -53207,14 +53210,14 @@
         <v>131</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG7" s="13"/>
       <c r="AH7" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
@@ -53264,7 +53267,7 @@
         <v>378</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
@@ -53274,14 +53277,14 @@
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
       <c r="AE8" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG8" s="13"/>
       <c r="AH8" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
@@ -53331,7 +53334,7 @@
         <v>378</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
@@ -53341,14 +53344,14 @@
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG9" s="13"/>
       <c r="AH9" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
@@ -53375,7 +53378,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -53400,7 +53403,7 @@
         <v>378</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
@@ -53412,14 +53415,14 @@
       </c>
       <c r="AD10" s="13"/>
       <c r="AE10" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG10" s="13"/>
       <c r="AH10" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
@@ -53446,7 +53449,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -53471,7 +53474,7 @@
         <v>378</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
@@ -53483,14 +53486,14 @@
       </c>
       <c r="AD11" s="13"/>
       <c r="AE11" s="1" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG11" s="13"/>
       <c r="AH11" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
@@ -53540,7 +53543,7 @@
         <v>378</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
@@ -53550,14 +53553,14 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG12" s="13"/>
       <c r="AH12" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
@@ -53607,7 +53610,7 @@
         <v>378</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
@@ -53617,14 +53620,14 @@
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG13" s="13"/>
       <c r="AH13" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
@@ -53651,7 +53654,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -53676,7 +53679,7 @@
         <v>378</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
@@ -53684,20 +53687,20 @@
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG14" s="13"/>
       <c r="AH14" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
@@ -53747,7 +53750,7 @@
         <v>378</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
@@ -53756,17 +53759,17 @@
       <c r="AB15" s="13"/>
       <c r="AC15" s="13"/>
       <c r="AD15" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="AF15" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG15" s="13"/>
       <c r="AH15" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
@@ -53816,7 +53819,7 @@
         <v>378</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
@@ -53826,14 +53829,14 @@
       <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
       <c r="AE16" s="1" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG16" s="13"/>
       <c r="AH16" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="13"/>
@@ -53860,7 +53863,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -53885,7 +53888,7 @@
         <v>378</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -53893,20 +53896,20 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="AF17" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG17" s="13"/>
       <c r="AH17" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="13"/>
@@ -53933,7 +53936,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -53958,7 +53961,7 @@
         <v>378</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
@@ -53966,20 +53969,20 @@
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
       <c r="AC18" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="AF18" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG18" s="13"/>
       <c r="AH18" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI18" s="13"/>
       <c r="AJ18" s="13"/>
@@ -54006,7 +54009,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -54031,7 +54034,7 @@
         <v>378</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -54045,14 +54048,14 @@
         <v>235</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG19" s="13"/>
       <c r="AH19" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI19" s="13"/>
       <c r="AJ19" s="13"/>
@@ -54079,7 +54082,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -54104,7 +54107,7 @@
         <v>378</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
@@ -54116,14 +54119,14 @@
       </c>
       <c r="AD20" s="13"/>
       <c r="AE20" s="1" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="AF20" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG20" s="13"/>
       <c r="AH20" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI20" s="13"/>
       <c r="AJ20" s="13"/>
@@ -54195,7 +54198,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -54220,7 +54223,7 @@
         <v>378</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
@@ -54228,20 +54231,20 @@
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
       <c r="AC22" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="AF22" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG22" s="13"/>
       <c r="AH22" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI22" s="13"/>
       <c r="AJ22" s="13"/>
@@ -54268,7 +54271,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -54293,7 +54296,7 @@
         <v>378</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
@@ -54307,14 +54310,14 @@
         <v>131</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="AF23" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG23" s="13"/>
       <c r="AH23" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI23" s="13"/>
       <c r="AJ23" s="13"/>
@@ -54341,7 +54344,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -54366,7 +54369,7 @@
         <v>378</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
@@ -54378,14 +54381,14 @@
       </c>
       <c r="AD24" s="13"/>
       <c r="AE24" s="1" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="AF24" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG24" s="13"/>
       <c r="AH24" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI24" s="13"/>
       <c r="AJ24" s="13"/>
@@ -54435,7 +54438,7 @@
         <v>378</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
@@ -54445,14 +54448,14 @@
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="1" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="AF25" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG25" s="13"/>
       <c r="AH25" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI25" s="13"/>
       <c r="AJ25" s="13"/>
@@ -54479,7 +54482,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -54504,7 +54507,7 @@
         <v>378</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
@@ -54516,14 +54519,14 @@
       </c>
       <c r="AD26" s="13"/>
       <c r="AE26" s="1" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="AF26" s="1" t="s">
         <v>753</v>
       </c>
       <c r="AG26" s="13"/>
       <c r="AH26" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="13"/>
@@ -54550,7 +54553,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -54575,7 +54578,7 @@
         <v>378</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
@@ -54589,14 +54592,14 @@
         <v>235</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="AF27" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG27" s="13"/>
       <c r="AH27" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="13"/>
@@ -54623,7 +54626,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -54648,7 +54651,7 @@
         <v>378</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
@@ -54662,14 +54665,14 @@
         <v>235</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="AF28" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG28" s="13"/>
       <c r="AH28" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="13"/>
@@ -54696,7 +54699,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -54721,7 +54724,7 @@
         <v>378</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
@@ -54735,14 +54738,14 @@
         <v>235</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="AF29" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG29" s="13"/>
       <c r="AH29" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
@@ -54792,7 +54795,7 @@
         <v>378</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
@@ -54801,17 +54804,17 @@
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
       <c r="AD30" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="AF30" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG30" s="13"/>
       <c r="AH30" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="13"/>
@@ -54861,7 +54864,7 @@
         <v>378</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
@@ -54870,17 +54873,17 @@
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
       <c r="AD31" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AF31" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG31" s="13"/>
       <c r="AH31" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="13"/>
@@ -54907,7 +54910,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -54932,7 +54935,7 @@
         <v>378</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
@@ -54944,14 +54947,14 @@
       </c>
       <c r="AD32" s="13"/>
       <c r="AE32" s="1" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="AF32" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG32" s="13"/>
       <c r="AH32" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="13"/>
@@ -55001,7 +55004,7 @@
         <v>378</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
@@ -55011,14 +55014,14 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
       <c r="AE33" s="1" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="AF33" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG33" s="13"/>
       <c r="AH33" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="13"/>
@@ -55045,7 +55048,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -55070,7 +55073,7 @@
         <v>378</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
@@ -55082,14 +55085,14 @@
       </c>
       <c r="AD34" s="13"/>
       <c r="AE34" s="1" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="AF34" s="1" t="s">
         <v>753</v>
       </c>
       <c r="AG34" s="13"/>
       <c r="AH34" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="13"/>
@@ -55139,7 +55142,7 @@
         <v>378</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
@@ -55151,14 +55154,14 @@
         <v>131</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="AF35" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG35" s="13"/>
       <c r="AH35" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="13"/>
@@ -55208,7 +55211,7 @@
         <v>378</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
@@ -55225,7 +55228,7 @@
       </c>
       <c r="AG36" s="13"/>
       <c r="AH36" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI36" s="13"/>
       <c r="AJ36" s="13"/>
@@ -55252,7 +55255,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -55277,7 +55280,7 @@
         <v>378</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
@@ -55285,20 +55288,20 @@
       <c r="AA37" s="13"/>
       <c r="AB37" s="13"/>
       <c r="AC37" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG37" s="13"/>
       <c r="AH37" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI37" s="13"/>
       <c r="AJ37" s="13"/>
@@ -55325,7 +55328,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -55350,7 +55353,7 @@
         <v>378</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
@@ -55358,20 +55361,20 @@
       <c r="AA38" s="13"/>
       <c r="AB38" s="13"/>
       <c r="AC38" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="AF38" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG38" s="13"/>
       <c r="AH38" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI38" s="13"/>
       <c r="AJ38" s="13"/>
@@ -55398,7 +55401,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -55423,7 +55426,7 @@
         <v>378</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
@@ -55431,20 +55434,20 @@
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
       <c r="AC39" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="AF39" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG39" s="13"/>
       <c r="AH39" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI39" s="13"/>
       <c r="AJ39" s="13"/>
@@ -55471,7 +55474,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -55496,7 +55499,7 @@
         <v>378</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
@@ -55504,18 +55507,18 @@
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
       <c r="AC40" s="1" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="AD40" s="13"/>
       <c r="AE40" s="1" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="AF40" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG40" s="13"/>
       <c r="AH40" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI40" s="13"/>
       <c r="AJ40" s="13"/>
@@ -55542,7 +55545,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -55567,7 +55570,7 @@
         <v>378</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
@@ -55581,14 +55584,14 @@
         <v>131</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="AF41" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG41" s="13"/>
       <c r="AH41" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI41" s="13"/>
       <c r="AJ41" s="13"/>
@@ -55638,7 +55641,7 @@
         <v>378</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
@@ -55648,14 +55651,14 @@
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
       <c r="AE42" s="1" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="AF42" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG42" s="13"/>
       <c r="AH42" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI42" s="13"/>
       <c r="AJ42" s="13"/>
@@ -55682,7 +55685,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -55707,7 +55710,7 @@
         <v>378</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
@@ -55719,14 +55722,14 @@
       </c>
       <c r="AD43" s="13"/>
       <c r="AE43" s="1" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="AF43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG43" s="13"/>
       <c r="AH43" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI43" s="13"/>
       <c r="AJ43" s="13"/>
@@ -55753,7 +55756,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -55778,7 +55781,7 @@
         <v>378</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
@@ -55790,14 +55793,14 @@
       </c>
       <c r="AD44" s="13"/>
       <c r="AE44" s="1" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="AF44" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG44" s="13"/>
       <c r="AH44" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI44" s="13"/>
       <c r="AJ44" s="13"/>
@@ -55824,7 +55827,7 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -55849,7 +55852,7 @@
         <v>378</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
@@ -55861,14 +55864,14 @@
       </c>
       <c r="AD45" s="13"/>
       <c r="AE45" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="AF45" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG45" s="13"/>
       <c r="AH45" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI45" s="13"/>
       <c r="AJ45" s="13"/>
@@ -55918,7 +55921,7 @@
         <v>378</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
@@ -55928,14 +55931,14 @@
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="AF46" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG46" s="13"/>
       <c r="AH46" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="13"/>
@@ -55962,7 +55965,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -55987,7 +55990,7 @@
         <v>378</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
@@ -55999,14 +56002,14 @@
       </c>
       <c r="AD47" s="13"/>
       <c r="AE47" s="1" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="AF47" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG47" s="13"/>
       <c r="AH47" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI47" s="13"/>
       <c r="AJ47" s="13"/>
@@ -56056,7 +56059,7 @@
         <v>378</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
@@ -56066,14 +56069,14 @@
       <c r="AC48" s="13"/>
       <c r="AD48" s="13"/>
       <c r="AE48" s="1" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="AF48" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG48" s="13"/>
       <c r="AH48" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI48" s="13"/>
       <c r="AJ48" s="13"/>
@@ -56100,7 +56103,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -56125,7 +56128,7 @@
         <v>378</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
@@ -56137,14 +56140,14 @@
       </c>
       <c r="AD49" s="13"/>
       <c r="AE49" s="1" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="AF49" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG49" s="13"/>
       <c r="AH49" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI49" s="13"/>
       <c r="AJ49" s="13"/>
@@ -56194,7 +56197,7 @@
         <v>378</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
@@ -56204,14 +56207,14 @@
       <c r="AC50" s="13"/>
       <c r="AD50" s="13"/>
       <c r="AE50" s="1" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="AF50" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG50" s="13"/>
       <c r="AH50" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI50" s="13"/>
       <c r="AJ50" s="13"/>
@@ -56261,7 +56264,7 @@
         <v>378</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X51" s="13"/>
       <c r="Y51" s="13"/>
@@ -56270,17 +56273,17 @@
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
       <c r="AD51" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="AF51" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG51" s="13"/>
       <c r="AH51" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI51" s="13"/>
       <c r="AJ51" s="13"/>
@@ -56330,7 +56333,7 @@
         <v>378</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
@@ -56339,17 +56342,17 @@
       <c r="AB52" s="13"/>
       <c r="AC52" s="13"/>
       <c r="AD52" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="AF52" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG52" s="13"/>
       <c r="AH52" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI52" s="13"/>
       <c r="AJ52" s="13"/>
@@ -56376,7 +56379,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
@@ -56401,7 +56404,7 @@
         <v>378</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
@@ -56415,14 +56418,14 @@
         <v>131</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="AF53" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG53" s="13"/>
       <c r="AH53" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI53" s="13"/>
       <c r="AJ53" s="13"/>
@@ -56472,7 +56475,7 @@
         <v>378</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X54" s="13"/>
       <c r="Y54" s="13"/>
@@ -56484,14 +56487,14 @@
         <v>131</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="AF54" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG54" s="13"/>
       <c r="AH54" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI54" s="13"/>
       <c r="AJ54" s="13"/>
@@ -56518,7 +56521,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -56543,7 +56546,7 @@
         <v>378</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
@@ -56557,14 +56560,14 @@
         <v>131</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="AF55" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG55" s="13"/>
       <c r="AH55" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI55" s="13"/>
       <c r="AJ55" s="13"/>
@@ -56638,7 +56641,7 @@
         <v>378</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
@@ -56650,14 +56653,14 @@
         <v>131</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="AF57" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG57" s="13"/>
       <c r="AH57" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI57" s="13"/>
       <c r="AJ57" s="13"/>
@@ -56707,7 +56710,7 @@
         <v>378</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
@@ -56719,14 +56722,14 @@
         <v>131</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="AF58" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI58" s="13"/>
       <c r="AJ58" s="13"/>
@@ -56753,7 +56756,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
@@ -56778,7 +56781,7 @@
         <v>378</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
@@ -56786,20 +56789,20 @@
       <c r="AA59" s="13"/>
       <c r="AB59" s="13"/>
       <c r="AC59" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="AF59" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG59" s="13"/>
       <c r="AH59" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI59" s="13"/>
       <c r="AJ59" s="13"/>
@@ -56849,7 +56852,7 @@
         <v>378</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
@@ -56858,17 +56861,17 @@
       <c r="AB60" s="13"/>
       <c r="AC60" s="13"/>
       <c r="AD60" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="AF60" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG60" s="13"/>
       <c r="AH60" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI60" s="13"/>
       <c r="AJ60" s="13"/>
@@ -56895,7 +56898,7 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
@@ -56920,7 +56923,7 @@
         <v>378</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
@@ -56932,14 +56935,14 @@
       </c>
       <c r="AD61" s="13"/>
       <c r="AE61" s="1" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="AF61" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG61" s="13"/>
       <c r="AH61" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI61" s="13"/>
       <c r="AJ61" s="13"/>
@@ -56989,7 +56992,7 @@
         <v>378</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
@@ -56999,14 +57002,14 @@
       <c r="AC62" s="13"/>
       <c r="AD62" s="13"/>
       <c r="AE62" s="1" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="AF62" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG62" s="13"/>
       <c r="AH62" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI62" s="13"/>
       <c r="AJ62" s="13"/>
@@ -57033,7 +57036,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
@@ -57058,7 +57061,7 @@
         <v>378</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
@@ -57070,14 +57073,14 @@
       </c>
       <c r="AD63" s="13"/>
       <c r="AE63" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="AF63" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG63" s="13"/>
       <c r="AH63" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI63" s="13"/>
       <c r="AJ63" s="13"/>
@@ -57127,7 +57130,7 @@
         <v>378</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
@@ -57137,14 +57140,14 @@
       <c r="AC64" s="13"/>
       <c r="AD64" s="13"/>
       <c r="AE64" s="1" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="AF64" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG64" s="13"/>
       <c r="AH64" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI64" s="13"/>
       <c r="AJ64" s="13"/>
@@ -57194,7 +57197,7 @@
         <v>378</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X65" s="13"/>
       <c r="Y65" s="13"/>
@@ -57203,17 +57206,17 @@
       <c r="AB65" s="13"/>
       <c r="AC65" s="13"/>
       <c r="AD65" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="AF65" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG65" s="13"/>
       <c r="AH65" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI65" s="13"/>
       <c r="AJ65" s="13"/>
@@ -57263,7 +57266,7 @@
         <v>378</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
@@ -57273,14 +57276,14 @@
       <c r="AC66" s="13"/>
       <c r="AD66" s="13"/>
       <c r="AE66" s="1" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="AF66" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG66" s="13"/>
       <c r="AH66" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI66" s="13"/>
       <c r="AJ66" s="13"/>
@@ -57354,7 +57357,7 @@
         <v>378</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X68" s="13"/>
       <c r="Y68" s="13"/>
@@ -57371,7 +57374,7 @@
       </c>
       <c r="AG68" s="13"/>
       <c r="AH68" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI68" s="13"/>
       <c r="AJ68" s="13"/>
@@ -57398,7 +57401,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
@@ -57423,7 +57426,7 @@
         <v>378</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X69" s="13"/>
       <c r="Y69" s="13"/>
@@ -57435,14 +57438,14 @@
       </c>
       <c r="AD69" s="13"/>
       <c r="AE69" s="1" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="AF69" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG69" s="13"/>
       <c r="AH69" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI69" s="13"/>
       <c r="AJ69" s="13"/>
@@ -57469,7 +57472,7 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
@@ -57494,7 +57497,7 @@
         <v>378</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X70" s="13"/>
       <c r="Y70" s="13"/>
@@ -57508,14 +57511,14 @@
         <v>131</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="AF70" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG70" s="13"/>
       <c r="AH70" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI70" s="13"/>
       <c r="AJ70" s="13"/>
@@ -57542,7 +57545,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
@@ -57567,7 +57570,7 @@
         <v>378</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X71" s="13"/>
       <c r="Y71" s="13"/>
@@ -57579,14 +57582,14 @@
       </c>
       <c r="AD71" s="13"/>
       <c r="AE71" s="1" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="AF71" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG71" s="13"/>
       <c r="AH71" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI71" s="13"/>
       <c r="AJ71" s="13"/>
@@ -57613,7 +57616,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
@@ -57638,7 +57641,7 @@
         <v>378</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X72" s="13"/>
       <c r="Y72" s="13"/>
@@ -57650,14 +57653,14 @@
       </c>
       <c r="AD72" s="13"/>
       <c r="AE72" s="1" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="AF72" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG72" s="13"/>
       <c r="AH72" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI72" s="13"/>
       <c r="AJ72" s="13"/>
@@ -57707,7 +57710,7 @@
         <v>378</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X73" s="13"/>
       <c r="Y73" s="13"/>
@@ -57716,17 +57719,17 @@
       <c r="AB73" s="13"/>
       <c r="AC73" s="13"/>
       <c r="AD73" s="1" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="AF73" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG73" s="13"/>
       <c r="AH73" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI73" s="13"/>
       <c r="AJ73" s="13"/>
@@ -57753,7 +57756,7 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -57778,7 +57781,7 @@
         <v>378</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X74" s="13"/>
       <c r="Y74" s="13"/>
@@ -57789,17 +57792,17 @@
         <v>751</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="AE74" s="1" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="AF74" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG74" s="13"/>
       <c r="AH74" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI74" s="13"/>
       <c r="AJ74" s="13"/>
@@ -57849,7 +57852,7 @@
         <v>378</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
@@ -57859,14 +57862,14 @@
       <c r="AC75" s="13"/>
       <c r="AD75" s="13"/>
       <c r="AE75" s="1" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="AF75" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG75" s="13"/>
       <c r="AH75" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI75" s="13"/>
       <c r="AJ75" s="13"/>
@@ -57916,7 +57919,7 @@
         <v>378</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X76" s="13"/>
       <c r="Y76" s="13"/>
@@ -57926,14 +57929,14 @@
       <c r="AC76" s="13"/>
       <c r="AD76" s="13"/>
       <c r="AE76" s="1" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="AF76" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG76" s="13"/>
       <c r="AH76" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI76" s="13"/>
       <c r="AJ76" s="13"/>
@@ -57983,7 +57986,7 @@
         <v>378</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X77" s="13"/>
       <c r="Y77" s="13"/>
@@ -57992,17 +57995,17 @@
       <c r="AB77" s="13"/>
       <c r="AC77" s="13"/>
       <c r="AD77" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="AF77" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG77" s="13"/>
       <c r="AH77" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI77" s="13"/>
       <c r="AJ77" s="13"/>
@@ -58052,7 +58055,7 @@
         <v>378</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X78" s="13"/>
       <c r="Y78" s="13"/>
@@ -58061,17 +58064,17 @@
       <c r="AB78" s="13"/>
       <c r="AC78" s="13"/>
       <c r="AD78" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="AF78" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG78" s="13"/>
       <c r="AH78" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI78" s="13"/>
       <c r="AJ78" s="13"/>
@@ -58098,7 +58101,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
@@ -58123,7 +58126,7 @@
         <v>378</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X79" s="13"/>
       <c r="Y79" s="13"/>
@@ -58135,14 +58138,14 @@
       </c>
       <c r="AD79" s="13"/>
       <c r="AE79" s="1" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="AF79" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG79" s="13"/>
       <c r="AH79" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI79" s="13"/>
       <c r="AJ79" s="13"/>
@@ -58169,7 +58172,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -58194,7 +58197,7 @@
         <v>378</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X80" s="13"/>
       <c r="Y80" s="13"/>
@@ -58206,14 +58209,14 @@
       </c>
       <c r="AD80" s="13"/>
       <c r="AE80" s="1" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="AF80" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG80" s="13"/>
       <c r="AH80" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI80" s="13"/>
       <c r="AJ80" s="13"/>
@@ -58263,7 +58266,7 @@
         <v>378</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
@@ -58272,17 +58275,17 @@
       <c r="AB81" s="13"/>
       <c r="AC81" s="13"/>
       <c r="AD81" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="AF81" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG81" s="13"/>
       <c r="AH81" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI81" s="13"/>
       <c r="AJ81" s="13"/>
@@ -58309,7 +58312,7 @@
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -58334,7 +58337,7 @@
         <v>378</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X82" s="13"/>
       <c r="Y82" s="13"/>
@@ -58346,14 +58349,14 @@
       </c>
       <c r="AD82" s="13"/>
       <c r="AE82" s="1" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="AF82" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG82" s="13"/>
       <c r="AH82" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI82" s="13"/>
       <c r="AJ82" s="13"/>
@@ -58403,7 +58406,7 @@
         <v>378</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
@@ -58413,14 +58416,14 @@
       <c r="AC83" s="13"/>
       <c r="AD83" s="13"/>
       <c r="AE83" s="1" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="AF83" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG83" s="13"/>
       <c r="AH83" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI83" s="13"/>
       <c r="AJ83" s="13"/>
@@ -58492,7 +58495,7 @@
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
@@ -58517,7 +58520,7 @@
         <v>378</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X85" s="13"/>
       <c r="Y85" s="13"/>
@@ -58531,14 +58534,14 @@
         <v>235</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="AF85" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG85" s="13"/>
       <c r="AH85" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI85" s="13"/>
       <c r="AJ85" s="13"/>
@@ -58588,7 +58591,7 @@
         <v>378</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X86" s="13"/>
       <c r="Y86" s="13"/>
@@ -58597,17 +58600,17 @@
       <c r="AB86" s="13"/>
       <c r="AC86" s="13"/>
       <c r="AD86" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="AF86" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG86" s="13"/>
       <c r="AH86" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI86" s="13"/>
       <c r="AJ86" s="13"/>
@@ -58657,7 +58660,7 @@
         <v>378</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X87" s="13"/>
       <c r="Y87" s="13"/>
@@ -58666,17 +58669,17 @@
       <c r="AB87" s="13"/>
       <c r="AC87" s="13"/>
       <c r="AD87" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AE87" s="1" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="AF87" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG87" s="13"/>
       <c r="AH87" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI87" s="13"/>
       <c r="AJ87" s="13"/>
@@ -58703,7 +58706,7 @@
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
@@ -58728,7 +58731,7 @@
         <v>378</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X88" s="13"/>
       <c r="Y88" s="13"/>
@@ -58739,7 +58742,7 @@
         <v>751</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="AE88" s="1" t="s">
         <v>65</v>
@@ -58749,7 +58752,7 @@
       </c>
       <c r="AG88" s="13"/>
       <c r="AH88" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI88" s="13"/>
       <c r="AJ88" s="13"/>
@@ -58799,7 +58802,7 @@
         <v>378</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
@@ -58816,7 +58819,7 @@
       </c>
       <c r="AG89" s="13"/>
       <c r="AH89" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI89" s="13"/>
       <c r="AJ89" s="13"/>
@@ -58866,7 +58869,7 @@
         <v>378</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X90" s="13"/>
       <c r="Y90" s="13"/>
@@ -58876,14 +58879,14 @@
       <c r="AC90" s="13"/>
       <c r="AD90" s="13"/>
       <c r="AE90" s="1" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="AF90" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG90" s="13"/>
       <c r="AH90" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI90" s="13"/>
       <c r="AJ90" s="13"/>
@@ -58933,7 +58936,7 @@
         <v>378</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X91" s="13"/>
       <c r="Y91" s="13"/>
@@ -58942,17 +58945,17 @@
       <c r="AB91" s="13"/>
       <c r="AC91" s="13"/>
       <c r="AD91" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="AF91" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG91" s="13"/>
       <c r="AH91" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI91" s="13"/>
       <c r="AJ91" s="13"/>
@@ -59002,7 +59005,7 @@
         <v>378</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X92" s="13"/>
       <c r="Y92" s="13"/>
@@ -59012,14 +59015,14 @@
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
       <c r="AE92" s="1" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="AF92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG92" s="13"/>
       <c r="AH92" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI92" s="13"/>
       <c r="AJ92" s="13"/>
@@ -59046,7 +59049,7 @@
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
@@ -59071,7 +59074,7 @@
         <v>378</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X93" s="13"/>
       <c r="Y93" s="13"/>
@@ -59079,20 +59082,20 @@
       <c r="AA93" s="13"/>
       <c r="AB93" s="13"/>
       <c r="AC93" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="AF93" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG93" s="13"/>
       <c r="AH93" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI93" s="13"/>
       <c r="AJ93" s="13"/>
@@ -59142,7 +59145,7 @@
         <v>378</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X94" s="13"/>
       <c r="Y94" s="13"/>
@@ -59152,14 +59155,14 @@
       <c r="AC94" s="13"/>
       <c r="AD94" s="13"/>
       <c r="AE94" s="1" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="AF94" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG94" s="13"/>
       <c r="AH94" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI94" s="13"/>
       <c r="AJ94" s="13"/>
@@ -59186,7 +59189,7 @@
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
@@ -59211,7 +59214,7 @@
         <v>378</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X95" s="13"/>
       <c r="Y95" s="13"/>
@@ -59225,14 +59228,14 @@
         <v>131</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="AF95" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG95" s="13"/>
       <c r="AH95" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI95" s="13"/>
       <c r="AJ95" s="13"/>
@@ -59284,7 +59287,7 @@
         <v>378</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X96" s="13"/>
       <c r="Y96" s="13"/>
@@ -59296,14 +59299,14 @@
       </c>
       <c r="AD96" s="13"/>
       <c r="AE96" s="1" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="AF96" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG96" s="13"/>
       <c r="AH96" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI96" s="13"/>
       <c r="AJ96" s="13"/>
@@ -59353,7 +59356,7 @@
         <v>378</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X97" s="13"/>
       <c r="Y97" s="13"/>
@@ -59365,14 +59368,14 @@
         <v>235</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="AF97" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG97" s="13"/>
       <c r="AH97" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI97" s="13"/>
       <c r="AJ97" s="13"/>
@@ -59399,7 +59402,7 @@
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
@@ -59424,7 +59427,7 @@
         <v>378</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X98" s="13"/>
       <c r="Y98" s="13"/>
@@ -59436,14 +59439,14 @@
       </c>
       <c r="AD98" s="13"/>
       <c r="AE98" s="1" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="AF98" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG98" s="13"/>
       <c r="AH98" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI98" s="13"/>
       <c r="AJ98" s="13"/>
@@ -59470,7 +59473,7 @@
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -59495,7 +59498,7 @@
         <v>378</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X99" s="13"/>
       <c r="Y99" s="13"/>
@@ -59507,14 +59510,14 @@
       </c>
       <c r="AD99" s="13"/>
       <c r="AE99" s="1" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="AF99" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG99" s="13"/>
       <c r="AH99" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI99" s="13"/>
       <c r="AJ99" s="13"/>
@@ -59564,7 +59567,7 @@
         <v>378</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X100" s="13"/>
       <c r="Y100" s="13"/>
@@ -59574,14 +59577,14 @@
       <c r="AC100" s="13"/>
       <c r="AD100" s="13"/>
       <c r="AE100" s="1" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="AF100" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG100" s="13"/>
       <c r="AH100" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI100" s="13"/>
       <c r="AJ100" s="13"/>
@@ -59608,7 +59611,7 @@
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
@@ -59633,7 +59636,7 @@
         <v>378</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X101" s="13"/>
       <c r="Y101" s="13"/>
@@ -59647,14 +59650,14 @@
         <v>131</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="AF101" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG101" s="13"/>
       <c r="AH101" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI101" s="13"/>
       <c r="AJ101" s="13"/>
@@ -59706,7 +59709,7 @@
         <v>378</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X102" s="13"/>
       <c r="Y102" s="13"/>
@@ -59725,7 +59728,7 @@
       </c>
       <c r="AG102" s="13"/>
       <c r="AH102" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI102" s="13"/>
       <c r="AJ102" s="13"/>
@@ -59752,7 +59755,7 @@
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
@@ -59777,7 +59780,7 @@
         <v>378</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X103" s="13"/>
       <c r="Y103" s="13"/>
@@ -59789,14 +59792,14 @@
       </c>
       <c r="AD103" s="13"/>
       <c r="AE103" s="1" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="AF103" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG103" s="13"/>
       <c r="AH103" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI103" s="13"/>
       <c r="AJ103" s="13"/>
@@ -59823,7 +59826,7 @@
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
@@ -59848,7 +59851,7 @@
         <v>378</v>
       </c>
       <c r="W104" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X104" s="13"/>
       <c r="Y104" s="13"/>
@@ -59860,14 +59863,14 @@
       </c>
       <c r="AD104" s="13"/>
       <c r="AE104" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="AF104" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG104" s="13"/>
       <c r="AH104" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI104" s="13"/>
       <c r="AJ104" s="13"/>
@@ -59894,7 +59897,7 @@
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
@@ -59919,7 +59922,7 @@
         <v>378</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X105" s="13"/>
       <c r="Y105" s="13"/>
@@ -59933,14 +59936,14 @@
         <v>651</v>
       </c>
       <c r="AE105" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="AF105" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG105" s="13"/>
       <c r="AH105" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI105" s="13"/>
       <c r="AJ105" s="13"/>
@@ -59968,7 +59971,7 @@
       <c r="M106" s="4"/>
       <c r="AG106" s="13"/>
       <c r="AH106" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI106" s="13"/>
       <c r="AJ106" s="13"/>
@@ -60018,7 +60021,7 @@
         <v>378</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
@@ -60028,14 +60031,14 @@
       <c r="AC107" s="13"/>
       <c r="AD107" s="13"/>
       <c r="AE107" s="1" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="AF107" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG107" s="13"/>
       <c r="AH107" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI107" s="13"/>
       <c r="AJ107" s="13"/>
@@ -60085,7 +60088,7 @@
         <v>378</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X108" s="13"/>
       <c r="Y108" s="13"/>
@@ -60098,11 +60101,11 @@
         <v>76</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="AG108" s="13"/>
       <c r="AH108" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI108" s="13"/>
       <c r="AJ108" s="13"/>
@@ -60129,7 +60132,7 @@
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
@@ -60154,7 +60157,7 @@
         <v>378</v>
       </c>
       <c r="W109" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X109" s="13"/>
       <c r="Y109" s="13"/>
@@ -60162,20 +60165,20 @@
       <c r="AA109" s="13"/>
       <c r="AB109" s="13"/>
       <c r="AC109" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AD109" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="AE109" s="1" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="AF109" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG109" s="13"/>
       <c r="AH109" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI109" s="13"/>
       <c r="AJ109" s="13"/>
@@ -60202,7 +60205,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
@@ -60227,7 +60230,7 @@
         <v>378</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X110" s="13"/>
       <c r="Y110" s="13"/>
@@ -60239,14 +60242,14 @@
       </c>
       <c r="AD110" s="13"/>
       <c r="AE110" s="1" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="AF110" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG110" s="13"/>
       <c r="AH110" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI110" s="13"/>
       <c r="AJ110" s="13"/>
@@ -60296,7 +60299,7 @@
         <v>378</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X111" s="13"/>
       <c r="Y111" s="13"/>
@@ -60306,14 +60309,14 @@
       <c r="AC111" s="13"/>
       <c r="AD111" s="13"/>
       <c r="AE111" s="1" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="AF111" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG111" s="13"/>
       <c r="AH111" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI111" s="13"/>
       <c r="AJ111" s="13"/>
@@ -60363,7 +60366,7 @@
         <v>378</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X112" s="13"/>
       <c r="Y112" s="13"/>
@@ -60372,17 +60375,17 @@
       <c r="AB112" s="13"/>
       <c r="AC112" s="13"/>
       <c r="AD112" s="1" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="AE112" s="1" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="AF112" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG112" s="13"/>
       <c r="AH112" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI112" s="13"/>
       <c r="AJ112" s="13"/>
@@ -60432,7 +60435,7 @@
         <v>378</v>
       </c>
       <c r="W113" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X113" s="13"/>
       <c r="Y113" s="13"/>
@@ -60441,17 +60444,17 @@
       <c r="AB113" s="13"/>
       <c r="AC113" s="13"/>
       <c r="AD113" s="1" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="AE113" s="1" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="AF113" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG113" s="13"/>
       <c r="AH113" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI113" s="13"/>
       <c r="AJ113" s="13"/>
@@ -60478,7 +60481,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
@@ -60503,7 +60506,7 @@
         <v>378</v>
       </c>
       <c r="W114" s="1" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
@@ -60518,7 +60521,7 @@
       <c r="AF114" s="13"/>
       <c r="AG114" s="13"/>
       <c r="AH114" s="14" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AI114" s="13"/>
       <c r="AJ114" s="13"/>
@@ -60573,14 +60576,14 @@
       <c r="X115" s="34"/>
       <c r="Y115" s="34"/>
       <c r="Z115" s="36" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="AA115" s="36" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="AB115" s="34"/>
       <c r="AC115" s="34" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AD115" s="34"/>
       <c r="AE115" s="34"/>
@@ -60743,7 +60746,7 @@
       <c r="K116" s="34"/>
       <c r="L116" s="34"/>
       <c r="M116" s="36" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="N116" s="34"/>
       <c r="O116" s="34"/>
@@ -60776,14 +60779,14 @@
       <c r="X116" s="34"/>
       <c r="Y116" s="34"/>
       <c r="Z116" s="36" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="AA116" s="36" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="AB116" s="34"/>
       <c r="AC116" s="34" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="AD116" s="34"/>
       <c r="AE116" s="34"/>
@@ -60805,7 +60808,7 @@
       <c r="AU116" s="34"/>
       <c r="AV116" s="37"/>
       <c r="AW116" s="37" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="AX116" s="37"/>
       <c r="AY116" s="37"/>
@@ -60979,14 +60982,14 @@
       <c r="X117" s="34"/>
       <c r="Y117" s="34"/>
       <c r="Z117" s="36" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="AA117" s="36" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="AB117" s="34"/>
       <c r="AC117" s="34" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="AD117" s="34"/>
       <c r="AE117" s="34"/>
@@ -61008,7 +61011,7 @@
       <c r="AU117" s="34"/>
       <c r="AV117" s="37"/>
       <c r="AW117" s="37" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="AX117" s="37"/>
       <c r="AY117" s="37"/>
@@ -61137,13 +61140,13 @@
     </row>
     <row r="118" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A118" s="38" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B118" s="39" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
@@ -61159,10 +61162,10 @@
       <c r="M118" s="39"/>
       <c r="N118" s="39"/>
       <c r="O118" s="38" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="P118" s="38" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="Q118" s="40" t="s">
         <v>100</v>
@@ -61200,12 +61203,12 @@
       <c r="AH118" s="39"/>
       <c r="AI118" s="39"/>
       <c r="AJ118" s="38" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="AK118" s="38"/>
       <c r="AL118" s="38"/>
       <c r="AM118" s="38" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="AN118" s="38"/>
       <c r="AO118" s="38" t="s">
@@ -61224,14 +61227,14 @@
         <v>136</v>
       </c>
       <c r="AT118" s="38" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="AU118" s="39" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="AV118" s="39"/>
       <c r="AW118" s="39" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="AX118" s="39"/>
       <c r="AY118" s="39"/>
@@ -61360,13 +61363,13 @@
     </row>
     <row r="119" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A119" s="38" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B119" s="39" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
@@ -61382,10 +61385,10 @@
       <c r="M119" s="39"/>
       <c r="N119" s="39"/>
       <c r="O119" s="38" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="P119" s="38" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="Q119" s="40" t="s">
         <v>772</v>
@@ -61423,12 +61426,12 @@
       <c r="AH119" s="39"/>
       <c r="AI119" s="39"/>
       <c r="AJ119" s="38" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="AK119" s="38"/>
       <c r="AL119" s="38"/>
       <c r="AM119" s="38" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="AN119" s="38"/>
       <c r="AO119" s="38" t="s">
@@ -61447,14 +61450,14 @@
         <v>136</v>
       </c>
       <c r="AT119" s="38" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="AU119" s="39" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="AV119" s="39"/>
       <c r="AW119" s="39" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="AX119" s="39"/>
       <c r="AY119" s="39"/>
@@ -61583,13 +61586,13 @@
     </row>
     <row r="120" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A120" s="38" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B120" s="39" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
@@ -61605,10 +61608,10 @@
       <c r="M120" s="39"/>
       <c r="N120" s="39"/>
       <c r="O120" s="38" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="P120" s="38" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="Q120" s="40" t="s">
         <v>926</v>
@@ -61646,12 +61649,12 @@
       <c r="AH120" s="39"/>
       <c r="AI120" s="39"/>
       <c r="AJ120" s="38" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="AK120" s="38"/>
       <c r="AL120" s="38"/>
       <c r="AM120" s="38" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="AN120" s="38"/>
       <c r="AO120" s="38" t="s">
@@ -61670,14 +61673,14 @@
         <v>136</v>
       </c>
       <c r="AT120" s="38" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="AU120" s="39" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="AV120" s="39"/>
       <c r="AW120" s="39" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="AX120" s="39"/>
       <c r="AY120" s="39"/>
@@ -61806,13 +61809,13 @@
     </row>
     <row r="121" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A121" s="38" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B121" s="39" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="D121" s="38"/>
       <c r="E121" s="38" t="s">
@@ -61828,10 +61831,10 @@
       <c r="M121" s="39"/>
       <c r="N121" s="39"/>
       <c r="O121" s="38" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="P121" s="38" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="Q121" s="40" t="s">
         <v>113</v>
@@ -61869,12 +61872,12 @@
       <c r="AH121" s="39"/>
       <c r="AI121" s="39"/>
       <c r="AJ121" s="38" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="AK121" s="38"/>
       <c r="AL121" s="38"/>
       <c r="AM121" s="38" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="AN121" s="38"/>
       <c r="AO121" s="38" t="s">
@@ -61893,14 +61896,14 @@
         <v>136</v>
       </c>
       <c r="AT121" s="38" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="AU121" s="39" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="AV121" s="39"/>
       <c r="AW121" s="39" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="AX121" s="39"/>
       <c r="AY121" s="39"/>
@@ -62029,13 +62032,13 @@
     </row>
     <row r="122" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A122" s="38" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B122" s="39" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
@@ -62051,10 +62054,10 @@
       <c r="M122" s="39"/>
       <c r="N122" s="39"/>
       <c r="O122" s="38" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="P122" s="38" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="Q122" s="40" t="s">
         <v>926</v>
@@ -62092,12 +62095,12 @@
       <c r="AH122" s="39"/>
       <c r="AI122" s="39"/>
       <c r="AJ122" s="38" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="AK122" s="38"/>
       <c r="AL122" s="38"/>
       <c r="AM122" s="38" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="AN122" s="38"/>
       <c r="AO122" s="38" t="s">
@@ -62116,14 +62119,14 @@
         <v>136</v>
       </c>
       <c r="AT122" s="38" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="AU122" s="39" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="AV122" s="39"/>
       <c r="AW122" s="39" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="AX122" s="39"/>
       <c r="AY122" s="39"/>
@@ -62252,13 +62255,13 @@
     </row>
     <row r="123" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A123" s="32" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B123" s="42" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="D123" s="32"/>
       <c r="E123" s="32" t="s">
@@ -62274,10 +62277,10 @@
       <c r="M123" s="42"/>
       <c r="N123" s="42"/>
       <c r="O123" s="32" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="P123" s="32" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="Q123" s="43" t="s">
         <v>100</v>
@@ -62315,12 +62318,12 @@
       <c r="AH123" s="42"/>
       <c r="AI123" s="42"/>
       <c r="AJ123" s="32" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="AK123" s="32"/>
       <c r="AL123" s="32"/>
       <c r="AM123" s="32" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="AN123" s="32"/>
       <c r="AO123" s="32" t="s">
@@ -62339,14 +62342,14 @@
         <v>136</v>
       </c>
       <c r="AT123" s="32" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="AU123" s="42" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="AV123" s="42"/>
       <c r="AW123" s="42" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="AX123" s="42"/>
       <c r="AY123" s="42"/>
@@ -62475,13 +62478,13 @@
     </row>
     <row r="124" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A124" s="32" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D124" s="32"/>
       <c r="E124" s="32" t="s">
@@ -62497,10 +62500,10 @@
       <c r="M124" s="42"/>
       <c r="N124" s="42"/>
       <c r="O124" s="32" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="P124" s="32" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="Q124" s="43" t="s">
         <v>100</v>
@@ -62538,12 +62541,12 @@
       <c r="AH124" s="42"/>
       <c r="AI124" s="42"/>
       <c r="AJ124" s="32" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="AK124" s="32"/>
       <c r="AL124" s="32"/>
       <c r="AM124" s="32" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="AN124" s="32"/>
       <c r="AO124" s="32" t="s">
@@ -62562,14 +62565,14 @@
         <v>156</v>
       </c>
       <c r="AT124" s="32" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="AU124" s="42" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="AV124" s="42"/>
       <c r="AW124" s="42" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="AX124" s="42"/>
       <c r="AY124" s="42"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VirJenDB\virjendb_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8884B46-FB28-4068-97DD-0AB4A44EF876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F6561FC-0C00-434B-BEA8-4963EBE1F72C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7962945-3ACF-49DB-B8FB-E785F5F91D27}"/>
   </bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5548" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5538" uniqueCount="1732">
   <si>
     <t>VJDBv0.3</t>
   </si>
@@ -4853,15 +4853,6 @@
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>host_imgm_genome_id</t>
-  </si>
-  <si>
-    <t>Host  IMGM Genome ID</t>
-  </si>
-  <si>
-    <t>0ie</t>
   </si>
   <si>
     <t>do not add</t>
@@ -5865,7 +5856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6072,31 +6063,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6116,14 +6087,7 @@
     <xf numFmtId="0" fontId="25" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6479,11 +6443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E033465-2455-477E-A700-6BF7A0771C26}">
-  <dimension ref="A1:GC277"/>
+  <dimension ref="A1:GC218"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW9" sqref="AW9"/>
+      <pane xSplit="1" topLeftCell="AW212" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A218" sqref="A218:XFD218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="23.25" customHeight="1"/>
@@ -7850,14 +7814,14 @@
       </c>
       <c r="O5" s="59"/>
       <c r="P5" s="59"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="99" t="s">
+      <c r="Q5" s="59"/>
+      <c r="R5" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="59" t="s">
         <v>68</v>
       </c>
@@ -8099,16 +8063,14 @@
       </c>
       <c r="O6" s="59"/>
       <c r="P6" s="59"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="99" t="s">
+      <c r="R6" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="S6" s="82"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="84" t="s">
+      <c r="T6" s="59"/>
+      <c r="U6" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="V6" s="84" t="s">
+      <c r="V6" s="60" t="s">
         <v>87</v>
       </c>
       <c r="W6" s="59" t="s">
@@ -8354,14 +8316,11 @@
       </c>
       <c r="O7" s="59"/>
       <c r="P7" s="59"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="84" t="s">
+      <c r="T7" s="59"/>
+      <c r="U7" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="V7" s="84"/>
+      <c r="V7" s="60"/>
       <c r="W7" s="59" t="s">
         <v>68</v>
       </c>
@@ -8600,14 +8559,11 @@
       </c>
       <c r="O8" s="59"/>
       <c r="P8" s="59"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="84" t="s">
+      <c r="T8" s="59"/>
+      <c r="U8" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="V8" s="84" t="s">
+      <c r="V8" s="60" t="s">
         <v>114</v>
       </c>
       <c r="W8" s="59" t="s">
@@ -8854,14 +8810,14 @@
       <c r="P9" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
-      <c r="U9" s="84" t="s">
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="V9" s="84" t="s">
+      <c r="V9" s="60" t="s">
         <v>114</v>
       </c>
       <c r="W9" s="59" t="s">
@@ -9120,14 +9076,14 @@
       <c r="P10" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="84" t="s">
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="V10" s="84" t="s">
+      <c r="V10" s="60" t="s">
         <v>114</v>
       </c>
       <c r="W10" s="59" t="s">
@@ -9346,104 +9302,104 @@
       <c r="GC10"/>
     </row>
     <row r="11" spans="1:185" s="48" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81" t="s">
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84" t="s">
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="W11" s="81" t="s">
+      <c r="W11" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="X11" s="81" t="s">
+      <c r="X11" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="Y11" s="81"/>
+      <c r="Y11" s="59"/>
       <c r="Z11" s="59" t="str">
         <f t="shared" si="2"/>
         <v>["NCBI Virus", "Sample", "Sequence"]</v>
       </c>
-      <c r="AA11" s="81" t="s">
+      <c r="AA11" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AB11" s="82" t="s">
+      <c r="AB11" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="81" t="s">
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="AF11" s="81" t="s">
+      <c r="AF11" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="AG11" s="81"/>
-      <c r="AH11" s="81"/>
-      <c r="AI11" s="81"/>
-      <c r="AJ11" s="81"/>
-      <c r="AK11" s="81"/>
-      <c r="AL11" s="81"/>
-      <c r="AM11" s="81"/>
-      <c r="AN11" s="81"/>
-      <c r="AO11" s="81"/>
-      <c r="AP11" s="81"/>
-      <c r="AQ11" s="81"/>
-      <c r="AR11" s="81"/>
-      <c r="AS11" s="81"/>
-      <c r="AT11" s="81"/>
-      <c r="AU11" s="81"/>
-      <c r="AV11" s="81"/>
-      <c r="AW11" s="85"/>
-      <c r="AX11" s="81"/>
-      <c r="AY11" s="82" t="s">
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="59"/>
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="59"/>
+      <c r="AO11" s="59"/>
+      <c r="AP11" s="59"/>
+      <c r="AQ11" s="59"/>
+      <c r="AR11" s="59"/>
+      <c r="AS11" s="59"/>
+      <c r="AT11" s="59"/>
+      <c r="AU11" s="59"/>
+      <c r="AV11" s="59"/>
+      <c r="AW11" s="61"/>
+      <c r="AX11" s="59"/>
+      <c r="AY11" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="AZ11" s="82" t="s">
+      <c r="AZ11" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="BA11" s="82" t="s">
+      <c r="BA11" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="BB11" s="81"/>
-      <c r="BC11" s="80" t="s">
+      <c r="BB11" s="59"/>
+      <c r="BC11" t="s">
         <v>92</v>
       </c>
-      <c r="BD11" s="80" t="s">
+      <c r="BD11" t="s">
         <v>158</v>
       </c>
-      <c r="BE11" s="80"/>
+      <c r="BE11"/>
       <c r="BF11"/>
       <c r="BG11"/>
       <c r="BH11"/>
@@ -9604,12 +9560,12 @@
       <c r="N12" s="59"/>
       <c r="O12" s="59"/>
       <c r="P12" s="59"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84" t="s">
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60" t="s">
         <v>146</v>
       </c>
       <c r="W12" s="59" t="s">
@@ -9836,12 +9792,12 @@
       </c>
       <c r="O13" s="59"/>
       <c r="P13" s="59"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84" t="s">
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60" t="s">
         <v>146</v>
       </c>
       <c r="W13" s="59" t="s">
@@ -10074,10 +10030,10 @@
       <c r="N14" s="59"/>
       <c r="O14" s="59"/>
       <c r="P14" s="59"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
       <c r="U14" s="60"/>
       <c r="V14" s="60" t="s">
         <v>146</v>
@@ -10320,10 +10276,10 @@
       <c r="P15" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
       <c r="U15" s="60" t="s">
         <v>113</v>
       </c>
@@ -10578,10 +10534,10 @@
       <c r="P16" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="81"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
       <c r="U16" s="60" t="s">
         <v>113</v>
       </c>
@@ -10836,16 +10792,16 @@
       </c>
       <c r="O17" s="59"/>
       <c r="P17" s="59"/>
-      <c r="Q17" s="89" t="s">
+      <c r="Q17" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="R17" s="89" t="s">
+      <c r="R17" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="S17" s="89" t="s">
+      <c r="S17" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="T17" s="81"/>
+      <c r="T17" s="59"/>
       <c r="U17" s="60"/>
       <c r="V17" s="60" t="s">
         <v>146</v>
@@ -11088,10 +11044,10 @@
       <c r="N18" s="59"/>
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
       <c r="U18" s="60"/>
       <c r="V18" s="60" t="s">
         <v>146</v>
@@ -11326,10 +11282,10 @@
       <c r="N19" s="59"/>
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
       <c r="U19" s="60"/>
       <c r="V19" s="60" t="s">
         <v>146</v>
@@ -11530,88 +11486,84 @@
       <c r="GC19"/>
     </row>
     <row r="20" spans="1:185" s="48" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="59" t="s">
         <v>266</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84" t="s">
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="W20" s="81" t="s">
+      <c r="W20" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="X20" s="82"/>
-      <c r="Y20" s="80" t="s">
+      <c r="Y20" t="s">
         <v>232</v>
       </c>
       <c r="Z20" s="59" t="str">
         <f t="shared" si="2"/>
         <v>["Sample", "Workflows"]</v>
       </c>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="82"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="81"/>
-      <c r="AF20" s="81"/>
-      <c r="AG20" s="81"/>
-      <c r="AH20" s="81"/>
-      <c r="AI20" s="81"/>
-      <c r="AJ20" s="81"/>
-      <c r="AK20" s="81"/>
-      <c r="AL20" s="81"/>
-      <c r="AM20" s="81"/>
-      <c r="AN20" s="81"/>
-      <c r="AO20" s="81"/>
-      <c r="AP20" s="81"/>
-      <c r="AQ20" s="81"/>
-      <c r="AR20" s="81"/>
-      <c r="AS20" s="81"/>
-      <c r="AT20" s="81"/>
-      <c r="AU20" s="81"/>
-      <c r="AV20" s="81"/>
-      <c r="AW20" s="81"/>
-      <c r="AX20" s="81"/>
-      <c r="AY20" s="82"/>
-      <c r="AZ20" s="82"/>
-      <c r="BA20" s="82" t="s">
+      <c r="AA20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="59"/>
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="59"/>
+      <c r="AO20" s="59"/>
+      <c r="AP20" s="59"/>
+      <c r="AQ20" s="59"/>
+      <c r="AR20" s="59"/>
+      <c r="AS20" s="59"/>
+      <c r="AT20" s="59"/>
+      <c r="AU20" s="59"/>
+      <c r="AV20" s="59"/>
+      <c r="AW20" s="59"/>
+      <c r="AX20" s="59"/>
+      <c r="BA20" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="BB20" s="81"/>
-      <c r="BC20" s="80" t="s">
+      <c r="BB20" s="59"/>
+      <c r="BC20" t="s">
         <v>92</v>
       </c>
-      <c r="BD20" s="80" t="s">
+      <c r="BD20" t="s">
         <v>138</v>
       </c>
-      <c r="BE20" s="80"/>
+      <c r="BE20"/>
       <c r="BF20"/>
       <c r="BG20"/>
       <c r="BH20"/>
@@ -11770,12 +11722,12 @@
       <c r="N21" s="59"/>
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="99" t="s">
+      <c r="Q21" s="59"/>
+      <c r="R21" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
       <c r="U21" s="60"/>
       <c r="V21" s="60" t="s">
         <v>146</v>
@@ -12010,10 +11962,10 @@
       <c r="N22" s="59"/>
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
       <c r="U22" s="60"/>
       <c r="V22" s="60" t="s">
         <v>283</v>
@@ -12249,10 +12201,10 @@
       <c r="N23" s="59"/>
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
       <c r="U23" s="60"/>
       <c r="V23" s="60" t="s">
         <v>146</v>
@@ -12485,10 +12437,10 @@
       <c r="N24" s="59"/>
       <c r="O24" s="59"/>
       <c r="P24" s="59"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
       <c r="U24" s="60"/>
       <c r="V24" s="60" t="s">
         <v>146</v>
@@ -12721,10 +12673,10 @@
       </c>
       <c r="O25" s="59"/>
       <c r="P25" s="59"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="81"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
       <c r="U25" s="60"/>
       <c r="V25" s="60" t="s">
         <v>146</v>
@@ -12959,10 +12911,10 @@
       <c r="N26" s="59"/>
       <c r="O26" s="59"/>
       <c r="P26" s="59"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="81"/>
-      <c r="T26" s="81"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
       <c r="U26" s="60"/>
       <c r="V26" s="60" t="s">
         <v>283</v>
@@ -13204,10 +13156,10 @@
       <c r="P27" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
       <c r="U27" s="60" t="s">
         <v>113</v>
       </c>
@@ -13422,110 +13374,110 @@
       <c r="GC27"/>
     </row>
     <row r="28" spans="1:185" s="48" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="48" t="s">
         <v>340</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="81" t="s">
+      <c r="E28" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81" t="s">
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="84" t="s">
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="W28" s="81" t="s">
+      <c r="W28" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="X28" s="81" t="s">
+      <c r="X28" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="Y28" s="81"/>
+      <c r="Y28" s="59"/>
       <c r="Z28" s="59" t="str">
         <f t="shared" si="2"/>
         <v>["NCBI Virus", "Sample", "Collection"]</v>
       </c>
-      <c r="AA28" s="81" t="s">
+      <c r="AA28" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AB28" s="82" t="s">
+      <c r="AB28" s="48" t="s">
         <v>343</v>
       </c>
-      <c r="AC28" s="81" t="s">
+      <c r="AC28" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="81" t="s">
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="AF28" s="81" t="s">
+      <c r="AF28" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="AG28" s="81"/>
-      <c r="AH28" s="81" t="s">
+      <c r="AG28" s="59"/>
+      <c r="AH28" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="AI28" s="81"/>
-      <c r="AJ28" s="81"/>
-      <c r="AK28" s="81"/>
-      <c r="AL28" s="81"/>
-      <c r="AM28" s="81"/>
-      <c r="AN28" s="81"/>
-      <c r="AO28" s="81"/>
-      <c r="AP28" s="81"/>
-      <c r="AQ28" s="81"/>
-      <c r="AR28" s="81"/>
-      <c r="AS28" s="81"/>
-      <c r="AT28" s="81"/>
-      <c r="AU28" s="81"/>
-      <c r="AV28" s="81"/>
-      <c r="AW28" s="85" t="s">
+      <c r="AI28" s="59"/>
+      <c r="AJ28" s="59"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="59"/>
+      <c r="AO28" s="59"/>
+      <c r="AP28" s="59"/>
+      <c r="AQ28" s="59"/>
+      <c r="AR28" s="59"/>
+      <c r="AS28" s="59"/>
+      <c r="AT28" s="59"/>
+      <c r="AU28" s="59"/>
+      <c r="AV28" s="59"/>
+      <c r="AW28" s="61" t="s">
         <v>347</v>
       </c>
-      <c r="AX28" s="81" t="s">
+      <c r="AX28" s="59" t="s">
         <v>348</v>
       </c>
-      <c r="AY28" s="82" t="s">
+      <c r="AY28" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="AZ28" s="82" t="s">
+      <c r="AZ28" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="BA28" s="82" t="s">
+      <c r="BA28" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="BB28" s="81"/>
-      <c r="BC28" s="80" t="s">
+      <c r="BB28" s="59"/>
+      <c r="BC28" t="s">
         <v>92</v>
       </c>
-      <c r="BD28" s="80" t="s">
+      <c r="BD28" t="s">
         <v>80</v>
       </c>
-      <c r="BE28" s="80"/>
+      <c r="BE28"/>
       <c r="BF28"/>
       <c r="BG28"/>
       <c r="BH28"/>
@@ -13686,10 +13638,10 @@
       <c r="N29" s="59"/>
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="81"/>
-      <c r="T29" s="81"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
       <c r="U29" s="60" t="s">
         <v>86</v>
       </c>
@@ -13915,14 +13867,14 @@
       <c r="N30" s="59"/>
       <c r="O30" s="59"/>
       <c r="P30" s="59"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="81"/>
-      <c r="S30" s="81"/>
-      <c r="T30" s="81"/>
-      <c r="U30" s="84" t="s">
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="V30" s="84" t="s">
+      <c r="V30" s="60" t="s">
         <v>87</v>
       </c>
       <c r="W30" s="63" t="s">
@@ -14147,14 +14099,14 @@
       <c r="N31" s="59"/>
       <c r="O31" s="59"/>
       <c r="P31" s="59"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="81"/>
-      <c r="T31" s="81"/>
-      <c r="U31" s="84" t="s">
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="V31" s="84" t="s">
+      <c r="V31" s="60" t="s">
         <v>87</v>
       </c>
       <c r="W31" s="63" t="s">
@@ -14385,14 +14337,14 @@
       </c>
       <c r="O32" s="59"/>
       <c r="P32" s="59"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="81"/>
-      <c r="S32" s="81"/>
-      <c r="T32" s="81"/>
-      <c r="U32" s="84" t="s">
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="V32" s="84" t="s">
+      <c r="V32" s="60" t="s">
         <v>87</v>
       </c>
       <c r="W32" s="63" t="s">
@@ -14629,14 +14581,14 @@
       <c r="N33" s="59"/>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="81"/>
-      <c r="S33" s="81"/>
-      <c r="T33" s="81"/>
-      <c r="U33" s="84" t="s">
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="V33" s="84" t="s">
+      <c r="V33" s="60" t="s">
         <v>87</v>
       </c>
       <c r="W33" s="63" t="s">
@@ -14867,10 +14819,10 @@
       </c>
       <c r="O34" s="59"/>
       <c r="P34" s="59"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="81"/>
-      <c r="S34" s="81"/>
-      <c r="T34" s="81"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
       <c r="U34" s="60"/>
       <c r="V34" s="60" t="s">
         <v>146</v>
@@ -15105,10 +15057,10 @@
       <c r="P35" s="59" t="s">
         <v>402</v>
       </c>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="81"/>
-      <c r="T35" s="81"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
       <c r="U35" s="60" t="s">
         <v>113</v>
       </c>
@@ -15349,10 +15301,10 @@
       <c r="P36" s="59" t="s">
         <v>410</v>
       </c>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="81"/>
-      <c r="T36" s="81"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
       <c r="U36" s="60" t="s">
         <v>113</v>
       </c>
@@ -15597,10 +15549,10 @@
       <c r="P37" s="59" t="s">
         <v>419</v>
       </c>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
       <c r="U37" s="60" t="s">
         <v>113</v>
       </c>
@@ -15845,10 +15797,10 @@
       <c r="P38" s="59" t="s">
         <v>429</v>
       </c>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="81"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
       <c r="U38" s="60" t="s">
         <v>113</v>
       </c>
@@ -16085,10 +16037,10 @@
       <c r="N39" s="59"/>
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="81"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
       <c r="U39" s="60"/>
       <c r="V39" s="60" t="s">
         <v>146</v>
@@ -16323,10 +16275,10 @@
       <c r="P40" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
-      <c r="T40" s="81"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
       <c r="U40" s="60" t="s">
         <v>113</v>
       </c>
@@ -16565,10 +16517,10 @@
       <c r="P41" s="59" t="s">
         <v>454</v>
       </c>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="81"/>
-      <c r="S41" s="81"/>
-      <c r="T41" s="81"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
       <c r="U41" s="60" t="s">
         <v>113</v>
       </c>
@@ -16811,10 +16763,10 @@
       <c r="P42" s="59" t="s">
         <v>461</v>
       </c>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="81"/>
-      <c r="S42" s="81"/>
-      <c r="T42" s="81"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
       <c r="U42" s="60" t="s">
         <v>113</v>
       </c>
@@ -17049,10 +17001,10 @@
       <c r="N43" s="59"/>
       <c r="O43" s="59"/>
       <c r="P43" s="59"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
-      <c r="S43" s="81"/>
-      <c r="T43" s="81"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="59"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="59"/>
       <c r="U43" s="60"/>
       <c r="V43" s="60" t="s">
         <v>146</v>
@@ -17278,10 +17230,10 @@
       <c r="P44" s="59" t="s">
         <v>473</v>
       </c>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="81"/>
-      <c r="S44" s="81"/>
-      <c r="T44" s="81"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
       <c r="U44" s="60" t="s">
         <v>113</v>
       </c>
@@ -17520,10 +17472,10 @@
       <c r="N45" s="59"/>
       <c r="O45" s="59"/>
       <c r="P45" s="59"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="81"/>
-      <c r="S45" s="81"/>
-      <c r="T45" s="81"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="59"/>
       <c r="U45" s="60"/>
       <c r="V45" s="60" t="s">
         <v>146</v>
@@ -17750,10 +17702,10 @@
       <c r="P46" s="59" t="s">
         <v>485</v>
       </c>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="81"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="59"/>
+      <c r="S46" s="59"/>
+      <c r="T46" s="59"/>
       <c r="U46" s="60" t="s">
         <v>113</v>
       </c>
@@ -17992,10 +17944,10 @@
       <c r="N47" s="59"/>
       <c r="O47" s="59"/>
       <c r="P47" s="59"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="81"/>
-      <c r="T47" s="81"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="59"/>
+      <c r="S47" s="59"/>
+      <c r="T47" s="59"/>
       <c r="U47" s="60"/>
       <c r="V47" s="60" t="s">
         <v>146</v>
@@ -18228,10 +18180,10 @@
       </c>
       <c r="O48" s="59"/>
       <c r="P48" s="59"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="81"/>
-      <c r="S48" s="81"/>
-      <c r="T48" s="81"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="59"/>
+      <c r="S48" s="59"/>
+      <c r="T48" s="59"/>
       <c r="U48" s="60"/>
       <c r="V48" s="60" t="s">
         <v>146</v>
@@ -18466,10 +18418,10 @@
       <c r="P49" s="59" t="s">
         <v>505</v>
       </c>
-      <c r="Q49" s="81"/>
-      <c r="R49" s="81"/>
-      <c r="S49" s="81"/>
-      <c r="T49" s="81"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="59"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="59"/>
       <c r="U49" s="60" t="s">
         <v>113</v>
       </c>
@@ -18706,12 +18658,12 @@
       </c>
       <c r="O50" s="59"/>
       <c r="P50" s="59"/>
-      <c r="Q50" s="81"/>
-      <c r="R50" s="81"/>
-      <c r="S50" s="81"/>
-      <c r="T50" s="81"/>
-      <c r="U50" s="84"/>
-      <c r="V50" s="84" t="s">
+      <c r="Q50" s="59"/>
+      <c r="R50" s="59"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="59"/>
+      <c r="U50" s="60"/>
+      <c r="V50" s="60" t="s">
         <v>146</v>
       </c>
       <c r="W50" s="59" t="s">
@@ -18939,12 +18891,12 @@
       <c r="N51" s="59"/>
       <c r="O51" s="59"/>
       <c r="P51" s="59"/>
-      <c r="Q51" s="81"/>
-      <c r="R51" s="81"/>
-      <c r="S51" s="81"/>
-      <c r="T51" s="81"/>
-      <c r="U51" s="84"/>
-      <c r="V51" s="84" t="s">
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="59"/>
+      <c r="U51" s="60"/>
+      <c r="V51" s="60" t="s">
         <v>146</v>
       </c>
       <c r="W51" s="59" t="s">
@@ -19166,12 +19118,12 @@
       <c r="N52" s="59"/>
       <c r="O52" s="59"/>
       <c r="P52" s="59"/>
-      <c r="Q52" s="81"/>
-      <c r="R52" s="81"/>
-      <c r="S52" s="81"/>
-      <c r="T52" s="81"/>
-      <c r="U52" s="84"/>
-      <c r="V52" s="84" t="s">
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="59"/>
+      <c r="U52" s="60"/>
+      <c r="V52" s="60" t="s">
         <v>146</v>
       </c>
       <c r="W52" s="59" t="s">
@@ -19405,10 +19357,10 @@
       <c r="P53" s="59" t="s">
         <v>532</v>
       </c>
-      <c r="Q53" s="81"/>
-      <c r="R53" s="81"/>
-      <c r="S53" s="81"/>
-      <c r="T53" s="81"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="59"/>
       <c r="U53" s="60" t="s">
         <v>113</v>
       </c>
@@ -19659,16 +19611,16 @@
       <c r="P54" s="59" t="s">
         <v>514</v>
       </c>
-      <c r="Q54" s="89" t="s">
+      <c r="Q54" s="54" t="s">
         <v>540</v>
       </c>
-      <c r="R54" s="89" t="s">
+      <c r="R54" s="54" t="s">
         <v>540</v>
       </c>
-      <c r="S54" s="89" t="s">
+      <c r="S54" s="54" t="s">
         <v>540</v>
       </c>
-      <c r="T54" s="81"/>
+      <c r="T54" s="59"/>
       <c r="U54" s="60" t="s">
         <v>113</v>
       </c>
@@ -19913,10 +19865,10 @@
       <c r="P55" s="59" t="s">
         <v>553</v>
       </c>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="81"/>
-      <c r="S55" s="81"/>
-      <c r="T55" s="81"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="59"/>
+      <c r="S55" s="59"/>
+      <c r="T55" s="59"/>
       <c r="U55" s="60" t="s">
         <v>113</v>
       </c>
@@ -20163,10 +20115,10 @@
       <c r="P56" s="59" t="s">
         <v>561</v>
       </c>
-      <c r="Q56" s="81"/>
-      <c r="R56" s="81"/>
-      <c r="S56" s="81"/>
-      <c r="T56" s="81"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="59"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="59"/>
       <c r="U56" s="60" t="s">
         <v>113</v>
       </c>
@@ -20402,10 +20354,10 @@
         <v>568</v>
       </c>
       <c r="P57" s="59"/>
-      <c r="Q57" s="81"/>
-      <c r="R57" s="81"/>
-      <c r="S57" s="81"/>
-      <c r="T57" s="81"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="59"/>
+      <c r="T57" s="59"/>
       <c r="U57" s="60" t="s">
         <v>113</v>
       </c>
@@ -20642,10 +20594,10 @@
         <v>576</v>
       </c>
       <c r="P58" s="59"/>
-      <c r="Q58" s="81"/>
-      <c r="R58" s="81"/>
-      <c r="S58" s="81"/>
-      <c r="T58" s="81"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="59"/>
+      <c r="S58" s="59"/>
+      <c r="T58" s="59"/>
       <c r="U58" s="60" t="s">
         <v>113</v>
       </c>
@@ -20884,10 +20836,10 @@
         <v>585</v>
       </c>
       <c r="P59" s="59"/>
-      <c r="Q59" s="81"/>
-      <c r="R59" s="81"/>
-      <c r="S59" s="81"/>
-      <c r="T59" s="81"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="59"/>
+      <c r="S59" s="59"/>
+      <c r="T59" s="59"/>
       <c r="U59" s="60" t="s">
         <v>113</v>
       </c>
@@ -21118,12 +21070,12 @@
       <c r="N60" s="59"/>
       <c r="O60" s="59"/>
       <c r="P60" s="59"/>
-      <c r="Q60" s="81"/>
-      <c r="R60" s="81"/>
-      <c r="S60" s="81"/>
-      <c r="T60" s="81"/>
-      <c r="U60" s="84"/>
-      <c r="V60" s="84" t="s">
+      <c r="Q60" s="59"/>
+      <c r="R60" s="59"/>
+      <c r="S60" s="59"/>
+      <c r="T60" s="59"/>
+      <c r="U60" s="60"/>
+      <c r="V60" s="60" t="s">
         <v>146</v>
       </c>
       <c r="W60" s="59" t="s">
@@ -21344,10 +21296,10 @@
         <v>597</v>
       </c>
       <c r="P61" s="59"/>
-      <c r="Q61" s="81"/>
-      <c r="R61" s="81"/>
-      <c r="S61" s="81"/>
-      <c r="T61" s="81"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="59"/>
+      <c r="S61" s="59"/>
+      <c r="T61" s="59"/>
       <c r="U61" s="60" t="s">
         <v>113</v>
       </c>
@@ -21584,10 +21536,10 @@
         <v>605</v>
       </c>
       <c r="P62" s="59"/>
-      <c r="Q62" s="81"/>
-      <c r="R62" s="81"/>
-      <c r="S62" s="81"/>
-      <c r="T62" s="81"/>
+      <c r="Q62" s="59"/>
+      <c r="R62" s="59"/>
+      <c r="S62" s="59"/>
+      <c r="T62" s="59"/>
       <c r="U62" s="60" t="s">
         <v>113</v>
       </c>
@@ -21824,10 +21776,10 @@
       </c>
       <c r="O63" s="59"/>
       <c r="P63" s="59"/>
-      <c r="Q63" s="81"/>
-      <c r="R63" s="81"/>
-      <c r="S63" s="81"/>
-      <c r="T63" s="81"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="59"/>
+      <c r="S63" s="59"/>
+      <c r="T63" s="59"/>
       <c r="U63" s="60"/>
       <c r="V63" s="60" t="s">
         <v>146</v>
@@ -22056,10 +22008,10 @@
       <c r="N64" s="59"/>
       <c r="O64" s="59"/>
       <c r="P64" s="59"/>
-      <c r="Q64" s="81"/>
-      <c r="R64" s="81"/>
-      <c r="S64" s="81"/>
-      <c r="T64" s="81"/>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="59"/>
+      <c r="S64" s="59"/>
+      <c r="T64" s="59"/>
       <c r="U64" s="60"/>
       <c r="V64" s="60" t="s">
         <v>146</v>
@@ -22285,10 +22237,10 @@
       <c r="P65" s="59" t="s">
         <v>628</v>
       </c>
-      <c r="Q65" s="81"/>
-      <c r="R65" s="81"/>
-      <c r="S65" s="81"/>
-      <c r="T65" s="81"/>
+      <c r="Q65" s="59"/>
+      <c r="R65" s="59"/>
+      <c r="S65" s="59"/>
+      <c r="T65" s="59"/>
       <c r="U65" s="60" t="s">
         <v>113</v>
       </c>
@@ -22527,10 +22479,10 @@
       <c r="N66" s="59"/>
       <c r="O66" s="59"/>
       <c r="P66" s="59"/>
-      <c r="Q66" s="81"/>
-      <c r="R66" s="81"/>
-      <c r="S66" s="81"/>
-      <c r="T66" s="81"/>
+      <c r="Q66" s="59"/>
+      <c r="R66" s="59"/>
+      <c r="S66" s="59"/>
+      <c r="T66" s="59"/>
       <c r="U66" s="60"/>
       <c r="V66" s="60" t="s">
         <v>146</v>
@@ -22752,10 +22704,10 @@
       <c r="N67" s="59"/>
       <c r="O67" s="59"/>
       <c r="P67" s="59"/>
-      <c r="Q67" s="81"/>
-      <c r="R67" s="81"/>
-      <c r="S67" s="81"/>
-      <c r="T67" s="81"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="59"/>
+      <c r="S67" s="59"/>
+      <c r="T67" s="59"/>
       <c r="U67" s="60"/>
       <c r="V67" s="60" t="s">
         <v>146</v>
@@ -22991,16 +22943,16 @@
       <c r="P68" s="59" t="s">
         <v>649</v>
       </c>
-      <c r="Q68" s="89" t="s">
+      <c r="Q68" s="54" t="s">
         <v>641</v>
       </c>
-      <c r="R68" s="89" t="s">
+      <c r="R68" s="54" t="s">
         <v>641</v>
       </c>
-      <c r="S68" s="89" t="s">
+      <c r="S68" s="54" t="s">
         <v>641</v>
       </c>
-      <c r="T68" s="89" t="s">
+      <c r="T68" s="54" t="s">
         <v>650</v>
       </c>
       <c r="U68" s="60" t="s">
@@ -23259,10 +23211,10 @@
       <c r="P69" s="59" t="s">
         <v>662</v>
       </c>
-      <c r="Q69" s="81"/>
-      <c r="R69" s="81"/>
-      <c r="S69" s="81"/>
-      <c r="T69" s="81"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="59"/>
+      <c r="S69" s="59"/>
+      <c r="T69" s="59"/>
       <c r="U69" s="60" t="s">
         <v>113</v>
       </c>
@@ -23501,12 +23453,12 @@
       <c r="N70" s="59"/>
       <c r="O70" s="59"/>
       <c r="P70" s="59"/>
-      <c r="Q70" s="81"/>
-      <c r="R70" s="81"/>
-      <c r="S70" s="81"/>
-      <c r="T70" s="81"/>
-      <c r="U70" s="84"/>
-      <c r="V70" s="84" t="s">
+      <c r="Q70" s="59"/>
+      <c r="R70" s="59"/>
+      <c r="S70" s="59"/>
+      <c r="T70" s="59"/>
+      <c r="U70" s="60"/>
+      <c r="V70" s="60" t="s">
         <v>146</v>
       </c>
       <c r="W70" s="63" t="s">
@@ -23737,10 +23689,6 @@
       <c r="G71" s="48" t="s">
         <v>682</v>
       </c>
-      <c r="Q71" s="82"/>
-      <c r="R71" s="82"/>
-      <c r="S71" s="82"/>
-      <c r="T71" s="82"/>
       <c r="U71" s="51"/>
       <c r="V71" s="51" t="s">
         <v>146</v>
@@ -23945,10 +23893,10 @@
       </c>
       <c r="O72" s="59"/>
       <c r="P72" s="59"/>
-      <c r="Q72" s="81"/>
-      <c r="R72" s="81"/>
-      <c r="S72" s="81"/>
-      <c r="T72" s="81"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="59"/>
+      <c r="S72" s="59"/>
+      <c r="T72" s="59"/>
       <c r="U72" s="60"/>
       <c r="V72" s="60" t="s">
         <v>146</v>
@@ -24191,10 +24139,10 @@
       </c>
       <c r="O73" s="59"/>
       <c r="P73" s="59"/>
-      <c r="Q73" s="81"/>
-      <c r="R73" s="81"/>
-      <c r="S73" s="81"/>
-      <c r="T73" s="81"/>
+      <c r="Q73" s="59"/>
+      <c r="R73" s="59"/>
+      <c r="S73" s="59"/>
+      <c r="T73" s="59"/>
       <c r="U73" s="60"/>
       <c r="V73" s="60" t="s">
         <v>146</v>
@@ -24429,12 +24377,12 @@
       <c r="N74" s="59"/>
       <c r="O74" s="59"/>
       <c r="P74" s="59"/>
-      <c r="Q74" s="81"/>
-      <c r="R74" s="81"/>
-      <c r="S74" s="81"/>
-      <c r="T74" s="81"/>
-      <c r="U74" s="84"/>
-      <c r="V74" s="84" t="s">
+      <c r="Q74" s="59"/>
+      <c r="R74" s="59"/>
+      <c r="S74" s="59"/>
+      <c r="T74" s="59"/>
+      <c r="U74" s="60"/>
+      <c r="V74" s="60" t="s">
         <v>146</v>
       </c>
       <c r="W74" s="63" t="s">
@@ -24659,10 +24607,10 @@
       </c>
       <c r="O75" s="59"/>
       <c r="P75" s="59"/>
-      <c r="Q75" s="81"/>
-      <c r="R75" s="81"/>
-      <c r="S75" s="81"/>
-      <c r="T75" s="81"/>
+      <c r="Q75" s="59"/>
+      <c r="R75" s="59"/>
+      <c r="S75" s="59"/>
+      <c r="T75" s="59"/>
       <c r="U75" s="60"/>
       <c r="V75" s="60" t="s">
         <v>146</v>
@@ -24896,12 +24844,12 @@
       <c r="N76" s="59"/>
       <c r="O76" s="59"/>
       <c r="P76" s="59"/>
-      <c r="Q76" s="81"/>
-      <c r="R76" s="81"/>
-      <c r="S76" s="81"/>
-      <c r="T76" s="81"/>
-      <c r="U76" s="84"/>
-      <c r="V76" s="84" t="s">
+      <c r="Q76" s="59"/>
+      <c r="R76" s="59"/>
+      <c r="S76" s="59"/>
+      <c r="T76" s="59"/>
+      <c r="U76" s="60"/>
+      <c r="V76" s="60" t="s">
         <v>146</v>
       </c>
       <c r="W76" s="63" t="s">
@@ -25128,10 +25076,10 @@
       <c r="N77" s="59"/>
       <c r="O77" s="59"/>
       <c r="P77" s="59"/>
-      <c r="Q77" s="81"/>
-      <c r="R77" s="81"/>
-      <c r="S77" s="81"/>
-      <c r="T77" s="81"/>
+      <c r="Q77" s="59"/>
+      <c r="R77" s="59"/>
+      <c r="S77" s="59"/>
+      <c r="T77" s="59"/>
       <c r="U77" s="60"/>
       <c r="V77" s="60" t="s">
         <v>146</v>
@@ -25361,10 +25309,10 @@
       </c>
       <c r="O78" s="59"/>
       <c r="P78" s="59"/>
-      <c r="Q78" s="81"/>
-      <c r="R78" s="81"/>
-      <c r="S78" s="81"/>
-      <c r="T78" s="81"/>
+      <c r="Q78" s="59"/>
+      <c r="R78" s="59"/>
+      <c r="S78" s="59"/>
+      <c r="T78" s="59"/>
       <c r="U78" s="60"/>
       <c r="V78" s="60" t="s">
         <v>146</v>
@@ -25594,10 +25542,10 @@
       </c>
       <c r="O79" s="59"/>
       <c r="P79" s="59"/>
-      <c r="Q79" s="81"/>
-      <c r="R79" s="81"/>
-      <c r="S79" s="81"/>
-      <c r="T79" s="81"/>
+      <c r="Q79" s="59"/>
+      <c r="R79" s="59"/>
+      <c r="S79" s="59"/>
+      <c r="T79" s="59"/>
       <c r="U79" s="60"/>
       <c r="V79" s="60" t="s">
         <v>146</v>
@@ -25833,12 +25781,12 @@
       <c r="N80" s="59"/>
       <c r="O80" s="59"/>
       <c r="P80" s="59"/>
-      <c r="Q80" s="81"/>
-      <c r="R80" s="81"/>
-      <c r="S80" s="81"/>
-      <c r="T80" s="81"/>
-      <c r="U80" s="84"/>
-      <c r="V80" s="84" t="s">
+      <c r="Q80" s="59"/>
+      <c r="R80" s="59"/>
+      <c r="S80" s="59"/>
+      <c r="T80" s="59"/>
+      <c r="U80" s="60"/>
+      <c r="V80" s="60" t="s">
         <v>146</v>
       </c>
       <c r="W80" s="63" t="s">
@@ -26063,10 +26011,10 @@
       </c>
       <c r="O81" s="59"/>
       <c r="P81" s="59"/>
-      <c r="Q81" s="81"/>
-      <c r="R81" s="81"/>
-      <c r="S81" s="81"/>
-      <c r="T81" s="81"/>
+      <c r="Q81" s="59"/>
+      <c r="R81" s="59"/>
+      <c r="S81" s="59"/>
+      <c r="T81" s="59"/>
       <c r="U81" s="60"/>
       <c r="V81" s="60" t="s">
         <v>146</v>
@@ -26303,10 +26251,10 @@
       <c r="P82" s="59" t="s">
         <v>771</v>
       </c>
-      <c r="Q82" s="81"/>
-      <c r="R82" s="81"/>
-      <c r="S82" s="81"/>
-      <c r="T82" s="81"/>
+      <c r="Q82" s="59"/>
+      <c r="R82" s="59"/>
+      <c r="S82" s="59"/>
+      <c r="T82" s="59"/>
       <c r="U82" s="60" t="s">
         <v>772</v>
       </c>
@@ -26546,10 +26494,10 @@
       <c r="P83" s="59" t="s">
         <v>781</v>
       </c>
-      <c r="Q83" s="81"/>
-      <c r="R83" s="81"/>
-      <c r="S83" s="81"/>
-      <c r="T83" s="81"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="59"/>
+      <c r="S83" s="59"/>
+      <c r="T83" s="59"/>
       <c r="U83" s="60" t="s">
         <v>772</v>
       </c>
@@ -26791,10 +26739,10 @@
       <c r="P84" s="59" t="s">
         <v>789</v>
       </c>
-      <c r="Q84" s="81"/>
-      <c r="R84" s="81"/>
-      <c r="S84" s="81"/>
-      <c r="T84" s="81"/>
+      <c r="Q84" s="59"/>
+      <c r="R84" s="59"/>
+      <c r="S84" s="59"/>
+      <c r="T84" s="59"/>
       <c r="U84" s="60" t="s">
         <v>772</v>
       </c>
@@ -27034,10 +26982,10 @@
       <c r="P85" s="59" t="s">
         <v>795</v>
       </c>
-      <c r="Q85" s="81"/>
-      <c r="R85" s="81"/>
-      <c r="S85" s="81"/>
-      <c r="T85" s="81"/>
+      <c r="Q85" s="59"/>
+      <c r="R85" s="59"/>
+      <c r="S85" s="59"/>
+      <c r="T85" s="59"/>
       <c r="U85" s="60" t="s">
         <v>772</v>
       </c>
@@ -27279,10 +27227,10 @@
       <c r="P86" s="59" t="s">
         <v>802</v>
       </c>
-      <c r="Q86" s="81"/>
-      <c r="R86" s="81"/>
-      <c r="S86" s="81"/>
-      <c r="T86" s="81"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="59"/>
+      <c r="S86" s="59"/>
+      <c r="T86" s="59"/>
       <c r="U86" s="60" t="s">
         <v>772</v>
       </c>
@@ -27524,10 +27472,10 @@
       <c r="P87" s="59" t="s">
         <v>811</v>
       </c>
-      <c r="Q87" s="81"/>
-      <c r="R87" s="81"/>
-      <c r="S87" s="81"/>
-      <c r="T87" s="81"/>
+      <c r="Q87" s="59"/>
+      <c r="R87" s="59"/>
+      <c r="S87" s="59"/>
+      <c r="T87" s="59"/>
       <c r="U87" s="60" t="s">
         <v>772</v>
       </c>
@@ -27771,10 +27719,10 @@
       <c r="P88" s="59" t="s">
         <v>819</v>
       </c>
-      <c r="Q88" s="81"/>
-      <c r="R88" s="81"/>
-      <c r="S88" s="81"/>
-      <c r="T88" s="81"/>
+      <c r="Q88" s="59"/>
+      <c r="R88" s="59"/>
+      <c r="S88" s="59"/>
+      <c r="T88" s="59"/>
       <c r="U88" s="60" t="s">
         <v>772</v>
       </c>
@@ -28016,10 +27964,10 @@
       <c r="P89" s="59" t="s">
         <v>827</v>
       </c>
-      <c r="Q89" s="81"/>
-      <c r="R89" s="81"/>
-      <c r="S89" s="81"/>
-      <c r="T89" s="81"/>
+      <c r="Q89" s="59"/>
+      <c r="R89" s="59"/>
+      <c r="S89" s="59"/>
+      <c r="T89" s="59"/>
       <c r="U89" s="60" t="s">
         <v>772</v>
       </c>
@@ -28263,10 +28211,10 @@
       <c r="P90" s="59" t="s">
         <v>836</v>
       </c>
-      <c r="Q90" s="81"/>
-      <c r="R90" s="81"/>
-      <c r="S90" s="81"/>
-      <c r="T90" s="81"/>
+      <c r="Q90" s="59"/>
+      <c r="R90" s="59"/>
+      <c r="S90" s="59"/>
+      <c r="T90" s="59"/>
       <c r="U90" s="60" t="s">
         <v>772</v>
       </c>
@@ -28512,10 +28460,10 @@
       <c r="P91" s="59" t="s">
         <v>846</v>
       </c>
-      <c r="Q91" s="81"/>
-      <c r="R91" s="81"/>
-      <c r="S91" s="81"/>
-      <c r="T91" s="81"/>
+      <c r="Q91" s="59"/>
+      <c r="R91" s="59"/>
+      <c r="S91" s="59"/>
+      <c r="T91" s="59"/>
       <c r="U91" s="60" t="s">
         <v>772</v>
       </c>
@@ -28764,12 +28712,12 @@
       <c r="N92" s="59"/>
       <c r="O92" s="59"/>
       <c r="P92" s="59"/>
-      <c r="Q92" s="81"/>
-      <c r="R92" s="81"/>
-      <c r="S92" s="81"/>
-      <c r="T92" s="81"/>
-      <c r="U92" s="84"/>
-      <c r="V92" s="84" t="s">
+      <c r="Q92" s="59"/>
+      <c r="R92" s="59"/>
+      <c r="S92" s="59"/>
+      <c r="T92" s="59"/>
+      <c r="U92" s="60"/>
+      <c r="V92" s="60" t="s">
         <v>146</v>
       </c>
       <c r="W92" s="63" t="s">
@@ -28996,10 +28944,10 @@
       <c r="N93" s="59"/>
       <c r="O93" s="59"/>
       <c r="P93" s="59"/>
-      <c r="Q93" s="81"/>
-      <c r="R93" s="81"/>
-      <c r="S93" s="81"/>
-      <c r="T93" s="81"/>
+      <c r="Q93" s="59"/>
+      <c r="R93" s="59"/>
+      <c r="S93" s="59"/>
+      <c r="T93" s="59"/>
       <c r="U93" s="60"/>
       <c r="V93" s="60" t="s">
         <v>146</v>
@@ -29222,10 +29170,10 @@
       <c r="N94" s="59"/>
       <c r="O94" s="59"/>
       <c r="P94" s="59"/>
-      <c r="Q94" s="81"/>
-      <c r="R94" s="81"/>
-      <c r="S94" s="81"/>
-      <c r="T94" s="81"/>
+      <c r="Q94" s="59"/>
+      <c r="R94" s="59"/>
+      <c r="S94" s="59"/>
+      <c r="T94" s="59"/>
       <c r="U94" s="60"/>
       <c r="V94" s="60" t="s">
         <v>283</v>
@@ -29448,10 +29396,10 @@
       <c r="N95" s="59"/>
       <c r="O95" s="59"/>
       <c r="P95" s="59"/>
-      <c r="Q95" s="81"/>
-      <c r="R95" s="81"/>
-      <c r="S95" s="81"/>
-      <c r="T95" s="81"/>
+      <c r="Q95" s="59"/>
+      <c r="R95" s="59"/>
+      <c r="S95" s="59"/>
+      <c r="T95" s="59"/>
       <c r="U95" s="60"/>
       <c r="V95" s="60" t="s">
         <v>146</v>
@@ -29676,10 +29624,10 @@
       <c r="N96" s="59"/>
       <c r="O96" s="59"/>
       <c r="P96" s="59"/>
-      <c r="Q96" s="81"/>
-      <c r="R96" s="81"/>
-      <c r="S96" s="81"/>
-      <c r="T96" s="81"/>
+      <c r="Q96" s="59"/>
+      <c r="R96" s="59"/>
+      <c r="S96" s="59"/>
+      <c r="T96" s="59"/>
       <c r="U96" s="60"/>
       <c r="V96" s="60" t="s">
         <v>146</v>
@@ -29904,10 +29852,10 @@
       <c r="N97" s="59"/>
       <c r="O97" s="59"/>
       <c r="P97" s="59"/>
-      <c r="Q97" s="81"/>
-      <c r="R97" s="81"/>
-      <c r="S97" s="81"/>
-      <c r="T97" s="81"/>
+      <c r="Q97" s="59"/>
+      <c r="R97" s="59"/>
+      <c r="S97" s="59"/>
+      <c r="T97" s="59"/>
       <c r="U97" s="60"/>
       <c r="V97" s="60"/>
       <c r="W97" s="59" t="s">
@@ -30129,14 +30077,14 @@
       <c r="P98" s="59" t="s">
         <v>888</v>
       </c>
-      <c r="Q98" s="81"/>
-      <c r="R98" s="81"/>
-      <c r="S98" s="81"/>
-      <c r="T98" s="81"/>
-      <c r="U98" s="84" t="s">
+      <c r="Q98" s="59"/>
+      <c r="R98" s="59"/>
+      <c r="S98" s="59"/>
+      <c r="T98" s="59"/>
+      <c r="U98" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="V98" s="84" t="s">
+      <c r="V98" s="60" t="s">
         <v>114</v>
       </c>
       <c r="W98" s="59" t="s">
@@ -30365,11 +30313,11 @@
         <v>895</v>
       </c>
       <c r="P99" s="59"/>
-      <c r="Q99" s="81"/>
-      <c r="R99" s="81"/>
-      <c r="S99" s="81"/>
-      <c r="T99" s="81"/>
-      <c r="U99" s="102" t="s">
+      <c r="Q99" s="59"/>
+      <c r="R99" s="59"/>
+      <c r="S99" s="59"/>
+      <c r="T99" s="59"/>
+      <c r="U99" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V99" s="65" t="s">
@@ -30597,11 +30545,11 @@
         <v>902</v>
       </c>
       <c r="P100" s="59"/>
-      <c r="Q100" s="81"/>
-      <c r="R100" s="81"/>
-      <c r="S100" s="81"/>
-      <c r="T100" s="81"/>
-      <c r="U100" s="102" t="s">
+      <c r="Q100" s="59"/>
+      <c r="R100" s="59"/>
+      <c r="S100" s="59"/>
+      <c r="T100" s="59"/>
+      <c r="U100" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V100" s="65" t="s">
@@ -30829,11 +30777,11 @@
         <v>910</v>
       </c>
       <c r="P101" s="59"/>
-      <c r="Q101" s="81"/>
-      <c r="R101" s="81"/>
-      <c r="S101" s="81"/>
-      <c r="T101" s="81"/>
-      <c r="U101" s="102" t="s">
+      <c r="Q101" s="59"/>
+      <c r="R101" s="59"/>
+      <c r="S101" s="59"/>
+      <c r="T101" s="59"/>
+      <c r="U101" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V101" s="65" t="s">
@@ -31061,11 +31009,11 @@
         <v>918</v>
       </c>
       <c r="P102" s="59"/>
-      <c r="Q102" s="81"/>
-      <c r="R102" s="81"/>
-      <c r="S102" s="81"/>
-      <c r="T102" s="81"/>
-      <c r="U102" s="102" t="s">
+      <c r="Q102" s="59"/>
+      <c r="R102" s="59"/>
+      <c r="S102" s="59"/>
+      <c r="T102" s="59"/>
+      <c r="U102" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V102" s="65" t="s">
@@ -31295,11 +31243,11 @@
       <c r="P103" s="59" t="s">
         <v>923</v>
       </c>
-      <c r="Q103" s="81"/>
-      <c r="R103" s="81"/>
-      <c r="S103" s="81"/>
-      <c r="T103" s="81"/>
-      <c r="U103" s="102" t="s">
+      <c r="Q103" s="59"/>
+      <c r="R103" s="59"/>
+      <c r="S103" s="59"/>
+      <c r="T103" s="59"/>
+      <c r="U103" s="91" t="s">
         <v>926</v>
       </c>
       <c r="V103" s="65" t="s">
@@ -31529,11 +31477,11 @@
       <c r="P104" s="59" t="s">
         <v>931</v>
       </c>
-      <c r="Q104" s="81"/>
-      <c r="R104" s="81"/>
-      <c r="S104" s="81"/>
-      <c r="T104" s="81"/>
-      <c r="U104" s="102" t="s">
+      <c r="Q104" s="59"/>
+      <c r="R104" s="59"/>
+      <c r="S104" s="59"/>
+      <c r="T104" s="59"/>
+      <c r="U104" s="91" t="s">
         <v>926</v>
       </c>
       <c r="V104" s="65" t="s">
@@ -31763,11 +31711,11 @@
       <c r="P105" s="59" t="s">
         <v>936</v>
       </c>
-      <c r="Q105" s="81"/>
-      <c r="R105" s="81"/>
-      <c r="S105" s="81"/>
-      <c r="T105" s="81"/>
-      <c r="U105" s="102" t="s">
+      <c r="Q105" s="59"/>
+      <c r="R105" s="59"/>
+      <c r="S105" s="59"/>
+      <c r="T105" s="59"/>
+      <c r="U105" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V105" s="65" t="s">
@@ -32001,11 +31949,11 @@
       <c r="P106" s="59" t="s">
         <v>943</v>
       </c>
-      <c r="Q106" s="81"/>
-      <c r="R106" s="81"/>
-      <c r="S106" s="81"/>
-      <c r="T106" s="81"/>
-      <c r="U106" s="102" t="s">
+      <c r="Q106" s="59"/>
+      <c r="R106" s="59"/>
+      <c r="S106" s="59"/>
+      <c r="T106" s="59"/>
+      <c r="U106" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V106" s="65" t="s">
@@ -32239,11 +32187,11 @@
       <c r="P107" s="59" t="s">
         <v>952</v>
       </c>
-      <c r="Q107" s="81"/>
-      <c r="R107" s="81"/>
-      <c r="S107" s="81"/>
-      <c r="T107" s="81"/>
-      <c r="U107" s="102" t="s">
+      <c r="Q107" s="59"/>
+      <c r="R107" s="59"/>
+      <c r="S107" s="59"/>
+      <c r="T107" s="59"/>
+      <c r="U107" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V107" s="65" t="s">
@@ -32475,11 +32423,11 @@
       <c r="P108" s="59" t="s">
         <v>959</v>
       </c>
-      <c r="Q108" s="81"/>
-      <c r="R108" s="81"/>
-      <c r="S108" s="81"/>
-      <c r="T108" s="81"/>
-      <c r="U108" s="102" t="s">
+      <c r="Q108" s="59"/>
+      <c r="R108" s="59"/>
+      <c r="S108" s="59"/>
+      <c r="T108" s="59"/>
+      <c r="U108" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V108" s="65" t="s">
@@ -32711,11 +32659,11 @@
         <v>966</v>
       </c>
       <c r="P109" s="59"/>
-      <c r="Q109" s="81"/>
-      <c r="R109" s="81"/>
-      <c r="S109" s="81"/>
-      <c r="T109" s="81"/>
-      <c r="U109" s="102" t="s">
+      <c r="Q109" s="59"/>
+      <c r="R109" s="59"/>
+      <c r="S109" s="59"/>
+      <c r="T109" s="59"/>
+      <c r="U109" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V109" s="65" t="s">
@@ -32945,11 +32893,11 @@
       <c r="P110" s="59" t="s">
         <v>492</v>
       </c>
-      <c r="Q110" s="81"/>
-      <c r="R110" s="81"/>
-      <c r="S110" s="81"/>
-      <c r="T110" s="81"/>
-      <c r="U110" s="102" t="s">
+      <c r="Q110" s="59"/>
+      <c r="R110" s="59"/>
+      <c r="S110" s="59"/>
+      <c r="T110" s="59"/>
+      <c r="U110" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V110" s="65" t="s">
@@ -33181,11 +33129,11 @@
         <v>980</v>
       </c>
       <c r="P111" s="59"/>
-      <c r="Q111" s="81"/>
-      <c r="R111" s="81"/>
-      <c r="S111" s="81"/>
-      <c r="T111" s="81"/>
-      <c r="U111" s="102" t="s">
+      <c r="Q111" s="59"/>
+      <c r="R111" s="59"/>
+      <c r="S111" s="59"/>
+      <c r="T111" s="59"/>
+      <c r="U111" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V111" s="65" t="s">
@@ -33413,11 +33361,11 @@
         <v>987</v>
       </c>
       <c r="P112" s="59"/>
-      <c r="Q112" s="81"/>
-      <c r="R112" s="81"/>
-      <c r="S112" s="81"/>
-      <c r="T112" s="81"/>
-      <c r="U112" s="102" t="s">
+      <c r="Q112" s="59"/>
+      <c r="R112" s="59"/>
+      <c r="S112" s="59"/>
+      <c r="T112" s="59"/>
+      <c r="U112" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V112" s="65" t="s">
@@ -33645,11 +33593,11 @@
         <v>994</v>
       </c>
       <c r="P113" s="59"/>
-      <c r="Q113" s="81"/>
-      <c r="R113" s="81"/>
-      <c r="S113" s="81"/>
-      <c r="T113" s="81"/>
-      <c r="U113" s="102" t="s">
+      <c r="Q113" s="59"/>
+      <c r="R113" s="59"/>
+      <c r="S113" s="59"/>
+      <c r="T113" s="59"/>
+      <c r="U113" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V113" s="65" t="s">
@@ -33877,11 +33825,11 @@
         <v>1001</v>
       </c>
       <c r="P114" s="59"/>
-      <c r="Q114" s="81"/>
-      <c r="R114" s="81"/>
-      <c r="S114" s="81"/>
-      <c r="T114" s="81"/>
-      <c r="U114" s="102" t="s">
+      <c r="Q114" s="59"/>
+      <c r="R114" s="59"/>
+      <c r="S114" s="59"/>
+      <c r="T114" s="59"/>
+      <c r="U114" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V114" s="65" t="s">
@@ -34109,11 +34057,11 @@
         <v>1007</v>
       </c>
       <c r="P115" s="59"/>
-      <c r="Q115" s="81"/>
-      <c r="R115" s="81"/>
-      <c r="S115" s="81"/>
-      <c r="T115" s="81"/>
-      <c r="U115" s="102" t="s">
+      <c r="Q115" s="59"/>
+      <c r="R115" s="59"/>
+      <c r="S115" s="59"/>
+      <c r="T115" s="59"/>
+      <c r="U115" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V115" s="65" t="s">
@@ -34339,11 +34287,11 @@
         <v>1013</v>
       </c>
       <c r="P116" s="59"/>
-      <c r="Q116" s="81"/>
-      <c r="R116" s="81"/>
-      <c r="S116" s="81"/>
-      <c r="T116" s="81"/>
-      <c r="U116" s="102" t="s">
+      <c r="Q116" s="59"/>
+      <c r="R116" s="59"/>
+      <c r="S116" s="59"/>
+      <c r="T116" s="59"/>
+      <c r="U116" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V116" s="65" t="s">
@@ -34569,11 +34517,11 @@
         <v>1019</v>
       </c>
       <c r="P117" s="59"/>
-      <c r="Q117" s="81"/>
-      <c r="R117" s="81"/>
-      <c r="S117" s="81"/>
-      <c r="T117" s="81"/>
-      <c r="U117" s="102" t="s">
+      <c r="Q117" s="59"/>
+      <c r="R117" s="59"/>
+      <c r="S117" s="59"/>
+      <c r="T117" s="59"/>
+      <c r="U117" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V117" s="65" t="s">
@@ -34799,11 +34747,11 @@
         <v>1025</v>
       </c>
       <c r="P118" s="59"/>
-      <c r="Q118" s="81"/>
-      <c r="R118" s="81"/>
-      <c r="S118" s="81"/>
-      <c r="T118" s="81"/>
-      <c r="U118" s="102" t="s">
+      <c r="Q118" s="59"/>
+      <c r="R118" s="59"/>
+      <c r="S118" s="59"/>
+      <c r="T118" s="59"/>
+      <c r="U118" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V118" s="65" t="s">
@@ -35029,11 +34977,11 @@
         <v>1031</v>
       </c>
       <c r="P119" s="59"/>
-      <c r="Q119" s="81"/>
-      <c r="R119" s="81"/>
-      <c r="S119" s="81"/>
-      <c r="T119" s="81"/>
-      <c r="U119" s="102" t="s">
+      <c r="Q119" s="59"/>
+      <c r="R119" s="59"/>
+      <c r="S119" s="59"/>
+      <c r="T119" s="59"/>
+      <c r="U119" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V119" s="65" t="s">
@@ -35259,11 +35207,11 @@
         <v>1037</v>
       </c>
       <c r="P120" s="59"/>
-      <c r="Q120" s="81"/>
-      <c r="R120" s="81"/>
-      <c r="S120" s="81"/>
-      <c r="T120" s="81"/>
-      <c r="U120" s="102" t="s">
+      <c r="Q120" s="59"/>
+      <c r="R120" s="59"/>
+      <c r="S120" s="59"/>
+      <c r="T120" s="59"/>
+      <c r="U120" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V120" s="65" t="s">
@@ -35493,11 +35441,11 @@
       <c r="P121" s="59" t="s">
         <v>1043</v>
       </c>
-      <c r="Q121" s="81"/>
-      <c r="R121" s="81"/>
-      <c r="S121" s="81"/>
-      <c r="T121" s="81"/>
-      <c r="U121" s="102" t="s">
+      <c r="Q121" s="59"/>
+      <c r="R121" s="59"/>
+      <c r="S121" s="59"/>
+      <c r="T121" s="59"/>
+      <c r="U121" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V121" s="65" t="s">
@@ -35731,11 +35679,11 @@
       <c r="P122" s="59" t="s">
         <v>853</v>
       </c>
-      <c r="Q122" s="81"/>
-      <c r="R122" s="81"/>
-      <c r="S122" s="81"/>
-      <c r="T122" s="81"/>
-      <c r="U122" s="102" t="s">
+      <c r="Q122" s="59"/>
+      <c r="R122" s="59"/>
+      <c r="S122" s="59"/>
+      <c r="T122" s="59"/>
+      <c r="U122" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V122" s="65" t="s">
@@ -35969,11 +35917,11 @@
       <c r="P123" s="59" t="s">
         <v>1057</v>
       </c>
-      <c r="Q123" s="81"/>
-      <c r="R123" s="81"/>
-      <c r="S123" s="81"/>
-      <c r="T123" s="81"/>
-      <c r="U123" s="102" t="s">
+      <c r="Q123" s="59"/>
+      <c r="R123" s="59"/>
+      <c r="S123" s="59"/>
+      <c r="T123" s="59"/>
+      <c r="U123" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V123" s="65" t="s">
@@ -36205,11 +36153,11 @@
       <c r="P124" s="59" t="s">
         <v>1061</v>
       </c>
-      <c r="Q124" s="81"/>
-      <c r="R124" s="81"/>
-      <c r="S124" s="81"/>
-      <c r="T124" s="81"/>
-      <c r="U124" s="102" t="s">
+      <c r="Q124" s="59"/>
+      <c r="R124" s="59"/>
+      <c r="S124" s="59"/>
+      <c r="T124" s="59"/>
+      <c r="U124" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V124" s="65" t="s">
@@ -36439,11 +36387,11 @@
         <v>1069</v>
       </c>
       <c r="P125" s="59"/>
-      <c r="Q125" s="81"/>
-      <c r="R125" s="81"/>
-      <c r="S125" s="81"/>
-      <c r="T125" s="81"/>
-      <c r="U125" s="102" t="s">
+      <c r="Q125" s="59"/>
+      <c r="R125" s="59"/>
+      <c r="S125" s="59"/>
+      <c r="T125" s="59"/>
+      <c r="U125" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V125" s="65" t="s">
@@ -36675,11 +36623,11 @@
       <c r="P126" s="59" t="s">
         <v>1073</v>
       </c>
-      <c r="Q126" s="81"/>
-      <c r="R126" s="81"/>
-      <c r="S126" s="81"/>
-      <c r="T126" s="81"/>
-      <c r="U126" s="102" t="s">
+      <c r="Q126" s="59"/>
+      <c r="R126" s="59"/>
+      <c r="S126" s="59"/>
+      <c r="T126" s="59"/>
+      <c r="U126" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V126" s="65" t="s">
@@ -36915,11 +36863,11 @@
       <c r="P127" s="59" t="s">
         <v>1078</v>
       </c>
-      <c r="Q127" s="81"/>
-      <c r="R127" s="81"/>
-      <c r="S127" s="81"/>
-      <c r="T127" s="81"/>
-      <c r="U127" s="102" t="s">
+      <c r="Q127" s="59"/>
+      <c r="R127" s="59"/>
+      <c r="S127" s="59"/>
+      <c r="T127" s="59"/>
+      <c r="U127" s="91" t="s">
         <v>100</v>
       </c>
       <c r="V127" s="65" t="s">
@@ -37151,11 +37099,11 @@
       <c r="P128" s="59" t="s">
         <v>1087</v>
       </c>
-      <c r="Q128" s="81"/>
-      <c r="R128" s="81"/>
-      <c r="S128" s="81"/>
-      <c r="T128" s="81"/>
-      <c r="U128" s="102" t="s">
+      <c r="Q128" s="59"/>
+      <c r="R128" s="59"/>
+      <c r="S128" s="59"/>
+      <c r="T128" s="59"/>
+      <c r="U128" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V128" s="65" t="s">
@@ -37389,11 +37337,11 @@
       <c r="P129" s="59" t="s">
         <v>1094</v>
       </c>
-      <c r="Q129" s="81"/>
-      <c r="R129" s="81"/>
-      <c r="S129" s="81"/>
-      <c r="T129" s="81"/>
-      <c r="U129" s="102" t="s">
+      <c r="Q129" s="59"/>
+      <c r="R129" s="59"/>
+      <c r="S129" s="59"/>
+      <c r="T129" s="59"/>
+      <c r="U129" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V129" s="65" t="s">
@@ -37627,11 +37575,11 @@
       <c r="P130" s="59" t="s">
         <v>1103</v>
       </c>
-      <c r="Q130" s="81"/>
-      <c r="R130" s="81"/>
-      <c r="S130" s="81"/>
-      <c r="T130" s="81"/>
-      <c r="U130" s="102" t="s">
+      <c r="Q130" s="59"/>
+      <c r="R130" s="59"/>
+      <c r="S130" s="59"/>
+      <c r="T130" s="59"/>
+      <c r="U130" s="91" t="s">
         <v>100</v>
       </c>
       <c r="V130" s="65" t="s">
@@ -37863,11 +37811,11 @@
       <c r="P131" s="59" t="s">
         <v>1103</v>
       </c>
-      <c r="Q131" s="81"/>
-      <c r="R131" s="81"/>
-      <c r="S131" s="81"/>
-      <c r="T131" s="81"/>
-      <c r="U131" s="102" t="s">
+      <c r="Q131" s="59"/>
+      <c r="R131" s="59"/>
+      <c r="S131" s="59"/>
+      <c r="T131" s="59"/>
+      <c r="U131" s="91" t="s">
         <v>772</v>
       </c>
       <c r="V131" s="65" t="s">
@@ -38099,11 +38047,11 @@
       <c r="P132" s="59" t="s">
         <v>1103</v>
       </c>
-      <c r="Q132" s="81"/>
-      <c r="R132" s="81"/>
-      <c r="S132" s="81"/>
-      <c r="T132" s="81"/>
-      <c r="U132" s="102" t="s">
+      <c r="Q132" s="59"/>
+      <c r="R132" s="59"/>
+      <c r="S132" s="59"/>
+      <c r="T132" s="59"/>
+      <c r="U132" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V132" s="65" t="s">
@@ -38335,11 +38283,11 @@
       <c r="P133" s="59" t="s">
         <v>1120</v>
       </c>
-      <c r="Q133" s="81"/>
-      <c r="R133" s="81"/>
-      <c r="S133" s="81"/>
-      <c r="T133" s="81"/>
-      <c r="U133" s="102" t="s">
+      <c r="Q133" s="59"/>
+      <c r="R133" s="59"/>
+      <c r="S133" s="59"/>
+      <c r="T133" s="59"/>
+      <c r="U133" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V133" s="65" t="s">
@@ -38571,11 +38519,11 @@
         <v>1128</v>
       </c>
       <c r="P134" s="59"/>
-      <c r="Q134" s="81"/>
-      <c r="R134" s="81"/>
-      <c r="S134" s="81"/>
-      <c r="T134" s="81"/>
-      <c r="U134" s="102" t="s">
+      <c r="Q134" s="59"/>
+      <c r="R134" s="59"/>
+      <c r="S134" s="59"/>
+      <c r="T134" s="59"/>
+      <c r="U134" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V134" s="65" t="s">
@@ -38812,11 +38760,11 @@
         <v>1135</v>
       </c>
       <c r="P135" s="59"/>
-      <c r="Q135" s="81"/>
-      <c r="R135" s="81"/>
-      <c r="S135" s="81"/>
-      <c r="T135" s="81"/>
-      <c r="U135" s="102" t="s">
+      <c r="Q135" s="59"/>
+      <c r="R135" s="59"/>
+      <c r="S135" s="59"/>
+      <c r="T135" s="59"/>
+      <c r="U135" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V135" s="65" t="s">
@@ -39042,11 +38990,11 @@
         <v>1141</v>
       </c>
       <c r="P136" s="59"/>
-      <c r="Q136" s="81"/>
-      <c r="R136" s="81"/>
-      <c r="S136" s="81"/>
-      <c r="T136" s="81"/>
-      <c r="U136" s="102" t="s">
+      <c r="Q136" s="59"/>
+      <c r="R136" s="59"/>
+      <c r="S136" s="59"/>
+      <c r="T136" s="59"/>
+      <c r="U136" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V136" s="65" t="s">
@@ -39272,11 +39220,11 @@
         <v>1147</v>
       </c>
       <c r="P137" s="59"/>
-      <c r="Q137" s="81"/>
-      <c r="R137" s="81"/>
-      <c r="S137" s="81"/>
-      <c r="T137" s="81"/>
-      <c r="U137" s="102" t="s">
+      <c r="Q137" s="59"/>
+      <c r="R137" s="59"/>
+      <c r="S137" s="59"/>
+      <c r="T137" s="59"/>
+      <c r="U137" s="91" t="s">
         <v>113</v>
       </c>
       <c r="V137" s="65" t="s">
@@ -39502,12 +39450,12 @@
       <c r="N138" s="63"/>
       <c r="O138" s="63"/>
       <c r="P138" s="63"/>
-      <c r="Q138" s="87"/>
-      <c r="R138" s="87"/>
-      <c r="S138" s="87"/>
-      <c r="T138" s="87"/>
-      <c r="U138" s="87"/>
-      <c r="V138" s="87"/>
+      <c r="Q138" s="63"/>
+      <c r="R138" s="63"/>
+      <c r="S138" s="63"/>
+      <c r="T138" s="63"/>
+      <c r="U138" s="63"/>
+      <c r="V138" s="63"/>
       <c r="W138" s="63" t="s">
         <v>125</v>
       </c>
@@ -39714,10 +39662,10 @@
       <c r="N139" s="63"/>
       <c r="O139" s="63"/>
       <c r="P139" s="63"/>
-      <c r="Q139" s="87"/>
-      <c r="R139" s="87"/>
-      <c r="S139" s="87"/>
-      <c r="T139" s="87"/>
+      <c r="Q139" s="63"/>
+      <c r="R139" s="63"/>
+      <c r="S139" s="63"/>
+      <c r="T139" s="63"/>
       <c r="U139" s="63"/>
       <c r="V139" s="63"/>
       <c r="W139" s="63" t="s">
@@ -39926,12 +39874,12 @@
       <c r="N140" s="63"/>
       <c r="O140" s="63"/>
       <c r="P140" s="63"/>
-      <c r="Q140" s="87"/>
-      <c r="R140" s="87"/>
-      <c r="S140" s="87"/>
-      <c r="T140" s="87"/>
-      <c r="U140" s="87"/>
-      <c r="V140" s="87"/>
+      <c r="Q140" s="63"/>
+      <c r="R140" s="63"/>
+      <c r="S140" s="63"/>
+      <c r="T140" s="63"/>
+      <c r="U140" s="63"/>
+      <c r="V140" s="63"/>
       <c r="W140" s="63" t="s">
         <v>361</v>
       </c>
@@ -40138,10 +40086,10 @@
       <c r="N141" s="63"/>
       <c r="O141" s="63"/>
       <c r="P141" s="63"/>
-      <c r="Q141" s="87"/>
-      <c r="R141" s="87"/>
-      <c r="S141" s="87"/>
-      <c r="T141" s="87"/>
+      <c r="Q141" s="63"/>
+      <c r="R141" s="63"/>
+      <c r="S141" s="63"/>
+      <c r="T141" s="63"/>
       <c r="U141" s="63"/>
       <c r="V141" s="63"/>
       <c r="W141" s="63" t="s">
@@ -40350,10 +40298,10 @@
       <c r="N142" s="63"/>
       <c r="O142" s="63"/>
       <c r="P142" s="63"/>
-      <c r="Q142" s="87"/>
-      <c r="R142" s="87"/>
-      <c r="S142" s="87"/>
-      <c r="T142" s="87"/>
+      <c r="Q142" s="63"/>
+      <c r="R142" s="63"/>
+      <c r="S142" s="63"/>
+      <c r="T142" s="63"/>
       <c r="U142" s="63"/>
       <c r="V142" s="63"/>
       <c r="W142" s="63" t="s">
@@ -40560,16 +40508,16 @@
       <c r="N143" s="63"/>
       <c r="O143" s="63"/>
       <c r="P143" s="63"/>
-      <c r="Q143" s="89" t="s">
+      <c r="Q143" s="54" t="s">
         <v>1170</v>
       </c>
-      <c r="R143" s="89" t="s">
+      <c r="R143" s="54" t="s">
         <v>1170</v>
       </c>
-      <c r="S143" s="89" t="s">
+      <c r="S143" s="54" t="s">
         <v>1170</v>
       </c>
-      <c r="T143" s="87"/>
+      <c r="T143" s="63"/>
       <c r="U143" s="63"/>
       <c r="V143" s="63"/>
       <c r="W143" s="59" t="s">
@@ -40784,14 +40732,14 @@
       <c r="N144" s="63"/>
       <c r="O144" s="63"/>
       <c r="P144" s="63"/>
-      <c r="Q144" s="87"/>
-      <c r="R144" s="99" t="s">
+      <c r="Q144" s="63"/>
+      <c r="R144" s="90" t="s">
         <v>1178</v>
       </c>
-      <c r="S144" s="87"/>
-      <c r="T144" s="87"/>
-      <c r="U144" s="87"/>
-      <c r="V144" s="87"/>
+      <c r="S144" s="63"/>
+      <c r="T144" s="63"/>
+      <c r="U144" s="63"/>
+      <c r="V144" s="63"/>
       <c r="W144" s="59" t="s">
         <v>651</v>
       </c>
@@ -41004,16 +40952,16 @@
       <c r="N145" s="63"/>
       <c r="O145" s="63"/>
       <c r="P145" s="63"/>
-      <c r="Q145" s="89" t="s">
+      <c r="Q145" s="54" t="s">
         <v>1183</v>
       </c>
-      <c r="R145" s="89" t="s">
+      <c r="R145" s="54" t="s">
         <v>1183</v>
       </c>
-      <c r="S145" s="89" t="s">
+      <c r="S145" s="54" t="s">
         <v>1183</v>
       </c>
-      <c r="T145" s="87"/>
+      <c r="T145" s="63"/>
       <c r="U145" s="63"/>
       <c r="V145" s="63"/>
       <c r="W145" s="59" t="s">
@@ -41201,7 +41149,7 @@
       <c r="GB145"/>
       <c r="GC145"/>
     </row>
-    <row r="146" spans="1:185" s="96" customFormat="1" ht="26.25" customHeight="1">
+    <row r="146" spans="1:185" s="88" customFormat="1" ht="26.25" customHeight="1">
       <c r="A146" s="63" t="s">
         <v>1188</v>
       </c>
@@ -41228,14 +41176,14 @@
       <c r="N146" s="63"/>
       <c r="O146" s="63"/>
       <c r="P146" s="63"/>
-      <c r="Q146" s="87"/>
-      <c r="R146" s="99" t="s">
+      <c r="Q146" s="63"/>
+      <c r="R146" s="90" t="s">
         <v>1188</v>
       </c>
-      <c r="S146" s="87"/>
-      <c r="T146" s="87"/>
-      <c r="U146" s="87"/>
-      <c r="V146" s="87"/>
+      <c r="S146" s="63"/>
+      <c r="T146" s="63"/>
+      <c r="U146" s="63"/>
+      <c r="V146" s="63"/>
       <c r="W146" s="59" t="s">
         <v>651</v>
       </c>
@@ -41296,130 +41244,130 @@
       <c r="BG146"/>
       <c r="BH146"/>
       <c r="BI146"/>
-      <c r="BJ146" s="95"/>
-      <c r="BK146" s="95"/>
-      <c r="BL146" s="95"/>
-      <c r="BM146" s="95"/>
-      <c r="BN146" s="95"/>
-      <c r="BO146" s="95"/>
-      <c r="BP146" s="95"/>
-      <c r="BQ146" s="95"/>
-      <c r="BR146" s="95"/>
-      <c r="BS146" s="95"/>
-      <c r="BT146" s="95"/>
-      <c r="BU146" s="95"/>
-      <c r="BV146" s="95"/>
-      <c r="BW146" s="95"/>
-      <c r="BX146" s="95"/>
-      <c r="BY146" s="95"/>
-      <c r="BZ146" s="95"/>
-      <c r="CA146" s="95"/>
-      <c r="CB146" s="95"/>
-      <c r="CC146" s="95"/>
-      <c r="CD146" s="95"/>
-      <c r="CE146" s="95"/>
-      <c r="CF146" s="95"/>
-      <c r="CG146" s="95"/>
-      <c r="CH146" s="95"/>
-      <c r="CI146" s="95"/>
-      <c r="CJ146" s="95"/>
-      <c r="CK146" s="95"/>
-      <c r="CL146" s="95"/>
-      <c r="CM146" s="95"/>
-      <c r="CN146" s="95"/>
-      <c r="CO146" s="95"/>
-      <c r="CP146" s="95"/>
-      <c r="CQ146" s="95"/>
-      <c r="CR146" s="95"/>
-      <c r="CS146" s="95"/>
-      <c r="CT146" s="95"/>
-      <c r="CU146" s="95"/>
-      <c r="CV146" s="95"/>
-      <c r="CW146" s="95"/>
-      <c r="CX146" s="95"/>
-      <c r="CY146" s="95"/>
-      <c r="CZ146" s="95"/>
-      <c r="DA146" s="95"/>
-      <c r="DB146" s="95"/>
-      <c r="DC146" s="95"/>
-      <c r="DD146" s="95"/>
-      <c r="DE146" s="95"/>
-      <c r="DF146" s="95"/>
-      <c r="DG146" s="95"/>
-      <c r="DH146" s="95"/>
-      <c r="DI146" s="95"/>
-      <c r="DJ146" s="95"/>
-      <c r="DK146" s="95"/>
-      <c r="DL146" s="95"/>
-      <c r="DM146" s="95"/>
-      <c r="DN146" s="95"/>
-      <c r="DO146" s="95"/>
-      <c r="DP146" s="95"/>
-      <c r="DQ146" s="95"/>
-      <c r="DR146" s="95"/>
-      <c r="DS146" s="95"/>
-      <c r="DT146" s="95"/>
-      <c r="DU146" s="95"/>
-      <c r="DV146" s="95"/>
-      <c r="DW146" s="95"/>
-      <c r="DX146" s="95"/>
-      <c r="DY146" s="95"/>
-      <c r="DZ146" s="95"/>
-      <c r="EA146" s="95"/>
-      <c r="EB146" s="95"/>
-      <c r="EC146" s="95"/>
-      <c r="ED146" s="95"/>
-      <c r="EE146" s="95"/>
-      <c r="EF146" s="95"/>
-      <c r="EG146" s="95"/>
-      <c r="EH146" s="95"/>
-      <c r="EI146" s="95"/>
-      <c r="EJ146" s="95"/>
-      <c r="EK146" s="95"/>
-      <c r="EL146" s="95"/>
-      <c r="EM146" s="95"/>
-      <c r="EN146" s="95"/>
-      <c r="EO146" s="95"/>
-      <c r="EP146" s="95"/>
-      <c r="EQ146" s="95"/>
-      <c r="ER146" s="95"/>
-      <c r="ES146" s="95"/>
-      <c r="ET146" s="95"/>
-      <c r="EU146" s="95"/>
-      <c r="EV146" s="95"/>
-      <c r="EW146" s="95"/>
-      <c r="EX146" s="95"/>
-      <c r="EY146" s="95"/>
-      <c r="EZ146" s="95"/>
-      <c r="FA146" s="95"/>
-      <c r="FB146" s="95"/>
-      <c r="FC146" s="95"/>
-      <c r="FD146" s="95"/>
-      <c r="FE146" s="95"/>
-      <c r="FF146" s="95"/>
-      <c r="FG146" s="95"/>
-      <c r="FH146" s="95"/>
-      <c r="FI146" s="95"/>
-      <c r="FJ146" s="95"/>
-      <c r="FK146" s="95"/>
-      <c r="FL146" s="95"/>
-      <c r="FM146" s="95"/>
-      <c r="FN146" s="95"/>
-      <c r="FO146" s="95"/>
-      <c r="FP146" s="95"/>
-      <c r="FQ146" s="95"/>
-      <c r="FR146" s="95"/>
-      <c r="FS146" s="95"/>
-      <c r="FT146" s="95"/>
-      <c r="FU146" s="95"/>
-      <c r="FV146" s="95"/>
-      <c r="FW146" s="95"/>
-      <c r="FX146" s="95"/>
-      <c r="FY146" s="95"/>
-      <c r="FZ146" s="95"/>
-      <c r="GA146" s="95"/>
-      <c r="GB146" s="95"/>
-      <c r="GC146" s="95"/>
+      <c r="BJ146" s="87"/>
+      <c r="BK146" s="87"/>
+      <c r="BL146" s="87"/>
+      <c r="BM146" s="87"/>
+      <c r="BN146" s="87"/>
+      <c r="BO146" s="87"/>
+      <c r="BP146" s="87"/>
+      <c r="BQ146" s="87"/>
+      <c r="BR146" s="87"/>
+      <c r="BS146" s="87"/>
+      <c r="BT146" s="87"/>
+      <c r="BU146" s="87"/>
+      <c r="BV146" s="87"/>
+      <c r="BW146" s="87"/>
+      <c r="BX146" s="87"/>
+      <c r="BY146" s="87"/>
+      <c r="BZ146" s="87"/>
+      <c r="CA146" s="87"/>
+      <c r="CB146" s="87"/>
+      <c r="CC146" s="87"/>
+      <c r="CD146" s="87"/>
+      <c r="CE146" s="87"/>
+      <c r="CF146" s="87"/>
+      <c r="CG146" s="87"/>
+      <c r="CH146" s="87"/>
+      <c r="CI146" s="87"/>
+      <c r="CJ146" s="87"/>
+      <c r="CK146" s="87"/>
+      <c r="CL146" s="87"/>
+      <c r="CM146" s="87"/>
+      <c r="CN146" s="87"/>
+      <c r="CO146" s="87"/>
+      <c r="CP146" s="87"/>
+      <c r="CQ146" s="87"/>
+      <c r="CR146" s="87"/>
+      <c r="CS146" s="87"/>
+      <c r="CT146" s="87"/>
+      <c r="CU146" s="87"/>
+      <c r="CV146" s="87"/>
+      <c r="CW146" s="87"/>
+      <c r="CX146" s="87"/>
+      <c r="CY146" s="87"/>
+      <c r="CZ146" s="87"/>
+      <c r="DA146" s="87"/>
+      <c r="DB146" s="87"/>
+      <c r="DC146" s="87"/>
+      <c r="DD146" s="87"/>
+      <c r="DE146" s="87"/>
+      <c r="DF146" s="87"/>
+      <c r="DG146" s="87"/>
+      <c r="DH146" s="87"/>
+      <c r="DI146" s="87"/>
+      <c r="DJ146" s="87"/>
+      <c r="DK146" s="87"/>
+      <c r="DL146" s="87"/>
+      <c r="DM146" s="87"/>
+      <c r="DN146" s="87"/>
+      <c r="DO146" s="87"/>
+      <c r="DP146" s="87"/>
+      <c r="DQ146" s="87"/>
+      <c r="DR146" s="87"/>
+      <c r="DS146" s="87"/>
+      <c r="DT146" s="87"/>
+      <c r="DU146" s="87"/>
+      <c r="DV146" s="87"/>
+      <c r="DW146" s="87"/>
+      <c r="DX146" s="87"/>
+      <c r="DY146" s="87"/>
+      <c r="DZ146" s="87"/>
+      <c r="EA146" s="87"/>
+      <c r="EB146" s="87"/>
+      <c r="EC146" s="87"/>
+      <c r="ED146" s="87"/>
+      <c r="EE146" s="87"/>
+      <c r="EF146" s="87"/>
+      <c r="EG146" s="87"/>
+      <c r="EH146" s="87"/>
+      <c r="EI146" s="87"/>
+      <c r="EJ146" s="87"/>
+      <c r="EK146" s="87"/>
+      <c r="EL146" s="87"/>
+      <c r="EM146" s="87"/>
+      <c r="EN146" s="87"/>
+      <c r="EO146" s="87"/>
+      <c r="EP146" s="87"/>
+      <c r="EQ146" s="87"/>
+      <c r="ER146" s="87"/>
+      <c r="ES146" s="87"/>
+      <c r="ET146" s="87"/>
+      <c r="EU146" s="87"/>
+      <c r="EV146" s="87"/>
+      <c r="EW146" s="87"/>
+      <c r="EX146" s="87"/>
+      <c r="EY146" s="87"/>
+      <c r="EZ146" s="87"/>
+      <c r="FA146" s="87"/>
+      <c r="FB146" s="87"/>
+      <c r="FC146" s="87"/>
+      <c r="FD146" s="87"/>
+      <c r="FE146" s="87"/>
+      <c r="FF146" s="87"/>
+      <c r="FG146" s="87"/>
+      <c r="FH146" s="87"/>
+      <c r="FI146" s="87"/>
+      <c r="FJ146" s="87"/>
+      <c r="FK146" s="87"/>
+      <c r="FL146" s="87"/>
+      <c r="FM146" s="87"/>
+      <c r="FN146" s="87"/>
+      <c r="FO146" s="87"/>
+      <c r="FP146" s="87"/>
+      <c r="FQ146" s="87"/>
+      <c r="FR146" s="87"/>
+      <c r="FS146" s="87"/>
+      <c r="FT146" s="87"/>
+      <c r="FU146" s="87"/>
+      <c r="FV146" s="87"/>
+      <c r="FW146" s="87"/>
+      <c r="FX146" s="87"/>
+      <c r="FY146" s="87"/>
+      <c r="FZ146" s="87"/>
+      <c r="GA146" s="87"/>
+      <c r="GB146" s="87"/>
+      <c r="GC146" s="87"/>
     </row>
     <row r="147" spans="1:185" s="49" customFormat="1" ht="26.25" customHeight="1">
       <c r="A147" s="63" t="s">
@@ -41448,16 +41396,16 @@
       <c r="N147" s="63"/>
       <c r="O147" s="63"/>
       <c r="P147" s="63"/>
-      <c r="Q147" s="89" t="s">
+      <c r="Q147" s="54" t="s">
         <v>1193</v>
       </c>
-      <c r="R147" s="89" t="s">
+      <c r="R147" s="54" t="s">
         <v>1193</v>
       </c>
-      <c r="S147" s="89" t="s">
+      <c r="S147" s="54" t="s">
         <v>1193</v>
       </c>
-      <c r="T147" s="87"/>
+      <c r="T147" s="63"/>
       <c r="U147" s="63"/>
       <c r="V147" s="63"/>
       <c r="W147" s="59" t="s">
@@ -41672,12 +41620,12 @@
       <c r="N148" s="63"/>
       <c r="O148" s="63"/>
       <c r="P148" s="63"/>
-      <c r="Q148" s="87"/>
-      <c r="R148" s="99" t="s">
+      <c r="Q148" s="63"/>
+      <c r="R148" s="90" t="s">
         <v>1198</v>
       </c>
-      <c r="S148" s="87"/>
-      <c r="T148" s="87"/>
+      <c r="S148" s="63"/>
+      <c r="T148" s="63"/>
       <c r="U148" s="63"/>
       <c r="V148" s="63"/>
       <c r="W148" s="59" t="s">
@@ -41892,16 +41840,16 @@
       <c r="N149" s="63"/>
       <c r="O149" s="63"/>
       <c r="P149" s="63"/>
-      <c r="Q149" s="89" t="s">
+      <c r="Q149" s="54" t="s">
         <v>1203</v>
       </c>
-      <c r="R149" s="89" t="s">
+      <c r="R149" s="54" t="s">
         <v>1203</v>
       </c>
-      <c r="S149" s="89" t="s">
+      <c r="S149" s="54" t="s">
         <v>1203</v>
       </c>
-      <c r="T149" s="87"/>
+      <c r="T149" s="63"/>
       <c r="U149" s="63"/>
       <c r="V149" s="63"/>
       <c r="W149" s="59" t="s">
@@ -42116,14 +42064,14 @@
       <c r="N150" s="63"/>
       <c r="O150" s="63"/>
       <c r="P150" s="63"/>
-      <c r="Q150" s="87"/>
-      <c r="R150" s="99" t="s">
+      <c r="Q150" s="63"/>
+      <c r="R150" s="90" t="s">
         <v>1208</v>
       </c>
-      <c r="S150" s="87"/>
-      <c r="T150" s="87"/>
-      <c r="U150" s="87"/>
-      <c r="V150" s="87"/>
+      <c r="S150" s="63"/>
+      <c r="T150" s="63"/>
+      <c r="U150" s="63"/>
+      <c r="V150" s="63"/>
       <c r="W150" s="59" t="s">
         <v>651</v>
       </c>
@@ -42336,16 +42284,16 @@
       <c r="N151" s="63"/>
       <c r="O151" s="63"/>
       <c r="P151" s="63"/>
-      <c r="Q151" s="89" t="s">
+      <c r="Q151" s="54" t="s">
         <v>1213</v>
       </c>
-      <c r="R151" s="89" t="s">
+      <c r="R151" s="54" t="s">
         <v>1213</v>
       </c>
-      <c r="S151" s="89" t="s">
+      <c r="S151" s="54" t="s">
         <v>1213</v>
       </c>
-      <c r="T151" s="87"/>
+      <c r="T151" s="63"/>
       <c r="U151" s="63"/>
       <c r="V151" s="63"/>
       <c r="W151" s="59" t="s">
@@ -42560,12 +42508,12 @@
       <c r="N152" s="63"/>
       <c r="O152" s="63"/>
       <c r="P152" s="63"/>
-      <c r="Q152" s="87"/>
-      <c r="R152" s="99" t="s">
+      <c r="Q152" s="63"/>
+      <c r="R152" s="90" t="s">
         <v>1218</v>
       </c>
-      <c r="S152" s="87"/>
-      <c r="T152" s="87"/>
+      <c r="S152" s="63"/>
+      <c r="T152" s="63"/>
       <c r="U152" s="63"/>
       <c r="V152" s="63"/>
       <c r="W152" s="59" t="s">
@@ -42780,16 +42728,16 @@
       <c r="N153" s="63"/>
       <c r="O153" s="63"/>
       <c r="P153" s="63"/>
-      <c r="Q153" s="89" t="s">
+      <c r="Q153" s="54" t="s">
         <v>1223</v>
       </c>
-      <c r="R153" s="89" t="s">
+      <c r="R153" s="54" t="s">
         <v>1223</v>
       </c>
-      <c r="S153" s="89" t="s">
+      <c r="S153" s="54" t="s">
         <v>1223</v>
       </c>
-      <c r="T153" s="87"/>
+      <c r="T153" s="63"/>
       <c r="U153" s="63"/>
       <c r="V153" s="63"/>
       <c r="W153" s="59" t="s">
@@ -43004,12 +42952,12 @@
       <c r="N154" s="63"/>
       <c r="O154" s="63"/>
       <c r="P154" s="63"/>
-      <c r="Q154" s="87"/>
-      <c r="R154" s="99" t="s">
+      <c r="Q154" s="63"/>
+      <c r="R154" s="90" t="s">
         <v>1228</v>
       </c>
-      <c r="S154" s="87"/>
-      <c r="T154" s="87"/>
+      <c r="S154" s="63"/>
+      <c r="T154" s="63"/>
       <c r="U154" s="63"/>
       <c r="V154" s="63"/>
       <c r="W154" s="59" t="s">
@@ -43224,16 +43172,16 @@
       <c r="N155" s="63"/>
       <c r="O155" s="63"/>
       <c r="P155" s="63"/>
-      <c r="Q155" s="89" t="s">
+      <c r="Q155" s="54" t="s">
         <v>1233</v>
       </c>
-      <c r="R155" s="89" t="s">
+      <c r="R155" s="54" t="s">
         <v>1233</v>
       </c>
-      <c r="S155" s="89" t="s">
+      <c r="S155" s="54" t="s">
         <v>1233</v>
       </c>
-      <c r="T155" s="87"/>
+      <c r="T155" s="63"/>
       <c r="U155" s="63"/>
       <c r="V155" s="63"/>
       <c r="W155" s="59" t="s">
@@ -43448,12 +43396,12 @@
       <c r="N156" s="63"/>
       <c r="O156" s="63"/>
       <c r="P156" s="63"/>
-      <c r="Q156" s="87"/>
-      <c r="R156" s="99" t="s">
+      <c r="Q156" s="63"/>
+      <c r="R156" s="90" t="s">
         <v>1238</v>
       </c>
-      <c r="S156" s="87"/>
-      <c r="T156" s="87"/>
+      <c r="S156" s="63"/>
+      <c r="T156" s="63"/>
       <c r="U156" s="63"/>
       <c r="V156" s="63"/>
       <c r="W156" s="59" t="s">
@@ -43672,16 +43620,16 @@
       <c r="N157" s="59"/>
       <c r="O157" s="59"/>
       <c r="P157" s="59"/>
-      <c r="Q157" s="89" t="s">
+      <c r="Q157" s="54" t="s">
         <v>1243</v>
       </c>
-      <c r="R157" s="89" t="s">
+      <c r="R157" s="54" t="s">
         <v>1243</v>
       </c>
-      <c r="S157" s="89" t="s">
+      <c r="S157" s="54" t="s">
         <v>1243</v>
       </c>
-      <c r="T157" s="81"/>
+      <c r="T157" s="59"/>
       <c r="U157" s="60"/>
       <c r="V157" s="60" t="s">
         <v>146</v>
@@ -43906,12 +43854,12 @@
       <c r="N158" s="63"/>
       <c r="O158" s="63"/>
       <c r="P158" s="63"/>
-      <c r="Q158" s="87"/>
-      <c r="R158" s="99" t="s">
+      <c r="Q158" s="63"/>
+      <c r="R158" s="90" t="s">
         <v>1251</v>
       </c>
-      <c r="S158" s="87"/>
-      <c r="T158" s="87"/>
+      <c r="S158" s="63"/>
+      <c r="T158" s="63"/>
       <c r="U158" s="63"/>
       <c r="V158" s="63"/>
       <c r="W158" s="59" t="s">
@@ -44124,14 +44072,14 @@
       <c r="N159" s="63"/>
       <c r="O159" s="63"/>
       <c r="P159" s="63"/>
-      <c r="Q159" s="87"/>
-      <c r="R159" s="99" t="s">
+      <c r="Q159" s="63"/>
+      <c r="R159" s="90" t="s">
         <v>1255</v>
       </c>
-      <c r="S159" s="87"/>
-      <c r="T159" s="87"/>
-      <c r="U159" s="87"/>
-      <c r="V159" s="87"/>
+      <c r="S159" s="63"/>
+      <c r="T159" s="63"/>
+      <c r="U159" s="63"/>
+      <c r="V159" s="63"/>
       <c r="W159" s="59" t="s">
         <v>651</v>
       </c>
@@ -44342,12 +44290,12 @@
       </c>
       <c r="O160" s="66"/>
       <c r="P160" s="66"/>
-      <c r="Q160" s="100"/>
-      <c r="R160" s="99" t="s">
+      <c r="Q160" s="66"/>
+      <c r="R160" s="90" t="s">
         <v>1259</v>
       </c>
-      <c r="S160" s="100"/>
-      <c r="T160" s="100"/>
+      <c r="S160" s="66"/>
+      <c r="T160" s="66"/>
       <c r="U160" s="66"/>
       <c r="V160" s="63"/>
       <c r="W160" s="59" t="s">
@@ -44568,14 +44516,14 @@
       <c r="N161" s="63"/>
       <c r="O161" s="63"/>
       <c r="P161" s="63"/>
-      <c r="Q161" s="87"/>
-      <c r="R161" s="99" t="s">
+      <c r="Q161" s="63"/>
+      <c r="R161" s="90" t="s">
         <v>1264</v>
       </c>
-      <c r="S161" s="87"/>
-      <c r="T161" s="87"/>
-      <c r="U161" s="87"/>
-      <c r="V161" s="87"/>
+      <c r="S161" s="63"/>
+      <c r="T161" s="63"/>
+      <c r="U161" s="63"/>
+      <c r="V161" s="63"/>
       <c r="W161" s="59" t="s">
         <v>651</v>
       </c>
@@ -44786,12 +44734,12 @@
       </c>
       <c r="O162" s="66"/>
       <c r="P162" s="66"/>
-      <c r="Q162" s="100"/>
-      <c r="R162" s="99" t="s">
+      <c r="Q162" s="66"/>
+      <c r="R162" s="90" t="s">
         <v>1268</v>
       </c>
-      <c r="S162" s="100"/>
-      <c r="T162" s="100"/>
+      <c r="S162" s="66"/>
+      <c r="T162" s="66"/>
       <c r="U162" s="66"/>
       <c r="V162" s="63"/>
       <c r="W162" s="59" t="s">
@@ -45012,12 +44960,12 @@
       <c r="N163" s="63"/>
       <c r="O163" s="63"/>
       <c r="P163" s="63"/>
-      <c r="Q163" s="87"/>
-      <c r="R163" s="99" t="s">
+      <c r="Q163" s="63"/>
+      <c r="R163" s="90" t="s">
         <v>1273</v>
       </c>
-      <c r="S163" s="87"/>
-      <c r="T163" s="87"/>
+      <c r="S163" s="63"/>
+      <c r="T163" s="63"/>
       <c r="U163" s="63"/>
       <c r="V163" s="63"/>
       <c r="W163" s="59" t="s">
@@ -45232,12 +45180,12 @@
       </c>
       <c r="O164" s="66"/>
       <c r="P164" s="66"/>
-      <c r="Q164" s="100"/>
-      <c r="R164" s="99" t="s">
+      <c r="Q164" s="66"/>
+      <c r="R164" s="90" t="s">
         <v>1277</v>
       </c>
-      <c r="S164" s="100"/>
-      <c r="T164" s="100"/>
+      <c r="S164" s="66"/>
+      <c r="T164" s="66"/>
       <c r="U164" s="66"/>
       <c r="V164" s="63"/>
       <c r="W164" s="59" t="s">
@@ -45458,14 +45406,14 @@
       <c r="N165" s="63"/>
       <c r="O165" s="63"/>
       <c r="P165" s="63"/>
-      <c r="Q165" s="87"/>
-      <c r="R165" s="99" t="s">
+      <c r="Q165" s="63"/>
+      <c r="R165" s="90" t="s">
         <v>1282</v>
       </c>
-      <c r="S165" s="87"/>
-      <c r="T165" s="87"/>
-      <c r="U165" s="87"/>
-      <c r="V165" s="87"/>
+      <c r="S165" s="63"/>
+      <c r="T165" s="63"/>
+      <c r="U165" s="63"/>
+      <c r="V165" s="63"/>
       <c r="W165" s="59" t="s">
         <v>651</v>
       </c>
@@ -45676,12 +45624,12 @@
       </c>
       <c r="O166" s="66"/>
       <c r="P166" s="66"/>
-      <c r="Q166" s="100"/>
-      <c r="R166" s="99" t="s">
+      <c r="Q166" s="66"/>
+      <c r="R166" s="90" t="s">
         <v>1286</v>
       </c>
-      <c r="S166" s="100"/>
-      <c r="T166" s="100"/>
+      <c r="S166" s="66"/>
+      <c r="T166" s="66"/>
       <c r="U166" s="66"/>
       <c r="V166" s="63"/>
       <c r="W166" s="59" t="s">
@@ -45902,12 +45850,12 @@
       <c r="N167" s="63"/>
       <c r="O167" s="63"/>
       <c r="P167" s="63"/>
-      <c r="Q167" s="87"/>
-      <c r="R167" s="99" t="s">
+      <c r="Q167" s="63"/>
+      <c r="R167" s="90" t="s">
         <v>1291</v>
       </c>
-      <c r="S167" s="87"/>
-      <c r="T167" s="87"/>
+      <c r="S167" s="63"/>
+      <c r="T167" s="63"/>
       <c r="U167" s="63"/>
       <c r="V167" s="63"/>
       <c r="W167" s="59" t="s">
@@ -46126,12 +46074,12 @@
       </c>
       <c r="O168" s="59"/>
       <c r="P168" s="59"/>
-      <c r="Q168" s="81"/>
-      <c r="R168" s="99" t="s">
+      <c r="Q168" s="59"/>
+      <c r="R168" s="90" t="s">
         <v>1295</v>
       </c>
-      <c r="S168" s="81"/>
-      <c r="T168" s="81"/>
+      <c r="S168" s="59"/>
+      <c r="T168" s="59"/>
       <c r="U168" s="60"/>
       <c r="V168" s="60" t="s">
         <v>146</v>
@@ -46364,12 +46312,12 @@
       <c r="N169" s="63"/>
       <c r="O169" s="63"/>
       <c r="P169" s="63"/>
-      <c r="Q169" s="87"/>
-      <c r="R169" s="99" t="s">
+      <c r="Q169" s="63"/>
+      <c r="R169" s="90" t="s">
         <v>1302</v>
       </c>
-      <c r="S169" s="87"/>
-      <c r="T169" s="87"/>
+      <c r="S169" s="63"/>
+      <c r="T169" s="63"/>
       <c r="U169" s="63"/>
       <c r="V169" s="63"/>
       <c r="W169" s="59" t="s">
@@ -46588,12 +46536,12 @@
       </c>
       <c r="O170" s="59"/>
       <c r="P170" s="59"/>
-      <c r="Q170" s="81"/>
-      <c r="R170" s="99" t="s">
+      <c r="Q170" s="59"/>
+      <c r="R170" s="90" t="s">
         <v>1306</v>
       </c>
-      <c r="S170" s="81"/>
-      <c r="T170" s="81"/>
+      <c r="S170" s="59"/>
+      <c r="T170" s="59"/>
       <c r="U170" s="60"/>
       <c r="V170" s="60" t="s">
         <v>146</v>
@@ -46826,12 +46774,12 @@
       <c r="N171" s="63"/>
       <c r="O171" s="63"/>
       <c r="P171" s="63"/>
-      <c r="Q171" s="87"/>
-      <c r="R171" s="99" t="s">
+      <c r="Q171" s="63"/>
+      <c r="R171" s="90" t="s">
         <v>1313</v>
       </c>
-      <c r="S171" s="87"/>
-      <c r="T171" s="87"/>
+      <c r="S171" s="63"/>
+      <c r="T171" s="63"/>
       <c r="U171" s="63"/>
       <c r="V171" s="63"/>
       <c r="W171" s="59" t="s">
@@ -47030,7 +46978,7 @@
       <c r="D172" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="E172" s="87" t="s">
+      <c r="E172" s="63" t="s">
         <v>65</v>
       </c>
       <c r="F172" s="59" t="s">
@@ -47054,12 +47002,12 @@
       </c>
       <c r="O172" s="59"/>
       <c r="P172" s="59"/>
-      <c r="Q172" s="81"/>
-      <c r="R172" s="99" t="s">
+      <c r="Q172" s="59"/>
+      <c r="R172" s="90" t="s">
         <v>1318</v>
       </c>
-      <c r="S172" s="81"/>
-      <c r="T172" s="81"/>
+      <c r="S172" s="59"/>
+      <c r="T172" s="59"/>
       <c r="U172" s="60"/>
       <c r="V172" s="60" t="s">
         <v>146</v>
@@ -47306,10 +47254,10 @@
       <c r="N173" s="59"/>
       <c r="O173" s="59"/>
       <c r="P173" s="59"/>
-      <c r="Q173" s="81"/>
-      <c r="R173" s="81"/>
-      <c r="S173" s="81"/>
-      <c r="T173" s="81"/>
+      <c r="Q173" s="59"/>
+      <c r="R173" s="59"/>
+      <c r="S173" s="59"/>
+      <c r="T173" s="59"/>
       <c r="U173" s="60"/>
       <c r="V173" s="60" t="s">
         <v>146</v>
@@ -47538,10 +47486,10 @@
       <c r="P174" s="59" t="s">
         <v>1339</v>
       </c>
-      <c r="Q174" s="81"/>
-      <c r="R174" s="81"/>
-      <c r="S174" s="81"/>
-      <c r="T174" s="81"/>
+      <c r="Q174" s="59"/>
+      <c r="R174" s="59"/>
+      <c r="S174" s="59"/>
+      <c r="T174" s="59"/>
       <c r="U174" s="60" t="s">
         <v>113</v>
       </c>
@@ -47778,12 +47726,12 @@
       <c r="N175" s="63"/>
       <c r="O175" s="63"/>
       <c r="P175" s="63"/>
-      <c r="Q175" s="87"/>
-      <c r="R175" s="87"/>
-      <c r="S175" s="87"/>
-      <c r="T175" s="87"/>
-      <c r="U175" s="87"/>
-      <c r="V175" s="87"/>
+      <c r="Q175" s="63"/>
+      <c r="R175" s="63"/>
+      <c r="S175" s="63"/>
+      <c r="T175" s="63"/>
+      <c r="U175" s="63"/>
+      <c r="V175" s="63"/>
       <c r="W175" s="63" t="s">
         <v>361</v>
       </c>
@@ -48000,12 +47948,12 @@
       <c r="N176" s="59"/>
       <c r="O176" s="59"/>
       <c r="P176" s="59"/>
-      <c r="Q176" s="81"/>
-      <c r="R176" s="81"/>
-      <c r="S176" s="81"/>
-      <c r="T176" s="81"/>
-      <c r="U176" s="84"/>
-      <c r="V176" s="84" t="s">
+      <c r="Q176" s="59"/>
+      <c r="R176" s="59"/>
+      <c r="S176" s="59"/>
+      <c r="T176" s="59"/>
+      <c r="U176" s="60"/>
+      <c r="V176" s="60" t="s">
         <v>146</v>
       </c>
       <c r="W176" s="59" t="s">
@@ -48226,12 +48174,12 @@
       <c r="N177" s="63"/>
       <c r="O177" s="63"/>
       <c r="P177" s="63"/>
-      <c r="Q177" s="87"/>
-      <c r="R177" s="87"/>
-      <c r="S177" s="87"/>
-      <c r="T177" s="87"/>
-      <c r="U177" s="87"/>
-      <c r="V177" s="87"/>
+      <c r="Q177" s="63"/>
+      <c r="R177" s="63"/>
+      <c r="S177" s="63"/>
+      <c r="T177" s="63"/>
+      <c r="U177" s="63"/>
+      <c r="V177" s="63"/>
       <c r="W177" s="63" t="s">
         <v>215</v>
       </c>
@@ -48414,134 +48362,134 @@
       <c r="GC177"/>
     </row>
     <row r="178" spans="1:185" s="49" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A178" s="90" t="s">
+      <c r="A178" s="82" t="s">
         <v>1362</v>
       </c>
-      <c r="B178" s="90" t="s">
+      <c r="B178" s="82" t="s">
         <v>1345</v>
       </c>
-      <c r="C178" s="91" t="s">
+      <c r="C178" s="83" t="s">
         <v>1363</v>
       </c>
-      <c r="D178" s="90" t="s">
+      <c r="D178" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="E178" s="90" t="s">
+      <c r="E178" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F178" s="92" t="s">
+      <c r="F178" s="84" t="s">
         <v>1362</v>
       </c>
-      <c r="G178" s="92" t="s">
+      <c r="G178" s="84" t="s">
         <v>1362</v>
       </c>
-      <c r="H178" s="92" t="s">
+      <c r="H178" s="84" t="s">
         <v>1364</v>
       </c>
-      <c r="I178" s="92"/>
-      <c r="J178" s="92"/>
-      <c r="K178" s="92"/>
-      <c r="L178" s="92"/>
-      <c r="M178" s="92"/>
-      <c r="N178" s="92" t="s">
+      <c r="I178" s="84"/>
+      <c r="J178" s="84"/>
+      <c r="K178" s="84"/>
+      <c r="L178" s="84"/>
+      <c r="M178" s="84"/>
+      <c r="N178" s="84" t="s">
         <v>1345</v>
       </c>
-      <c r="O178" s="92" t="s">
+      <c r="O178" s="84" t="s">
         <v>1364</v>
       </c>
-      <c r="P178" s="92" t="s">
+      <c r="P178" s="84" t="s">
         <v>1364</v>
       </c>
-      <c r="Q178" s="101"/>
-      <c r="R178" s="101"/>
-      <c r="S178" s="101"/>
-      <c r="T178" s="101"/>
-      <c r="U178" s="91" t="s">
+      <c r="Q178" s="84"/>
+      <c r="R178" s="84"/>
+      <c r="S178" s="84"/>
+      <c r="T178" s="84"/>
+      <c r="U178" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="V178" s="91" t="s">
+      <c r="V178" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="W178" s="92" t="s">
+      <c r="W178" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="X178" s="92" t="s">
+      <c r="X178" s="84" t="s">
         <v>462</v>
       </c>
-      <c r="Y178" s="92"/>
+      <c r="Y178" s="84"/>
       <c r="Z178" s="59" t="str">
         <f t="shared" si="4"/>
         <v>["ENA", "BV-BRC", "ENA ERC32", "ENA ERC33", "Host", "ENA Sample", "VJDB Sample", "Clinical"]</v>
       </c>
-      <c r="AA178" s="92" t="s">
+      <c r="AA178" s="84" t="s">
         <v>378</v>
       </c>
-      <c r="AB178" s="93" t="s">
+      <c r="AB178" s="85" t="s">
         <v>1365</v>
       </c>
-      <c r="AC178" s="92"/>
-      <c r="AD178" s="92"/>
-      <c r="AE178" s="92"/>
-      <c r="AF178" s="92"/>
-      <c r="AG178" s="92"/>
-      <c r="AH178" s="92"/>
-      <c r="AI178" s="92" t="s">
+      <c r="AC178" s="84"/>
+      <c r="AD178" s="84"/>
+      <c r="AE178" s="84"/>
+      <c r="AF178" s="84"/>
+      <c r="AG178" s="84"/>
+      <c r="AH178" s="84"/>
+      <c r="AI178" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="AJ178" s="92"/>
-      <c r="AK178" s="92" t="s">
+      <c r="AJ178" s="84"/>
+      <c r="AK178" s="84" t="s">
         <v>1362</v>
       </c>
-      <c r="AL178" s="92" t="s">
+      <c r="AL178" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="AM178" s="92"/>
-      <c r="AN178" s="92"/>
-      <c r="AO178" s="92" t="s">
+      <c r="AM178" s="84"/>
+      <c r="AN178" s="84"/>
+      <c r="AO178" s="84" t="s">
         <v>1366</v>
       </c>
-      <c r="AP178" s="92"/>
-      <c r="AQ178" s="92"/>
-      <c r="AR178" s="92" t="s">
+      <c r="AP178" s="84"/>
+      <c r="AQ178" s="84"/>
+      <c r="AR178" s="84" t="s">
         <v>1367</v>
       </c>
-      <c r="AS178" s="92"/>
-      <c r="AT178" s="92" t="s">
+      <c r="AS178" s="84"/>
+      <c r="AT178" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="AU178" s="92" t="s">
+      <c r="AU178" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="AV178" s="92" t="s">
+      <c r="AV178" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="AW178" s="94" t="s">
+      <c r="AW178" s="86" t="s">
         <v>1368</v>
       </c>
-      <c r="AX178" s="92" t="s">
+      <c r="AX178" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="AY178" s="93" t="s">
+      <c r="AY178" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="AZ178" s="93" t="s">
+      <c r="AZ178" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="BA178" s="90" t="s">
+      <c r="BA178" s="82" t="s">
         <v>1369</v>
       </c>
-      <c r="BB178" s="90"/>
-      <c r="BC178" s="95" t="s">
+      <c r="BB178" s="82"/>
+      <c r="BC178" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="BD178" s="95" t="s">
+      <c r="BD178" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="BE178" s="95"/>
-      <c r="BF178" s="95"/>
-      <c r="BG178" s="95"/>
-      <c r="BH178" s="95"/>
-      <c r="BI178" s="95"/>
+      <c r="BE178" s="87"/>
+      <c r="BF178" s="87"/>
+      <c r="BG178" s="87"/>
+      <c r="BH178" s="87"/>
+      <c r="BI178" s="87"/>
       <c r="BJ178"/>
       <c r="BK178"/>
       <c r="BL178"/>
@@ -48694,12 +48642,12 @@
       <c r="N179" s="63"/>
       <c r="O179" s="63"/>
       <c r="P179" s="63"/>
-      <c r="Q179" s="87"/>
-      <c r="R179" s="87"/>
-      <c r="S179" s="87"/>
-      <c r="T179" s="87"/>
-      <c r="U179" s="87"/>
-      <c r="V179" s="87"/>
+      <c r="Q179" s="63"/>
+      <c r="R179" s="63"/>
+      <c r="S179" s="63"/>
+      <c r="T179" s="63"/>
+      <c r="U179" s="63"/>
+      <c r="V179" s="63"/>
       <c r="W179" s="63" t="s">
         <v>125</v>
       </c>
@@ -48910,10 +48858,10 @@
       </c>
       <c r="O180" s="59"/>
       <c r="P180" s="59"/>
-      <c r="Q180" s="81"/>
-      <c r="R180" s="81"/>
-      <c r="S180" s="81"/>
-      <c r="T180" s="81"/>
+      <c r="Q180" s="59"/>
+      <c r="R180" s="59"/>
+      <c r="S180" s="59"/>
+      <c r="T180" s="59"/>
       <c r="U180" s="60"/>
       <c r="V180" s="60" t="s">
         <v>146</v>
@@ -49130,7 +49078,7 @@
       <c r="D181" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="E181" s="81" t="s">
+      <c r="E181" s="59" t="s">
         <v>65</v>
       </c>
       <c r="F181" s="63"/>
@@ -49146,10 +49094,10 @@
       </c>
       <c r="O181" s="66"/>
       <c r="P181" s="66"/>
-      <c r="Q181" s="100"/>
-      <c r="R181" s="100"/>
-      <c r="S181" s="100"/>
-      <c r="T181" s="100"/>
+      <c r="Q181" s="66"/>
+      <c r="R181" s="66"/>
+      <c r="S181" s="66"/>
+      <c r="T181" s="66"/>
       <c r="U181" s="66"/>
       <c r="V181" s="63"/>
       <c r="W181" s="59" t="s">
@@ -49370,10 +49318,10 @@
       <c r="N182" s="63"/>
       <c r="O182" s="63"/>
       <c r="P182" s="63"/>
-      <c r="Q182" s="87"/>
-      <c r="R182" s="87"/>
-      <c r="S182" s="87"/>
-      <c r="T182" s="87"/>
+      <c r="Q182" s="63"/>
+      <c r="R182" s="63"/>
+      <c r="S182" s="63"/>
+      <c r="T182" s="63"/>
       <c r="U182" s="63"/>
       <c r="V182" s="63"/>
       <c r="W182" s="59" t="s">
@@ -49586,12 +49534,12 @@
       <c r="N183" s="63"/>
       <c r="O183" s="63"/>
       <c r="P183" s="63"/>
-      <c r="Q183" s="87"/>
-      <c r="R183" s="87"/>
-      <c r="S183" s="87"/>
-      <c r="T183" s="87"/>
-      <c r="U183" s="87"/>
-      <c r="V183" s="87"/>
+      <c r="Q183" s="63"/>
+      <c r="R183" s="63"/>
+      <c r="S183" s="63"/>
+      <c r="T183" s="63"/>
+      <c r="U183" s="63"/>
+      <c r="V183" s="63"/>
       <c r="W183" s="59" t="s">
         <v>172</v>
       </c>
@@ -49789,10 +49737,6 @@
       <c r="E184" t="s">
         <v>162</v>
       </c>
-      <c r="Q184" s="80"/>
-      <c r="R184" s="80"/>
-      <c r="S184" s="80"/>
-      <c r="T184" s="80"/>
       <c r="W184" t="s">
         <v>172</v>
       </c>
@@ -49829,13 +49773,9 @@
       <c r="D185" t="s">
         <v>64</v>
       </c>
-      <c r="E185" s="80" t="s">
+      <c r="E185" t="s">
         <v>65</v>
       </c>
-      <c r="Q185" s="80"/>
-      <c r="R185" s="80"/>
-      <c r="S185" s="80"/>
-      <c r="T185" s="80"/>
       <c r="W185" s="59" t="s">
         <v>215</v>
       </c>
@@ -49882,12 +49822,6 @@
       <c r="E186" t="s">
         <v>162</v>
       </c>
-      <c r="Q186" s="80"/>
-      <c r="R186" s="80"/>
-      <c r="S186" s="80"/>
-      <c r="T186" s="80"/>
-      <c r="U186" s="80"/>
-      <c r="V186" s="80"/>
       <c r="W186" t="s">
         <v>172</v>
       </c>
@@ -49933,12 +49867,6 @@
       <c r="E187" t="s">
         <v>162</v>
       </c>
-      <c r="Q187" s="80"/>
-      <c r="R187" s="80"/>
-      <c r="S187" s="80"/>
-      <c r="T187" s="80"/>
-      <c r="U187" s="80"/>
-      <c r="V187" s="80"/>
       <c r="W187" t="s">
         <v>651</v>
       </c>
@@ -49978,22 +49906,18 @@
       <c r="B188" t="s">
         <v>1417</v>
       </c>
-      <c r="C188" s="83" t="s">
+      <c r="C188" s="62" t="s">
         <v>1418</v>
       </c>
       <c r="D188" t="s">
         <v>64</v>
       </c>
-      <c r="E188" s="80" t="s">
+      <c r="E188" t="s">
         <v>65</v>
       </c>
       <c r="N188" t="s">
         <v>1345</v>
       </c>
-      <c r="Q188" s="80"/>
-      <c r="R188" s="80"/>
-      <c r="S188" s="80"/>
-      <c r="T188" s="80"/>
       <c r="W188" s="59" t="s">
         <v>215</v>
       </c>
@@ -50043,12 +49967,6 @@
       <c r="E189" t="s">
         <v>162</v>
       </c>
-      <c r="Q189" s="80"/>
-      <c r="R189" s="80"/>
-      <c r="S189" s="80"/>
-      <c r="T189" s="80"/>
-      <c r="U189" s="80"/>
-      <c r="V189" s="80"/>
       <c r="W189" s="63" t="s">
         <v>361</v>
       </c>
@@ -50089,12 +50007,6 @@
       <c r="E190" t="s">
         <v>162</v>
       </c>
-      <c r="Q190" s="80"/>
-      <c r="R190" s="80"/>
-      <c r="S190" s="80"/>
-      <c r="T190" s="80"/>
-      <c r="U190" s="80"/>
-      <c r="V190" s="80"/>
       <c r="W190" s="63" t="s">
         <v>361</v>
       </c>
@@ -50135,12 +50047,6 @@
       <c r="E191" t="s">
         <v>162</v>
       </c>
-      <c r="Q191" s="80"/>
-      <c r="R191" s="80"/>
-      <c r="S191" s="80"/>
-      <c r="T191" s="80"/>
-      <c r="U191" s="80"/>
-      <c r="V191" s="80"/>
       <c r="W191" s="63" t="s">
         <v>361</v>
       </c>
@@ -50178,12 +50084,7 @@
       <c r="E192" t="s">
         <v>359</v>
       </c>
-      <c r="Q192" s="80"/>
-      <c r="R192" s="80"/>
-      <c r="S192" s="80"/>
-      <c r="T192" s="80"/>
-      <c r="U192" s="80"/>
-      <c r="V192" s="80" t="s">
+      <c r="V192" t="s">
         <v>87</v>
       </c>
       <c r="W192" s="63" t="s">
@@ -50223,19 +50124,19 @@
       <c r="D193" t="s">
         <v>64</v>
       </c>
-      <c r="E193" s="89" t="s">
+      <c r="E193" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="Q193" s="89" t="s">
+      <c r="Q193" s="54" t="s">
         <v>1437</v>
       </c>
-      <c r="R193" s="89" t="s">
+      <c r="R193" s="54" t="s">
         <v>1437</v>
       </c>
-      <c r="S193" s="89" t="s">
+      <c r="S193" s="54" t="s">
         <v>1437</v>
       </c>
-      <c r="T193" s="89" t="s">
+      <c r="T193" s="54" t="s">
         <v>1440</v>
       </c>
       <c r="W193" t="s">
@@ -50274,12 +50175,6 @@
       <c r="E194" t="s">
         <v>162</v>
       </c>
-      <c r="Q194" s="80"/>
-      <c r="R194" s="80"/>
-      <c r="S194" s="80"/>
-      <c r="T194" s="80"/>
-      <c r="U194" s="80"/>
-      <c r="V194" s="80"/>
       <c r="W194" s="63" t="s">
         <v>361</v>
       </c>
@@ -50315,12 +50210,6 @@
       <c r="E195" t="s">
         <v>162</v>
       </c>
-      <c r="Q195" s="80"/>
-      <c r="R195" s="80"/>
-      <c r="S195" s="80"/>
-      <c r="T195" s="80"/>
-      <c r="U195" s="80"/>
-      <c r="V195" s="80"/>
       <c r="W195" s="63" t="s">
         <v>361</v>
       </c>
@@ -50362,12 +50251,6 @@
       <c r="E196" t="s">
         <v>65</v>
       </c>
-      <c r="Q196" s="80"/>
-      <c r="R196" s="80"/>
-      <c r="S196" s="80"/>
-      <c r="T196" s="80"/>
-      <c r="U196" s="80"/>
-      <c r="V196" s="80"/>
       <c r="W196" t="s">
         <v>615</v>
       </c>
@@ -50405,12 +50288,6 @@
       <c r="E197" t="s">
         <v>65</v>
       </c>
-      <c r="Q197" s="80"/>
-      <c r="R197" s="80"/>
-      <c r="S197" s="80"/>
-      <c r="T197" s="80"/>
-      <c r="U197" s="80"/>
-      <c r="V197" s="80"/>
       <c r="W197" s="63" t="s">
         <v>361</v>
       </c>
@@ -50451,15 +50328,9 @@
       <c r="D198" t="s">
         <v>170</v>
       </c>
-      <c r="E198" s="80" t="s">
+      <c r="E198" t="s">
         <v>65</v>
       </c>
-      <c r="Q198" s="80"/>
-      <c r="R198" s="80"/>
-      <c r="S198" s="80"/>
-      <c r="T198" s="80"/>
-      <c r="U198" s="80"/>
-      <c r="V198" s="80"/>
       <c r="W198" t="s">
         <v>615</v>
       </c>
@@ -50505,10 +50376,6 @@
       <c r="E199" t="s">
         <v>65</v>
       </c>
-      <c r="Q199" s="80"/>
-      <c r="R199" s="80"/>
-      <c r="S199" s="80"/>
-      <c r="T199" s="80"/>
       <c r="W199" t="s">
         <v>615</v>
       </c>
@@ -50542,13 +50409,9 @@
       <c r="D200" t="s">
         <v>1471</v>
       </c>
-      <c r="E200" s="80" t="s">
+      <c r="E200" t="s">
         <v>65</v>
       </c>
-      <c r="Q200" s="80"/>
-      <c r="R200" s="80"/>
-      <c r="S200" s="80"/>
-      <c r="T200" s="80"/>
       <c r="W200" t="s">
         <v>615</v>
       </c>
@@ -50579,7 +50442,7 @@
       <c r="B201" t="s">
         <v>1474</v>
       </c>
-      <c r="C201" s="83" t="s">
+      <c r="C201" s="62" t="s">
         <v>1475</v>
       </c>
       <c r="D201" s="59" t="s">
@@ -50588,14 +50451,13 @@
       <c r="E201" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="Q201" s="89" t="s">
+      <c r="Q201" s="54" t="s">
         <v>1473</v>
       </c>
-      <c r="R201" s="89"/>
-      <c r="S201" s="89" t="s">
+      <c r="R201" s="54"/>
+      <c r="S201" s="54" t="s">
         <v>1473</v>
       </c>
-      <c r="T201" s="80"/>
       <c r="U201" s="60"/>
       <c r="V201" s="60"/>
       <c r="W201" s="59" t="s">
@@ -50639,14 +50501,13 @@
       <c r="E202" t="s">
         <v>65</v>
       </c>
-      <c r="Q202" s="89" t="s">
+      <c r="Q202" s="54" t="s">
         <v>1477</v>
       </c>
-      <c r="R202" s="89"/>
-      <c r="S202" s="89" t="s">
+      <c r="R202" s="54"/>
+      <c r="S202" s="54" t="s">
         <v>1477</v>
       </c>
-      <c r="T202" s="80"/>
       <c r="W202" s="59" t="s">
         <v>215</v>
       </c>
@@ -50689,16 +50550,15 @@
       <c r="E203" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="Q203" s="89" t="s">
+      <c r="Q203" s="54" t="s">
         <v>1480</v>
       </c>
-      <c r="R203" s="89"/>
-      <c r="S203" s="89" t="s">
+      <c r="R203" s="54"/>
+      <c r="S203" s="54" t="s">
         <v>1480</v>
       </c>
-      <c r="T203" s="80"/>
-      <c r="U203" s="84"/>
-      <c r="V203" s="84"/>
+      <c r="U203" s="60"/>
+      <c r="V203" s="60"/>
       <c r="W203" t="s">
         <v>215</v>
       </c>
@@ -50746,14 +50606,13 @@
       <c r="E204" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="Q204" s="89" t="s">
+      <c r="Q204" s="54" t="s">
         <v>1484</v>
       </c>
-      <c r="R204" s="89"/>
-      <c r="S204" s="89" t="s">
+      <c r="R204" s="54"/>
+      <c r="S204" s="54" t="s">
         <v>1484</v>
       </c>
-      <c r="T204" s="80"/>
       <c r="U204" s="60"/>
       <c r="W204" s="59" t="s">
         <v>215</v>
@@ -50795,17 +50654,16 @@
       <c r="D205" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E205" s="81" t="s">
+      <c r="E205" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="Q205" s="89" t="s">
+      <c r="Q205" s="54" t="s">
         <v>1488</v>
       </c>
-      <c r="R205" s="89"/>
-      <c r="S205" s="89" t="s">
+      <c r="R205" s="54"/>
+      <c r="S205" s="54" t="s">
         <v>1488</v>
       </c>
-      <c r="T205" s="80"/>
       <c r="U205" s="60"/>
       <c r="V205" s="60"/>
       <c r="W205" s="59" t="s">
@@ -50850,17 +50708,16 @@
       <c r="D206" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E206" s="86" t="s">
+      <c r="E206" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="Q206" s="89" t="s">
+      <c r="Q206" s="54" t="s">
         <v>1492</v>
       </c>
-      <c r="R206" s="89"/>
-      <c r="S206" s="89" t="s">
+      <c r="R206" s="54"/>
+      <c r="S206" s="54" t="s">
         <v>1492</v>
       </c>
-      <c r="T206" s="80"/>
       <c r="U206" s="60"/>
       <c r="V206" s="60"/>
       <c r="W206" t="s">
@@ -50912,14 +50769,13 @@
       <c r="E207" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="Q207" s="89" t="s">
+      <c r="Q207" s="54" t="s">
         <v>1496</v>
       </c>
-      <c r="R207" s="89"/>
-      <c r="S207" s="89" t="s">
+      <c r="R207" s="54"/>
+      <c r="S207" s="54" t="s">
         <v>1496</v>
       </c>
-      <c r="T207" s="80"/>
       <c r="U207" s="60"/>
       <c r="V207" s="60"/>
       <c r="W207" t="s">
@@ -50962,21 +50818,18 @@
       <c r="B208" t="s">
         <v>1502</v>
       </c>
-      <c r="C208" s="88" t="s">
+      <c r="C208" s="81" t="s">
         <v>1503</v>
       </c>
       <c r="D208" t="s">
         <v>64</v>
       </c>
-      <c r="E208" s="89" t="s">
+      <c r="E208" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="Q208" s="99" t="s">
+      <c r="Q208" s="90" t="s">
         <v>1501</v>
       </c>
-      <c r="R208" s="80"/>
-      <c r="S208" s="80"/>
-      <c r="T208" s="80"/>
       <c r="W208" s="59" t="s">
         <v>215</v>
       </c>
@@ -51013,7 +50866,7 @@
       <c r="D209" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="E209" s="97" t="s">
+      <c r="E209" s="89" t="s">
         <v>162</v>
       </c>
       <c r="F209" s="69"/>
@@ -51027,18 +50880,18 @@
       <c r="N209" s="69"/>
       <c r="O209" s="69"/>
       <c r="P209" s="69"/>
-      <c r="Q209" s="89" t="s">
+      <c r="Q209" s="54" t="s">
         <v>1505</v>
       </c>
-      <c r="R209" s="89" t="s">
+      <c r="R209" s="54" t="s">
         <v>1505</v>
       </c>
-      <c r="S209" s="89" t="s">
+      <c r="S209" s="54" t="s">
         <v>1505</v>
       </c>
-      <c r="T209" s="98"/>
-      <c r="U209" s="98"/>
-      <c r="V209" s="98"/>
+      <c r="T209" s="69"/>
+      <c r="U209" s="69"/>
+      <c r="V209" s="69"/>
       <c r="W209" s="70" t="s">
         <v>361</v>
       </c>
@@ -51112,14 +50965,13 @@
       <c r="E210" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="Q210" s="89" t="s">
+      <c r="Q210" s="54" t="s">
         <v>1510</v>
       </c>
-      <c r="R210" s="89"/>
-      <c r="S210" s="89" t="s">
+      <c r="R210" s="54"/>
+      <c r="S210" s="54" t="s">
         <v>1510</v>
       </c>
-      <c r="T210" s="80"/>
       <c r="W210" t="s">
         <v>215</v>
       </c>
@@ -51166,17 +51018,16 @@
       <c r="D211" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E211" s="81" t="s">
+      <c r="E211" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="Q211" s="89" t="s">
+      <c r="Q211" s="54" t="s">
         <v>1514</v>
       </c>
-      <c r="R211" s="89"/>
-      <c r="S211" s="89" t="s">
+      <c r="R211" s="54"/>
+      <c r="S211" s="54" t="s">
         <v>1514</v>
       </c>
-      <c r="T211" s="80"/>
       <c r="W211" t="s">
         <v>215</v>
       </c>
@@ -51222,12 +51073,6 @@
       <c r="E212" t="s">
         <v>162</v>
       </c>
-      <c r="Q212" s="80"/>
-      <c r="R212" s="80"/>
-      <c r="S212" s="80"/>
-      <c r="T212" s="80"/>
-      <c r="U212" s="80"/>
-      <c r="V212" s="80"/>
       <c r="W212" s="63" t="s">
         <v>361</v>
       </c>
@@ -51265,12 +51110,6 @@
       <c r="E213" t="s">
         <v>162</v>
       </c>
-      <c r="Q213" s="80"/>
-      <c r="R213" s="80"/>
-      <c r="S213" s="80"/>
-      <c r="T213" s="80"/>
-      <c r="U213" s="80"/>
-      <c r="V213" s="80"/>
       <c r="W213" s="63" t="s">
         <v>361</v>
       </c>
@@ -51308,12 +51147,6 @@
       <c r="E214" t="s">
         <v>162</v>
       </c>
-      <c r="Q214" s="80"/>
-      <c r="R214" s="80"/>
-      <c r="S214" s="80"/>
-      <c r="T214" s="80"/>
-      <c r="U214" s="80"/>
-      <c r="V214" s="80"/>
       <c r="W214" s="63" t="s">
         <v>361</v>
       </c>
@@ -51351,12 +51184,6 @@
       <c r="E215" t="s">
         <v>162</v>
       </c>
-      <c r="Q215" s="80"/>
-      <c r="R215" s="80"/>
-      <c r="S215" s="80"/>
-      <c r="T215" s="80"/>
-      <c r="U215" s="80"/>
-      <c r="V215" s="80"/>
       <c r="W215" s="63" t="s">
         <v>361</v>
       </c>
@@ -51394,12 +51221,6 @@
       <c r="E216" t="s">
         <v>162</v>
       </c>
-      <c r="Q216" s="80"/>
-      <c r="R216" s="80"/>
-      <c r="S216" s="80"/>
-      <c r="T216" s="80"/>
-      <c r="U216" s="80"/>
-      <c r="V216" s="80"/>
       <c r="W216" s="63" t="s">
         <v>361</v>
       </c>
@@ -51434,14 +51255,9 @@
       <c r="E217" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="Q217" s="99" t="s">
+      <c r="Q217" s="90" t="s">
         <v>1535</v>
       </c>
-      <c r="R217" s="80"/>
-      <c r="S217" s="80"/>
-      <c r="T217" s="80"/>
-      <c r="U217" s="80"/>
-      <c r="V217" s="80"/>
       <c r="W217" s="59" t="s">
         <v>215</v>
       </c>
@@ -51466,400 +51282,9 @@
       </c>
     </row>
     <row r="218" spans="1:61" ht="26.25" customHeight="1">
-      <c r="A218" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D218" t="s">
-        <v>64</v>
-      </c>
-      <c r="E218" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q218" s="80"/>
-      <c r="R218" s="80"/>
-      <c r="S218" s="80"/>
-      <c r="T218" s="80"/>
-      <c r="U218" s="80"/>
-      <c r="V218" s="80"/>
-      <c r="W218" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="X218" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z218" s="59" t="str">
-        <f t="shared" si="5"/>
-        <v>["Host", "Identifiers"]</v>
-      </c>
-      <c r="AA218" t="s">
-        <v>1442</v>
-      </c>
-      <c r="BA218" t="s">
-        <v>1541</v>
-      </c>
-      <c r="BC218" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD218" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="219" spans="1:61" ht="23.25" customHeight="1">
-      <c r="Q219" s="80"/>
-      <c r="R219" s="80"/>
-      <c r="S219" s="80"/>
-      <c r="T219" s="80"/>
-    </row>
-    <row r="220" spans="1:61" ht="23.25" customHeight="1">
-      <c r="Q220" s="80"/>
-      <c r="R220" s="80"/>
-      <c r="S220" s="80"/>
-      <c r="T220" s="80"/>
-    </row>
-    <row r="221" spans="1:61" ht="23.25" customHeight="1">
-      <c r="Q221" s="80"/>
-      <c r="R221" s="80"/>
-      <c r="S221" s="80"/>
-      <c r="T221" s="80"/>
-    </row>
-    <row r="222" spans="1:61" ht="23.25" customHeight="1">
-      <c r="Q222" s="80"/>
-      <c r="R222" s="80"/>
-      <c r="S222" s="80"/>
-      <c r="T222" s="80"/>
-    </row>
-    <row r="223" spans="1:61" ht="23.25" customHeight="1">
-      <c r="Q223" s="80"/>
-      <c r="R223" s="80"/>
-      <c r="S223" s="80"/>
-      <c r="T223" s="80"/>
-    </row>
-    <row r="224" spans="1:61" ht="23.25" customHeight="1">
-      <c r="Q224" s="80"/>
-      <c r="R224" s="80"/>
-      <c r="S224" s="80"/>
-      <c r="T224" s="80"/>
-    </row>
-    <row r="225" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q225" s="80"/>
-      <c r="R225" s="80"/>
-      <c r="S225" s="80"/>
-      <c r="T225" s="80"/>
-    </row>
-    <row r="226" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q226" s="80"/>
-      <c r="R226" s="80"/>
-      <c r="S226" s="80"/>
-      <c r="T226" s="80"/>
-    </row>
-    <row r="227" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q227" s="80"/>
-      <c r="R227" s="80"/>
-      <c r="S227" s="80"/>
-      <c r="T227" s="80"/>
-    </row>
-    <row r="228" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q228" s="80"/>
-      <c r="R228" s="80"/>
-      <c r="S228" s="80"/>
-      <c r="T228" s="80"/>
-    </row>
-    <row r="229" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q229" s="80"/>
-      <c r="R229" s="80"/>
-      <c r="S229" s="80"/>
-      <c r="T229" s="80"/>
-    </row>
-    <row r="230" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q230" s="80"/>
-      <c r="R230" s="80"/>
-      <c r="S230" s="80"/>
-      <c r="T230" s="80"/>
-    </row>
-    <row r="231" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q231" s="80"/>
-      <c r="R231" s="80"/>
-      <c r="S231" s="80"/>
-      <c r="T231" s="80"/>
-    </row>
-    <row r="232" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q232" s="80"/>
-      <c r="R232" s="80"/>
-      <c r="S232" s="80"/>
-      <c r="T232" s="80"/>
-    </row>
-    <row r="233" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q233" s="80"/>
-      <c r="R233" s="80"/>
-      <c r="S233" s="80"/>
-      <c r="T233" s="80"/>
-    </row>
-    <row r="234" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q234" s="80"/>
-      <c r="R234" s="80"/>
-      <c r="S234" s="80"/>
-      <c r="T234" s="80"/>
-    </row>
-    <row r="235" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q235" s="80"/>
-      <c r="R235" s="80"/>
-      <c r="S235" s="80"/>
-      <c r="T235" s="80"/>
-    </row>
-    <row r="236" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q236" s="80"/>
-      <c r="R236" s="80"/>
-      <c r="S236" s="80"/>
-      <c r="T236" s="80"/>
-    </row>
-    <row r="237" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q237" s="80"/>
-      <c r="R237" s="80"/>
-      <c r="S237" s="80"/>
-      <c r="T237" s="80"/>
-    </row>
-    <row r="238" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q238" s="80"/>
-      <c r="R238" s="80"/>
-      <c r="S238" s="80"/>
-      <c r="T238" s="80"/>
-    </row>
-    <row r="239" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q239" s="80"/>
-      <c r="R239" s="80"/>
-      <c r="S239" s="80"/>
-      <c r="T239" s="80"/>
-    </row>
-    <row r="240" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q240" s="80"/>
-      <c r="R240" s="80"/>
-      <c r="S240" s="80"/>
-      <c r="T240" s="80"/>
-    </row>
-    <row r="241" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q241" s="80"/>
-      <c r="R241" s="80"/>
-      <c r="S241" s="80"/>
-      <c r="T241" s="80"/>
-    </row>
-    <row r="242" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q242" s="80"/>
-      <c r="R242" s="80"/>
-      <c r="S242" s="80"/>
-      <c r="T242" s="80"/>
-    </row>
-    <row r="243" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q243" s="80"/>
-      <c r="R243" s="80"/>
-      <c r="S243" s="80"/>
-      <c r="T243" s="80"/>
-    </row>
-    <row r="244" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q244" s="80"/>
-      <c r="R244" s="80"/>
-      <c r="S244" s="80"/>
-      <c r="T244" s="80"/>
-    </row>
-    <row r="245" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q245" s="80"/>
-      <c r="R245" s="80"/>
-      <c r="S245" s="80"/>
-      <c r="T245" s="80"/>
-    </row>
-    <row r="246" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q246" s="80"/>
-      <c r="R246" s="80"/>
-      <c r="S246" s="80"/>
-      <c r="T246" s="80"/>
-    </row>
-    <row r="247" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q247" s="80"/>
-      <c r="R247" s="80"/>
-      <c r="S247" s="80"/>
-      <c r="T247" s="80"/>
-    </row>
-    <row r="248" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q248" s="80"/>
-      <c r="R248" s="80"/>
-      <c r="S248" s="80"/>
-      <c r="T248" s="80"/>
-    </row>
-    <row r="249" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q249" s="80"/>
-      <c r="R249" s="80"/>
-      <c r="S249" s="80"/>
-      <c r="T249" s="80"/>
-    </row>
-    <row r="250" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q250" s="80"/>
-      <c r="R250" s="80"/>
-      <c r="S250" s="80"/>
-      <c r="T250" s="80"/>
-    </row>
-    <row r="251" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q251" s="80"/>
-      <c r="R251" s="80"/>
-      <c r="S251" s="80"/>
-      <c r="T251" s="80"/>
-    </row>
-    <row r="252" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q252" s="80"/>
-      <c r="R252" s="80"/>
-      <c r="S252" s="80"/>
-      <c r="T252" s="80"/>
-    </row>
-    <row r="253" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q253" s="80"/>
-      <c r="R253" s="80"/>
-      <c r="S253" s="80"/>
-      <c r="T253" s="80"/>
-    </row>
-    <row r="254" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q254" s="80"/>
-      <c r="R254" s="80"/>
-      <c r="S254" s="80"/>
-      <c r="T254" s="80"/>
-    </row>
-    <row r="255" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q255" s="80"/>
-      <c r="R255" s="80"/>
-      <c r="S255" s="80"/>
-      <c r="T255" s="80"/>
-    </row>
-    <row r="256" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q256" s="80"/>
-      <c r="R256" s="80"/>
-      <c r="S256" s="80"/>
-      <c r="T256" s="80"/>
-    </row>
-    <row r="257" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q257" s="80"/>
-      <c r="R257" s="80"/>
-      <c r="S257" s="80"/>
-      <c r="T257" s="80"/>
-    </row>
-    <row r="258" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q258" s="80"/>
-      <c r="R258" s="80"/>
-      <c r="S258" s="80"/>
-      <c r="T258" s="80"/>
-    </row>
-    <row r="259" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q259" s="80"/>
-      <c r="R259" s="80"/>
-      <c r="S259" s="80"/>
-      <c r="T259" s="80"/>
-    </row>
-    <row r="260" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q260" s="80"/>
-      <c r="R260" s="80"/>
-      <c r="S260" s="80"/>
-      <c r="T260" s="80"/>
-    </row>
-    <row r="261" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q261" s="80"/>
-      <c r="R261" s="80"/>
-      <c r="S261" s="80"/>
-      <c r="T261" s="80"/>
-    </row>
-    <row r="262" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q262" s="80"/>
-      <c r="R262" s="80"/>
-      <c r="S262" s="80"/>
-      <c r="T262" s="80"/>
-    </row>
-    <row r="263" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q263" s="80"/>
-      <c r="R263" s="80"/>
-      <c r="S263" s="80"/>
-      <c r="T263" s="80"/>
-    </row>
-    <row r="264" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q264" s="80"/>
-      <c r="R264" s="80"/>
-      <c r="S264" s="80"/>
-      <c r="T264" s="80"/>
-    </row>
-    <row r="265" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q265" s="80"/>
-      <c r="R265" s="80"/>
-      <c r="S265" s="80"/>
-      <c r="T265" s="80"/>
-    </row>
-    <row r="266" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q266" s="80"/>
-      <c r="R266" s="80"/>
-      <c r="S266" s="80"/>
-      <c r="T266" s="80"/>
-    </row>
-    <row r="267" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q267" s="80"/>
-      <c r="R267" s="80"/>
-      <c r="S267" s="80"/>
-      <c r="T267" s="80"/>
-    </row>
-    <row r="268" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q268" s="80"/>
-      <c r="R268" s="80"/>
-      <c r="S268" s="80"/>
-      <c r="T268" s="80"/>
-    </row>
-    <row r="269" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q269" s="80"/>
-      <c r="R269" s="80"/>
-      <c r="S269" s="80"/>
-      <c r="T269" s="80"/>
-    </row>
-    <row r="270" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q270" s="80"/>
-      <c r="R270" s="80"/>
-      <c r="S270" s="80"/>
-      <c r="T270" s="80"/>
-    </row>
-    <row r="271" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q271" s="80"/>
-      <c r="R271" s="80"/>
-      <c r="S271" s="80"/>
-      <c r="T271" s="80"/>
-    </row>
-    <row r="272" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q272" s="80"/>
-      <c r="R272" s="80"/>
-      <c r="S272" s="80"/>
-      <c r="T272" s="80"/>
-    </row>
-    <row r="273" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q273" s="80"/>
-      <c r="R273" s="80"/>
-      <c r="S273" s="80"/>
-      <c r="T273" s="80"/>
-    </row>
-    <row r="274" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q274" s="80"/>
-      <c r="R274" s="80"/>
-      <c r="S274" s="80"/>
-      <c r="T274" s="80"/>
-    </row>
-    <row r="275" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q275" s="80"/>
-      <c r="R275" s="80"/>
-      <c r="S275" s="80"/>
-      <c r="T275" s="80"/>
-    </row>
-    <row r="276" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q276" s="80"/>
-      <c r="R276" s="80"/>
-      <c r="S276" s="80"/>
-      <c r="T276" s="80"/>
-    </row>
-    <row r="277" spans="17:20" ht="23.25" customHeight="1">
-      <c r="Q277" s="80"/>
-      <c r="R277" s="80"/>
-      <c r="S277" s="80"/>
-      <c r="T277" s="80"/>
+      <c r="E218" s="54"/>
+      <c r="W218" s="59"/>
+      <c r="Z218" s="59"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:BI218">
@@ -53060,7 +52485,7 @@
         <v>378</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
@@ -53070,14 +52495,14 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="2" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AH5" s="9" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -53104,7 +52529,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -53129,7 +52554,7 @@
         <v>378</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
@@ -53141,14 +52566,14 @@
       </c>
       <c r="AD6" s="13"/>
       <c r="AE6" s="1" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="AF6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG6" s="13"/>
       <c r="AH6" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI6" s="13"/>
       <c r="AJ6" s="13"/>
@@ -53198,7 +52623,7 @@
         <v>378</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
@@ -53210,14 +52635,14 @@
         <v>131</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG7" s="13"/>
       <c r="AH7" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI7" s="13"/>
       <c r="AJ7" s="13"/>
@@ -53267,7 +52692,7 @@
         <v>378</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
@@ -53277,14 +52702,14 @@
       <c r="AC8" s="13"/>
       <c r="AD8" s="13"/>
       <c r="AE8" s="1" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="AF8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG8" s="13"/>
       <c r="AH8" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="13"/>
@@ -53334,7 +52759,7 @@
         <v>378</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
@@ -53344,14 +52769,14 @@
       <c r="AC9" s="13"/>
       <c r="AD9" s="13"/>
       <c r="AE9" s="1" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG9" s="13"/>
       <c r="AH9" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
@@ -53378,7 +52803,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -53403,7 +52828,7 @@
         <v>378</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
@@ -53415,14 +52840,14 @@
       </c>
       <c r="AD10" s="13"/>
       <c r="AE10" s="1" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="AF10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG10" s="13"/>
       <c r="AH10" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
@@ -53449,7 +52874,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -53474,7 +52899,7 @@
         <v>378</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
@@ -53486,14 +52911,14 @@
       </c>
       <c r="AD11" s="13"/>
       <c r="AE11" s="1" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="AF11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG11" s="13"/>
       <c r="AH11" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
@@ -53543,7 +52968,7 @@
         <v>378</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
@@ -53553,14 +52978,14 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
       <c r="AE12" s="1" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="AF12" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG12" s="13"/>
       <c r="AH12" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
@@ -53610,7 +53035,7 @@
         <v>378</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
@@ -53620,14 +53045,14 @@
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="1" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="AF13" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG13" s="13"/>
       <c r="AH13" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI13" s="13"/>
       <c r="AJ13" s="13"/>
@@ -53654,7 +53079,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -53679,7 +53104,7 @@
         <v>378</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
@@ -53687,20 +53112,20 @@
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG14" s="13"/>
       <c r="AH14" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI14" s="13"/>
       <c r="AJ14" s="13"/>
@@ -53750,7 +53175,7 @@
         <v>378</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
@@ -53759,17 +53184,17 @@
       <c r="AB15" s="13"/>
       <c r="AC15" s="13"/>
       <c r="AD15" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="AF15" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG15" s="13"/>
       <c r="AH15" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI15" s="13"/>
       <c r="AJ15" s="13"/>
@@ -53819,7 +53244,7 @@
         <v>378</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
@@ -53829,14 +53254,14 @@
       <c r="AC16" s="13"/>
       <c r="AD16" s="13"/>
       <c r="AE16" s="1" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG16" s="13"/>
       <c r="AH16" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI16" s="13"/>
       <c r="AJ16" s="13"/>
@@ -53863,7 +53288,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -53888,7 +53313,7 @@
         <v>378</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
@@ -53896,20 +53321,20 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="1" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="AF17" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG17" s="13"/>
       <c r="AH17" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="13"/>
@@ -53936,7 +53361,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -53961,7 +53386,7 @@
         <v>378</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
@@ -53969,20 +53394,20 @@
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
       <c r="AC18" s="1" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="AD18" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AE18" s="1" t="s">
         <v>1563</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>1566</v>
       </c>
       <c r="AF18" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG18" s="13"/>
       <c r="AH18" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI18" s="13"/>
       <c r="AJ18" s="13"/>
@@ -54009,7 +53434,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -54034,7 +53459,7 @@
         <v>378</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -54048,14 +53473,14 @@
         <v>235</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="AF19" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG19" s="13"/>
       <c r="AH19" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI19" s="13"/>
       <c r="AJ19" s="13"/>
@@ -54082,7 +53507,7 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -54107,7 +53532,7 @@
         <v>378</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
@@ -54119,14 +53544,14 @@
       </c>
       <c r="AD20" s="13"/>
       <c r="AE20" s="1" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="AF20" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG20" s="13"/>
       <c r="AH20" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI20" s="13"/>
       <c r="AJ20" s="13"/>
@@ -54198,7 +53623,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -54223,7 +53648,7 @@
         <v>378</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
@@ -54231,20 +53656,20 @@
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
       <c r="AC22" s="1" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="AF22" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG22" s="13"/>
       <c r="AH22" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI22" s="13"/>
       <c r="AJ22" s="13"/>
@@ -54271,7 +53696,7 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -54296,7 +53721,7 @@
         <v>378</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
@@ -54310,14 +53735,14 @@
         <v>131</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="AF23" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG23" s="13"/>
       <c r="AH23" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI23" s="13"/>
       <c r="AJ23" s="13"/>
@@ -54344,7 +53769,7 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -54369,7 +53794,7 @@
         <v>378</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
@@ -54381,14 +53806,14 @@
       </c>
       <c r="AD24" s="13"/>
       <c r="AE24" s="1" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="AF24" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG24" s="13"/>
       <c r="AH24" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI24" s="13"/>
       <c r="AJ24" s="13"/>
@@ -54438,7 +53863,7 @@
         <v>378</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
@@ -54448,14 +53873,14 @@
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="1" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="AF25" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG25" s="13"/>
       <c r="AH25" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI25" s="13"/>
       <c r="AJ25" s="13"/>
@@ -54482,7 +53907,7 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -54507,7 +53932,7 @@
         <v>378</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
@@ -54519,14 +53944,14 @@
       </c>
       <c r="AD26" s="13"/>
       <c r="AE26" s="1" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="AF26" s="1" t="s">
         <v>753</v>
       </c>
       <c r="AG26" s="13"/>
       <c r="AH26" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="13"/>
@@ -54553,7 +53978,7 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -54578,7 +54003,7 @@
         <v>378</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
@@ -54592,14 +54017,14 @@
         <v>235</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="AF27" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG27" s="13"/>
       <c r="AH27" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="13"/>
@@ -54626,7 +54051,7 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -54651,7 +54076,7 @@
         <v>378</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
@@ -54665,14 +54090,14 @@
         <v>235</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="AF28" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG28" s="13"/>
       <c r="AH28" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="13"/>
@@ -54699,7 +54124,7 @@
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -54724,7 +54149,7 @@
         <v>378</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
@@ -54738,14 +54163,14 @@
         <v>235</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="AF29" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG29" s="13"/>
       <c r="AH29" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
@@ -54795,7 +54220,7 @@
         <v>378</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
@@ -54804,17 +54229,17 @@
       <c r="AB30" s="13"/>
       <c r="AC30" s="13"/>
       <c r="AD30" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="AF30" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG30" s="13"/>
       <c r="AH30" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="13"/>
@@ -54864,7 +54289,7 @@
         <v>378</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
@@ -54873,17 +54298,17 @@
       <c r="AB31" s="13"/>
       <c r="AC31" s="13"/>
       <c r="AD31" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="AF31" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG31" s="13"/>
       <c r="AH31" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="13"/>
@@ -54910,7 +54335,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -54935,7 +54360,7 @@
         <v>378</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
@@ -54947,14 +54372,14 @@
       </c>
       <c r="AD32" s="13"/>
       <c r="AE32" s="1" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="AF32" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG32" s="13"/>
       <c r="AH32" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="13"/>
@@ -55004,7 +54429,7 @@
         <v>378</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
@@ -55014,14 +54439,14 @@
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
       <c r="AE33" s="1" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="AF33" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG33" s="13"/>
       <c r="AH33" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="13"/>
@@ -55048,7 +54473,7 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -55073,7 +54498,7 @@
         <v>378</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
@@ -55085,14 +54510,14 @@
       </c>
       <c r="AD34" s="13"/>
       <c r="AE34" s="1" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="AF34" s="1" t="s">
         <v>753</v>
       </c>
       <c r="AG34" s="13"/>
       <c r="AH34" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="13"/>
@@ -55142,7 +54567,7 @@
         <v>378</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
@@ -55154,14 +54579,14 @@
         <v>131</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="AF35" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG35" s="13"/>
       <c r="AH35" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="13"/>
@@ -55211,7 +54636,7 @@
         <v>378</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
@@ -55228,7 +54653,7 @@
       </c>
       <c r="AG36" s="13"/>
       <c r="AH36" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI36" s="13"/>
       <c r="AJ36" s="13"/>
@@ -55255,7 +54680,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -55280,7 +54705,7 @@
         <v>378</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
@@ -55288,20 +54713,20 @@
       <c r="AA37" s="13"/>
       <c r="AB37" s="13"/>
       <c r="AC37" s="1" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="AF37" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG37" s="13"/>
       <c r="AH37" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI37" s="13"/>
       <c r="AJ37" s="13"/>
@@ -55328,7 +54753,7 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -55353,7 +54778,7 @@
         <v>378</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
@@ -55361,20 +54786,20 @@
       <c r="AA38" s="13"/>
       <c r="AB38" s="13"/>
       <c r="AC38" s="1" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="AF38" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG38" s="13"/>
       <c r="AH38" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI38" s="13"/>
       <c r="AJ38" s="13"/>
@@ -55401,7 +54826,7 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -55426,7 +54851,7 @@
         <v>378</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
@@ -55434,20 +54859,20 @@
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
       <c r="AC39" s="1" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="AF39" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG39" s="13"/>
       <c r="AH39" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI39" s="13"/>
       <c r="AJ39" s="13"/>
@@ -55474,7 +54899,7 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -55499,7 +54924,7 @@
         <v>378</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
@@ -55507,18 +54932,18 @@
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
       <c r="AC40" s="1" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="AD40" s="13"/>
       <c r="AE40" s="1" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="AF40" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG40" s="13"/>
       <c r="AH40" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI40" s="13"/>
       <c r="AJ40" s="13"/>
@@ -55545,7 +54970,7 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -55570,7 +54995,7 @@
         <v>378</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
@@ -55584,14 +55009,14 @@
         <v>131</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="AF41" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG41" s="13"/>
       <c r="AH41" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI41" s="13"/>
       <c r="AJ41" s="13"/>
@@ -55641,7 +55066,7 @@
         <v>378</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
@@ -55651,14 +55076,14 @@
       <c r="AC42" s="13"/>
       <c r="AD42" s="13"/>
       <c r="AE42" s="1" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="AF42" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG42" s="13"/>
       <c r="AH42" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI42" s="13"/>
       <c r="AJ42" s="13"/>
@@ -55685,7 +55110,7 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -55710,7 +55135,7 @@
         <v>378</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
@@ -55722,14 +55147,14 @@
       </c>
       <c r="AD43" s="13"/>
       <c r="AE43" s="1" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="AF43" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG43" s="13"/>
       <c r="AH43" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI43" s="13"/>
       <c r="AJ43" s="13"/>
@@ -55756,7 +55181,7 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -55781,7 +55206,7 @@
         <v>378</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
@@ -55793,14 +55218,14 @@
       </c>
       <c r="AD44" s="13"/>
       <c r="AE44" s="1" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="AF44" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG44" s="13"/>
       <c r="AH44" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI44" s="13"/>
       <c r="AJ44" s="13"/>
@@ -55827,7 +55252,7 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -55852,7 +55277,7 @@
         <v>378</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
@@ -55864,14 +55289,14 @@
       </c>
       <c r="AD45" s="13"/>
       <c r="AE45" s="1" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="AF45" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG45" s="13"/>
       <c r="AH45" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI45" s="13"/>
       <c r="AJ45" s="13"/>
@@ -55921,7 +55346,7 @@
         <v>378</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
@@ -55931,14 +55356,14 @@
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="1" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="AF46" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG46" s="13"/>
       <c r="AH46" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI46" s="13"/>
       <c r="AJ46" s="13"/>
@@ -55965,7 +55390,7 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -55990,7 +55415,7 @@
         <v>378</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
@@ -56002,14 +55427,14 @@
       </c>
       <c r="AD47" s="13"/>
       <c r="AE47" s="1" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="AF47" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG47" s="13"/>
       <c r="AH47" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI47" s="13"/>
       <c r="AJ47" s="13"/>
@@ -56059,7 +55484,7 @@
         <v>378</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
@@ -56069,14 +55494,14 @@
       <c r="AC48" s="13"/>
       <c r="AD48" s="13"/>
       <c r="AE48" s="1" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="AF48" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG48" s="13"/>
       <c r="AH48" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI48" s="13"/>
       <c r="AJ48" s="13"/>
@@ -56103,7 +55528,7 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -56128,7 +55553,7 @@
         <v>378</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
@@ -56140,14 +55565,14 @@
       </c>
       <c r="AD49" s="13"/>
       <c r="AE49" s="1" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="AF49" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG49" s="13"/>
       <c r="AH49" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI49" s="13"/>
       <c r="AJ49" s="13"/>
@@ -56197,7 +55622,7 @@
         <v>378</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
@@ -56207,14 +55632,14 @@
       <c r="AC50" s="13"/>
       <c r="AD50" s="13"/>
       <c r="AE50" s="1" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="AF50" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG50" s="13"/>
       <c r="AH50" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI50" s="13"/>
       <c r="AJ50" s="13"/>
@@ -56264,7 +55689,7 @@
         <v>378</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X51" s="13"/>
       <c r="Y51" s="13"/>
@@ -56273,17 +55698,17 @@
       <c r="AB51" s="13"/>
       <c r="AC51" s="13"/>
       <c r="AD51" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="AF51" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG51" s="13"/>
       <c r="AH51" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI51" s="13"/>
       <c r="AJ51" s="13"/>
@@ -56333,7 +55758,7 @@
         <v>378</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
@@ -56342,17 +55767,17 @@
       <c r="AB52" s="13"/>
       <c r="AC52" s="13"/>
       <c r="AD52" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="AF52" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG52" s="13"/>
       <c r="AH52" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI52" s="13"/>
       <c r="AJ52" s="13"/>
@@ -56379,7 +55804,7 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
@@ -56404,7 +55829,7 @@
         <v>378</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
@@ -56418,14 +55843,14 @@
         <v>131</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="AF53" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG53" s="13"/>
       <c r="AH53" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI53" s="13"/>
       <c r="AJ53" s="13"/>
@@ -56475,7 +55900,7 @@
         <v>378</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X54" s="13"/>
       <c r="Y54" s="13"/>
@@ -56487,14 +55912,14 @@
         <v>131</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="AF54" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG54" s="13"/>
       <c r="AH54" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI54" s="13"/>
       <c r="AJ54" s="13"/>
@@ -56521,7 +55946,7 @@
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
@@ -56546,7 +55971,7 @@
         <v>378</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
@@ -56560,14 +55985,14 @@
         <v>131</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="AF55" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG55" s="13"/>
       <c r="AH55" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI55" s="13"/>
       <c r="AJ55" s="13"/>
@@ -56641,7 +56066,7 @@
         <v>378</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
@@ -56653,14 +56078,14 @@
         <v>131</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="AF57" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG57" s="13"/>
       <c r="AH57" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI57" s="13"/>
       <c r="AJ57" s="13"/>
@@ -56710,7 +56135,7 @@
         <v>378</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
@@ -56722,14 +56147,14 @@
         <v>131</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="AF58" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG58" s="13"/>
       <c r="AH58" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI58" s="13"/>
       <c r="AJ58" s="13"/>
@@ -56756,7 +56181,7 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
@@ -56781,7 +56206,7 @@
         <v>378</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
@@ -56789,20 +56214,20 @@
       <c r="AA59" s="13"/>
       <c r="AB59" s="13"/>
       <c r="AC59" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="AF59" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG59" s="13"/>
       <c r="AH59" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI59" s="13"/>
       <c r="AJ59" s="13"/>
@@ -56852,7 +56277,7 @@
         <v>378</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
@@ -56861,17 +56286,17 @@
       <c r="AB60" s="13"/>
       <c r="AC60" s="13"/>
       <c r="AD60" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="AF60" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG60" s="13"/>
       <c r="AH60" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI60" s="13"/>
       <c r="AJ60" s="13"/>
@@ -56898,7 +56323,7 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
@@ -56923,7 +56348,7 @@
         <v>378</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
@@ -56935,14 +56360,14 @@
       </c>
       <c r="AD61" s="13"/>
       <c r="AE61" s="1" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="AF61" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG61" s="13"/>
       <c r="AH61" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI61" s="13"/>
       <c r="AJ61" s="13"/>
@@ -56992,7 +56417,7 @@
         <v>378</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
@@ -57002,14 +56427,14 @@
       <c r="AC62" s="13"/>
       <c r="AD62" s="13"/>
       <c r="AE62" s="1" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="AF62" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG62" s="13"/>
       <c r="AH62" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI62" s="13"/>
       <c r="AJ62" s="13"/>
@@ -57036,7 +56461,7 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
@@ -57061,7 +56486,7 @@
         <v>378</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
@@ -57073,14 +56498,14 @@
       </c>
       <c r="AD63" s="13"/>
       <c r="AE63" s="1" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="AF63" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG63" s="13"/>
       <c r="AH63" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI63" s="13"/>
       <c r="AJ63" s="13"/>
@@ -57130,7 +56555,7 @@
         <v>378</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
@@ -57140,14 +56565,14 @@
       <c r="AC64" s="13"/>
       <c r="AD64" s="13"/>
       <c r="AE64" s="1" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="AF64" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG64" s="13"/>
       <c r="AH64" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI64" s="13"/>
       <c r="AJ64" s="13"/>
@@ -57197,7 +56622,7 @@
         <v>378</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X65" s="13"/>
       <c r="Y65" s="13"/>
@@ -57206,17 +56631,17 @@
       <c r="AB65" s="13"/>
       <c r="AC65" s="13"/>
       <c r="AD65" s="1" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="AF65" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG65" s="13"/>
       <c r="AH65" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI65" s="13"/>
       <c r="AJ65" s="13"/>
@@ -57266,7 +56691,7 @@
         <v>378</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
@@ -57276,14 +56701,14 @@
       <c r="AC66" s="13"/>
       <c r="AD66" s="13"/>
       <c r="AE66" s="1" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="AF66" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG66" s="13"/>
       <c r="AH66" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI66" s="13"/>
       <c r="AJ66" s="13"/>
@@ -57357,7 +56782,7 @@
         <v>378</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X68" s="13"/>
       <c r="Y68" s="13"/>
@@ -57374,7 +56799,7 @@
       </c>
       <c r="AG68" s="13"/>
       <c r="AH68" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI68" s="13"/>
       <c r="AJ68" s="13"/>
@@ -57401,7 +56826,7 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
@@ -57426,7 +56851,7 @@
         <v>378</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X69" s="13"/>
       <c r="Y69" s="13"/>
@@ -57438,14 +56863,14 @@
       </c>
       <c r="AD69" s="13"/>
       <c r="AE69" s="1" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="AF69" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG69" s="13"/>
       <c r="AH69" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI69" s="13"/>
       <c r="AJ69" s="13"/>
@@ -57472,7 +56897,7 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
@@ -57497,7 +56922,7 @@
         <v>378</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X70" s="13"/>
       <c r="Y70" s="13"/>
@@ -57511,14 +56936,14 @@
         <v>131</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="AF70" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG70" s="13"/>
       <c r="AH70" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI70" s="13"/>
       <c r="AJ70" s="13"/>
@@ -57545,7 +56970,7 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
@@ -57570,7 +56995,7 @@
         <v>378</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X71" s="13"/>
       <c r="Y71" s="13"/>
@@ -57582,14 +57007,14 @@
       </c>
       <c r="AD71" s="13"/>
       <c r="AE71" s="1" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="AF71" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG71" s="13"/>
       <c r="AH71" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI71" s="13"/>
       <c r="AJ71" s="13"/>
@@ -57616,7 +57041,7 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
@@ -57641,7 +57066,7 @@
         <v>378</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X72" s="13"/>
       <c r="Y72" s="13"/>
@@ -57653,14 +57078,14 @@
       </c>
       <c r="AD72" s="13"/>
       <c r="AE72" s="1" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="AF72" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG72" s="13"/>
       <c r="AH72" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI72" s="13"/>
       <c r="AJ72" s="13"/>
@@ -57710,7 +57135,7 @@
         <v>378</v>
       </c>
       <c r="W73" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X73" s="13"/>
       <c r="Y73" s="13"/>
@@ -57719,17 +57144,17 @@
       <c r="AB73" s="13"/>
       <c r="AC73" s="13"/>
       <c r="AD73" s="1" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="AF73" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG73" s="13"/>
       <c r="AH73" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI73" s="13"/>
       <c r="AJ73" s="13"/>
@@ -57756,7 +57181,7 @@
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -57781,7 +57206,7 @@
         <v>378</v>
       </c>
       <c r="W74" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X74" s="13"/>
       <c r="Y74" s="13"/>
@@ -57792,17 +57217,17 @@
         <v>751</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="AE74" s="1" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="AF74" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG74" s="13"/>
       <c r="AH74" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI74" s="13"/>
       <c r="AJ74" s="13"/>
@@ -57852,7 +57277,7 @@
         <v>378</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
@@ -57862,14 +57287,14 @@
       <c r="AC75" s="13"/>
       <c r="AD75" s="13"/>
       <c r="AE75" s="1" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="AF75" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG75" s="13"/>
       <c r="AH75" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI75" s="13"/>
       <c r="AJ75" s="13"/>
@@ -57919,7 +57344,7 @@
         <v>378</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X76" s="13"/>
       <c r="Y76" s="13"/>
@@ -57929,14 +57354,14 @@
       <c r="AC76" s="13"/>
       <c r="AD76" s="13"/>
       <c r="AE76" s="1" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="AF76" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG76" s="13"/>
       <c r="AH76" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI76" s="13"/>
       <c r="AJ76" s="13"/>
@@ -57986,7 +57411,7 @@
         <v>378</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X77" s="13"/>
       <c r="Y77" s="13"/>
@@ -57995,17 +57420,17 @@
       <c r="AB77" s="13"/>
       <c r="AC77" s="13"/>
       <c r="AD77" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="AF77" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG77" s="13"/>
       <c r="AH77" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI77" s="13"/>
       <c r="AJ77" s="13"/>
@@ -58055,7 +57480,7 @@
         <v>378</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X78" s="13"/>
       <c r="Y78" s="13"/>
@@ -58064,17 +57489,17 @@
       <c r="AB78" s="13"/>
       <c r="AC78" s="13"/>
       <c r="AD78" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="AF78" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG78" s="13"/>
       <c r="AH78" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI78" s="13"/>
       <c r="AJ78" s="13"/>
@@ -58101,7 +57526,7 @@
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
@@ -58126,7 +57551,7 @@
         <v>378</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X79" s="13"/>
       <c r="Y79" s="13"/>
@@ -58138,14 +57563,14 @@
       </c>
       <c r="AD79" s="13"/>
       <c r="AE79" s="1" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="AF79" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG79" s="13"/>
       <c r="AH79" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI79" s="13"/>
       <c r="AJ79" s="13"/>
@@ -58172,7 +57597,7 @@
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
@@ -58197,7 +57622,7 @@
         <v>378</v>
       </c>
       <c r="W80" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X80" s="13"/>
       <c r="Y80" s="13"/>
@@ -58209,14 +57634,14 @@
       </c>
       <c r="AD80" s="13"/>
       <c r="AE80" s="1" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="AF80" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG80" s="13"/>
       <c r="AH80" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI80" s="13"/>
       <c r="AJ80" s="13"/>
@@ -58266,7 +57691,7 @@
         <v>378</v>
       </c>
       <c r="W81" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
@@ -58275,17 +57700,17 @@
       <c r="AB81" s="13"/>
       <c r="AC81" s="13"/>
       <c r="AD81" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="AF81" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG81" s="13"/>
       <c r="AH81" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI81" s="13"/>
       <c r="AJ81" s="13"/>
@@ -58312,7 +57737,7 @@
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
@@ -58337,7 +57762,7 @@
         <v>378</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X82" s="13"/>
       <c r="Y82" s="13"/>
@@ -58349,14 +57774,14 @@
       </c>
       <c r="AD82" s="13"/>
       <c r="AE82" s="1" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="AF82" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG82" s="13"/>
       <c r="AH82" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI82" s="13"/>
       <c r="AJ82" s="13"/>
@@ -58406,7 +57831,7 @@
         <v>378</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
@@ -58416,14 +57841,14 @@
       <c r="AC83" s="13"/>
       <c r="AD83" s="13"/>
       <c r="AE83" s="1" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="AF83" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG83" s="13"/>
       <c r="AH83" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI83" s="13"/>
       <c r="AJ83" s="13"/>
@@ -58495,7 +57920,7 @@
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
@@ -58520,7 +57945,7 @@
         <v>378</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X85" s="13"/>
       <c r="Y85" s="13"/>
@@ -58534,14 +57959,14 @@
         <v>235</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="AF85" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG85" s="13"/>
       <c r="AH85" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI85" s="13"/>
       <c r="AJ85" s="13"/>
@@ -58591,7 +58016,7 @@
         <v>378</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X86" s="13"/>
       <c r="Y86" s="13"/>
@@ -58600,17 +58025,17 @@
       <c r="AB86" s="13"/>
       <c r="AC86" s="13"/>
       <c r="AD86" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AE86" s="1" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="AF86" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG86" s="13"/>
       <c r="AH86" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI86" s="13"/>
       <c r="AJ86" s="13"/>
@@ -58660,7 +58085,7 @@
         <v>378</v>
       </c>
       <c r="W87" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X87" s="13"/>
       <c r="Y87" s="13"/>
@@ -58669,17 +58094,17 @@
       <c r="AB87" s="13"/>
       <c r="AC87" s="13"/>
       <c r="AD87" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AE87" s="1" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="AF87" s="1" t="s">
         <v>266</v>
       </c>
       <c r="AG87" s="13"/>
       <c r="AH87" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI87" s="13"/>
       <c r="AJ87" s="13"/>
@@ -58706,7 +58131,7 @@
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
@@ -58731,7 +58156,7 @@
         <v>378</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X88" s="13"/>
       <c r="Y88" s="13"/>
@@ -58742,7 +58167,7 @@
         <v>751</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="AE88" s="1" t="s">
         <v>65</v>
@@ -58752,7 +58177,7 @@
       </c>
       <c r="AG88" s="13"/>
       <c r="AH88" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI88" s="13"/>
       <c r="AJ88" s="13"/>
@@ -58802,7 +58227,7 @@
         <v>378</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
@@ -58819,7 +58244,7 @@
       </c>
       <c r="AG89" s="13"/>
       <c r="AH89" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI89" s="13"/>
       <c r="AJ89" s="13"/>
@@ -58869,7 +58294,7 @@
         <v>378</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X90" s="13"/>
       <c r="Y90" s="13"/>
@@ -58879,14 +58304,14 @@
       <c r="AC90" s="13"/>
       <c r="AD90" s="13"/>
       <c r="AE90" s="1" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="AF90" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG90" s="13"/>
       <c r="AH90" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI90" s="13"/>
       <c r="AJ90" s="13"/>
@@ -58936,7 +58361,7 @@
         <v>378</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X91" s="13"/>
       <c r="Y91" s="13"/>
@@ -58945,17 +58370,17 @@
       <c r="AB91" s="13"/>
       <c r="AC91" s="13"/>
       <c r="AD91" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="AF91" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG91" s="13"/>
       <c r="AH91" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI91" s="13"/>
       <c r="AJ91" s="13"/>
@@ -59005,7 +58430,7 @@
         <v>378</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X92" s="13"/>
       <c r="Y92" s="13"/>
@@ -59015,14 +58440,14 @@
       <c r="AC92" s="13"/>
       <c r="AD92" s="13"/>
       <c r="AE92" s="1" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="AF92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG92" s="13"/>
       <c r="AH92" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI92" s="13"/>
       <c r="AJ92" s="13"/>
@@ -59049,7 +58474,7 @@
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
@@ -59074,7 +58499,7 @@
         <v>378</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X93" s="13"/>
       <c r="Y93" s="13"/>
@@ -59082,20 +58507,20 @@
       <c r="AA93" s="13"/>
       <c r="AB93" s="13"/>
       <c r="AC93" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="AF93" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG93" s="13"/>
       <c r="AH93" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI93" s="13"/>
       <c r="AJ93" s="13"/>
@@ -59145,7 +58570,7 @@
         <v>378</v>
       </c>
       <c r="W94" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X94" s="13"/>
       <c r="Y94" s="13"/>
@@ -59155,14 +58580,14 @@
       <c r="AC94" s="13"/>
       <c r="AD94" s="13"/>
       <c r="AE94" s="1" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="AF94" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG94" s="13"/>
       <c r="AH94" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI94" s="13"/>
       <c r="AJ94" s="13"/>
@@ -59189,7 +58614,7 @@
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
@@ -59214,7 +58639,7 @@
         <v>378</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X95" s="13"/>
       <c r="Y95" s="13"/>
@@ -59228,14 +58653,14 @@
         <v>131</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="AF95" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG95" s="13"/>
       <c r="AH95" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI95" s="13"/>
       <c r="AJ95" s="13"/>
@@ -59287,7 +58712,7 @@
         <v>378</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X96" s="13"/>
       <c r="Y96" s="13"/>
@@ -59299,14 +58724,14 @@
       </c>
       <c r="AD96" s="13"/>
       <c r="AE96" s="1" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="AF96" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG96" s="13"/>
       <c r="AH96" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI96" s="13"/>
       <c r="AJ96" s="13"/>
@@ -59356,7 +58781,7 @@
         <v>378</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X97" s="13"/>
       <c r="Y97" s="13"/>
@@ -59368,14 +58793,14 @@
         <v>235</v>
       </c>
       <c r="AE97" s="1" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AF97" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG97" s="13"/>
       <c r="AH97" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI97" s="13"/>
       <c r="AJ97" s="13"/>
@@ -59402,7 +58827,7 @@
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
@@ -59427,7 +58852,7 @@
         <v>378</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X98" s="13"/>
       <c r="Y98" s="13"/>
@@ -59439,14 +58864,14 @@
       </c>
       <c r="AD98" s="13"/>
       <c r="AE98" s="1" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AF98" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG98" s="13"/>
       <c r="AH98" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI98" s="13"/>
       <c r="AJ98" s="13"/>
@@ -59473,7 +58898,7 @@
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -59498,7 +58923,7 @@
         <v>378</v>
       </c>
       <c r="W99" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X99" s="13"/>
       <c r="Y99" s="13"/>
@@ -59510,14 +58935,14 @@
       </c>
       <c r="AD99" s="13"/>
       <c r="AE99" s="1" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="AF99" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG99" s="13"/>
       <c r="AH99" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI99" s="13"/>
       <c r="AJ99" s="13"/>
@@ -59567,7 +58992,7 @@
         <v>378</v>
       </c>
       <c r="W100" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X100" s="13"/>
       <c r="Y100" s="13"/>
@@ -59577,14 +59002,14 @@
       <c r="AC100" s="13"/>
       <c r="AD100" s="13"/>
       <c r="AE100" s="1" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="AF100" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG100" s="13"/>
       <c r="AH100" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI100" s="13"/>
       <c r="AJ100" s="13"/>
@@ -59611,7 +59036,7 @@
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
@@ -59636,7 +59061,7 @@
         <v>378</v>
       </c>
       <c r="W101" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X101" s="13"/>
       <c r="Y101" s="13"/>
@@ -59650,14 +59075,14 @@
         <v>131</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="AF101" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG101" s="13"/>
       <c r="AH101" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI101" s="13"/>
       <c r="AJ101" s="13"/>
@@ -59709,7 +59134,7 @@
         <v>378</v>
       </c>
       <c r="W102" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X102" s="13"/>
       <c r="Y102" s="13"/>
@@ -59728,7 +59153,7 @@
       </c>
       <c r="AG102" s="13"/>
       <c r="AH102" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI102" s="13"/>
       <c r="AJ102" s="13"/>
@@ -59755,7 +59180,7 @@
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
@@ -59780,7 +59205,7 @@
         <v>378</v>
       </c>
       <c r="W103" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X103" s="13"/>
       <c r="Y103" s="13"/>
@@ -59792,14 +59217,14 @@
       </c>
       <c r="AD103" s="13"/>
       <c r="AE103" s="1" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="AF103" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG103" s="13"/>
       <c r="AH103" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI103" s="13"/>
       <c r="AJ103" s="13"/>
@@ -59826,7 +59251,7 @@
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
@@ -59851,7 +59276,7 @@
         <v>378</v>
       </c>
       <c r="W104" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X104" s="13"/>
       <c r="Y104" s="13"/>
@@ -59863,14 +59288,14 @@
       </c>
       <c r="AD104" s="13"/>
       <c r="AE104" s="1" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="AF104" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG104" s="13"/>
       <c r="AH104" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI104" s="13"/>
       <c r="AJ104" s="13"/>
@@ -59897,7 +59322,7 @@
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
@@ -59922,7 +59347,7 @@
         <v>378</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X105" s="13"/>
       <c r="Y105" s="13"/>
@@ -59936,14 +59361,14 @@
         <v>651</v>
       </c>
       <c r="AE105" s="1" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="AF105" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG105" s="13"/>
       <c r="AH105" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI105" s="13"/>
       <c r="AJ105" s="13"/>
@@ -59971,7 +59396,7 @@
       <c r="M106" s="4"/>
       <c r="AG106" s="13"/>
       <c r="AH106" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI106" s="13"/>
       <c r="AJ106" s="13"/>
@@ -60021,7 +59446,7 @@
         <v>378</v>
       </c>
       <c r="W107" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
@@ -60031,14 +59456,14 @@
       <c r="AC107" s="13"/>
       <c r="AD107" s="13"/>
       <c r="AE107" s="1" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="AF107" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG107" s="13"/>
       <c r="AH107" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI107" s="13"/>
       <c r="AJ107" s="13"/>
@@ -60088,7 +59513,7 @@
         <v>378</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X108" s="13"/>
       <c r="Y108" s="13"/>
@@ -60101,11 +59526,11 @@
         <v>76</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="AG108" s="13"/>
       <c r="AH108" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI108" s="13"/>
       <c r="AJ108" s="13"/>
@@ -60132,7 +59557,7 @@
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
@@ -60157,7 +59582,7 @@
         <v>378</v>
       </c>
       <c r="W109" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X109" s="13"/>
       <c r="Y109" s="13"/>
@@ -60165,20 +59590,20 @@
       <c r="AA109" s="13"/>
       <c r="AB109" s="13"/>
       <c r="AC109" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AD109" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="AE109" s="1" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="AF109" s="1" t="s">
         <v>237</v>
       </c>
       <c r="AG109" s="13"/>
       <c r="AH109" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI109" s="13"/>
       <c r="AJ109" s="13"/>
@@ -60205,7 +59630,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
@@ -60230,7 +59655,7 @@
         <v>378</v>
       </c>
       <c r="W110" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X110" s="13"/>
       <c r="Y110" s="13"/>
@@ -60242,14 +59667,14 @@
       </c>
       <c r="AD110" s="13"/>
       <c r="AE110" s="1" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="AF110" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG110" s="13"/>
       <c r="AH110" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI110" s="13"/>
       <c r="AJ110" s="13"/>
@@ -60299,7 +59724,7 @@
         <v>378</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X111" s="13"/>
       <c r="Y111" s="13"/>
@@ -60309,14 +59734,14 @@
       <c r="AC111" s="13"/>
       <c r="AD111" s="13"/>
       <c r="AE111" s="1" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="AF111" s="1" t="s">
         <v>75</v>
       </c>
       <c r="AG111" s="13"/>
       <c r="AH111" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI111" s="13"/>
       <c r="AJ111" s="13"/>
@@ -60366,7 +59791,7 @@
         <v>378</v>
       </c>
       <c r="W112" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X112" s="13"/>
       <c r="Y112" s="13"/>
@@ -60375,17 +59800,17 @@
       <c r="AB112" s="13"/>
       <c r="AC112" s="13"/>
       <c r="AD112" s="1" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="AE112" s="1" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="AF112" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG112" s="13"/>
       <c r="AH112" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI112" s="13"/>
       <c r="AJ112" s="13"/>
@@ -60435,7 +59860,7 @@
         <v>378</v>
       </c>
       <c r="W113" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X113" s="13"/>
       <c r="Y113" s="13"/>
@@ -60444,17 +59869,17 @@
       <c r="AB113" s="13"/>
       <c r="AC113" s="13"/>
       <c r="AD113" s="1" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="AE113" s="1" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="AF113" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AG113" s="13"/>
       <c r="AH113" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI113" s="13"/>
       <c r="AJ113" s="13"/>
@@ -60481,7 +59906,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
@@ -60506,7 +59931,7 @@
         <v>378</v>
       </c>
       <c r="W114" s="1" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
@@ -60521,7 +59946,7 @@
       <c r="AF114" s="13"/>
       <c r="AG114" s="13"/>
       <c r="AH114" s="14" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AI114" s="13"/>
       <c r="AJ114" s="13"/>
@@ -60576,14 +60001,14 @@
       <c r="X115" s="34"/>
       <c r="Y115" s="34"/>
       <c r="Z115" s="36" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="AA115" s="36" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="AB115" s="34"/>
       <c r="AC115" s="34" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AD115" s="34"/>
       <c r="AE115" s="34"/>
@@ -60746,7 +60171,7 @@
       <c r="K116" s="34"/>
       <c r="L116" s="34"/>
       <c r="M116" s="36" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="N116" s="34"/>
       <c r="O116" s="34"/>
@@ -60779,14 +60204,14 @@
       <c r="X116" s="34"/>
       <c r="Y116" s="34"/>
       <c r="Z116" s="36" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="AA116" s="36" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="AB116" s="34"/>
       <c r="AC116" s="34" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="AD116" s="34"/>
       <c r="AE116" s="34"/>
@@ -60808,7 +60233,7 @@
       <c r="AU116" s="34"/>
       <c r="AV116" s="37"/>
       <c r="AW116" s="37" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="AX116" s="37"/>
       <c r="AY116" s="37"/>
@@ -60982,14 +60407,14 @@
       <c r="X117" s="34"/>
       <c r="Y117" s="34"/>
       <c r="Z117" s="36" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="AA117" s="36" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="AB117" s="34"/>
       <c r="AC117" s="34" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="AD117" s="34"/>
       <c r="AE117" s="34"/>
@@ -61011,7 +60436,7 @@
       <c r="AU117" s="34"/>
       <c r="AV117" s="37"/>
       <c r="AW117" s="37" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="AX117" s="37"/>
       <c r="AY117" s="37"/>
@@ -61140,13 +60565,13 @@
     </row>
     <row r="118" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A118" s="38" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="B118" s="39" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
@@ -61162,10 +60587,10 @@
       <c r="M118" s="39"/>
       <c r="N118" s="39"/>
       <c r="O118" s="38" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="P118" s="38" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="Q118" s="40" t="s">
         <v>100</v>
@@ -61203,12 +60628,12 @@
       <c r="AH118" s="39"/>
       <c r="AI118" s="39"/>
       <c r="AJ118" s="38" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="AK118" s="38"/>
       <c r="AL118" s="38"/>
       <c r="AM118" s="38" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="AN118" s="38"/>
       <c r="AO118" s="38" t="s">
@@ -61227,14 +60652,14 @@
         <v>136</v>
       </c>
       <c r="AT118" s="38" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="AU118" s="39" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="AV118" s="39"/>
       <c r="AW118" s="39" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="AX118" s="39"/>
       <c r="AY118" s="39"/>
@@ -61363,13 +60788,13 @@
     </row>
     <row r="119" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A119" s="38" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="B119" s="39" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
@@ -61385,10 +60810,10 @@
       <c r="M119" s="39"/>
       <c r="N119" s="39"/>
       <c r="O119" s="38" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="P119" s="38" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="Q119" s="40" t="s">
         <v>772</v>
@@ -61426,12 +60851,12 @@
       <c r="AH119" s="39"/>
       <c r="AI119" s="39"/>
       <c r="AJ119" s="38" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="AK119" s="38"/>
       <c r="AL119" s="38"/>
       <c r="AM119" s="38" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="AN119" s="38"/>
       <c r="AO119" s="38" t="s">
@@ -61450,14 +60875,14 @@
         <v>136</v>
       </c>
       <c r="AT119" s="38" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="AU119" s="39" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="AV119" s="39"/>
       <c r="AW119" s="39" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="AX119" s="39"/>
       <c r="AY119" s="39"/>
@@ -61586,13 +61011,13 @@
     </row>
     <row r="120" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A120" s="38" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="B120" s="39" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
@@ -61608,10 +61033,10 @@
       <c r="M120" s="39"/>
       <c r="N120" s="39"/>
       <c r="O120" s="38" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="P120" s="38" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="Q120" s="40" t="s">
         <v>926</v>
@@ -61649,12 +61074,12 @@
       <c r="AH120" s="39"/>
       <c r="AI120" s="39"/>
       <c r="AJ120" s="38" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="AK120" s="38"/>
       <c r="AL120" s="38"/>
       <c r="AM120" s="38" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="AN120" s="38"/>
       <c r="AO120" s="38" t="s">
@@ -61673,14 +61098,14 @@
         <v>136</v>
       </c>
       <c r="AT120" s="38" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="AU120" s="39" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="AV120" s="39"/>
       <c r="AW120" s="39" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="AX120" s="39"/>
       <c r="AY120" s="39"/>
@@ -61809,13 +61234,13 @@
     </row>
     <row r="121" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A121" s="38" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="B121" s="39" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="D121" s="38"/>
       <c r="E121" s="38" t="s">
@@ -61831,10 +61256,10 @@
       <c r="M121" s="39"/>
       <c r="N121" s="39"/>
       <c r="O121" s="38" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="P121" s="38" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="Q121" s="40" t="s">
         <v>113</v>
@@ -61872,12 +61297,12 @@
       <c r="AH121" s="39"/>
       <c r="AI121" s="39"/>
       <c r="AJ121" s="38" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="AK121" s="38"/>
       <c r="AL121" s="38"/>
       <c r="AM121" s="38" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="AN121" s="38"/>
       <c r="AO121" s="38" t="s">
@@ -61896,14 +61321,14 @@
         <v>136</v>
       </c>
       <c r="AT121" s="38" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="AU121" s="39" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="AV121" s="39"/>
       <c r="AW121" s="39" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="AX121" s="39"/>
       <c r="AY121" s="39"/>
@@ -62032,13 +61457,13 @@
     </row>
     <row r="122" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A122" s="38" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="B122" s="39" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
@@ -62054,10 +61479,10 @@
       <c r="M122" s="39"/>
       <c r="N122" s="39"/>
       <c r="O122" s="38" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="P122" s="38" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="Q122" s="40" t="s">
         <v>926</v>
@@ -62095,12 +61520,12 @@
       <c r="AH122" s="39"/>
       <c r="AI122" s="39"/>
       <c r="AJ122" s="38" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="AK122" s="38"/>
       <c r="AL122" s="38"/>
       <c r="AM122" s="38" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="AN122" s="38"/>
       <c r="AO122" s="38" t="s">
@@ -62119,14 +61544,14 @@
         <v>136</v>
       </c>
       <c r="AT122" s="38" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="AU122" s="39" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="AV122" s="39"/>
       <c r="AW122" s="39" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="AX122" s="39"/>
       <c r="AY122" s="39"/>
@@ -62255,13 +61680,13 @@
     </row>
     <row r="123" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A123" s="32" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="B123" s="42" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="D123" s="32"/>
       <c r="E123" s="32" t="s">
@@ -62277,10 +61702,10 @@
       <c r="M123" s="42"/>
       <c r="N123" s="42"/>
       <c r="O123" s="32" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="P123" s="32" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="Q123" s="43" t="s">
         <v>100</v>
@@ -62318,12 +61743,12 @@
       <c r="AH123" s="42"/>
       <c r="AI123" s="42"/>
       <c r="AJ123" s="32" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="AK123" s="32"/>
       <c r="AL123" s="32"/>
       <c r="AM123" s="32" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="AN123" s="32"/>
       <c r="AO123" s="32" t="s">
@@ -62342,14 +61767,14 @@
         <v>136</v>
       </c>
       <c r="AT123" s="32" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="AU123" s="42" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="AV123" s="42"/>
       <c r="AW123" s="42" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="AX123" s="42"/>
       <c r="AY123" s="42"/>
@@ -62478,13 +61903,13 @@
     </row>
     <row r="124" spans="1:173" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A124" s="32" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="D124" s="32"/>
       <c r="E124" s="32" t="s">
@@ -62500,10 +61925,10 @@
       <c r="M124" s="42"/>
       <c r="N124" s="42"/>
       <c r="O124" s="32" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="P124" s="32" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="Q124" s="43" t="s">
         <v>100</v>
@@ -62541,12 +61966,12 @@
       <c r="AH124" s="42"/>
       <c r="AI124" s="42"/>
       <c r="AJ124" s="32" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="AK124" s="32"/>
       <c r="AL124" s="32"/>
       <c r="AM124" s="32" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="AN124" s="32"/>
       <c r="AO124" s="32" t="s">
@@ -62565,14 +61990,14 @@
         <v>156</v>
       </c>
       <c r="AT124" s="32" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="AU124" s="42" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="AV124" s="42"/>
       <c r="AW124" s="42" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="AX124" s="42"/>
       <c r="AY124" s="42"/>
